--- a/Data/quarterly_tracker.xlsx
+++ b/Data/quarterly_tracker.xlsx
@@ -750,25 +750,25 @@
         <v>57</v>
       </c>
       <c r="G2">
-        <v>-3.486103133624416</v>
+        <v>-4.560089725053427</v>
       </c>
       <c r="H2">
-        <v>-6.164182738789763</v>
+        <v>-6.969142017215745</v>
       </c>
       <c r="I2">
-        <v>1.52342946066899</v>
+        <v>0.2043102187232979</v>
       </c>
       <c r="J2" t="s">
         <v>57</v>
       </c>
       <c r="K2">
-        <v>5.253412824716475</v>
+        <v>4.082174715531073</v>
       </c>
       <c r="L2">
-        <v>2.33282804457664</v>
+        <v>1.454978180566302</v>
       </c>
       <c r="M2">
-        <v>10.71656807308499</v>
+        <v>9.27800008810593</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -791,25 +791,25 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>-20.34196414766994</v>
+        <v>-19.64314051523669</v>
       </c>
       <c r="H3">
-        <v>-23.31368230520162</v>
+        <v>-22.70001504422594</v>
       </c>
       <c r="I3">
-        <v>-13.36427345425414</v>
+        <v>-12.25240979274149</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
       </c>
       <c r="K3">
-        <v>-17.1633856291811</v>
+        <v>-16.43667697846316</v>
       </c>
       <c r="L3">
-        <v>-20.25368365624463</v>
+        <v>-19.61552935447808</v>
       </c>
       <c r="M3">
-        <v>-9.907265553099299</v>
+        <v>-8.751035420430808</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -832,25 +832,25 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>-12.08230087644796</v>
+        <v>-11.94066611694803</v>
       </c>
       <c r="H4">
-        <v>-14.36452326978619</v>
+        <v>-14.05901356371707</v>
       </c>
       <c r="I4">
-        <v>-8.8128980497364</v>
+        <v>-7.495552556837601</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
       </c>
       <c r="K4">
-        <v>-8.550920600677014</v>
+        <v>-8.403596813813429</v>
       </c>
       <c r="L4">
-        <v>-10.92481276273189</v>
+        <v>-10.60703168285723</v>
       </c>
       <c r="M4">
-        <v>-5.150196040447663</v>
+        <v>-3.779936880148849</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -873,25 +873,25 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>-8.582092454876834</v>
+        <v>-7.980859442351568</v>
       </c>
       <c r="H5">
-        <v>-12.69618730585004</v>
+        <v>-11.49844570587902</v>
       </c>
       <c r="I5">
-        <v>-6.503516957707797</v>
+        <v>-5.323077593194975</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
       </c>
       <c r="K5">
-        <v>-6.230321739429723</v>
+        <v>-5.613621711414963</v>
       </c>
       <c r="L5">
-        <v>-10.45025370755981</v>
+        <v>-9.221699614772827</v>
       </c>
       <c r="M5">
-        <v>-4.098273863430801</v>
+        <v>-2.887467114634412</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -914,25 +914,25 @@
         <v>57</v>
       </c>
       <c r="G6">
-        <v>-3.300516700008119</v>
+        <v>-3.920362035269964</v>
       </c>
       <c r="H6">
-        <v>-7.015979592798034</v>
+        <v>-8.012805401512662</v>
       </c>
       <c r="I6">
-        <v>-1.119214913818377</v>
+        <v>-2.205586596331522</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>-1.09204730274125</v>
+        <v>-1.726048964461613</v>
       </c>
       <c r="L6">
-        <v>-4.892365727488368</v>
+        <v>-5.911957524374012</v>
       </c>
       <c r="M6">
-        <v>1.139072104769778</v>
+        <v>0.02788934226933826</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -955,25 +955,25 @@
         <v>57</v>
       </c>
       <c r="G7">
-        <v>-4.724644530116832</v>
+        <v>-7.029656115004413</v>
       </c>
       <c r="H7">
-        <v>-8.5548593268825</v>
+        <v>-10.56751527112225</v>
       </c>
       <c r="I7">
-        <v>-2.197457068664723</v>
+        <v>-4.743299487064029</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
       </c>
       <c r="K7">
-        <v>-3.172416114235932</v>
+        <v>-5.514981004103081</v>
       </c>
       <c r="L7">
-        <v>-7.065032863921594</v>
+        <v>-9.11047904791047</v>
       </c>
       <c r="M7">
-        <v>-0.6040556530025332</v>
+        <v>-3.191374998196861</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -996,25 +996,25 @@
         <v>58</v>
       </c>
       <c r="G8">
-        <v>3.597404570018811</v>
+        <v>3.629522235649332</v>
       </c>
       <c r="H8">
-        <v>2.509745096303023</v>
+        <v>2.326583109259059</v>
       </c>
       <c r="I8">
-        <v>4.687436562431783</v>
+        <v>4.789641131421044</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
       </c>
       <c r="K8">
-        <v>-0.2518142329588358</v>
+        <v>-0.2208899169393819</v>
       </c>
       <c r="L8">
-        <v>-1.299061118011424</v>
+        <v>-1.475417620232211</v>
       </c>
       <c r="M8">
-        <v>0.797717018547961</v>
+        <v>0.8961241203097714</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1037,25 +1037,25 @@
         <v>58</v>
       </c>
       <c r="G9">
-        <v>-5.788267715454825</v>
+        <v>-5.87663712991977</v>
       </c>
       <c r="H9">
-        <v>-8.482425661205383</v>
+        <v>-9.329368775422939</v>
       </c>
       <c r="I9">
-        <v>-3.363332235587003</v>
+        <v>-3.162009727230561</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
       </c>
       <c r="K9">
-        <v>-9.192379158463682</v>
+        <v>-9.277555559407935</v>
       </c>
       <c r="L9">
-        <v>-11.78919026990806</v>
+        <v>-12.60553115787657</v>
       </c>
       <c r="M9">
-        <v>-6.855062814932777</v>
+        <v>-6.661014604987081</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1078,25 +1078,25 @@
         <v>58</v>
       </c>
       <c r="G10">
-        <v>-0.6156927476437248</v>
+        <v>-1.130169310918151</v>
       </c>
       <c r="H10">
-        <v>-2.274654787857929</v>
+        <v>-2.678508001907544</v>
       </c>
       <c r="I10">
-        <v>1.68278183325508</v>
+        <v>1.635834145524097</v>
       </c>
       <c r="J10" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>-4.484535775090015</v>
+        <v>-4.978984739243031</v>
       </c>
       <c r="L10">
-        <v>-6.078917562148323</v>
+        <v>-6.467049534741564</v>
       </c>
       <c r="M10">
-        <v>-2.275536460477401</v>
+        <v>-2.320656563558898</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1119,25 +1119,25 @@
         <v>58</v>
       </c>
       <c r="G11">
-        <v>0.5034662288786567</v>
+        <v>1.431503764069792</v>
       </c>
       <c r="H11">
-        <v>-0.7056994695790125</v>
+        <v>-0.1834454357846039</v>
       </c>
       <c r="I11">
-        <v>3.581919115041618</v>
+        <v>4.208429187502813</v>
       </c>
       <c r="J11" t="s">
         <v>58</v>
       </c>
       <c r="K11">
-        <v>-3.843026828583318</v>
+        <v>-2.9551243141544</v>
       </c>
       <c r="L11">
-        <v>-4.999899501627326</v>
+        <v>-4.500231490159246</v>
       </c>
       <c r="M11">
-        <v>-0.8977083963799704</v>
+        <v>-0.2982931275366085</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1160,25 +1160,25 @@
         <v>58</v>
       </c>
       <c r="G12">
-        <v>3.113125512400229</v>
+        <v>2.371387557031822</v>
       </c>
       <c r="H12">
-        <v>1.790919845252434</v>
+        <v>1.37114242514564</v>
       </c>
       <c r="I12">
-        <v>6.582380790622755</v>
+        <v>5.284007402373209</v>
       </c>
       <c r="J12" t="s">
         <v>58</v>
       </c>
       <c r="K12">
-        <v>-1.398901069226688</v>
+        <v>-2.108182037624806</v>
       </c>
       <c r="L12">
-        <v>-2.663249629561926</v>
+        <v>-3.064658419404853</v>
       </c>
       <c r="M12">
-        <v>1.918546454590153</v>
+        <v>0.6769873197302267</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1201,25 +1201,25 @@
         <v>58</v>
       </c>
       <c r="G13">
-        <v>4.609709674550508</v>
+        <v>3.975460731849312</v>
       </c>
       <c r="H13">
-        <v>2.904701233127139</v>
+        <v>2.583508876398371</v>
       </c>
       <c r="I13">
-        <v>7.268485829060179</v>
+        <v>6.837121212243721</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13">
-        <v>-0.05871223037612339</v>
+        <v>-0.6646565188870412</v>
       </c>
       <c r="L13">
-        <v>-1.687631188511662</v>
+        <v>-1.994489680453759</v>
       </c>
       <c r="M13">
-        <v>2.481410609076806</v>
+        <v>2.069296519122732</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1242,25 +1242,25 @@
         <v>59</v>
       </c>
       <c r="G14">
-        <v>2.465428363429745</v>
+        <v>2.819020254023973</v>
       </c>
       <c r="H14">
-        <v>1.299330606662829</v>
+        <v>1.790840942682244</v>
       </c>
       <c r="I14">
-        <v>3.611633111567744</v>
+        <v>4.043203777573675</v>
       </c>
       <c r="J14" t="s">
         <v>59</v>
       </c>
       <c r="K14">
-        <v>-0.3510361545646656</v>
+        <v>-0.007163434910506528</v>
       </c>
       <c r="L14">
-        <v>-1.485081413148526</v>
+        <v>-1.007081208728966</v>
       </c>
       <c r="M14">
-        <v>0.763662893992012</v>
+        <v>1.183370988521637</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1283,25 +1283,25 @@
         <v>59</v>
       </c>
       <c r="G15">
-        <v>-12.76216373194478</v>
+        <v>-12.67174500166206</v>
       </c>
       <c r="H15">
-        <v>-14.58199425870546</v>
+        <v>-14.29671211698208</v>
       </c>
       <c r="I15">
-        <v>-9.542177165727418</v>
+        <v>-9.77013167467832</v>
       </c>
       <c r="J15" t="s">
         <v>59</v>
       </c>
       <c r="K15">
-        <v>-15.28671550602184</v>
+        <v>-15.19891337853111</v>
       </c>
       <c r="L15">
-        <v>-17.05388245718974</v>
+        <v>-16.77685601698087</v>
       </c>
       <c r="M15">
-        <v>-12.15991124631276</v>
+        <v>-12.38126904236248</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1324,25 +1324,25 @@
         <v>59</v>
       </c>
       <c r="G16">
-        <v>-3.836682827962534</v>
+        <v>-3.190558265273996</v>
       </c>
       <c r="H16">
-        <v>-6.463454270207101</v>
+        <v>-5.31863607442945</v>
       </c>
       <c r="I16">
-        <v>-2.01188299883303</v>
+        <v>-1.839988729478789</v>
       </c>
       <c r="J16" t="s">
         <v>59</v>
       </c>
       <c r="K16">
-        <v>-6.66166426687772</v>
+        <v>-6.034520849500103</v>
       </c>
       <c r="L16">
-        <v>-9.211269271993904</v>
+        <v>-8.100082301189682</v>
       </c>
       <c r="M16">
-        <v>-4.890471424264753</v>
+        <v>-4.723626877971887</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1365,25 +1365,25 @@
         <v>59</v>
       </c>
       <c r="G17">
-        <v>-4.339747666193902</v>
+        <v>-4.43514073386936</v>
       </c>
       <c r="H17">
-        <v>-6.341555627306178</v>
+        <v>-6.051477526415435</v>
       </c>
       <c r="I17">
-        <v>-1.413271249779018</v>
+        <v>-1.627765000396264</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
       </c>
       <c r="K17">
-        <v>-6.788353476735454</v>
+        <v>-6.88130477769906</v>
       </c>
       <c r="L17">
-        <v>-8.738921361791229</v>
+        <v>-8.456268360730601</v>
       </c>
       <c r="M17">
-        <v>-3.936785781370566</v>
+        <v>-4.145789157132295</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1406,25 +1406,25 @@
         <v>59</v>
       </c>
       <c r="G18">
-        <v>-6.121105295053241</v>
+        <v>-6.129611008642953</v>
       </c>
       <c r="H18">
-        <v>-7.704204880958447</v>
+        <v>-7.718092957032488</v>
       </c>
       <c r="I18">
-        <v>-1.984888319668274</v>
+        <v>-2.262712239054216</v>
       </c>
       <c r="J18" t="s">
         <v>59</v>
       </c>
       <c r="K18">
-        <v>-8.332834289991231</v>
+        <v>-8.341139614202387</v>
       </c>
       <c r="L18">
-        <v>-9.878637023744242</v>
+        <v>-9.892197905291411</v>
       </c>
       <c r="M18">
-        <v>-4.29406404150442</v>
+        <v>-4.565342600296541</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1447,25 +1447,25 @@
         <v>59</v>
       </c>
       <c r="G19">
-        <v>-5.428090598058148</v>
+        <v>-5.184012723516807</v>
       </c>
       <c r="H19">
-        <v>-7.639989895017759</v>
+        <v>-6.701293741103989</v>
       </c>
       <c r="I19">
-        <v>-2.214202626449742</v>
+        <v>-2.319953504191961</v>
       </c>
       <c r="J19" t="s">
         <v>59</v>
       </c>
       <c r="K19">
-        <v>-7.832152005312699</v>
+        <v>-7.59427870253332</v>
       </c>
       <c r="L19">
-        <v>-9.987823805437568</v>
+        <v>-9.07298973923073</v>
       </c>
       <c r="M19">
-        <v>-4.699962543215674</v>
+        <v>-4.803025185036979</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1488,25 +1488,25 @@
         <v>60</v>
       </c>
       <c r="G20">
-        <v>2.164238024739267</v>
+        <v>2.916752616915053</v>
       </c>
       <c r="H20">
-        <v>1.159614302171743</v>
+        <v>1.888999658638266</v>
       </c>
       <c r="I20">
-        <v>2.881456835531542</v>
+        <v>3.671798728637351</v>
       </c>
       <c r="J20" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>-0.368608088500888</v>
+        <v>0.3652502331755736</v>
       </c>
       <c r="L20">
-        <v>-1.348325274885387</v>
+        <v>-0.6370227710970511</v>
       </c>
       <c r="M20">
-        <v>0.3308295014612606</v>
+        <v>1.101577313205659</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1529,25 +1529,25 @@
         <v>60</v>
       </c>
       <c r="G21">
-        <v>-12.04771522000425</v>
+        <v>-12.76533098844984</v>
       </c>
       <c r="H21">
-        <v>-13.7869184152535</v>
+        <v>-14.6564027469557</v>
       </c>
       <c r="I21">
-        <v>-9.834183702750906</v>
+        <v>-9.804604860962414</v>
       </c>
       <c r="J21" t="s">
         <v>60</v>
       </c>
       <c r="K21">
-        <v>-14.21586679434241</v>
+        <v>-14.91579229172777</v>
       </c>
       <c r="L21">
-        <v>-15.91219610456064</v>
+        <v>-16.76024638452264</v>
       </c>
       <c r="M21">
-        <v>-12.05690204423997</v>
+        <v>-12.02805236386611</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1570,25 +1570,25 @@
         <v>60</v>
       </c>
       <c r="G22">
-        <v>-3.687992154966391</v>
+        <v>-3.380295785401061</v>
       </c>
       <c r="H22">
-        <v>-5.14380812364809</v>
+        <v>-4.769563875700971</v>
       </c>
       <c r="I22">
-        <v>-1.898399033529516</v>
+        <v>-1.370402151112878</v>
       </c>
       <c r="J22" t="s">
         <v>60</v>
       </c>
       <c r="K22">
-        <v>-6.157502027827255</v>
+        <v>-5.857695216786219</v>
       </c>
       <c r="L22">
-        <v>-7.575989817103612</v>
+        <v>-7.211341463644061</v>
       </c>
       <c r="M22">
-        <v>-4.413795374554386</v>
+        <v>-3.899336715907997</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1611,25 +1611,25 @@
         <v>60</v>
       </c>
       <c r="G23">
-        <v>-2.730513721816901</v>
+        <v>-2.814999290003221</v>
       </c>
       <c r="H23">
-        <v>-4.274516008765366</v>
+        <v>-4.201742375528628</v>
       </c>
       <c r="I23">
-        <v>-1.64779675277394</v>
+        <v>-1.892843735794399</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
       </c>
       <c r="K23">
-        <v>-4.718193420869854</v>
+        <v>-4.800952545798665</v>
       </c>
       <c r="L23">
-        <v>-6.230644374317063</v>
+        <v>-6.159357853626579</v>
       </c>
       <c r="M23">
-        <v>-3.657601525388332</v>
+        <v>-3.897641029371934</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1652,25 +1652,25 @@
         <v>60</v>
       </c>
       <c r="G24">
-        <v>-2.59937788654223</v>
+        <v>-2.443665185462139</v>
       </c>
       <c r="H24">
-        <v>-4.667000925889237</v>
+        <v>-4.02674794923026</v>
       </c>
       <c r="I24">
-        <v>-1.104000362223617</v>
+        <v>-1.220040662848442</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
       </c>
       <c r="K24">
-        <v>-4.817426465885277</v>
+        <v>-4.665259720959492</v>
       </c>
       <c r="L24">
-        <v>-6.8379647100274</v>
+        <v>-6.212291847688878</v>
       </c>
       <c r="M24">
-        <v>-3.356102317422227</v>
+        <v>-3.469500098745204</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1693,25 +1693,25 @@
         <v>60</v>
       </c>
       <c r="G25">
-        <v>-1.731745312238706</v>
+        <v>-2.696312628678928</v>
       </c>
       <c r="H25">
-        <v>-3.149040828432719</v>
+        <v>-3.97612770559804</v>
       </c>
       <c r="I25">
-        <v>-0.4293103026102546</v>
+        <v>-1.214011689473994</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
       </c>
       <c r="K25">
-        <v>-3.893592424093617</v>
+        <v>-4.836939794439743</v>
       </c>
       <c r="L25">
-        <v>-5.279708224843771</v>
+        <v>-6.088599649343996</v>
       </c>
       <c r="M25">
-        <v>-2.619810262456512</v>
+        <v>-3.387248653938379</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1734,25 +1734,25 @@
         <v>61</v>
       </c>
       <c r="G26">
-        <v>2.397501049491841</v>
+        <v>1.977245519694662</v>
       </c>
       <c r="H26">
-        <v>1.300519925472886</v>
+        <v>0.8315946832642213</v>
       </c>
       <c r="I26">
-        <v>3.535346764859634</v>
+        <v>3.298449841826952</v>
       </c>
       <c r="J26" t="s">
         <v>61</v>
       </c>
       <c r="K26">
-        <v>0.3404585172395391</v>
+        <v>-0.07135458485824087</v>
       </c>
       <c r="L26">
-        <v>-0.734485576519317</v>
+        <v>-1.193990675093781</v>
       </c>
       <c r="M26">
-        <v>1.455446281898931</v>
+        <v>1.223308332878736</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1775,25 +1775,25 @@
         <v>61</v>
       </c>
       <c r="G27">
-        <v>-10.21779111437903</v>
+        <v>-9.597309279333835</v>
       </c>
       <c r="H27">
-        <v>-15.02610850321077</v>
+        <v>-13.1275806255515</v>
       </c>
       <c r="I27">
-        <v>-7.614789898633306</v>
+        <v>-7.306396504325956</v>
       </c>
       <c r="J27" t="s">
         <v>61</v>
       </c>
       <c r="K27">
-        <v>-12.49368325242228</v>
+        <v>-11.88893003162824</v>
       </c>
       <c r="L27">
-        <v>-17.18011444711506</v>
+        <v>-15.32971241447843</v>
       </c>
       <c r="M27">
-        <v>-9.95666559929731</v>
+        <v>-9.65608967918936</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1816,25 +1816,25 @@
         <v>61</v>
       </c>
       <c r="G28">
-        <v>-4.169866231010408</v>
+        <v>-3.545823095377254</v>
       </c>
       <c r="H28">
-        <v>-7.598875058662854</v>
+        <v>-5.574762400353375</v>
       </c>
       <c r="I28">
-        <v>-1.654878650894322</v>
+        <v>-0.4533670861446813</v>
       </c>
       <c r="J28" t="s">
         <v>61</v>
       </c>
       <c r="K28">
-        <v>-6.536430179111729</v>
+        <v>-5.927798041342869</v>
       </c>
       <c r="L28">
-        <v>-9.880758245608135</v>
+        <v>-7.90663186881212</v>
       </c>
       <c r="M28">
-        <v>-4.083551235422811</v>
+        <v>-2.911711485169621</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1857,25 +1857,25 @@
         <v>61</v>
       </c>
       <c r="G29">
-        <v>-0.2273585059553518</v>
+        <v>0.2792227627812681</v>
       </c>
       <c r="H29">
-        <v>-1.341766972402211</v>
+        <v>-0.9850356774975775</v>
       </c>
       <c r="I29">
-        <v>1.689323422089343</v>
+        <v>2.421177195804293</v>
       </c>
       <c r="J29" t="s">
         <v>61</v>
       </c>
       <c r="K29">
-        <v>-3.015046555329548</v>
+        <v>-2.522619372600332</v>
       </c>
       <c r="L29">
-        <v>-4.098317997462775</v>
+        <v>-3.75155391955021</v>
       </c>
       <c r="M29">
-        <v>-1.151917497342725</v>
+        <v>-0.4405120147456865</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1898,25 +1898,25 @@
         <v>61</v>
       </c>
       <c r="G30">
-        <v>2.092756353796912</v>
+        <v>1.980225388703575</v>
       </c>
       <c r="H30">
-        <v>0.5856698641990922</v>
+        <v>0.4429417862892355</v>
       </c>
       <c r="I30">
-        <v>3.741282236028432</v>
+        <v>4.558040041607478</v>
       </c>
       <c r="J30" t="s">
         <v>61</v>
       </c>
       <c r="K30">
-        <v>-1.295460800086823</v>
+        <v>-1.404257128562547</v>
       </c>
       <c r="L30">
-        <v>-2.752530653061103</v>
+        <v>-2.890521923589273</v>
       </c>
       <c r="M30">
-        <v>0.2983544065563004</v>
+        <v>1.088005952041415</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1939,25 +1939,25 @@
         <v>61</v>
       </c>
       <c r="G31">
-        <v>-1.582078994658148</v>
+        <v>-1.873880941591135</v>
       </c>
       <c r="H31">
-        <v>-3.288922771170299</v>
+        <v>-3.608706090390287</v>
       </c>
       <c r="I31">
-        <v>0.4363307241551825</v>
+        <v>0.09705259725520296</v>
       </c>
       <c r="J31" t="s">
         <v>61</v>
       </c>
       <c r="K31">
-        <v>-4.858195769489293</v>
+        <v>-5.140284269485884</v>
       </c>
       <c r="L31">
-        <v>-6.508222459528501</v>
+        <v>-6.817360893287527</v>
       </c>
       <c r="M31">
-        <v>-2.906974484151681</v>
+        <v>-3.234958786192155</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1980,25 +1980,25 @@
         <v>62</v>
       </c>
       <c r="G32">
-        <v>6.320732516492278</v>
+        <v>7.030131315499354</v>
       </c>
       <c r="H32">
-        <v>3.227578965241191</v>
+        <v>4.339316462752215</v>
       </c>
       <c r="I32">
-        <v>8.476394461413033</v>
+        <v>9.289963385080059</v>
       </c>
       <c r="J32" t="s">
         <v>62</v>
       </c>
       <c r="K32">
-        <v>-0.01160934843934536</v>
+        <v>0.6555384651995677</v>
       </c>
       <c r="L32">
-        <v>-2.920538193335909</v>
+        <v>-1.875014516325157</v>
       </c>
       <c r="M32">
-        <v>2.015663823592329</v>
+        <v>2.780777507783405</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2021,25 +2021,25 @@
         <v>62</v>
       </c>
       <c r="G33">
-        <v>-6.898998926293158</v>
+        <v>-7.815581097196123</v>
       </c>
       <c r="H33">
-        <v>-10.83353200844702</v>
+        <v>-12.66973338931818</v>
       </c>
       <c r="I33">
-        <v>-4.154962290271978</v>
+        <v>-5.416885279392297</v>
       </c>
       <c r="J33" t="s">
         <v>62</v>
       </c>
       <c r="K33">
-        <v>-12.46544653691675</v>
+        <v>-13.32722686276626</v>
       </c>
       <c r="L33">
-        <v>-16.16473647429781</v>
+        <v>-17.89115258249418</v>
       </c>
       <c r="M33">
-        <v>-9.885474046284848</v>
+        <v>-11.07194749000211</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2062,25 +2062,25 @@
         <v>62</v>
       </c>
       <c r="G34">
-        <v>-1.052102869227854</v>
+        <v>-1.088500091197701</v>
       </c>
       <c r="H34">
-        <v>-2.740934778629354</v>
+        <v>-3.004825652053677</v>
       </c>
       <c r="I34">
-        <v>1.753620473994286</v>
+        <v>2.302913370353484</v>
       </c>
       <c r="J34" t="s">
         <v>62</v>
       </c>
       <c r="K34">
-        <v>-6.957142227632074</v>
+        <v>-6.991367326348152</v>
       </c>
       <c r="L34">
-        <v>-8.545187569719614</v>
+        <v>-8.793329892249169</v>
       </c>
       <c r="M34">
-        <v>-4.318859600695435</v>
+        <v>-3.802347554322416</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2103,25 +2103,25 @@
         <v>62</v>
       </c>
       <c r="G35">
-        <v>-1.055298098258312</v>
+        <v>-1.589177143284876</v>
       </c>
       <c r="H35">
-        <v>-2.498068618269116</v>
+        <v>-3.625731405420674</v>
       </c>
       <c r="I35">
-        <v>1.553968750206842</v>
+        <v>1.496995741331963</v>
       </c>
       <c r="J35" t="s">
         <v>62</v>
       </c>
       <c r="K35">
-        <v>-6.853525454849308</v>
+        <v>-7.356118821871027</v>
       </c>
       <c r="L35">
-        <v>-8.211748633389337</v>
+        <v>-9.273329608217439</v>
       </c>
       <c r="M35">
-        <v>-4.397163432318552</v>
+        <v>-4.450797783819205</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2144,25 +2144,25 @@
         <v>62</v>
       </c>
       <c r="G36">
-        <v>2.369434212459082</v>
+        <v>2.502809556539931</v>
       </c>
       <c r="H36">
-        <v>0.2906363376195717</v>
+        <v>0.8402771754533906</v>
       </c>
       <c r="I36">
-        <v>6.283201982838725</v>
+        <v>5.950699760483163</v>
       </c>
       <c r="J36" t="s">
         <v>62</v>
       </c>
       <c r="K36">
-        <v>-3.192545504676403</v>
+        <v>-3.066416766618629</v>
       </c>
       <c r="L36">
-        <v>-5.15839724764724</v>
+        <v>-4.638619730005233</v>
       </c>
       <c r="M36">
-        <v>0.5085777676272496</v>
+        <v>0.1941411976890794</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2185,25 +2185,25 @@
         <v>62</v>
       </c>
       <c r="G37">
-        <v>2.047317050077565</v>
+        <v>-0.0825166984630092</v>
       </c>
       <c r="H37">
-        <v>0.3028651925998093</v>
+        <v>-2.168210815650628</v>
       </c>
       <c r="I37">
-        <v>4.983383397808044</v>
+        <v>2.633809308057647</v>
       </c>
       <c r="J37" t="s">
         <v>62</v>
       </c>
       <c r="K37">
-        <v>-3.321133209287586</v>
+        <v>-5.338921811808827</v>
       </c>
       <c r="L37">
-        <v>-4.973813883578515</v>
+        <v>-7.314892856915312</v>
       </c>
       <c r="M37">
-        <v>-0.5395258576544992</v>
+        <v>-2.765494819939085</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2226,25 +2226,25 @@
         <v>63</v>
       </c>
       <c r="G38">
-        <v>3.540850072071202</v>
+        <v>3.359826013729961</v>
       </c>
       <c r="H38">
-        <v>2.757423994524343</v>
+        <v>2.551525760700311</v>
       </c>
       <c r="I38">
-        <v>4.174797703299026</v>
+        <v>4.017852479570583</v>
       </c>
       <c r="J38" t="s">
         <v>63</v>
       </c>
       <c r="K38">
-        <v>0.2836643316681764</v>
+        <v>0.1083349240960763</v>
       </c>
       <c r="L38">
-        <v>-0.4751167458939554</v>
+        <v>-0.6745378376941558</v>
       </c>
       <c r="M38">
-        <v>0.8976692525245689</v>
+        <v>0.7456612081258029</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2267,25 +2267,25 @@
         <v>63</v>
       </c>
       <c r="G39">
-        <v>-9.526035565804172</v>
+        <v>-9.938734475169817</v>
       </c>
       <c r="H39">
-        <v>-11.02634220215085</v>
+        <v>-11.72265870050603</v>
       </c>
       <c r="I39">
-        <v>-6.054085068239959</v>
+        <v>-6.81095421629766</v>
       </c>
       <c r="J39" t="s">
         <v>63</v>
       </c>
       <c r="K39">
-        <v>-12.19374207845869</v>
+        <v>-12.59427218793627</v>
       </c>
       <c r="L39">
-        <v>-13.64981081929819</v>
+        <v>-14.32559579713089</v>
       </c>
       <c r="M39">
-        <v>-8.824165175462706</v>
+        <v>-9.558717353460267</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2308,25 +2308,25 @@
         <v>63</v>
       </c>
       <c r="G40">
-        <v>-3.796152080683179</v>
+        <v>-3.847514251619269</v>
       </c>
       <c r="H40">
-        <v>-5.100342700781263</v>
+        <v>-5.089435704573632</v>
       </c>
       <c r="I40">
-        <v>-0.7909552836386295</v>
+        <v>-0.970263394633507</v>
       </c>
       <c r="J40" t="s">
         <v>63</v>
       </c>
       <c r="K40">
-        <v>-6.571553036019884</v>
+        <v>-6.621433451066084</v>
       </c>
       <c r="L40">
-        <v>-7.838118842025321</v>
+        <v>-7.827526503581894</v>
       </c>
       <c r="M40">
-        <v>-3.653053665761086</v>
+        <v>-3.827188886967059</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2349,25 +2349,25 @@
         <v>63</v>
       </c>
       <c r="G41">
-        <v>-1.415375771797707</v>
+        <v>-1.601485490601332</v>
       </c>
       <c r="H41">
-        <v>-2.377263488517975</v>
+        <v>-3.024160004527521</v>
       </c>
       <c r="I41">
-        <v>0.3595392136805097</v>
+        <v>-0.1551593866987246</v>
       </c>
       <c r="J41" t="s">
         <v>63</v>
       </c>
       <c r="K41">
-        <v>-4.633636050843082</v>
+        <v>-4.813670283532523</v>
       </c>
       <c r="L41">
-        <v>-5.564123282387722</v>
+        <v>-6.1899020898456</v>
       </c>
       <c r="M41">
-        <v>-2.916662538907688</v>
+        <v>-3.41455898505395</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2390,25 +2390,25 @@
         <v>63</v>
       </c>
       <c r="G42">
-        <v>-0.9886997741397473</v>
+        <v>-0.7897541599899183</v>
       </c>
       <c r="H42">
-        <v>-3.112511896355911</v>
+        <v>-2.338656339872752</v>
       </c>
       <c r="I42">
-        <v>0.1131172810703572</v>
+        <v>0.1199427567437599</v>
       </c>
       <c r="J42" t="s">
         <v>63</v>
       </c>
       <c r="K42">
-        <v>-4.500791517502623</v>
+        <v>-4.308902827635574</v>
       </c>
       <c r="L42">
-        <v>-6.549268571884359</v>
+        <v>-5.802862929747155</v>
       </c>
       <c r="M42">
-        <v>-3.438057704038389</v>
+        <v>-3.431474339080642</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2431,25 +2431,25 @@
         <v>63</v>
       </c>
       <c r="G43">
-        <v>-0.5434087292964195</v>
+        <v>-0.5042759391716252</v>
       </c>
       <c r="H43">
-        <v>-3.15318230880769</v>
+        <v>-2.830183179576185</v>
       </c>
       <c r="I43">
-        <v>0.6007347976950792</v>
+        <v>0.4480545657443988</v>
       </c>
       <c r="J43" t="s">
         <v>63</v>
       </c>
       <c r="K43">
-        <v>-3.593704483150684</v>
+        <v>-3.555771880786485</v>
       </c>
       <c r="L43">
-        <v>-6.123437301497747</v>
+        <v>-5.810344432472892</v>
       </c>
       <c r="M43">
-        <v>-2.484651402127558</v>
+        <v>-2.632648989546915</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2472,25 +2472,25 @@
         <v>64</v>
       </c>
       <c r="G44">
-        <v>3.645396094822585</v>
+        <v>3.1321163412361</v>
       </c>
       <c r="H44">
-        <v>1.797675669725024</v>
+        <v>1.471097150853095</v>
       </c>
       <c r="I44">
-        <v>6.054597637289542</v>
+        <v>5.229202440960647</v>
       </c>
       <c r="J44" t="s">
         <v>64</v>
       </c>
       <c r="K44">
-        <v>-0.8214095312905734</v>
+        <v>-1.312568467383246</v>
       </c>
       <c r="L44">
-        <v>-2.589498749395036</v>
+        <v>-2.902002713868712</v>
       </c>
       <c r="M44">
-        <v>1.483962652518844</v>
+        <v>0.6941395128913896</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2513,25 +2513,25 @@
         <v>64</v>
       </c>
       <c r="G45">
-        <v>-11.35600648678308</v>
+        <v>-10.94867583893969</v>
       </c>
       <c r="H45">
-        <v>-14.55608922950563</v>
+        <v>-14.57228162739418</v>
       </c>
       <c r="I45">
-        <v>-9.302416561567799</v>
+        <v>-7.701688667776986</v>
       </c>
       <c r="J45" t="s">
         <v>64</v>
       </c>
       <c r="K45">
-        <v>-14.98900947426415</v>
+        <v>-14.59837294637021</v>
       </c>
       <c r="L45">
-        <v>-18.05793939203231</v>
+        <v>-18.07346815747863</v>
       </c>
       <c r="M45">
-        <v>-13.01958428528964</v>
+        <v>-11.48446094054725</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2554,25 +2554,25 @@
         <v>64</v>
       </c>
       <c r="G46">
-        <v>-7.213471365130877</v>
+        <v>-7.15749118770215</v>
       </c>
       <c r="H46">
-        <v>-10.05128748684794</v>
+        <v>-10.61419475623425</v>
       </c>
       <c r="I46">
-        <v>-0.4373096662696189</v>
+        <v>0.9725532809246884</v>
       </c>
       <c r="J46" t="s">
         <v>64</v>
       </c>
       <c r="K46">
-        <v>-11.72936878974087</v>
+        <v>-11.67611315371702</v>
       </c>
       <c r="L46">
-        <v>-14.42906910193121</v>
+        <v>-14.96457981358963</v>
       </c>
       <c r="M46">
-        <v>-5.28300120662939</v>
+        <v>-3.941755940751113</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2595,25 +2595,25 @@
         <v>64</v>
       </c>
       <c r="G47">
-        <v>-3.192678130861245</v>
+        <v>-2.922094275413794</v>
       </c>
       <c r="H47">
-        <v>-5.669653916365817</v>
+        <v>-5.965246607047458</v>
       </c>
       <c r="I47">
-        <v>1.845992802778403</v>
+        <v>3.383025823303341</v>
       </c>
       <c r="J47" t="s">
         <v>64</v>
       </c>
       <c r="K47">
-        <v>-7.586848269329316</v>
+        <v>-7.328546454894891</v>
       </c>
       <c r="L47">
-        <v>-9.951391928624609</v>
+        <v>-10.233567405097</v>
       </c>
       <c r="M47">
-        <v>-2.776887075063472</v>
+        <v>-1.309621345588674</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2636,25 +2636,25 @@
         <v>64</v>
       </c>
       <c r="G48">
-        <v>1.195208977098315</v>
+        <v>0.9017017611280053</v>
       </c>
       <c r="H48">
-        <v>-2.354102634740566</v>
+        <v>-2.97415414552405</v>
       </c>
       <c r="I48">
-        <v>4.425332649512228</v>
+        <v>5.03997956071052</v>
       </c>
       <c r="J48" t="s">
         <v>64</v>
       </c>
       <c r="K48">
-        <v>-4.244623280850179</v>
+        <v>-4.522352773373739</v>
       </c>
       <c r="L48">
-        <v>-7.60313870782261</v>
+        <v>-8.189858836181541</v>
       </c>
       <c r="M48">
-        <v>-1.18813758130053</v>
+        <v>-0.6065315238005797</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2677,25 +2677,25 @@
         <v>64</v>
       </c>
       <c r="G49">
-        <v>-2.091415300836647</v>
+        <v>-3.009661174863128</v>
       </c>
       <c r="H49">
-        <v>-6.225995843782398</v>
+        <v>-6.889103190018218</v>
       </c>
       <c r="I49">
-        <v>3.309901614608919</v>
+        <v>2.175912882599642</v>
       </c>
       <c r="J49" t="s">
         <v>64</v>
       </c>
       <c r="K49">
-        <v>-7.426814850352736</v>
+        <v>-8.295022123191387</v>
       </c>
       <c r="L49">
-        <v>-11.33608686459232</v>
+        <v>-11.96305904814289</v>
       </c>
       <c r="M49">
-        <v>-2.319835596165465</v>
+        <v>-3.392029103695615</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2718,25 +2718,25 @@
         <v>65</v>
       </c>
       <c r="G50">
-        <v>5.372005370519765</v>
+        <v>4.517237935556778</v>
       </c>
       <c r="H50">
-        <v>3.344861373637108</v>
+        <v>2.33043071323259</v>
       </c>
       <c r="I50">
-        <v>7.127328226394011</v>
+        <v>6.170154169233459</v>
       </c>
       <c r="J50" t="s">
         <v>65</v>
       </c>
       <c r="K50">
-        <v>-1.291574931194661</v>
+        <v>-2.092288052375357</v>
       </c>
       <c r="L50">
-        <v>-3.190525137336908</v>
+        <v>-4.140804601772851</v>
       </c>
       <c r="M50">
-        <v>0.3527437280296031</v>
+        <v>-0.5438999617892737</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2759,25 +2759,25 @@
         <v>65</v>
       </c>
       <c r="G51">
-        <v>-10.30113298979063</v>
+        <v>-10.12085174180664</v>
       </c>
       <c r="H51">
-        <v>-12.5298406964207</v>
+        <v>-12.07605752830567</v>
       </c>
       <c r="I51">
-        <v>-7.744878879449731</v>
+        <v>-7.410240961988809</v>
       </c>
       <c r="J51" t="s">
         <v>65</v>
       </c>
       <c r="K51">
-        <v>-16.08887286883802</v>
+        <v>-15.92022410856743</v>
       </c>
       <c r="L51">
-        <v>-18.17377518636618</v>
+        <v>-17.74927197491149</v>
       </c>
       <c r="M51">
-        <v>-13.69755878894049</v>
+        <v>-13.38451308645938</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2800,25 +2800,25 @@
         <v>65</v>
       </c>
       <c r="G52">
-        <v>-7.289248218594394</v>
+        <v>-7.709449770112932</v>
       </c>
       <c r="H52">
-        <v>-9.202958317547633</v>
+        <v>-9.329972606069653</v>
       </c>
       <c r="I52">
-        <v>-3.461324073961324</v>
+        <v>-4.885548617953237</v>
       </c>
       <c r="J52" t="s">
         <v>65</v>
       </c>
       <c r="K52">
-        <v>-13.36978739526755</v>
+        <v>-13.76242955429911</v>
       </c>
       <c r="L52">
-        <v>-15.15798465988506</v>
+        <v>-15.27666857309984</v>
       </c>
       <c r="M52">
-        <v>-9.792921971220148</v>
+        <v>-11.12373714283914</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2841,25 +2841,25 @@
         <v>65</v>
       </c>
       <c r="G53">
-        <v>-0.5819305365898247</v>
+        <v>-0.7278476935167392</v>
       </c>
       <c r="H53">
-        <v>-2.142865404818306</v>
+        <v>-2.560995543623319</v>
       </c>
       <c r="I53">
-        <v>1.664148628056744</v>
+        <v>1.532572875189968</v>
       </c>
       <c r="J53" t="s">
         <v>65</v>
       </c>
       <c r="K53">
-        <v>-7.376468517466339</v>
+        <v>-7.51241324513413</v>
       </c>
       <c r="L53">
-        <v>-8.830724274894376</v>
+        <v>-9.220278108361802</v>
       </c>
       <c r="M53">
-        <v>-5.283893341326229</v>
+        <v>-5.406476800789594</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2882,25 +2882,25 @@
         <v>65</v>
       </c>
       <c r="G54">
-        <v>0.9923010129451438</v>
+        <v>0.9612330452562272</v>
       </c>
       <c r="H54">
-        <v>-1.990065973403728</v>
+        <v>-1.741132891284298</v>
       </c>
       <c r="I54">
-        <v>3.228148713093835</v>
+        <v>2.661917542704383</v>
       </c>
       <c r="J54" t="s">
         <v>65</v>
       </c>
       <c r="K54">
-        <v>-5.925898797120133</v>
+        <v>-5.954838539132334</v>
       </c>
       <c r="L54">
-        <v>-8.703966935818642</v>
+        <v>-8.472086329820305</v>
       </c>
       <c r="M54">
-        <v>-3.843211694159154</v>
+        <v>-4.370654755592273</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2923,25 +2923,25 @@
         <v>65</v>
       </c>
       <c r="G55">
-        <v>-2.503243116466118</v>
+        <v>-2.559233292268937</v>
       </c>
       <c r="H55">
-        <v>-5.144115497376778</v>
+        <v>-4.880609491503033</v>
       </c>
       <c r="I55">
-        <v>-0.1833218196267553</v>
+        <v>-0.6685341068512767</v>
       </c>
       <c r="J55" t="s">
         <v>65</v>
       </c>
       <c r="K55">
-        <v>-8.684631253581887</v>
+        <v>-8.737071598399904</v>
       </c>
       <c r="L55">
-        <v>-11.15806978613902</v>
+        <v>-10.91127031441915</v>
       </c>
       <c r="M55">
-        <v>-6.511795197746551</v>
+        <v>-6.966244559391765</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2964,25 +2964,25 @@
         <v>66</v>
       </c>
       <c r="G56">
-        <v>4.883908111332838</v>
+        <v>3.715260178139285</v>
       </c>
       <c r="H56">
-        <v>3.876889315428647</v>
+        <v>2.41429480500104</v>
       </c>
       <c r="I56">
-        <v>6.143625024506939</v>
+        <v>5.108545144304654</v>
       </c>
       <c r="J56" t="s">
         <v>66</v>
       </c>
       <c r="K56">
-        <v>-0.06837998914557275</v>
+        <v>-1.181848044344302</v>
       </c>
       <c r="L56">
-        <v>-1.027850526315721</v>
+        <v>-2.421385926339792</v>
       </c>
       <c r="M56">
-        <v>1.131857055367824</v>
+        <v>0.1456503899996964</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3005,25 +3005,25 @@
         <v>66</v>
       </c>
       <c r="G57">
-        <v>-7.674371370447966</v>
+        <v>-7.587546697475923</v>
       </c>
       <c r="H57">
-        <v>-9.714406952653578</v>
+        <v>-9.737366443873601</v>
       </c>
       <c r="I57">
-        <v>-4.65778167525542</v>
+        <v>-3.377785487109489</v>
       </c>
       <c r="J57" t="s">
         <v>66</v>
       </c>
       <c r="K57">
-        <v>-11.95665786914528</v>
+        <v>-11.87386033501151</v>
       </c>
       <c r="L57">
-        <v>-13.90207165499581</v>
+        <v>-13.92396622934791</v>
       </c>
       <c r="M57">
-        <v>-9.079984917716978</v>
+        <v>-7.859358056119293</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3046,25 +3046,25 @@
         <v>66</v>
       </c>
       <c r="G58">
-        <v>-1.101967626319803</v>
+        <v>-1.650720900943164</v>
       </c>
       <c r="H58">
-        <v>-3.413356546596525</v>
+        <v>-3.815221968471448</v>
       </c>
       <c r="I58">
-        <v>3.249068133019054</v>
+        <v>3.992139949755082</v>
       </c>
       <c r="J58" t="s">
         <v>66</v>
       </c>
       <c r="K58">
-        <v>-5.66979033956776</v>
+        <v>-6.193198239650988</v>
       </c>
       <c r="L58">
-        <v>-7.874422688901839</v>
+        <v>-8.257727074144871</v>
       </c>
       <c r="M58">
-        <v>-1.519716717600517</v>
+        <v>-0.8109653038148368</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3087,25 +3087,25 @@
         <v>66</v>
       </c>
       <c r="G59">
-        <v>-1.876935565740855</v>
+        <v>-2.313864528594423</v>
       </c>
       <c r="H59">
-        <v>-3.213400198400575</v>
+        <v>-3.731725082345698</v>
       </c>
       <c r="I59">
-        <v>1.354719928178545</v>
+        <v>1.877210293053434</v>
       </c>
       <c r="J59" t="s">
         <v>66</v>
       </c>
       <c r="K59">
-        <v>-6.083751580149599</v>
+        <v>-6.501948150484759</v>
       </c>
       <c r="L59">
-        <v>-7.362918157028242</v>
+        <v>-7.859020972848829</v>
       </c>
       <c r="M59">
-        <v>-2.990646386949558</v>
+        <v>-2.4905566762634</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3128,25 +3128,25 @@
         <v>66</v>
       </c>
       <c r="G60">
-        <v>-2.806168893439096</v>
+        <v>-3.16564394145556</v>
       </c>
       <c r="H60">
-        <v>-3.864407412078743</v>
+        <v>-4.405391068420859</v>
       </c>
       <c r="I60">
-        <v>0.7166986526646554</v>
+        <v>1.213553005436436</v>
       </c>
       <c r="J60" t="s">
         <v>66</v>
       </c>
       <c r="K60">
-        <v>-6.970617176493354</v>
+        <v>-7.314689855558321</v>
       </c>
       <c r="L60">
-        <v>-7.983513521336194</v>
+        <v>-8.501317738889192</v>
       </c>
       <c r="M60">
-        <v>-3.598693363513095</v>
+        <v>-3.123127648433355</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3169,25 +3169,25 @@
         <v>66</v>
       </c>
       <c r="G61">
-        <v>-2.306286836239883</v>
+        <v>-3.671674599714886</v>
       </c>
       <c r="H61">
-        <v>-4.197979698398687</v>
+        <v>-5.330177809919081</v>
       </c>
       <c r="I61">
-        <v>0.8069336109455838</v>
+        <v>2.081588510933574</v>
       </c>
       <c r="J61" t="s">
         <v>66</v>
       </c>
       <c r="K61">
-        <v>-6.357923087497619</v>
+        <v>-7.666684335505403</v>
       </c>
       <c r="L61">
-        <v>-8.171162064259319</v>
+        <v>-9.256404698669819</v>
       </c>
       <c r="M61">
-        <v>-3.373816750253189</v>
+        <v>-2.15202541572288</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3210,25 +3210,25 @@
         <v>67</v>
       </c>
       <c r="G62">
-        <v>3.825610936623162</v>
+        <v>3.448458846066962</v>
       </c>
       <c r="H62">
-        <v>2.699194779096206</v>
+        <v>2.742532336955687</v>
       </c>
       <c r="I62">
-        <v>4.765462780612538</v>
+        <v>4.244995530310453</v>
       </c>
       <c r="J62" t="s">
         <v>67</v>
       </c>
       <c r="K62">
-        <v>0.1740710606343843</v>
+        <v>-0.1898166158186276</v>
       </c>
       <c r="L62">
-        <v>-0.9127291150643591</v>
+        <v>-0.87091573625111</v>
       </c>
       <c r="M62">
-        <v>1.080868377374755</v>
+        <v>0.5787059258740568</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3251,25 +3251,25 @@
         <v>67</v>
       </c>
       <c r="G63">
-        <v>-3.806214987082619</v>
+        <v>-4.020670136256626</v>
       </c>
       <c r="H63">
-        <v>-5.580649613451394</v>
+        <v>-6.133257275778457</v>
       </c>
       <c r="I63">
-        <v>-1.918747241147332</v>
+        <v>-2.468006415202712</v>
       </c>
       <c r="J63" t="s">
         <v>67</v>
       </c>
       <c r="K63">
-        <v>-7.042298800757896</v>
+        <v>-7.249539400292237</v>
       </c>
       <c r="L63">
-        <v>-8.757039142594181</v>
+        <v>-9.291056365724693</v>
       </c>
       <c r="M63">
-        <v>-5.218327920245192</v>
+        <v>-5.749109302596733</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3292,25 +3292,25 @@
         <v>67</v>
       </c>
       <c r="G64">
-        <v>-1.010591503914402</v>
+        <v>-0.5360284024645083</v>
       </c>
       <c r="H64">
-        <v>-2.478071074426051</v>
+        <v>-2.84275136509672</v>
       </c>
       <c r="I64">
-        <v>0.7072198312856175</v>
+        <v>0.9157443244816629</v>
       </c>
       <c r="J64" t="s">
         <v>67</v>
       </c>
       <c r="K64">
-        <v>-3.993641798034353</v>
+        <v>-3.533379677071824</v>
       </c>
       <c r="L64">
-        <v>-5.416898805436099</v>
+        <v>-5.770589439083129</v>
       </c>
       <c r="M64">
-        <v>-2.327596784974895</v>
+        <v>-2.125356186795579</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3333,25 +3333,25 @@
         <v>67</v>
       </c>
       <c r="G65">
-        <v>0.3516643276747802</v>
+        <v>-0.1384437706713511</v>
       </c>
       <c r="H65">
-        <v>-2.253995625226298</v>
+        <v>-2.529271136664771</v>
       </c>
       <c r="I65">
-        <v>2.041304377624798</v>
+        <v>1.573865588767384</v>
       </c>
       <c r="J65" t="s">
         <v>67</v>
       </c>
       <c r="K65">
-        <v>-2.174979550805012</v>
+        <v>-2.652747757882001</v>
       </c>
       <c r="L65">
-        <v>-4.715034465528534</v>
+        <v>-4.983379118465237</v>
       </c>
       <c r="M65">
-        <v>-0.5278810841724324</v>
+        <v>-0.9835507473024085</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3374,25 +3374,25 @@
         <v>67</v>
       </c>
       <c r="G66">
-        <v>-0.1260495823157437</v>
+        <v>0.04754945784812264</v>
       </c>
       <c r="H66">
-        <v>-2.052521801087396</v>
+        <v>-1.376801132452087</v>
       </c>
       <c r="I66">
-        <v>2.115284677973915</v>
+        <v>2.287530636284908</v>
       </c>
       <c r="J66" t="s">
         <v>67</v>
       </c>
       <c r="K66">
-        <v>-2.62400451694349</v>
+        <v>-2.454747375515076</v>
       </c>
       <c r="L66">
-        <v>-4.502293593212226</v>
+        <v>-3.843473425374067</v>
       </c>
       <c r="M66">
-        <v>-0.4387284375130696</v>
+        <v>-0.2707905359048746</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3415,25 +3415,25 @@
         <v>67</v>
       </c>
       <c r="G67">
-        <v>0.3274853414256509</v>
+        <v>-0.5354657672609512</v>
       </c>
       <c r="H67">
-        <v>-1.944061620095484</v>
+        <v>-2.319064132576724</v>
       </c>
       <c r="I67">
-        <v>2.941146095880777</v>
+        <v>1.418366992769364</v>
       </c>
       <c r="J67" t="s">
         <v>67</v>
       </c>
       <c r="K67">
-        <v>-1.641903720217253</v>
+        <v>-2.487915438183608</v>
       </c>
       <c r="L67">
-        <v>-3.868861108663746</v>
+        <v>-4.23650246937629</v>
       </c>
       <c r="M67">
-        <v>0.9204519020185931</v>
+        <v>-0.5724356464629099</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3456,25 +3456,25 @@
         <v>68</v>
       </c>
       <c r="G68">
-        <v>8.382475878679063</v>
+        <v>6.528376046608797</v>
       </c>
       <c r="H68">
-        <v>5.685748106277174</v>
+        <v>3.913275552922701</v>
       </c>
       <c r="I68">
-        <v>10.48403206024097</v>
+        <v>9.054060494546782</v>
       </c>
       <c r="J68" t="s">
         <v>68</v>
       </c>
       <c r="K68">
-        <v>1.884826011375962</v>
+        <v>0.1418815245785243</v>
       </c>
       <c r="L68">
-        <v>-0.6502299343727369</v>
+        <v>-2.31644078852048</v>
       </c>
       <c r="M68">
-        <v>3.860391564530929</v>
+        <v>2.51614838323424</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3497,25 +3497,25 @@
         <v>68</v>
       </c>
       <c r="G69">
-        <v>-2.782098008146777</v>
+        <v>-2.591975186598731</v>
       </c>
       <c r="H69">
-        <v>-5.353068061289104</v>
+        <v>-6.318963024460025</v>
       </c>
       <c r="I69">
-        <v>0.8488582819128579</v>
+        <v>1.033540719621616</v>
       </c>
       <c r="J69" t="s">
         <v>68</v>
       </c>
       <c r="K69">
-        <v>-8.101097889077424</v>
+        <v>-7.921377094773918</v>
       </c>
       <c r="L69">
-        <v>-10.53140465771803</v>
+        <v>-11.44445343629912</v>
       </c>
       <c r="M69">
-        <v>-4.668799003454582</v>
+        <v>-4.494220937924787</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3538,25 +3538,25 @@
         <v>68</v>
       </c>
       <c r="G70">
-        <v>1.872695327244754</v>
+        <v>2.594761366516847</v>
       </c>
       <c r="H70">
-        <v>-0.4333455934822512</v>
+        <v>0.2323688949925337</v>
       </c>
       <c r="I70">
-        <v>6.457871458201716</v>
+        <v>5.885192641927224</v>
       </c>
       <c r="J70" t="s">
         <v>68</v>
       </c>
       <c r="K70">
-        <v>-3.035241807695344</v>
+        <v>-2.347962859474861</v>
       </c>
       <c r="L70">
-        <v>-5.230184226187051</v>
+        <v>-4.596541971089008</v>
       </c>
       <c r="M70">
-        <v>1.329033559508641</v>
+        <v>0.7839447821524015</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3579,25 +3579,25 @@
         <v>68</v>
       </c>
       <c r="G71">
-        <v>4.814388332817475</v>
+        <v>5.844242150205516</v>
       </c>
       <c r="H71">
-        <v>1.914435940297933</v>
+        <v>3.087229029045273</v>
       </c>
       <c r="I71">
-        <v>10.2257575208358</v>
+        <v>11.10785256246002</v>
       </c>
       <c r="J71" t="s">
         <v>68</v>
       </c>
       <c r="K71">
-        <v>0.3767931357298249</v>
+        <v>1.363045359611159</v>
       </c>
       <c r="L71">
-        <v>-2.400382078832364</v>
+        <v>-1.277242296855063</v>
       </c>
       <c r="M71">
-        <v>5.559057653097721</v>
+        <v>6.403806860983385</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="G72">
-        <v>3.17821039474387</v>
+        <v>3.866526460093826</v>
       </c>
       <c r="H72">
-        <v>0.4232037673135371</v>
+        <v>0.766968005244291</v>
       </c>
       <c r="I72">
-        <v>8.028127317030322</v>
+        <v>6.851671607409768</v>
       </c>
       <c r="J72" t="s">
         <v>68</v>
       </c>
       <c r="K72">
-        <v>-0.8451144540780442</v>
+        <v>-0.1836385434368148</v>
       </c>
       <c r="L72">
-        <v>-3.492692520958596</v>
+        <v>-3.162333004773943</v>
       </c>
       <c r="M72">
-        <v>3.815685103277366</v>
+        <v>2.685104035908736</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3661,25 +3661,25 @@
         <v>68</v>
       </c>
       <c r="G73">
-        <v>9.861381959694814</v>
+        <v>4.293585952100262</v>
       </c>
       <c r="H73">
-        <v>5.217001616022016</v>
+        <v>0.9891848481413046</v>
       </c>
       <c r="I73">
-        <v>14.34847684280536</v>
+        <v>7.007293196043788</v>
       </c>
       <c r="J73" t="s">
         <v>68</v>
       </c>
       <c r="K73">
-        <v>5.502632762781579</v>
+        <v>0.155739004401223</v>
       </c>
       <c r="L73">
-        <v>1.042518161374506</v>
+        <v>-3.017560019816501</v>
       </c>
       <c r="M73">
-        <v>9.811702202653038</v>
+        <v>2.761779941411402</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3702,25 +3702,25 @@
         <v>69</v>
       </c>
       <c r="G74">
-        <v>2.537936018592227</v>
+        <v>2.301349343343125</v>
       </c>
       <c r="H74">
-        <v>1.388590382822055</v>
+        <v>0.952150691064745</v>
       </c>
       <c r="I74">
-        <v>3.696035375536441</v>
+        <v>3.694151338599098</v>
       </c>
       <c r="J74" t="s">
         <v>69</v>
       </c>
       <c r="K74">
-        <v>0.902839724913207</v>
+        <v>0.6700257216219585</v>
       </c>
       <c r="L74">
-        <v>-0.2281781498138291</v>
+        <v>-0.6576582620231863</v>
       </c>
       <c r="M74">
-        <v>2.042471731725581</v>
+        <v>2.040617738125694</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3743,25 +3743,25 @@
         <v>69</v>
       </c>
       <c r="G75">
-        <v>-4.706708841557718</v>
+        <v>-4.705082273817495</v>
       </c>
       <c r="H75">
-        <v>-6.373591891712178</v>
+        <v>-6.61639263602077</v>
       </c>
       <c r="I75">
-        <v>-2.119938005700966</v>
+        <v>-2.507755115021298</v>
       </c>
       <c r="J75" t="s">
         <v>69</v>
       </c>
       <c r="K75">
-        <v>-6.757198278498011</v>
+        <v>-6.755606710702999</v>
       </c>
       <c r="L75">
-        <v>-8.388213891969299</v>
+        <v>-8.625790130382105</v>
       </c>
       <c r="M75">
-        <v>-4.22608871963388</v>
+        <v>-4.605560909008021</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3784,25 +3784,25 @@
         <v>69</v>
       </c>
       <c r="G76">
-        <v>-1.274026292120017</v>
+        <v>-1.383415800145411</v>
       </c>
       <c r="H76">
-        <v>-2.474676015640153</v>
+        <v>-2.384012701894978</v>
       </c>
       <c r="I76">
-        <v>0.1634286195365345</v>
+        <v>0.2158298273076672</v>
       </c>
       <c r="J76" t="s">
         <v>69</v>
       </c>
       <c r="K76">
-        <v>-4.019709767042468</v>
+        <v>-4.126057026374486</v>
       </c>
       <c r="L76">
-        <v>-5.186968033570816</v>
+        <v>-5.098826171405024</v>
       </c>
       <c r="M76">
-        <v>-2.622232138451874</v>
+        <v>-2.571288268854677</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3825,25 +3825,25 @@
         <v>69</v>
       </c>
       <c r="G77">
-        <v>-0.5126977599871529</v>
+        <v>-0.1068885883787144</v>
       </c>
       <c r="H77">
-        <v>-2.235112490251731</v>
+        <v>-1.530496604389212</v>
       </c>
       <c r="I77">
-        <v>1.077181637836158</v>
+        <v>1.779837905659778</v>
       </c>
       <c r="J77" t="s">
         <v>69</v>
       </c>
       <c r="K77">
-        <v>-3.242583477580574</v>
+        <v>-2.847909522594749</v>
       </c>
       <c r="L77">
-        <v>-4.917735941545287</v>
+        <v>-4.232454390817963</v>
       </c>
       <c r="M77">
-        <v>-1.696329637623351</v>
+        <v>-1.01295393391917</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3866,25 +3866,25 @@
         <v>69</v>
       </c>
       <c r="G78">
-        <v>-1.928435295107892</v>
+        <v>-1.088492376058522</v>
       </c>
       <c r="H78">
-        <v>-3.643512176842524</v>
+        <v>-2.224335200590824</v>
       </c>
       <c r="I78">
-        <v>-0.2969183129017964</v>
+        <v>1.247527130272006</v>
       </c>
       <c r="J78" t="s">
         <v>69</v>
       </c>
       <c r="K78">
-        <v>-4.490335640208709</v>
+        <v>-3.672334351851714</v>
       </c>
       <c r="L78">
-        <v>-6.160609973228926</v>
+        <v>-4.77850582227739</v>
       </c>
       <c r="M78">
-        <v>-2.901438391177358</v>
+        <v>-1.39733813190841</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3907,25 +3907,25 @@
         <v>69</v>
       </c>
       <c r="G79">
-        <v>-0.9060515152191266</v>
+        <v>-0.1002861767969657</v>
       </c>
       <c r="H79">
-        <v>-2.879025632746393</v>
+        <v>-1.964565474864472</v>
       </c>
       <c r="I79">
-        <v>1.117803528126444</v>
+        <v>2.34303529926699</v>
       </c>
       <c r="J79" t="s">
         <v>69</v>
       </c>
       <c r="K79">
-        <v>-2.813921713248457</v>
+        <v>-2.023669892041902</v>
       </c>
       <c r="L79">
-        <v>-4.748909873228657</v>
+        <v>-3.852055949725186</v>
       </c>
       <c r="M79">
-        <v>-0.8290322453125998</v>
+        <v>0.372609960394521</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3948,25 +3948,25 @@
         <v>70</v>
       </c>
       <c r="G80">
-        <v>2.581297555506131</v>
+        <v>2.593677132767695</v>
       </c>
       <c r="H80">
-        <v>1.757908164829635</v>
+        <v>1.63122460944</v>
       </c>
       <c r="I80">
-        <v>3.534759383921275</v>
+        <v>3.856107670207604</v>
       </c>
       <c r="J80" t="s">
         <v>70</v>
       </c>
       <c r="K80">
-        <v>0.06287076783262346</v>
+        <v>0.07494641972243254</v>
       </c>
       <c r="L80">
-        <v>-0.7403039643478215</v>
+        <v>-0.863877369378141</v>
       </c>
       <c r="M80">
-        <v>0.9929245884829463</v>
+        <v>1.306383599125072</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3989,25 +3989,25 @@
         <v>70</v>
       </c>
       <c r="G81">
-        <v>-17.52524253701343</v>
+        <v>-17.7761157404802</v>
       </c>
       <c r="H81">
-        <v>-19.67416634940037</v>
+        <v>-20.07703739301826</v>
       </c>
       <c r="I81">
-        <v>-13.3821999970943</v>
+        <v>-14.39102416284411</v>
       </c>
       <c r="J81" t="s">
         <v>70</v>
       </c>
       <c r="K81">
-        <v>-19.61487596769744</v>
+        <v>-19.85939288653904</v>
       </c>
       <c r="L81">
-        <v>-21.70935326606618</v>
+        <v>-22.10201691014879</v>
       </c>
       <c r="M81">
-        <v>-15.57680421474965</v>
+        <v>-16.56006816344302</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4030,25 +4030,25 @@
         <v>70</v>
       </c>
       <c r="G82">
-        <v>-3.729327997144123</v>
+        <v>-3.1959247601505</v>
       </c>
       <c r="H82">
-        <v>-5.310931678281716</v>
+        <v>-5.323718820456548</v>
       </c>
       <c r="I82">
-        <v>-2.359439296345274</v>
+        <v>-1.819570878839712</v>
       </c>
       <c r="J82" t="s">
         <v>70</v>
       </c>
       <c r="K82">
-        <v>-6.12592442972737</v>
+        <v>-5.605799923091725</v>
       </c>
       <c r="L82">
-        <v>-7.668155104931618</v>
+        <v>-7.680623919430096</v>
       </c>
       <c r="M82">
-        <v>-4.79013822665777</v>
+        <v>-4.263709486018907</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4071,25 +4071,25 @@
         <v>70</v>
       </c>
       <c r="G83">
-        <v>-4.172023704354545</v>
+        <v>-4.063344480624972</v>
       </c>
       <c r="H83">
-        <v>-6.233811442143789</v>
+        <v>-6.270572348619062</v>
       </c>
       <c r="I83">
-        <v>-2.798937742686014</v>
+        <v>-2.663829772555917</v>
       </c>
       <c r="J83" t="s">
         <v>70</v>
       </c>
       <c r="K83">
-        <v>-6.432379797243915</v>
+        <v>-6.326264060243625</v>
       </c>
       <c r="L83">
-        <v>-8.445534821962198</v>
+        <v>-8.481428625299714</v>
       </c>
       <c r="M83">
-        <v>-5.091681697027695</v>
+        <v>-4.959760605461527</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4112,25 +4112,25 @@
         <v>70</v>
       </c>
       <c r="G84">
-        <v>-2.901147624406569</v>
+        <v>-2.778068959335497</v>
       </c>
       <c r="H84">
-        <v>-4.689873406979874</v>
+        <v>-4.899282560298793</v>
       </c>
       <c r="I84">
-        <v>-1.305613043705409</v>
+        <v>-1.412138851097837</v>
       </c>
       <c r="J84" t="s">
         <v>70</v>
       </c>
       <c r="K84">
-        <v>-5.223384314759882</v>
+        <v>-5.103249225074469</v>
       </c>
       <c r="L84">
-        <v>-6.969330553191877</v>
+        <v>-7.173731432908836</v>
       </c>
       <c r="M84">
-        <v>-3.666008876555071</v>
+        <v>-3.769986990207108</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4153,25 +4153,25 @@
         <v>70</v>
       </c>
       <c r="G85">
-        <v>-5.382982084519233</v>
+        <v>-5.37326668620248</v>
       </c>
       <c r="H85">
-        <v>-7.223399193388615</v>
+        <v>-6.682039228811184</v>
       </c>
       <c r="I85">
-        <v>-2.786008358977683</v>
+        <v>-3.593503296982049</v>
       </c>
       <c r="J85" t="s">
         <v>70</v>
       </c>
       <c r="K85">
-        <v>-7.609932106332639</v>
+        <v>-7.600445374137166</v>
       </c>
       <c r="L85">
-        <v>-9.407032304449213</v>
+        <v>-8.878414039108184</v>
       </c>
       <c r="M85">
-        <v>-5.074081959003108</v>
+        <v>-5.862571321589638</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4194,25 +4194,25 @@
         <v>71</v>
       </c>
       <c r="G86">
-        <v>1.909232245308034</v>
+        <v>1.931331590810779</v>
       </c>
       <c r="H86">
-        <v>0.7472755240024855</v>
+        <v>1.039310384589253</v>
       </c>
       <c r="I86">
-        <v>3.605328839955674</v>
+        <v>3.450376714993889</v>
       </c>
       <c r="J86" t="s">
         <v>71</v>
       </c>
       <c r="K86">
-        <v>0.8542261209449897</v>
+        <v>0.8760966849689966</v>
       </c>
       <c r="L86">
-        <v>-0.2957015483285308</v>
+        <v>-0.006689952265104271</v>
       </c>
       <c r="M86">
-        <v>2.532764028754952</v>
+        <v>2.379416031674553</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4235,25 +4235,25 @@
         <v>71</v>
       </c>
       <c r="G87">
-        <v>-10.81275154089818</v>
+        <v>-10.41196132355211</v>
       </c>
       <c r="H87">
-        <v>-13.16967449213062</v>
+        <v>-12.3664574340213</v>
       </c>
       <c r="I87">
-        <v>-8.789206762623074</v>
+        <v>-7.879847182408654</v>
       </c>
       <c r="J87" t="s">
         <v>71</v>
       </c>
       <c r="K87">
-        <v>-11.54536641018958</v>
+        <v>-11.14786842214498</v>
       </c>
       <c r="L87">
-        <v>-13.88292878208273</v>
+        <v>-13.08630962636648</v>
       </c>
       <c r="M87">
-        <v>-9.538443727772961</v>
+        <v>-8.636553941295965</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4276,25 +4276,25 @@
         <v>71</v>
       </c>
       <c r="G88">
-        <v>-4.338215188565119</v>
+        <v>-2.769476407336254</v>
       </c>
       <c r="H88">
-        <v>-6.026644323712315</v>
+        <v>-3.941202653301207</v>
       </c>
       <c r="I88">
-        <v>-3.05415461149724</v>
+        <v>-1.207225284205137</v>
       </c>
       <c r="J88" t="s">
         <v>71</v>
       </c>
       <c r="K88">
-        <v>-5.419109093614704</v>
+        <v>-3.868095678796135</v>
       </c>
       <c r="L88">
-        <v>-7.088460466781132</v>
+        <v>-5.026582450292305</v>
       </c>
       <c r="M88">
-        <v>-4.14955727000782</v>
+        <v>-2.32349661725344</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4317,25 +4317,25 @@
         <v>71</v>
       </c>
       <c r="G89">
-        <v>-2.770215927079501</v>
+        <v>-2.678947093084583</v>
       </c>
       <c r="H89">
-        <v>-5.20194141850875</v>
+        <v>-5.387207305130334</v>
       </c>
       <c r="I89">
-        <v>-1.547055717270411</v>
+        <v>-1.127108377385178</v>
       </c>
       <c r="J89" t="s">
         <v>71</v>
       </c>
       <c r="K89">
-        <v>-3.880447010134846</v>
+        <v>-3.790220341330164</v>
       </c>
       <c r="L89">
-        <v>-6.284405524070669</v>
+        <v>-6.467555927788348</v>
       </c>
       <c r="M89">
-        <v>-2.671253616126434</v>
+        <v>-2.256101500198882</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4358,25 +4358,25 @@
         <v>71</v>
       </c>
       <c r="G90">
-        <v>-5.919804315643375</v>
+        <v>-5.746293614988465</v>
       </c>
       <c r="H90">
-        <v>-8.845828756870532</v>
+        <v>-8.9454577506263</v>
       </c>
       <c r="I90">
-        <v>-4.64495689967488</v>
+        <v>-4.089883112772544</v>
       </c>
       <c r="J90" t="s">
         <v>71</v>
       </c>
       <c r="K90">
-        <v>-6.754976461862339</v>
+        <v>-6.583006056730878</v>
       </c>
       <c r="L90">
-        <v>-9.655025892145986</v>
+        <v>-9.753770455762812</v>
       </c>
       <c r="M90">
-        <v>-5.491446167895464</v>
+        <v>-4.941299902269469</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4399,25 +4399,25 @@
         <v>71</v>
       </c>
       <c r="G91">
-        <v>-5.376291709307672</v>
+        <v>-4.644674025104737</v>
       </c>
       <c r="H91">
-        <v>-8.156466059685021</v>
+        <v>-7.266268169229708</v>
       </c>
       <c r="I91">
-        <v>-3.79447971278557</v>
+        <v>-3.471558833946787</v>
       </c>
       <c r="J91" t="s">
         <v>71</v>
       </c>
       <c r="K91">
-        <v>-6.613097615782515</v>
+        <v>-5.891042747172515</v>
       </c>
       <c r="L91">
-        <v>-9.356932912029659</v>
+        <v>-8.478370604545415</v>
       </c>
       <c r="M91">
-        <v>-5.051961139757044</v>
+        <v>-4.733261089476837</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4440,25 +4440,25 @@
         <v>72</v>
       </c>
       <c r="G92">
-        <v>3.664661150358365</v>
+        <v>2.373537889241587</v>
       </c>
       <c r="H92">
-        <v>1.411748679512919</v>
+        <v>-0.4432145838846912</v>
       </c>
       <c r="I92">
-        <v>6.026886342110571</v>
+        <v>5.440727107428189</v>
       </c>
       <c r="J92" t="s">
         <v>72</v>
       </c>
       <c r="K92">
-        <v>-0.1228880760230644</v>
+        <v>-1.366838145672866</v>
       </c>
       <c r="L92">
-        <v>-2.293486894449592</v>
+        <v>-4.080676197123434</v>
       </c>
       <c r="M92">
-        <v>2.153029553457908</v>
+        <v>1.588286555815421</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4481,25 +4481,25 @@
         <v>72</v>
       </c>
       <c r="G93">
-        <v>-11.82094321764765</v>
+        <v>-13.07035692775518</v>
       </c>
       <c r="H93">
-        <v>-15.23117822589045</v>
+        <v>-17.66905740822233</v>
       </c>
       <c r="I93">
-        <v>-8.720338624758229</v>
+        <v>-8.874298120257233</v>
       </c>
       <c r="J93" t="s">
         <v>72</v>
       </c>
       <c r="K93">
-        <v>-15.39989866665942</v>
+        <v>-16.59860196809364</v>
       </c>
       <c r="L93">
-        <v>-18.67172122629454</v>
+        <v>-21.0106533195781</v>
       </c>
       <c r="M93">
-        <v>-12.42513944009481</v>
+        <v>-12.57285012555377</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4522,25 +4522,25 @@
         <v>72</v>
       </c>
       <c r="G94">
-        <v>-8.78785618973491</v>
+        <v>-8.143331385207915</v>
       </c>
       <c r="H94">
-        <v>-10.89933447977566</v>
+        <v>-10.98130666042369</v>
       </c>
       <c r="I94">
-        <v>-5.440298193393859</v>
+        <v>-3.427932438940735</v>
       </c>
       <c r="J94" t="s">
         <v>72</v>
       </c>
       <c r="K94">
-        <v>-12.00704103278611</v>
+        <v>-11.3852636870407</v>
       </c>
       <c r="L94">
-        <v>-14.04399811738443</v>
+        <v>-14.12307722271955</v>
       </c>
       <c r="M94">
-        <v>-8.777629672549491</v>
+        <v>-6.836287107167404</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4563,25 +4563,25 @@
         <v>72</v>
       </c>
       <c r="G95">
-        <v>-5.988587866871167</v>
+        <v>-5.16475792590533</v>
       </c>
       <c r="H95">
-        <v>-7.996950848552249</v>
+        <v>-8.083820709809714</v>
       </c>
       <c r="I95">
-        <v>-1.832212158153219</v>
+        <v>-0.9920538397766336</v>
       </c>
       <c r="J95" t="s">
         <v>72</v>
       </c>
       <c r="K95">
-        <v>-9.780822103047182</v>
+        <v>-8.990223830833365</v>
       </c>
       <c r="L95">
-        <v>-11.70817169832138</v>
+        <v>-11.79153740136572</v>
       </c>
       <c r="M95">
-        <v>-5.792106361383986</v>
+        <v>-4.985838366176287</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4604,25 +4604,25 @@
         <v>72</v>
       </c>
       <c r="G96">
-        <v>-3.038972128136098</v>
+        <v>-2.625776870934762</v>
       </c>
       <c r="H96">
-        <v>-5.317878078299742</v>
+        <v>-5.082613826773612</v>
       </c>
       <c r="I96">
-        <v>-0.5993560121136234</v>
+        <v>1.333813531036696</v>
       </c>
       <c r="J96" t="s">
         <v>72</v>
       </c>
       <c r="K96">
-        <v>-7.27282917476344</v>
+        <v>-6.877676317583347</v>
       </c>
       <c r="L96">
-        <v>-9.4522254329666</v>
+        <v>-9.22723412543669</v>
       </c>
       <c r="M96">
-        <v>-4.939740249207003</v>
+        <v>-3.090983626095112</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4645,25 +4645,25 @@
         <v>72</v>
       </c>
       <c r="G97">
-        <v>-2.580686891988084</v>
+        <v>-4.408741572498171</v>
       </c>
       <c r="H97">
-        <v>-4.997198413574152</v>
+        <v>-7.06686481754935</v>
       </c>
       <c r="I97">
-        <v>0.03389904322023035</v>
+        <v>-0.9323662949756646</v>
       </c>
       <c r="J97" t="s">
         <v>72</v>
       </c>
       <c r="K97">
-        <v>-6.54403611107166</v>
+        <v>-8.297719305484241</v>
       </c>
       <c r="L97">
-        <v>-8.862235719481282</v>
+        <v>-10.84770105013476</v>
       </c>
       <c r="M97">
-        <v>-4.0358204303225</v>
+        <v>-4.962774805923942</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4686,25 +4686,25 @@
         <v>73</v>
       </c>
       <c r="G98">
-        <v>6.712509750626925</v>
+        <v>6.450768606551911</v>
       </c>
       <c r="H98">
-        <v>3.52687179885915</v>
+        <v>3.808358929052638</v>
       </c>
       <c r="I98">
-        <v>8.374668799771396</v>
+        <v>8.070705195006404</v>
       </c>
       <c r="J98" t="s">
         <v>73</v>
       </c>
       <c r="K98">
-        <v>-1.991445521372759</v>
+        <v>-2.23183787310659</v>
       </c>
       <c r="L98">
-        <v>-4.91724842371879</v>
+        <v>-4.658720657863869</v>
       </c>
       <c r="M98">
-        <v>-0.4648596871447919</v>
+        <v>-0.744030644577498</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4727,25 +4727,25 @@
         <v>73</v>
       </c>
       <c r="G99">
-        <v>-7.265596984296879</v>
+        <v>-6.954744769039949</v>
       </c>
       <c r="H99">
-        <v>-10.48111497572159</v>
+        <v>-9.874711949827111</v>
       </c>
       <c r="I99">
-        <v>-2.601159124172954</v>
+        <v>-3.1774214873668</v>
       </c>
       <c r="J99" t="s">
         <v>73</v>
       </c>
       <c r="K99">
-        <v>-14.63852240318132</v>
+        <v>-14.35238475042604</v>
       </c>
       <c r="L99">
-        <v>-17.59838797691764</v>
+        <v>-17.04019752519531</v>
       </c>
       <c r="M99">
-        <v>-10.34493453340987</v>
+        <v>-10.87538068075102</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4768,25 +4768,25 @@
         <v>73</v>
       </c>
       <c r="G100">
-        <v>-2.23034143312176</v>
+        <v>-2.187239484456865</v>
       </c>
       <c r="H100">
-        <v>-4.329129639292696</v>
+        <v>-4.250466955794706</v>
       </c>
       <c r="I100">
-        <v>0.5766719617592202</v>
+        <v>0.09226332081493888</v>
       </c>
       <c r="J100" t="s">
         <v>73</v>
       </c>
       <c r="K100">
-        <v>-9.422329579356592</v>
+        <v>-9.382398232987132</v>
       </c>
       <c r="L100">
-        <v>-11.36672980748305</v>
+        <v>-11.29385359287082</v>
       </c>
       <c r="M100">
-        <v>-6.82180158452943</v>
+        <v>-7.27057686789967</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4809,25 +4809,25 @@
         <v>73</v>
       </c>
       <c r="G101">
-        <v>0.2266966553576029</v>
+        <v>-0.2602305655501785</v>
       </c>
       <c r="H101">
-        <v>-2.079128877580015</v>
+        <v>-2.61480976741639</v>
       </c>
       <c r="I101">
-        <v>1.717367491053428</v>
+        <v>1.024271584478605</v>
       </c>
       <c r="J101" t="s">
         <v>73</v>
       </c>
       <c r="K101">
-        <v>-6.845519928095345</v>
+        <v>-7.298088491264654</v>
       </c>
       <c r="L101">
-        <v>-8.988641330129932</v>
+        <v>-9.486523395910817</v>
       </c>
       <c r="M101">
-        <v>-5.46003411152599</v>
+        <v>-6.104223643572116</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4850,25 +4850,25 @@
         <v>73</v>
       </c>
       <c r="G102">
-        <v>1.144831631440804</v>
+        <v>0.6595426228589908</v>
       </c>
       <c r="H102">
-        <v>-1.529934134197601</v>
+        <v>-1.525161656588837</v>
       </c>
       <c r="I102">
-        <v>3.921838916605842</v>
+        <v>2.61380657652665</v>
       </c>
       <c r="J102" t="s">
         <v>73</v>
       </c>
       <c r="K102">
-        <v>-5.424900793272592</v>
+        <v>-5.878668478583505</v>
       </c>
       <c r="L102">
-        <v>-7.925930589454255</v>
+        <v>-7.921468101989204</v>
       </c>
       <c r="M102">
-        <v>-2.828270443940462</v>
+        <v>-4.051341226038074</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4891,25 +4891,25 @@
         <v>73</v>
       </c>
       <c r="G103">
-        <v>-0.3712356843269338</v>
+        <v>-1.087201704463087</v>
       </c>
       <c r="H103">
-        <v>-2.723631784451265</v>
+        <v>-2.869829921510025</v>
       </c>
       <c r="I103">
-        <v>1.907681273632557</v>
+        <v>0.830541582372558</v>
       </c>
       <c r="J103" t="s">
         <v>73</v>
       </c>
       <c r="K103">
-        <v>-6.497419463263321</v>
+        <v>-7.169360653332035</v>
       </c>
       <c r="L103">
-        <v>-8.705166466019021</v>
+        <v>-8.842374863398561</v>
       </c>
       <c r="M103">
-        <v>-4.358633362062814</v>
+        <v>-5.369539614119079</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4932,25 +4932,25 @@
         <v>74</v>
       </c>
       <c r="G104">
-        <v>3.223408880176422</v>
+        <v>5.454389493871404</v>
       </c>
       <c r="H104">
-        <v>-0.4726969656843841</v>
+        <v>1.330877169906417</v>
       </c>
       <c r="I104">
-        <v>6.333294136716756</v>
+        <v>10.4591206407265</v>
       </c>
       <c r="J104" t="s">
         <v>74</v>
       </c>
       <c r="K104">
-        <v>0.6430782536857249</v>
+        <v>2.81828985464343</v>
       </c>
       <c r="L104">
-        <v>-2.960634062293721</v>
+        <v>-1.202144831664886</v>
       </c>
       <c r="M104">
-        <v>3.67522404919316</v>
+        <v>7.697915066752903</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4973,25 +4973,25 @@
         <v>74</v>
       </c>
       <c r="G105">
-        <v>-8.082763564183795</v>
+        <v>-8.216889865194196</v>
       </c>
       <c r="H105">
-        <v>-12.9463160296872</v>
+        <v>-13.24933452058183</v>
       </c>
       <c r="I105">
-        <v>-4.31828811142497</v>
+        <v>-3.861562657405368</v>
       </c>
       <c r="J105" t="s">
         <v>74</v>
       </c>
       <c r="K105">
-        <v>-9.603284590272754</v>
+        <v>-9.73519213592513</v>
       </c>
       <c r="L105">
-        <v>-14.38638278982955</v>
+        <v>-14.68438866280218</v>
       </c>
       <c r="M105">
-        <v>-5.901082159420035</v>
+        <v>-5.451911987553326</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5014,25 +5014,25 @@
         <v>74</v>
       </c>
       <c r="G106">
-        <v>-7.371265073574376</v>
+        <v>-6.596751792101231</v>
       </c>
       <c r="H106">
-        <v>-13.32017490031103</v>
+        <v>-10.83158992794969</v>
       </c>
       <c r="I106">
-        <v>-4.278570191395664</v>
+        <v>-1.602118507655422</v>
       </c>
       <c r="J106" t="s">
         <v>74</v>
       </c>
       <c r="K106">
-        <v>-10.4769678809946</v>
+        <v>-9.728422870323893</v>
       </c>
       <c r="L106">
-        <v>-16.22641966736549</v>
+        <v>-13.82127322346193</v>
       </c>
       <c r="M106">
-        <v>-7.487966428135707</v>
+        <v>-4.901252162430159</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5055,25 +5055,25 @@
         <v>74</v>
       </c>
       <c r="G107">
-        <v>-6.441577682187202</v>
+        <v>-3.523793219786285</v>
       </c>
       <c r="H107">
-        <v>-11.68526131269669</v>
+        <v>-8.731879085312379</v>
       </c>
       <c r="I107">
-        <v>-2.52542362208998</v>
+        <v>1.291166411638003</v>
       </c>
       <c r="J107" t="s">
         <v>74</v>
       </c>
       <c r="K107">
-        <v>-8.363265219197514</v>
+        <v>-5.505411973016039</v>
       </c>
       <c r="L107">
-        <v>-13.49924372566648</v>
+        <v>-10.60652389165936</v>
       </c>
       <c r="M107">
-        <v>-4.527548860633324</v>
+        <v>-0.7893514859518835</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5096,25 +5096,25 @@
         <v>74</v>
       </c>
       <c r="G108">
-        <v>-3.372845851370317</v>
+        <v>-7.219633423837577</v>
       </c>
       <c r="H108">
-        <v>-6.73850413631198</v>
+        <v>-12.56602545861304</v>
       </c>
       <c r="I108">
-        <v>1.878711409534503</v>
+        <v>-4.152227460388042</v>
       </c>
       <c r="J108" t="s">
         <v>74</v>
       </c>
       <c r="K108">
-        <v>-8.22742952185499</v>
+        <v>-11.88095307555173</v>
       </c>
       <c r="L108">
-        <v>-11.42399589992565</v>
+        <v>-16.95874041326545</v>
       </c>
       <c r="M108">
-        <v>-3.239712424184082</v>
+        <v>-8.967654712932537</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5137,25 +5137,25 @@
         <v>74</v>
       </c>
       <c r="G109">
-        <v>-5.240746741919256</v>
+        <v>-5.52499481395384</v>
       </c>
       <c r="H109">
-        <v>-10.90347560511407</v>
+        <v>-10.10591759949967</v>
       </c>
       <c r="I109">
-        <v>0.7823638974967411</v>
+        <v>-0.8592750703554</v>
       </c>
       <c r="J109" t="s">
         <v>74</v>
       </c>
       <c r="K109">
-        <v>-7.174103058414982</v>
+        <v>-7.452551667213802</v>
       </c>
       <c r="L109">
-        <v>-12.72129626424827</v>
+        <v>-11.94001069383053</v>
       </c>
       <c r="M109">
-        <v>-1.273880882123024</v>
+        <v>-2.882025779910502</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5178,25 +5178,25 @@
         <v>75</v>
       </c>
       <c r="G110">
-        <v>9.515594900418616</v>
+        <v>9.483566998417761</v>
       </c>
       <c r="H110">
-        <v>6.621461078469522</v>
+        <v>5.960320991361476</v>
       </c>
       <c r="I110">
-        <v>11.19377456433524</v>
+        <v>11.25821773883027</v>
       </c>
       <c r="J110" t="s">
         <v>75</v>
       </c>
       <c r="K110">
-        <v>-2.571674113257139</v>
+        <v>-2.600167086120453</v>
       </c>
       <c r="L110">
-        <v>-5.146381518363185</v>
+        <v>-5.734551376017915</v>
       </c>
       <c r="M110">
-        <v>-1.078715641532235</v>
+        <v>-1.021385079509662</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5219,25 +5219,25 @@
         <v>75</v>
       </c>
       <c r="G111">
-        <v>-13.30279331187001</v>
+        <v>-12.74394300938349</v>
       </c>
       <c r="H111">
-        <v>-18.97143574761884</v>
+        <v>-19.32602965533063</v>
       </c>
       <c r="I111">
-        <v>-2.766055683966226</v>
+        <v>-0.8628003883732986</v>
       </c>
       <c r="J111" t="s">
         <v>75</v>
       </c>
       <c r="K111">
-        <v>-22.56987484247356</v>
+        <v>-22.07076015909614</v>
       </c>
       <c r="L111">
-        <v>-27.63259496968836</v>
+        <v>-27.94928626463384</v>
       </c>
       <c r="M111">
-        <v>-13.15941117880042</v>
+        <v>-11.45959521731728</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5260,25 +5260,25 @@
         <v>75</v>
       </c>
       <c r="G112">
-        <v>-6.110473699455443</v>
+        <v>-4.893899399676934</v>
       </c>
       <c r="H112">
-        <v>-10.45575658210378</v>
+        <v>-9.491461034919073</v>
       </c>
       <c r="I112">
-        <v>-0.1825605918312121</v>
+        <v>2.538620938403852</v>
       </c>
       <c r="J112" t="s">
         <v>75</v>
       </c>
       <c r="K112">
-        <v>-16.37406966477673</v>
+        <v>-15.29048599309821</v>
       </c>
       <c r="L112">
-        <v>-20.24434506128898</v>
+        <v>-19.38546212270325</v>
       </c>
       <c r="M112">
-        <v>-11.09417031812761</v>
+        <v>-8.670456555332606</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5301,25 +5301,25 @@
         <v>75</v>
       </c>
       <c r="G113">
-        <v>1.643960294961132</v>
+        <v>3.131549285909024</v>
       </c>
       <c r="H113">
-        <v>-2.280177453980405</v>
+        <v>-1.711601202823729</v>
       </c>
       <c r="I113">
-        <v>3.643715291838893</v>
+        <v>5.739136828142667</v>
       </c>
       <c r="J113" t="s">
         <v>75</v>
       </c>
       <c r="K113">
-        <v>-9.556671024086327</v>
+        <v>-8.233006537787102</v>
       </c>
       <c r="L113">
-        <v>-13.04838937453625</v>
+        <v>-12.54246724417034</v>
       </c>
       <c r="M113">
-        <v>-7.777278539486243</v>
+        <v>-5.912761466350003</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5342,25 +5342,25 @@
         <v>75</v>
       </c>
       <c r="G114">
-        <v>4.981473574970363</v>
+        <v>4.299339699295088</v>
       </c>
       <c r="H114">
-        <v>1.619936448136106</v>
+        <v>0.03073216852310189</v>
       </c>
       <c r="I114">
-        <v>7.081323179394513</v>
+        <v>5.497263949730796</v>
       </c>
       <c r="J114" t="s">
         <v>75</v>
       </c>
       <c r="K114">
-        <v>-6.803499912132638</v>
+        <v>-7.409059042133892</v>
       </c>
       <c r="L114">
-        <v>-9.787678781680054</v>
+        <v>-11.19848272394731</v>
       </c>
       <c r="M114">
-        <v>-4.939374489055304</v>
+        <v>-6.34561095258822</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5383,25 +5383,25 @@
         <v>75</v>
       </c>
       <c r="G115">
-        <v>0.857697965455514</v>
+        <v>0.3393420049731857</v>
       </c>
       <c r="H115">
-        <v>-3.697968945504297</v>
+        <v>-4.01463967775223</v>
       </c>
       <c r="I115">
-        <v>4.542868406633572</v>
+        <v>4.246735116182641</v>
       </c>
       <c r="J115" t="s">
         <v>75</v>
       </c>
       <c r="K115">
-        <v>-10.76933448952261</v>
+        <v>-11.22793356781014</v>
       </c>
       <c r="L115">
-        <v>-14.79981702590011</v>
+        <v>-15.07998146308418</v>
       </c>
       <c r="M115">
-        <v>-7.508996234543941</v>
+        <v>-7.770990818197799</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5424,25 +5424,25 @@
         <v>76</v>
       </c>
       <c r="G116">
-        <v>9.044453309547301</v>
+        <v>9.031643850267997</v>
       </c>
       <c r="H116">
-        <v>6.806310936377421</v>
+        <v>6.913099859265126</v>
       </c>
       <c r="I116">
-        <v>10.53422367424609</v>
+        <v>11.060145525777</v>
       </c>
       <c r="J116" t="s">
         <v>76</v>
       </c>
       <c r="K116">
-        <v>-1.225369833465273</v>
+        <v>-1.236972895927835</v>
       </c>
       <c r="L116">
-        <v>-3.252723618644449</v>
+        <v>-3.15599209270272</v>
       </c>
       <c r="M116">
-        <v>0.1240937324481939</v>
+        <v>0.6004841842761399</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5465,25 +5465,25 @@
         <v>76</v>
       </c>
       <c r="G117">
-        <v>0.7021887789534601</v>
+        <v>1.191594654791605</v>
       </c>
       <c r="H117">
-        <v>-4.708468966788311</v>
+        <v>-4.223422459939961</v>
       </c>
       <c r="I117">
-        <v>3.2806844703746</v>
+        <v>4.14523116605219</v>
       </c>
       <c r="J117" t="s">
         <v>76</v>
       </c>
       <c r="K117">
-        <v>-8.725728630372952</v>
+        <v>-8.282141800108567</v>
       </c>
       <c r="L117">
-        <v>-13.62983100750244</v>
+        <v>-13.19019541437599</v>
       </c>
       <c r="M117">
-        <v>-6.388636275997273</v>
+        <v>-5.605029974388431</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5506,25 +5506,25 @@
         <v>76</v>
       </c>
       <c r="G118">
-        <v>-0.02162147194772613</v>
+        <v>0.3361812575850839</v>
       </c>
       <c r="H118">
-        <v>-6.216913113757592</v>
+        <v>-6.672230005977813</v>
       </c>
       <c r="I118">
-        <v>2.198639257991592</v>
+        <v>2.711472581364572</v>
       </c>
       <c r="J118" t="s">
         <v>76</v>
       </c>
       <c r="K118">
-        <v>-9.316594798166244</v>
+        <v>-8.992056929256497</v>
       </c>
       <c r="L118">
-        <v>-14.93591120006351</v>
+        <v>-15.34889735607383</v>
       </c>
       <c r="M118">
-        <v>-7.302751341300073</v>
+        <v>-6.837596047234307</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5547,25 +5547,25 @@
         <v>76</v>
       </c>
       <c r="G119">
-        <v>0.8497074325192493</v>
+        <v>1.245609272941647</v>
       </c>
       <c r="H119">
-        <v>-4.989060902082156</v>
+        <v>-4.468859703719785</v>
       </c>
       <c r="I119">
-        <v>2.437016315797518</v>
+        <v>2.470005395382688</v>
       </c>
       <c r="J119" t="s">
         <v>76</v>
       </c>
       <c r="K119">
-        <v>-8.509047604027408</v>
+        <v>-8.149885070414708</v>
       </c>
       <c r="L119">
-        <v>-13.80598390014478</v>
+        <v>-13.33405686845215</v>
       </c>
       <c r="M119">
-        <v>-7.069039445601277</v>
+        <v>-7.039111720605806</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5588,25 +5588,25 @@
         <v>76</v>
       </c>
       <c r="G120">
-        <v>2.090170456432878</v>
+        <v>2.435116828743421</v>
       </c>
       <c r="H120">
-        <v>-3.208975546004247</v>
+        <v>-2.383767799908521</v>
       </c>
       <c r="I120">
-        <v>4.561998751866299</v>
+        <v>3.865196313863303</v>
       </c>
       <c r="J120" t="s">
         <v>76</v>
       </c>
       <c r="K120">
-        <v>-7.408614273783554</v>
+        <v>-7.095762777202941</v>
       </c>
       <c r="L120">
-        <v>-12.21471136753443</v>
+        <v>-11.46628349851037</v>
       </c>
       <c r="M120">
-        <v>-5.166772516362627</v>
+        <v>-5.798742303695237</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5629,25 +5629,25 @@
         <v>76</v>
       </c>
       <c r="G121">
-        <v>0.6383161986998223</v>
+        <v>-0.2409276292341393</v>
       </c>
       <c r="H121">
-        <v>-4.538794453145251</v>
+        <v>-5.098759595057178</v>
       </c>
       <c r="I121">
-        <v>4.319074183756317</v>
+        <v>1.702230351605796</v>
       </c>
       <c r="J121" t="s">
         <v>76</v>
       </c>
       <c r="K121">
-        <v>-8.707990096811757</v>
+        <v>-9.505578324426622</v>
       </c>
       <c r="L121">
-        <v>-13.4043011515892</v>
+        <v>-13.91226218682684</v>
       </c>
       <c r="M121">
-        <v>-5.369065052005039</v>
+        <v>-7.742881924776501</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5670,25 +5670,25 @@
         <v>77</v>
       </c>
       <c r="G122">
-        <v>12.21157945053603</v>
+        <v>13.03432831209413</v>
       </c>
       <c r="H122">
-        <v>9.629526803762829</v>
+        <v>9.317314243398004</v>
       </c>
       <c r="I122">
-        <v>14.80696937111122</v>
+        <v>16.54196746096036</v>
       </c>
       <c r="J122" t="s">
         <v>77</v>
       </c>
       <c r="K122">
-        <v>1.526832605695994</v>
+        <v>2.271239612111553</v>
       </c>
       <c r="L122">
-        <v>-0.8093579027318332</v>
+        <v>-1.091841693698592</v>
       </c>
       <c r="M122">
-        <v>3.875090417439031</v>
+        <v>5.444882603787904</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5711,25 +5711,25 @@
         <v>77</v>
       </c>
       <c r="G123">
-        <v>0.7238983232119782</v>
+        <v>0.3939304058659767</v>
       </c>
       <c r="H123">
-        <v>-15.40243993469486</v>
+        <v>-16.51483911946638</v>
       </c>
       <c r="I123">
-        <v>6.266459052475867</v>
+        <v>5.523396399662011</v>
       </c>
       <c r="J123" t="s">
         <v>77</v>
       </c>
       <c r="K123">
-        <v>-8.011946093436141</v>
+        <v>-8.313295694410295</v>
       </c>
       <c r="L123">
-        <v>-22.73963731348455</v>
+        <v>-23.75555744642085</v>
       </c>
       <c r="M123">
-        <v>-2.950094997205932</v>
+        <v>-3.628711378232585</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5752,25 +5752,25 @@
         <v>77</v>
       </c>
       <c r="G124">
-        <v>11.79704443331713</v>
+        <v>10.20299766424155</v>
       </c>
       <c r="H124">
-        <v>-2.118750208989399</v>
+        <v>-3.765989413054734</v>
       </c>
       <c r="I124">
-        <v>16.7939657174563</v>
+        <v>16.0388844390815</v>
       </c>
       <c r="J124" t="s">
         <v>77</v>
       </c>
       <c r="K124">
-        <v>3.377193663805245</v>
+        <v>1.9032004791806</v>
       </c>
       <c r="L124">
-        <v>-9.490550783424068</v>
+        <v>-11.01373028313656</v>
       </c>
       <c r="M124">
-        <v>7.997778241256759</v>
+        <v>7.299564939267134</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5793,25 +5793,25 @@
         <v>77</v>
       </c>
       <c r="G125">
-        <v>10.92372208271915</v>
+        <v>10.56563473971486</v>
       </c>
       <c r="H125">
-        <v>-0.6618833049333209</v>
+        <v>-2.791955287918244</v>
       </c>
       <c r="I125">
-        <v>15.63252408271166</v>
+        <v>15.6283789844283</v>
       </c>
       <c r="J125" t="s">
         <v>77</v>
       </c>
       <c r="K125">
-        <v>2.265476740205008</v>
+        <v>1.935340208907776</v>
       </c>
       <c r="L125">
-        <v>-8.415804378441738</v>
+        <v>-10.37961178357427</v>
       </c>
       <c r="M125">
-        <v>6.606729200570172</v>
+        <v>6.602907651454037</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5834,25 +5834,25 @@
         <v>77</v>
       </c>
       <c r="G126">
-        <v>12.72607259907796</v>
+        <v>11.72333352765751</v>
       </c>
       <c r="H126">
-        <v>-1.588349240690146</v>
+        <v>-4.460576777157367</v>
       </c>
       <c r="I126">
-        <v>17.55701616188845</v>
+        <v>16.84067991357094</v>
       </c>
       <c r="J126" t="s">
         <v>77</v>
       </c>
       <c r="K126">
-        <v>5.935785845551189</v>
+        <v>4.993448823780122</v>
       </c>
       <c r="L126">
-        <v>-7.516377363521332</v>
+        <v>-10.215590368884</v>
       </c>
       <c r="M126">
-        <v>10.47572759019086</v>
+        <v>9.802541328614399</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5875,25 +5875,25 @@
         <v>77</v>
       </c>
       <c r="G127">
-        <v>10.56349824661477</v>
+        <v>9.952104552398222</v>
       </c>
       <c r="H127">
-        <v>-1.378664101825029</v>
+        <v>-2.71190172363606</v>
       </c>
       <c r="I127">
-        <v>15.06787417994744</v>
+        <v>14.62223557807854</v>
       </c>
       <c r="J127" t="s">
         <v>77</v>
       </c>
       <c r="K127">
-        <v>3.881684056084311</v>
+        <v>3.307239437528353</v>
       </c>
       <c r="L127">
-        <v>-7.338763521107595</v>
+        <v>-8.591428022476144</v>
       </c>
       <c r="M127">
-        <v>8.113841730153016</v>
+        <v>7.695134931103675</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5916,25 +5916,25 @@
         <v>78</v>
       </c>
       <c r="G128">
-        <v>6.918138979464106</v>
+        <v>7.234422211672143</v>
       </c>
       <c r="H128">
-        <v>5.147294872599015</v>
+        <v>5.17221264917643</v>
       </c>
       <c r="I128">
-        <v>8.431646122307548</v>
+        <v>8.932407296520106</v>
       </c>
       <c r="J128" t="s">
         <v>78</v>
       </c>
       <c r="K128">
-        <v>1.064588982182868</v>
+        <v>1.363556352641893</v>
       </c>
       <c r="L128">
-        <v>-0.609305022334139</v>
+        <v>-0.5857514431923505</v>
       </c>
       <c r="M128">
-        <v>2.495234696493798</v>
+        <v>2.968580217965577</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5957,25 +5957,25 @@
         <v>78</v>
       </c>
       <c r="G129">
-        <v>-6.136902085143311</v>
+        <v>-6.044485910107356</v>
       </c>
       <c r="H129">
-        <v>-10.05301879348065</v>
+        <v>-9.16315723634388</v>
       </c>
       <c r="I129">
-        <v>-2.397072158187485</v>
+        <v>-2.181738127999285</v>
       </c>
       <c r="J129" t="s">
         <v>78</v>
       </c>
       <c r="K129">
-        <v>-11.60284303827051</v>
+        <v>-11.51580854535544</v>
       </c>
       <c r="L129">
-        <v>-15.29091205620726</v>
+        <v>-14.45286991304486</v>
       </c>
       <c r="M129">
-        <v>-8.080795072592162</v>
+        <v>-7.8780006146145</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5998,25 +5998,25 @@
         <v>78</v>
       </c>
       <c r="G130">
-        <v>-0.7198212497096105</v>
+        <v>-0.6241688316593726</v>
       </c>
       <c r="H130">
-        <v>-6.328957731312766</v>
+        <v>-5.291413967589918</v>
       </c>
       <c r="I130">
-        <v>2.567981482309225</v>
+        <v>2.425492127791427</v>
       </c>
       <c r="J130" t="s">
         <v>78</v>
       </c>
       <c r="K130">
-        <v>-6.559574316653826</v>
+        <v>-6.469548263389601</v>
       </c>
       <c r="L130">
-        <v>-11.83877613875421</v>
+        <v>-10.86226167063255</v>
       </c>
       <c r="M130">
-        <v>-3.465163219596745</v>
+        <v>-3.599271216873601</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6039,25 +6039,25 @@
         <v>78</v>
       </c>
       <c r="G131">
-        <v>0.9368121824198649</v>
+        <v>0.9956992640742736</v>
       </c>
       <c r="H131">
-        <v>-5.160946076440726</v>
+        <v>-4.951007039487974</v>
       </c>
       <c r="I131">
-        <v>4.051743375033206</v>
+        <v>4.000215143346208</v>
       </c>
       <c r="J131" t="s">
         <v>78</v>
       </c>
       <c r="K131">
-        <v>-4.747741014014506</v>
+        <v>-4.692170331412216</v>
       </c>
       <c r="L131">
-        <v>-10.50208609732478</v>
+        <v>-10.30397039417624</v>
       </c>
       <c r="M131">
-        <v>-1.808236325218637</v>
+        <v>-1.856862593114528</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6080,25 +6080,25 @@
         <v>78</v>
       </c>
       <c r="G132">
-        <v>1.358818816876117</v>
+        <v>1.699058238908254</v>
       </c>
       <c r="H132">
-        <v>-2.351318172295032</v>
+        <v>-1.635552134815567</v>
       </c>
       <c r="I132">
-        <v>4.833247543773796</v>
+        <v>4.717564742577421</v>
       </c>
       <c r="J132" t="s">
         <v>78</v>
       </c>
       <c r="K132">
-        <v>-3.978423919305552</v>
+        <v>-3.656100455697164</v>
       </c>
       <c r="L132">
-        <v>-7.493196539329228</v>
+        <v>-6.81512053345169</v>
       </c>
       <c r="M132">
-        <v>-0.6869478915560334</v>
+        <v>-0.7965391932894583</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6121,25 +6121,25 @@
         <v>78</v>
       </c>
       <c r="G133">
-        <v>3.811042784194766</v>
+        <v>4.295844021951685</v>
       </c>
       <c r="H133">
-        <v>1.680390679626931</v>
+        <v>2.121806552030673</v>
       </c>
       <c r="I133">
-        <v>6.914604068243081</v>
+        <v>7.363972592521601</v>
       </c>
       <c r="J133" t="s">
         <v>78</v>
       </c>
       <c r="K133">
-        <v>-2.203811835858838</v>
+        <v>-1.747100181700378</v>
       </c>
       <c r="L133">
-        <v>-4.211013079023351</v>
+        <v>-3.795173024261789</v>
       </c>
       <c r="M133">
-        <v>0.7199278277980614</v>
+        <v>1.143259754505888</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6162,25 +6162,25 @@
         <v>79</v>
       </c>
       <c r="G134">
-        <v>-0.2775760586136865</v>
+        <v>-0.01685248102662393</v>
       </c>
       <c r="H134">
-        <v>-2.065516060048036</v>
+        <v>-1.797053522354271</v>
       </c>
       <c r="I134">
-        <v>1.802326741903066</v>
+        <v>1.884567494189266</v>
       </c>
       <c r="J134" t="s">
         <v>79</v>
       </c>
       <c r="K134">
-        <v>-0.5845726936422047</v>
+        <v>-0.324651756603056</v>
       </c>
       <c r="L134">
-        <v>-2.367008501111156</v>
+        <v>-2.09937242844348</v>
       </c>
       <c r="M134">
-        <v>1.488927102056681</v>
+        <v>1.570914675236157</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6203,25 +6203,25 @@
         <v>79</v>
       </c>
       <c r="G135">
-        <v>-21.25196669424834</v>
+        <v>-21.1228629267222</v>
       </c>
       <c r="H135">
-        <v>-23.68562313159262</v>
+        <v>-23.57155370021608</v>
       </c>
       <c r="I135">
-        <v>-18.19799932675541</v>
+        <v>-17.21064181751351</v>
       </c>
       <c r="J135" t="s">
         <v>79</v>
       </c>
       <c r="K135">
-        <v>-21.65882710641874</v>
+        <v>-21.53039036776765</v>
       </c>
       <c r="L135">
-        <v>-24.07990978897051</v>
+        <v>-23.96642970991068</v>
       </c>
       <c r="M135">
-        <v>-18.62063839865524</v>
+        <v>-17.63838218104319</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6244,25 +6244,25 @@
         <v>79</v>
       </c>
       <c r="G136">
-        <v>-5.836051560850485</v>
+        <v>-5.970444942294313</v>
       </c>
       <c r="H136">
-        <v>-7.42864386130813</v>
+        <v>-7.601691787798423</v>
       </c>
       <c r="I136">
-        <v>-4.04003559564448</v>
+        <v>-4.226495993477233</v>
       </c>
       <c r="J136" t="s">
         <v>79</v>
       </c>
       <c r="K136">
-        <v>-6.573688527784971</v>
+        <v>-6.707029133427578</v>
       </c>
       <c r="L136">
-        <v>-8.153805194270747</v>
+        <v>-8.325497543071847</v>
       </c>
       <c r="M136">
-        <v>-4.791741723771759</v>
+        <v>-4.976741476797331</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6285,25 +6285,25 @@
         <v>79</v>
       </c>
       <c r="G137">
-        <v>-5.528903472481034</v>
+        <v>-6.034264827687353</v>
       </c>
       <c r="H137">
-        <v>-7.135802837026568</v>
+        <v>-7.454812480463969</v>
       </c>
       <c r="I137">
-        <v>-3.77371180288281</v>
+        <v>-4.338484526392065</v>
       </c>
       <c r="J137" t="s">
         <v>79</v>
       </c>
       <c r="K137">
-        <v>-6.309963025586818</v>
+        <v>-6.811146200071583</v>
       </c>
       <c r="L137">
-        <v>-7.903577013486041</v>
+        <v>-8.219949177962171</v>
       </c>
       <c r="M137">
-        <v>-4.56928277028843</v>
+        <v>-5.129386117160328</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6326,25 +6326,25 @@
         <v>79</v>
       </c>
       <c r="G138">
-        <v>-4.932405314166516</v>
+        <v>-4.660017064776661</v>
       </c>
       <c r="H138">
-        <v>-6.917342869387322</v>
+        <v>-5.993031241210062</v>
       </c>
       <c r="I138">
-        <v>-2.362421617997889</v>
+        <v>-2.526437257457159</v>
       </c>
       <c r="J138" t="s">
         <v>79</v>
       </c>
       <c r="K138">
-        <v>-5.715547329593629</v>
+        <v>-5.445402943460332</v>
       </c>
       <c r="L138">
-        <v>-7.684133487657174</v>
+        <v>-6.76743609726268</v>
       </c>
       <c r="M138">
-        <v>-3.166734487889999</v>
+        <v>-3.329399009348732</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6367,25 +6367,25 @@
         <v>79</v>
       </c>
       <c r="G139">
-        <v>-6.992343274814934</v>
+        <v>-7.10417277779251</v>
       </c>
       <c r="H139">
-        <v>-8.863334215212138</v>
+        <v>-8.121834453781037</v>
       </c>
       <c r="I139">
-        <v>-4.629428142849501</v>
+        <v>-5.049772805234488</v>
       </c>
       <c r="J139" t="s">
         <v>79</v>
       </c>
       <c r="K139">
-        <v>-7.784851063120247</v>
+        <v>-7.895727679473286</v>
       </c>
       <c r="L139">
-        <v>-9.63989950002555</v>
+        <v>-8.904717974712339</v>
       </c>
       <c r="M139">
-        <v>-5.44207006538765</v>
+        <v>-5.858833018153852</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6408,25 +6408,25 @@
         <v>80</v>
       </c>
       <c r="G140">
-        <v>0.5085781393548759</v>
+        <v>0.577475345711229</v>
       </c>
       <c r="H140">
-        <v>-0.7454707939517018</v>
+        <v>-0.8221734733094406</v>
       </c>
       <c r="I140">
-        <v>2.462738265515619</v>
+        <v>2.331069003706196</v>
       </c>
       <c r="J140" t="s">
         <v>80</v>
       </c>
       <c r="K140">
-        <v>-0.9392268772800971</v>
+        <v>-0.8713221207508393</v>
       </c>
       <c r="L140">
-        <v>-2.175211498362206</v>
+        <v>-2.250809291689126</v>
       </c>
       <c r="M140">
-        <v>0.9867839815609791</v>
+        <v>0.8570113878898722</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6449,25 +6449,25 @@
         <v>80</v>
       </c>
       <c r="G141">
-        <v>-8.926727433446871</v>
+        <v>-8.919622693255928</v>
       </c>
       <c r="H141">
-        <v>-10.26567582891677</v>
+        <v>-10.27289527414752</v>
       </c>
       <c r="I141">
-        <v>-4.957372638162989</v>
+        <v>-5.367377824353862</v>
       </c>
       <c r="J141" t="s">
         <v>80</v>
       </c>
       <c r="K141">
-        <v>-9.963906256472965</v>
+        <v>-9.956882427902535</v>
       </c>
       <c r="L141">
-        <v>-11.28760617253976</v>
+        <v>-11.29474339984314</v>
       </c>
       <c r="M141">
-        <v>-6.039756059846035</v>
+        <v>-6.445091943128767</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6490,25 +6490,25 @@
         <v>80</v>
       </c>
       <c r="G142">
-        <v>-4.775205287677919</v>
+        <v>-4.329030284389001</v>
       </c>
       <c r="H142">
-        <v>-5.717375892056385</v>
+        <v>-5.671658289499476</v>
       </c>
       <c r="I142">
-        <v>-1.036162340134591</v>
+        <v>-0.9401237411588135</v>
       </c>
       <c r="J142" t="s">
         <v>80</v>
       </c>
       <c r="K142">
-        <v>-6.572239573261351</v>
+        <v>-6.134484559542397</v>
       </c>
       <c r="L142">
-        <v>-7.496630009312311</v>
+        <v>-7.451775166286644</v>
       </c>
       <c r="M142">
-        <v>-2.903757957903652</v>
+        <v>-2.80953175091696</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6531,25 +6531,25 @@
         <v>80</v>
       </c>
       <c r="G143">
-        <v>-2.323117407241534</v>
+        <v>-2.317202002584159</v>
       </c>
       <c r="H143">
-        <v>-3.506617561232045</v>
+        <v>-3.327090769926073</v>
       </c>
       <c r="I143">
-        <v>0.01759934393195992</v>
+        <v>-0.1401212331237503</v>
       </c>
       <c r="J143" t="s">
         <v>80</v>
       </c>
       <c r="K143">
-        <v>-4.033259319408011</v>
+        <v>-4.027447482566926</v>
       </c>
       <c r="L143">
-        <v>-5.196038570328421</v>
+        <v>-5.019654961749199</v>
       </c>
       <c r="M143">
-        <v>-1.73352419781192</v>
+        <v>-1.888483378700234</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6572,25 +6572,25 @@
         <v>80</v>
       </c>
       <c r="G144">
-        <v>-3.191461099694558</v>
+        <v>-3.421914745225994</v>
       </c>
       <c r="H144">
-        <v>-4.429429364510701</v>
+        <v>-4.844259820551889</v>
       </c>
       <c r="I144">
-        <v>0.3098629467803999</v>
+        <v>-0.2514350439375089</v>
       </c>
       <c r="J144" t="s">
         <v>80</v>
       </c>
       <c r="K144">
-        <v>-4.607595180161105</v>
+        <v>-4.834677705075363</v>
       </c>
       <c r="L144">
-        <v>-5.827454205128602</v>
+        <v>-6.236216440813525</v>
       </c>
       <c r="M144">
-        <v>-1.157489180826354</v>
+        <v>-1.710576395687269</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6613,25 +6613,25 @@
         <v>80</v>
       </c>
       <c r="G145">
-        <v>-2.571034877847201</v>
+        <v>-2.699174624892994</v>
       </c>
       <c r="H145">
-        <v>-3.99117384191798</v>
+        <v>-4.382014229191996</v>
       </c>
       <c r="I145">
-        <v>0.9427790937783928</v>
+        <v>0.1983533670425123</v>
       </c>
       <c r="J145" t="s">
         <v>80</v>
       </c>
       <c r="K145">
-        <v>-3.6778097480334</v>
+        <v>-3.804493851454893</v>
       </c>
       <c r="L145">
-        <v>-5.081816198373435</v>
+        <v>-5.468216711752182</v>
       </c>
       <c r="M145">
-        <v>-0.2039120476873824</v>
+        <v>-0.9398812370266407</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6654,25 +6654,25 @@
         <v>81</v>
       </c>
       <c r="G146">
-        <v>5.212857700687213</v>
+        <v>4.633200019206942</v>
       </c>
       <c r="H146">
-        <v>2.845536906465941</v>
+        <v>1.035070894441044</v>
       </c>
       <c r="I146">
-        <v>6.914512700823652</v>
+        <v>6.051057031125201</v>
       </c>
       <c r="J146" t="s">
         <v>81</v>
       </c>
       <c r="K146">
-        <v>0.6317810191154294</v>
+        <v>0.07736223282301946</v>
       </c>
       <c r="L146">
-        <v>-1.632464178403992</v>
+        <v>-3.364100627087308</v>
       </c>
       <c r="M146">
-        <v>2.259344199947977</v>
+        <v>1.433484283472741</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6695,25 +6695,25 @@
         <v>81</v>
       </c>
       <c r="G147">
-        <v>0.4724818613943764</v>
+        <v>0.6544027064603213</v>
       </c>
       <c r="H147">
-        <v>-1.025515684156696</v>
+        <v>-0.9969364145255629</v>
       </c>
       <c r="I147">
-        <v>3.318467542301564</v>
+        <v>3.800301102002822</v>
       </c>
       <c r="J147" t="s">
         <v>81</v>
       </c>
       <c r="K147">
-        <v>-3.750727032156909</v>
+        <v>-3.576452954808573</v>
       </c>
       <c r="L147">
-        <v>-5.185758515362505</v>
+        <v>-5.158380532127815</v>
       </c>
       <c r="M147">
-        <v>-1.024368057148239</v>
+        <v>-0.5627876427544476</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6736,25 +6736,25 @@
         <v>81</v>
       </c>
       <c r="G148">
-        <v>1.227531226969933</v>
+        <v>1.621394615328396</v>
       </c>
       <c r="H148">
-        <v>-0.6469814866967892</v>
+        <v>-0.1652743529062521</v>
       </c>
       <c r="I148">
-        <v>3.338295574230654</v>
+        <v>3.851138893374346</v>
       </c>
       <c r="J148" t="s">
         <v>81</v>
       </c>
       <c r="K148">
-        <v>-3.031354716609846</v>
+        <v>-2.654062109224087</v>
       </c>
       <c r="L148">
-        <v>-4.827002167531025</v>
+        <v>-4.365561612566982</v>
       </c>
       <c r="M148">
-        <v>-1.009395307094763</v>
+        <v>-0.5181285410556291</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6777,25 +6777,25 @@
         <v>81</v>
       </c>
       <c r="G149">
-        <v>0.7693634577301487</v>
+        <v>0.4260531901071532</v>
       </c>
       <c r="H149">
-        <v>-0.6338279141946284</v>
+        <v>-1.715926493350897</v>
       </c>
       <c r="I149">
-        <v>2.568359770339053</v>
+        <v>1.74131919971715</v>
       </c>
       <c r="J149" t="s">
         <v>81</v>
       </c>
       <c r="K149">
-        <v>-3.072422696975863</v>
+        <v>-3.402644416773759</v>
       </c>
       <c r="L149">
-        <v>-4.42211803597865</v>
+        <v>-5.462962098913094</v>
       </c>
       <c r="M149">
-        <v>-1.342012300651418</v>
+        <v>-2.137522325633545</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6818,25 +6818,25 @@
         <v>81</v>
       </c>
       <c r="G150">
-        <v>2.707116590299985</v>
+        <v>2.848675251135844</v>
       </c>
       <c r="H150">
-        <v>0.6518796307701491</v>
+        <v>0.8731949444509777</v>
       </c>
       <c r="I150">
-        <v>4.235745885078237</v>
+        <v>4.157339822683642</v>
       </c>
       <c r="J150" t="s">
         <v>81</v>
       </c>
       <c r="K150">
-        <v>-2.161183385235133</v>
+        <v>-2.02633458100866</v>
       </c>
       <c r="L150">
-        <v>-4.119002460085075</v>
+        <v>-3.908177454884787</v>
       </c>
       <c r="M150">
-        <v>-0.7050108607901007</v>
+        <v>-0.7797004890727322</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6859,25 +6859,25 @@
         <v>81</v>
       </c>
       <c r="G151">
-        <v>3.22770284767725</v>
+        <v>3.059268416547956</v>
       </c>
       <c r="H151">
-        <v>0.07280645631394454</v>
+        <v>1.161216074651896</v>
       </c>
       <c r="I151">
-        <v>6.160352815691262</v>
+        <v>5.848228668242781</v>
       </c>
       <c r="J151" t="s">
         <v>81</v>
       </c>
       <c r="K151">
-        <v>-1.279163406319972</v>
+        <v>-1.440244080340214</v>
       </c>
       <c r="L151">
-        <v>-4.296318709885638</v>
+        <v>-3.255428472916178</v>
       </c>
       <c r="M151">
-        <v>1.525448633783055</v>
+        <v>1.226951659548603</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6900,25 +6900,25 @@
         <v>82</v>
       </c>
       <c r="G152">
-        <v>6.36513802741949</v>
+        <v>7.277226933515964</v>
       </c>
       <c r="H152">
-        <v>4.667387320158345</v>
+        <v>5.282112634511296</v>
       </c>
       <c r="I152">
-        <v>8.592150895936104</v>
+        <v>10.0079502914128</v>
       </c>
       <c r="J152" t="s">
         <v>82</v>
       </c>
       <c r="K152">
-        <v>0.5873903838293115</v>
+        <v>1.449934677605658</v>
       </c>
       <c r="L152">
-        <v>-1.018138611222408</v>
+        <v>-0.4368051374887161</v>
       </c>
       <c r="M152">
-        <v>2.693432052647005</v>
+        <v>4.032325313531904</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6941,25 +6941,25 @@
         <v>82</v>
       </c>
       <c r="G153">
-        <v>-5.519658090569816</v>
+        <v>-6.551935157847091</v>
       </c>
       <c r="H153">
-        <v>-7.792117584803712</v>
+        <v>-9.360768893391958</v>
       </c>
       <c r="I153">
-        <v>-1.411368432743443</v>
+        <v>-2.305536399597107</v>
       </c>
       <c r="J153" t="s">
         <v>82</v>
       </c>
       <c r="K153">
-        <v>-10.02212383097216</v>
+        <v>-11.00520767946882</v>
       </c>
       <c r="L153">
-        <v>-12.18628914662394</v>
+        <v>-13.68018629331123</v>
       </c>
       <c r="M153">
-        <v>-6.109614936235586</v>
+        <v>-6.961171280866473</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6982,25 +6982,25 @@
         <v>82</v>
       </c>
       <c r="G154">
-        <v>-2.353346634960113</v>
+        <v>-0.6161746285174509</v>
       </c>
       <c r="H154">
-        <v>-5.604313152035323</v>
+        <v>-3.853853825907647</v>
       </c>
       <c r="I154">
-        <v>0.01552018663805599</v>
+        <v>1.888338108789225</v>
       </c>
       <c r="J154" t="s">
         <v>82</v>
       </c>
       <c r="K154">
-        <v>-6.447107623829651</v>
+        <v>-4.782765220305851</v>
       </c>
       <c r="L154">
-        <v>-9.561779865114683</v>
+        <v>-7.884707202584329</v>
       </c>
       <c r="M154">
-        <v>-4.177553725387517</v>
+        <v>-2.383252257049628</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7023,25 +7023,25 @@
         <v>82</v>
       </c>
       <c r="G155">
-        <v>-1.612695654636482</v>
+        <v>-0.7894741377752</v>
       </c>
       <c r="H155">
-        <v>-3.764674255870258</v>
+        <v>-2.918588138122768</v>
       </c>
       <c r="I155">
-        <v>0.7130966928317874</v>
+        <v>2.069940611629687</v>
       </c>
       <c r="J155" t="s">
         <v>82</v>
       </c>
       <c r="K155">
-        <v>-5.703227004041411</v>
+        <v>-4.914231584181472</v>
       </c>
       <c r="L155">
-        <v>-7.765735363253956</v>
+        <v>-6.954825956688571</v>
       </c>
       <c r="M155">
-        <v>-3.474131344960174</v>
+        <v>-2.173699303924581</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7064,25 +7064,25 @@
         <v>82</v>
       </c>
       <c r="G156">
-        <v>-2.260898758592531</v>
+        <v>-2.259799575792754</v>
       </c>
       <c r="H156">
-        <v>-4.719296340606973</v>
+        <v>-4.131403673012165</v>
       </c>
       <c r="I156">
-        <v>1.956127803207883</v>
+        <v>3.115203095879201</v>
       </c>
       <c r="J156" t="s">
         <v>82</v>
       </c>
       <c r="K156">
-        <v>-7.259721471996706</v>
+        <v>-7.258678506410665</v>
       </c>
       <c r="L156">
-        <v>-9.592385406827308</v>
+        <v>-9.0345602473484</v>
       </c>
       <c r="M156">
-        <v>-3.258372851699864</v>
+        <v>-2.158577947593199</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7105,25 +7105,25 @@
         <v>82</v>
       </c>
       <c r="G157">
-        <v>-0.06448434644889867</v>
+        <v>-0.1130511223616801</v>
       </c>
       <c r="H157">
-        <v>-2.594670999750604</v>
+        <v>-2.713073328329698</v>
       </c>
       <c r="I157">
-        <v>3.768623934247618</v>
+        <v>3.167094837073611</v>
       </c>
       <c r="J157" t="s">
         <v>82</v>
       </c>
       <c r="K157">
-        <v>-5.081785910421055</v>
+        <v>-5.127914372395592</v>
       </c>
       <c r="L157">
-        <v>-7.484943555369394</v>
+        <v>-7.597401448834784</v>
       </c>
       <c r="M157">
-        <v>-1.441120326856205</v>
+        <v>-2.012449420955342</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7146,25 +7146,25 @@
         <v>83</v>
       </c>
       <c r="G158">
-        <v>6.621710958638341</v>
+        <v>8.150924889180514</v>
       </c>
       <c r="H158">
-        <v>4.576570533436902</v>
+        <v>6.017934247331215</v>
       </c>
       <c r="I158">
-        <v>8.17813515435239</v>
+        <v>9.726864258732109</v>
       </c>
       <c r="J158" t="s">
         <v>83</v>
       </c>
       <c r="K158">
-        <v>-0.01997198780557818</v>
+        <v>1.413984100852161</v>
       </c>
       <c r="L158">
-        <v>-1.937716461816441</v>
+        <v>-0.5861382213695476</v>
       </c>
       <c r="M158">
-        <v>1.439499383336784</v>
+        <v>2.891755006014329</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7187,25 +7187,25 @@
         <v>83</v>
       </c>
       <c r="G159">
-        <v>0.04627349701991566</v>
+        <v>-1.949614788666155</v>
       </c>
       <c r="H159">
-        <v>-2.172804641850191</v>
+        <v>-4.462209182873328</v>
       </c>
       <c r="I159">
-        <v>3.559987449339352</v>
+        <v>-0.1046311577263206</v>
       </c>
       <c r="J159" t="s">
         <v>83</v>
       </c>
       <c r="K159">
-        <v>-5.784692750733589</v>
+        <v>-7.664255292128253</v>
       </c>
       <c r="L159">
-        <v>-7.874437039610116</v>
+        <v>-10.03040891853058</v>
       </c>
       <c r="M159">
-        <v>-2.475767510118099</v>
+        <v>-5.926802275809351</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7228,25 +7228,25 @@
         <v>83</v>
       </c>
       <c r="G160">
-        <v>4.112446042763335</v>
+        <v>4.79295319819045</v>
       </c>
       <c r="H160">
-        <v>1.898650660384486</v>
+        <v>2.698429573543472</v>
       </c>
       <c r="I160">
-        <v>6.138394691292559</v>
+        <v>6.610664740233295</v>
       </c>
       <c r="J160" t="s">
         <v>83</v>
       </c>
       <c r="K160">
-        <v>-2.080230986495069</v>
+        <v>-1.440200845967099</v>
       </c>
       <c r="L160">
-        <v>-4.162348357905799</v>
+        <v>-3.410140822543184</v>
       </c>
       <c r="M160">
-        <v>-0.1747871011816615</v>
+        <v>0.2693920134390515</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7269,25 +7269,25 @@
         <v>83</v>
       </c>
       <c r="G161">
-        <v>3.858661083224701</v>
+        <v>3.343371919929039</v>
       </c>
       <c r="H161">
-        <v>2.427717997026995</v>
+        <v>1.722776375190433</v>
       </c>
       <c r="I161">
-        <v>6.179663371409235</v>
+        <v>5.455149537907886</v>
       </c>
       <c r="J161" t="s">
         <v>83</v>
       </c>
       <c r="K161">
-        <v>-1.652094358399403</v>
+        <v>-2.140042204841719</v>
       </c>
       <c r="L161">
-        <v>-3.007111399367246</v>
+        <v>-3.674648717720153</v>
       </c>
       <c r="M161">
-        <v>0.5457552157386303</v>
+        <v>-0.1403158099231305</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7310,25 +7310,25 @@
         <v>83</v>
       </c>
       <c r="G162">
-        <v>3.284629789123956</v>
+        <v>3.468637477786424</v>
       </c>
       <c r="H162">
-        <v>0.4975322996820451</v>
+        <v>0.3313327311364188</v>
       </c>
       <c r="I162">
-        <v>5.334205143926576</v>
+        <v>5.2532739822945</v>
       </c>
       <c r="J162" t="s">
         <v>83</v>
       </c>
       <c r="K162">
-        <v>-1.667245923904259</v>
+        <v>-1.492060295274911</v>
       </c>
       <c r="L162">
-        <v>-4.320718880867469</v>
+        <v>-4.478950181446429</v>
       </c>
       <c r="M162">
-        <v>0.2840646412370917</v>
+        <v>0.2070136411985724</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7351,25 +7351,25 @@
         <v>83</v>
       </c>
       <c r="G163">
-        <v>3.376647019187683</v>
+        <v>2.989318893279156</v>
       </c>
       <c r="H163">
-        <v>0.9682705062532553</v>
+        <v>0.6438471918377129</v>
       </c>
       <c r="I163">
-        <v>5.111767219844566</v>
+        <v>4.653511441139671</v>
       </c>
       <c r="J163" t="s">
         <v>83</v>
       </c>
       <c r="K163">
-        <v>-1.303231662930782</v>
+        <v>-1.673025377618864</v>
       </c>
       <c r="L163">
-        <v>-3.602580554769064</v>
+        <v>-3.912317169655322</v>
       </c>
       <c r="M163">
-        <v>0.3533393462780587</v>
+        <v>-0.08417111410244926</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7392,25 +7392,25 @@
         <v>84</v>
       </c>
       <c r="G164">
-        <v>4.115237579958886</v>
+        <v>2.755045108387155</v>
       </c>
       <c r="H164">
-        <v>2.250230446252257</v>
+        <v>0.9733892921570096</v>
       </c>
       <c r="I164">
-        <v>6.817983246576035</v>
+        <v>4.794673544681622</v>
       </c>
       <c r="J164" t="s">
         <v>84</v>
       </c>
       <c r="K164">
-        <v>-0.9563392862345088</v>
+        <v>-2.250275167198212</v>
       </c>
       <c r="L164">
-        <v>-2.730499707639999</v>
+        <v>-3.94514441278665</v>
       </c>
       <c r="M164">
-        <v>1.614752429273958</v>
+        <v>-0.3099994542281936</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7433,25 +7433,25 @@
         <v>84</v>
       </c>
       <c r="G165">
-        <v>-6.224261588546698</v>
+        <v>-7.38600607150701</v>
       </c>
       <c r="H165">
-        <v>-10.27544423629408</v>
+        <v>-13.36927198008661</v>
       </c>
       <c r="I165">
-        <v>-3.529677837063004</v>
+        <v>-3.451688753015723</v>
       </c>
       <c r="J165" t="s">
         <v>84</v>
       </c>
       <c r="K165">
-        <v>-11.78668877144171</v>
+        <v>-12.8795229029501</v>
       </c>
       <c r="L165">
-        <v>-15.59757036835834</v>
+        <v>-18.50788378496148</v>
       </c>
       <c r="M165">
-        <v>-9.25193768200624</v>
+        <v>-9.178574619661617</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7474,25 +7474,25 @@
         <v>84</v>
       </c>
       <c r="G166">
-        <v>2.091722362498296</v>
+        <v>2.236389278950548</v>
       </c>
       <c r="H166">
-        <v>-0.791321126445874</v>
+        <v>-1.964103311698923</v>
       </c>
       <c r="I166">
-        <v>3.546806230721505</v>
+        <v>3.951398419545749</v>
       </c>
       <c r="J166" t="s">
         <v>84</v>
       </c>
       <c r="K166">
-        <v>-4.112284975031811</v>
+        <v>-3.976409315993956</v>
       </c>
       <c r="L166">
-        <v>-6.820128922368518</v>
+        <v>-7.921642359144587</v>
       </c>
       <c r="M166">
-        <v>-2.745625033707655</v>
+        <v>-2.36561948961902</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7515,25 +7515,25 @@
         <v>84</v>
       </c>
       <c r="G167">
-        <v>3.016622633845009</v>
+        <v>3.077702646697141</v>
       </c>
       <c r="H167">
-        <v>0.2346892605759872</v>
+        <v>-0.6994748723515218</v>
       </c>
       <c r="I167">
-        <v>4.703203762443882</v>
+        <v>4.461833353728411</v>
       </c>
       <c r="J167" t="s">
         <v>84</v>
       </c>
       <c r="K167">
-        <v>-3.796376807848512</v>
+        <v>-3.739336318743336</v>
       </c>
       <c r="L167">
-        <v>-6.394327149696699</v>
+        <v>-7.266710382092212</v>
       </c>
       <c r="M167">
-        <v>-2.221337642029342</v>
+        <v>-2.44674503023633</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7556,25 +7556,25 @@
         <v>84</v>
       </c>
       <c r="G168">
-        <v>2.078780330622655</v>
+        <v>3.782995873175652</v>
       </c>
       <c r="H168">
-        <v>-2.020147247984951</v>
+        <v>-1.023055143094</v>
       </c>
       <c r="I168">
-        <v>4.716166603116857</v>
+        <v>6.300197593736028</v>
       </c>
       <c r="J168" t="s">
         <v>84</v>
       </c>
       <c r="K168">
-        <v>-4.202879371721591</v>
+        <v>-2.603536772037729</v>
       </c>
       <c r="L168">
-        <v>-8.049569726197292</v>
+        <v>-7.113836047362499</v>
       </c>
       <c r="M168">
-        <v>-1.727790914833949</v>
+        <v>-0.2412370258103258</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7597,25 +7597,25 @@
         <v>84</v>
       </c>
       <c r="G169">
-        <v>4.163422058583014</v>
+        <v>2.869069299046385</v>
       </c>
       <c r="H169">
-        <v>0.6920834878287961</v>
+        <v>-0.5653038737472347</v>
       </c>
       <c r="I169">
-        <v>7.350760164379812</v>
+        <v>5.171820855774964</v>
       </c>
       <c r="J169" t="s">
         <v>84</v>
       </c>
       <c r="K169">
-        <v>-0.6834556857929441</v>
+        <v>-1.917580301326782</v>
       </c>
       <c r="L169">
-        <v>-3.993267750128071</v>
+        <v>-5.19214702221894</v>
       </c>
       <c r="M169">
-        <v>2.355570874324209</v>
+        <v>0.2780208272519236</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7638,25 +7638,25 @@
         <v>85</v>
       </c>
       <c r="G170">
-        <v>-0.1606540393730046</v>
+        <v>-0.4314745908078786</v>
       </c>
       <c r="H170">
-        <v>-1.729362290369069</v>
+        <v>-2.184789445101053</v>
       </c>
       <c r="I170">
-        <v>1.17702767976917</v>
+        <v>1.162004787023836</v>
       </c>
       <c r="J170" t="s">
         <v>85</v>
       </c>
       <c r="K170">
-        <v>-1.157529702176396</v>
+        <v>-1.425646165216909</v>
       </c>
       <c r="L170">
-        <v>-2.710574718779146</v>
+        <v>-3.161454525545604</v>
       </c>
       <c r="M170">
-        <v>0.1667955357352646</v>
+        <v>0.1519226435334975</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7679,25 +7679,25 @@
         <v>85</v>
       </c>
       <c r="G171">
-        <v>-13.26232881577275</v>
+        <v>-13.30852105995834</v>
       </c>
       <c r="H171">
-        <v>-15.6432748961504</v>
+        <v>-15.5937703004725</v>
       </c>
       <c r="I171">
-        <v>-9.321207426141228</v>
+        <v>-9.658842850203122</v>
       </c>
       <c r="J171" t="s">
         <v>85</v>
       </c>
       <c r="K171">
-        <v>-14.58469398074401</v>
+        <v>-14.63018199787614</v>
       </c>
       <c r="L171">
-        <v>-16.92934118298279</v>
+        <v>-16.88059131304211</v>
       </c>
       <c r="M171">
-        <v>-10.70365722983311</v>
+        <v>-11.036145209686</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7720,25 +7720,25 @@
         <v>85</v>
       </c>
       <c r="G172">
-        <v>-11.27699728724913</v>
+        <v>-11.49966096247623</v>
       </c>
       <c r="H172">
-        <v>-13.24042211690053</v>
+        <v>-13.50968420242611</v>
       </c>
       <c r="I172">
-        <v>-7.266358449575598</v>
+        <v>-7.280364059861636</v>
       </c>
       <c r="J172" t="s">
         <v>85</v>
       </c>
       <c r="K172">
-        <v>-12.49137969804704</v>
+        <v>-12.71099569857365</v>
       </c>
       <c r="L172">
-        <v>-14.42793045327411</v>
+        <v>-14.69350705554778</v>
       </c>
       <c r="M172">
-        <v>-8.535635860673507</v>
+        <v>-8.549449771329643</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7761,25 +7761,25 @@
         <v>85</v>
       </c>
       <c r="G173">
-        <v>-5.005725170968574</v>
+        <v>-4.26076052425117</v>
       </c>
       <c r="H173">
-        <v>-6.615880193192646</v>
+        <v>-5.382573054447267</v>
       </c>
       <c r="I173">
-        <v>-2.631495820682923</v>
+        <v>-1.990175406210007</v>
       </c>
       <c r="J173" t="s">
         <v>85</v>
       </c>
       <c r="K173">
-        <v>-6.577674300842363</v>
+        <v>-5.845037202604086</v>
       </c>
       <c r="L173">
-        <v>-8.161184751162477</v>
+        <v>-6.948286169533901</v>
       </c>
       <c r="M173">
-        <v>-4.242733294701873</v>
+        <v>-3.61202534155165</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7802,25 +7802,25 @@
         <v>85</v>
       </c>
       <c r="G174">
-        <v>-5.156419868647333</v>
+        <v>-5.827911839417442</v>
       </c>
       <c r="H174">
-        <v>-6.464460649243989</v>
+        <v>-6.946698131133328</v>
       </c>
       <c r="I174">
-        <v>-2.403009658087478</v>
+        <v>-2.267901514304707</v>
       </c>
       <c r="J174" t="s">
         <v>85</v>
       </c>
       <c r="K174">
-        <v>-7.320834267777609</v>
+        <v>-7.977002197759486</v>
       </c>
       <c r="L174">
-        <v>-8.599024400641941</v>
+        <v>-9.070256796597631</v>
       </c>
       <c r="M174">
-        <v>-4.630259313944618</v>
+        <v>-4.498234457522344</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7843,25 +7843,25 @@
         <v>85</v>
       </c>
       <c r="G175">
-        <v>-3.664577043409634</v>
+        <v>-3.753238920346786</v>
       </c>
       <c r="H175">
-        <v>-4.899146420002033</v>
+        <v>-4.694123625359534</v>
       </c>
       <c r="I175">
-        <v>-1.777772759695964</v>
+        <v>-1.263086895788027</v>
       </c>
       <c r="J175" t="s">
         <v>85</v>
       </c>
       <c r="K175">
-        <v>-6.2396661198866</v>
+        <v>-6.325958025075118</v>
       </c>
       <c r="L175">
-        <v>-7.441234903153648</v>
+        <v>-7.241692459795345</v>
       </c>
       <c r="M175">
-        <v>-4.40329696119055</v>
+        <v>-3.902368881338469</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7884,25 +7884,25 @@
         <v>86</v>
       </c>
       <c r="G176">
-        <v>3.518887980374787</v>
+        <v>3.551149731167461</v>
       </c>
       <c r="H176">
-        <v>2.682214578546306</v>
+        <v>2.69550853117404</v>
       </c>
       <c r="I176">
-        <v>4.577060339231583</v>
+        <v>4.563803944140626</v>
       </c>
       <c r="J176" t="s">
         <v>86</v>
       </c>
       <c r="K176">
-        <v>0.01266006198663572</v>
+        <v>0.04382909382207867</v>
       </c>
       <c r="L176">
-        <v>-0.7956748627069299</v>
+        <v>-0.7828311818002254</v>
       </c>
       <c r="M176">
-        <v>1.034991681636543</v>
+        <v>1.022184286177175</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7925,25 +7925,25 @@
         <v>86</v>
       </c>
       <c r="G177">
-        <v>-6.996218598595301</v>
+        <v>-6.902701680703633</v>
       </c>
       <c r="H177">
-        <v>-8.59985388123834</v>
+        <v>-8.477768472693867</v>
       </c>
       <c r="I177">
-        <v>-5.273924222379605</v>
+        <v>-5.152285014581048</v>
       </c>
       <c r="J177" t="s">
         <v>86</v>
       </c>
       <c r="K177">
-        <v>-9.993198275599225</v>
+        <v>-9.902694872837314</v>
       </c>
       <c r="L177">
-        <v>-11.54515756959977</v>
+        <v>-11.4270062751607</v>
       </c>
       <c r="M177">
-        <v>-8.326403591606347</v>
+        <v>-8.208684119416453</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7966,25 +7966,25 @@
         <v>86</v>
       </c>
       <c r="G178">
-        <v>-2.301532187473152</v>
+        <v>-1.92726398752126</v>
       </c>
       <c r="H178">
-        <v>-3.912203850331802</v>
+        <v>-4.120006736586159</v>
       </c>
       <c r="I178">
-        <v>-1.129676971955142</v>
+        <v>-0.6625280766453179</v>
       </c>
       <c r="J178" t="s">
         <v>86</v>
       </c>
       <c r="K178">
-        <v>-5.678925298407234</v>
+        <v>-5.317595385702423</v>
       </c>
       <c r="L178">
-        <v>-7.233916749488611</v>
+        <v>-7.434535981258083</v>
       </c>
       <c r="M178">
-        <v>-4.547580602864798</v>
+        <v>-4.096580839635811</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8007,25 +8007,25 @@
         <v>86</v>
       </c>
       <c r="G179">
-        <v>-2.340247752801365</v>
+        <v>-1.915690164721658</v>
       </c>
       <c r="H179">
-        <v>-4.621828979131664</v>
+        <v>-3.844805528528702</v>
       </c>
       <c r="I179">
-        <v>-1.257246784144147</v>
+        <v>-0.8081332837125361</v>
       </c>
       <c r="J179" t="s">
         <v>86</v>
       </c>
       <c r="K179">
-        <v>-5.639760056467191</v>
+        <v>-5.229546483739256</v>
       </c>
       <c r="L179">
-        <v>-7.844256248739301</v>
+        <v>-7.093485152627387</v>
       </c>
       <c r="M179">
-        <v>-4.593349135795366</v>
+        <v>-4.159409291719807</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8048,25 +8048,25 @@
         <v>86</v>
       </c>
       <c r="G180">
-        <v>-1.20419576763093</v>
+        <v>-2.285498746419902</v>
       </c>
       <c r="H180">
-        <v>-2.57977046019048</v>
+        <v>-3.874652600570617</v>
       </c>
       <c r="I180">
-        <v>0.900955382553866</v>
+        <v>-0.4364544116357251</v>
       </c>
       <c r="J180" t="s">
         <v>86</v>
       </c>
       <c r="K180">
-        <v>-4.4396911256246</v>
+        <v>-5.485582167685688</v>
       </c>
       <c r="L180">
-        <v>-5.770216683082396</v>
+        <v>-7.022692314533319</v>
       </c>
       <c r="M180">
-        <v>-2.40348224305148</v>
+        <v>-3.697092776589683</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8089,25 +8089,25 @@
         <v>86</v>
       </c>
       <c r="G181">
-        <v>-1.179647091165713</v>
+        <v>-1.214090878931876</v>
       </c>
       <c r="H181">
-        <v>-2.760059504422125</v>
+        <v>-2.459606722047743</v>
       </c>
       <c r="I181">
-        <v>0.7446272747558107</v>
+        <v>0.1898001786983187</v>
       </c>
       <c r="J181" t="s">
         <v>86</v>
       </c>
       <c r="K181">
-        <v>-4.395154217398922</v>
+        <v>-4.428477241660844</v>
       </c>
       <c r="L181">
-        <v>-5.924141724473298</v>
+        <v>-5.633465349836619</v>
       </c>
       <c r="M181">
-        <v>-2.533493652726992</v>
+        <v>-3.070267276714356</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8130,25 +8130,25 @@
         <v>87</v>
       </c>
       <c r="G182">
-        <v>5.485154992048945</v>
+        <v>6.727309658720409</v>
       </c>
       <c r="H182">
-        <v>4.087968850474377</v>
+        <v>5.034572071234695</v>
       </c>
       <c r="I182">
-        <v>7.179865210967726</v>
+        <v>8.732865545004458</v>
       </c>
       <c r="J182" t="s">
         <v>87</v>
       </c>
       <c r="K182">
-        <v>0.1273720043888815</v>
+        <v>1.306435375023152</v>
       </c>
       <c r="L182">
-        <v>-1.19884851040637</v>
+        <v>-0.3003249898904659</v>
       </c>
       <c r="M182">
-        <v>1.736004807195224</v>
+        <v>3.210125428061317</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8171,25 +8171,25 @@
         <v>87</v>
       </c>
       <c r="G183">
-        <v>-8.10254406024333</v>
+        <v>-7.752174687783408</v>
       </c>
       <c r="H183">
-        <v>-10.58876719984818</v>
+        <v>-10.35602427486989</v>
       </c>
       <c r="I183">
-        <v>-3.86856230474988</v>
+        <v>-3.556701074997801</v>
       </c>
       <c r="J183" t="s">
         <v>87</v>
       </c>
       <c r="K183">
-        <v>-12.48618284750936</v>
+        <v>-12.15252659028511</v>
       </c>
       <c r="L183">
-        <v>-14.85380962253461</v>
+        <v>-14.63216886467251</v>
       </c>
       <c r="M183">
-        <v>-8.454168017630536</v>
+        <v>-8.157183010174339</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8212,25 +8212,25 @@
         <v>87</v>
       </c>
       <c r="G184">
-        <v>1.956312648639544</v>
+        <v>2.078829881891998</v>
       </c>
       <c r="H184">
-        <v>-1.186300288389135</v>
+        <v>-0.5180814595431225</v>
       </c>
       <c r="I184">
-        <v>4.75255768823502</v>
+        <v>4.595464453294155</v>
       </c>
       <c r="J184" t="s">
         <v>87</v>
       </c>
       <c r="K184">
-        <v>-3.228057147028207</v>
+        <v>-3.111769784462715</v>
       </c>
       <c r="L184">
-        <v>-6.210871566761011</v>
+        <v>-5.576630952928562</v>
       </c>
       <c r="M184">
-        <v>-0.5739981864303356</v>
+        <v>-0.7231033978621682</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8253,25 +8253,25 @@
         <v>87</v>
       </c>
       <c r="G185">
-        <v>1.938854641154176</v>
+        <v>2.214305001958977</v>
       </c>
       <c r="H185">
-        <v>0.01116438643878529</v>
+        <v>0.8725141372827377</v>
       </c>
       <c r="I185">
-        <v>5.020176187053902</v>
+        <v>4.231716875168184</v>
       </c>
       <c r="J185" t="s">
         <v>87</v>
       </c>
       <c r="K185">
-        <v>-3.16052662989692</v>
+        <v>-2.898855376341625</v>
       </c>
       <c r="L185">
-        <v>-4.991786258469944</v>
+        <v>-4.173524600019607</v>
       </c>
       <c r="M185">
-        <v>-0.2333448713879749</v>
+        <v>-0.9823623564828243</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8294,25 +8294,25 @@
         <v>87</v>
       </c>
       <c r="G186">
-        <v>3.875659418927555</v>
+        <v>2.400029347019953</v>
       </c>
       <c r="H186">
-        <v>2.414764212587767</v>
+        <v>1.179187385015378</v>
       </c>
       <c r="I186">
-        <v>7.003616038020063</v>
+        <v>5.053244539115016</v>
       </c>
       <c r="J186" t="s">
         <v>87</v>
       </c>
       <c r="K186">
-        <v>-0.9780495520565591</v>
+        <v>-2.384729121431262</v>
       </c>
       <c r="L186">
-        <v>-2.370682759306808</v>
+        <v>-3.548525846695272</v>
       </c>
       <c r="M186">
-        <v>2.003749717105596</v>
+        <v>0.144511556789606</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8335,25 +8335,25 @@
         <v>87</v>
       </c>
       <c r="G187">
-        <v>2.483575044429049</v>
+        <v>2.96340285912749</v>
       </c>
       <c r="H187">
-        <v>0.9632574063956647</v>
+        <v>1.232741310970642</v>
       </c>
       <c r="I187">
-        <v>5.026567357803884</v>
+        <v>5.319933300060404</v>
       </c>
       <c r="J187" t="s">
         <v>87</v>
       </c>
       <c r="K187">
-        <v>-2.180654355287126</v>
+        <v>-1.722664449728251</v>
       </c>
       <c r="L187">
-        <v>-3.631779342486963</v>
+        <v>-3.374560181310371</v>
       </c>
       <c r="M187">
-        <v>0.2466013680423984</v>
+        <v>0.5266156483164419</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8376,25 +8376,25 @@
         <v>88</v>
       </c>
       <c r="G188">
-        <v>2.955912370189956</v>
+        <v>2.346125445998047</v>
       </c>
       <c r="H188">
-        <v>1.906707296486415</v>
+        <v>1.247931075909109</v>
       </c>
       <c r="I188">
-        <v>4.445692756350196</v>
+        <v>3.393823969815474</v>
       </c>
       <c r="J188" t="s">
         <v>88</v>
       </c>
       <c r="K188">
-        <v>-0.1313986912043652</v>
+        <v>-0.7229001000449875</v>
       </c>
       <c r="L188">
-        <v>-1.149141536511844</v>
+        <v>-1.788163212974581</v>
       </c>
       <c r="M188">
-        <v>1.313708053983209</v>
+        <v>0.2933813718797973</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8417,25 +8417,25 @@
         <v>88</v>
       </c>
       <c r="G189">
-        <v>-3.892204163084423</v>
+        <v>-4.298493560234409</v>
       </c>
       <c r="H189">
-        <v>-5.875441342516289</v>
+        <v>-6.104675984119773</v>
       </c>
       <c r="I189">
-        <v>-2.00714021110327</v>
+        <v>-2.617231059827341</v>
       </c>
       <c r="J189" t="s">
         <v>88</v>
       </c>
       <c r="K189">
-        <v>-7.092803851650952</v>
+        <v>-7.485562923746015</v>
       </c>
       <c r="L189">
-        <v>-9.009994897742979</v>
+        <v>-9.231595524684732</v>
       </c>
       <c r="M189">
-        <v>-5.270516649933388</v>
+        <v>-5.860290139764579</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8458,25 +8458,25 @@
         <v>88</v>
       </c>
       <c r="G190">
-        <v>-0.227067470240955</v>
+        <v>-0.570869925577833</v>
       </c>
       <c r="H190">
-        <v>-1.964576074078514</v>
+        <v>-2.03740613277619</v>
       </c>
       <c r="I190">
-        <v>1.654851740174463</v>
+        <v>0.7777780067780797</v>
       </c>
       <c r="J190" t="s">
         <v>88</v>
       </c>
       <c r="K190">
-        <v>-3.651864152087791</v>
+        <v>-3.983865275356002</v>
       </c>
       <c r="L190">
-        <v>-5.329731192324639</v>
+        <v>-5.400061292997204</v>
       </c>
       <c r="M190">
-        <v>-1.834543530727706</v>
+        <v>-2.681510910269302</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8499,25 +8499,25 @@
         <v>88</v>
       </c>
       <c r="G191">
-        <v>0.4916232903587657</v>
+        <v>0.6606027117607732</v>
       </c>
       <c r="H191">
-        <v>-1.041334789623449</v>
+        <v>-0.495239171730663</v>
       </c>
       <c r="I191">
-        <v>1.554018891339591</v>
+        <v>1.434044129695356</v>
       </c>
       <c r="J191" t="s">
         <v>88</v>
       </c>
       <c r="K191">
-        <v>-3.192067056461623</v>
+        <v>-3.029281861434385</v>
       </c>
       <c r="L191">
-        <v>-4.668831966342535</v>
+        <v>-4.142754406574456</v>
       </c>
       <c r="M191">
-        <v>-2.168615362362758</v>
+        <v>-2.284192246284844</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8540,25 +8540,25 @@
         <v>88</v>
       </c>
       <c r="G192">
-        <v>0.2478655484040514</v>
+        <v>0.06717431165598702</v>
       </c>
       <c r="H192">
-        <v>-1.601702850979415</v>
+        <v>-1.409051650612724</v>
       </c>
       <c r="I192">
-        <v>1.263180541120033</v>
+        <v>1.200419938642233</v>
       </c>
       <c r="J192" t="s">
         <v>88</v>
       </c>
       <c r="K192">
-        <v>-3.974713587672796</v>
+        <v>-4.147793858918602</v>
       </c>
       <c r="L192">
-        <v>-5.746375600807951</v>
+        <v>-5.561839136199054</v>
       </c>
       <c r="M192">
-        <v>-3.002165070645213</v>
+        <v>-3.062282109500569</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8581,25 +8581,25 @@
         <v>88</v>
       </c>
       <c r="G193">
-        <v>-0.5927838496165408</v>
+        <v>-0.4824678995436045</v>
       </c>
       <c r="H193">
-        <v>-2.378248366231953</v>
+        <v>-1.925524200630358</v>
       </c>
       <c r="I193">
-        <v>1.193004513995561</v>
+        <v>0.5930635429812927</v>
       </c>
       <c r="J193" t="s">
         <v>88</v>
       </c>
       <c r="K193">
-        <v>-5.059573755888591</v>
+        <v>-4.954214771631305</v>
       </c>
       <c r="L193">
-        <v>-6.764809741923683</v>
+        <v>-6.332428402643431</v>
       </c>
       <c r="M193">
-        <v>-3.354028474682635</v>
+        <v>-3.927011540853931</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8622,25 +8622,25 @@
         <v>89</v>
       </c>
       <c r="G194">
-        <v>8.650013599671016</v>
+        <v>7.678635940784631</v>
       </c>
       <c r="H194">
-        <v>6.753912898310872</v>
+        <v>5.971059129418677</v>
       </c>
       <c r="I194">
-        <v>9.624750682138568</v>
+        <v>8.688227155464677</v>
       </c>
       <c r="J194" t="s">
         <v>89</v>
       </c>
       <c r="K194">
-        <v>-0.1722520694873553</v>
+        <v>-1.06475489451171</v>
       </c>
       <c r="L194">
-        <v>-1.914391408408</v>
+        <v>-2.6336782830086</v>
       </c>
       <c r="M194">
-        <v>0.7233373974925961</v>
+        <v>-0.1371414138241822</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8663,25 +8663,25 @@
         <v>89</v>
       </c>
       <c r="G195">
-        <v>-4.689533512744787</v>
+        <v>-5.18553992628796</v>
       </c>
       <c r="H195">
-        <v>-7.469935109603236</v>
+        <v>-7.878030261964176</v>
       </c>
       <c r="I195">
-        <v>-2.331300113628441</v>
+        <v>-3.250416356275146</v>
       </c>
       <c r="J195" t="s">
         <v>89</v>
       </c>
       <c r="K195">
-        <v>-12.10930394748627</v>
+        <v>-12.56669703913219</v>
       </c>
       <c r="L195">
-        <v>-14.67325563778763</v>
+        <v>-15.04958122214993</v>
       </c>
       <c r="M195">
-        <v>-9.934655322402309</v>
+        <v>-10.78221980610139</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8704,25 +8704,25 @@
         <v>89</v>
       </c>
       <c r="G196">
-        <v>3.892193403425059</v>
+        <v>4.424205594280635</v>
       </c>
       <c r="H196">
-        <v>2.100854844250667</v>
+        <v>2.798918255653046</v>
       </c>
       <c r="I196">
-        <v>6.63990140283554</v>
+        <v>7.354030443980401</v>
       </c>
       <c r="J196" t="s">
         <v>89</v>
       </c>
       <c r="K196">
-        <v>-3.68215949200692</v>
+        <v>-3.18893412378165</v>
       </c>
       <c r="L196">
-        <v>-5.342898918003957</v>
+        <v>-4.695728441365398</v>
       </c>
       <c r="M196">
-        <v>-1.13477559163937</v>
+        <v>-0.4727107643041517</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8745,25 +8745,25 @@
         <v>89</v>
       </c>
       <c r="G197">
-        <v>2.354798325587976</v>
+        <v>2.184646762173597</v>
       </c>
       <c r="H197">
-        <v>1.024777930930064</v>
+        <v>1.142793169428713</v>
       </c>
       <c r="I197">
-        <v>5.17674187504703</v>
+        <v>4.674958949109435</v>
       </c>
       <c r="J197" t="s">
         <v>89</v>
       </c>
       <c r="K197">
-        <v>-5.471037923281385</v>
+        <v>-5.628180049966335</v>
       </c>
       <c r="L197">
-        <v>-6.699367708544135</v>
+        <v>-6.590375671170101</v>
       </c>
       <c r="M197">
-        <v>-2.864854342899426</v>
+        <v>-3.328271983817599</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8786,25 +8786,25 @@
         <v>89</v>
       </c>
       <c r="G198">
-        <v>1.642449582490691</v>
+        <v>2.032294228977015</v>
       </c>
       <c r="H198">
-        <v>0.08452128708747034</v>
+        <v>0.9174170749062805</v>
       </c>
       <c r="I198">
-        <v>4.827827926968647</v>
+        <v>4.865442131071179</v>
       </c>
       <c r="J198" t="s">
         <v>89</v>
       </c>
       <c r="K198">
-        <v>-5.471885959740252</v>
+        <v>-5.109327999435131</v>
       </c>
       <c r="L198">
-        <v>-6.920769021682826</v>
+        <v>-6.146170727977873</v>
       </c>
       <c r="M198">
-        <v>-2.509464169975983</v>
+        <v>-2.47448272482641</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8827,25 +8827,25 @@
         <v>89</v>
       </c>
       <c r="G199">
-        <v>1.744446008565511</v>
+        <v>2.023783605504958</v>
       </c>
       <c r="H199">
-        <v>-0.1727145286503115</v>
+        <v>0.7581385757490411</v>
       </c>
       <c r="I199">
-        <v>4.119620524170754</v>
+        <v>4.572790515814128</v>
       </c>
       <c r="J199" t="s">
         <v>89</v>
       </c>
       <c r="K199">
-        <v>-5.23862861409452</v>
+        <v>-4.978462926393046</v>
       </c>
       <c r="L199">
-        <v>-7.024207766574408</v>
+        <v>-6.157242342984759</v>
       </c>
       <c r="M199">
-        <v>-3.026470572950346</v>
+        <v>-2.604403211401707</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8868,25 +8868,25 @@
         <v>90</v>
       </c>
       <c r="G200">
-        <v>3.88364668268826</v>
+        <v>3.699724686981943</v>
       </c>
       <c r="H200">
-        <v>1.93807675013167</v>
+        <v>2.160906268250032</v>
       </c>
       <c r="I200">
-        <v>5.16137588844702</v>
+        <v>4.934619433638835</v>
       </c>
       <c r="J200" t="s">
         <v>90</v>
       </c>
       <c r="K200">
-        <v>-0.01121367390851669</v>
+        <v>-0.1882399693515335</v>
       </c>
       <c r="L200">
-        <v>-1.883839274577659</v>
+        <v>-1.669364198030354</v>
       </c>
       <c r="M200">
-        <v>1.218610235984219</v>
+        <v>1.00035545352426</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8909,25 +8909,25 @@
         <v>90</v>
       </c>
       <c r="G201">
-        <v>-16.19323585738609</v>
+        <v>-15.63359621303683</v>
       </c>
       <c r="H201">
-        <v>-20.09158208644476</v>
+        <v>-18.23885870545424</v>
       </c>
       <c r="I201">
-        <v>-14.17060419023369</v>
+        <v>-13.1572211682771</v>
       </c>
       <c r="J201" t="s">
         <v>90</v>
       </c>
       <c r="K201">
-        <v>-19.10467143033862</v>
+        <v>-18.56447359101861</v>
       </c>
       <c r="L201">
-        <v>-22.86758964230249</v>
+        <v>-21.07922961925139</v>
       </c>
       <c r="M201">
-        <v>-17.15230571184768</v>
+        <v>-16.17412747806464</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -8950,25 +8950,25 @@
         <v>90</v>
       </c>
       <c r="G202">
-        <v>-5.807314600379898</v>
+        <v>-5.728671242060061</v>
       </c>
       <c r="H202">
-        <v>-8.315858529865068</v>
+        <v>-8.684159047197914</v>
       </c>
       <c r="I202">
-        <v>-4.354860591219805</v>
+        <v>-4.004033062118858</v>
       </c>
       <c r="J202" t="s">
         <v>90</v>
       </c>
       <c r="K202">
-        <v>-9.183315995378315</v>
+        <v>-9.107491328194294</v>
       </c>
       <c r="L202">
-        <v>-11.60195010044955</v>
+        <v>-11.95705019722937</v>
       </c>
       <c r="M202">
-        <v>-7.782920028095807</v>
+        <v>-7.44466666250474</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8991,25 +8991,25 @@
         <v>90</v>
       </c>
       <c r="G203">
-        <v>-3.594124240756856</v>
+        <v>-3.544598114893959</v>
       </c>
       <c r="H203">
-        <v>-6.416625300471518</v>
+        <v>-6.115168501511214</v>
       </c>
       <c r="I203">
-        <v>-2.485960234659886</v>
+        <v>-2.091419439185764</v>
       </c>
       <c r="J203" t="s">
         <v>90</v>
       </c>
       <c r="K203">
-        <v>-7.104676171116786</v>
+        <v>-7.056953504175678</v>
       </c>
       <c r="L203">
-        <v>-9.824397846633225</v>
+        <v>-9.533918384263417</v>
       </c>
       <c r="M203">
-        <v>-6.036865175249961</v>
+        <v>-5.656691304408278</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9032,25 +9032,25 @@
         <v>90</v>
       </c>
       <c r="G204">
-        <v>-5.828067865072973</v>
+        <v>-6.259652001810516</v>
       </c>
       <c r="H204">
-        <v>-8.38643233006521</v>
+        <v>-8.438193791861075</v>
       </c>
       <c r="I204">
-        <v>-3.512844216744959</v>
+        <v>-3.985343222201129</v>
       </c>
       <c r="J204" t="s">
         <v>90</v>
       </c>
       <c r="K204">
-        <v>-9.109993076747358</v>
+        <v>-9.526536353355908</v>
       </c>
       <c r="L204">
-        <v>-11.5791976333894</v>
+        <v>-11.62915518989619</v>
       </c>
       <c r="M204">
-        <v>-6.875455793133889</v>
+        <v>-7.331488040785028</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9073,25 +9073,25 @@
         <v>90</v>
       </c>
       <c r="G205">
-        <v>-6.344092230241416</v>
+        <v>-6.619494430873659</v>
       </c>
       <c r="H205">
-        <v>-8.796254338564513</v>
+        <v>-8.892405979072009</v>
       </c>
       <c r="I205">
-        <v>-4.3309558375564</v>
+        <v>-4.90317155160197</v>
       </c>
       <c r="J205" t="s">
         <v>90</v>
       </c>
       <c r="K205">
-        <v>-9.464092746301001</v>
+        <v>-9.730320352093925</v>
       </c>
       <c r="L205">
-        <v>-11.83456489799863</v>
+        <v>-11.92751339654589</v>
       </c>
       <c r="M205">
-        <v>-7.518020853161678</v>
+        <v>-8.071174093033074</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9114,25 +9114,25 @@
         <v>91</v>
       </c>
       <c r="G206">
-        <v>9.008507723905788</v>
+        <v>9.189158751848638</v>
       </c>
       <c r="H206">
-        <v>6.968203294617152</v>
+        <v>7.1928437028372</v>
       </c>
       <c r="I206">
-        <v>11.20065673215981</v>
+        <v>11.30863316785432</v>
       </c>
       <c r="J206" t="s">
         <v>91</v>
       </c>
       <c r="K206">
-        <v>1.015219264461975</v>
+        <v>1.182623658660442</v>
       </c>
       <c r="L206">
-        <v>-0.8754753574005125</v>
+        <v>-0.6673072009344194</v>
       </c>
       <c r="M206">
-        <v>3.046624127741215</v>
+        <v>3.146682953926616</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9155,25 +9155,25 @@
         <v>91</v>
       </c>
       <c r="G207">
-        <v>-7.080509368161227</v>
+        <v>-7.735334423112774</v>
       </c>
       <c r="H207">
-        <v>-10.49182365872315</v>
+        <v>-11.82984484251824</v>
       </c>
       <c r="I207">
-        <v>-4.0038084072847</v>
+        <v>-5.172345335636078</v>
       </c>
       <c r="J207" t="s">
         <v>91</v>
       </c>
       <c r="K207">
-        <v>-13.44836351189597</v>
+        <v>-14.05831283182959</v>
       </c>
       <c r="L207">
-        <v>-16.62589744385901</v>
+        <v>-17.87222286305512</v>
       </c>
       <c r="M207">
-        <v>-10.58251156482191</v>
+        <v>-11.67096763316521</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9196,25 +9196,25 @@
         <v>91</v>
       </c>
       <c r="G208">
-        <v>-1.08673956108069</v>
+        <v>-1.056552701777016</v>
       </c>
       <c r="H208">
-        <v>-3.424549171016364</v>
+        <v>-3.357200148553609</v>
       </c>
       <c r="I208">
-        <v>2.026437811815855</v>
+        <v>2.657141727206459</v>
       </c>
       <c r="J208" t="s">
         <v>91</v>
       </c>
       <c r="K208">
-        <v>-7.501132156074841</v>
+        <v>-7.472902874207454</v>
       </c>
       <c r="L208">
-        <v>-9.687337940760655</v>
+        <v>-9.624356412292611</v>
       </c>
       <c r="M208">
-        <v>-4.589840170425664</v>
+        <v>-4.000036560075704</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9237,25 +9237,25 @@
         <v>91</v>
       </c>
       <c r="G209">
-        <v>1.572514338531428</v>
+        <v>1.615166695426235</v>
       </c>
       <c r="H209">
-        <v>-1.843716482705512</v>
+        <v>-1.26687737045245</v>
       </c>
       <c r="I209">
-        <v>3.291738054209963</v>
+        <v>3.222680186875209</v>
       </c>
       <c r="J209" t="s">
         <v>91</v>
       </c>
       <c r="K209">
-        <v>-4.893765845277487</v>
+        <v>-4.853828810455562</v>
       </c>
       <c r="L209">
-        <v>-8.092513562876203</v>
+        <v>-7.552397016221701</v>
       </c>
       <c r="M209">
-        <v>-3.283990855138752</v>
+        <v>-3.348652380392281</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9278,25 +9278,25 @@
         <v>91</v>
       </c>
       <c r="G210">
-        <v>2.377254906926454</v>
+        <v>1.990819204437581</v>
       </c>
       <c r="H210">
-        <v>-1.271057116944534</v>
+        <v>-1.716383104788908</v>
       </c>
       <c r="I210">
-        <v>3.835864207571394</v>
+        <v>3.511355630182822</v>
       </c>
       <c r="J210" t="s">
         <v>91</v>
       </c>
       <c r="K210">
-        <v>-3.984548638688312</v>
+        <v>-4.346970921160409</v>
       </c>
       <c r="L210">
-        <v>-7.406151669530803</v>
+        <v>-7.82380474847566</v>
       </c>
       <c r="M210">
-        <v>-2.616578472965925</v>
+        <v>-2.920921830842726</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9319,25 +9319,25 @@
         <v>91</v>
       </c>
       <c r="G211">
-        <v>2.306319320312287</v>
+        <v>2.424452531350402</v>
       </c>
       <c r="H211">
-        <v>-0.6622869067135442</v>
+        <v>-0.3138170482938882</v>
       </c>
       <c r="I211">
-        <v>4.214780856191597</v>
+        <v>4.136556062237872</v>
       </c>
       <c r="J211" t="s">
         <v>91</v>
       </c>
       <c r="K211">
-        <v>-4.213032248815596</v>
+        <v>-4.102426939669224</v>
       </c>
       <c r="L211">
-        <v>-6.992467486279297</v>
+        <v>-6.666203465518294</v>
       </c>
       <c r="M211">
-        <v>-2.426185211348653</v>
+        <v>-2.499425221013452</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9360,25 +9360,25 @@
         <v>92</v>
       </c>
       <c r="G212">
-        <v>3.817255499006507</v>
+        <v>4.501510059574755</v>
       </c>
       <c r="H212">
-        <v>2.434648697981424</v>
+        <v>3.213762640527815</v>
       </c>
       <c r="I212">
-        <v>5.359603412349831</v>
+        <v>5.951000541233737</v>
       </c>
       <c r="J212" t="s">
         <v>92</v>
       </c>
       <c r="K212">
-        <v>1.156700498005536</v>
+        <v>1.823419467940735</v>
       </c>
       <c r="L212">
-        <v>-0.1904738364107539</v>
+        <v>0.5686735265316267</v>
       </c>
       <c r="M212">
-        <v>2.659522212795395</v>
+        <v>3.235763435454797</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9401,25 +9401,25 @@
         <v>92</v>
       </c>
       <c r="G213">
-        <v>-5.082357836539049</v>
+        <v>-5.539417119138919</v>
       </c>
       <c r="H213">
-        <v>-12.37409810350752</v>
+        <v>-13.28164471981196</v>
       </c>
       <c r="I213">
-        <v>-0.6436429236227224</v>
+        <v>-1.058232019243074</v>
       </c>
       <c r="J213" t="s">
         <v>92</v>
       </c>
       <c r="K213">
-        <v>-7.525478780680428</v>
+        <v>-7.970773642245577</v>
       </c>
       <c r="L213">
-        <v>-14.62953419834774</v>
+        <v>-15.5137211304508</v>
       </c>
       <c r="M213">
-        <v>-3.201013622832216</v>
+        <v>-3.604931453557692</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9442,25 +9442,25 @@
         <v>92</v>
       </c>
       <c r="G214">
-        <v>-2.060093943521238</v>
+        <v>-2.10346949673528</v>
       </c>
       <c r="H214">
-        <v>-7.474123080308093</v>
+        <v>-7.748693881259664</v>
       </c>
       <c r="I214">
-        <v>0.1837649364960299</v>
+        <v>0.8001679104236576</v>
       </c>
       <c r="J214" t="s">
         <v>92</v>
       </c>
       <c r="K214">
-        <v>-4.565439302793184</v>
+        <v>-4.607705290506036</v>
       </c>
       <c r="L214">
-        <v>-9.840975221453107</v>
+        <v>-10.10852238199441</v>
       </c>
       <c r="M214">
-        <v>-2.378979308054308</v>
+        <v>-1.778344190073788</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9483,25 +9483,25 @@
         <v>92</v>
       </c>
       <c r="G215">
-        <v>-2.678349761965766</v>
+        <v>-2.553264289746795</v>
       </c>
       <c r="H215">
-        <v>-6.610647060158588</v>
+        <v>-5.760968268405581</v>
       </c>
       <c r="I215">
-        <v>-0.7522929325950496</v>
+        <v>0.4514429135896375</v>
       </c>
       <c r="J215" t="s">
         <v>92</v>
       </c>
       <c r="K215">
-        <v>-5.318076337536926</v>
+        <v>-5.196383650422054</v>
       </c>
       <c r="L215">
-        <v>-9.14371504891276</v>
+        <v>-8.317082718885427</v>
       </c>
       <c r="M215">
-        <v>-3.444261361711787</v>
+        <v>-2.273175326698318</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9524,25 +9524,25 @@
         <v>92</v>
       </c>
       <c r="G216">
-        <v>-1.126438997410822</v>
+        <v>-0.833988829477974</v>
       </c>
       <c r="H216">
-        <v>-4.26475238289812</v>
+        <v>-3.070339594522002</v>
       </c>
       <c r="I216">
-        <v>1.043707160296189</v>
+        <v>2.778068367715169</v>
       </c>
       <c r="J216" t="s">
         <v>92</v>
       </c>
       <c r="K216">
-        <v>-3.992899939332384</v>
+        <v>-3.708928246083132</v>
       </c>
       <c r="L216">
-        <v>-7.040229924891628</v>
+        <v>-5.88044456948843</v>
       </c>
       <c r="M216">
-        <v>-1.885668873751623</v>
+        <v>-0.201588839680078</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9565,25 +9565,25 @@
         <v>92</v>
       </c>
       <c r="G217">
-        <v>-1.04656635362356</v>
+        <v>-0.741350313728109</v>
       </c>
       <c r="H217">
-        <v>-3.318034685744681</v>
+        <v>-3.118043949438596</v>
       </c>
       <c r="I217">
-        <v>1.441444337356716</v>
+        <v>2.683217860405149</v>
       </c>
       <c r="J217" t="s">
         <v>92</v>
       </c>
       <c r="K217">
-        <v>-4.090774262114715</v>
+        <v>-3.794947902275936</v>
       </c>
       <c r="L217">
-        <v>-6.292363039724957</v>
+        <v>-6.098524827476448</v>
       </c>
       <c r="M217">
-        <v>-1.679304844567764</v>
+        <v>-0.4757332983494345</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9606,25 +9606,25 @@
         <v>93</v>
       </c>
       <c r="G218">
-        <v>4.848623841706169</v>
+        <v>5.683732926462248</v>
       </c>
       <c r="H218">
-        <v>3.163670217549601</v>
+        <v>4.341698721833712</v>
       </c>
       <c r="I218">
-        <v>6.294826582054503</v>
+        <v>7.239778587432546</v>
       </c>
       <c r="J218" t="s">
         <v>93</v>
       </c>
       <c r="K218">
-        <v>-0.4623230700640746</v>
+        <v>0.3304848394150461</v>
       </c>
       <c r="L218">
-        <v>-2.061927941716268</v>
+        <v>-0.9435706721853121</v>
       </c>
       <c r="M218">
-        <v>0.9106244791694751</v>
+        <v>1.807711383882871</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9647,25 +9647,25 @@
         <v>93</v>
       </c>
       <c r="G219">
-        <v>-7.283411381793599</v>
+        <v>-7.707998760885769</v>
       </c>
       <c r="H219">
-        <v>-10.16172470347942</v>
+        <v>-10.2002365436299</v>
       </c>
       <c r="I219">
-        <v>-3.319920788950814</v>
+        <v>-4.048719855479053</v>
       </c>
       <c r="J219" t="s">
         <v>93</v>
       </c>
       <c r="K219">
-        <v>-11.44807393638719</v>
+        <v>-11.85358961336853</v>
       </c>
       <c r="L219">
-        <v>-14.1970985958189</v>
+        <v>-14.23388055331327</v>
       </c>
       <c r="M219">
-        <v>-7.662616218820562</v>
+        <v>-8.358678940888463</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9688,25 +9688,25 @@
         <v>93</v>
       </c>
       <c r="G220">
-        <v>-1.305265559999051</v>
+        <v>-2.698450492578992</v>
       </c>
       <c r="H220">
-        <v>-4.156101411723816</v>
+        <v>-4.694154420443837</v>
       </c>
       <c r="I220">
-        <v>1.669766164607596</v>
+        <v>-0.3719496910848866</v>
       </c>
       <c r="J220" t="s">
         <v>93</v>
       </c>
       <c r="K220">
-        <v>-5.604818250919275</v>
+        <v>-6.937310259405438</v>
       </c>
       <c r="L220">
-        <v>-8.331459848237222</v>
+        <v>-8.846073032384783</v>
       </c>
       <c r="M220">
-        <v>-2.759391268953504</v>
+        <v>-4.712161499013101</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9729,25 +9729,25 @@
         <v>93</v>
       </c>
       <c r="G221">
-        <v>-1.428196258949781</v>
+        <v>-1.094071514666823</v>
       </c>
       <c r="H221">
-        <v>-4.166450856461632</v>
+        <v>-3.512587116291546</v>
       </c>
       <c r="I221">
-        <v>0.4922842384387054</v>
+        <v>0.2874252989159248</v>
       </c>
       <c r="J221" t="s">
         <v>93</v>
       </c>
       <c r="K221">
-        <v>-5.722617977948453</v>
+        <v>-5.403049856393771</v>
       </c>
       <c r="L221">
-        <v>-8.34157659456708</v>
+        <v>-7.71619936413388</v>
       </c>
       <c r="M221">
-        <v>-3.885805962274724</v>
+        <v>-4.081739928875949</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9770,25 +9770,25 @@
         <v>93</v>
       </c>
       <c r="G222">
-        <v>-2.627598783589685</v>
+        <v>-1.558325100390997</v>
       </c>
       <c r="H222">
-        <v>-6.433730575157089</v>
+        <v>-4.767778380682238</v>
       </c>
       <c r="I222">
-        <v>-0.8068897981350498</v>
+        <v>0.3122365148392965</v>
       </c>
       <c r="J222" t="s">
         <v>93</v>
       </c>
       <c r="K222">
-        <v>-6.739415323125453</v>
+        <v>-5.715294652083625</v>
       </c>
       <c r="L222">
-        <v>-10.38482276717022</v>
+        <v>-8.789219970489249</v>
       </c>
       <c r="M222">
-        <v>-4.995590765152835</v>
+        <v>-3.923722628273907</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9811,25 +9811,25 @@
         <v>93</v>
       </c>
       <c r="G223">
-        <v>-3.08217161850457</v>
+        <v>-4.184862278147056</v>
       </c>
       <c r="H223">
-        <v>-6.149563809738481</v>
+        <v>-6.860722477235851</v>
       </c>
       <c r="I223">
-        <v>-1.159088679881491</v>
+        <v>-2.237542727158076</v>
       </c>
       <c r="J223" t="s">
         <v>93</v>
       </c>
       <c r="K223">
-        <v>-7.290252003935316</v>
+        <v>-8.345064878720986</v>
       </c>
       <c r="L223">
-        <v>-10.22446092920142</v>
+        <v>-10.9047417603956</v>
       </c>
       <c r="M223">
-        <v>-5.450667506504314</v>
+        <v>-6.482296099695506</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9852,25 +9852,25 @@
         <v>94</v>
       </c>
       <c r="G224">
-        <v>6.335277118531113</v>
+        <v>6.333331016399305</v>
       </c>
       <c r="H224">
-        <v>4.505363195278431</v>
+        <v>4.617623206353095</v>
       </c>
       <c r="I224">
-        <v>8.685148050603049</v>
+        <v>8.877166108802944</v>
       </c>
       <c r="J224" t="s">
         <v>94</v>
       </c>
       <c r="K224">
-        <v>-0.6979504043928664</v>
+        <v>-0.6997677874443609</v>
       </c>
       <c r="L224">
-        <v>-2.406830167408625</v>
+        <v>-2.30199525758924</v>
       </c>
       <c r="M224">
-        <v>1.496495372804607</v>
+        <v>1.675812973278457</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9893,25 +9893,25 @@
         <v>94</v>
       </c>
       <c r="G225">
-        <v>-6.991996834856757</v>
+        <v>-7.310359262314467</v>
       </c>
       <c r="H225">
-        <v>-11.69263433129374</v>
+        <v>-11.44227956010095</v>
       </c>
       <c r="I225">
-        <v>0.777382946197496</v>
+        <v>-0.6060729245668234</v>
       </c>
       <c r="J225" t="s">
         <v>94</v>
       </c>
       <c r="K225">
-        <v>-12.58321784708339</v>
+        <v>-12.882441763517</v>
       </c>
       <c r="L225">
-        <v>-17.00127425107103</v>
+        <v>-16.76596967781355</v>
       </c>
       <c r="M225">
-        <v>-5.280898082430818</v>
+        <v>-6.581186835625996</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9934,25 +9934,25 @@
         <v>94</v>
       </c>
       <c r="G226">
-        <v>-0.4255595482059065</v>
+        <v>-0.6254288010551433</v>
       </c>
       <c r="H226">
-        <v>-3.507026661823348</v>
+        <v>-2.695940614638179</v>
       </c>
       <c r="I226">
-        <v>3.216398396306532</v>
+        <v>3.228434310910852</v>
       </c>
       <c r="J226" t="s">
         <v>94</v>
       </c>
       <c r="K226">
-        <v>-5.808240163027345</v>
+        <v>-5.997305113608542</v>
       </c>
       <c r="L226">
-        <v>-8.723132870377249</v>
+        <v>-7.955891580173169</v>
       </c>
       <c r="M226">
-        <v>-2.363154993686667</v>
+        <v>-2.351769702715578</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9975,25 +9975,25 @@
         <v>94</v>
       </c>
       <c r="G227">
-        <v>-2.531583275444518</v>
+        <v>-2.343026963808744</v>
       </c>
       <c r="H227">
-        <v>-5.443000150114446</v>
+        <v>-5.66677678176676</v>
       </c>
       <c r="I227">
-        <v>0.8747059642028998</v>
+        <v>0.1728754216507461</v>
       </c>
       <c r="J227" t="s">
         <v>94</v>
       </c>
       <c r="K227">
-        <v>-7.629964546621637</v>
+        <v>-7.451271244975278</v>
       </c>
       <c r="L227">
-        <v>-10.38909092796845</v>
+        <v>-10.60116224392893</v>
       </c>
       <c r="M227">
-        <v>-4.401851600867546</v>
+        <v>-5.066970767428025</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10016,25 +10016,25 @@
         <v>94</v>
       </c>
       <c r="G228">
-        <v>-0.7446594646352407</v>
+        <v>-1.993080092580655</v>
       </c>
       <c r="H228">
-        <v>-4.991658157252346</v>
+        <v>-6.733520678461606</v>
       </c>
       <c r="I228">
-        <v>2.559412899667042</v>
+        <v>-0.2184184677808055</v>
       </c>
       <c r="J228" t="s">
         <v>94</v>
       </c>
       <c r="K228">
-        <v>-6.37075996896953</v>
+        <v>-7.548416244219968</v>
       </c>
       <c r="L228">
-        <v>-10.37702560523359</v>
+        <v>-12.02015395701481</v>
       </c>
       <c r="M228">
-        <v>-3.253972672603067</v>
+        <v>-5.874347943753644</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10057,25 +10057,25 @@
         <v>94</v>
       </c>
       <c r="G229">
-        <v>-3.242786179898242</v>
+        <v>-2.253339769198989</v>
       </c>
       <c r="H229">
-        <v>-6.710482444035648</v>
+        <v>-5.436891819258125</v>
       </c>
       <c r="I229">
-        <v>-0.8779760877935042</v>
+        <v>0.07630901876641336</v>
       </c>
       <c r="J229" t="s">
         <v>94</v>
       </c>
       <c r="K229">
-        <v>-9.590085333305243</v>
+        <v>-8.66554687227733</v>
       </c>
       <c r="L229">
-        <v>-12.83029979332048</v>
+        <v>-11.64025705479635</v>
       </c>
       <c r="M229">
-        <v>-7.380407416910872</v>
+        <v>-6.488723669049012</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10098,25 +10098,25 @@
         <v>95</v>
       </c>
       <c r="G230">
-        <v>0.08038620609563375</v>
+        <v>-0.5273240539773174</v>
       </c>
       <c r="H230">
-        <v>-1.468306255688291</v>
+        <v>-2.004764244220634</v>
       </c>
       <c r="I230">
-        <v>2.434761025159704</v>
+        <v>1.786055197420772</v>
       </c>
       <c r="J230" t="s">
         <v>95</v>
       </c>
       <c r="K230">
-        <v>-1.458818321344235</v>
+        <v>-2.057182190789264</v>
       </c>
       <c r="L230">
-        <v>-2.983692385346592</v>
+        <v>-3.511899820538444</v>
       </c>
       <c r="M230">
-        <v>0.8593469613843885</v>
+        <v>0.2206180230728938</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10139,25 +10139,25 @@
         <v>95</v>
       </c>
       <c r="G231">
-        <v>-13.70666389535148</v>
+        <v>-14.09799726094631</v>
       </c>
       <c r="H231">
-        <v>-16.14917541496241</v>
+        <v>-17.02283405651925</v>
       </c>
       <c r="I231">
-        <v>-9.855190696028989</v>
+        <v>-9.336121583922223</v>
       </c>
       <c r="J231" t="s">
         <v>95</v>
       </c>
       <c r="K231">
-        <v>-15.35353685280084</v>
+        <v>-15.73740178147763</v>
       </c>
       <c r="L231">
-        <v>-17.74943404097572</v>
+        <v>-18.60641926537463</v>
       </c>
       <c r="M231">
-        <v>-11.57556744119393</v>
+        <v>-11.06640455038263</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10180,25 +10180,25 @@
         <v>95</v>
       </c>
       <c r="G232">
-        <v>-7.037704313288182</v>
+        <v>-7.167522767550375</v>
       </c>
       <c r="H232">
-        <v>-9.306296679677319</v>
+        <v>-9.821177761489311</v>
       </c>
       <c r="I232">
-        <v>-2.468051531963554</v>
+        <v>-2.849081046733015</v>
       </c>
       <c r="J232" t="s">
         <v>95</v>
       </c>
       <c r="K232">
-        <v>-8.575409263976963</v>
+        <v>-8.703080369377602</v>
       </c>
       <c r="L232">
-        <v>-10.80647646290844</v>
+        <v>-11.31284081024578</v>
       </c>
       <c r="M232">
-        <v>-4.081343877013288</v>
+        <v>-4.456070718565708</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10221,25 +10221,25 @@
         <v>95</v>
       </c>
       <c r="G233">
-        <v>-3.152128195990235</v>
+        <v>-2.604729488357883</v>
       </c>
       <c r="H233">
-        <v>-5.22136937110762</v>
+        <v>-4.842521403495163</v>
       </c>
       <c r="I233">
-        <v>1.541076618280432</v>
+        <v>2.355733514291284</v>
       </c>
       <c r="J233" t="s">
         <v>95</v>
       </c>
       <c r="K233">
-        <v>-4.630845762693947</v>
+        <v>-4.091804988693893</v>
       </c>
       <c r="L233">
-        <v>-6.668492817895267</v>
+        <v>-6.295429274187869</v>
       </c>
       <c r="M233">
-        <v>-0.009298944347513327</v>
+        <v>0.7929193978724491</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10262,25 +10262,25 @@
         <v>95</v>
       </c>
       <c r="G234">
-        <v>-3.953313682600001</v>
+        <v>-4.260514084157931</v>
       </c>
       <c r="H234">
-        <v>-6.589916769660788</v>
+        <v>-7.368846538163573</v>
       </c>
       <c r="I234">
-        <v>-0.3319239211496711</v>
+        <v>-0.4011989494324718</v>
       </c>
       <c r="J234" t="s">
         <v>95</v>
       </c>
       <c r="K234">
-        <v>-6.576165034234627</v>
+        <v>-6.874976380226538</v>
       </c>
       <c r="L234">
-        <v>-9.140767532459183</v>
+        <v>-9.898426218382461</v>
       </c>
       <c r="M234">
-        <v>-3.053668502679052</v>
+        <v>-3.121051762400828</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10303,25 +10303,25 @@
         <v>95</v>
       </c>
       <c r="G235">
-        <v>-1.31753483345829</v>
+        <v>-2.101569546894833</v>
       </c>
       <c r="H235">
-        <v>-4.045344379084929</v>
+        <v>-4.596256725074893</v>
       </c>
       <c r="I235">
-        <v>0.9045599839405862</v>
+        <v>0.8184714347148331</v>
       </c>
       <c r="J235" t="s">
         <v>95</v>
       </c>
       <c r="K235">
-        <v>-3.651155054206678</v>
+        <v>-4.416649095215186</v>
       </c>
       <c r="L235">
-        <v>-6.314457987607103</v>
+        <v>-6.85234248525245</v>
       </c>
       <c r="M235">
-        <v>-1.481607823550291</v>
+        <v>-1.565660570580507</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10344,25 +10344,25 @@
         <v>96</v>
       </c>
       <c r="G236">
-        <v>3.668183216658697</v>
+        <v>3.424621339636018</v>
       </c>
       <c r="H236">
-        <v>2.797201217740364</v>
+        <v>2.627704921367751</v>
       </c>
       <c r="I236">
-        <v>4.48948503900686</v>
+        <v>4.379589218464703</v>
       </c>
       <c r="J236" t="s">
         <v>96</v>
       </c>
       <c r="K236">
-        <v>-0.1719968419762963</v>
+        <v>-0.4065364574509789</v>
       </c>
       <c r="L236">
-        <v>-1.010715058508405</v>
+        <v>-1.17393270431394</v>
       </c>
       <c r="M236">
-        <v>0.6188815005496062</v>
+        <v>0.5130565504083862</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10385,25 +10385,25 @@
         <v>96</v>
       </c>
       <c r="G237">
-        <v>-20.0110445618887</v>
+        <v>-20.4595120088932</v>
       </c>
       <c r="H237">
-        <v>-22.25839702146662</v>
+        <v>-23.17371673861135</v>
       </c>
       <c r="I237">
-        <v>-16.33663862454121</v>
+        <v>-17.26611099215526</v>
       </c>
       <c r="J237" t="s">
         <v>96</v>
       </c>
       <c r="K237">
-        <v>-22.86867134226273</v>
+        <v>-23.30111717003658</v>
       </c>
       <c r="L237">
-        <v>-25.03573653545175</v>
+        <v>-25.91835621142216</v>
       </c>
       <c r="M237">
-        <v>-19.32553453764759</v>
+        <v>-20.22180125687228</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10426,25 +10426,25 @@
         <v>96</v>
       </c>
       <c r="G238">
-        <v>-8.776422522341068</v>
+        <v>-8.641591777869227</v>
       </c>
       <c r="H238">
-        <v>-9.888207580803726</v>
+        <v>-10.3179337244046</v>
       </c>
       <c r="I238">
-        <v>-6.016234421468521</v>
+        <v>-6.033350198577011</v>
       </c>
       <c r="J238" t="s">
         <v>96</v>
       </c>
       <c r="K238">
-        <v>-11.95280269363852</v>
+        <v>-11.82266671903938</v>
       </c>
       <c r="L238">
-        <v>-13.02587569857193</v>
+        <v>-13.44063889466116</v>
       </c>
       <c r="M238">
-        <v>-9.288723592161553</v>
+        <v>-9.305243402563557</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10467,25 +10467,25 @@
         <v>96</v>
       </c>
       <c r="G239">
-        <v>-6.718343867224142</v>
+        <v>-7.392079319605436</v>
       </c>
       <c r="H239">
-        <v>-7.994507224690008</v>
+        <v>-8.939310516862783</v>
       </c>
       <c r="I239">
-        <v>-3.35684195606837</v>
+        <v>-4.798765403470162</v>
       </c>
       <c r="J239" t="s">
         <v>96</v>
       </c>
       <c r="K239">
-        <v>-9.828884348174949</v>
+        <v>-10.48015363212651</v>
       </c>
       <c r="L239">
-        <v>-11.0624931676076</v>
+        <v>-11.97579134925086</v>
       </c>
       <c r="M239">
-        <v>-6.579474012200482</v>
+        <v>-7.973315538252256</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10508,25 +10508,25 @@
         <v>96</v>
       </c>
       <c r="G240">
-        <v>-6.960048126627803</v>
+        <v>-6.978570405429417</v>
       </c>
       <c r="H240">
-        <v>-8.594418232142711</v>
+        <v>-8.703871958310385</v>
       </c>
       <c r="I240">
-        <v>-2.658596003166976</v>
+        <v>-3.609110056434352</v>
       </c>
       <c r="J240" t="s">
         <v>96</v>
       </c>
       <c r="K240">
-        <v>-9.925495295600795</v>
+        <v>-9.943427216839563</v>
       </c>
       <c r="L240">
-        <v>-11.50777339005092</v>
+        <v>-11.61373851550609</v>
       </c>
       <c r="M240">
-        <v>-5.761142652149909</v>
+        <v>-6.681361126458185</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10549,25 +10549,25 @@
         <v>96</v>
       </c>
       <c r="G241">
-        <v>-5.783465791448432</v>
+        <v>-6.501210480947056</v>
       </c>
       <c r="H241">
-        <v>-7.872797444468898</v>
+        <v>-8.113100559312089</v>
       </c>
       <c r="I241">
-        <v>-1.829834339084623</v>
+        <v>-2.804233469565971</v>
       </c>
       <c r="J241" t="s">
         <v>96</v>
       </c>
       <c r="K241">
-        <v>-8.753057647227969</v>
+        <v>-9.448179887255614</v>
       </c>
       <c r="L241">
-        <v>-10.77653607912381</v>
+        <v>-11.00926512876973</v>
       </c>
       <c r="M241">
-        <v>-4.92403990370327</v>
+        <v>-5.867727145380142</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10590,25 +10590,25 @@
         <v>97</v>
       </c>
       <c r="G242">
-        <v>3.567530321992712</v>
+        <v>4.164183224570784</v>
       </c>
       <c r="H242">
-        <v>2.740569340550018</v>
+        <v>3.261509595209446</v>
       </c>
       <c r="I242">
-        <v>4.644267995730278</v>
+        <v>5.409813022287418</v>
       </c>
       <c r="J242" t="s">
         <v>97</v>
       </c>
       <c r="K242">
-        <v>0.8319818112288324</v>
+        <v>1.412875209317277</v>
       </c>
       <c r="L242">
-        <v>0.0268635045531429</v>
+        <v>0.5340440670252633</v>
       </c>
       <c r="M242">
-        <v>1.8802794118014</v>
+        <v>2.625603954672084</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10631,25 +10631,25 @@
         <v>97</v>
       </c>
       <c r="G243">
-        <v>-5.905086297656815</v>
+        <v>-5.512952342980631</v>
       </c>
       <c r="H243">
-        <v>-8.567897069620621</v>
+        <v>-7.173738459689792</v>
       </c>
       <c r="I243">
-        <v>-4.026979451091334</v>
+        <v>-2.720205118983181</v>
       </c>
       <c r="J243" t="s">
         <v>97</v>
       </c>
       <c r="K243">
-        <v>-8.086101522053079</v>
+        <v>-7.703056795386143</v>
       </c>
       <c r="L243">
-        <v>-10.6871913082077</v>
+        <v>-9.325347740969836</v>
       </c>
       <c r="M243">
-        <v>-6.251527098912312</v>
+        <v>-4.975042339332947</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10672,25 +10672,25 @@
         <v>97</v>
       </c>
       <c r="G244">
-        <v>-0.6722704255695541</v>
+        <v>-1.036434559911369</v>
       </c>
       <c r="H244">
-        <v>-3.07085623057389</v>
+        <v>-3.344806373913409</v>
       </c>
       <c r="I244">
-        <v>0.5947906133306656</v>
+        <v>0.4516865498298729</v>
       </c>
       <c r="J244" t="s">
         <v>97</v>
       </c>
       <c r="K244">
-        <v>-3.726548446735634</v>
+        <v>-4.079514716026244</v>
       </c>
       <c r="L244">
-        <v>-6.051378937514096</v>
+        <v>-6.316905250919291</v>
       </c>
       <c r="M244">
-        <v>-2.498448901258943</v>
+        <v>-2.637152586358238</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10713,25 +10713,25 @@
         <v>97</v>
       </c>
       <c r="G245">
-        <v>-0.49650099016411</v>
+        <v>-0.6930890441394639</v>
       </c>
       <c r="H245">
-        <v>-1.80230594867318</v>
+        <v>-2.189777238407306</v>
       </c>
       <c r="I245">
-        <v>1.417049971565378</v>
+        <v>0.9374742153518174</v>
       </c>
       <c r="J245" t="s">
         <v>97</v>
       </c>
       <c r="K245">
-        <v>-2.5768092236647</v>
+        <v>-2.769287233758555</v>
       </c>
       <c r="L245">
-        <v>-3.855313867777144</v>
+        <v>-4.234684339727989</v>
       </c>
       <c r="M245">
-        <v>-0.7032646522684316</v>
+        <v>-1.172813973189102</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10754,25 +10754,25 @@
         <v>97</v>
       </c>
       <c r="G246">
-        <v>0.9945099231371163</v>
+        <v>0.9992199139530961</v>
       </c>
       <c r="H246">
-        <v>-0.2669138060585831</v>
+        <v>-0.2962130435225863</v>
       </c>
       <c r="I246">
-        <v>3.862393078904214</v>
+        <v>3.894920706446369</v>
       </c>
       <c r="J246" t="s">
         <v>97</v>
       </c>
       <c r="K246">
-        <v>-1.333565769756917</v>
+        <v>-1.328964351329098</v>
       </c>
       <c r="L246">
-        <v>-2.565911780524011</v>
+        <v>-2.594535626398786</v>
       </c>
       <c r="M246">
-        <v>1.468208356221501</v>
+        <v>1.499986172916645</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10795,25 +10795,25 @@
         <v>97</v>
       </c>
       <c r="G247">
-        <v>0.6867148441240177</v>
+        <v>0.4543053093914393</v>
       </c>
       <c r="H247">
-        <v>-0.8589752583910113</v>
+        <v>-0.5544524622851684</v>
       </c>
       <c r="I247">
-        <v>2.745950277212298</v>
+        <v>2.406473590618082</v>
       </c>
       <c r="J247" t="s">
         <v>97</v>
       </c>
       <c r="K247">
-        <v>-1.799650741856007</v>
+        <v>-2.026321137419063</v>
       </c>
       <c r="L247">
-        <v>-3.307171452476265</v>
+        <v>-3.010168566038307</v>
       </c>
       <c r="M247">
-        <v>0.2087337709078874</v>
+        <v>-0.1223598519216829</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10836,25 +10836,25 @@
         <v>98</v>
       </c>
       <c r="G248">
-        <v>2.989279240405122</v>
+        <v>2.717508182880582</v>
       </c>
       <c r="H248">
-        <v>2.16894049295614</v>
+        <v>1.807757116333721</v>
       </c>
       <c r="I248">
-        <v>3.723344584531401</v>
+        <v>3.763639727510177</v>
       </c>
       <c r="J248" t="s">
         <v>98</v>
       </c>
       <c r="K248">
-        <v>0.8950312198884092</v>
+        <v>0.6287865239759993</v>
       </c>
       <c r="L248">
-        <v>0.09137375043912765</v>
+        <v>-0.2624650988974131</v>
       </c>
       <c r="M248">
-        <v>1.614169623024275</v>
+        <v>1.653645379518909</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10877,25 +10877,25 @@
         <v>98</v>
       </c>
       <c r="G249">
-        <v>-8.199644308442853</v>
+        <v>-8.760142513940973</v>
       </c>
       <c r="H249">
-        <v>-10.76401655367617</v>
+        <v>-11.17714282506459</v>
       </c>
       <c r="I249">
-        <v>-6.519537297719303</v>
+        <v>-7.066753346551061</v>
       </c>
       <c r="J249" t="s">
         <v>98</v>
       </c>
       <c r="K249">
-        <v>-9.718910741052945</v>
+        <v>-10.27013288108555</v>
       </c>
       <c r="L249">
-        <v>-12.24084344840485</v>
+        <v>-12.64713261255307</v>
       </c>
       <c r="M249">
-        <v>-8.066608962295607</v>
+        <v>-8.604768761093117</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10918,25 +10918,25 @@
         <v>98</v>
       </c>
       <c r="G250">
-        <v>-1.217267610430257</v>
+        <v>-0.9664520294401903</v>
       </c>
       <c r="H250">
-        <v>-2.809089812873752</v>
+        <v>-2.570186047305697</v>
       </c>
       <c r="I250">
-        <v>0.2300714906040624</v>
+        <v>-0.1041429930787613</v>
       </c>
       <c r="J250" t="s">
         <v>98</v>
       </c>
       <c r="K250">
-        <v>-3.422448966238856</v>
+        <v>-3.177232479640757</v>
       </c>
       <c r="L250">
-        <v>-4.978736044701904</v>
+        <v>-4.745165459507783</v>
       </c>
       <c r="M250">
-        <v>-2.007419613314632</v>
+        <v>-2.33417324295514</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10959,25 +10959,25 @@
         <v>98</v>
       </c>
       <c r="G251">
-        <v>-0.8700222518205309</v>
+        <v>-0.3537923506473627</v>
       </c>
       <c r="H251">
-        <v>-2.074868615688055</v>
+        <v>-1.426933555890185</v>
       </c>
       <c r="I251">
-        <v>0.05790671122283841</v>
+        <v>1.040142939034416</v>
       </c>
       <c r="J251" t="s">
         <v>98</v>
       </c>
       <c r="K251">
-        <v>-3.361487293056287</v>
+        <v>-2.858231961042013</v>
       </c>
       <c r="L251">
-        <v>-4.536051872706515</v>
+        <v>-3.904401569418714</v>
       </c>
       <c r="M251">
-        <v>-2.456880261730143</v>
+        <v>-1.499330887274319</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11000,25 +11000,25 @@
         <v>98</v>
       </c>
       <c r="G252">
-        <v>-0.6200453951599344</v>
+        <v>-0.4639272977267204</v>
       </c>
       <c r="H252">
-        <v>-1.935847130712788</v>
+        <v>-1.848215085794657</v>
       </c>
       <c r="I252">
-        <v>0.7644863435951733</v>
+        <v>0.7137651391692619</v>
       </c>
       <c r="J252" t="s">
         <v>98</v>
       </c>
       <c r="K252">
-        <v>-2.942319657818326</v>
+        <v>-2.789849670721301</v>
       </c>
       <c r="L252">
-        <v>-4.227374221897962</v>
+        <v>-4.141789930405626</v>
       </c>
       <c r="M252">
-        <v>-1.590141147996849</v>
+        <v>-1.639677117954941</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11041,25 +11041,25 @@
         <v>98</v>
       </c>
       <c r="G253">
-        <v>1.139371128305962</v>
+        <v>0.2389863211164883</v>
       </c>
       <c r="H253">
-        <v>-0.2537284176325669</v>
+        <v>-0.828251862073926</v>
       </c>
       <c r="I253">
-        <v>2.620152814277075</v>
+        <v>1.361017770763544</v>
       </c>
       <c r="J253" t="s">
         <v>98</v>
       </c>
       <c r="K253">
-        <v>-1.217956538948572</v>
+        <v>-2.097355433397186</v>
       </c>
       <c r="L253">
-        <v>-2.578586117294412</v>
+        <v>-3.139718732863106</v>
       </c>
       <c r="M253">
-        <v>0.228311509073631</v>
+        <v>-1.001475973329224</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11082,25 +11082,25 @@
         <v>99</v>
       </c>
       <c r="G254">
-        <v>5.697569891973562</v>
+        <v>5.795463202040927</v>
       </c>
       <c r="H254">
-        <v>3.370456271255835</v>
+        <v>4.038629468882047</v>
       </c>
       <c r="I254">
-        <v>9.321762222427685</v>
+        <v>8.860193606635594</v>
       </c>
       <c r="J254" t="s">
         <v>99</v>
       </c>
       <c r="K254">
-        <v>4.695527685143164</v>
+        <v>4.792492939546089</v>
       </c>
       <c r="L254">
-        <v>2.390475745412335</v>
+        <v>3.052314476255846</v>
       </c>
       <c r="M254">
-        <v>8.285361669568147</v>
+        <v>7.828168851959916</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11123,25 +11123,25 @@
         <v>99</v>
       </c>
       <c r="G255">
-        <v>-6.455434376119343</v>
+        <v>-6.915593468204642</v>
       </c>
       <c r="H255">
-        <v>-10.74739373057923</v>
+        <v>-11.12559034665819</v>
       </c>
       <c r="I255">
-        <v>1.404570421091601</v>
+        <v>-0.1418836124725129</v>
       </c>
       <c r="J255" t="s">
         <v>99</v>
       </c>
       <c r="K255">
-        <v>-7.846280892338386</v>
+        <v>-8.299598211565307</v>
       </c>
       <c r="L255">
-        <v>-12.07442620612054</v>
+        <v>-12.44699969014033</v>
       </c>
       <c r="M255">
-        <v>-0.1031408238987508</v>
+        <v>-1.626601750479795</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11164,25 +11164,25 @@
         <v>99</v>
       </c>
       <c r="G256">
-        <v>3.259043834082244</v>
+        <v>3.619634518143338</v>
       </c>
       <c r="H256">
-        <v>-1.535611313221108</v>
+        <v>-1.421568043983076</v>
       </c>
       <c r="I256">
-        <v>6.230533035020258</v>
+        <v>7.826256039450397</v>
       </c>
       <c r="J256" t="s">
         <v>99</v>
       </c>
       <c r="K256">
-        <v>-0.4359387002474957</v>
+        <v>-0.08825125671794165</v>
       </c>
       <c r="L256">
-        <v>-5.059023722846934</v>
+        <v>-4.949061334782556</v>
       </c>
       <c r="M256">
-        <v>2.429219856025089</v>
+        <v>3.967842112549103</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11205,25 +11205,25 @@
         <v>99</v>
       </c>
       <c r="G257">
-        <v>9.350020172449558</v>
+        <v>9.485976514552817</v>
       </c>
       <c r="H257">
-        <v>-0.5414328974746427</v>
+        <v>-0.4276817294215204</v>
       </c>
       <c r="I257">
-        <v>11.64205922618372</v>
+        <v>11.95455206083969</v>
       </c>
       <c r="J257" t="s">
         <v>99</v>
       </c>
       <c r="K257">
-        <v>1.767873986957769</v>
+        <v>1.894403345334394</v>
       </c>
       <c r="L257">
-        <v>-7.437722390440715</v>
+        <v>-7.331858536752867</v>
       </c>
       <c r="M257">
-        <v>3.900986913921556</v>
+        <v>4.19181202185428</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11246,25 +11246,25 @@
         <v>99</v>
       </c>
       <c r="G258">
-        <v>9.170055545430053</v>
+        <v>8.966530100931131</v>
       </c>
       <c r="H258">
-        <v>-3.47757419644698</v>
+        <v>-3.956440334251668</v>
       </c>
       <c r="I258">
-        <v>12.47385973369853</v>
+        <v>11.98894726852894</v>
       </c>
       <c r="J258" t="s">
         <v>99</v>
       </c>
       <c r="K258">
-        <v>2.376324168541921</v>
+        <v>2.185464259398651</v>
       </c>
       <c r="L258">
-        <v>-9.484234442965512</v>
+        <v>-9.93330039527538</v>
       </c>
       <c r="M258">
-        <v>5.474530236842479</v>
+        <v>5.019794224485041</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11287,25 +11287,25 @@
         <v>99</v>
       </c>
       <c r="G259">
-        <v>5.015236350456585</v>
+        <v>6.217816972127996</v>
       </c>
       <c r="H259">
-        <v>-4.500677451857065</v>
+        <v>-2.889820229449628</v>
       </c>
       <c r="I259">
-        <v>8.505949834594549</v>
+        <v>9.542046948337614</v>
       </c>
       <c r="J259" t="s">
         <v>99</v>
       </c>
       <c r="K259">
-        <v>-1.12046628643635</v>
+        <v>0.01185141579695959</v>
       </c>
       <c r="L259">
-        <v>-10.08039583886026</v>
+        <v>-8.563655825066242</v>
       </c>
       <c r="M259">
-        <v>2.166296031436676</v>
+        <v>3.141857321866892</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11328,25 +11328,25 @@
         <v>100</v>
       </c>
       <c r="G260">
-        <v>2.101183547848623</v>
+        <v>2.138622847226479</v>
       </c>
       <c r="H260">
-        <v>1.400769660667632</v>
+        <v>1.516641811179659</v>
       </c>
       <c r="I260">
-        <v>2.931616228794715</v>
+        <v>3.096448318041717</v>
       </c>
       <c r="J260" t="s">
         <v>100</v>
       </c>
       <c r="K260">
-        <v>-0.3760332774747077</v>
+        <v>-0.3395023442795519</v>
       </c>
       <c r="L260">
-        <v>-1.059453462861837</v>
+        <v>-0.9463926454887583</v>
       </c>
       <c r="M260">
-        <v>0.4342511374272995</v>
+        <v>0.595084009322977</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11369,25 +11369,25 @@
         <v>100</v>
       </c>
       <c r="G261">
-        <v>-16.54243609184947</v>
+        <v>-16.59296706653639</v>
       </c>
       <c r="H261">
-        <v>-18.94147104991985</v>
+        <v>-19.16627667159118</v>
       </c>
       <c r="I261">
-        <v>-11.28111328769526</v>
+        <v>-10.07640565720322</v>
       </c>
       <c r="J261" t="s">
         <v>100</v>
       </c>
       <c r="K261">
-        <v>-18.4412136939044</v>
+        <v>-18.49059501745782</v>
       </c>
       <c r="L261">
-        <v>-20.78566721403653</v>
+        <v>-21.00535818990158</v>
       </c>
       <c r="M261">
-        <v>-13.29959342394713</v>
+        <v>-12.12229459570963</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11410,25 +11410,25 @@
         <v>100</v>
       </c>
       <c r="G262">
-        <v>-8.439517298771772</v>
+        <v>-8.544208147723092</v>
       </c>
       <c r="H262">
-        <v>-10.00900139580474</v>
+        <v>-10.20196049845072</v>
       </c>
       <c r="I262">
-        <v>-3.637477155547675</v>
+        <v>-3.776921990513181</v>
       </c>
       <c r="J262" t="s">
         <v>100</v>
       </c>
       <c r="K262">
-        <v>-10.30580732457828</v>
+        <v>-10.40836424542627</v>
       </c>
       <c r="L262">
-        <v>-11.84330040944596</v>
+        <v>-12.03232639992354</v>
       </c>
       <c r="M262">
-        <v>-5.601647832028178</v>
+        <v>-5.738250343570217</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11451,25 +11451,25 @@
         <v>100</v>
       </c>
       <c r="G263">
-        <v>-5.117352959490298</v>
+        <v>-4.967271084981514</v>
       </c>
       <c r="H263">
-        <v>-6.271405297617916</v>
+        <v>-6.080032609135086</v>
       </c>
       <c r="I263">
-        <v>-3.526249598136358</v>
+        <v>-3.445689370480602</v>
       </c>
       <c r="J263" t="s">
         <v>100</v>
       </c>
       <c r="K263">
-        <v>-7.107940606559227</v>
+        <v>-6.961007370234185</v>
       </c>
       <c r="L263">
-        <v>-8.23778153828113</v>
+        <v>-8.050423747375069</v>
       </c>
       <c r="M263">
-        <v>-5.550217750441067</v>
+        <v>-5.47134763366458</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11492,25 +11492,25 @@
         <v>100</v>
       </c>
       <c r="G264">
-        <v>-6.994505973682946</v>
+        <v>-6.796080823651236</v>
       </c>
       <c r="H264">
-        <v>-7.951105601272042</v>
+        <v>-7.750267970122907</v>
       </c>
       <c r="I264">
-        <v>-4.494508880958549</v>
+        <v>-3.427435670839176</v>
       </c>
       <c r="J264" t="s">
         <v>100</v>
       </c>
       <c r="K264">
-        <v>-8.654143729820163</v>
+        <v>-8.459259379976746</v>
       </c>
       <c r="L264">
-        <v>-9.593673302827288</v>
+        <v>-9.396419521417322</v>
       </c>
       <c r="M264">
-        <v>-6.19875786795644</v>
+        <v>-5.150726059709254</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11533,25 +11533,25 @@
         <v>100</v>
       </c>
       <c r="G265">
-        <v>-4.246370080594521</v>
+        <v>-3.862195961565703</v>
       </c>
       <c r="H265">
-        <v>-5.758864681882892</v>
+        <v>-5.080955685063671</v>
       </c>
       <c r="I265">
-        <v>-2.062547702123341</v>
+        <v>-2.315317857522915</v>
       </c>
       <c r="J265" t="s">
         <v>100</v>
       </c>
       <c r="K265">
-        <v>-6.397312648589992</v>
+        <v>-6.021768348261913</v>
       </c>
       <c r="L265">
-        <v>-7.875831629063645</v>
+        <v>-7.213150705788096</v>
       </c>
       <c r="M265">
-        <v>-4.262546128562494</v>
+        <v>-4.509638231990298</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11574,25 +11574,25 @@
         <v>101</v>
       </c>
       <c r="G266">
-        <v>4.814574836313433</v>
+        <v>4.073992832161712</v>
       </c>
       <c r="H266">
-        <v>3.925503931460763</v>
+        <v>3.137684820974289</v>
       </c>
       <c r="I266">
-        <v>5.566052454899676</v>
+        <v>4.949070827008621</v>
       </c>
       <c r="J266" t="s">
         <v>101</v>
       </c>
       <c r="K266">
-        <v>0.05600992621137557</v>
+        <v>-0.650949773566023</v>
       </c>
       <c r="L266">
-        <v>-0.7926973019576677</v>
+        <v>-1.544749551007885</v>
       </c>
       <c r="M266">
-        <v>0.7733705812730696</v>
+        <v>0.1843998204703601</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11615,25 +11615,25 @@
         <v>101</v>
       </c>
       <c r="G267">
-        <v>-6.978952579487959</v>
+        <v>-6.496045603431413</v>
       </c>
       <c r="H267">
-        <v>-11.70624537159588</v>
+        <v>-10.26252651738411</v>
       </c>
       <c r="I267">
-        <v>-4.660387213195699</v>
+        <v>-4.428219613855951</v>
       </c>
       <c r="J267" t="s">
         <v>101</v>
       </c>
       <c r="K267">
-        <v>-10.84410777330573</v>
+        <v>-10.38126626047922</v>
       </c>
       <c r="L267">
-        <v>-15.37497490912627</v>
+        <v>-13.99124460140487</v>
       </c>
       <c r="M267">
-        <v>-8.62188205504193</v>
+        <v>-8.399361345597622</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11656,25 +11656,25 @@
         <v>101</v>
       </c>
       <c r="G268">
-        <v>-3.239152466177731</v>
+        <v>-2.96420761647237</v>
       </c>
       <c r="H268">
-        <v>-6.682459018761148</v>
+        <v>-6.396875602555212</v>
       </c>
       <c r="I268">
-        <v>-1.278116224260787</v>
+        <v>-1.244473512211346</v>
       </c>
       <c r="J268" t="s">
         <v>101</v>
       </c>
       <c r="K268">
-        <v>-7.023908236937205</v>
+        <v>-6.75971772778472</v>
       </c>
       <c r="L268">
-        <v>-10.33253144726456</v>
+        <v>-10.05811849421668</v>
       </c>
       <c r="M268">
-        <v>-5.139577020063257</v>
+        <v>-5.107250227125926</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11697,25 +11697,25 @@
         <v>101</v>
       </c>
       <c r="G269">
-        <v>-0.2189534757934468</v>
+        <v>0.08947772687664204</v>
       </c>
       <c r="H269">
-        <v>-2.58169827431056</v>
+        <v>-1.503030865770504</v>
       </c>
       <c r="I269">
-        <v>1.462277207796515</v>
+        <v>1.490803613592802</v>
       </c>
       <c r="J269" t="s">
         <v>101</v>
       </c>
       <c r="K269">
-        <v>-4.329579675361039</v>
+        <v>-4.033854747345556</v>
       </c>
       <c r="L269">
-        <v>-6.594987745010316</v>
+        <v>-5.560757618545553</v>
       </c>
       <c r="M269">
-        <v>-2.717609749562433</v>
+        <v>-2.690258530789458</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11738,25 +11738,25 @@
         <v>101</v>
       </c>
       <c r="G270">
-        <v>0.2875223801092028</v>
+        <v>1.063816801816267</v>
       </c>
       <c r="H270">
-        <v>-1.650082507015399</v>
+        <v>0.3591967531243213</v>
       </c>
       <c r="I270">
-        <v>2.324186721233748</v>
+        <v>2.567518454091314</v>
       </c>
       <c r="J270" t="s">
         <v>101</v>
       </c>
       <c r="K270">
-        <v>-3.584018603921979</v>
+        <v>-2.837692573077366</v>
       </c>
       <c r="L270">
-        <v>-5.446823390761624</v>
+        <v>-3.515111178040931</v>
       </c>
       <c r="M270">
-        <v>-1.625978495206848</v>
+        <v>-1.39204044118505</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11779,25 +11779,25 @@
         <v>101</v>
       </c>
       <c r="G271">
-        <v>2.07970906712322</v>
+        <v>1.883111737930451</v>
       </c>
       <c r="H271">
-        <v>0.5188332846641082</v>
+        <v>0.6618739628932269</v>
       </c>
       <c r="I271">
-        <v>4.605332672399686</v>
+        <v>2.859869923562316</v>
       </c>
       <c r="J271" t="s">
         <v>101</v>
       </c>
       <c r="K271">
-        <v>-1.865624475161376</v>
+        <v>-2.054623408509604</v>
       </c>
       <c r="L271">
-        <v>-3.366173130553285</v>
+        <v>-3.228660908379588</v>
       </c>
       <c r="M271">
-        <v>0.5623849459040819</v>
+        <v>-1.115616474989378</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarterly_tracker.xlsx
+++ b/Data/quarterly_tracker.xlsx
@@ -750,25 +750,25 @@
         <v>57</v>
       </c>
       <c r="G2">
-        <v>-4.560089725053427</v>
+        <v>-4.413749789979433</v>
       </c>
       <c r="H2">
-        <v>-6.969142017215745</v>
+        <v>-6.89886037483504</v>
       </c>
       <c r="I2">
-        <v>0.2043102187232979</v>
+        <v>1.925748096653277</v>
       </c>
       <c r="J2" t="s">
         <v>57</v>
       </c>
       <c r="K2">
-        <v>4.082174715531073</v>
+        <v>4.241766008590253</v>
       </c>
       <c r="L2">
-        <v>1.454978180566302</v>
+        <v>1.5316239586322</v>
       </c>
       <c r="M2">
-        <v>9.27800008810593</v>
+        <v>11.15531742271447</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -791,25 +791,25 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>-19.64314051523669</v>
+        <v>-19.7856963053727</v>
       </c>
       <c r="H3">
-        <v>-22.70001504422594</v>
+        <v>-23.0007963832328</v>
       </c>
       <c r="I3">
-        <v>-12.25240979274149</v>
+        <v>-12.44595917912335</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
       </c>
       <c r="K3">
-        <v>-16.43667697846316</v>
+        <v>-16.58492114350528</v>
       </c>
       <c r="L3">
-        <v>-19.61552935447808</v>
+        <v>-19.92831271051562</v>
       </c>
       <c r="M3">
-        <v>-8.751035420430808</v>
+        <v>-8.952307968892159</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -832,25 +832,25 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>-11.94066611694803</v>
+        <v>-11.16603966340782</v>
       </c>
       <c r="H4">
-        <v>-14.05901356371707</v>
+        <v>-13.32558658338638</v>
       </c>
       <c r="I4">
-        <v>-7.495552556837601</v>
+        <v>-6.129946279667854</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
       </c>
       <c r="K4">
-        <v>-8.403596813813429</v>
+        <v>-7.597856027136762</v>
       </c>
       <c r="L4">
-        <v>-10.60703168285723</v>
+        <v>-9.844145223970147</v>
       </c>
       <c r="M4">
-        <v>-3.779936880148849</v>
+        <v>-2.359478450116348</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -873,25 +873,25 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>-7.980859442351568</v>
+        <v>-7.716896989515697</v>
       </c>
       <c r="H5">
-        <v>-11.49844570587902</v>
+        <v>-10.96864206121841</v>
       </c>
       <c r="I5">
-        <v>-5.323077593194975</v>
+        <v>-4.573763827295306</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
       </c>
       <c r="K5">
-        <v>-5.613621711414963</v>
+        <v>-5.342868694419112</v>
       </c>
       <c r="L5">
-        <v>-9.221699614772827</v>
+        <v>-8.678266510306054</v>
       </c>
       <c r="M5">
-        <v>-2.887467114634412</v>
+        <v>-2.118876882901677</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -914,25 +914,25 @@
         <v>57</v>
       </c>
       <c r="G6">
-        <v>-3.920362035269964</v>
+        <v>-4.827654204253222</v>
       </c>
       <c r="H6">
-        <v>-8.012805401512662</v>
+        <v>-9.305087808523435</v>
       </c>
       <c r="I6">
-        <v>-2.205586596331522</v>
+        <v>-2.93937901942711</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>-1.726048964461613</v>
+        <v>-2.654062309207128</v>
       </c>
       <c r="L6">
-        <v>-5.911957524374012</v>
+        <v>-7.233753699722689</v>
       </c>
       <c r="M6">
-        <v>0.02788934226933826</v>
+        <v>-0.7226617857856832</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -955,25 +955,25 @@
         <v>57</v>
       </c>
       <c r="G7">
-        <v>-7.029656115004413</v>
+        <v>-6.939710906053183</v>
       </c>
       <c r="H7">
-        <v>-10.56751527112225</v>
+        <v>-10.70780614454476</v>
       </c>
       <c r="I7">
-        <v>-4.743299487064029</v>
+        <v>-4.50572389366176</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
       </c>
       <c r="K7">
-        <v>-5.514981004103081</v>
+        <v>-5.423570405613098</v>
       </c>
       <c r="L7">
-        <v>-9.11047904791047</v>
+        <v>-9.253055543665656</v>
       </c>
       <c r="M7">
-        <v>-3.191374998196861</v>
+        <v>-2.949928817430425</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -996,25 +996,25 @@
         <v>58</v>
       </c>
       <c r="G8">
-        <v>3.629522235649332</v>
+        <v>3.831279301978824</v>
       </c>
       <c r="H8">
-        <v>2.326583109259059</v>
+        <v>2.775108017169178</v>
       </c>
       <c r="I8">
-        <v>4.789641131421044</v>
+        <v>4.968221361924472</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
       </c>
       <c r="K8">
-        <v>-0.2208899169393819</v>
+        <v>-0.02662924587745197</v>
       </c>
       <c r="L8">
-        <v>-1.475417620232211</v>
+        <v>-1.043557903079495</v>
       </c>
       <c r="M8">
-        <v>0.8961241203097714</v>
+        <v>1.068069103685665</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1037,25 +1037,25 @@
         <v>58</v>
       </c>
       <c r="G9">
-        <v>-5.87663712991977</v>
+        <v>-5.875546452018774</v>
       </c>
       <c r="H9">
-        <v>-9.329368775422939</v>
+        <v>-8.936959937682508</v>
       </c>
       <c r="I9">
-        <v>-3.162009727230561</v>
+        <v>-3.713094475803683</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
       </c>
       <c r="K9">
-        <v>-9.277555559407935</v>
+        <v>-9.276504290495968</v>
       </c>
       <c r="L9">
-        <v>-12.60553115787657</v>
+        <v>-12.22730105756616</v>
       </c>
       <c r="M9">
-        <v>-6.661014604987081</v>
+        <v>-7.192187248632342</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1078,25 +1078,25 @@
         <v>58</v>
       </c>
       <c r="G10">
-        <v>-1.130169310918151</v>
+        <v>-1.214377529557449</v>
       </c>
       <c r="H10">
-        <v>-2.678508001907544</v>
+        <v>-2.78542920822908</v>
       </c>
       <c r="I10">
-        <v>1.635834145524097</v>
+        <v>1.253026223853828</v>
       </c>
       <c r="J10" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>-4.978984739243031</v>
+        <v>-5.059914891268569</v>
       </c>
       <c r="L10">
-        <v>-6.467049534741564</v>
+        <v>-6.569808500816132</v>
       </c>
       <c r="M10">
-        <v>-2.320656563558898</v>
+        <v>-2.688562497183455</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1119,25 +1119,25 @@
         <v>58</v>
       </c>
       <c r="G11">
-        <v>1.431503764069792</v>
+        <v>1.312750017598994</v>
       </c>
       <c r="H11">
-        <v>-0.1834454357846039</v>
+        <v>0.04949333902473643</v>
       </c>
       <c r="I11">
-        <v>4.208429187502813</v>
+        <v>3.689258549218555</v>
       </c>
       <c r="J11" t="s">
         <v>58</v>
       </c>
       <c r="K11">
-        <v>-2.9551243141544</v>
+        <v>-3.06874229412929</v>
       </c>
       <c r="L11">
-        <v>-4.500231490159246</v>
+        <v>-4.277366664095283</v>
       </c>
       <c r="M11">
-        <v>-0.2982931275366085</v>
+        <v>-0.7950110917031239</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1160,25 +1160,25 @@
         <v>58</v>
       </c>
       <c r="G12">
-        <v>2.371387557031822</v>
+        <v>2.370742183924419</v>
       </c>
       <c r="H12">
-        <v>1.37114242514564</v>
+        <v>1.313827173084389</v>
       </c>
       <c r="I12">
-        <v>5.284007402373209</v>
+        <v>4.83380706411041</v>
       </c>
       <c r="J12" t="s">
         <v>58</v>
       </c>
       <c r="K12">
-        <v>-2.108182037624806</v>
+        <v>-2.108799170480524</v>
       </c>
       <c r="L12">
-        <v>-3.064658419404853</v>
+        <v>-3.119465669312671</v>
       </c>
       <c r="M12">
-        <v>0.6769873197302267</v>
+        <v>0.2464868585025259</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1201,25 +1201,25 @@
         <v>58</v>
       </c>
       <c r="G13">
-        <v>3.975460731849312</v>
+        <v>3.650238865525563</v>
       </c>
       <c r="H13">
-        <v>2.583508876398371</v>
+        <v>2.427408632044111</v>
       </c>
       <c r="I13">
-        <v>6.837121212243721</v>
+        <v>5.613821910632621</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13">
-        <v>-0.6646565188870412</v>
+        <v>-0.975364695330283</v>
       </c>
       <c r="L13">
-        <v>-1.994489680453759</v>
+        <v>-2.143623632650482</v>
       </c>
       <c r="M13">
-        <v>2.069296519122732</v>
+        <v>0.9005894467959852</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1242,25 +1242,25 @@
         <v>59</v>
       </c>
       <c r="G14">
-        <v>2.819020254023973</v>
+        <v>2.602629285248526</v>
       </c>
       <c r="H14">
-        <v>1.790840942682244</v>
+        <v>1.784228932256315</v>
       </c>
       <c r="I14">
-        <v>4.043203777573675</v>
+        <v>3.627795823632187</v>
       </c>
       <c r="J14" t="s">
         <v>59</v>
       </c>
       <c r="K14">
-        <v>-0.007163434910506528</v>
+        <v>-0.2176064708533376</v>
       </c>
       <c r="L14">
-        <v>-1.007081208728966</v>
+        <v>-1.013511474999285</v>
       </c>
       <c r="M14">
-        <v>1.183370988521637</v>
+        <v>0.7793813420176487</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1283,25 +1283,25 @@
         <v>59</v>
       </c>
       <c r="G15">
-        <v>-12.67174500166206</v>
+        <v>-12.62288972311184</v>
       </c>
       <c r="H15">
-        <v>-14.29671211698208</v>
+        <v>-14.13251089755405</v>
       </c>
       <c r="I15">
-        <v>-9.77013167467832</v>
+        <v>-9.714896450087114</v>
       </c>
       <c r="J15" t="s">
         <v>59</v>
       </c>
       <c r="K15">
-        <v>-15.19891337853111</v>
+        <v>-15.15147190946325</v>
       </c>
       <c r="L15">
-        <v>-16.77685601698087</v>
+        <v>-16.61740657152554</v>
       </c>
       <c r="M15">
-        <v>-12.38126904236248</v>
+        <v>-12.32763225475915</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1324,25 +1324,25 @@
         <v>59</v>
       </c>
       <c r="G16">
-        <v>-3.190558265273996</v>
+        <v>-4.194179482523401</v>
       </c>
       <c r="H16">
-        <v>-5.31863607442945</v>
+        <v>-6.294309869893811</v>
       </c>
       <c r="I16">
-        <v>-1.839988729478789</v>
+        <v>-2.771900541174529</v>
       </c>
       <c r="J16" t="s">
         <v>59</v>
       </c>
       <c r="K16">
-        <v>-6.034520849500103</v>
+        <v>-7.00865877318384</v>
       </c>
       <c r="L16">
-        <v>-8.100082301189682</v>
+        <v>-9.047093812077357</v>
       </c>
       <c r="M16">
-        <v>-4.723626877971887</v>
+        <v>-5.628161997097458</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1365,25 +1365,25 @@
         <v>59</v>
       </c>
       <c r="G17">
-        <v>-4.43514073386936</v>
+        <v>-4.236826389787145</v>
       </c>
       <c r="H17">
-        <v>-6.051477526415435</v>
+        <v>-5.72691678444868</v>
       </c>
       <c r="I17">
-        <v>-1.627765000396264</v>
+        <v>-1.987013052049692</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
       </c>
       <c r="K17">
-        <v>-6.88130477769906</v>
+        <v>-6.688066665838543</v>
       </c>
       <c r="L17">
-        <v>-8.456268360730601</v>
+        <v>-8.14001536727238</v>
       </c>
       <c r="M17">
-        <v>-4.145789157132295</v>
+        <v>-4.495841572716996</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1406,25 +1406,25 @@
         <v>59</v>
       </c>
       <c r="G18">
-        <v>-6.129611008642953</v>
+        <v>-5.183413311678208</v>
       </c>
       <c r="H18">
-        <v>-7.718092957032488</v>
+        <v>-6.699658486340072</v>
       </c>
       <c r="I18">
-        <v>-2.262712239054216</v>
+        <v>-2.37691838503217</v>
       </c>
       <c r="J18" t="s">
         <v>59</v>
       </c>
       <c r="K18">
-        <v>-8.341139614202387</v>
+        <v>-7.417233752776376</v>
       </c>
       <c r="L18">
-        <v>-9.892197905291411</v>
+        <v>-8.897757124078975</v>
       </c>
       <c r="M18">
-        <v>-4.565342600296541</v>
+        <v>-4.676858119747052</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1447,25 +1447,25 @@
         <v>59</v>
       </c>
       <c r="G19">
-        <v>-5.184012723516807</v>
+        <v>-4.85417652243057</v>
       </c>
       <c r="H19">
-        <v>-6.701293741103989</v>
+        <v>-6.4291862797629</v>
       </c>
       <c r="I19">
-        <v>-2.319953504191961</v>
+        <v>-2.669869979995769</v>
       </c>
       <c r="J19" t="s">
         <v>59</v>
       </c>
       <c r="K19">
-        <v>-7.59427870253332</v>
+        <v>-7.272827089288869</v>
       </c>
       <c r="L19">
-        <v>-9.07298973923073</v>
+        <v>-8.80779937463193</v>
       </c>
       <c r="M19">
-        <v>-4.803025185036979</v>
+        <v>-5.144046623185705</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1488,25 +1488,25 @@
         <v>60</v>
       </c>
       <c r="G20">
-        <v>2.916752616915053</v>
+        <v>2.7935401717748</v>
       </c>
       <c r="H20">
-        <v>1.888999658638266</v>
+        <v>1.742038834887281</v>
       </c>
       <c r="I20">
-        <v>3.671798728637351</v>
+        <v>3.666338694579869</v>
       </c>
       <c r="J20" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0.3652502331755736</v>
+        <v>0.2450924593058845</v>
       </c>
       <c r="L20">
-        <v>-0.6370227710970511</v>
+        <v>-0.7803401560241063</v>
       </c>
       <c r="M20">
-        <v>1.101577313205659</v>
+        <v>1.096252643795426</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1529,25 +1529,25 @@
         <v>60</v>
       </c>
       <c r="G21">
-        <v>-12.76533098844984</v>
+        <v>-12.91076825021682</v>
       </c>
       <c r="H21">
-        <v>-14.6564027469557</v>
+        <v>-15.23182183144372</v>
       </c>
       <c r="I21">
-        <v>-9.804604860962414</v>
+        <v>-10.16908632001858</v>
       </c>
       <c r="J21" t="s">
         <v>60</v>
       </c>
       <c r="K21">
-        <v>-14.91579229172777</v>
+        <v>-15.05764431373825</v>
       </c>
       <c r="L21">
-        <v>-16.76024638452264</v>
+        <v>-17.32148055275684</v>
       </c>
       <c r="M21">
-        <v>-12.02805236386611</v>
+        <v>-12.38354882553141</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1570,25 +1570,25 @@
         <v>60</v>
       </c>
       <c r="G22">
-        <v>-3.380295785401061</v>
+        <v>-2.522669195220175</v>
       </c>
       <c r="H22">
-        <v>-4.769563875700971</v>
+        <v>-4.040479644958348</v>
       </c>
       <c r="I22">
-        <v>-1.370402151112878</v>
+        <v>-0.244429339605171</v>
       </c>
       <c r="J22" t="s">
         <v>60</v>
       </c>
       <c r="K22">
-        <v>-5.857695216786219</v>
+        <v>-5.022058795630635</v>
       </c>
       <c r="L22">
-        <v>-7.211341463644061</v>
+        <v>-6.50095148241665</v>
       </c>
       <c r="M22">
-        <v>-3.899336715907997</v>
+        <v>-2.802234665552572</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1611,25 +1611,25 @@
         <v>60</v>
       </c>
       <c r="G23">
-        <v>-2.814999290003221</v>
+        <v>-2.616378443347326</v>
       </c>
       <c r="H23">
-        <v>-4.201742375528628</v>
+        <v>-3.984476444444913</v>
       </c>
       <c r="I23">
-        <v>-1.892843735794399</v>
+        <v>-1.602528249402289</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
       </c>
       <c r="K23">
-        <v>-4.800952545798665</v>
+        <v>-4.606390470704258</v>
       </c>
       <c r="L23">
-        <v>-6.159357853626579</v>
+        <v>-5.946531702139069</v>
       </c>
       <c r="M23">
-        <v>-3.897641029371934</v>
+        <v>-3.613258073526671</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1652,25 +1652,25 @@
         <v>60</v>
       </c>
       <c r="G24">
-        <v>-2.443665185462139</v>
+        <v>-2.549150442318434</v>
       </c>
       <c r="H24">
-        <v>-4.02674794923026</v>
+        <v>-4.562516869945814</v>
       </c>
       <c r="I24">
-        <v>-1.220040662848442</v>
+        <v>-1.101313813812735</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
       </c>
       <c r="K24">
-        <v>-4.665259720959492</v>
+        <v>-4.768342822480076</v>
       </c>
       <c r="L24">
-        <v>-6.212291847688878</v>
+        <v>-6.735860009644757</v>
       </c>
       <c r="M24">
-        <v>-3.469500098745204</v>
+        <v>-3.353476948239542</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1693,25 +1693,25 @@
         <v>60</v>
       </c>
       <c r="G25">
-        <v>-2.696312628678928</v>
+        <v>-3.356751571333464</v>
       </c>
       <c r="H25">
-        <v>-3.97612770559804</v>
+        <v>-4.890667574061814</v>
       </c>
       <c r="I25">
-        <v>-1.214011689473994</v>
+        <v>-1.681547481570676</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
       </c>
       <c r="K25">
-        <v>-4.836939794439743</v>
+        <v>-5.48284944657953</v>
       </c>
       <c r="L25">
-        <v>-6.088599649343996</v>
+        <v>-6.983020147828145</v>
       </c>
       <c r="M25">
-        <v>-3.387248653938379</v>
+        <v>-3.844498917864803</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1734,25 +1734,25 @@
         <v>61</v>
       </c>
       <c r="G26">
-        <v>1.977245519694662</v>
+        <v>1.999040035100657</v>
       </c>
       <c r="H26">
-        <v>0.8315946832642213</v>
+        <v>0.9174564347508379</v>
       </c>
       <c r="I26">
-        <v>3.298449841826952</v>
+        <v>3.044369362905567</v>
       </c>
       <c r="J26" t="s">
         <v>61</v>
       </c>
       <c r="K26">
-        <v>-0.07135458485824087</v>
+        <v>-0.04999789503101759</v>
       </c>
       <c r="L26">
-        <v>-1.193990675093781</v>
+        <v>-1.109853782836068</v>
       </c>
       <c r="M26">
-        <v>1.223308332878736</v>
+        <v>0.9743320249224752</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1775,25 +1775,25 @@
         <v>61</v>
       </c>
       <c r="G27">
-        <v>-9.597309279333835</v>
+        <v>-9.406559644668489</v>
       </c>
       <c r="H27">
-        <v>-13.1275806255515</v>
+        <v>-12.88161889474829</v>
       </c>
       <c r="I27">
-        <v>-7.306396504325956</v>
+        <v>-6.961393130123332</v>
       </c>
       <c r="J27" t="s">
         <v>61</v>
       </c>
       <c r="K27">
-        <v>-11.88893003162824</v>
+        <v>-11.70301571566643</v>
       </c>
       <c r="L27">
-        <v>-15.32971241447843</v>
+        <v>-15.08998557560249</v>
       </c>
       <c r="M27">
-        <v>-9.65608967918936</v>
+        <v>-9.319831806759204</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1816,25 +1816,25 @@
         <v>61</v>
       </c>
       <c r="G28">
-        <v>-3.545823095377254</v>
+        <v>-3.582246422079273</v>
       </c>
       <c r="H28">
-        <v>-5.574762400353375</v>
+        <v>-5.455692374863553</v>
       </c>
       <c r="I28">
-        <v>-0.4533670861446813</v>
+        <v>-0.7721309307905179</v>
       </c>
       <c r="J28" t="s">
         <v>61</v>
       </c>
       <c r="K28">
-        <v>-5.927798041342869</v>
+        <v>-5.963321879246819</v>
       </c>
       <c r="L28">
-        <v>-7.90663186881212</v>
+        <v>-7.790502325804605</v>
       </c>
       <c r="M28">
-        <v>-2.911711485169621</v>
+        <v>-3.222603327627549</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1857,25 +1857,25 @@
         <v>61</v>
       </c>
       <c r="G29">
-        <v>0.2792227627812681</v>
+        <v>0.01248087361678079</v>
       </c>
       <c r="H29">
-        <v>-0.9850356774975775</v>
+        <v>-1.283761301822499</v>
       </c>
       <c r="I29">
-        <v>2.421177195804293</v>
+        <v>2.863684895082925</v>
       </c>
       <c r="J29" t="s">
         <v>61</v>
       </c>
       <c r="K29">
-        <v>-2.522619372600332</v>
+        <v>-2.78190838524921</v>
       </c>
       <c r="L29">
-        <v>-3.75155391955021</v>
+        <v>-4.041933028833499</v>
       </c>
       <c r="M29">
-        <v>-0.4405120147456865</v>
+        <v>-0.01036815996955376</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1898,25 +1898,25 @@
         <v>61</v>
       </c>
       <c r="G30">
-        <v>1.980225388703575</v>
+        <v>1.972560915723775</v>
       </c>
       <c r="H30">
-        <v>0.4429417862892355</v>
+        <v>0.8849774166293118</v>
       </c>
       <c r="I30">
-        <v>4.558040041607478</v>
+        <v>4.332253555755596</v>
       </c>
       <c r="J30" t="s">
         <v>61</v>
       </c>
       <c r="K30">
-        <v>-1.404257128562547</v>
+        <v>-1.411667235809122</v>
       </c>
       <c r="L30">
-        <v>-2.890521923589273</v>
+        <v>-2.46315641049194</v>
       </c>
       <c r="M30">
-        <v>1.088005952041415</v>
+        <v>0.8697127857138609</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1939,25 +1939,25 @@
         <v>61</v>
       </c>
       <c r="G31">
-        <v>-1.873880941591135</v>
+        <v>-2.346534433416638</v>
       </c>
       <c r="H31">
-        <v>-3.608706090390287</v>
+        <v>-3.901242343248571</v>
       </c>
       <c r="I31">
-        <v>0.09705259725520296</v>
+        <v>-0.3836998569135256</v>
       </c>
       <c r="J31" t="s">
         <v>61</v>
       </c>
       <c r="K31">
-        <v>-5.140284269485884</v>
+        <v>-5.597204163025271</v>
       </c>
       <c r="L31">
-        <v>-6.817360893287527</v>
+        <v>-7.100159255775385</v>
       </c>
       <c r="M31">
-        <v>-3.234958786192155</v>
+        <v>-3.699708045378158</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1980,25 +1980,25 @@
         <v>62</v>
       </c>
       <c r="G32">
-        <v>7.030131315499354</v>
+        <v>6.101932539478522</v>
       </c>
       <c r="H32">
-        <v>4.339316462752215</v>
+        <v>4.077624735154457</v>
       </c>
       <c r="I32">
-        <v>9.289963385080059</v>
+        <v>7.817784939274184</v>
       </c>
       <c r="J32" t="s">
         <v>62</v>
       </c>
       <c r="K32">
-        <v>0.6555384651995677</v>
+        <v>-0.2173778477563504</v>
       </c>
       <c r="L32">
-        <v>-1.875014516325157</v>
+        <v>-2.121120182360392</v>
       </c>
       <c r="M32">
-        <v>2.780777507783405</v>
+        <v>1.396280335275568</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2021,25 +2021,25 @@
         <v>62</v>
       </c>
       <c r="G33">
-        <v>-7.815581097196123</v>
+        <v>-6.229254422705692</v>
       </c>
       <c r="H33">
-        <v>-12.66973338931818</v>
+        <v>-11.38428545614559</v>
       </c>
       <c r="I33">
-        <v>-5.416885279392297</v>
+        <v>-3.643080642754959</v>
       </c>
       <c r="J33" t="s">
         <v>62</v>
       </c>
       <c r="K33">
-        <v>-13.32722686276626</v>
+        <v>-11.83574561662837</v>
       </c>
       <c r="L33">
-        <v>-17.89115258249418</v>
+        <v>-16.68256073565436</v>
       </c>
       <c r="M33">
-        <v>-11.07194749000211</v>
+        <v>-9.404197465747588</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2062,25 +2062,25 @@
         <v>62</v>
       </c>
       <c r="G34">
-        <v>-1.088500091197701</v>
+        <v>-0.3296687007671884</v>
       </c>
       <c r="H34">
-        <v>-3.004825652053677</v>
+        <v>-2.576512403297374</v>
       </c>
       <c r="I34">
-        <v>2.302913370353484</v>
+        <v>2.659878649414787</v>
       </c>
       <c r="J34" t="s">
         <v>62</v>
       </c>
       <c r="K34">
-        <v>-6.991367326348152</v>
+        <v>-6.277821680807838</v>
       </c>
       <c r="L34">
-        <v>-8.793329892249169</v>
+        <v>-8.390577637359053</v>
       </c>
       <c r="M34">
-        <v>-3.802347554322416</v>
+        <v>-3.466685345700848</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2103,25 +2103,25 @@
         <v>62</v>
       </c>
       <c r="G35">
-        <v>-1.589177143284876</v>
+        <v>-0.2538657593573786</v>
       </c>
       <c r="H35">
-        <v>-3.625731405420674</v>
+        <v>-1.961573568768054</v>
       </c>
       <c r="I35">
-        <v>1.496995741331963</v>
+        <v>3.219673265731271</v>
       </c>
       <c r="J35" t="s">
         <v>62</v>
       </c>
       <c r="K35">
-        <v>-7.356118821871027</v>
+        <v>-6.099057600378133</v>
       </c>
       <c r="L35">
-        <v>-9.273329608217439</v>
+        <v>-7.706692561548567</v>
       </c>
       <c r="M35">
-        <v>-4.450797783819205</v>
+        <v>-2.829070343219986</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2144,25 +2144,25 @@
         <v>62</v>
       </c>
       <c r="G36">
-        <v>2.502809556539931</v>
+        <v>2.098442058647402</v>
       </c>
       <c r="H36">
-        <v>0.8402771754533906</v>
+        <v>0.008238585065945908</v>
       </c>
       <c r="I36">
-        <v>5.950699760483163</v>
+        <v>5.564793349784871</v>
       </c>
       <c r="J36" t="s">
         <v>62</v>
       </c>
       <c r="K36">
-        <v>-3.066416766618629</v>
+        <v>-3.448813997323019</v>
       </c>
       <c r="L36">
-        <v>-4.638619730005233</v>
+        <v>-5.425451645185253</v>
       </c>
       <c r="M36">
-        <v>0.1941411976890794</v>
+        <v>-0.1707979814764005</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2185,25 +2185,25 @@
         <v>62</v>
       </c>
       <c r="G37">
-        <v>-0.0825166984630092</v>
+        <v>0.5953939562934151</v>
       </c>
       <c r="H37">
-        <v>-2.168210815650628</v>
+        <v>-1.436786988175113</v>
       </c>
       <c r="I37">
-        <v>2.633809308057647</v>
+        <v>3.963387095308592</v>
       </c>
       <c r="J37" t="s">
         <v>62</v>
       </c>
       <c r="K37">
-        <v>-5.338921811808827</v>
+        <v>-4.696674315433791</v>
       </c>
       <c r="L37">
-        <v>-7.314892856915312</v>
+        <v>-6.621947379971926</v>
       </c>
       <c r="M37">
-        <v>-2.765494819939085</v>
+        <v>-1.505862744375119</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2226,25 +2226,25 @@
         <v>63</v>
       </c>
       <c r="G38">
-        <v>3.359826013729961</v>
+        <v>3.187785491396209</v>
       </c>
       <c r="H38">
-        <v>2.551525760700311</v>
+        <v>2.446646733696058</v>
       </c>
       <c r="I38">
-        <v>4.017852479570583</v>
+        <v>4.088763780862973</v>
       </c>
       <c r="J38" t="s">
         <v>63</v>
       </c>
       <c r="K38">
-        <v>0.1083349240960763</v>
+        <v>-0.05829355134291392</v>
       </c>
       <c r="L38">
-        <v>-0.6745378376941558</v>
+        <v>-0.7761175826180633</v>
       </c>
       <c r="M38">
-        <v>0.7456612081258029</v>
+        <v>0.8143417832918276</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2267,25 +2267,25 @@
         <v>63</v>
       </c>
       <c r="G39">
-        <v>-9.938734475169817</v>
+        <v>-10.15751254605025</v>
       </c>
       <c r="H39">
-        <v>-11.72265870050603</v>
+        <v>-11.50709751731879</v>
       </c>
       <c r="I39">
-        <v>-6.81095421629766</v>
+        <v>-7.267213770751162</v>
       </c>
       <c r="J39" t="s">
         <v>63</v>
       </c>
       <c r="K39">
-        <v>-12.59427218793627</v>
+        <v>-12.8065993899047</v>
       </c>
       <c r="L39">
-        <v>-14.32559579713089</v>
+        <v>-14.11639063001812</v>
       </c>
       <c r="M39">
-        <v>-9.558717353460267</v>
+        <v>-10.00152368308287</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2308,25 +2308,25 @@
         <v>63</v>
       </c>
       <c r="G40">
-        <v>-3.847514251619269</v>
+        <v>-3.589320259267349</v>
       </c>
       <c r="H40">
-        <v>-5.089435704573632</v>
+        <v>-4.841964925169652</v>
       </c>
       <c r="I40">
-        <v>-0.970263394633507</v>
+        <v>-1.483318122767892</v>
       </c>
       <c r="J40" t="s">
         <v>63</v>
       </c>
       <c r="K40">
-        <v>-6.621433451066084</v>
+        <v>-6.370688140534431</v>
       </c>
       <c r="L40">
-        <v>-7.827526503581894</v>
+        <v>-7.587195050228079</v>
       </c>
       <c r="M40">
-        <v>-3.827188886967059</v>
+        <v>-4.325442413139147</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2349,25 +2349,25 @@
         <v>63</v>
       </c>
       <c r="G41">
-        <v>-1.601485490601332</v>
+        <v>-1.238051852891189</v>
       </c>
       <c r="H41">
-        <v>-3.024160004527521</v>
+        <v>-2.218934924335112</v>
       </c>
       <c r="I41">
-        <v>-0.1551593866987246</v>
+        <v>-0.1174187735315271</v>
       </c>
       <c r="J41" t="s">
         <v>63</v>
       </c>
       <c r="K41">
-        <v>-4.813670283532523</v>
+        <v>-4.462100808712566</v>
       </c>
       <c r="L41">
-        <v>-6.1899020898456</v>
+        <v>-5.410963298327132</v>
       </c>
       <c r="M41">
-        <v>-3.41455898505395</v>
+        <v>-3.378050400889387</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2390,25 +2390,25 @@
         <v>63</v>
       </c>
       <c r="G42">
-        <v>-0.7897541599899183</v>
+        <v>-0.5780975059406217</v>
       </c>
       <c r="H42">
-        <v>-2.338656339872752</v>
+        <v>-2.455551188897835</v>
       </c>
       <c r="I42">
-        <v>0.1199427567437599</v>
+        <v>0.2366700325548564</v>
       </c>
       <c r="J42" t="s">
         <v>63</v>
       </c>
       <c r="K42">
-        <v>-4.308902827635574</v>
+        <v>-4.104753979113718</v>
       </c>
       <c r="L42">
-        <v>-5.802862929747155</v>
+        <v>-5.915611328486592</v>
       </c>
       <c r="M42">
-        <v>-3.431474339080642</v>
+        <v>-3.318887569460927</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2431,25 +2431,25 @@
         <v>63</v>
       </c>
       <c r="G43">
-        <v>-0.5042759391716252</v>
+        <v>-0.7242879878470894</v>
       </c>
       <c r="H43">
-        <v>-2.830183179576185</v>
+        <v>-3.177554720615355</v>
       </c>
       <c r="I43">
-        <v>0.4480545657443988</v>
+        <v>0.3392794713284183</v>
       </c>
       <c r="J43" t="s">
         <v>63</v>
       </c>
       <c r="K43">
-        <v>-3.555771880786485</v>
+        <v>-3.769036243770163</v>
       </c>
       <c r="L43">
-        <v>-5.810344432472892</v>
+        <v>-6.147062220722999</v>
       </c>
       <c r="M43">
-        <v>-2.632648989546915</v>
+        <v>-2.738087993268623</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2472,25 +2472,25 @@
         <v>64</v>
       </c>
       <c r="G44">
-        <v>3.1321163412361</v>
+        <v>3.226216110815295</v>
       </c>
       <c r="H44">
-        <v>1.471097150853095</v>
+        <v>1.509645393965706</v>
       </c>
       <c r="I44">
-        <v>5.229202440960647</v>
+        <v>5.943290802441985</v>
       </c>
       <c r="J44" t="s">
         <v>64</v>
       </c>
       <c r="K44">
-        <v>-1.312568467383246</v>
+        <v>-1.22252411556506</v>
       </c>
       <c r="L44">
-        <v>-2.902002713868712</v>
+        <v>-2.865115784386041</v>
       </c>
       <c r="M44">
-        <v>0.6941395128913896</v>
+        <v>1.377452808322621</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2513,25 +2513,25 @@
         <v>64</v>
       </c>
       <c r="G45">
-        <v>-10.94867583893969</v>
+        <v>-10.96375544129751</v>
       </c>
       <c r="H45">
-        <v>-14.57228162739418</v>
+        <v>-14.18234801339219</v>
       </c>
       <c r="I45">
-        <v>-7.701688667776986</v>
+        <v>-7.374919809818118</v>
       </c>
       <c r="J45" t="s">
         <v>64</v>
       </c>
       <c r="K45">
-        <v>-14.59837294637021</v>
+        <v>-14.61283452331825</v>
       </c>
       <c r="L45">
-        <v>-18.07346815747863</v>
+        <v>-17.69951565994538</v>
       </c>
       <c r="M45">
-        <v>-11.48446094054725</v>
+        <v>-11.17108444218468</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2554,25 +2554,25 @@
         <v>64</v>
       </c>
       <c r="G46">
-        <v>-7.15749118770215</v>
+        <v>-7.043004347082048</v>
       </c>
       <c r="H46">
-        <v>-10.61419475623425</v>
+        <v>-9.714143597534925</v>
       </c>
       <c r="I46">
-        <v>0.9725532809246884</v>
+        <v>1.148566613279029</v>
       </c>
       <c r="J46" t="s">
         <v>64</v>
       </c>
       <c r="K46">
-        <v>-11.67611315371702</v>
+        <v>-11.56719835934452</v>
       </c>
       <c r="L46">
-        <v>-14.96457981358963</v>
+        <v>-14.10833392241555</v>
       </c>
       <c r="M46">
-        <v>-3.941755940751113</v>
+        <v>-3.774309133796216</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2595,25 +2595,25 @@
         <v>64</v>
       </c>
       <c r="G47">
-        <v>-2.922094275413794</v>
+        <v>-2.069202415263255</v>
       </c>
       <c r="H47">
-        <v>-5.965246607047458</v>
+        <v>-4.945550714954888</v>
       </c>
       <c r="I47">
-        <v>3.383025823303341</v>
+        <v>5.258335660393012</v>
       </c>
       <c r="J47" t="s">
         <v>64</v>
       </c>
       <c r="K47">
-        <v>-7.328546454894891</v>
+        <v>-6.514368112181412</v>
       </c>
       <c r="L47">
-        <v>-10.233567405097</v>
+        <v>-9.260156413287158</v>
       </c>
       <c r="M47">
-        <v>-1.309621345588674</v>
+        <v>0.4805665159374861</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2636,25 +2636,25 @@
         <v>64</v>
       </c>
       <c r="G48">
-        <v>0.9017017611280053</v>
+        <v>0.6182071922391079</v>
       </c>
       <c r="H48">
-        <v>-2.97415414552405</v>
+        <v>-3.457437604188781</v>
       </c>
       <c r="I48">
-        <v>5.03997956071052</v>
+        <v>5.261234767026052</v>
       </c>
       <c r="J48" t="s">
         <v>64</v>
       </c>
       <c r="K48">
-        <v>-4.522352773373739</v>
+        <v>-4.790607856951201</v>
       </c>
       <c r="L48">
-        <v>-8.189858836181541</v>
+        <v>-8.647162992320467</v>
       </c>
       <c r="M48">
-        <v>-0.6065315238005797</v>
+        <v>-0.3971700743211737</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2677,25 +2677,25 @@
         <v>64</v>
       </c>
       <c r="G49">
-        <v>-3.009661174863128</v>
+        <v>-3.30466003468511</v>
       </c>
       <c r="H49">
-        <v>-6.889103190018218</v>
+        <v>-7.021297602427884</v>
       </c>
       <c r="I49">
-        <v>2.175912882599642</v>
+        <v>1.781913129887006</v>
       </c>
       <c r="J49" t="s">
         <v>64</v>
       </c>
       <c r="K49">
-        <v>-8.295022123191387</v>
+        <v>-8.573945408142814</v>
       </c>
       <c r="L49">
-        <v>-11.96305904814289</v>
+        <v>-12.08804969991618</v>
       </c>
       <c r="M49">
-        <v>-3.392029103695615</v>
+        <v>-3.764558358089931</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2718,25 +2718,25 @@
         <v>65</v>
       </c>
       <c r="G50">
-        <v>4.517237935556778</v>
+        <v>4.643924664610813</v>
       </c>
       <c r="H50">
-        <v>2.33043071323259</v>
+        <v>2.320986806347195</v>
       </c>
       <c r="I50">
-        <v>6.170154169233459</v>
+        <v>6.316254098957662</v>
       </c>
       <c r="J50" t="s">
         <v>65</v>
       </c>
       <c r="K50">
-        <v>-2.092288052375357</v>
+        <v>-1.973612817353776</v>
       </c>
       <c r="L50">
-        <v>-4.140804601772851</v>
+        <v>-4.149651289010825</v>
       </c>
       <c r="M50">
-        <v>-0.5438999617892737</v>
+        <v>-0.407039190135261</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2759,25 +2759,25 @@
         <v>65</v>
       </c>
       <c r="G51">
-        <v>-10.12085174180664</v>
+        <v>-10.31262559647464</v>
       </c>
       <c r="H51">
-        <v>-12.07605752830567</v>
+        <v>-12.30034581431815</v>
       </c>
       <c r="I51">
-        <v>-7.410240961988809</v>
+        <v>-6.675129072079746</v>
       </c>
       <c r="J51" t="s">
         <v>65</v>
       </c>
       <c r="K51">
-        <v>-15.92022410856743</v>
+        <v>-16.09962392526353</v>
       </c>
       <c r="L51">
-        <v>-17.74927197491149</v>
+        <v>-17.95908825809244</v>
       </c>
       <c r="M51">
-        <v>-13.38451308645938</v>
+        <v>-12.69683363959672</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2800,25 +2800,25 @@
         <v>65</v>
       </c>
       <c r="G52">
-        <v>-7.709449770112932</v>
+        <v>-7.082730219869251</v>
       </c>
       <c r="H52">
-        <v>-9.329972606069653</v>
+        <v>-8.855451933938957</v>
       </c>
       <c r="I52">
-        <v>-4.885548617953237</v>
+        <v>-3.304882496368284</v>
       </c>
       <c r="J52" t="s">
         <v>65</v>
       </c>
       <c r="K52">
-        <v>-13.76242955429911</v>
+        <v>-13.17681411231494</v>
       </c>
       <c r="L52">
-        <v>-15.27666857309984</v>
+        <v>-14.83326987422027</v>
       </c>
       <c r="M52">
-        <v>-11.12373714283914</v>
+        <v>-9.646740790864072</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2841,25 +2841,25 @@
         <v>65</v>
       </c>
       <c r="G53">
-        <v>-0.7278476935167392</v>
+        <v>-0.09721514645584592</v>
       </c>
       <c r="H53">
-        <v>-2.560995543623319</v>
+        <v>-2.07079469625332</v>
       </c>
       <c r="I53">
-        <v>1.532572875189968</v>
+        <v>1.904550523073788</v>
       </c>
       <c r="J53" t="s">
         <v>65</v>
       </c>
       <c r="K53">
-        <v>-7.51241324513413</v>
+        <v>-6.924880074435191</v>
       </c>
       <c r="L53">
-        <v>-9.220278108361802</v>
+        <v>-8.763579101187357</v>
       </c>
       <c r="M53">
-        <v>-5.406476800789594</v>
+        <v>-5.0599212544435</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2882,25 +2882,25 @@
         <v>65</v>
       </c>
       <c r="G54">
-        <v>0.9612330452562272</v>
+        <v>0.4883502148530108</v>
       </c>
       <c r="H54">
-        <v>-1.741132891284298</v>
+        <v>-2.442714264033656</v>
       </c>
       <c r="I54">
-        <v>2.661917542704383</v>
+        <v>2.500585588602399</v>
       </c>
       <c r="J54" t="s">
         <v>65</v>
       </c>
       <c r="K54">
-        <v>-5.954838539132334</v>
+        <v>-6.395327831863229</v>
       </c>
       <c r="L54">
-        <v>-8.472086329820305</v>
+        <v>-9.125607800269997</v>
       </c>
       <c r="M54">
-        <v>-4.370654755592273</v>
+        <v>-4.520935107908453</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2923,25 +2923,25 @@
         <v>65</v>
       </c>
       <c r="G55">
-        <v>-2.559233292268937</v>
+        <v>-2.583087562890326</v>
       </c>
       <c r="H55">
-        <v>-4.880609491503033</v>
+        <v>-5.450360198918867</v>
       </c>
       <c r="I55">
-        <v>-0.6685341068512767</v>
+        <v>-0.3927398184824214</v>
       </c>
       <c r="J55" t="s">
         <v>65</v>
       </c>
       <c r="K55">
-        <v>-8.737071598399904</v>
+        <v>-8.759413485326172</v>
       </c>
       <c r="L55">
-        <v>-10.91127031441915</v>
+        <v>-11.44489827912529</v>
       </c>
       <c r="M55">
-        <v>-6.966244559391765</v>
+        <v>-6.707935894103101</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2964,25 +2964,25 @@
         <v>66</v>
       </c>
       <c r="G56">
-        <v>3.715260178139285</v>
+        <v>4.235259116438588</v>
       </c>
       <c r="H56">
-        <v>2.41429480500104</v>
+        <v>2.803170706313742</v>
       </c>
       <c r="I56">
-        <v>5.108545144304654</v>
+        <v>5.529149854330155</v>
       </c>
       <c r="J56" t="s">
         <v>66</v>
       </c>
       <c r="K56">
-        <v>-1.181848044344302</v>
+        <v>-0.686401819619209</v>
       </c>
       <c r="L56">
-        <v>-2.421385926339792</v>
+        <v>-2.050871521402564</v>
       </c>
       <c r="M56">
-        <v>0.1456503899996964</v>
+        <v>0.5463954691440343</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3005,25 +3005,25 @@
         <v>66</v>
       </c>
       <c r="G57">
-        <v>-7.587546697475923</v>
+        <v>-7.234070880532605</v>
       </c>
       <c r="H57">
-        <v>-9.737366443873601</v>
+        <v>-9.197240454525353</v>
       </c>
       <c r="I57">
-        <v>-3.377785487109489</v>
+        <v>-3.857862784552097</v>
       </c>
       <c r="J57" t="s">
         <v>66</v>
       </c>
       <c r="K57">
-        <v>-11.87386033501151</v>
+        <v>-11.53677958345775</v>
       </c>
       <c r="L57">
-        <v>-13.92396622934791</v>
+        <v>-13.40889259291743</v>
       </c>
       <c r="M57">
-        <v>-7.859358056119293</v>
+        <v>-8.317168204562375</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3046,25 +3046,25 @@
         <v>66</v>
       </c>
       <c r="G58">
-        <v>-1.650720900943164</v>
+        <v>-0.951893669280428</v>
       </c>
       <c r="H58">
-        <v>-3.815221968471448</v>
+        <v>-3.023313332600686</v>
       </c>
       <c r="I58">
-        <v>3.992139949755082</v>
+        <v>3.5136475642039</v>
       </c>
       <c r="J58" t="s">
         <v>66</v>
       </c>
       <c r="K58">
-        <v>-6.193198239650988</v>
+        <v>-5.526647877657043</v>
       </c>
       <c r="L58">
-        <v>-8.257727074144871</v>
+        <v>-7.502394476916418</v>
       </c>
       <c r="M58">
-        <v>-0.8109653038148368</v>
+        <v>-1.267357468215236</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3087,25 +3087,25 @@
         <v>66</v>
       </c>
       <c r="G59">
-        <v>-2.313864528594423</v>
+        <v>-1.800070095767199</v>
       </c>
       <c r="H59">
-        <v>-3.731725082345698</v>
+        <v>-3.748046500997112</v>
       </c>
       <c r="I59">
-        <v>1.877210293053434</v>
+        <v>2.408042763475629</v>
       </c>
       <c r="J59" t="s">
         <v>66</v>
       </c>
       <c r="K59">
-        <v>-6.501948150484759</v>
+        <v>-6.010181552403571</v>
       </c>
       <c r="L59">
-        <v>-7.859020972848829</v>
+        <v>-7.874642645668251</v>
       </c>
       <c r="M59">
-        <v>-2.4905566762634</v>
+        <v>-1.982482509920014</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3128,25 +3128,25 @@
         <v>66</v>
       </c>
       <c r="G60">
-        <v>-3.16564394145556</v>
+        <v>-2.925047486666453</v>
       </c>
       <c r="H60">
-        <v>-4.405391068420859</v>
+        <v>-4.329027106095384</v>
       </c>
       <c r="I60">
-        <v>1.213553005436436</v>
+        <v>1.316574641581337</v>
       </c>
       <c r="J60" t="s">
         <v>66</v>
       </c>
       <c r="K60">
-        <v>-7.314689855558321</v>
+        <v>-7.084402197959816</v>
       </c>
       <c r="L60">
-        <v>-8.501317738889192</v>
+        <v>-8.428225730844897</v>
       </c>
       <c r="M60">
-        <v>-3.123127648433355</v>
+        <v>-3.024520163586697</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3169,25 +3169,25 @@
         <v>66</v>
       </c>
       <c r="G61">
-        <v>-3.671674599714886</v>
+        <v>-3.427087424986559</v>
       </c>
       <c r="H61">
-        <v>-5.330177809919081</v>
+        <v>-5.245060491405425</v>
       </c>
       <c r="I61">
-        <v>2.081588510933574</v>
+        <v>1.258815346396144</v>
       </c>
       <c r="J61" t="s">
         <v>66</v>
       </c>
       <c r="K61">
-        <v>-7.666684335505403</v>
+        <v>-7.43224088683303</v>
       </c>
       <c r="L61">
-        <v>-9.256404698669819</v>
+        <v>-9.174817437537863</v>
       </c>
       <c r="M61">
-        <v>-2.15202541572288</v>
+        <v>-2.940675836103634</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3210,25 +3210,25 @@
         <v>67</v>
       </c>
       <c r="G62">
-        <v>3.448458846066962</v>
+        <v>3.80569930535129</v>
       </c>
       <c r="H62">
-        <v>2.742532336955687</v>
+        <v>2.838166086304889</v>
       </c>
       <c r="I62">
-        <v>4.244995530310453</v>
+        <v>4.812047216730228</v>
       </c>
       <c r="J62" t="s">
         <v>67</v>
       </c>
       <c r="K62">
-        <v>-0.1898166158186276</v>
+        <v>0.1548597201186164</v>
       </c>
       <c r="L62">
-        <v>-0.87091573625111</v>
+        <v>-0.7786454195471748</v>
       </c>
       <c r="M62">
-        <v>0.5787059258740568</v>
+        <v>1.125814441952433</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3251,25 +3251,25 @@
         <v>67</v>
       </c>
       <c r="G63">
-        <v>-4.020670136256626</v>
+        <v>-3.816988036729851</v>
       </c>
       <c r="H63">
-        <v>-6.133257275778457</v>
+        <v>-6.027387231586825</v>
       </c>
       <c r="I63">
-        <v>-2.468006415202712</v>
+        <v>-1.062955604704081</v>
       </c>
       <c r="J63" t="s">
         <v>67</v>
       </c>
       <c r="K63">
-        <v>-7.249539400292237</v>
+        <v>-7.052709431028625</v>
       </c>
       <c r="L63">
-        <v>-9.291056365724693</v>
+        <v>-9.188747927267936</v>
       </c>
       <c r="M63">
-        <v>-5.749109302596733</v>
+        <v>-4.391326225503489</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3292,25 +3292,25 @@
         <v>67</v>
       </c>
       <c r="G64">
-        <v>-0.5360284024645083</v>
+        <v>-0.3445621696414395</v>
       </c>
       <c r="H64">
-        <v>-2.84275136509672</v>
+        <v>-2.684920825456144</v>
       </c>
       <c r="I64">
-        <v>0.9157443244816629</v>
+        <v>1.523377952189682</v>
       </c>
       <c r="J64" t="s">
         <v>67</v>
       </c>
       <c r="K64">
-        <v>-3.533379677071824</v>
+        <v>-3.347683287819037</v>
       </c>
       <c r="L64">
-        <v>-5.770589439083129</v>
+        <v>-5.617515129880224</v>
       </c>
       <c r="M64">
-        <v>-2.125356186795579</v>
+        <v>-1.536033625891475</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3333,25 +3333,25 @@
         <v>67</v>
       </c>
       <c r="G65">
-        <v>-0.1384437706713511</v>
+        <v>0.158447612187851</v>
       </c>
       <c r="H65">
-        <v>-2.529271136664771</v>
+        <v>-2.428358785300456</v>
       </c>
       <c r="I65">
-        <v>1.573865588767384</v>
+        <v>2.073692356974105</v>
       </c>
       <c r="J65" t="s">
         <v>67</v>
       </c>
       <c r="K65">
-        <v>-2.652747757882001</v>
+        <v>-2.363331475710961</v>
       </c>
       <c r="L65">
-        <v>-4.983379118465237</v>
+        <v>-4.885007527899921</v>
       </c>
       <c r="M65">
-        <v>-0.9835507473024085</v>
+        <v>-0.4963085660345312</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3374,25 +3374,25 @@
         <v>67</v>
       </c>
       <c r="G66">
-        <v>0.04754945784812264</v>
+        <v>-0.3515135632056862</v>
       </c>
       <c r="H66">
-        <v>-1.376801132452087</v>
+        <v>-2.772158757062166</v>
       </c>
       <c r="I66">
-        <v>2.287530636284908</v>
+        <v>1.979306559675845</v>
       </c>
       <c r="J66" t="s">
         <v>67</v>
       </c>
       <c r="K66">
-        <v>-2.454747375515076</v>
+        <v>-2.843829401139153</v>
       </c>
       <c r="L66">
-        <v>-3.843473425374067</v>
+        <v>-5.20393165480264</v>
       </c>
       <c r="M66">
-        <v>-0.2707905359048746</v>
+        <v>-0.5713055968004643</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3415,25 +3415,25 @@
         <v>67</v>
       </c>
       <c r="G67">
-        <v>-0.5354657672609512</v>
+        <v>-0.7818013146781414</v>
       </c>
       <c r="H67">
-        <v>-2.319064132576724</v>
+        <v>-3.011325548656011</v>
       </c>
       <c r="I67">
-        <v>1.418366992769364</v>
+        <v>1.299610237798283</v>
       </c>
       <c r="J67" t="s">
         <v>67</v>
       </c>
       <c r="K67">
-        <v>-2.487915438183608</v>
+        <v>-2.729415515730038</v>
       </c>
       <c r="L67">
-        <v>-4.23650246937629</v>
+        <v>-4.915175066240341</v>
       </c>
       <c r="M67">
-        <v>-0.5724356464629099</v>
+        <v>-0.6888612530608351</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3456,25 +3456,25 @@
         <v>68</v>
       </c>
       <c r="G68">
-        <v>6.528376046608797</v>
+        <v>6.02137081057371</v>
       </c>
       <c r="H68">
-        <v>3.913275552922701</v>
+        <v>3.274102968824895</v>
       </c>
       <c r="I68">
-        <v>9.054060494546782</v>
+        <v>8.663546228765862</v>
       </c>
       <c r="J68" t="s">
         <v>68</v>
       </c>
       <c r="K68">
-        <v>0.1418815245785243</v>
+        <v>-0.3347281841544092</v>
       </c>
       <c r="L68">
-        <v>-2.31644078852048</v>
+        <v>-2.917294265930825</v>
       </c>
       <c r="M68">
-        <v>2.51614838323424</v>
+        <v>2.149045881639911</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3497,25 +3497,25 @@
         <v>68</v>
       </c>
       <c r="G69">
-        <v>-2.591975186598731</v>
+        <v>-4.279820930163616</v>
       </c>
       <c r="H69">
-        <v>-6.318963024460025</v>
+        <v>-8.537792457089639</v>
       </c>
       <c r="I69">
-        <v>1.033540719621616</v>
+        <v>-0.7679671973476634</v>
       </c>
       <c r="J69" t="s">
         <v>68</v>
       </c>
       <c r="K69">
-        <v>-7.921377094773918</v>
+        <v>-9.516877178484883</v>
       </c>
       <c r="L69">
-        <v>-11.44445343629912</v>
+        <v>-13.54188595286536</v>
       </c>
       <c r="M69">
-        <v>-4.494220937924787</v>
+        <v>-6.197164493809016</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3538,25 +3538,25 @@
         <v>68</v>
       </c>
       <c r="G70">
-        <v>2.594761366516847</v>
+        <v>3.430566176013257</v>
       </c>
       <c r="H70">
-        <v>0.2323688949925337</v>
+        <v>0.7202569143995257</v>
       </c>
       <c r="I70">
-        <v>5.885192641927224</v>
+        <v>7.10280169471899</v>
       </c>
       <c r="J70" t="s">
         <v>68</v>
       </c>
       <c r="K70">
-        <v>-2.347962859474861</v>
+        <v>-1.55242475195303</v>
       </c>
       <c r="L70">
-        <v>-4.596541971089008</v>
+        <v>-4.132159010819302</v>
       </c>
       <c r="M70">
-        <v>0.7839447821524015</v>
+        <v>1.942892888879699</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3579,25 +3579,25 @@
         <v>68</v>
       </c>
       <c r="G71">
-        <v>5.844242150205516</v>
+        <v>3.377195241340534</v>
       </c>
       <c r="H71">
-        <v>3.087229029045273</v>
+        <v>0.358152889242259</v>
       </c>
       <c r="I71">
-        <v>11.10785256246002</v>
+        <v>7.028256139080698</v>
       </c>
       <c r="J71" t="s">
         <v>68</v>
       </c>
       <c r="K71">
-        <v>1.363045359611159</v>
+        <v>-0.9995525734223243</v>
       </c>
       <c r="L71">
-        <v>-1.277242296855063</v>
+        <v>-3.890775758185139</v>
       </c>
       <c r="M71">
-        <v>6.403806860983385</v>
+        <v>2.496930975140921</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="G72">
-        <v>3.866526460093826</v>
+        <v>5.750379522624608</v>
       </c>
       <c r="H72">
-        <v>0.766968005244291</v>
+        <v>2.730047130939246</v>
       </c>
       <c r="I72">
-        <v>6.851671607409768</v>
+        <v>8.364754214545158</v>
       </c>
       <c r="J72" t="s">
         <v>68</v>
       </c>
       <c r="K72">
-        <v>-0.1836385434368148</v>
+        <v>1.626755667568891</v>
       </c>
       <c r="L72">
-        <v>-3.162333004773943</v>
+        <v>-1.275802066883325</v>
       </c>
       <c r="M72">
-        <v>2.685104035908736</v>
+        <v>4.139185592063344</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3661,25 +3661,25 @@
         <v>68</v>
       </c>
       <c r="G73">
-        <v>4.293585952100262</v>
+        <v>4.415105475708512</v>
       </c>
       <c r="H73">
-        <v>0.9891848481413046</v>
+        <v>1.931287261984103</v>
       </c>
       <c r="I73">
-        <v>7.007293196043788</v>
+        <v>7.705691741063272</v>
       </c>
       <c r="J73" t="s">
         <v>68</v>
       </c>
       <c r="K73">
-        <v>0.155739004401223</v>
+        <v>0.2724372421628374</v>
       </c>
       <c r="L73">
-        <v>-3.017560019816501</v>
+        <v>-2.112835509532696</v>
       </c>
       <c r="M73">
-        <v>2.761779941411402</v>
+        <v>3.432469531355609</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3702,25 +3702,25 @@
         <v>69</v>
       </c>
       <c r="G74">
-        <v>2.301349343343125</v>
+        <v>1.929918128082713</v>
       </c>
       <c r="H74">
-        <v>0.952150691064745</v>
+        <v>0.7658254117237042</v>
       </c>
       <c r="I74">
-        <v>3.694151338599098</v>
+        <v>3.331445007138872</v>
       </c>
       <c r="J74" t="s">
         <v>69</v>
       </c>
       <c r="K74">
-        <v>0.6700257216219585</v>
+        <v>0.3045174440274634</v>
       </c>
       <c r="L74">
-        <v>-0.6576582620231863</v>
+        <v>-0.8410123505493972</v>
       </c>
       <c r="M74">
-        <v>2.040617738125694</v>
+        <v>1.683695215090819</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3743,25 +3743,25 @@
         <v>69</v>
       </c>
       <c r="G75">
-        <v>-4.705082273817495</v>
+        <v>-4.417907154910596</v>
       </c>
       <c r="H75">
-        <v>-6.61639263602077</v>
+        <v>-6.28974143858021</v>
       </c>
       <c r="I75">
-        <v>-2.507755115021298</v>
+        <v>-2.09747397216172</v>
       </c>
       <c r="J75" t="s">
         <v>69</v>
       </c>
       <c r="K75">
-        <v>-6.755606710702999</v>
+        <v>-6.474610930768576</v>
       </c>
       <c r="L75">
-        <v>-8.625790130382105</v>
+        <v>-8.306167705080414</v>
       </c>
       <c r="M75">
-        <v>-4.605560909008021</v>
+        <v>-4.204108059718569</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3784,25 +3784,25 @@
         <v>69</v>
       </c>
       <c r="G76">
-        <v>-1.383415800145411</v>
+        <v>-1.016471366543063</v>
       </c>
       <c r="H76">
-        <v>-2.384012701894978</v>
+        <v>-2.246021461581119</v>
       </c>
       <c r="I76">
-        <v>0.2158298273076672</v>
+        <v>0.7049351440882884</v>
       </c>
       <c r="J76" t="s">
         <v>69</v>
       </c>
       <c r="K76">
-        <v>-4.126057026374486</v>
+        <v>-3.769317741728562</v>
       </c>
       <c r="L76">
-        <v>-5.098826171405024</v>
+        <v>-4.964672627028555</v>
       </c>
       <c r="M76">
-        <v>-2.571288268854677</v>
+        <v>-2.095785536432992</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3825,25 +3825,25 @@
         <v>69</v>
       </c>
       <c r="G77">
-        <v>-0.1068885883787144</v>
+        <v>0.5271998471357261</v>
       </c>
       <c r="H77">
-        <v>-1.530496604389212</v>
+        <v>-0.5128963092965931</v>
       </c>
       <c r="I77">
-        <v>1.779837905659778</v>
+        <v>2.064005307354295</v>
       </c>
       <c r="J77" t="s">
         <v>69</v>
       </c>
       <c r="K77">
-        <v>-2.847909522594749</v>
+        <v>-2.231220181485605</v>
       </c>
       <c r="L77">
-        <v>-4.232454390817963</v>
+        <v>-3.242776578788475</v>
       </c>
       <c r="M77">
-        <v>-1.01295393391917</v>
+        <v>-0.7365839547482045</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3866,25 +3866,25 @@
         <v>69</v>
       </c>
       <c r="G78">
-        <v>-1.088492376058522</v>
+        <v>-1.501646345413572</v>
       </c>
       <c r="H78">
-        <v>-2.224335200590824</v>
+        <v>-2.786481819519592</v>
       </c>
       <c r="I78">
-        <v>1.247527130272006</v>
+        <v>0.6113308880578888</v>
       </c>
       <c r="J78" t="s">
         <v>69</v>
       </c>
       <c r="K78">
-        <v>-3.672334351851714</v>
+        <v>-4.074695597547717</v>
       </c>
       <c r="L78">
-        <v>-4.77850582227739</v>
+        <v>-5.325967617716653</v>
       </c>
       <c r="M78">
-        <v>-1.39733813190841</v>
+        <v>-2.016915169795719</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3907,25 +3907,25 @@
         <v>69</v>
       </c>
       <c r="G79">
-        <v>-0.1002861767969657</v>
+        <v>0.2017168199663595</v>
       </c>
       <c r="H79">
-        <v>-1.964565474864472</v>
+        <v>-1.263302196716987</v>
       </c>
       <c r="I79">
-        <v>2.34303529926699</v>
+        <v>2.465782748944223</v>
       </c>
       <c r="J79" t="s">
         <v>69</v>
       </c>
       <c r="K79">
-        <v>-2.023669892041902</v>
+        <v>-1.727481402885245</v>
       </c>
       <c r="L79">
-        <v>-3.852055949725186</v>
+        <v>-3.16429419543266</v>
       </c>
       <c r="M79">
-        <v>0.372609960394521</v>
+        <v>0.4929941355761525</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3948,25 +3948,25 @@
         <v>70</v>
       </c>
       <c r="G80">
-        <v>2.593677132767695</v>
+        <v>2.282919911070794</v>
       </c>
       <c r="H80">
-        <v>1.63122460944</v>
+        <v>1.300851126254898</v>
       </c>
       <c r="I80">
-        <v>3.856107670207604</v>
+        <v>3.506962101235731</v>
       </c>
       <c r="J80" t="s">
         <v>70</v>
       </c>
       <c r="K80">
-        <v>0.07494641972243254</v>
+        <v>-0.2281815427407352</v>
       </c>
       <c r="L80">
-        <v>-0.863877369378141</v>
+        <v>-1.186140003414171</v>
       </c>
       <c r="M80">
-        <v>1.306383599125072</v>
+        <v>0.9658097442438729</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3989,25 +3989,25 @@
         <v>70</v>
       </c>
       <c r="G81">
-        <v>-17.7761157404802</v>
+        <v>-17.4720959679624</v>
       </c>
       <c r="H81">
-        <v>-20.07703739301826</v>
+        <v>-19.86174466031889</v>
       </c>
       <c r="I81">
-        <v>-14.39102416284411</v>
+        <v>-14.13283131289995</v>
       </c>
       <c r="J81" t="s">
         <v>70</v>
       </c>
       <c r="K81">
-        <v>-19.85939288653904</v>
+        <v>-19.56307595425726</v>
       </c>
       <c r="L81">
-        <v>-22.10201691014879</v>
+        <v>-21.89217897241302</v>
       </c>
       <c r="M81">
-        <v>-16.56006816344302</v>
+        <v>-16.30841705338878</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4030,25 +4030,25 @@
         <v>70</v>
       </c>
       <c r="G82">
-        <v>-3.1959247601505</v>
+        <v>-3.083578771098193</v>
       </c>
       <c r="H82">
-        <v>-5.323718820456548</v>
+        <v>-4.897521875961063</v>
       </c>
       <c r="I82">
-        <v>-1.819570878839712</v>
+        <v>-1.677323555976627</v>
       </c>
       <c r="J82" t="s">
         <v>70</v>
       </c>
       <c r="K82">
-        <v>-5.605799923091725</v>
+        <v>-5.496250715146022</v>
       </c>
       <c r="L82">
-        <v>-7.680623919430096</v>
+        <v>-7.265036873624487</v>
       </c>
       <c r="M82">
-        <v>-4.263709486018907</v>
+        <v>-4.125003318727138</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4071,25 +4071,25 @@
         <v>70</v>
       </c>
       <c r="G83">
-        <v>-4.063344480624972</v>
+        <v>-4.097630616950959</v>
       </c>
       <c r="H83">
-        <v>-6.270572348619062</v>
+        <v>-5.777614756697901</v>
       </c>
       <c r="I83">
-        <v>-2.663829772555917</v>
+        <v>-2.98153961383679</v>
       </c>
       <c r="J83" t="s">
         <v>70</v>
       </c>
       <c r="K83">
-        <v>-6.326264060243625</v>
+        <v>-6.359741467426606</v>
       </c>
       <c r="L83">
-        <v>-8.481428625299714</v>
+        <v>-8.000098741063798</v>
       </c>
       <c r="M83">
-        <v>-4.959760605461527</v>
+        <v>-5.269976420433276</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4112,25 +4112,25 @@
         <v>70</v>
       </c>
       <c r="G84">
-        <v>-2.778068959335497</v>
+        <v>-2.453302891054546</v>
       </c>
       <c r="H84">
-        <v>-4.899282560298793</v>
+        <v>-4.329073869544043</v>
       </c>
       <c r="I84">
-        <v>-1.412138851097837</v>
+        <v>-1.103020957903622</v>
       </c>
       <c r="J84" t="s">
         <v>70</v>
       </c>
       <c r="K84">
-        <v>-5.103249225074469</v>
+        <v>-4.786250330772324</v>
       </c>
       <c r="L84">
-        <v>-7.173731432908836</v>
+        <v>-6.617159973804442</v>
       </c>
       <c r="M84">
-        <v>-3.769986990207108</v>
+        <v>-3.468262025926661</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4153,25 +4153,25 @@
         <v>70</v>
       </c>
       <c r="G85">
-        <v>-5.37326668620248</v>
+        <v>-5.070201292068669</v>
       </c>
       <c r="H85">
-        <v>-6.682039228811184</v>
+        <v>-6.2019501604378</v>
       </c>
       <c r="I85">
-        <v>-3.593503296982049</v>
+        <v>-3.757448715301065</v>
       </c>
       <c r="J85" t="s">
         <v>70</v>
       </c>
       <c r="K85">
-        <v>-7.600445374137166</v>
+        <v>-7.304513067696739</v>
       </c>
       <c r="L85">
-        <v>-8.878414039108184</v>
+        <v>-8.409624569737606</v>
       </c>
       <c r="M85">
-        <v>-5.862571321589638</v>
+        <v>-6.02265804449692</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4194,25 +4194,25 @@
         <v>71</v>
       </c>
       <c r="G86">
-        <v>1.931331590810779</v>
+        <v>2.205383799928846</v>
       </c>
       <c r="H86">
-        <v>1.039310384589253</v>
+        <v>1.248759069934533</v>
       </c>
       <c r="I86">
-        <v>3.450376714993889</v>
+        <v>3.645631020836814</v>
       </c>
       <c r="J86" t="s">
         <v>71</v>
       </c>
       <c r="K86">
-        <v>0.8760966849689966</v>
+        <v>1.147311793339223</v>
       </c>
       <c r="L86">
-        <v>-0.006689952265104271</v>
+        <v>0.2005904344784648</v>
       </c>
       <c r="M86">
-        <v>2.379416031674553</v>
+        <v>2.572648984947823</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4235,25 +4235,25 @@
         <v>71</v>
       </c>
       <c r="G87">
-        <v>-10.41196132355211</v>
+        <v>-10.13884592951729</v>
       </c>
       <c r="H87">
-        <v>-12.3664574340213</v>
+        <v>-12.70709402797156</v>
       </c>
       <c r="I87">
-        <v>-7.879847182408654</v>
+        <v>-7.501962209451212</v>
       </c>
       <c r="J87" t="s">
         <v>71</v>
       </c>
       <c r="K87">
-        <v>-11.14786842214498</v>
+        <v>-10.87699649230667</v>
       </c>
       <c r="L87">
-        <v>-13.08630962636648</v>
+        <v>-13.42414811365837</v>
       </c>
       <c r="M87">
-        <v>-8.636553941295965</v>
+        <v>-8.261773046049781</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4276,25 +4276,25 @@
         <v>71</v>
       </c>
       <c r="G88">
-        <v>-2.769476407336254</v>
+        <v>-3.371251567189697</v>
       </c>
       <c r="H88">
-        <v>-3.941202653301207</v>
+        <v>-4.76777361395527</v>
       </c>
       <c r="I88">
-        <v>-1.207225284205137</v>
+        <v>-1.662807872847837</v>
       </c>
       <c r="J88" t="s">
         <v>71</v>
       </c>
       <c r="K88">
-        <v>-3.868095678796135</v>
+        <v>-4.46307130941459</v>
       </c>
       <c r="L88">
-        <v>-5.026582450292305</v>
+        <v>-5.843813887172855</v>
       </c>
       <c r="M88">
-        <v>-2.32349661725344</v>
+        <v>-2.773931523942663</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4317,25 +4317,25 @@
         <v>71</v>
       </c>
       <c r="G89">
-        <v>-2.678947093084583</v>
+        <v>-3.004649060302518</v>
       </c>
       <c r="H89">
-        <v>-5.387207305130334</v>
+        <v>-5.529350764240984</v>
       </c>
       <c r="I89">
-        <v>-1.127108377385178</v>
+        <v>-1.450240026842176</v>
       </c>
       <c r="J89" t="s">
         <v>71</v>
       </c>
       <c r="K89">
-        <v>-3.790220341330164</v>
+        <v>-4.112203237779144</v>
       </c>
       <c r="L89">
-        <v>-6.467555927788348</v>
+        <v>-6.608076303107724</v>
       </c>
       <c r="M89">
-        <v>-2.256101500198882</v>
+        <v>-2.575543428398486</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4358,25 +4358,25 @@
         <v>71</v>
       </c>
       <c r="G90">
-        <v>-5.746293614988465</v>
+        <v>-5.562961434903397</v>
       </c>
       <c r="H90">
-        <v>-8.9454577506263</v>
+        <v>-9.392465101246298</v>
       </c>
       <c r="I90">
-        <v>-4.089883112772544</v>
+        <v>-3.383974067986289</v>
       </c>
       <c r="J90" t="s">
         <v>71</v>
       </c>
       <c r="K90">
-        <v>-6.583006056730878</v>
+        <v>-6.401301359764866</v>
       </c>
       <c r="L90">
-        <v>-9.753770455762812</v>
+        <v>-10.19680961641809</v>
       </c>
       <c r="M90">
-        <v>-4.941299902269469</v>
+        <v>-4.241657379014985</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4399,25 +4399,25 @@
         <v>71</v>
       </c>
       <c r="G91">
-        <v>-4.644674025104737</v>
+        <v>-4.688714526689105</v>
       </c>
       <c r="H91">
-        <v>-7.266268169229708</v>
+        <v>-6.984557915580005</v>
       </c>
       <c r="I91">
-        <v>-3.471558833946787</v>
+        <v>-3.494587917167462</v>
       </c>
       <c r="J91" t="s">
         <v>71</v>
       </c>
       <c r="K91">
-        <v>-5.891042747172515</v>
+        <v>-5.934507604941319</v>
       </c>
       <c r="L91">
-        <v>-8.478370604545415</v>
+        <v>-8.200342524337467</v>
       </c>
       <c r="M91">
-        <v>-4.733261089476837</v>
+        <v>-4.755989164560514</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4440,25 +4440,25 @@
         <v>72</v>
       </c>
       <c r="G92">
-        <v>2.373537889241587</v>
+        <v>3.505430877121628</v>
       </c>
       <c r="H92">
-        <v>-0.4432145838846912</v>
+        <v>1.088534399098005</v>
       </c>
       <c r="I92">
-        <v>5.440727107428189</v>
+        <v>6.198468493990768</v>
       </c>
       <c r="J92" t="s">
         <v>72</v>
       </c>
       <c r="K92">
-        <v>-1.366838145672866</v>
+        <v>-0.2763006241882082</v>
       </c>
       <c r="L92">
-        <v>-4.080676197123434</v>
+        <v>-2.604892039676543</v>
       </c>
       <c r="M92">
-        <v>1.588286555815421</v>
+        <v>2.318342685216845</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4481,25 +4481,25 @@
         <v>72</v>
       </c>
       <c r="G93">
-        <v>-13.07035692775518</v>
+        <v>-13.12812196699329</v>
       </c>
       <c r="H93">
-        <v>-17.66905740822233</v>
+        <v>-17.13528760485935</v>
       </c>
       <c r="I93">
-        <v>-8.874298120257233</v>
+        <v>-9.962083701973434</v>
       </c>
       <c r="J93" t="s">
         <v>72</v>
       </c>
       <c r="K93">
-        <v>-16.59860196809364</v>
+        <v>-16.65402247667461</v>
       </c>
       <c r="L93">
-        <v>-21.0106533195781</v>
+        <v>-20.49854782536031</v>
       </c>
       <c r="M93">
-        <v>-12.57285012555377</v>
+        <v>-13.61648535822906</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4522,25 +4522,25 @@
         <v>72</v>
       </c>
       <c r="G94">
-        <v>-8.143331385207915</v>
+        <v>-7.315417231643548</v>
       </c>
       <c r="H94">
-        <v>-10.98130666042369</v>
+        <v>-10.41201794019764</v>
       </c>
       <c r="I94">
-        <v>-3.427932438940735</v>
+        <v>-2.762224123043663</v>
       </c>
       <c r="J94" t="s">
         <v>72</v>
       </c>
       <c r="K94">
-        <v>-11.3852636870407</v>
+        <v>-10.58656942222323</v>
       </c>
       <c r="L94">
-        <v>-14.12307722271955</v>
+        <v>-13.57388062556961</v>
       </c>
       <c r="M94">
-        <v>-6.836287107167404</v>
+        <v>-6.194073887766328</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4563,25 +4563,25 @@
         <v>72</v>
       </c>
       <c r="G95">
-        <v>-5.16475792590533</v>
+        <v>-6.107817024041944</v>
       </c>
       <c r="H95">
-        <v>-8.083820709809714</v>
+        <v>-8.843785493874964</v>
       </c>
       <c r="I95">
-        <v>-0.9920538397766336</v>
+        <v>-1.966476953023449</v>
       </c>
       <c r="J95" t="s">
         <v>72</v>
       </c>
       <c r="K95">
-        <v>-8.990223830833365</v>
+        <v>-9.895241792074527</v>
       </c>
       <c r="L95">
-        <v>-11.79153740136572</v>
+        <v>-12.52084671066437</v>
       </c>
       <c r="M95">
-        <v>-4.985838366176287</v>
+        <v>-5.920955180254417</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4604,25 +4604,25 @@
         <v>72</v>
       </c>
       <c r="G96">
-        <v>-2.625776870934762</v>
+        <v>-2.700527900844731</v>
       </c>
       <c r="H96">
-        <v>-5.082613826773612</v>
+        <v>-5.261746547762843</v>
       </c>
       <c r="I96">
-        <v>1.333813531036696</v>
+        <v>1.042463123183414</v>
       </c>
       <c r="J96" t="s">
         <v>72</v>
       </c>
       <c r="K96">
-        <v>-6.877676317583347</v>
+        <v>-6.949163302323069</v>
       </c>
       <c r="L96">
-        <v>-9.22723412543669</v>
+        <v>-9.398544916835371</v>
       </c>
       <c r="M96">
-        <v>-3.090983626095112</v>
+        <v>-3.369612056836546</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4645,25 +4645,25 @@
         <v>72</v>
       </c>
       <c r="G97">
-        <v>-4.408741572498171</v>
+        <v>-3.652352922899887</v>
       </c>
       <c r="H97">
-        <v>-7.06686481754935</v>
+        <v>-6.57382239256537</v>
       </c>
       <c r="I97">
-        <v>-0.9323662949756646</v>
+        <v>-0.2303774092758299</v>
       </c>
       <c r="J97" t="s">
         <v>72</v>
       </c>
       <c r="K97">
-        <v>-8.297719305484241</v>
+        <v>-7.572103120483254</v>
       </c>
       <c r="L97">
-        <v>-10.84770105013476</v>
+        <v>-10.37471726904481</v>
       </c>
       <c r="M97">
-        <v>-4.962774805923942</v>
+        <v>-4.289345217279084</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4686,25 +4686,25 @@
         <v>73</v>
       </c>
       <c r="G98">
-        <v>6.450768606551911</v>
+        <v>6.840849324522863</v>
       </c>
       <c r="H98">
-        <v>3.808358929052638</v>
+        <v>4.360492905086767</v>
       </c>
       <c r="I98">
-        <v>8.070705195006404</v>
+        <v>8.20771172848022</v>
       </c>
       <c r="J98" t="s">
         <v>73</v>
       </c>
       <c r="K98">
-        <v>-2.23183787310659</v>
+        <v>-1.873573903983761</v>
       </c>
       <c r="L98">
-        <v>-4.658720657863869</v>
+        <v>-4.151621227852342</v>
       </c>
       <c r="M98">
-        <v>-0.744030644577498</v>
+        <v>-0.6181989840601365</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4727,25 +4727,25 @@
         <v>73</v>
       </c>
       <c r="G99">
-        <v>-6.954744769039949</v>
+        <v>-6.073299677769411</v>
       </c>
       <c r="H99">
-        <v>-9.874711949827111</v>
+        <v>-8.921111180581407</v>
       </c>
       <c r="I99">
-        <v>-3.1774214873668</v>
+        <v>-2.550305338130499</v>
       </c>
       <c r="J99" t="s">
         <v>73</v>
       </c>
       <c r="K99">
-        <v>-14.35238475042604</v>
+        <v>-13.54101968024195</v>
       </c>
       <c r="L99">
-        <v>-17.04019752519531</v>
+        <v>-16.16241357389849</v>
       </c>
       <c r="M99">
-        <v>-10.87538068075102</v>
+        <v>-10.29812391969144</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4768,25 +4768,25 @@
         <v>73</v>
       </c>
       <c r="G100">
-        <v>-2.187239484456865</v>
+        <v>-1.192417566833895</v>
       </c>
       <c r="H100">
-        <v>-4.250466955794706</v>
+        <v>-3.140013738443995</v>
       </c>
       <c r="I100">
-        <v>0.09226332081493888</v>
+        <v>1.22636275908591</v>
       </c>
       <c r="J100" t="s">
         <v>73</v>
       </c>
       <c r="K100">
-        <v>-9.382398232987132</v>
+        <v>-8.460755945364262</v>
       </c>
       <c r="L100">
-        <v>-11.29385359287082</v>
+        <v>-10.26508590550149</v>
       </c>
       <c r="M100">
-        <v>-7.27057686789967</v>
+        <v>-6.219902388212506</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4809,25 +4809,25 @@
         <v>73</v>
       </c>
       <c r="G101">
-        <v>-0.2602305655501785</v>
+        <v>-0.8475403114321892</v>
       </c>
       <c r="H101">
-        <v>-2.61480976741639</v>
+        <v>-2.753069757014432</v>
       </c>
       <c r="I101">
-        <v>1.024271584478605</v>
+        <v>0.3464335907692657</v>
       </c>
       <c r="J101" t="s">
         <v>73</v>
       </c>
       <c r="K101">
-        <v>-7.298088491264654</v>
+        <v>-7.843956367235172</v>
       </c>
       <c r="L101">
-        <v>-9.486523395910817</v>
+        <v>-9.615027455962199</v>
       </c>
       <c r="M101">
-        <v>-6.104223643572116</v>
+        <v>-6.734231894708065</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4850,25 +4850,25 @@
         <v>73</v>
       </c>
       <c r="G102">
-        <v>0.6595426228589908</v>
+        <v>0.03230020123321517</v>
       </c>
       <c r="H102">
-        <v>-1.525161656588837</v>
+        <v>-2.535004595887719</v>
       </c>
       <c r="I102">
-        <v>2.61380657652665</v>
+        <v>1.941594639072622</v>
       </c>
       <c r="J102" t="s">
         <v>73</v>
       </c>
       <c r="K102">
-        <v>-5.878668478583505</v>
+        <v>-6.465169175604634</v>
       </c>
       <c r="L102">
-        <v>-7.921468101989204</v>
+        <v>-8.865717992239809</v>
       </c>
       <c r="M102">
-        <v>-4.051341226038074</v>
+        <v>-4.679890501836159</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4891,25 +4891,25 @@
         <v>73</v>
       </c>
       <c r="G103">
-        <v>-1.087201704463087</v>
+        <v>-1.179025881937977</v>
       </c>
       <c r="H103">
-        <v>-2.869829921510025</v>
+        <v>-3.917720174124604</v>
       </c>
       <c r="I103">
-        <v>0.830541582372558</v>
+        <v>0.7549047136765908</v>
       </c>
       <c r="J103" t="s">
         <v>73</v>
       </c>
       <c r="K103">
-        <v>-7.169360653332035</v>
+        <v>-7.255538551939312</v>
       </c>
       <c r="L103">
-        <v>-8.842374863398561</v>
+        <v>-9.82583022803909</v>
       </c>
       <c r="M103">
-        <v>-5.369539614119079</v>
+        <v>-5.440525563361442</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4932,25 +4932,25 @@
         <v>74</v>
       </c>
       <c r="G104">
-        <v>5.454389493871404</v>
+        <v>2.420141620417985</v>
       </c>
       <c r="H104">
-        <v>1.330877169906417</v>
+        <v>-1.896525614092702</v>
       </c>
       <c r="I104">
-        <v>10.4591206407265</v>
+        <v>8.265365862984456</v>
       </c>
       <c r="J104" t="s">
         <v>74</v>
       </c>
       <c r="K104">
-        <v>2.81828985464343</v>
+        <v>-0.1401093057983416</v>
       </c>
       <c r="L104">
-        <v>-1.202144831664886</v>
+        <v>-4.348870506295899</v>
       </c>
       <c r="M104">
-        <v>7.697915066752903</v>
+        <v>5.558998747665034</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4973,25 +4973,25 @@
         <v>74</v>
       </c>
       <c r="G105">
-        <v>-8.216889865194196</v>
+        <v>-7.903978230783777</v>
       </c>
       <c r="H105">
-        <v>-13.24933452058183</v>
+        <v>-12.97879966463748</v>
       </c>
       <c r="I105">
-        <v>-3.861562657405368</v>
+        <v>-1.92465032842107</v>
       </c>
       <c r="J105" t="s">
         <v>74</v>
       </c>
       <c r="K105">
-        <v>-9.73519213592513</v>
+        <v>-9.42745677462602</v>
       </c>
       <c r="L105">
-        <v>-14.68438866280218</v>
+        <v>-14.41832907126638</v>
       </c>
       <c r="M105">
-        <v>-5.451911987553326</v>
+        <v>-3.54704061232386</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5014,25 +5014,25 @@
         <v>74</v>
       </c>
       <c r="G106">
-        <v>-6.596751792101231</v>
+        <v>-8.370041601438068</v>
       </c>
       <c r="H106">
-        <v>-10.83158992794969</v>
+        <v>-12.54523235432697</v>
       </c>
       <c r="I106">
-        <v>-1.602118507655422</v>
+        <v>-3.434363315339366</v>
       </c>
       <c r="J106" t="s">
         <v>74</v>
       </c>
       <c r="K106">
-        <v>-9.728422870323893</v>
+        <v>-11.44225692714935</v>
       </c>
       <c r="L106">
-        <v>-13.82127322346193</v>
+        <v>-15.47745978478025</v>
       </c>
       <c r="M106">
-        <v>-4.901252162430159</v>
+        <v>-6.672064544769785</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5055,25 +5055,25 @@
         <v>74</v>
       </c>
       <c r="G107">
-        <v>-3.523793219786285</v>
+        <v>-10.7971544402179</v>
       </c>
       <c r="H107">
-        <v>-8.731879085312379</v>
+        <v>-15.46134330860616</v>
       </c>
       <c r="I107">
-        <v>1.291166411638003</v>
+        <v>-5.702341165220632</v>
       </c>
       <c r="J107" t="s">
         <v>74</v>
       </c>
       <c r="K107">
-        <v>-5.505411973016039</v>
+        <v>-12.62937854502146</v>
       </c>
       <c r="L107">
-        <v>-10.60652389165936</v>
+        <v>-17.19776509656224</v>
       </c>
       <c r="M107">
-        <v>-0.7893514859518835</v>
+        <v>-7.639212600872714</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5096,25 +5096,25 @@
         <v>74</v>
       </c>
       <c r="G108">
-        <v>-7.219633423837577</v>
+        <v>-4.919814751675015</v>
       </c>
       <c r="H108">
-        <v>-12.56602545861304</v>
+        <v>-9.378950118027253</v>
       </c>
       <c r="I108">
-        <v>-4.152227460388042</v>
+        <v>-0.9218318745712506</v>
       </c>
       <c r="J108" t="s">
         <v>74</v>
       </c>
       <c r="K108">
-        <v>-11.88095307555173</v>
+        <v>-9.696678137128668</v>
       </c>
       <c r="L108">
-        <v>-16.95874041326545</v>
+        <v>-13.93178490691604</v>
       </c>
       <c r="M108">
-        <v>-8.967654712932537</v>
+        <v>-5.899555386363842</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5137,25 +5137,25 @@
         <v>74</v>
       </c>
       <c r="G109">
-        <v>-5.52499481395384</v>
+        <v>-2.293745073211917</v>
       </c>
       <c r="H109">
-        <v>-10.10591759949967</v>
+        <v>-7.153080945429863</v>
       </c>
       <c r="I109">
-        <v>-0.8592750703554</v>
+        <v>2.331334137598954</v>
       </c>
       <c r="J109" t="s">
         <v>74</v>
       </c>
       <c r="K109">
-        <v>-7.452551667213802</v>
+        <v>-4.28722854452388</v>
       </c>
       <c r="L109">
-        <v>-11.94001069383053</v>
+        <v>-9.047420244753257</v>
       </c>
       <c r="M109">
-        <v>-2.882025779910502</v>
+        <v>0.2434859916081056</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5178,25 +5178,25 @@
         <v>75</v>
       </c>
       <c r="G110">
-        <v>9.483566998417761</v>
+        <v>9.486370113319795</v>
       </c>
       <c r="H110">
-        <v>5.960320991361476</v>
+        <v>5.989967667182047</v>
       </c>
       <c r="I110">
-        <v>11.25821773883027</v>
+        <v>11.48327487815694</v>
       </c>
       <c r="J110" t="s">
         <v>75</v>
       </c>
       <c r="K110">
-        <v>-2.600167086120453</v>
+        <v>-2.597673351849827</v>
       </c>
       <c r="L110">
-        <v>-5.734551376017915</v>
+        <v>-5.708176812688082</v>
       </c>
       <c r="M110">
-        <v>-1.021385079509662</v>
+        <v>-0.8211675640645288</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5219,25 +5219,25 @@
         <v>75</v>
       </c>
       <c r="G111">
-        <v>-12.74394300938349</v>
+        <v>-13.64668768487346</v>
       </c>
       <c r="H111">
-        <v>-19.32602965533063</v>
+        <v>-20.18788480762358</v>
       </c>
       <c r="I111">
-        <v>-0.8628003883732986</v>
+        <v>-2.315844328322127</v>
       </c>
       <c r="J111" t="s">
         <v>75</v>
       </c>
       <c r="K111">
-        <v>-22.07076015909614</v>
+        <v>-22.87701027808701</v>
       </c>
       <c r="L111">
-        <v>-27.94928626463384</v>
+        <v>-28.71901754963082</v>
       </c>
       <c r="M111">
-        <v>-11.45959521731728</v>
+        <v>-12.75732300380001</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5260,25 +5260,25 @@
         <v>75</v>
       </c>
       <c r="G112">
-        <v>-4.893899399676934</v>
+        <v>-5.495984933453824</v>
       </c>
       <c r="H112">
-        <v>-9.491461034919073</v>
+        <v>-9.035662447604183</v>
       </c>
       <c r="I112">
-        <v>2.538620938403852</v>
+        <v>2.540260831834324</v>
       </c>
       <c r="J112" t="s">
         <v>75</v>
       </c>
       <c r="K112">
-        <v>-15.29048599309821</v>
+        <v>-15.82675414661194</v>
       </c>
       <c r="L112">
-        <v>-19.38546212270325</v>
+        <v>-18.9794894608786</v>
       </c>
       <c r="M112">
-        <v>-8.670456555332606</v>
+        <v>-8.668995927942335</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5301,25 +5301,25 @@
         <v>75</v>
       </c>
       <c r="G113">
-        <v>3.131549285909024</v>
+        <v>2.836825257574092</v>
       </c>
       <c r="H113">
-        <v>-1.711601202823729</v>
+        <v>-0.5434073134458928</v>
       </c>
       <c r="I113">
-        <v>5.739136828142667</v>
+        <v>6.210493649218659</v>
       </c>
       <c r="J113" t="s">
         <v>75</v>
       </c>
       <c r="K113">
-        <v>-8.233006537787102</v>
+        <v>-8.49525352397742</v>
       </c>
       <c r="L113">
-        <v>-12.54246724417034</v>
+        <v>-11.50300219442169</v>
       </c>
       <c r="M113">
-        <v>-5.912761466350003</v>
+        <v>-5.493345694769413</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5342,25 +5342,25 @@
         <v>75</v>
       </c>
       <c r="G114">
-        <v>4.299339699295088</v>
+        <v>3.636607769519095</v>
       </c>
       <c r="H114">
-        <v>0.03073216852310189</v>
+        <v>-1.115230855943441</v>
       </c>
       <c r="I114">
-        <v>5.497263949730796</v>
+        <v>5.144260465792707</v>
       </c>
       <c r="J114" t="s">
         <v>75</v>
       </c>
       <c r="K114">
-        <v>-7.409059042133892</v>
+        <v>-7.9973942430824</v>
       </c>
       <c r="L114">
-        <v>-11.19848272394731</v>
+        <v>-12.21580263262738</v>
       </c>
       <c r="M114">
-        <v>-6.34561095258822</v>
+        <v>-6.658987095078361</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5383,25 +5383,25 @@
         <v>75</v>
       </c>
       <c r="G115">
-        <v>0.3393420049731857</v>
+        <v>-0.1143432044174543</v>
       </c>
       <c r="H115">
-        <v>-4.01463967775223</v>
+        <v>-3.595487726185021</v>
       </c>
       <c r="I115">
-        <v>4.246735116182641</v>
+        <v>3.834243637511692</v>
       </c>
       <c r="J115" t="s">
         <v>75</v>
       </c>
       <c r="K115">
-        <v>-11.22793356781014</v>
+        <v>-11.62931723988299</v>
       </c>
       <c r="L115">
-        <v>-15.07998146308418</v>
+        <v>-14.70915000110528</v>
       </c>
       <c r="M115">
-        <v>-7.770990818197799</v>
+        <v>-8.135929636966143</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5424,25 +5424,25 @@
         <v>76</v>
       </c>
       <c r="G116">
-        <v>9.031643850267997</v>
+        <v>8.222348947272433</v>
       </c>
       <c r="H116">
-        <v>6.913099859265126</v>
+        <v>6.332534090651118</v>
       </c>
       <c r="I116">
-        <v>11.060145525777</v>
+        <v>10.00865964979502</v>
       </c>
       <c r="J116" t="s">
         <v>76</v>
       </c>
       <c r="K116">
-        <v>-1.236972895927835</v>
+        <v>-1.97004828227626</v>
       </c>
       <c r="L116">
-        <v>-3.15599209270272</v>
+        <v>-3.681880089219258</v>
       </c>
       <c r="M116">
-        <v>0.6004841842761399</v>
+        <v>-0.3519725925085093</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5465,25 +5465,25 @@
         <v>76</v>
       </c>
       <c r="G117">
-        <v>1.191594654791605</v>
+        <v>0.4675726037121267</v>
       </c>
       <c r="H117">
-        <v>-4.223422459939961</v>
+        <v>-4.63860002954172</v>
       </c>
       <c r="I117">
-        <v>4.14523116605219</v>
+        <v>3.21926902806672</v>
       </c>
       <c r="J117" t="s">
         <v>76</v>
       </c>
       <c r="K117">
-        <v>-8.282141800108567</v>
+        <v>-8.938379623428183</v>
       </c>
       <c r="L117">
-        <v>-13.19019541437599</v>
+        <v>-13.5665033240044</v>
       </c>
       <c r="M117">
-        <v>-5.605029974388431</v>
+        <v>-6.44430189573667</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5506,25 +5506,25 @@
         <v>76</v>
       </c>
       <c r="G118">
-        <v>0.3361812575850839</v>
+        <v>0.5621552293409652</v>
       </c>
       <c r="H118">
-        <v>-6.672230005977813</v>
+        <v>-3.909579240886433</v>
       </c>
       <c r="I118">
-        <v>2.711472581364572</v>
+        <v>2.88787057875569</v>
       </c>
       <c r="J118" t="s">
         <v>76</v>
       </c>
       <c r="K118">
-        <v>-8.992056929256497</v>
+        <v>-8.787091720303286</v>
       </c>
       <c r="L118">
-        <v>-15.34889735607383</v>
+        <v>-12.84308977597146</v>
       </c>
       <c r="M118">
-        <v>-6.837596047234307</v>
+        <v>-6.677597742503638</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5547,25 +5547,25 @@
         <v>76</v>
       </c>
       <c r="G119">
-        <v>1.245609272941647</v>
+        <v>1.576819652213006</v>
       </c>
       <c r="H119">
-        <v>-4.468859703719785</v>
+        <v>-2.508856930340667</v>
       </c>
       <c r="I119">
-        <v>2.470005395382688</v>
+        <v>2.907095862058945</v>
       </c>
       <c r="J119" t="s">
         <v>76</v>
       </c>
       <c r="K119">
-        <v>-8.149885070414708</v>
+        <v>-7.849410693101855</v>
       </c>
       <c r="L119">
-        <v>-13.33405686845215</v>
+        <v>-11.55594045145418</v>
       </c>
       <c r="M119">
-        <v>-7.039111720605806</v>
+        <v>-6.64258282530713</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5588,25 +5588,25 @@
         <v>76</v>
       </c>
       <c r="G120">
-        <v>2.435116828743421</v>
+        <v>2.515283796721719</v>
       </c>
       <c r="H120">
-        <v>-2.383767799908521</v>
+        <v>-1.690833322486853</v>
       </c>
       <c r="I120">
-        <v>3.865196313863303</v>
+        <v>4.490930788960613</v>
       </c>
       <c r="J120" t="s">
         <v>76</v>
       </c>
       <c r="K120">
-        <v>-7.095762777202941</v>
+        <v>-7.023054791493899</v>
       </c>
       <c r="L120">
-        <v>-11.46628349851037</v>
+        <v>-10.83782178476169</v>
       </c>
       <c r="M120">
-        <v>-5.798742303695237</v>
+        <v>-5.231228096530205</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5629,25 +5629,25 @@
         <v>76</v>
       </c>
       <c r="G121">
-        <v>-0.2409276292341393</v>
+        <v>0.6587263863356049</v>
       </c>
       <c r="H121">
-        <v>-5.098759595057178</v>
+        <v>-3.638389028882118</v>
       </c>
       <c r="I121">
-        <v>1.702230351605796</v>
+        <v>2.691472518001352</v>
       </c>
       <c r="J121" t="s">
         <v>76</v>
       </c>
       <c r="K121">
-        <v>-9.505578324426622</v>
+        <v>-8.689475408548375</v>
       </c>
       <c r="L121">
-        <v>-13.91226218682684</v>
+        <v>-12.58751661053608</v>
       </c>
       <c r="M121">
-        <v>-7.742881924776501</v>
+        <v>-6.845510932669208</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5670,25 +5670,25 @@
         <v>77</v>
       </c>
       <c r="G122">
-        <v>13.03432831209413</v>
+        <v>12.71737991315201</v>
       </c>
       <c r="H122">
-        <v>9.317314243398004</v>
+        <v>9.930457395725387</v>
       </c>
       <c r="I122">
-        <v>16.54196746096036</v>
+        <v>15.64794685441067</v>
       </c>
       <c r="J122" t="s">
         <v>77</v>
       </c>
       <c r="K122">
-        <v>2.271239612111553</v>
+        <v>1.984470927439164</v>
       </c>
       <c r="L122">
-        <v>-1.091841693698592</v>
+        <v>-0.5370818151326784</v>
       </c>
       <c r="M122">
-        <v>5.444882603787904</v>
+        <v>4.635990322691153</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5711,25 +5711,25 @@
         <v>77</v>
       </c>
       <c r="G123">
-        <v>0.3939304058659767</v>
+        <v>0.8013380901135179</v>
       </c>
       <c r="H123">
-        <v>-16.51483911946638</v>
+        <v>-13.00397077444427</v>
       </c>
       <c r="I123">
-        <v>5.523396399662011</v>
+        <v>5.894533430063345</v>
       </c>
       <c r="J123" t="s">
         <v>77</v>
       </c>
       <c r="K123">
-        <v>-8.313295694410295</v>
+        <v>-7.941222724197672</v>
       </c>
       <c r="L123">
-        <v>-23.75555744642085</v>
+        <v>-20.54918882926898</v>
       </c>
       <c r="M123">
-        <v>-3.628711378232585</v>
+        <v>-3.289763286194614</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5752,25 +5752,25 @@
         <v>77</v>
       </c>
       <c r="G124">
-        <v>10.20299766424155</v>
+        <v>9.991661985916265</v>
       </c>
       <c r="H124">
-        <v>-3.765989413054734</v>
+        <v>-0.9861703574235179</v>
       </c>
       <c r="I124">
-        <v>16.0388844390815</v>
+        <v>15.47667930808293</v>
       </c>
       <c r="J124" t="s">
         <v>77</v>
       </c>
       <c r="K124">
-        <v>1.9032004791806</v>
+        <v>1.707781275953479</v>
       </c>
       <c r="L124">
-        <v>-11.01373028313656</v>
+        <v>-8.443269728289515</v>
       </c>
       <c r="M124">
-        <v>7.299564939267134</v>
+        <v>6.779701565412988</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5793,25 +5793,25 @@
         <v>77</v>
       </c>
       <c r="G125">
-        <v>10.56563473971486</v>
+        <v>11.10825126673046</v>
       </c>
       <c r="H125">
-        <v>-2.791955287918244</v>
+        <v>1.083742729384263</v>
       </c>
       <c r="I125">
-        <v>15.6283789844283</v>
+        <v>16.37931302270476</v>
       </c>
       <c r="J125" t="s">
         <v>77</v>
       </c>
       <c r="K125">
-        <v>1.935340208907776</v>
+        <v>2.435602342024645</v>
       </c>
       <c r="L125">
-        <v>-10.37961178357427</v>
+        <v>-6.806434666916217</v>
       </c>
       <c r="M125">
-        <v>6.602907651454037</v>
+        <v>7.295226895551532</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5834,25 +5834,25 @@
         <v>77</v>
       </c>
       <c r="G126">
-        <v>11.72333352765751</v>
+        <v>12.07187810438703</v>
       </c>
       <c r="H126">
-        <v>-4.460576777157367</v>
+        <v>0.433690702134083</v>
       </c>
       <c r="I126">
-        <v>16.84067991357094</v>
+        <v>16.95917498565948</v>
       </c>
       <c r="J126" t="s">
         <v>77</v>
       </c>
       <c r="K126">
-        <v>4.993448823780122</v>
+        <v>5.320998101305019</v>
       </c>
       <c r="L126">
-        <v>-10.215590368884</v>
+        <v>-5.616139154069777</v>
       </c>
       <c r="M126">
-        <v>9.802541328614399</v>
+        <v>9.913898606403793</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5875,25 +5875,25 @@
         <v>77</v>
       </c>
       <c r="G127">
-        <v>9.952104552398222</v>
+        <v>8.781674082877666</v>
       </c>
       <c r="H127">
-        <v>-2.71190172363606</v>
+        <v>-2.769536255617009</v>
       </c>
       <c r="I127">
-        <v>14.62223557807854</v>
+        <v>13.75108908134149</v>
       </c>
       <c r="J127" t="s">
         <v>77</v>
       </c>
       <c r="K127">
-        <v>3.307239437528353</v>
+        <v>2.207542971944876</v>
       </c>
       <c r="L127">
-        <v>-8.591428022476144</v>
+        <v>-8.645579458862606</v>
       </c>
       <c r="M127">
-        <v>7.695134931103675</v>
+        <v>6.876635457265112</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5916,25 +5916,25 @@
         <v>78</v>
       </c>
       <c r="G128">
-        <v>7.234422211672143</v>
+        <v>7.305829094583913</v>
       </c>
       <c r="H128">
-        <v>5.17221264917643</v>
+        <v>5.121566667815701</v>
       </c>
       <c r="I128">
-        <v>8.932407296520106</v>
+        <v>8.860289481793666</v>
       </c>
       <c r="J128" t="s">
         <v>78</v>
       </c>
       <c r="K128">
-        <v>1.363556352641893</v>
+        <v>1.431053854383491</v>
       </c>
       <c r="L128">
-        <v>-0.5857514431923505</v>
+        <v>-0.6336246603908302</v>
       </c>
       <c r="M128">
-        <v>2.968580217965577</v>
+        <v>2.900410706475864</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5957,25 +5957,25 @@
         <v>78</v>
       </c>
       <c r="G129">
-        <v>-6.044485910107356</v>
+        <v>-6.755351562714794</v>
       </c>
       <c r="H129">
-        <v>-9.16315723634388</v>
+        <v>-9.971577981553718</v>
       </c>
       <c r="I129">
-        <v>-2.181738127999285</v>
+        <v>-2.77554037792048</v>
       </c>
       <c r="J129" t="s">
         <v>78</v>
       </c>
       <c r="K129">
-        <v>-11.51580854535544</v>
+        <v>-12.18527827380233</v>
       </c>
       <c r="L129">
-        <v>-14.45286991304486</v>
+        <v>-15.21421379677492</v>
       </c>
       <c r="M129">
-        <v>-7.8780006146145</v>
+        <v>-8.437223907437474</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5998,25 +5998,25 @@
         <v>78</v>
       </c>
       <c r="G130">
-        <v>-0.6241688316593726</v>
+        <v>-0.8404430526783097</v>
       </c>
       <c r="H130">
-        <v>-5.291413967589918</v>
+        <v>-6.002891417590122</v>
       </c>
       <c r="I130">
-        <v>2.425492127791427</v>
+        <v>2.121289789542382</v>
       </c>
       <c r="J130" t="s">
         <v>78</v>
       </c>
       <c r="K130">
-        <v>-6.469548263389601</v>
+        <v>-6.673101032237572</v>
       </c>
       <c r="L130">
-        <v>-10.86226167063255</v>
+        <v>-11.53188935089018</v>
       </c>
       <c r="M130">
-        <v>-3.599271216873601</v>
+        <v>-3.885580088771923</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6039,25 +6039,25 @@
         <v>78</v>
       </c>
       <c r="G131">
-        <v>0.9956992640742736</v>
+        <v>0.654670384384013</v>
       </c>
       <c r="H131">
-        <v>-4.951007039487974</v>
+        <v>-5.316346947825359</v>
       </c>
       <c r="I131">
-        <v>4.000215143346208</v>
+        <v>3.816648453604866</v>
       </c>
       <c r="J131" t="s">
         <v>78</v>
       </c>
       <c r="K131">
-        <v>-4.692170331412216</v>
+        <v>-5.013993167576802</v>
       </c>
       <c r="L131">
-        <v>-10.30397039417624</v>
+        <v>-10.64873511196797</v>
       </c>
       <c r="M131">
-        <v>-1.856862593114528</v>
+        <v>-2.030091185284066</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6080,25 +6080,25 @@
         <v>78</v>
       </c>
       <c r="G132">
-        <v>1.699058238908254</v>
+        <v>0.9968566863390658</v>
       </c>
       <c r="H132">
-        <v>-1.635552134815567</v>
+        <v>-2.523802552383599</v>
       </c>
       <c r="I132">
-        <v>4.717564742577421</v>
+        <v>4.272365213456565</v>
       </c>
       <c r="J132" t="s">
         <v>78</v>
       </c>
       <c r="K132">
-        <v>-3.656100455697164</v>
+        <v>-4.321326240597278</v>
       </c>
       <c r="L132">
-        <v>-6.81512053345169</v>
+        <v>-7.656598424026884</v>
       </c>
       <c r="M132">
-        <v>-0.7965391932894583</v>
+        <v>-1.218295888518917</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6121,25 +6121,25 @@
         <v>78</v>
       </c>
       <c r="G133">
-        <v>4.295844021951685</v>
+        <v>4.08091915383053</v>
       </c>
       <c r="H133">
-        <v>2.121806552030673</v>
+        <v>1.778619266401487</v>
       </c>
       <c r="I133">
-        <v>7.363972592521601</v>
+        <v>8.294754585026892</v>
       </c>
       <c r="J133" t="s">
         <v>78</v>
       </c>
       <c r="K133">
-        <v>-1.747100181700378</v>
+        <v>-1.949572214349393</v>
       </c>
       <c r="L133">
-        <v>-3.795173024261789</v>
+        <v>-4.118475897066009</v>
       </c>
       <c r="M133">
-        <v>1.143259754505888</v>
+        <v>2.0201118546054</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6162,25 +6162,25 @@
         <v>79</v>
       </c>
       <c r="G134">
-        <v>-0.01685248102662393</v>
+        <v>0.2961027070437904</v>
       </c>
       <c r="H134">
-        <v>-1.797053522354271</v>
+        <v>-1.658765713945268</v>
       </c>
       <c r="I134">
-        <v>1.884567494189266</v>
+        <v>2.565374973559878</v>
       </c>
       <c r="J134" t="s">
         <v>79</v>
       </c>
       <c r="K134">
-        <v>-0.324651756603056</v>
+        <v>-0.01266000469730688</v>
       </c>
       <c r="L134">
-        <v>-2.09937242844348</v>
+        <v>-1.961510340651451</v>
       </c>
       <c r="M134">
-        <v>1.570914675236157</v>
+        <v>2.249626280910477</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6203,25 +6203,25 @@
         <v>79</v>
       </c>
       <c r="G135">
-        <v>-21.1228629267222</v>
+        <v>-20.96150982154614</v>
       </c>
       <c r="H135">
-        <v>-23.57155370021608</v>
+        <v>-23.66313827610557</v>
       </c>
       <c r="I135">
-        <v>-17.21064181751351</v>
+        <v>-17.12628820304436</v>
       </c>
       <c r="J135" t="s">
         <v>79</v>
       </c>
       <c r="K135">
-        <v>-21.53039036776765</v>
+        <v>-21.36987091123171</v>
       </c>
       <c r="L135">
-        <v>-23.96642970991068</v>
+        <v>-24.05754110397289</v>
       </c>
       <c r="M135">
-        <v>-17.63838218104319</v>
+        <v>-17.55446438884045</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6244,25 +6244,25 @@
         <v>79</v>
       </c>
       <c r="G136">
-        <v>-5.970444942294313</v>
+        <v>-5.464616077474874</v>
       </c>
       <c r="H136">
-        <v>-7.601691787798423</v>
+        <v>-7.409708210026793</v>
       </c>
       <c r="I136">
-        <v>-4.226495993477233</v>
+        <v>-4.267309173715791</v>
       </c>
       <c r="J136" t="s">
         <v>79</v>
       </c>
       <c r="K136">
-        <v>-6.707029133427578</v>
+        <v>-6.205162698771883</v>
       </c>
       <c r="L136">
-        <v>-8.325497543071847</v>
+        <v>-8.135017876153105</v>
       </c>
       <c r="M136">
-        <v>-4.976741476797331</v>
+        <v>-5.017234945394867</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6285,25 +6285,25 @@
         <v>79</v>
       </c>
       <c r="G137">
-        <v>-6.034264827687353</v>
+        <v>-6.09888869584353</v>
       </c>
       <c r="H137">
-        <v>-7.454812480463969</v>
+        <v>-7.371761098895812</v>
       </c>
       <c r="I137">
-        <v>-4.338484526392065</v>
+        <v>-4.72290109004653</v>
       </c>
       <c r="J137" t="s">
         <v>79</v>
       </c>
       <c r="K137">
-        <v>-6.811146200071583</v>
+        <v>-6.875235776879007</v>
       </c>
       <c r="L137">
-        <v>-8.219949177962171</v>
+        <v>-8.137584441064782</v>
       </c>
       <c r="M137">
-        <v>-5.129386117160328</v>
+        <v>-5.510624436458055</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6326,25 +6326,25 @@
         <v>79</v>
       </c>
       <c r="G138">
-        <v>-4.660017064776661</v>
+        <v>-4.548842776887764</v>
       </c>
       <c r="H138">
-        <v>-5.993031241210062</v>
+        <v>-5.942139193663103</v>
       </c>
       <c r="I138">
-        <v>-2.526437257457159</v>
+        <v>-2.792559457408299</v>
       </c>
       <c r="J138" t="s">
         <v>79</v>
       </c>
       <c r="K138">
-        <v>-5.445402943460332</v>
+        <v>-5.335144480318743</v>
       </c>
       <c r="L138">
-        <v>-6.76743609726268</v>
+        <v>-6.71696328511151</v>
       </c>
       <c r="M138">
-        <v>-3.329399009348732</v>
+        <v>-3.593328964122022</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6367,25 +6367,25 @@
         <v>79</v>
       </c>
       <c r="G139">
-        <v>-7.10417277779251</v>
+        <v>-6.968183427538512</v>
       </c>
       <c r="H139">
-        <v>-8.121834453781037</v>
+        <v>-8.382011670235089</v>
       </c>
       <c r="I139">
-        <v>-5.049772805234488</v>
+        <v>-5.269839574641747</v>
       </c>
       <c r="J139" t="s">
         <v>79</v>
       </c>
       <c r="K139">
-        <v>-7.895727679473286</v>
+        <v>-7.760897079186735</v>
       </c>
       <c r="L139">
-        <v>-8.904717974712339</v>
+        <v>-9.162678250350552</v>
       </c>
       <c r="M139">
-        <v>-5.858833018153852</v>
+        <v>-6.077024623355898</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6408,25 +6408,25 @@
         <v>80</v>
       </c>
       <c r="G140">
-        <v>0.577475345711229</v>
+        <v>1.16380098291039</v>
       </c>
       <c r="H140">
-        <v>-0.8221734733094406</v>
+        <v>-0.08849714444480515</v>
       </c>
       <c r="I140">
-        <v>2.331069003706196</v>
+        <v>3.443149580985647</v>
       </c>
       <c r="J140" t="s">
         <v>80</v>
       </c>
       <c r="K140">
-        <v>-0.8713221207508393</v>
+        <v>-0.2934423815499576</v>
       </c>
       <c r="L140">
-        <v>-2.250809291689126</v>
+        <v>-1.527701416673721</v>
       </c>
       <c r="M140">
-        <v>0.8570113878898722</v>
+        <v>1.953072677378231</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6449,25 +6449,25 @@
         <v>80</v>
       </c>
       <c r="G141">
-        <v>-8.919622693255928</v>
+        <v>-8.686106999331626</v>
       </c>
       <c r="H141">
-        <v>-10.27289527414752</v>
+        <v>-10.13745909143552</v>
       </c>
       <c r="I141">
-        <v>-5.367377824353862</v>
+        <v>-4.339555300445836</v>
       </c>
       <c r="J141" t="s">
         <v>80</v>
       </c>
       <c r="K141">
-        <v>-9.956882427902535</v>
+        <v>-9.726026104019059</v>
       </c>
       <c r="L141">
-        <v>-11.29474339984314</v>
+        <v>-11.16084961850338</v>
       </c>
       <c r="M141">
-        <v>-6.445091943128767</v>
+        <v>-5.428974672865261</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6490,25 +6490,25 @@
         <v>80</v>
       </c>
       <c r="G142">
-        <v>-4.329030284389001</v>
+        <v>-3.909965045993331</v>
       </c>
       <c r="H142">
-        <v>-5.671658289499476</v>
+        <v>-5.332510911860952</v>
       </c>
       <c r="I142">
-        <v>-0.9401237411588135</v>
+        <v>-0.218180053541805</v>
       </c>
       <c r="J142" t="s">
         <v>80</v>
       </c>
       <c r="K142">
-        <v>-6.134484559542397</v>
+        <v>-5.72332770891032</v>
       </c>
       <c r="L142">
-        <v>-7.451775166286644</v>
+        <v>-7.119028006861505</v>
       </c>
       <c r="M142">
-        <v>-2.80953175091696</v>
+        <v>-2.101212220357229</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6531,25 +6531,25 @@
         <v>80</v>
       </c>
       <c r="G143">
-        <v>-2.317202002584159</v>
+        <v>-1.97292684568578</v>
       </c>
       <c r="H143">
-        <v>-3.327090769926073</v>
+        <v>-2.960504160475313</v>
       </c>
       <c r="I143">
-        <v>-0.1401212331237503</v>
+        <v>0.4673393880118889</v>
       </c>
       <c r="J143" t="s">
         <v>80</v>
       </c>
       <c r="K143">
-        <v>-4.027447482566926</v>
+        <v>-3.689199948167354</v>
       </c>
       <c r="L143">
-        <v>-5.019654961749199</v>
+        <v>-4.659486607146657</v>
       </c>
       <c r="M143">
-        <v>-1.888483378700234</v>
+        <v>-1.291658271727414</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6572,25 +6572,25 @@
         <v>80</v>
       </c>
       <c r="G144">
-        <v>-3.421914745225994</v>
+        <v>-3.097825645067135</v>
       </c>
       <c r="H144">
-        <v>-4.844259820551889</v>
+        <v>-4.395376781968862</v>
       </c>
       <c r="I144">
-        <v>-0.2514350439375089</v>
+        <v>0.09722288230453316</v>
       </c>
       <c r="J144" t="s">
         <v>80</v>
       </c>
       <c r="K144">
-        <v>-4.834677705075363</v>
+        <v>-4.515329443122063</v>
       </c>
       <c r="L144">
-        <v>-6.236216440813525</v>
+        <v>-5.79389975036777</v>
       </c>
       <c r="M144">
-        <v>-1.710576395687269</v>
+        <v>-1.367018705203193</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6613,25 +6613,25 @@
         <v>80</v>
       </c>
       <c r="G145">
-        <v>-2.699174624892994</v>
+        <v>-2.695918048953834</v>
       </c>
       <c r="H145">
-        <v>-4.382014229191996</v>
+        <v>-4.277648715862474</v>
       </c>
       <c r="I145">
-        <v>0.1983533670425123</v>
+        <v>0.3974299028223896</v>
       </c>
       <c r="J145" t="s">
         <v>80</v>
       </c>
       <c r="K145">
-        <v>-3.804493851454893</v>
+        <v>-3.801274269610955</v>
       </c>
       <c r="L145">
-        <v>-5.468216711752182</v>
+        <v>-5.365036771186594</v>
       </c>
       <c r="M145">
-        <v>-0.9398812370266407</v>
+        <v>-0.7430661735591038</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6654,25 +6654,25 @@
         <v>81</v>
       </c>
       <c r="G146">
-        <v>4.633200019206942</v>
+        <v>4.350279196485201</v>
       </c>
       <c r="H146">
-        <v>1.035070894441044</v>
+        <v>1.470981928776132</v>
       </c>
       <c r="I146">
-        <v>6.051057031125201</v>
+        <v>5.777436331955546</v>
       </c>
       <c r="J146" t="s">
         <v>81</v>
       </c>
       <c r="K146">
-        <v>0.07736223282301946</v>
+        <v>-0.1932399245566208</v>
       </c>
       <c r="L146">
-        <v>-3.364100627087308</v>
+        <v>-2.947169610197553</v>
       </c>
       <c r="M146">
-        <v>1.433484283472741</v>
+        <v>1.171777312643485</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6695,25 +6695,25 @@
         <v>81</v>
       </c>
       <c r="G147">
-        <v>0.6544027064603213</v>
+        <v>1.042863941378102</v>
       </c>
       <c r="H147">
-        <v>-0.9969364145255629</v>
+        <v>-0.5506692644731523</v>
       </c>
       <c r="I147">
-        <v>3.800301102002822</v>
+        <v>3.916055311218795</v>
       </c>
       <c r="J147" t="s">
         <v>81</v>
       </c>
       <c r="K147">
-        <v>-3.576452954808573</v>
+        <v>-3.204320100674374</v>
       </c>
       <c r="L147">
-        <v>-5.158380532127815</v>
+        <v>-4.730871547118054</v>
       </c>
       <c r="M147">
-        <v>-0.5627876427544476</v>
+        <v>-0.4518989867404177</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6736,25 +6736,25 @@
         <v>81</v>
       </c>
       <c r="G148">
-        <v>1.621394615328396</v>
+        <v>1.567825513755724</v>
       </c>
       <c r="H148">
-        <v>-0.1652743529062521</v>
+        <v>-0.711632051473248</v>
       </c>
       <c r="I148">
-        <v>3.851138893374346</v>
+        <v>3.951086297688914</v>
       </c>
       <c r="J148" t="s">
         <v>81</v>
       </c>
       <c r="K148">
-        <v>-2.654062109224087</v>
+        <v>-2.705377429726219</v>
       </c>
       <c r="L148">
-        <v>-4.365561612566982</v>
+        <v>-4.888932727401373</v>
       </c>
       <c r="M148">
-        <v>-0.5181285410556291</v>
+        <v>-0.4223861646635241</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6777,25 +6777,25 @@
         <v>81</v>
       </c>
       <c r="G149">
-        <v>0.4260531901071532</v>
+        <v>0.6574419947917085</v>
       </c>
       <c r="H149">
-        <v>-1.715926493350897</v>
+        <v>-1.399023364131361</v>
       </c>
       <c r="I149">
-        <v>1.74131919971715</v>
+        <v>2.436570512877402</v>
       </c>
       <c r="J149" t="s">
         <v>81</v>
       </c>
       <c r="K149">
-        <v>-3.402644416773759</v>
+        <v>-3.180077205038556</v>
       </c>
       <c r="L149">
-        <v>-5.462962098913094</v>
+        <v>-5.158140757376273</v>
       </c>
       <c r="M149">
-        <v>-2.137522325633545</v>
+        <v>-1.468777152606449</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6818,25 +6818,25 @@
         <v>81</v>
       </c>
       <c r="G150">
-        <v>2.848675251135844</v>
+        <v>2.884896477570932</v>
       </c>
       <c r="H150">
-        <v>0.8731949444509777</v>
+        <v>0.314181318470853</v>
       </c>
       <c r="I150">
-        <v>4.157339822683642</v>
+        <v>4.502291342380962</v>
       </c>
       <c r="J150" t="s">
         <v>81</v>
       </c>
       <c r="K150">
-        <v>-2.02633458100866</v>
+        <v>-1.991830234587555</v>
       </c>
       <c r="L150">
-        <v>-3.908177454884787</v>
+        <v>-4.440693929430517</v>
       </c>
       <c r="M150">
-        <v>-0.7797004890727322</v>
+        <v>-0.4510996131346312</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6859,25 +6859,25 @@
         <v>81</v>
       </c>
       <c r="G151">
-        <v>3.059268416547956</v>
+        <v>3.487490346682295</v>
       </c>
       <c r="H151">
-        <v>1.161216074651896</v>
+        <v>1.603214896505045</v>
       </c>
       <c r="I151">
-        <v>5.848228668242781</v>
+        <v>6.232119120770292</v>
       </c>
       <c r="J151" t="s">
         <v>81</v>
       </c>
       <c r="K151">
-        <v>-1.440244080340214</v>
+        <v>-1.030718090470983</v>
       </c>
       <c r="L151">
-        <v>-3.255428472916178</v>
+        <v>-2.832727083046538</v>
       </c>
       <c r="M151">
-        <v>1.226951659548603</v>
+        <v>1.59408166039503</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6900,25 +6900,25 @@
         <v>82</v>
       </c>
       <c r="G152">
-        <v>7.277226933515964</v>
+        <v>8.858135275495769</v>
       </c>
       <c r="H152">
-        <v>5.282112634511296</v>
+        <v>6.229707642303281</v>
       </c>
       <c r="I152">
-        <v>10.0079502914128</v>
+        <v>11.6154507196919</v>
       </c>
       <c r="J152" t="s">
         <v>82</v>
       </c>
       <c r="K152">
-        <v>1.449934677605658</v>
+        <v>2.944968177348617</v>
       </c>
       <c r="L152">
-        <v>-0.4368051374887161</v>
+        <v>0.4593165687602596</v>
       </c>
       <c r="M152">
-        <v>4.032325313531904</v>
+        <v>5.552506419109937</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6941,25 +6941,25 @@
         <v>82</v>
       </c>
       <c r="G153">
-        <v>-6.551935157847091</v>
+        <v>-4.233716129770793</v>
       </c>
       <c r="H153">
-        <v>-9.360768893391958</v>
+        <v>-7.242652751134467</v>
       </c>
       <c r="I153">
-        <v>-2.305536399597107</v>
+        <v>-0.3289463481198569</v>
       </c>
       <c r="J153" t="s">
         <v>82</v>
       </c>
       <c r="K153">
-        <v>-11.00520767946882</v>
+        <v>-8.797463503004167</v>
       </c>
       <c r="L153">
-        <v>-13.68018629331123</v>
+        <v>-11.66300908895311</v>
       </c>
       <c r="M153">
-        <v>-6.961171280866473</v>
+        <v>-5.078775733872776</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6982,25 +6982,25 @@
         <v>82</v>
       </c>
       <c r="G154">
-        <v>-0.6161746285174509</v>
+        <v>0.1180376666368703</v>
       </c>
       <c r="H154">
-        <v>-3.853853825907647</v>
+        <v>-2.913958982538718</v>
       </c>
       <c r="I154">
-        <v>1.888338108789225</v>
+        <v>3.668629414725582</v>
       </c>
       <c r="J154" t="s">
         <v>82</v>
       </c>
       <c r="K154">
-        <v>-4.782765220305851</v>
+        <v>-4.07933421204536</v>
       </c>
       <c r="L154">
-        <v>-7.884707202584329</v>
+        <v>-6.984216729061432</v>
       </c>
       <c r="M154">
-        <v>-2.383252257049628</v>
+        <v>-0.6775982975650852</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7023,25 +7023,25 @@
         <v>82</v>
       </c>
       <c r="G155">
-        <v>-0.7894741377752</v>
+        <v>0.463430467605038</v>
       </c>
       <c r="H155">
-        <v>-2.918588138122768</v>
+        <v>-2.096934469278386</v>
       </c>
       <c r="I155">
-        <v>2.069940611629687</v>
+        <v>3.298322002097327</v>
       </c>
       <c r="J155" t="s">
         <v>82</v>
       </c>
       <c r="K155">
-        <v>-4.914231584181472</v>
+        <v>-3.713417495969296</v>
       </c>
       <c r="L155">
-        <v>-6.954825956688571</v>
+        <v>-6.167333200302605</v>
       </c>
       <c r="M155">
-        <v>-2.173699303924581</v>
+        <v>-0.996388858231434</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7064,25 +7064,25 @@
         <v>82</v>
       </c>
       <c r="G156">
-        <v>-2.259799575792754</v>
+        <v>-2.780199260994802</v>
       </c>
       <c r="H156">
-        <v>-4.131403673012165</v>
+        <v>-5.094396847393375</v>
       </c>
       <c r="I156">
-        <v>3.115203095879201</v>
+        <v>1.714262597732534</v>
       </c>
       <c r="J156" t="s">
         <v>82</v>
       </c>
       <c r="K156">
-        <v>-7.258678506410665</v>
+        <v>-7.752462581960118</v>
       </c>
       <c r="L156">
-        <v>-9.0345602473484</v>
+        <v>-9.948301565596207</v>
       </c>
       <c r="M156">
-        <v>-2.158577947593199</v>
+        <v>-3.487867969182223</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7105,25 +7105,25 @@
         <v>82</v>
       </c>
       <c r="G157">
-        <v>-0.1130511223616801</v>
+        <v>0.1881372894917969</v>
       </c>
       <c r="H157">
-        <v>-2.713073328329698</v>
+        <v>-2.625773734622128</v>
       </c>
       <c r="I157">
-        <v>3.167094837073611</v>
+        <v>4.140553539841081</v>
       </c>
       <c r="J157" t="s">
         <v>82</v>
       </c>
       <c r="K157">
-        <v>-5.127914372395592</v>
+        <v>-4.841847242300235</v>
       </c>
       <c r="L157">
-        <v>-7.597401448834784</v>
+        <v>-7.514484765298624</v>
       </c>
       <c r="M157">
-        <v>-2.012449420955342</v>
+        <v>-1.087863592259875</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7146,25 +7146,25 @@
         <v>83</v>
       </c>
       <c r="G158">
-        <v>8.150924889180514</v>
+        <v>8.145845853532238</v>
       </c>
       <c r="H158">
-        <v>6.017934247331215</v>
+        <v>6.272620940428242</v>
       </c>
       <c r="I158">
-        <v>9.726864258732109</v>
+        <v>9.601508530721281</v>
       </c>
       <c r="J158" t="s">
         <v>83</v>
       </c>
       <c r="K158">
-        <v>1.413984100852161</v>
+        <v>1.409221448650988</v>
       </c>
       <c r="L158">
-        <v>-0.5861382213695476</v>
+        <v>-0.3473164797070827</v>
       </c>
       <c r="M158">
-        <v>2.891755006014329</v>
+        <v>2.774207940924822</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7187,25 +7187,25 @@
         <v>83</v>
       </c>
       <c r="G159">
-        <v>-1.949614788666155</v>
+        <v>-0.3862516665155265</v>
       </c>
       <c r="H159">
-        <v>-4.462209182873328</v>
+        <v>-3.134785633715622</v>
       </c>
       <c r="I159">
-        <v>-0.1046311577263206</v>
+        <v>2.307391038584803</v>
       </c>
       <c r="J159" t="s">
         <v>83</v>
       </c>
       <c r="K159">
-        <v>-7.664255292128253</v>
+        <v>-6.192009182931779</v>
       </c>
       <c r="L159">
-        <v>-10.03040891853058</v>
+        <v>-8.78035118861893</v>
       </c>
       <c r="M159">
-        <v>-5.926802275809351</v>
+        <v>-3.655359228765009</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7228,25 +7228,25 @@
         <v>83</v>
       </c>
       <c r="G160">
-        <v>4.79295319819045</v>
+        <v>3.980406106879971</v>
       </c>
       <c r="H160">
-        <v>2.698429573543472</v>
+        <v>2.293672403977892</v>
       </c>
       <c r="I160">
-        <v>6.610664740233295</v>
+        <v>5.782260297150705</v>
       </c>
       <c r="J160" t="s">
         <v>83</v>
       </c>
       <c r="K160">
-        <v>-1.440200845967099</v>
+        <v>-2.204417099814748</v>
       </c>
       <c r="L160">
-        <v>-3.410140822543184</v>
+        <v>-3.790822768428337</v>
       </c>
       <c r="M160">
-        <v>0.2693920134390515</v>
+        <v>-0.5097383864277272</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7269,25 +7269,25 @@
         <v>83</v>
       </c>
       <c r="G161">
-        <v>3.343371919929039</v>
+        <v>2.731098614263203</v>
       </c>
       <c r="H161">
-        <v>1.722776375190433</v>
+        <v>1.281785204390836</v>
       </c>
       <c r="I161">
-        <v>5.455149537907886</v>
+        <v>4.661104786816704</v>
       </c>
       <c r="J161" t="s">
         <v>83</v>
       </c>
       <c r="K161">
-        <v>-2.140042204841719</v>
+        <v>-2.719828201160723</v>
       </c>
       <c r="L161">
-        <v>-3.674648717720153</v>
+        <v>-4.092240833796279</v>
       </c>
       <c r="M161">
-        <v>-0.1403158099231305</v>
+        <v>-0.8922284327225638</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7310,25 +7310,25 @@
         <v>83</v>
       </c>
       <c r="G162">
-        <v>3.468637477786424</v>
+        <v>3.146065345555674</v>
       </c>
       <c r="H162">
-        <v>0.3313327311364188</v>
+        <v>0.2575707161274082</v>
       </c>
       <c r="I162">
-        <v>5.2532739822945</v>
+        <v>5.439852817984564</v>
       </c>
       <c r="J162" t="s">
         <v>83</v>
       </c>
       <c r="K162">
-        <v>-1.492060295274911</v>
+        <v>-1.799167037248128</v>
       </c>
       <c r="L162">
-        <v>-4.478950181446429</v>
+        <v>-4.549175752248669</v>
       </c>
       <c r="M162">
-        <v>0.2070136411985724</v>
+        <v>0.3846471458466061</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7351,25 +7351,25 @@
         <v>83</v>
       </c>
       <c r="G163">
-        <v>2.989318893279156</v>
+        <v>2.840702761484343</v>
       </c>
       <c r="H163">
-        <v>0.6438471918377129</v>
+        <v>0.9171447947898637</v>
       </c>
       <c r="I163">
-        <v>4.653511441139671</v>
+        <v>4.950928815240078</v>
       </c>
       <c r="J163" t="s">
         <v>83</v>
       </c>
       <c r="K163">
-        <v>-1.673025377618864</v>
+        <v>-1.814913631434856</v>
       </c>
       <c r="L163">
-        <v>-3.912317169655322</v>
+        <v>-3.651391796435999</v>
       </c>
       <c r="M163">
-        <v>-0.08417111410244926</v>
+        <v>0.1997821240554698</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7392,25 +7392,25 @@
         <v>84</v>
       </c>
       <c r="G164">
-        <v>2.755045108387155</v>
+        <v>5.824239142196623</v>
       </c>
       <c r="H164">
-        <v>0.9733892921570096</v>
+        <v>3.530893991348494</v>
       </c>
       <c r="I164">
-        <v>4.794673544681622</v>
+        <v>8.772202300908564</v>
       </c>
       <c r="J164" t="s">
         <v>84</v>
       </c>
       <c r="K164">
-        <v>-2.250275167198212</v>
+        <v>0.669414780355182</v>
       </c>
       <c r="L164">
-        <v>-3.94514441278665</v>
+        <v>-1.512218804697352</v>
       </c>
       <c r="M164">
-        <v>-0.3099994542281936</v>
+        <v>3.473779152706635</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7433,25 +7433,25 @@
         <v>84</v>
       </c>
       <c r="G165">
-        <v>-7.38600607150701</v>
+        <v>-8.475680439209036</v>
       </c>
       <c r="H165">
-        <v>-13.36927198008661</v>
+        <v>-14.24292967981907</v>
       </c>
       <c r="I165">
-        <v>-3.451688753015723</v>
+        <v>-4.801890478385341</v>
       </c>
       <c r="J165" t="s">
         <v>84</v>
       </c>
       <c r="K165">
-        <v>-12.8795229029501</v>
+        <v>-13.9045618497417</v>
       </c>
       <c r="L165">
-        <v>-18.50788378496148</v>
+        <v>-19.32971936716269</v>
       </c>
       <c r="M165">
-        <v>-9.178574619661617</v>
+        <v>-10.44868741257585</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7474,25 +7474,25 @@
         <v>84</v>
       </c>
       <c r="G166">
-        <v>2.236389278950548</v>
+        <v>2.994166245230611</v>
       </c>
       <c r="H166">
-        <v>-1.964103311698923</v>
+        <v>0.2368607555465119</v>
       </c>
       <c r="I166">
-        <v>3.951398419545749</v>
+        <v>4.880923581796966</v>
       </c>
       <c r="J166" t="s">
         <v>84</v>
       </c>
       <c r="K166">
-        <v>-3.976409315993956</v>
+        <v>-3.2646816644891</v>
       </c>
       <c r="L166">
-        <v>-7.921642359144587</v>
+        <v>-5.854428579452787</v>
       </c>
       <c r="M166">
-        <v>-2.36561948961902</v>
+        <v>-1.492580600628512</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7515,25 +7515,25 @@
         <v>84</v>
       </c>
       <c r="G167">
-        <v>3.077702646697141</v>
+        <v>3.110333224161125</v>
       </c>
       <c r="H167">
-        <v>-0.6994748723515218</v>
+        <v>0.06815097810237526</v>
       </c>
       <c r="I167">
-        <v>4.461833353728411</v>
+        <v>4.745329529433797</v>
       </c>
       <c r="J167" t="s">
         <v>84</v>
       </c>
       <c r="K167">
-        <v>-3.739336318743336</v>
+        <v>-3.708863762969061</v>
       </c>
       <c r="L167">
-        <v>-7.266710382092212</v>
+        <v>-6.54985143077419</v>
       </c>
       <c r="M167">
-        <v>-2.44674503023633</v>
+        <v>-2.18199786063713</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7556,25 +7556,25 @@
         <v>84</v>
       </c>
       <c r="G168">
-        <v>3.782995873175652</v>
+        <v>2.749951144378312</v>
       </c>
       <c r="H168">
-        <v>-1.023055143094</v>
+        <v>-2.69125688510292</v>
       </c>
       <c r="I168">
-        <v>6.300197593736028</v>
+        <v>5.456842948044702</v>
       </c>
       <c r="J168" t="s">
         <v>84</v>
       </c>
       <c r="K168">
-        <v>-2.603536772037729</v>
+        <v>-3.573010644849262</v>
       </c>
       <c r="L168">
-        <v>-7.113836047362499</v>
+        <v>-8.679381041081346</v>
       </c>
       <c r="M168">
-        <v>-0.2412370258103258</v>
+        <v>-1.032693844397292</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7597,25 +7597,25 @@
         <v>84</v>
       </c>
       <c r="G169">
-        <v>2.869069299046385</v>
+        <v>2.365373044164267</v>
       </c>
       <c r="H169">
-        <v>-0.5653038737472347</v>
+        <v>-1.135838658846562</v>
       </c>
       <c r="I169">
-        <v>5.171820855774964</v>
+        <v>4.517666465842559</v>
       </c>
       <c r="J169" t="s">
         <v>84</v>
       </c>
       <c r="K169">
-        <v>-1.917580301326782</v>
+        <v>-2.397838826154852</v>
       </c>
       <c r="L169">
-        <v>-5.19214702221894</v>
+        <v>-5.736133981818314</v>
       </c>
       <c r="M169">
-        <v>0.2780208272519236</v>
+        <v>-0.3456947935685739</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7638,25 +7638,25 @@
         <v>85</v>
       </c>
       <c r="G170">
-        <v>-0.4314745908078786</v>
+        <v>0.03578394660422008</v>
       </c>
       <c r="H170">
-        <v>-2.184789445101053</v>
+        <v>-1.634588415962772</v>
       </c>
       <c r="I170">
-        <v>1.162004787023836</v>
+        <v>1.527420215034363</v>
       </c>
       <c r="J170" t="s">
         <v>85</v>
       </c>
       <c r="K170">
-        <v>-1.425646165216909</v>
+        <v>-0.9630531097318151</v>
       </c>
       <c r="L170">
-        <v>-3.161454525545604</v>
+        <v>-2.61674714232738</v>
       </c>
       <c r="M170">
-        <v>0.1519226435334975</v>
+        <v>0.5136894724522278</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7679,25 +7679,25 @@
         <v>85</v>
       </c>
       <c r="G171">
-        <v>-13.30852105995834</v>
+        <v>-13.05903129830068</v>
       </c>
       <c r="H171">
-        <v>-15.5937703004725</v>
+        <v>-15.62030818483218</v>
       </c>
       <c r="I171">
-        <v>-9.658842850203122</v>
+        <v>-9.38206590120239</v>
       </c>
       <c r="J171" t="s">
         <v>85</v>
       </c>
       <c r="K171">
-        <v>-14.63018199787614</v>
+        <v>-14.38449584963499</v>
       </c>
       <c r="L171">
-        <v>-16.88059131304211</v>
+        <v>-16.90672461225039</v>
       </c>
       <c r="M171">
-        <v>-11.036145209686</v>
+        <v>-10.76358788280364</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7720,25 +7720,25 @@
         <v>85</v>
       </c>
       <c r="G172">
-        <v>-11.49966096247623</v>
+        <v>-10.95919157051995</v>
       </c>
       <c r="H172">
-        <v>-13.50968420242611</v>
+        <v>-12.82497586300817</v>
       </c>
       <c r="I172">
-        <v>-7.280364059861636</v>
+        <v>-6.766865365621873</v>
       </c>
       <c r="J172" t="s">
         <v>85</v>
       </c>
       <c r="K172">
-        <v>-12.71099569857365</v>
+        <v>-12.1779238980322</v>
       </c>
       <c r="L172">
-        <v>-14.69350705554778</v>
+        <v>-14.01817055588382</v>
       </c>
       <c r="M172">
-        <v>-8.549449771329643</v>
+        <v>-8.042979511240967</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7761,25 +7761,25 @@
         <v>85</v>
       </c>
       <c r="G173">
-        <v>-4.26076052425117</v>
+        <v>-4.180794932124861</v>
       </c>
       <c r="H173">
-        <v>-5.382573054447267</v>
+        <v>-5.435267194195109</v>
       </c>
       <c r="I173">
-        <v>-1.990175406210007</v>
+        <v>-1.590956338442857</v>
       </c>
       <c r="J173" t="s">
         <v>85</v>
       </c>
       <c r="K173">
-        <v>-5.845037202604086</v>
+        <v>-5.766394867518154</v>
       </c>
       <c r="L173">
-        <v>-6.948286169533901</v>
+        <v>-7.000108335604649</v>
       </c>
       <c r="M173">
-        <v>-3.61202534155165</v>
+        <v>-3.219412483130646</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7802,25 +7802,25 @@
         <v>85</v>
       </c>
       <c r="G174">
-        <v>-5.827911839417442</v>
+        <v>-5.443125137591372</v>
       </c>
       <c r="H174">
-        <v>-6.946698131133328</v>
+        <v>-6.695558904828848</v>
       </c>
       <c r="I174">
-        <v>-2.267901514304707</v>
+        <v>-2.62527343486356</v>
       </c>
       <c r="J174" t="s">
         <v>85</v>
       </c>
       <c r="K174">
-        <v>-7.977002197759486</v>
+        <v>-7.600996668859117</v>
       </c>
       <c r="L174">
-        <v>-9.070256796597631</v>
+        <v>-8.824848789600203</v>
       </c>
       <c r="M174">
-        <v>-4.498234457522344</v>
+        <v>-4.847450834715672</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7843,25 +7843,25 @@
         <v>85</v>
       </c>
       <c r="G175">
-        <v>-3.753238920346786</v>
+        <v>-3.700203059554149</v>
       </c>
       <c r="H175">
-        <v>-4.694123625359534</v>
+        <v>-5.051845148995066</v>
       </c>
       <c r="I175">
-        <v>-1.263086895788027</v>
+        <v>-1.423616633469553</v>
       </c>
       <c r="J175" t="s">
         <v>85</v>
       </c>
       <c r="K175">
-        <v>-6.325958025075118</v>
+        <v>-6.274339836635989</v>
       </c>
       <c r="L175">
-        <v>-7.241692459795345</v>
+        <v>-7.589851926612489</v>
       </c>
       <c r="M175">
-        <v>-3.902368881338469</v>
+        <v>-4.058607587110174</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7884,25 +7884,25 @@
         <v>86</v>
       </c>
       <c r="G176">
-        <v>3.551149731167461</v>
+        <v>3.473325902896806</v>
       </c>
       <c r="H176">
-        <v>2.69550853117404</v>
+        <v>2.561292319726772</v>
       </c>
       <c r="I176">
-        <v>4.563803944140626</v>
+        <v>4.404029716649265</v>
       </c>
       <c r="J176" t="s">
         <v>86</v>
       </c>
       <c r="K176">
-        <v>0.04382909382207867</v>
+        <v>-0.03135880892114473</v>
       </c>
       <c r="L176">
-        <v>-0.7828311818002254</v>
+        <v>-0.9125014341780147</v>
       </c>
       <c r="M176">
-        <v>1.022184286177175</v>
+        <v>0.867821678420122</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7925,25 +7925,25 @@
         <v>86</v>
       </c>
       <c r="G177">
-        <v>-6.902701680703633</v>
+        <v>-6.654978933316728</v>
       </c>
       <c r="H177">
-        <v>-8.477768472693867</v>
+        <v>-7.98521701954536</v>
       </c>
       <c r="I177">
-        <v>-5.152285014581048</v>
+        <v>-4.856353641833097</v>
       </c>
       <c r="J177" t="s">
         <v>86</v>
       </c>
       <c r="K177">
-        <v>-9.902694872837314</v>
+        <v>-9.662954812049406</v>
       </c>
       <c r="L177">
-        <v>-11.4270062751607</v>
+        <v>-10.95032693680925</v>
       </c>
       <c r="M177">
-        <v>-8.208684119416453</v>
+        <v>-7.922288921397625</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7966,25 +7966,25 @@
         <v>86</v>
       </c>
       <c r="G178">
-        <v>-1.92726398752126</v>
+        <v>-1.074109328299234</v>
       </c>
       <c r="H178">
-        <v>-4.120006736586159</v>
+        <v>-2.96092089099417</v>
       </c>
       <c r="I178">
-        <v>-0.6625280766453179</v>
+        <v>0.3121366121662781</v>
       </c>
       <c r="J178" t="s">
         <v>86</v>
       </c>
       <c r="K178">
-        <v>-5.317595385702423</v>
+        <v>-4.493933908237835</v>
       </c>
       <c r="L178">
-        <v>-7.434535981258083</v>
+        <v>-6.315519224133237</v>
       </c>
       <c r="M178">
-        <v>-4.096580839635811</v>
+        <v>-3.155609880922217</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8007,25 +8007,25 @@
         <v>86</v>
       </c>
       <c r="G179">
-        <v>-1.915690164721658</v>
+        <v>-1.820895130161133</v>
       </c>
       <c r="H179">
-        <v>-3.844805528528702</v>
+        <v>-3.650094777280176</v>
       </c>
       <c r="I179">
-        <v>-0.8081332837125361</v>
+        <v>-0.8094224364470873</v>
       </c>
       <c r="J179" t="s">
         <v>86</v>
       </c>
       <c r="K179">
-        <v>-5.229546483739256</v>
+        <v>-5.137954174719828</v>
       </c>
       <c r="L179">
-        <v>-7.093485152627387</v>
+        <v>-6.905352858774227</v>
       </c>
       <c r="M179">
-        <v>-4.159409291719807</v>
+        <v>-4.160654889405214</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8048,25 +8048,25 @@
         <v>86</v>
       </c>
       <c r="G180">
-        <v>-2.285498746419902</v>
+        <v>-2.142715215298147</v>
       </c>
       <c r="H180">
-        <v>-3.874652600570617</v>
+        <v>-3.403619345960636</v>
       </c>
       <c r="I180">
-        <v>-0.4364544116357251</v>
+        <v>-0.4837003007877417</v>
       </c>
       <c r="J180" t="s">
         <v>86</v>
       </c>
       <c r="K180">
-        <v>-5.485582167685688</v>
+        <v>-5.347474700043886</v>
       </c>
       <c r="L180">
-        <v>-7.022692314533319</v>
+        <v>-6.567085078473345</v>
       </c>
       <c r="M180">
-        <v>-3.697092776589683</v>
+        <v>-3.742791395022826</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8089,25 +8089,25 @@
         <v>86</v>
       </c>
       <c r="G181">
-        <v>-1.214090878931876</v>
+        <v>-0.9794466966216057</v>
       </c>
       <c r="H181">
-        <v>-2.459606722047743</v>
+        <v>-2.467373182806189</v>
       </c>
       <c r="I181">
-        <v>0.1898001786983187</v>
+        <v>0.4599511846553108</v>
       </c>
       <c r="J181" t="s">
         <v>86</v>
       </c>
       <c r="K181">
-        <v>-4.428477241660844</v>
+        <v>-4.201468126602803</v>
       </c>
       <c r="L181">
-        <v>-5.633465349836619</v>
+        <v>-5.640979098383669</v>
       </c>
       <c r="M181">
-        <v>-3.070267276714356</v>
+        <v>-2.808906691548663</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8130,25 +8130,25 @@
         <v>87</v>
       </c>
       <c r="G182">
-        <v>6.727309658720409</v>
+        <v>6.554764471205369</v>
       </c>
       <c r="H182">
-        <v>5.034572071234695</v>
+        <v>5.067627552552507</v>
       </c>
       <c r="I182">
-        <v>8.732865545004458</v>
+        <v>8.184564349547802</v>
       </c>
       <c r="J182" t="s">
         <v>87</v>
       </c>
       <c r="K182">
-        <v>1.306435375023152</v>
+        <v>1.142654071585825</v>
       </c>
       <c r="L182">
-        <v>-0.3003249898904659</v>
+        <v>-0.2689484566243294</v>
       </c>
       <c r="M182">
-        <v>3.210125428061317</v>
+        <v>2.689673448139818</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8171,25 +8171,25 @@
         <v>87</v>
       </c>
       <c r="G183">
-        <v>-7.752174687783408</v>
+        <v>-7.500886192953947</v>
       </c>
       <c r="H183">
-        <v>-10.35602427486989</v>
+        <v>-10.46557948033267</v>
       </c>
       <c r="I183">
-        <v>-3.556701074997801</v>
+        <v>-3.458640106846963</v>
       </c>
       <c r="J183" t="s">
         <v>87</v>
       </c>
       <c r="K183">
-        <v>-12.15252659028511</v>
+        <v>-11.91322491251672</v>
       </c>
       <c r="L183">
-        <v>-14.63216886467251</v>
+        <v>-14.73649813169008</v>
       </c>
       <c r="M183">
-        <v>-8.157183010174339</v>
+        <v>-8.063799689071583</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8212,25 +8212,25 @@
         <v>87</v>
       </c>
       <c r="G184">
-        <v>2.078829881891998</v>
+        <v>2.121161712041247</v>
       </c>
       <c r="H184">
-        <v>-0.5180814595431225</v>
+        <v>-0.2709191104131131</v>
       </c>
       <c r="I184">
-        <v>4.595464453294155</v>
+        <v>5.232370359137069</v>
       </c>
       <c r="J184" t="s">
         <v>87</v>
       </c>
       <c r="K184">
-        <v>-3.111769784462715</v>
+        <v>-3.071590482743747</v>
       </c>
       <c r="L184">
-        <v>-5.576630952928562</v>
+        <v>-5.342036545735329</v>
       </c>
       <c r="M184">
-        <v>-0.7231033978621682</v>
+        <v>-0.1185834782829409</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8253,25 +8253,25 @@
         <v>87</v>
       </c>
       <c r="G185">
-        <v>2.214305001958977</v>
+        <v>1.672132922853627</v>
       </c>
       <c r="H185">
-        <v>0.8725141372827377</v>
+        <v>0.5090283963454477</v>
       </c>
       <c r="I185">
-        <v>4.231716875168184</v>
+        <v>3.538491593347296</v>
       </c>
       <c r="J185" t="s">
         <v>87</v>
       </c>
       <c r="K185">
-        <v>-2.898855376341625</v>
+        <v>-3.413905881876145</v>
       </c>
       <c r="L185">
-        <v>-4.173524600019607</v>
+        <v>-4.518827358754907</v>
       </c>
       <c r="M185">
-        <v>-0.9823623564828243</v>
+        <v>-1.640909791165046</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8294,25 +8294,25 @@
         <v>87</v>
       </c>
       <c r="G186">
-        <v>2.400029347019953</v>
+        <v>2.590426678699779</v>
       </c>
       <c r="H186">
-        <v>1.179187385015378</v>
+        <v>1.175906116832388</v>
       </c>
       <c r="I186">
-        <v>5.053244539115016</v>
+        <v>4.572273956486486</v>
       </c>
       <c r="J186" t="s">
         <v>87</v>
       </c>
       <c r="K186">
-        <v>-2.384729121431262</v>
+        <v>-2.203228322798689</v>
       </c>
       <c r="L186">
-        <v>-3.548525846695272</v>
+        <v>-3.551653793870191</v>
       </c>
       <c r="M186">
-        <v>0.144511556789606</v>
+        <v>-0.3139851253626813</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8335,25 +8335,25 @@
         <v>87</v>
       </c>
       <c r="G187">
-        <v>2.96340285912749</v>
+        <v>3.196750407385125</v>
       </c>
       <c r="H187">
-        <v>1.232741310970642</v>
+        <v>1.696872830017665</v>
       </c>
       <c r="I187">
-        <v>5.319933300060404</v>
+        <v>5.278845733708701</v>
       </c>
       <c r="J187" t="s">
         <v>87</v>
       </c>
       <c r="K187">
-        <v>-1.722664449728251</v>
+        <v>-1.499937008101981</v>
       </c>
       <c r="L187">
-        <v>-3.374560181310371</v>
+        <v>-2.931552202065069</v>
       </c>
       <c r="M187">
-        <v>0.5266156483164419</v>
+        <v>0.4873980580546444</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8376,25 +8376,25 @@
         <v>88</v>
       </c>
       <c r="G188">
-        <v>2.346125445998047</v>
+        <v>2.705241757530238</v>
       </c>
       <c r="H188">
-        <v>1.247931075909109</v>
+        <v>1.473381249992751</v>
       </c>
       <c r="I188">
-        <v>3.393823969815474</v>
+        <v>3.9127573707891</v>
       </c>
       <c r="J188" t="s">
         <v>88</v>
       </c>
       <c r="K188">
-        <v>-0.7229001000449875</v>
+        <v>-0.3745525120896653</v>
       </c>
       <c r="L188">
-        <v>-1.788163212974581</v>
+        <v>-1.569473552204048</v>
       </c>
       <c r="M188">
-        <v>0.2933813718797973</v>
+        <v>0.796753657497673</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8417,25 +8417,25 @@
         <v>88</v>
       </c>
       <c r="G189">
-        <v>-4.298493560234409</v>
+        <v>-4.88110767941348</v>
       </c>
       <c r="H189">
-        <v>-6.104675984119773</v>
+        <v>-6.759074921420582</v>
       </c>
       <c r="I189">
-        <v>-2.617231059827341</v>
+        <v>-3.055633481571412</v>
       </c>
       <c r="J189" t="s">
         <v>88</v>
       </c>
       <c r="K189">
-        <v>-7.485562923746015</v>
+        <v>-8.04877471918889</v>
       </c>
       <c r="L189">
-        <v>-9.231595524684732</v>
+        <v>-9.864201546887619</v>
       </c>
       <c r="M189">
-        <v>-5.860290139764579</v>
+        <v>-6.284092802537145</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8458,25 +8458,25 @@
         <v>88</v>
       </c>
       <c r="G190">
-        <v>-0.570869925577833</v>
+        <v>-0.1150513137045674</v>
       </c>
       <c r="H190">
-        <v>-2.03740613277619</v>
+        <v>-1.409908866399383</v>
       </c>
       <c r="I190">
-        <v>0.7777780067780797</v>
+        <v>1.294969208694029</v>
       </c>
       <c r="J190" t="s">
         <v>88</v>
       </c>
       <c r="K190">
-        <v>-3.983865275356002</v>
+        <v>-3.54369305203609</v>
       </c>
       <c r="L190">
-        <v>-5.400061292997204</v>
+        <v>-4.794103441181696</v>
       </c>
       <c r="M190">
-        <v>-2.681510910269302</v>
+        <v>-2.182072766896292</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8499,25 +8499,25 @@
         <v>88</v>
       </c>
       <c r="G191">
-        <v>0.6606027117607732</v>
+        <v>1.239428446761044</v>
       </c>
       <c r="H191">
-        <v>-0.495239171730663</v>
+        <v>-0.07188808177990622</v>
       </c>
       <c r="I191">
-        <v>1.434044129695356</v>
+        <v>2.428886382536652</v>
       </c>
       <c r="J191" t="s">
         <v>88</v>
       </c>
       <c r="K191">
-        <v>-3.029281861434385</v>
+        <v>-2.47167396233624</v>
       </c>
       <c r="L191">
-        <v>-4.142754406574456</v>
+        <v>-3.734921966559934</v>
       </c>
       <c r="M191">
-        <v>-2.284192246284844</v>
+        <v>-1.325817618141112</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8540,25 +8540,25 @@
         <v>88</v>
       </c>
       <c r="G192">
-        <v>0.06717431165598702</v>
+        <v>0.01080279319500251</v>
       </c>
       <c r="H192">
-        <v>-1.409051650612724</v>
+        <v>-1.919546402234165</v>
       </c>
       <c r="I192">
-        <v>1.200419938642233</v>
+        <v>1.101869851197731</v>
       </c>
       <c r="J192" t="s">
         <v>88</v>
       </c>
       <c r="K192">
-        <v>-4.147793858918602</v>
+        <v>-4.201790930837301</v>
       </c>
       <c r="L192">
-        <v>-5.561839136199054</v>
+        <v>-6.050831140849466</v>
       </c>
       <c r="M192">
-        <v>-3.062282109500569</v>
+        <v>-3.156681130577477</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8581,25 +8581,25 @@
         <v>88</v>
       </c>
       <c r="G193">
-        <v>-0.4824678995436045</v>
+        <v>0.1844553265313791</v>
       </c>
       <c r="H193">
-        <v>-1.925524200630358</v>
+        <v>-1.448679631358015</v>
       </c>
       <c r="I193">
-        <v>0.5930635429812927</v>
+        <v>1.47610920860194</v>
       </c>
       <c r="J193" t="s">
         <v>88</v>
       </c>
       <c r="K193">
-        <v>-4.954214771631305</v>
+        <v>-4.317259248604999</v>
       </c>
       <c r="L193">
-        <v>-6.332428402643431</v>
+        <v>-5.877010492233204</v>
       </c>
       <c r="M193">
-        <v>-3.927011540853931</v>
+        <v>-3.083644880628666</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8622,25 +8622,25 @@
         <v>89</v>
       </c>
       <c r="G194">
-        <v>7.678635940784631</v>
+        <v>7.789298394610277</v>
       </c>
       <c r="H194">
-        <v>5.971059129418677</v>
+        <v>6.286085047126109</v>
       </c>
       <c r="I194">
-        <v>8.688227155464677</v>
+        <v>8.777409445156083</v>
       </c>
       <c r="J194" t="s">
         <v>89</v>
       </c>
       <c r="K194">
-        <v>-1.06475489451171</v>
+        <v>-0.9630781143634692</v>
       </c>
       <c r="L194">
-        <v>-2.6336782830086</v>
+        <v>-2.344232135119939</v>
       </c>
       <c r="M194">
-        <v>-0.1371414138241822</v>
+        <v>-0.05520063130405317</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8663,25 +8663,25 @@
         <v>89</v>
       </c>
       <c r="G195">
-        <v>-5.18553992628796</v>
+        <v>-5.140627831133956</v>
       </c>
       <c r="H195">
-        <v>-7.878030261964176</v>
+        <v>-8.003211860244647</v>
       </c>
       <c r="I195">
-        <v>-3.250416356275146</v>
+        <v>-3.248075430635886</v>
       </c>
       <c r="J195" t="s">
         <v>89</v>
       </c>
       <c r="K195">
-        <v>-12.56669703913219</v>
+        <v>-12.52528128019463</v>
       </c>
       <c r="L195">
-        <v>-15.04958122214993</v>
+        <v>-15.16501762920296</v>
       </c>
       <c r="M195">
-        <v>-10.78221980610139</v>
+        <v>-10.78006111785419</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8704,25 +8704,25 @@
         <v>89</v>
       </c>
       <c r="G196">
-        <v>4.424205594280635</v>
+        <v>3.879906928785865</v>
       </c>
       <c r="H196">
-        <v>2.798918255653046</v>
+        <v>2.079068869599737</v>
       </c>
       <c r="I196">
-        <v>7.354030443980401</v>
+        <v>6.248344409736091</v>
       </c>
       <c r="J196" t="s">
         <v>89</v>
       </c>
       <c r="K196">
-        <v>-3.18893412378165</v>
+        <v>-3.693550210269148</v>
       </c>
       <c r="L196">
-        <v>-4.695728441365398</v>
+        <v>-5.363096566768477</v>
       </c>
       <c r="M196">
-        <v>-0.4727107643041517</v>
+        <v>-1.497785773402449</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8745,25 +8745,25 @@
         <v>89</v>
       </c>
       <c r="G197">
-        <v>2.184646762173597</v>
+        <v>1.914341190533626</v>
       </c>
       <c r="H197">
-        <v>1.142793169428713</v>
+        <v>0.8724941382634555</v>
       </c>
       <c r="I197">
-        <v>4.674958949109435</v>
+        <v>4.838065369683077</v>
       </c>
       <c r="J197" t="s">
         <v>89</v>
       </c>
       <c r="K197">
-        <v>-5.628180049966335</v>
+        <v>-5.877818616488661</v>
       </c>
       <c r="L197">
-        <v>-6.590375671170101</v>
+        <v>-6.840008197288883</v>
       </c>
       <c r="M197">
-        <v>-3.328271983817599</v>
+        <v>-3.177636342918477</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8786,25 +8786,25 @@
         <v>89</v>
       </c>
       <c r="G198">
-        <v>2.032294228977015</v>
+        <v>1.676832851156612</v>
       </c>
       <c r="H198">
-        <v>0.9174170749062805</v>
+        <v>0.6394282690181925</v>
       </c>
       <c r="I198">
-        <v>4.865442131071179</v>
+        <v>4.359362469751493</v>
       </c>
       <c r="J198" t="s">
         <v>89</v>
       </c>
       <c r="K198">
-        <v>-5.109327999435131</v>
+        <v>-5.439909304761159</v>
       </c>
       <c r="L198">
-        <v>-6.146170727977873</v>
+        <v>-6.404702056697764</v>
       </c>
       <c r="M198">
-        <v>-2.47448272482641</v>
+        <v>-2.945139976153877</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8827,25 +8827,25 @@
         <v>89</v>
       </c>
       <c r="G199">
-        <v>2.023783605504958</v>
+        <v>1.483332466987723</v>
       </c>
       <c r="H199">
-        <v>0.7581385757490411</v>
+        <v>-0.09246727572460801</v>
       </c>
       <c r="I199">
-        <v>4.572790515814128</v>
+        <v>3.722712049460553</v>
       </c>
       <c r="J199" t="s">
         <v>89</v>
       </c>
       <c r="K199">
-        <v>-4.978462926393046</v>
+        <v>-5.481821026634249</v>
       </c>
       <c r="L199">
-        <v>-6.157242342984759</v>
+        <v>-6.94946816126415</v>
       </c>
       <c r="M199">
-        <v>-2.604403211401707</v>
+        <v>-3.396137840833069</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8868,25 +8868,25 @@
         <v>90</v>
       </c>
       <c r="G200">
-        <v>3.699724686981943</v>
+        <v>3.421709352558915</v>
       </c>
       <c r="H200">
-        <v>2.160906268250032</v>
+        <v>1.761167806346212</v>
       </c>
       <c r="I200">
-        <v>4.934619433638835</v>
+        <v>4.826303562544196</v>
       </c>
       <c r="J200" t="s">
         <v>90</v>
       </c>
       <c r="K200">
-        <v>-0.1882399693515335</v>
+        <v>-0.4558318065336686</v>
       </c>
       <c r="L200">
-        <v>-1.669364198030354</v>
+        <v>-2.054115455133476</v>
       </c>
       <c r="M200">
-        <v>1.00035545352426</v>
+        <v>0.8961006180765896</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8909,25 +8909,25 @@
         <v>90</v>
       </c>
       <c r="G201">
-        <v>-15.63359621303683</v>
+        <v>-17.07883022035588</v>
       </c>
       <c r="H201">
-        <v>-18.23885870545424</v>
+        <v>-19.66552429092262</v>
       </c>
       <c r="I201">
-        <v>-13.1572211682771</v>
+        <v>-14.55918922180523</v>
       </c>
       <c r="J201" t="s">
         <v>90</v>
       </c>
       <c r="K201">
-        <v>-18.56447359101861</v>
+        <v>-19.95950036574497</v>
       </c>
       <c r="L201">
-        <v>-21.07922961925139</v>
+        <v>-22.4563330365734</v>
       </c>
       <c r="M201">
-        <v>-16.17412747806464</v>
+        <v>-17.52739135234253</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -8950,25 +8950,25 @@
         <v>90</v>
       </c>
       <c r="G202">
-        <v>-5.728671242060061</v>
+        <v>-5.582444076034965</v>
       </c>
       <c r="H202">
-        <v>-8.684159047197914</v>
+        <v>-8.064059028762786</v>
       </c>
       <c r="I202">
-        <v>-4.004033062118858</v>
+        <v>-3.819559646922155</v>
       </c>
       <c r="J202" t="s">
         <v>90</v>
       </c>
       <c r="K202">
-        <v>-9.107491328194294</v>
+        <v>-8.966505154231308</v>
       </c>
       <c r="L202">
-        <v>-11.95705019722937</v>
+        <v>-11.35917545582498</v>
       </c>
       <c r="M202">
-        <v>-7.44466666250474</v>
+        <v>-7.266805039979641</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8991,25 +8991,25 @@
         <v>90</v>
       </c>
       <c r="G203">
-        <v>-3.544598114893959</v>
+        <v>-3.556099484039362</v>
       </c>
       <c r="H203">
-        <v>-6.115168501511214</v>
+        <v>-5.711592008791131</v>
       </c>
       <c r="I203">
-        <v>-2.091419439185764</v>
+        <v>-2.246056036837783</v>
       </c>
       <c r="J203" t="s">
         <v>90</v>
       </c>
       <c r="K203">
-        <v>-7.056953504175678</v>
+        <v>-7.068036059080384</v>
       </c>
       <c r="L203">
-        <v>-9.533918384263417</v>
+        <v>-9.145037844714333</v>
       </c>
       <c r="M203">
-        <v>-5.656691304408278</v>
+        <v>-5.805696919486714</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9032,25 +9032,25 @@
         <v>90</v>
       </c>
       <c r="G204">
-        <v>-6.259652001810516</v>
+        <v>-5.24209882919993</v>
       </c>
       <c r="H204">
-        <v>-8.438193791861075</v>
+        <v>-7.290466367541822</v>
       </c>
       <c r="I204">
-        <v>-3.985343222201129</v>
+        <v>-3.613951412778473</v>
       </c>
       <c r="J204" t="s">
         <v>90</v>
       </c>
       <c r="K204">
-        <v>-9.526536353355908</v>
+        <v>-8.544445269455847</v>
       </c>
       <c r="L204">
-        <v>-11.62915518989619</v>
+        <v>-10.52142647309636</v>
       </c>
       <c r="M204">
-        <v>-7.331488040785028</v>
+        <v>-6.973039367550838</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9073,25 +9073,25 @@
         <v>90</v>
       </c>
       <c r="G205">
-        <v>-6.619494430873659</v>
+        <v>-6.323290166937318</v>
       </c>
       <c r="H205">
-        <v>-8.892405979072009</v>
+        <v>-8.598432066031901</v>
       </c>
       <c r="I205">
-        <v>-4.90317155160197</v>
+        <v>-4.529389260322847</v>
       </c>
       <c r="J205" t="s">
         <v>90</v>
       </c>
       <c r="K205">
-        <v>-9.730320352093925</v>
+        <v>-9.443983671296186</v>
       </c>
       <c r="L205">
-        <v>-11.92751339654589</v>
+        <v>-11.64333276598238</v>
       </c>
       <c r="M205">
-        <v>-8.071174093033074</v>
+        <v>-7.709843775894775</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9114,25 +9114,25 @@
         <v>91</v>
       </c>
       <c r="G206">
-        <v>9.189158751848638</v>
+        <v>8.039255624293045</v>
       </c>
       <c r="H206">
-        <v>7.1928437028372</v>
+        <v>6.067176037135098</v>
       </c>
       <c r="I206">
-        <v>11.30863316785432</v>
+        <v>10.42709290362048</v>
       </c>
       <c r="J206" t="s">
         <v>91</v>
       </c>
       <c r="K206">
-        <v>1.182623658660442</v>
+        <v>0.1170397057352002</v>
       </c>
       <c r="L206">
-        <v>-0.6673072009344194</v>
+        <v>-1.710432810522744</v>
       </c>
       <c r="M206">
-        <v>3.146682953926616</v>
+        <v>2.329783567434895</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9155,25 +9155,25 @@
         <v>91</v>
       </c>
       <c r="G207">
-        <v>-7.735334423112774</v>
+        <v>-7.732536549318121</v>
       </c>
       <c r="H207">
-        <v>-11.82984484251824</v>
+        <v>-11.54583448087758</v>
       </c>
       <c r="I207">
-        <v>-5.172345335636078</v>
+        <v>-4.960323524564526</v>
       </c>
       <c r="J207" t="s">
         <v>91</v>
       </c>
       <c r="K207">
-        <v>-14.05831283182959</v>
+        <v>-14.05570669877864</v>
       </c>
       <c r="L207">
-        <v>-17.87222286305512</v>
+        <v>-17.60767598045356</v>
       </c>
       <c r="M207">
-        <v>-11.67096763316521</v>
+        <v>-11.47347586265903</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9196,25 +9196,25 @@
         <v>91</v>
       </c>
       <c r="G208">
-        <v>-1.056552701777016</v>
+        <v>-1.451276722512878</v>
       </c>
       <c r="H208">
-        <v>-3.357200148553609</v>
+        <v>-3.761181552410121</v>
       </c>
       <c r="I208">
-        <v>2.657141727206459</v>
+        <v>2.309426268342662</v>
       </c>
       <c r="J208" t="s">
         <v>91</v>
       </c>
       <c r="K208">
-        <v>-7.472902874207454</v>
+        <v>-7.842029570333453</v>
       </c>
       <c r="L208">
-        <v>-9.624356412292611</v>
+        <v>-10.00214016263014</v>
       </c>
       <c r="M208">
-        <v>-4.000036560075704</v>
+        <v>-4.325203136670297</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9237,25 +9237,25 @@
         <v>91</v>
       </c>
       <c r="G209">
-        <v>1.615166695426235</v>
+        <v>1.640360788277878</v>
       </c>
       <c r="H209">
-        <v>-1.26687737045245</v>
+        <v>-1.628782589611758</v>
       </c>
       <c r="I209">
-        <v>3.222680186875209</v>
+        <v>3.656625948188494</v>
       </c>
       <c r="J209" t="s">
         <v>91</v>
       </c>
       <c r="K209">
-        <v>-4.853828810455562</v>
+        <v>-4.830238616694304</v>
       </c>
       <c r="L209">
-        <v>-7.552397016221701</v>
+        <v>-7.891262729444715</v>
       </c>
       <c r="M209">
-        <v>-3.348652380392281</v>
+        <v>-2.942332349282695</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9278,25 +9278,25 @@
         <v>91</v>
       </c>
       <c r="G210">
-        <v>1.990819204437581</v>
+        <v>1.741870403219792</v>
       </c>
       <c r="H210">
-        <v>-1.716383104788908</v>
+        <v>-1.941997074452896</v>
       </c>
       <c r="I210">
-        <v>3.511355630182822</v>
+        <v>3.754725680094913</v>
       </c>
       <c r="J210" t="s">
         <v>91</v>
       </c>
       <c r="K210">
-        <v>-4.346970921160409</v>
+        <v>-4.580449847085067</v>
       </c>
       <c r="L210">
-        <v>-7.82380474847566</v>
+        <v>-8.035398887724643</v>
       </c>
       <c r="M210">
-        <v>-2.920921830842726</v>
+        <v>-2.69267498820781</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9319,25 +9319,25 @@
         <v>91</v>
       </c>
       <c r="G211">
-        <v>2.424452531350402</v>
+        <v>1.865537583637378</v>
       </c>
       <c r="H211">
-        <v>-0.3138170482938882</v>
+        <v>-0.6338190532796484</v>
       </c>
       <c r="I211">
-        <v>4.136556062237872</v>
+        <v>3.721702262515569</v>
       </c>
       <c r="J211" t="s">
         <v>91</v>
       </c>
       <c r="K211">
-        <v>-4.102426939669224</v>
+        <v>-4.625725680430504</v>
       </c>
       <c r="L211">
-        <v>-6.666203465518294</v>
+        <v>-6.965813713795499</v>
       </c>
       <c r="M211">
-        <v>-2.499425221013452</v>
+        <v>-2.88784294339326</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9360,25 +9360,25 @@
         <v>92</v>
       </c>
       <c r="G212">
-        <v>4.501510059574755</v>
+        <v>4.336124186966486</v>
       </c>
       <c r="H212">
-        <v>3.213762640527815</v>
+        <v>2.489792655184893</v>
       </c>
       <c r="I212">
-        <v>5.951000541233737</v>
+        <v>6.089681443731843</v>
       </c>
       <c r="J212" t="s">
         <v>92</v>
       </c>
       <c r="K212">
-        <v>1.823419467940735</v>
+        <v>1.662271987190822</v>
       </c>
       <c r="L212">
-        <v>0.5686735265316267</v>
+        <v>-0.1367430694366623</v>
       </c>
       <c r="M212">
-        <v>3.235763435454797</v>
+        <v>3.370890322130471</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9401,25 +9401,25 @@
         <v>92</v>
       </c>
       <c r="G213">
-        <v>-5.539417119138919</v>
+        <v>-5.677876863640744</v>
       </c>
       <c r="H213">
-        <v>-13.28164471981196</v>
+        <v>-13.48606036341255</v>
       </c>
       <c r="I213">
-        <v>-1.058232019243074</v>
+        <v>-1.297404942976691</v>
       </c>
       <c r="J213" t="s">
         <v>92</v>
       </c>
       <c r="K213">
-        <v>-7.970773642245577</v>
+        <v>-8.105669519230219</v>
       </c>
       <c r="L213">
-        <v>-15.5137211304508</v>
+        <v>-15.7128752428038</v>
       </c>
       <c r="M213">
-        <v>-3.604931453557692</v>
+        <v>-3.837948215318399</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9442,25 +9442,25 @@
         <v>92</v>
       </c>
       <c r="G214">
-        <v>-2.10346949673528</v>
+        <v>-2.503846686536284</v>
       </c>
       <c r="H214">
-        <v>-7.748693881259664</v>
+        <v>-7.858420347698742</v>
       </c>
       <c r="I214">
-        <v>0.8001679104236576</v>
+        <v>0.5270323496180147</v>
       </c>
       <c r="J214" t="s">
         <v>92</v>
       </c>
       <c r="K214">
-        <v>-4.607705290506036</v>
+        <v>-4.997840657797548</v>
       </c>
       <c r="L214">
-        <v>-10.10852238199441</v>
+        <v>-10.21544199773747</v>
       </c>
       <c r="M214">
-        <v>-1.778344190073788</v>
+        <v>-2.044492824535815</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9483,25 +9483,25 @@
         <v>92</v>
       </c>
       <c r="G215">
-        <v>-2.553264289746795</v>
+        <v>-2.558248640755332</v>
       </c>
       <c r="H215">
-        <v>-5.760968268405581</v>
+        <v>-6.162886145804467</v>
       </c>
       <c r="I215">
-        <v>0.4514429135896375</v>
+        <v>-0.2446447370470002</v>
       </c>
       <c r="J215" t="s">
         <v>92</v>
       </c>
       <c r="K215">
-        <v>-5.196383650422054</v>
+        <v>-5.201232807218547</v>
       </c>
       <c r="L215">
-        <v>-8.317082718885427</v>
+        <v>-8.708099082596732</v>
       </c>
       <c r="M215">
-        <v>-2.273175326698318</v>
+        <v>-2.950382480900504</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9524,25 +9524,25 @@
         <v>92</v>
       </c>
       <c r="G216">
-        <v>-0.833988829477974</v>
+        <v>-0.8677908436297915</v>
       </c>
       <c r="H216">
-        <v>-3.070339594522002</v>
+        <v>-2.977327244206251</v>
       </c>
       <c r="I216">
-        <v>2.778068367715169</v>
+        <v>2.281537440141152</v>
       </c>
       <c r="J216" t="s">
         <v>92</v>
       </c>
       <c r="K216">
-        <v>-3.708928246083132</v>
+        <v>-3.741750300047997</v>
       </c>
       <c r="L216">
-        <v>-5.88044456948843</v>
+        <v>-5.790128756716117</v>
       </c>
       <c r="M216">
-        <v>-0.201588839680078</v>
+        <v>-0.6837247510747102</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9565,25 +9565,25 @@
         <v>92</v>
       </c>
       <c r="G217">
-        <v>-0.741350313728109</v>
+        <v>-0.4830487098865138</v>
       </c>
       <c r="H217">
-        <v>-3.118043949438596</v>
+        <v>-2.390474254339697</v>
       </c>
       <c r="I217">
-        <v>2.683217860405149</v>
+        <v>2.509835451950602</v>
       </c>
       <c r="J217" t="s">
         <v>92</v>
       </c>
       <c r="K217">
-        <v>-3.794947902275936</v>
+        <v>-3.544592700658244</v>
       </c>
       <c r="L217">
-        <v>-6.098524827476448</v>
+        <v>-5.393338119386504</v>
       </c>
       <c r="M217">
-        <v>-0.4757332983494345</v>
+        <v>-0.6437817625479791</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9606,25 +9606,25 @@
         <v>93</v>
       </c>
       <c r="G218">
-        <v>5.683732926462248</v>
+        <v>6.358127029635531</v>
       </c>
       <c r="H218">
-        <v>4.341698721833712</v>
+        <v>4.744313264457409</v>
       </c>
       <c r="I218">
-        <v>7.239778587432546</v>
+        <v>8.014905175577631</v>
       </c>
       <c r="J218" t="s">
         <v>93</v>
       </c>
       <c r="K218">
-        <v>0.3304848394150461</v>
+        <v>0.9707185392532125</v>
       </c>
       <c r="L218">
-        <v>-0.9435706721853121</v>
+        <v>-0.5613499543295042</v>
       </c>
       <c r="M218">
-        <v>1.807711383882871</v>
+        <v>2.5435751185092</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9647,25 +9647,25 @@
         <v>93</v>
       </c>
       <c r="G219">
-        <v>-7.707998760885769</v>
+        <v>-8.164672401811266</v>
       </c>
       <c r="H219">
-        <v>-10.2002365436299</v>
+        <v>-10.42214163884247</v>
       </c>
       <c r="I219">
-        <v>-4.048719855479053</v>
+        <v>-4.810774000093711</v>
       </c>
       <c r="J219" t="s">
         <v>93</v>
       </c>
       <c r="K219">
-        <v>-11.85358961336853</v>
+        <v>-12.28975029495873</v>
       </c>
       <c r="L219">
-        <v>-14.23388055331327</v>
+        <v>-14.44581807039902</v>
       </c>
       <c r="M219">
-        <v>-8.358678940888463</v>
+        <v>-9.086502982692524</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9688,25 +9688,25 @@
         <v>93</v>
       </c>
       <c r="G220">
-        <v>-2.698450492578992</v>
+        <v>-1.628418191768327</v>
       </c>
       <c r="H220">
-        <v>-4.694154420443837</v>
+        <v>-3.699078605010252</v>
       </c>
       <c r="I220">
-        <v>-0.3719496910848866</v>
+        <v>0.8264245748859511</v>
       </c>
       <c r="J220" t="s">
         <v>93</v>
       </c>
       <c r="K220">
-        <v>-6.937310259405438</v>
+        <v>-5.913893011408133</v>
       </c>
       <c r="L220">
-        <v>-8.846073032384783</v>
+        <v>-7.894346853830935</v>
       </c>
       <c r="M220">
-        <v>-4.712161499013101</v>
+        <v>-3.56599339509559</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9729,25 +9729,25 @@
         <v>93</v>
       </c>
       <c r="G221">
-        <v>-1.094071514666823</v>
+        <v>-0.4498594177817528</v>
       </c>
       <c r="H221">
-        <v>-3.512587116291546</v>
+        <v>-3.205583839681415</v>
       </c>
       <c r="I221">
-        <v>0.2874252989159248</v>
+        <v>1.822454219122885</v>
       </c>
       <c r="J221" t="s">
         <v>93</v>
       </c>
       <c r="K221">
-        <v>-5.403049856393771</v>
+        <v>-4.786903781591157</v>
       </c>
       <c r="L221">
-        <v>-7.71619936413388</v>
+        <v>-7.422571124693023</v>
       </c>
       <c r="M221">
-        <v>-4.081739928875949</v>
+        <v>-2.613586740714491</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9770,25 +9770,25 @@
         <v>93</v>
       </c>
       <c r="G222">
-        <v>-1.558325100390997</v>
+        <v>-2.139785000634217</v>
       </c>
       <c r="H222">
-        <v>-4.767778380682238</v>
+        <v>-6.081275375359093</v>
       </c>
       <c r="I222">
-        <v>0.3122365148392965</v>
+        <v>0.2652790293965435</v>
       </c>
       <c r="J222" t="s">
         <v>93</v>
       </c>
       <c r="K222">
-        <v>-5.715294652083625</v>
+        <v>-6.272200814254969</v>
       </c>
       <c r="L222">
-        <v>-8.789219970489249</v>
+        <v>-10.04725095426493</v>
       </c>
       <c r="M222">
-        <v>-3.923722628273907</v>
+        <v>-3.968697205183158</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9811,25 +9811,25 @@
         <v>93</v>
       </c>
       <c r="G223">
-        <v>-4.184862278147056</v>
+        <v>-2.89990203265708</v>
       </c>
       <c r="H223">
-        <v>-6.860722477235851</v>
+        <v>-6.19406171683408</v>
       </c>
       <c r="I223">
-        <v>-2.237542727158076</v>
+        <v>-0.9438041469814256</v>
       </c>
       <c r="J223" t="s">
         <v>93</v>
       </c>
       <c r="K223">
-        <v>-8.345064878720986</v>
+        <v>-7.115896391005649</v>
       </c>
       <c r="L223">
-        <v>-10.9047417603956</v>
+        <v>-10.26702677928368</v>
       </c>
       <c r="M223">
-        <v>-6.482296099695506</v>
+        <v>-5.244730424277799</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9852,25 +9852,25 @@
         <v>94</v>
       </c>
       <c r="G224">
-        <v>6.333331016399305</v>
+        <v>7.088031528109269</v>
       </c>
       <c r="H224">
-        <v>4.617623206353095</v>
+        <v>4.737617749688725</v>
       </c>
       <c r="I224">
-        <v>8.877166108802944</v>
+        <v>9.273609189919567</v>
       </c>
       <c r="J224" t="s">
         <v>94</v>
       </c>
       <c r="K224">
-        <v>-0.6997677874443609</v>
+        <v>0.005015325690460593</v>
       </c>
       <c r="L224">
-        <v>-2.30199525758924</v>
+        <v>-2.189937392914343</v>
       </c>
       <c r="M224">
-        <v>1.675812973278457</v>
+        <v>2.046034517526629</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9893,25 +9893,25 @@
         <v>94</v>
       </c>
       <c r="G225">
-        <v>-7.310359262314467</v>
+        <v>-7.473122230834071</v>
       </c>
       <c r="H225">
-        <v>-11.44227956010095</v>
+        <v>-11.51096012406121</v>
       </c>
       <c r="I225">
-        <v>-0.6060729245668234</v>
+        <v>-2.361011817464553</v>
       </c>
       <c r="J225" t="s">
         <v>94</v>
       </c>
       <c r="K225">
-        <v>-12.882441763517</v>
+        <v>-13.03542015760614</v>
       </c>
       <c r="L225">
-        <v>-16.76596967781355</v>
+        <v>-16.83052147651407</v>
       </c>
       <c r="M225">
-        <v>-6.581186835625996</v>
+        <v>-8.230626729736269</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9934,25 +9934,25 @@
         <v>94</v>
       </c>
       <c r="G226">
-        <v>-0.6254288010551433</v>
+        <v>0.6915271244868137</v>
       </c>
       <c r="H226">
-        <v>-2.695940614638179</v>
+        <v>-1.74319732088506</v>
       </c>
       <c r="I226">
-        <v>3.228434310910852</v>
+        <v>4.017967288881906</v>
       </c>
       <c r="J226" t="s">
         <v>94</v>
       </c>
       <c r="K226">
-        <v>-5.997305113608542</v>
+        <v>-4.751539677300832</v>
       </c>
       <c r="L226">
-        <v>-7.955891580173169</v>
+        <v>-7.054650587963673</v>
       </c>
       <c r="M226">
-        <v>-2.351769702715578</v>
+        <v>-1.604916390690969</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9975,25 +9975,25 @@
         <v>94</v>
       </c>
       <c r="G227">
-        <v>-2.343026963808744</v>
+        <v>-2.846858552950061</v>
       </c>
       <c r="H227">
-        <v>-5.66677678176676</v>
+        <v>-6.742499894334633</v>
       </c>
       <c r="I227">
-        <v>0.1728754216507461</v>
+        <v>0.2415909179578485</v>
       </c>
       <c r="J227" t="s">
         <v>94</v>
       </c>
       <c r="K227">
-        <v>-7.451271244975278</v>
+        <v>-7.928748394142826</v>
       </c>
       <c r="L227">
-        <v>-10.60116224392893</v>
+        <v>-11.62061639518202</v>
       </c>
       <c r="M227">
-        <v>-5.066970767428025</v>
+        <v>-5.001849643648804</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10016,25 +10016,25 @@
         <v>94</v>
       </c>
       <c r="G228">
-        <v>-1.993080092580655</v>
+        <v>-1.562916332460315</v>
       </c>
       <c r="H228">
-        <v>-6.733520678461606</v>
+        <v>-5.288354757715131</v>
       </c>
       <c r="I228">
-        <v>-0.2184184677808055</v>
+        <v>0.4855050431988388</v>
       </c>
       <c r="J228" t="s">
         <v>94</v>
       </c>
       <c r="K228">
-        <v>-7.548416244219968</v>
+        <v>-7.142635500012984</v>
       </c>
       <c r="L228">
-        <v>-12.02015395701481</v>
+        <v>-10.65690452229019</v>
       </c>
       <c r="M228">
-        <v>-5.874347943753644</v>
+        <v>-5.210325000328087</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10057,25 +10057,25 @@
         <v>94</v>
       </c>
       <c r="G229">
-        <v>-2.253339769198989</v>
+        <v>-3.061311248105094</v>
       </c>
       <c r="H229">
-        <v>-5.436891819258125</v>
+        <v>-6.705305097471879</v>
       </c>
       <c r="I229">
-        <v>0.07630901876641336</v>
+        <v>-0.2819735803948854</v>
       </c>
       <c r="J229" t="s">
         <v>94</v>
       </c>
       <c r="K229">
-        <v>-8.66554687227733</v>
+        <v>-9.42051520566527</v>
       </c>
       <c r="L229">
-        <v>-11.64025705479635</v>
+        <v>-12.8254620820786</v>
       </c>
       <c r="M229">
-        <v>-6.488723669049012</v>
+        <v>-6.823502833700868</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10098,25 +10098,25 @@
         <v>95</v>
       </c>
       <c r="G230">
-        <v>-0.5273240539773174</v>
+        <v>-0.1050679897654525</v>
       </c>
       <c r="H230">
-        <v>-2.004764244220634</v>
+        <v>-1.992012198764472</v>
       </c>
       <c r="I230">
-        <v>1.786055197420772</v>
+        <v>2.701729254176136</v>
       </c>
       <c r="J230" t="s">
         <v>95</v>
       </c>
       <c r="K230">
-        <v>-2.057182190789264</v>
+        <v>-1.641420290623041</v>
       </c>
       <c r="L230">
-        <v>-3.511899820538444</v>
+        <v>-3.499343897487917</v>
       </c>
       <c r="M230">
-        <v>0.2206180230728938</v>
+        <v>1.122209303899369</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10139,25 +10139,25 @@
         <v>95</v>
       </c>
       <c r="G231">
-        <v>-14.09799726094631</v>
+        <v>-13.54466390120055</v>
       </c>
       <c r="H231">
-        <v>-17.02283405651925</v>
+        <v>-17.10371596936068</v>
       </c>
       <c r="I231">
-        <v>-9.336121583922223</v>
+        <v>-8.814892690816317</v>
       </c>
       <c r="J231" t="s">
         <v>95</v>
       </c>
       <c r="K231">
-        <v>-15.73740178147763</v>
+        <v>-15.19462856215238</v>
       </c>
       <c r="L231">
-        <v>-18.60641926537463</v>
+        <v>-18.68575758005404</v>
       </c>
       <c r="M231">
-        <v>-11.06640455038263</v>
+        <v>-10.5551230971075</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10180,25 +10180,25 @@
         <v>95</v>
       </c>
       <c r="G232">
-        <v>-7.167522767550375</v>
+        <v>-6.59584703776041</v>
       </c>
       <c r="H232">
-        <v>-9.821177761489311</v>
+        <v>-8.586801874681271</v>
       </c>
       <c r="I232">
-        <v>-2.849081046733015</v>
+        <v>-2.801783770687768</v>
       </c>
       <c r="J232" t="s">
         <v>95</v>
       </c>
       <c r="K232">
-        <v>-8.703080369377602</v>
+        <v>-8.14086082387605</v>
       </c>
       <c r="L232">
-        <v>-11.31284081024578</v>
+        <v>-10.0988829423575</v>
       </c>
       <c r="M232">
-        <v>-4.456070718565708</v>
+        <v>-4.409555794709508</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10221,25 +10221,25 @@
         <v>95</v>
       </c>
       <c r="G233">
-        <v>-2.604729488357883</v>
+        <v>-2.380493722451862</v>
       </c>
       <c r="H233">
-        <v>-4.842521403495163</v>
+        <v>-5.248647728705145</v>
       </c>
       <c r="I233">
-        <v>2.355733514291284</v>
+        <v>1.863838006592192</v>
       </c>
       <c r="J233" t="s">
         <v>95</v>
       </c>
       <c r="K233">
-        <v>-4.091804988693893</v>
+        <v>-3.870992956938679</v>
       </c>
       <c r="L233">
-        <v>-6.295429274187869</v>
+        <v>-6.695354677062637</v>
       </c>
       <c r="M233">
-        <v>0.7929193978724491</v>
+        <v>0.3085343755838243</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10262,25 +10262,25 @@
         <v>95</v>
       </c>
       <c r="G234">
-        <v>-4.260514084157931</v>
+        <v>-3.579567511356404</v>
       </c>
       <c r="H234">
-        <v>-7.368846538163573</v>
+        <v>-6.602937449467695</v>
       </c>
       <c r="I234">
-        <v>-0.4011989494324718</v>
+        <v>-0.2338064412565066</v>
       </c>
       <c r="J234" t="s">
         <v>95</v>
       </c>
       <c r="K234">
-        <v>-6.874976380226538</v>
+        <v>-6.212625156284435</v>
       </c>
       <c r="L234">
-        <v>-9.898426218382461</v>
+        <v>-9.153432642397519</v>
       </c>
       <c r="M234">
-        <v>-3.121051762400828</v>
+        <v>-2.95823042355049</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10303,25 +10303,25 @@
         <v>95</v>
       </c>
       <c r="G235">
-        <v>-2.101569546894833</v>
+        <v>-2.339693180197751</v>
       </c>
       <c r="H235">
-        <v>-4.596256725074893</v>
+        <v>-5.47210127670514</v>
       </c>
       <c r="I235">
-        <v>0.8184714347148331</v>
+        <v>0.6425362416931909</v>
       </c>
       <c r="J235" t="s">
         <v>95</v>
       </c>
       <c r="K235">
-        <v>-4.416649095215186</v>
+        <v>-4.649141635650933</v>
       </c>
       <c r="L235">
-        <v>-6.85234248525245</v>
+        <v>-7.70747526653458</v>
       </c>
       <c r="M235">
-        <v>-1.565660570580507</v>
+        <v>-1.73743528865572</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10344,25 +10344,25 @@
         <v>96</v>
       </c>
       <c r="G236">
-        <v>3.424621339636018</v>
+        <v>3.502115969701776</v>
       </c>
       <c r="H236">
-        <v>2.627704921367751</v>
+        <v>2.31059221594897</v>
       </c>
       <c r="I236">
-        <v>4.379589218464703</v>
+        <v>4.507659818841476</v>
       </c>
       <c r="J236" t="s">
         <v>96</v>
       </c>
       <c r="K236">
-        <v>-0.4065364574509789</v>
+        <v>-0.3319124606286583</v>
       </c>
       <c r="L236">
-        <v>-1.17393270431394</v>
+        <v>-1.479298605169299</v>
       </c>
       <c r="M236">
-        <v>0.5130565504083862</v>
+        <v>0.6363830320941011</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10385,25 +10385,25 @@
         <v>96</v>
       </c>
       <c r="G237">
-        <v>-20.4595120088932</v>
+        <v>-20.38012027615143</v>
       </c>
       <c r="H237">
-        <v>-23.17371673861135</v>
+        <v>-22.92359636399949</v>
       </c>
       <c r="I237">
-        <v>-17.26611099215526</v>
+        <v>-16.88264168464888</v>
       </c>
       <c r="J237" t="s">
         <v>96</v>
       </c>
       <c r="K237">
-        <v>-23.30111717003658</v>
+        <v>-23.22456172813496</v>
       </c>
       <c r="L237">
-        <v>-25.91835621142216</v>
+        <v>-25.67717145394509</v>
       </c>
       <c r="M237">
-        <v>-20.22180125687228</v>
+        <v>-19.85203149271635</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10426,25 +10426,25 @@
         <v>96</v>
       </c>
       <c r="G238">
-        <v>-8.641591777869227</v>
+        <v>-8.337168143221632</v>
       </c>
       <c r="H238">
-        <v>-10.3179337244046</v>
+        <v>-10.08743937727945</v>
       </c>
       <c r="I238">
-        <v>-6.033350198577011</v>
+        <v>-6.530825253152596</v>
       </c>
       <c r="J238" t="s">
         <v>96</v>
       </c>
       <c r="K238">
-        <v>-11.82266671903938</v>
+        <v>-11.5288430326015</v>
       </c>
       <c r="L238">
-        <v>-13.44063889466116</v>
+        <v>-13.21817029804972</v>
       </c>
       <c r="M238">
-        <v>-9.305243402563557</v>
+        <v>-9.785396510962929</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10467,25 +10467,25 @@
         <v>96</v>
       </c>
       <c r="G239">
-        <v>-7.392079319605436</v>
+        <v>-6.749516800507439</v>
       </c>
       <c r="H239">
-        <v>-8.939310516862783</v>
+        <v>-8.21246486817561</v>
       </c>
       <c r="I239">
-        <v>-4.798765403470162</v>
+        <v>-4.588986947757046</v>
       </c>
       <c r="J239" t="s">
         <v>96</v>
       </c>
       <c r="K239">
-        <v>-10.48015363212651</v>
+        <v>-9.859017798724901</v>
       </c>
       <c r="L239">
-        <v>-11.97579134925086</v>
+        <v>-11.27318286473267</v>
       </c>
       <c r="M239">
-        <v>-7.973315538252256</v>
+        <v>-7.770532288301768</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10508,25 +10508,25 @@
         <v>96</v>
       </c>
       <c r="G240">
-        <v>-6.978570405429417</v>
+        <v>-7.202051962264821</v>
       </c>
       <c r="H240">
-        <v>-8.703871958310385</v>
+        <v>-8.732778989278469</v>
       </c>
       <c r="I240">
-        <v>-3.609110056434352</v>
+        <v>-3.932732894510051</v>
       </c>
       <c r="J240" t="s">
         <v>96</v>
       </c>
       <c r="K240">
-        <v>-9.943427216839563</v>
+        <v>-10.15978578256532</v>
       </c>
       <c r="L240">
-        <v>-11.61373851550609</v>
+        <v>-11.64172419740399</v>
       </c>
       <c r="M240">
-        <v>-6.681361126458185</v>
+        <v>-6.994669186745806</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10549,25 +10549,25 @@
         <v>96</v>
       </c>
       <c r="G241">
-        <v>-6.501210480947056</v>
+        <v>-6.437474640115576</v>
       </c>
       <c r="H241">
-        <v>-8.113100559312089</v>
+        <v>-7.927601003033915</v>
       </c>
       <c r="I241">
-        <v>-2.804233469565971</v>
+        <v>-3.648633626464945</v>
       </c>
       <c r="J241" t="s">
         <v>96</v>
       </c>
       <c r="K241">
-        <v>-9.448179887255614</v>
+        <v>-9.386452923479993</v>
       </c>
       <c r="L241">
-        <v>-11.00926512876973</v>
+        <v>-10.82961229542826</v>
       </c>
       <c r="M241">
-        <v>-5.867727145380142</v>
+        <v>-6.685512824788409</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10590,25 +10590,25 @@
         <v>97</v>
       </c>
       <c r="G242">
-        <v>4.164183224570784</v>
+        <v>3.836024382673004</v>
       </c>
       <c r="H242">
-        <v>3.261509595209446</v>
+        <v>2.894305433642658</v>
       </c>
       <c r="I242">
-        <v>5.409813022287418</v>
+        <v>5.271066648040672</v>
       </c>
       <c r="J242" t="s">
         <v>97</v>
       </c>
       <c r="K242">
-        <v>1.412875209317277</v>
+        <v>1.093384088166105</v>
       </c>
       <c r="L242">
-        <v>0.5340440670252633</v>
+        <v>0.1765389375218751</v>
       </c>
       <c r="M242">
-        <v>2.625603954672084</v>
+        <v>2.490522314307331</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10631,25 +10631,25 @@
         <v>97</v>
       </c>
       <c r="G243">
-        <v>-5.512952342980631</v>
+        <v>-5.416433687325377</v>
       </c>
       <c r="H243">
-        <v>-7.173738459689792</v>
+        <v>-7.144595671341714</v>
       </c>
       <c r="I243">
-        <v>-2.720205118983181</v>
+        <v>-2.919275802030105</v>
       </c>
       <c r="J243" t="s">
         <v>97</v>
       </c>
       <c r="K243">
-        <v>-7.703056795386143</v>
+        <v>-7.608775334592332</v>
       </c>
       <c r="L243">
-        <v>-9.325347740969836</v>
+        <v>-9.296880449974033</v>
       </c>
       <c r="M243">
-        <v>-4.975042339332947</v>
+        <v>-5.169498785824766</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10672,25 +10672,25 @@
         <v>97</v>
       </c>
       <c r="G244">
-        <v>-1.036434559911369</v>
+        <v>-1.185960099314667</v>
       </c>
       <c r="H244">
-        <v>-3.344806373913409</v>
+        <v>-3.452961977470044</v>
       </c>
       <c r="I244">
-        <v>0.4516865498298729</v>
+        <v>0.788926212607046</v>
       </c>
       <c r="J244" t="s">
         <v>97</v>
       </c>
       <c r="K244">
-        <v>-4.079514716026244</v>
+        <v>-4.224442419854735</v>
       </c>
       <c r="L244">
-        <v>-6.316905250919291</v>
+        <v>-6.421735123743688</v>
       </c>
       <c r="M244">
-        <v>-2.637152586358238</v>
+        <v>-2.310282874593728</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10713,25 +10713,25 @@
         <v>97</v>
       </c>
       <c r="G245">
-        <v>-0.6930890441394639</v>
+        <v>0.004728716288293467</v>
       </c>
       <c r="H245">
-        <v>-2.189777238407306</v>
+        <v>-1.090250473887627</v>
       </c>
       <c r="I245">
-        <v>0.9374742153518174</v>
+        <v>1.773990205087272</v>
       </c>
       <c r="J245" t="s">
         <v>97</v>
       </c>
       <c r="K245">
-        <v>-2.769287233758555</v>
+        <v>-2.086058669157542</v>
       </c>
       <c r="L245">
-        <v>-4.234684339727989</v>
+        <v>-3.158145255078315</v>
       </c>
       <c r="M245">
-        <v>-1.172813973189102</v>
+        <v>-0.3537869272417504</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10754,25 +10754,25 @@
         <v>97</v>
       </c>
       <c r="G246">
-        <v>0.9992199139530961</v>
+        <v>0.6029834253266355</v>
       </c>
       <c r="H246">
-        <v>-0.2962130435225863</v>
+        <v>-0.4444050560091123</v>
       </c>
       <c r="I246">
-        <v>3.894920706446369</v>
+        <v>3.088248836344628</v>
       </c>
       <c r="J246" t="s">
         <v>97</v>
       </c>
       <c r="K246">
-        <v>-1.328964351329098</v>
+        <v>-1.716066991605669</v>
       </c>
       <c r="L246">
-        <v>-2.594535626398786</v>
+        <v>-2.739311589612792</v>
       </c>
       <c r="M246">
-        <v>1.499986172916645</v>
+        <v>0.7119093053982617</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10795,25 +10795,25 @@
         <v>97</v>
       </c>
       <c r="G247">
-        <v>0.4543053093914393</v>
+        <v>0.3503040544365691</v>
       </c>
       <c r="H247">
-        <v>-0.5544524622851684</v>
+        <v>-0.8155275354555687</v>
       </c>
       <c r="I247">
-        <v>2.406473590618082</v>
+        <v>2.743022671180288</v>
       </c>
       <c r="J247" t="s">
         <v>97</v>
       </c>
       <c r="K247">
-        <v>-2.026321137419063</v>
+        <v>-2.127754177276053</v>
       </c>
       <c r="L247">
-        <v>-3.010168566038307</v>
+        <v>-3.264796630998212</v>
       </c>
       <c r="M247">
-        <v>-0.1223598519216829</v>
+        <v>0.2058784594074936</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10836,25 +10836,25 @@
         <v>98</v>
       </c>
       <c r="G248">
-        <v>2.717508182880582</v>
+        <v>3.11129096786977</v>
       </c>
       <c r="H248">
-        <v>1.807757116333721</v>
+        <v>2.131910318182459</v>
       </c>
       <c r="I248">
-        <v>3.763639727510177</v>
+        <v>4.016590305718434</v>
       </c>
       <c r="J248" t="s">
         <v>98</v>
       </c>
       <c r="K248">
-        <v>0.6287865239759993</v>
+        <v>1.014561885046295</v>
       </c>
       <c r="L248">
-        <v>-0.2624650988974131</v>
+        <v>0.05509657025664083</v>
       </c>
       <c r="M248">
-        <v>1.653645379518909</v>
+        <v>1.901452303439966</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10877,25 +10877,25 @@
         <v>98</v>
       </c>
       <c r="G249">
-        <v>-8.760142513940973</v>
+        <v>-8.606532462610659</v>
       </c>
       <c r="H249">
-        <v>-11.17714282506459</v>
+        <v>-11.69850168848269</v>
       </c>
       <c r="I249">
-        <v>-7.066753346551061</v>
+        <v>-6.707799657461621</v>
       </c>
       <c r="J249" t="s">
         <v>98</v>
       </c>
       <c r="K249">
-        <v>-10.27013288108555</v>
+        <v>-10.11906502681907</v>
       </c>
       <c r="L249">
-        <v>-12.64713261255307</v>
+        <v>-13.15986315405926</v>
       </c>
       <c r="M249">
-        <v>-8.604768761093117</v>
+        <v>-8.251755640388048</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10918,25 +10918,25 @@
         <v>98</v>
       </c>
       <c r="G250">
-        <v>-0.9664520294401903</v>
+        <v>-0.2127955309060715</v>
       </c>
       <c r="H250">
-        <v>-2.570186047305697</v>
+        <v>-1.974720739918324</v>
       </c>
       <c r="I250">
-        <v>-0.1041429930787613</v>
+        <v>0.9858610088018942</v>
       </c>
       <c r="J250" t="s">
         <v>98</v>
       </c>
       <c r="K250">
-        <v>-3.177232479640757</v>
+        <v>-2.440400270322463</v>
       </c>
       <c r="L250">
-        <v>-4.745165459507783</v>
+        <v>-4.162993052226693</v>
       </c>
       <c r="M250">
-        <v>-2.33417324295514</v>
+        <v>-1.26850200090568</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10959,25 +10959,25 @@
         <v>98</v>
       </c>
       <c r="G251">
-        <v>-0.3537923506473627</v>
+        <v>-0.5973696366851585</v>
       </c>
       <c r="H251">
-        <v>-1.426933555890185</v>
+        <v>-1.822943555234856</v>
       </c>
       <c r="I251">
-        <v>1.040142939034416</v>
+        <v>0.4741277425145487</v>
       </c>
       <c r="J251" t="s">
         <v>98</v>
       </c>
       <c r="K251">
-        <v>-2.858231961042013</v>
+        <v>-3.095687342215236</v>
       </c>
       <c r="L251">
-        <v>-3.904401569418714</v>
+        <v>-4.290458524368946</v>
       </c>
       <c r="M251">
-        <v>-1.499330887274319</v>
+        <v>-2.051120245082505</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11000,25 +11000,25 @@
         <v>98</v>
       </c>
       <c r="G252">
-        <v>-0.4639272977267204</v>
+        <v>0.1541980231029008</v>
       </c>
       <c r="H252">
-        <v>-1.848215085794657</v>
+        <v>-1.597904533207625</v>
       </c>
       <c r="I252">
-        <v>0.7137651391692619</v>
+        <v>1.520153246936101</v>
       </c>
       <c r="J252" t="s">
         <v>98</v>
       </c>
       <c r="K252">
-        <v>-2.789849670721301</v>
+        <v>-2.186168475262518</v>
       </c>
       <c r="L252">
-        <v>-4.141789930405626</v>
+        <v>-3.897328542836387</v>
       </c>
       <c r="M252">
-        <v>-1.639677117954941</v>
+        <v>-0.8521323911880763</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11041,25 +11041,25 @@
         <v>98</v>
       </c>
       <c r="G253">
-        <v>0.2389863211164883</v>
+        <v>0.4910778601389323</v>
       </c>
       <c r="H253">
-        <v>-0.828251862073926</v>
+        <v>-0.7623983621748061</v>
       </c>
       <c r="I253">
-        <v>1.361017770763544</v>
+        <v>1.480436576050865</v>
       </c>
       <c r="J253" t="s">
         <v>98</v>
       </c>
       <c r="K253">
-        <v>-2.097355433397186</v>
+        <v>-1.85113957219426</v>
       </c>
       <c r="L253">
-        <v>-3.139718732863106</v>
+        <v>-3.075400127590744</v>
       </c>
       <c r="M253">
-        <v>-1.001475973329224</v>
+        <v>-0.8848405475562648</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11082,25 +11082,25 @@
         <v>99</v>
       </c>
       <c r="G254">
-        <v>5.795463202040927</v>
+        <v>5.652814338369269</v>
       </c>
       <c r="H254">
-        <v>4.038629468882047</v>
+        <v>4.075707779817473</v>
       </c>
       <c r="I254">
-        <v>8.860193606635594</v>
+        <v>8.468958772587138</v>
       </c>
       <c r="J254" t="s">
         <v>99</v>
       </c>
       <c r="K254">
-        <v>4.792492939546089</v>
+        <v>4.651196426569926</v>
       </c>
       <c r="L254">
-        <v>3.052314476255846</v>
+        <v>3.089041274544835</v>
       </c>
       <c r="M254">
-        <v>7.828168851959916</v>
+        <v>7.440643032384542</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11123,25 +11123,25 @@
         <v>99</v>
       </c>
       <c r="G255">
-        <v>-6.915593468204642</v>
+        <v>-6.753237225437104</v>
       </c>
       <c r="H255">
-        <v>-11.12559034665819</v>
+        <v>-11.06739412414039</v>
       </c>
       <c r="I255">
-        <v>-0.1418836124725129</v>
+        <v>0.4244385338663174</v>
       </c>
       <c r="J255" t="s">
         <v>99</v>
       </c>
       <c r="K255">
-        <v>-8.299598211565307</v>
+        <v>-8.139655926392575</v>
       </c>
       <c r="L255">
-        <v>-12.44699969014033</v>
+        <v>-12.38966874518095</v>
       </c>
       <c r="M255">
-        <v>-1.626601750479795</v>
+        <v>-1.068699838700182</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11164,25 +11164,25 @@
         <v>99</v>
       </c>
       <c r="G256">
-        <v>3.619634518143338</v>
+        <v>3.600933668170978</v>
       </c>
       <c r="H256">
-        <v>-1.421568043983076</v>
+        <v>-1.710360744961067</v>
       </c>
       <c r="I256">
-        <v>7.826256039450397</v>
+        <v>7.565314436009192</v>
       </c>
       <c r="J256" t="s">
         <v>99</v>
       </c>
       <c r="K256">
-        <v>-0.08825125671794165</v>
+        <v>-0.1062829225543571</v>
       </c>
       <c r="L256">
-        <v>-4.949061334782556</v>
+        <v>-5.22751998707548</v>
       </c>
       <c r="M256">
-        <v>3.967842112549103</v>
+        <v>3.716237944662137</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11205,25 +11205,25 @@
         <v>99</v>
       </c>
       <c r="G257">
-        <v>9.485976514552817</v>
+        <v>9.355813314028264</v>
       </c>
       <c r="H257">
-        <v>-0.4276817294215204</v>
+        <v>-0.1548025548064027</v>
       </c>
       <c r="I257">
-        <v>11.95455206083969</v>
+        <v>11.69075257913904</v>
       </c>
       <c r="J257" t="s">
         <v>99</v>
       </c>
       <c r="K257">
-        <v>1.894403345334394</v>
+        <v>1.773265441858651</v>
       </c>
       <c r="L257">
-        <v>-7.331858536752867</v>
+        <v>-7.07790034440775</v>
       </c>
       <c r="M257">
-        <v>4.19181202185428</v>
+        <v>3.946303951812791</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11246,25 +11246,25 @@
         <v>99</v>
       </c>
       <c r="G258">
-        <v>8.966530100931131</v>
+        <v>8.976722556419015</v>
       </c>
       <c r="H258">
-        <v>-3.956440334251668</v>
+        <v>-2.950399873267781</v>
       </c>
       <c r="I258">
-        <v>11.98894726852894</v>
+        <v>12.23650958573867</v>
       </c>
       <c r="J258" t="s">
         <v>99</v>
       </c>
       <c r="K258">
-        <v>2.185464259398651</v>
+        <v>2.195022431022609</v>
       </c>
       <c r="L258">
-        <v>-9.93330039527538</v>
+        <v>-8.989866558535287</v>
       </c>
       <c r="M258">
-        <v>5.019794224485041</v>
+        <v>5.251950559955909</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11287,25 +11287,25 @@
         <v>99</v>
       </c>
       <c r="G259">
-        <v>6.217816972127996</v>
+        <v>5.882408729673653</v>
       </c>
       <c r="H259">
-        <v>-2.889820229449628</v>
+        <v>-2.235309427341432</v>
       </c>
       <c r="I259">
-        <v>9.542046948337614</v>
+        <v>9.680770731286181</v>
       </c>
       <c r="J259" t="s">
         <v>99</v>
       </c>
       <c r="K259">
-        <v>0.01185141579695959</v>
+        <v>-0.3039600013853394</v>
       </c>
       <c r="L259">
-        <v>-8.563655825066242</v>
+        <v>-7.947385984878741</v>
       </c>
       <c r="M259">
-        <v>3.141857321866892</v>
+        <v>3.272475920173501</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11328,25 +11328,25 @@
         <v>100</v>
       </c>
       <c r="G260">
-        <v>2.138622847226479</v>
+        <v>2.445306215138161</v>
       </c>
       <c r="H260">
-        <v>1.516641811179659</v>
+        <v>1.832131118678532</v>
       </c>
       <c r="I260">
-        <v>3.096448318041717</v>
+        <v>3.222725677746568</v>
       </c>
       <c r="J260" t="s">
         <v>100</v>
       </c>
       <c r="K260">
-        <v>-0.3395023442795519</v>
+        <v>-0.04025984211142308</v>
       </c>
       <c r="L260">
-        <v>-0.9463926454887583</v>
+        <v>-0.6385578567093431</v>
       </c>
       <c r="M260">
-        <v>0.595084009322977</v>
+        <v>0.7182975808399883</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11369,25 +11369,25 @@
         <v>100</v>
       </c>
       <c r="G261">
-        <v>-16.59296706653639</v>
+        <v>-16.67793019279999</v>
       </c>
       <c r="H261">
-        <v>-19.16627667159118</v>
+        <v>-19.35612213107683</v>
       </c>
       <c r="I261">
-        <v>-10.07640565720322</v>
+        <v>-11.16846786779817</v>
       </c>
       <c r="J261" t="s">
         <v>100</v>
       </c>
       <c r="K261">
-        <v>-18.49059501745782</v>
+        <v>-18.57362511244666</v>
       </c>
       <c r="L261">
-        <v>-21.00535818990158</v>
+        <v>-21.19088439671025</v>
       </c>
       <c r="M261">
-        <v>-12.12229459570963</v>
+        <v>-13.18951084665242</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11410,25 +11410,25 @@
         <v>100</v>
       </c>
       <c r="G262">
-        <v>-8.544208147723092</v>
+        <v>-8.38282248380256</v>
       </c>
       <c r="H262">
-        <v>-10.20196049845072</v>
+        <v>-10.27407826401404</v>
       </c>
       <c r="I262">
-        <v>-3.776921990513181</v>
+        <v>-4.649314498748842</v>
       </c>
       <c r="J262" t="s">
         <v>100</v>
       </c>
       <c r="K262">
-        <v>-10.40836424542627</v>
+        <v>-10.25026812789077</v>
       </c>
       <c r="L262">
-        <v>-12.03232639992354</v>
+        <v>-12.10297417906276</v>
       </c>
       <c r="M262">
-        <v>-5.738250343570217</v>
+        <v>-6.592860754238505</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11451,25 +11451,25 @@
         <v>100</v>
       </c>
       <c r="G263">
-        <v>-4.967271084981514</v>
+        <v>-4.60872285747762</v>
       </c>
       <c r="H263">
-        <v>-6.080032609135086</v>
+        <v>-5.766828479765103</v>
       </c>
       <c r="I263">
-        <v>-3.445689370480602</v>
+        <v>-3.249791722451121</v>
       </c>
       <c r="J263" t="s">
         <v>100</v>
       </c>
       <c r="K263">
-        <v>-6.961007370234185</v>
+        <v>-6.609981294512624</v>
       </c>
       <c r="L263">
-        <v>-8.050423747375069</v>
+        <v>-7.743790474640955</v>
       </c>
       <c r="M263">
-        <v>-5.47134763366458</v>
+        <v>-5.279559814464929</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11492,25 +11492,25 @@
         <v>100</v>
       </c>
       <c r="G264">
-        <v>-6.796080823651236</v>
+        <v>-6.793459775761833</v>
       </c>
       <c r="H264">
-        <v>-7.750267970122907</v>
+        <v>-7.716947687496125</v>
       </c>
       <c r="I264">
-        <v>-3.427435670839176</v>
+        <v>-4.18510720287497</v>
       </c>
       <c r="J264" t="s">
         <v>100</v>
       </c>
       <c r="K264">
-        <v>-8.459259379976746</v>
+        <v>-8.456685103410733</v>
       </c>
       <c r="L264">
-        <v>-9.396419521417322</v>
+        <v>-9.363693823010234</v>
       </c>
       <c r="M264">
-        <v>-5.150726059709254</v>
+        <v>-5.894877312169299</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11533,25 +11533,25 @@
         <v>100</v>
       </c>
       <c r="G265">
-        <v>-3.862195961565703</v>
+        <v>-4.439997891800433</v>
       </c>
       <c r="H265">
-        <v>-5.080955685063671</v>
+        <v>-5.56073651275524</v>
       </c>
       <c r="I265">
-        <v>-2.315317857522915</v>
+        <v>-2.773329096330655</v>
       </c>
       <c r="J265" t="s">
         <v>100</v>
       </c>
       <c r="K265">
-        <v>-6.021768348261913</v>
+        <v>-6.586590940077219</v>
       </c>
       <c r="L265">
-        <v>-7.213150705788096</v>
+        <v>-7.682154072547275</v>
       </c>
       <c r="M265">
-        <v>-4.509638231990298</v>
+        <v>-4.957361026683693</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11574,25 +11574,25 @@
         <v>101</v>
       </c>
       <c r="G266">
-        <v>4.073992832161712</v>
+        <v>4.1665883441171</v>
       </c>
       <c r="H266">
-        <v>3.137684820974289</v>
+        <v>3.26917777302772</v>
       </c>
       <c r="I266">
-        <v>4.949070827008621</v>
+        <v>4.940551933370736</v>
       </c>
       <c r="J266" t="s">
         <v>101</v>
       </c>
       <c r="K266">
-        <v>-0.650949773566023</v>
+        <v>-0.5625580830230126</v>
       </c>
       <c r="L266">
-        <v>-1.544749551007885</v>
+        <v>-1.419226357917336</v>
       </c>
       <c r="M266">
-        <v>0.1843998204703601</v>
+        <v>0.1762676832392174</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11615,25 +11615,25 @@
         <v>101</v>
       </c>
       <c r="G267">
-        <v>-6.496045603431413</v>
+        <v>-6.157049040036344</v>
       </c>
       <c r="H267">
-        <v>-10.26252651738411</v>
+        <v>-9.640814340342494</v>
       </c>
       <c r="I267">
-        <v>-4.428219613855951</v>
+        <v>-3.913941831207108</v>
       </c>
       <c r="J267" t="s">
         <v>101</v>
       </c>
       <c r="K267">
-        <v>-10.38126626047922</v>
+        <v>-10.05635548050657</v>
       </c>
       <c r="L267">
-        <v>-13.99124460140487</v>
+        <v>-13.39536543868409</v>
       </c>
       <c r="M267">
-        <v>-8.399361345597622</v>
+        <v>-7.906452527261598</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11656,25 +11656,25 @@
         <v>101</v>
       </c>
       <c r="G268">
-        <v>-2.96420761647237</v>
+        <v>-3.202251195085028</v>
       </c>
       <c r="H268">
-        <v>-6.396875602555212</v>
+        <v>-6.282930936687118</v>
       </c>
       <c r="I268">
-        <v>-1.244473512211346</v>
+        <v>-1.607185586462623</v>
       </c>
       <c r="J268" t="s">
         <v>101</v>
       </c>
       <c r="K268">
-        <v>-6.75971772778472</v>
+        <v>-6.988450341985541</v>
       </c>
       <c r="L268">
-        <v>-10.05811849421668</v>
+        <v>-9.948630721220898</v>
       </c>
       <c r="M268">
-        <v>-5.107250227125926</v>
+        <v>-5.455774986454531</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11697,25 +11697,25 @@
         <v>101</v>
       </c>
       <c r="G269">
-        <v>0.08947772687664204</v>
+        <v>-0.008942035714957575</v>
       </c>
       <c r="H269">
-        <v>-1.503030865770504</v>
+        <v>-1.909747095567332</v>
       </c>
       <c r="I269">
-        <v>1.490803613592802</v>
+        <v>1.327828078984042</v>
       </c>
       <c r="J269" t="s">
         <v>101</v>
       </c>
       <c r="K269">
-        <v>-4.033854747345556</v>
+        <v>-4.128219963820856</v>
       </c>
       <c r="L269">
-        <v>-5.560757618545553</v>
+        <v>-5.95071857819609</v>
       </c>
       <c r="M269">
-        <v>-2.690258530789458</v>
+        <v>-2.846520049803192</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11738,25 +11738,25 @@
         <v>101</v>
       </c>
       <c r="G270">
-        <v>1.063816801816267</v>
+        <v>0.7477698361104401</v>
       </c>
       <c r="H270">
-        <v>0.3591967531243213</v>
+        <v>-0.3131905822678802</v>
       </c>
       <c r="I270">
-        <v>2.567518454091314</v>
+        <v>2.088018812222333</v>
       </c>
       <c r="J270" t="s">
         <v>101</v>
       </c>
       <c r="K270">
-        <v>-2.837692573077366</v>
+        <v>-3.141538731029936</v>
       </c>
       <c r="L270">
-        <v>-3.515111178040931</v>
+        <v>-4.161541394697577</v>
       </c>
       <c r="M270">
-        <v>-1.39204044118505</v>
+        <v>-1.853029280600582</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11779,25 +11779,25 @@
         <v>101</v>
       </c>
       <c r="G271">
-        <v>1.883111737930451</v>
+        <v>1.682912573035059</v>
       </c>
       <c r="H271">
-        <v>0.6618739628932269</v>
+        <v>0.008670084944170889</v>
       </c>
       <c r="I271">
-        <v>2.859869923562316</v>
+        <v>2.885890166240018</v>
       </c>
       <c r="J271" t="s">
         <v>101</v>
       </c>
       <c r="K271">
-        <v>-2.054623408509604</v>
+        <v>-2.247084968276447</v>
       </c>
       <c r="L271">
-        <v>-3.228660908379588</v>
+        <v>-3.856618758561003</v>
       </c>
       <c r="M271">
-        <v>-1.115616474989378</v>
+        <v>-1.090601902656474</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarterly_tracker.xlsx
+++ b/Data/quarterly_tracker.xlsx
@@ -750,25 +750,25 @@
         <v>57</v>
       </c>
       <c r="G2">
-        <v>-4.413749789979433</v>
+        <v>-4.593015319165417</v>
       </c>
       <c r="H2">
-        <v>-6.89886037483504</v>
+        <v>-7.208720766141258</v>
       </c>
       <c r="I2">
-        <v>1.925748096653277</v>
+        <v>1.261098119798283</v>
       </c>
       <c r="J2" t="s">
         <v>57</v>
       </c>
       <c r="K2">
-        <v>4.241766008590253</v>
+        <v>4.046267646579493</v>
       </c>
       <c r="L2">
-        <v>1.5316239586322</v>
+        <v>1.193705122660482</v>
       </c>
       <c r="M2">
-        <v>11.15531742271447</v>
+        <v>10.43048213298712</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -791,25 +791,25 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>-19.7856963053727</v>
+        <v>-20.56055228157249</v>
       </c>
       <c r="H3">
-        <v>-23.0007963832328</v>
+        <v>-24.07613276174629</v>
       </c>
       <c r="I3">
-        <v>-12.44595917912335</v>
+        <v>-12.62270657283995</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
       </c>
       <c r="K3">
-        <v>-16.58492114350528</v>
+        <v>-17.39069604124913</v>
       </c>
       <c r="L3">
-        <v>-19.92831271051562</v>
+        <v>-21.04655801938772</v>
       </c>
       <c r="M3">
-        <v>-8.952307968892159</v>
+        <v>-9.136108078167894</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -832,25 +832,25 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>-11.16603966340782</v>
+        <v>-11.61748657236887</v>
       </c>
       <c r="H4">
-        <v>-13.32558658338638</v>
+        <v>-14.25044911519844</v>
       </c>
       <c r="I4">
-        <v>-6.129946279667854</v>
+        <v>-8.321655224767488</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
       </c>
       <c r="K4">
-        <v>-7.597856027136762</v>
+        <v>-8.067436153024044</v>
       </c>
       <c r="L4">
-        <v>-9.844145223970147</v>
+        <v>-10.80615660448047</v>
       </c>
       <c r="M4">
-        <v>-2.359478450116348</v>
+        <v>-4.639221520495795</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -873,25 +873,25 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>-7.716896989515697</v>
+        <v>-9.041526219876616</v>
       </c>
       <c r="H5">
-        <v>-10.96864206121841</v>
+        <v>-13.02833576085551</v>
       </c>
       <c r="I5">
-        <v>-4.573763827295306</v>
+        <v>-6.856749437392104</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
       </c>
       <c r="K5">
-        <v>-5.342868694419112</v>
+        <v>-6.701574664408428</v>
       </c>
       <c r="L5">
-        <v>-8.678266510306054</v>
+        <v>-10.79094684522799</v>
       </c>
       <c r="M5">
-        <v>-2.118876882901677</v>
+        <v>-4.460593422701309</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -914,25 +914,25 @@
         <v>57</v>
       </c>
       <c r="G6">
-        <v>-4.827654204253222</v>
+        <v>-4.385711727092907</v>
       </c>
       <c r="H6">
-        <v>-9.305087808523435</v>
+        <v>-9.202451111317576</v>
       </c>
       <c r="I6">
-        <v>-2.93937901942711</v>
+        <v>-2.043258929436561</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>-2.654062309207128</v>
+        <v>-2.20202653678967</v>
       </c>
       <c r="L6">
-        <v>-7.233753699722689</v>
+        <v>-7.12877293616735</v>
       </c>
       <c r="M6">
-        <v>-0.7226617857856832</v>
+        <v>0.1939243266434909</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -955,25 +955,25 @@
         <v>57</v>
       </c>
       <c r="G7">
-        <v>-6.939710906053183</v>
+        <v>-6.956900154701914</v>
       </c>
       <c r="H7">
-        <v>-10.70780614454476</v>
+        <v>-11.34498092751578</v>
       </c>
       <c r="I7">
-        <v>-4.50572389366176</v>
+        <v>-4.451716249127159</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
       </c>
       <c r="K7">
-        <v>-5.423570405613098</v>
+        <v>-5.441039701920203</v>
       </c>
       <c r="L7">
-        <v>-9.253055543665656</v>
+        <v>-9.900611193746878</v>
       </c>
       <c r="M7">
-        <v>-2.949928817430425</v>
+        <v>-2.895041279033361</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -996,25 +996,25 @@
         <v>58</v>
       </c>
       <c r="G8">
-        <v>3.831279301978824</v>
+        <v>3.456859820322394</v>
       </c>
       <c r="H8">
-        <v>2.775108017169178</v>
+        <v>2.211741119742809</v>
       </c>
       <c r="I8">
-        <v>4.968221361924472</v>
+        <v>4.780251767102667</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
       </c>
       <c r="K8">
-        <v>-0.02662924587745197</v>
+        <v>-0.3871369648311807</v>
       </c>
       <c r="L8">
-        <v>-1.043557903079495</v>
+        <v>-1.585992592179331</v>
       </c>
       <c r="M8">
-        <v>1.068069103685665</v>
+        <v>0.887083623010132</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1037,25 +1037,25 @@
         <v>58</v>
       </c>
       <c r="G9">
-        <v>-5.875546452018774</v>
+        <v>-5.696392286024376</v>
       </c>
       <c r="H9">
-        <v>-8.936959937682508</v>
+        <v>-9.021235013573502</v>
       </c>
       <c r="I9">
-        <v>-3.713094475803683</v>
+        <v>-3.575046766098201</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
       </c>
       <c r="K9">
-        <v>-9.276504290495968</v>
+        <v>-9.103823423863933</v>
       </c>
       <c r="L9">
-        <v>-12.22730105756616</v>
+        <v>-12.30853105888689</v>
       </c>
       <c r="M9">
-        <v>-7.192187248632342</v>
+        <v>-7.059127556627987</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1078,25 +1078,25 @@
         <v>58</v>
       </c>
       <c r="G10">
-        <v>-1.214377529557449</v>
+        <v>-0.8874892036956215</v>
       </c>
       <c r="H10">
-        <v>-2.78542920822908</v>
+        <v>-2.567031503515997</v>
       </c>
       <c r="I10">
-        <v>1.253026223853828</v>
+        <v>1.369434542343455</v>
       </c>
       <c r="J10" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>-5.059914891268569</v>
+        <v>-4.745751709398061</v>
       </c>
       <c r="L10">
-        <v>-6.569808500816132</v>
+        <v>-6.359912605497797</v>
       </c>
       <c r="M10">
-        <v>-2.688562497183455</v>
+        <v>-2.576685734266104</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1119,25 +1119,25 @@
         <v>58</v>
       </c>
       <c r="G11">
-        <v>1.312750017598994</v>
+        <v>0.8773145441847507</v>
       </c>
       <c r="H11">
-        <v>0.04949333902473643</v>
+        <v>-0.6475624638594243</v>
       </c>
       <c r="I11">
-        <v>3.689258549218555</v>
+        <v>3.211948892955255</v>
       </c>
       <c r="J11" t="s">
         <v>58</v>
       </c>
       <c r="K11">
-        <v>-3.06874229412929</v>
+        <v>-3.48534640447532</v>
       </c>
       <c r="L11">
-        <v>-4.277366664095283</v>
+        <v>-4.944276758362786</v>
       </c>
       <c r="M11">
-        <v>-0.7950110917031239</v>
+        <v>-1.251678443924054</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1160,25 +1160,25 @@
         <v>58</v>
       </c>
       <c r="G12">
-        <v>2.370742183924419</v>
+        <v>2.863557645939431</v>
       </c>
       <c r="H12">
-        <v>1.313827173084389</v>
+        <v>1.694983143101956</v>
       </c>
       <c r="I12">
-        <v>4.83380706411041</v>
+        <v>5.505166006770429</v>
       </c>
       <c r="J12" t="s">
         <v>58</v>
       </c>
       <c r="K12">
-        <v>-2.108799170480524</v>
+        <v>-1.637548339092287</v>
       </c>
       <c r="L12">
-        <v>-3.119465669312671</v>
+        <v>-2.754988331233754</v>
       </c>
       <c r="M12">
-        <v>0.2464868585025259</v>
+        <v>0.8884684606926374</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1201,25 +1201,25 @@
         <v>58</v>
       </c>
       <c r="G13">
-        <v>3.650238865525563</v>
+        <v>4.217588344054717</v>
       </c>
       <c r="H13">
-        <v>2.427408632044111</v>
+        <v>2.760862299283401</v>
       </c>
       <c r="I13">
-        <v>5.613821910632621</v>
+        <v>6.238547250655882</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13">
-        <v>-0.975364695330283</v>
+        <v>-0.4333343457954886</v>
       </c>
       <c r="L13">
-        <v>-2.143623632650482</v>
+        <v>-1.825051016216717</v>
       </c>
       <c r="M13">
-        <v>0.9005894467959852</v>
+        <v>1.497435142845482</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1242,25 +1242,25 @@
         <v>59</v>
       </c>
       <c r="G14">
-        <v>2.602629285248526</v>
+        <v>2.489509805459649</v>
       </c>
       <c r="H14">
-        <v>1.784228932256315</v>
+        <v>1.437911610971357</v>
       </c>
       <c r="I14">
-        <v>3.627795823632187</v>
+        <v>3.66158640185089</v>
       </c>
       <c r="J14" t="s">
         <v>59</v>
       </c>
       <c r="K14">
-        <v>-0.2176064708533376</v>
+        <v>-0.32761663849461</v>
       </c>
       <c r="L14">
-        <v>-1.013511474999285</v>
+        <v>-1.350309581238307</v>
       </c>
       <c r="M14">
-        <v>0.7793813420176487</v>
+        <v>0.8122431195070057</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1283,25 +1283,25 @@
         <v>59</v>
       </c>
       <c r="G15">
-        <v>-12.62288972311184</v>
+        <v>-13.18753134539947</v>
       </c>
       <c r="H15">
-        <v>-14.13251089755405</v>
+        <v>-15.41561794852836</v>
       </c>
       <c r="I15">
-        <v>-9.714896450087114</v>
+        <v>-9.61165034683644</v>
       </c>
       <c r="J15" t="s">
         <v>59</v>
       </c>
       <c r="K15">
-        <v>-15.15147190946325</v>
+        <v>-15.69977352298584</v>
       </c>
       <c r="L15">
-        <v>-16.61740657152554</v>
+        <v>-17.86338214010138</v>
       </c>
       <c r="M15">
-        <v>-12.32763225475915</v>
+        <v>-12.22737396212229</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1324,25 +1324,25 @@
         <v>59</v>
       </c>
       <c r="G16">
-        <v>-4.194179482523401</v>
+        <v>-4.297486187305302</v>
       </c>
       <c r="H16">
-        <v>-6.294309869893811</v>
+        <v>-6.749704283582904</v>
       </c>
       <c r="I16">
-        <v>-2.771900541174529</v>
+        <v>-2.510348019739324</v>
       </c>
       <c r="J16" t="s">
         <v>59</v>
       </c>
       <c r="K16">
-        <v>-7.00865877318384</v>
+        <v>-7.108930645847778</v>
       </c>
       <c r="L16">
-        <v>-9.047093812077357</v>
+        <v>-9.489110143521684</v>
       </c>
       <c r="M16">
-        <v>-5.628161997097458</v>
+        <v>-5.374293081428827</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1365,25 +1365,25 @@
         <v>59</v>
       </c>
       <c r="G17">
-        <v>-4.236826389787145</v>
+        <v>-4.456443429452993</v>
       </c>
       <c r="H17">
-        <v>-5.72691678444868</v>
+        <v>-6.46450009766493</v>
       </c>
       <c r="I17">
-        <v>-1.987013052049692</v>
+        <v>-1.897078211742317</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
       </c>
       <c r="K17">
-        <v>-6.688066665838543</v>
+        <v>-6.902062190336922</v>
       </c>
       <c r="L17">
-        <v>-8.14001536727238</v>
+        <v>-8.858718834968283</v>
       </c>
       <c r="M17">
-        <v>-4.495841572716996</v>
+        <v>-4.408208785427192</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1406,25 +1406,25 @@
         <v>59</v>
       </c>
       <c r="G18">
-        <v>-5.183413311678208</v>
+        <v>-5.770040536519444</v>
       </c>
       <c r="H18">
-        <v>-6.699658486340072</v>
+        <v>-7.651636468775338</v>
       </c>
       <c r="I18">
-        <v>-2.37691838503217</v>
+        <v>-1.343619291021282</v>
       </c>
       <c r="J18" t="s">
         <v>59</v>
       </c>
       <c r="K18">
-        <v>-7.417233752776376</v>
+        <v>-7.990040401155996</v>
       </c>
       <c r="L18">
-        <v>-8.897757124078975</v>
+        <v>-9.827307091006476</v>
       </c>
       <c r="M18">
-        <v>-4.676858119747052</v>
+        <v>-3.667902916595234</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1447,25 +1447,25 @@
         <v>59</v>
       </c>
       <c r="G19">
-        <v>-4.85417652243057</v>
+        <v>-5.14554710447329</v>
       </c>
       <c r="H19">
-        <v>-6.4291862797629</v>
+        <v>-6.710568672193789</v>
       </c>
       <c r="I19">
-        <v>-2.669869979995769</v>
+        <v>-1.168456398116016</v>
       </c>
       <c r="J19" t="s">
         <v>59</v>
       </c>
       <c r="K19">
-        <v>-7.272827089288869</v>
+        <v>-7.556790897206723</v>
       </c>
       <c r="L19">
-        <v>-8.80779937463193</v>
+        <v>-9.082028897308991</v>
       </c>
       <c r="M19">
-        <v>-5.144046623185705</v>
+        <v>-3.680799664686518</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1488,25 +1488,25 @@
         <v>60</v>
       </c>
       <c r="G20">
-        <v>2.7935401717748</v>
+        <v>3.095591302283335</v>
       </c>
       <c r="H20">
-        <v>1.742038834887281</v>
+        <v>2.123267781210717</v>
       </c>
       <c r="I20">
-        <v>3.666338694579869</v>
+        <v>4.058225949647147</v>
       </c>
       <c r="J20" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0.2450924593058845</v>
+        <v>0.5396551667938176</v>
       </c>
       <c r="L20">
-        <v>-0.7803401560241063</v>
+        <v>-0.4085626016321231</v>
       </c>
       <c r="M20">
-        <v>1.096252643795426</v>
+        <v>1.478424267150324</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1529,25 +1529,25 @@
         <v>60</v>
       </c>
       <c r="G21">
-        <v>-12.91076825021682</v>
+        <v>-13.67066838658666</v>
       </c>
       <c r="H21">
-        <v>-15.23182183144372</v>
+        <v>-15.30913450471209</v>
       </c>
       <c r="I21">
-        <v>-10.16908632001858</v>
+        <v>-11.45119745273975</v>
       </c>
       <c r="J21" t="s">
         <v>60</v>
       </c>
       <c r="K21">
-        <v>-15.05764431373825</v>
+        <v>-15.79881180795865</v>
       </c>
       <c r="L21">
-        <v>-17.32148055275684</v>
+        <v>-17.39688735632914</v>
       </c>
       <c r="M21">
-        <v>-12.38354882553141</v>
+        <v>-13.63405405650893</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1570,25 +1570,25 @@
         <v>60</v>
       </c>
       <c r="G22">
-        <v>-2.522669195220175</v>
+        <v>-4.649472497070297</v>
       </c>
       <c r="H22">
-        <v>-4.040479644958348</v>
+        <v>-6.35888409067578</v>
       </c>
       <c r="I22">
-        <v>-0.244429339605171</v>
+        <v>-3.266991785007359</v>
       </c>
       <c r="J22" t="s">
         <v>60</v>
       </c>
       <c r="K22">
-        <v>-5.022058795630635</v>
+        <v>-7.094329315234105</v>
       </c>
       <c r="L22">
-        <v>-6.50095148241665</v>
+        <v>-8.759910353318567</v>
       </c>
       <c r="M22">
-        <v>-2.802234665552572</v>
+        <v>-5.747296413302716</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1611,25 +1611,25 @@
         <v>60</v>
       </c>
       <c r="G23">
-        <v>-2.616378443347326</v>
+        <v>-3.28152266560393</v>
       </c>
       <c r="H23">
-        <v>-3.984476444444913</v>
+        <v>-4.529722983857283</v>
       </c>
       <c r="I23">
-        <v>-1.602528249402289</v>
+        <v>-2.194832333426104</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
       </c>
       <c r="K23">
-        <v>-4.606390470704258</v>
+        <v>-5.257942622948885</v>
       </c>
       <c r="L23">
-        <v>-5.946531702139069</v>
+        <v>-6.480636253258531</v>
       </c>
       <c r="M23">
-        <v>-3.613258073526671</v>
+        <v>-4.193458559099128</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1652,25 +1652,25 @@
         <v>60</v>
       </c>
       <c r="G24">
-        <v>-2.549150442318434</v>
+        <v>-2.528519260519122</v>
       </c>
       <c r="H24">
-        <v>-4.562516869945814</v>
+        <v>-4.244473893146917</v>
       </c>
       <c r="I24">
-        <v>-1.101313813812735</v>
+        <v>-1.382467637391499</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
       </c>
       <c r="K24">
-        <v>-4.768342822480076</v>
+        <v>-4.748181462766976</v>
       </c>
       <c r="L24">
-        <v>-6.735860009644757</v>
+        <v>-6.425059643391373</v>
       </c>
       <c r="M24">
-        <v>-3.353476948239542</v>
+        <v>-3.628228216830109</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1693,25 +1693,25 @@
         <v>60</v>
       </c>
       <c r="G25">
-        <v>-3.356751571333464</v>
+        <v>-2.62106143423147</v>
       </c>
       <c r="H25">
-        <v>-4.890667574061814</v>
+        <v>-3.900918479444033</v>
       </c>
       <c r="I25">
-        <v>-1.681547481570676</v>
+        <v>-1.356429519723033</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
       </c>
       <c r="K25">
-        <v>-5.48284944657953</v>
+        <v>-4.763344084542154</v>
       </c>
       <c r="L25">
-        <v>-6.983020147828145</v>
+        <v>-6.015044984460694</v>
       </c>
       <c r="M25">
-        <v>-3.844498917864803</v>
+        <v>-3.526533370894847</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1734,25 +1734,25 @@
         <v>61</v>
       </c>
       <c r="G26">
-        <v>1.999040035100657</v>
+        <v>2.23244225915868</v>
       </c>
       <c r="H26">
-        <v>0.9174564347508379</v>
+        <v>1.1221013577217</v>
       </c>
       <c r="I26">
-        <v>3.044369362905567</v>
+        <v>3.382978588858439</v>
       </c>
       <c r="J26" t="s">
         <v>61</v>
       </c>
       <c r="K26">
-        <v>-0.04999789503101759</v>
+        <v>0.1787155593100831</v>
       </c>
       <c r="L26">
-        <v>-1.109853782836068</v>
+        <v>-0.90931993002068</v>
       </c>
       <c r="M26">
-        <v>0.9743320249224752</v>
+        <v>1.306138999136186</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1775,25 +1775,25 @@
         <v>61</v>
       </c>
       <c r="G27">
-        <v>-9.406559644668489</v>
+        <v>-10.25961072248381</v>
       </c>
       <c r="H27">
-        <v>-12.88161889474829</v>
+        <v>-14.09939089716912</v>
       </c>
       <c r="I27">
-        <v>-6.961393130123332</v>
+        <v>-8.031259706833543</v>
       </c>
       <c r="J27" t="s">
         <v>61</v>
       </c>
       <c r="K27">
-        <v>-11.70301571566643</v>
+        <v>-12.53444277391879</v>
       </c>
       <c r="L27">
-        <v>-15.08998557560249</v>
+        <v>-16.27688823586035</v>
       </c>
       <c r="M27">
-        <v>-9.319831806759204</v>
+        <v>-10.36257830076136</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1816,25 +1816,25 @@
         <v>61</v>
       </c>
       <c r="G28">
-        <v>-3.582246422079273</v>
+        <v>-3.154818225198614</v>
       </c>
       <c r="H28">
-        <v>-5.455692374863553</v>
+        <v>-5.453166736620377</v>
       </c>
       <c r="I28">
-        <v>-0.7721309307905179</v>
+        <v>-0.3698847706813712</v>
       </c>
       <c r="J28" t="s">
         <v>61</v>
       </c>
       <c r="K28">
-        <v>-5.963321879246819</v>
+        <v>-5.546449194722824</v>
       </c>
       <c r="L28">
-        <v>-7.790502325804605</v>
+        <v>-7.788039059220287</v>
       </c>
       <c r="M28">
-        <v>-3.222603327627549</v>
+        <v>-2.83029079928262</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1857,25 +1857,25 @@
         <v>61</v>
       </c>
       <c r="G29">
-        <v>0.01248087361678079</v>
+        <v>0.02440064580046223</v>
       </c>
       <c r="H29">
-        <v>-1.283761301822499</v>
+        <v>-1.165234257289348</v>
       </c>
       <c r="I29">
-        <v>2.863684895082925</v>
+        <v>2.271424043914391</v>
       </c>
       <c r="J29" t="s">
         <v>61</v>
       </c>
       <c r="K29">
-        <v>-2.78190838524921</v>
+        <v>-2.770321656332397</v>
       </c>
       <c r="L29">
-        <v>-4.041933028833499</v>
+        <v>-3.926717677973346</v>
       </c>
       <c r="M29">
-        <v>-0.01036815996955376</v>
+        <v>-0.5860810028645802</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1898,25 +1898,25 @@
         <v>61</v>
       </c>
       <c r="G30">
-        <v>1.972560915723775</v>
+        <v>2.231465487544209</v>
       </c>
       <c r="H30">
-        <v>0.8849774166293118</v>
+        <v>0.8848166259581867</v>
       </c>
       <c r="I30">
-        <v>4.332253555755596</v>
+        <v>4.00084635300653</v>
       </c>
       <c r="J30" t="s">
         <v>61</v>
       </c>
       <c r="K30">
-        <v>-1.411667235809122</v>
+        <v>-1.161355094468497</v>
       </c>
       <c r="L30">
-        <v>-2.46315641049194</v>
+        <v>-2.463311864900941</v>
       </c>
       <c r="M30">
-        <v>0.8697127857138609</v>
+        <v>0.549304204310519</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1939,25 +1939,25 @@
         <v>61</v>
       </c>
       <c r="G31">
-        <v>-2.346534433416638</v>
+        <v>-2.333094936563455</v>
       </c>
       <c r="H31">
-        <v>-3.901242343248571</v>
+        <v>-4.144999977934995</v>
       </c>
       <c r="I31">
-        <v>-0.3836998569135256</v>
+        <v>-0.6621377839911076</v>
       </c>
       <c r="J31" t="s">
         <v>61</v>
       </c>
       <c r="K31">
-        <v>-5.597204163025271</v>
+        <v>-5.584212037551572</v>
       </c>
       <c r="L31">
-        <v>-7.100159255775385</v>
+        <v>-7.33580273332628</v>
       </c>
       <c r="M31">
-        <v>-3.699708045378158</v>
+        <v>-3.968877384435099</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1980,25 +1980,25 @@
         <v>62</v>
       </c>
       <c r="G32">
-        <v>6.101932539478522</v>
+        <v>7.742326342693771</v>
       </c>
       <c r="H32">
-        <v>4.077624735154457</v>
+        <v>4.587836595837061</v>
       </c>
       <c r="I32">
-        <v>7.817784939274184</v>
+        <v>9.892714423754409</v>
       </c>
       <c r="J32" t="s">
         <v>62</v>
       </c>
       <c r="K32">
-        <v>-0.2173778477563504</v>
+        <v>1.325315966856344</v>
       </c>
       <c r="L32">
-        <v>-2.121120182360392</v>
+        <v>-1.641295959619282</v>
       </c>
       <c r="M32">
-        <v>1.396280335275568</v>
+        <v>3.347629380359218</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2021,25 +2021,25 @@
         <v>62</v>
       </c>
       <c r="G33">
-        <v>-6.229254422705692</v>
+        <v>-9.136465835440081</v>
       </c>
       <c r="H33">
-        <v>-11.38428545614559</v>
+        <v>-13.89986093156346</v>
       </c>
       <c r="I33">
-        <v>-3.643080642754959</v>
+        <v>-6.265339187858237</v>
       </c>
       <c r="J33" t="s">
         <v>62</v>
       </c>
       <c r="K33">
-        <v>-11.83574561662837</v>
+        <v>-14.56913677141321</v>
       </c>
       <c r="L33">
-        <v>-16.68256073565436</v>
+        <v>-19.04773160818942</v>
       </c>
       <c r="M33">
-        <v>-9.404197465747588</v>
+        <v>-11.86967289740967</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2062,25 +2062,25 @@
         <v>62</v>
       </c>
       <c r="G34">
-        <v>-0.3296687007671884</v>
+        <v>-2.205005689334941</v>
       </c>
       <c r="H34">
-        <v>-2.576512403297374</v>
+        <v>-4.576364680867101</v>
       </c>
       <c r="I34">
-        <v>2.659878649414787</v>
+        <v>0.8779399635895148</v>
       </c>
       <c r="J34" t="s">
         <v>62</v>
       </c>
       <c r="K34">
-        <v>-6.277821680807838</v>
+        <v>-8.041241801520083</v>
       </c>
       <c r="L34">
-        <v>-8.390577637359053</v>
+        <v>-10.27108218998991</v>
       </c>
       <c r="M34">
-        <v>-3.466685345700848</v>
+        <v>-5.142281012834637</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2103,25 +2103,25 @@
         <v>62</v>
       </c>
       <c r="G35">
-        <v>-0.2538657593573786</v>
+        <v>-0.9146104444771908</v>
       </c>
       <c r="H35">
-        <v>-1.961573568768054</v>
+        <v>-2.60138760629441</v>
       </c>
       <c r="I35">
-        <v>3.219673265731271</v>
+        <v>2.060115731379458</v>
       </c>
       <c r="J35" t="s">
         <v>62</v>
       </c>
       <c r="K35">
-        <v>-6.099057600378133</v>
+        <v>-6.72108219401909</v>
       </c>
       <c r="L35">
-        <v>-7.706692561548567</v>
+        <v>-8.309013057892701</v>
       </c>
       <c r="M35">
-        <v>-2.829070343219986</v>
+        <v>-3.920677011199025</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2144,25 +2144,25 @@
         <v>62</v>
       </c>
       <c r="G36">
-        <v>2.098442058647402</v>
+        <v>1.489900611012629</v>
       </c>
       <c r="H36">
-        <v>0.008238585065945908</v>
+        <v>-0.550506725486646</v>
       </c>
       <c r="I36">
-        <v>5.564793349784871</v>
+        <v>4.893130145000983</v>
       </c>
       <c r="J36" t="s">
         <v>62</v>
       </c>
       <c r="K36">
-        <v>-3.448813997323019</v>
+        <v>-4.024291911737954</v>
       </c>
       <c r="L36">
-        <v>-5.425451645185253</v>
+        <v>-5.953838967455061</v>
       </c>
       <c r="M36">
-        <v>-0.1707979814764005</v>
+        <v>-0.8059680948361403</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2185,25 +2185,25 @@
         <v>62</v>
       </c>
       <c r="G37">
-        <v>0.5953939562934151</v>
+        <v>1.838270721021994</v>
       </c>
       <c r="H37">
-        <v>-1.436786988175113</v>
+        <v>-0.1273506801198453</v>
       </c>
       <c r="I37">
-        <v>3.963387095308592</v>
+        <v>5.276707424356555</v>
       </c>
       <c r="J37" t="s">
         <v>62</v>
       </c>
       <c r="K37">
-        <v>-4.696674315433791</v>
+        <v>-3.519182141724819</v>
       </c>
       <c r="L37">
-        <v>-6.621947379971926</v>
+        <v>-5.381397191520875</v>
       </c>
       <c r="M37">
-        <v>-1.505862744375119</v>
+        <v>-0.2616328634145515</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2226,25 +2226,25 @@
         <v>63</v>
       </c>
       <c r="G38">
-        <v>3.187785491396209</v>
+        <v>3.612686272927689</v>
       </c>
       <c r="H38">
-        <v>2.446646733696058</v>
+        <v>2.903497618284186</v>
       </c>
       <c r="I38">
-        <v>4.088763780862973</v>
+        <v>4.423040993039949</v>
       </c>
       <c r="J38" t="s">
         <v>63</v>
       </c>
       <c r="K38">
-        <v>-0.05829355134291392</v>
+        <v>0.3532407109285263</v>
       </c>
       <c r="L38">
-        <v>-0.7761175826180633</v>
+        <v>-0.3336383029156842</v>
       </c>
       <c r="M38">
-        <v>0.8143417832918276</v>
+        <v>1.138103310421901</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2267,25 +2267,25 @@
         <v>63</v>
       </c>
       <c r="G39">
-        <v>-10.15751254605025</v>
+        <v>-9.492948314849796</v>
       </c>
       <c r="H39">
-        <v>-11.50709751731879</v>
+        <v>-11.11957840787903</v>
       </c>
       <c r="I39">
-        <v>-7.267213770751162</v>
+        <v>-5.865927732684347</v>
       </c>
       <c r="J39" t="s">
         <v>63</v>
       </c>
       <c r="K39">
-        <v>-12.8065993899047</v>
+        <v>-12.16163043496674</v>
       </c>
       <c r="L39">
-        <v>-14.11639063001812</v>
+        <v>-13.74029787133567</v>
       </c>
       <c r="M39">
-        <v>-10.00152368308287</v>
+        <v>-8.641555828796555</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2308,25 +2308,25 @@
         <v>63</v>
       </c>
       <c r="G40">
-        <v>-3.589320259267349</v>
+        <v>-3.708446033500313</v>
       </c>
       <c r="H40">
-        <v>-4.841964925169652</v>
+        <v>-5.091521121611989</v>
       </c>
       <c r="I40">
-        <v>-1.483318122767892</v>
+        <v>-0.4656078984324704</v>
       </c>
       <c r="J40" t="s">
         <v>63</v>
       </c>
       <c r="K40">
-        <v>-6.370688140534431</v>
+        <v>-6.486377235312646</v>
       </c>
       <c r="L40">
-        <v>-7.587195050228079</v>
+        <v>-7.829551758074105</v>
       </c>
       <c r="M40">
-        <v>-4.325442413139147</v>
+        <v>-3.337092281876564</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2349,25 +2349,25 @@
         <v>63</v>
       </c>
       <c r="G41">
-        <v>-1.238051852891189</v>
+        <v>-0.8869112777983343</v>
       </c>
       <c r="H41">
-        <v>-2.218934924335112</v>
+        <v>-1.764491930286929</v>
       </c>
       <c r="I41">
-        <v>-0.1174187735315271</v>
+        <v>0.7362387600699223</v>
       </c>
       <c r="J41" t="s">
         <v>63</v>
       </c>
       <c r="K41">
-        <v>-4.462100808712566</v>
+        <v>-4.122423093817529</v>
       </c>
       <c r="L41">
-        <v>-5.410963298327132</v>
+        <v>-4.971355435500325</v>
       </c>
       <c r="M41">
-        <v>-3.378050400889387</v>
+        <v>-2.552260216317326</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2390,25 +2390,25 @@
         <v>63</v>
       </c>
       <c r="G42">
-        <v>-0.5780975059406217</v>
+        <v>-1.189573985042635</v>
       </c>
       <c r="H42">
-        <v>-2.455551188897835</v>
+        <v>-3.525960736849577</v>
       </c>
       <c r="I42">
-        <v>0.2366700325548564</v>
+        <v>-0.1552452827012681</v>
       </c>
       <c r="J42" t="s">
         <v>63</v>
       </c>
       <c r="K42">
-        <v>-4.104753979113718</v>
+        <v>-4.694540393661317</v>
       </c>
       <c r="L42">
-        <v>-5.915611328486592</v>
+        <v>-6.948051710021952</v>
       </c>
       <c r="M42">
-        <v>-3.318887569460927</v>
+        <v>-3.696901011499865</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2431,25 +2431,25 @@
         <v>63</v>
       </c>
       <c r="G43">
-        <v>-0.7242879878470894</v>
+        <v>-0.4708169849137618</v>
       </c>
       <c r="H43">
-        <v>-3.177554720615355</v>
+        <v>-3.522078323560047</v>
       </c>
       <c r="I43">
-        <v>0.3392794713284183</v>
+        <v>0.660562197755026</v>
       </c>
       <c r="J43" t="s">
         <v>63</v>
       </c>
       <c r="K43">
-        <v>-3.769036243770163</v>
+        <v>-3.523339099905343</v>
       </c>
       <c r="L43">
-        <v>-6.147062220722999</v>
+        <v>-6.481019416054689</v>
       </c>
       <c r="M43">
-        <v>-2.738087993268623</v>
+        <v>-2.426658885628707</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2472,25 +2472,25 @@
         <v>64</v>
       </c>
       <c r="G44">
-        <v>3.226216110815295</v>
+        <v>2.204196309599141</v>
       </c>
       <c r="H44">
-        <v>1.509645393965706</v>
+        <v>0.5159427702882228</v>
       </c>
       <c r="I44">
-        <v>5.943290802441985</v>
+        <v>3.955020395444534</v>
       </c>
       <c r="J44" t="s">
         <v>64</v>
       </c>
       <c r="K44">
-        <v>-1.22252411556506</v>
+        <v>-2.200497929500767</v>
       </c>
       <c r="L44">
-        <v>-2.865115784386041</v>
+        <v>-3.815992806180879</v>
       </c>
       <c r="M44">
-        <v>1.377452808322621</v>
+        <v>-0.5251291091245114</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2513,25 +2513,25 @@
         <v>64</v>
       </c>
       <c r="G45">
-        <v>-10.96375544129751</v>
+        <v>-11.74627029490286</v>
       </c>
       <c r="H45">
-        <v>-14.18234801339219</v>
+        <v>-14.60600976573912</v>
       </c>
       <c r="I45">
-        <v>-7.374919809818118</v>
+        <v>-8.568436354412638</v>
       </c>
       <c r="J45" t="s">
         <v>64</v>
       </c>
       <c r="K45">
-        <v>-14.61283452331825</v>
+        <v>-15.36327863317407</v>
       </c>
       <c r="L45">
-        <v>-17.69951565994538</v>
+        <v>-18.10581397512125</v>
       </c>
       <c r="M45">
-        <v>-11.17108444218468</v>
+        <v>-12.31568566832083</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2554,25 +2554,25 @@
         <v>64</v>
       </c>
       <c r="G46">
-        <v>-7.043004347082048</v>
+        <v>-8.236098782828105</v>
       </c>
       <c r="H46">
-        <v>-9.714143597534925</v>
+        <v>-11.34445181608815</v>
       </c>
       <c r="I46">
-        <v>1.148566613279029</v>
+        <v>-0.3387083825274086</v>
       </c>
       <c r="J46" t="s">
         <v>64</v>
       </c>
       <c r="K46">
-        <v>-11.56719835934452</v>
+        <v>-12.70222518367141</v>
       </c>
       <c r="L46">
-        <v>-14.10833392241555</v>
+        <v>-15.65929544275941</v>
       </c>
       <c r="M46">
-        <v>-3.774309133796216</v>
+        <v>-5.189198823006269</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2595,25 +2595,25 @@
         <v>64</v>
       </c>
       <c r="G47">
-        <v>-2.069202415263255</v>
+        <v>-3.747116975982821</v>
       </c>
       <c r="H47">
-        <v>-4.945550714954888</v>
+        <v>-6.432740360859682</v>
       </c>
       <c r="I47">
-        <v>5.258335660393012</v>
+        <v>2.272782626967442</v>
       </c>
       <c r="J47" t="s">
         <v>64</v>
       </c>
       <c r="K47">
-        <v>-6.514368112181412</v>
+        <v>-8.116120643880276</v>
       </c>
       <c r="L47">
-        <v>-9.260156413287158</v>
+        <v>-10.67984120309121</v>
       </c>
       <c r="M47">
-        <v>0.4805665159374861</v>
+        <v>-2.369469619251563</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2636,25 +2636,25 @@
         <v>64</v>
       </c>
       <c r="G48">
-        <v>0.6182071922391079</v>
+        <v>0.762073462272979</v>
       </c>
       <c r="H48">
-        <v>-3.457437604188781</v>
+        <v>-2.873776531551285</v>
       </c>
       <c r="I48">
-        <v>5.261234767026052</v>
+        <v>4.542558824902523</v>
       </c>
       <c r="J48" t="s">
         <v>64</v>
       </c>
       <c r="K48">
-        <v>-4.790607856951201</v>
+        <v>-4.654475237398136</v>
       </c>
       <c r="L48">
-        <v>-8.647162992320467</v>
+        <v>-8.094877103970211</v>
       </c>
       <c r="M48">
-        <v>-0.3971700743211737</v>
+        <v>-1.077212996042909</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2677,25 +2677,25 @@
         <v>64</v>
       </c>
       <c r="G49">
-        <v>-3.30466003468511</v>
+        <v>-4.624017247970859</v>
       </c>
       <c r="H49">
-        <v>-7.021297602427884</v>
+        <v>-9.280995896331584</v>
       </c>
       <c r="I49">
-        <v>1.781913129887006</v>
+        <v>1.489419798372827</v>
       </c>
       <c r="J49" t="s">
         <v>64</v>
       </c>
       <c r="K49">
-        <v>-8.573945408142814</v>
+        <v>-9.821405985367015</v>
       </c>
       <c r="L49">
-        <v>-12.08804969991618</v>
+        <v>-14.2246087073479</v>
       </c>
       <c r="M49">
-        <v>-3.764558358089931</v>
+        <v>-4.041112650203294</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2718,25 +2718,25 @@
         <v>65</v>
       </c>
       <c r="G50">
-        <v>4.643924664610813</v>
+        <v>4.428642182090847</v>
       </c>
       <c r="H50">
-        <v>2.320986806347195</v>
+        <v>2.406671897877032</v>
       </c>
       <c r="I50">
-        <v>6.316254098957662</v>
+        <v>6.124841307718747</v>
       </c>
       <c r="J50" t="s">
         <v>65</v>
       </c>
       <c r="K50">
-        <v>-1.973612817353776</v>
+        <v>-2.175281132573992</v>
       </c>
       <c r="L50">
-        <v>-4.149651289010825</v>
+        <v>-4.069384804501541</v>
       </c>
       <c r="M50">
-        <v>-0.407039190135261</v>
+        <v>-0.5863473004324882</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2759,25 +2759,25 @@
         <v>65</v>
       </c>
       <c r="G51">
-        <v>-10.31262559647464</v>
+        <v>-11.37436966445916</v>
       </c>
       <c r="H51">
-        <v>-12.30034581431815</v>
+        <v>-13.62652081281558</v>
       </c>
       <c r="I51">
-        <v>-6.675129072079746</v>
+        <v>-8.151010926782725</v>
       </c>
       <c r="J51" t="s">
         <v>65</v>
       </c>
       <c r="K51">
-        <v>-16.09962392526353</v>
+        <v>-17.09285989845889</v>
       </c>
       <c r="L51">
-        <v>-17.95908825809244</v>
+        <v>-19.19969299041777</v>
       </c>
       <c r="M51">
-        <v>-12.69683363959672</v>
+        <v>-14.07748552594061</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2800,25 +2800,25 @@
         <v>65</v>
       </c>
       <c r="G52">
-        <v>-7.082730219869251</v>
+        <v>-7.731257779236183</v>
       </c>
       <c r="H52">
-        <v>-8.855451933938957</v>
+        <v>-9.805309864965034</v>
       </c>
       <c r="I52">
-        <v>-3.304882496368284</v>
+        <v>-5.417046420973687</v>
       </c>
       <c r="J52" t="s">
         <v>65</v>
       </c>
       <c r="K52">
-        <v>-13.17681411231494</v>
+        <v>-13.7828072605579</v>
       </c>
       <c r="L52">
-        <v>-14.83326987422027</v>
+        <v>-15.72083030198054</v>
       </c>
       <c r="M52">
-        <v>-9.646740790864072</v>
+        <v>-11.62037606324368</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2841,25 +2841,25 @@
         <v>65</v>
       </c>
       <c r="G53">
-        <v>-0.09721514645584592</v>
+        <v>-1.367721196205311</v>
       </c>
       <c r="H53">
-        <v>-2.07079469625332</v>
+        <v>-3.236249735372244</v>
       </c>
       <c r="I53">
-        <v>1.904550523073788</v>
+        <v>0.1515103495534402</v>
       </c>
       <c r="J53" t="s">
         <v>65</v>
       </c>
       <c r="K53">
-        <v>-6.924880074435191</v>
+        <v>-8.10855581600679</v>
       </c>
       <c r="L53">
-        <v>-8.763579101187357</v>
+        <v>-9.84938334270945</v>
       </c>
       <c r="M53">
-        <v>-5.0599212544435</v>
+        <v>-6.693153247164596</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2882,25 +2882,25 @@
         <v>65</v>
       </c>
       <c r="G54">
-        <v>0.4883502148530108</v>
+        <v>0.1784334742050016</v>
       </c>
       <c r="H54">
-        <v>-2.442714264033656</v>
+        <v>-2.432281037597135</v>
       </c>
       <c r="I54">
-        <v>2.500585588602399</v>
+        <v>1.926409988518363</v>
       </c>
       <c r="J54" t="s">
         <v>65</v>
       </c>
       <c r="K54">
-        <v>-6.395327831863229</v>
+        <v>-6.684014578593056</v>
       </c>
       <c r="L54">
-        <v>-9.125607800269997</v>
+        <v>-9.115889273314803</v>
       </c>
       <c r="M54">
-        <v>-4.520935107908453</v>
+        <v>-5.055778387730414</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2923,25 +2923,25 @@
         <v>65</v>
       </c>
       <c r="G55">
-        <v>-2.583087562890326</v>
+        <v>-2.471106964892203</v>
       </c>
       <c r="H55">
-        <v>-5.450360198918867</v>
+        <v>-4.931706595009478</v>
       </c>
       <c r="I55">
-        <v>-0.3927398184824214</v>
+        <v>-0.7998180586543022</v>
       </c>
       <c r="J55" t="s">
         <v>65</v>
       </c>
       <c r="K55">
-        <v>-8.759413485326172</v>
+        <v>-8.65453256491916</v>
       </c>
       <c r="L55">
-        <v>-11.44489827912529</v>
+        <v>-10.95912781242946</v>
       </c>
       <c r="M55">
-        <v>-6.707935894103101</v>
+        <v>-7.089204982410758</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2964,25 +2964,25 @@
         <v>66</v>
       </c>
       <c r="G56">
-        <v>4.235259116438588</v>
+        <v>5.20840362466125</v>
       </c>
       <c r="H56">
-        <v>2.803170706313742</v>
+        <v>4.012294854496917</v>
       </c>
       <c r="I56">
-        <v>5.529149854330155</v>
+        <v>6.703428178915069</v>
       </c>
       <c r="J56" t="s">
         <v>66</v>
       </c>
       <c r="K56">
-        <v>-0.686401819619209</v>
+        <v>0.2407938671407539</v>
       </c>
       <c r="L56">
-        <v>-2.050871521402564</v>
+        <v>-0.8988384107186165</v>
       </c>
       <c r="M56">
-        <v>0.5463954691440343</v>
+        <v>1.665228066369906</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3005,25 +3005,25 @@
         <v>66</v>
       </c>
       <c r="G57">
-        <v>-7.234070880532605</v>
+        <v>-7.982953482962877</v>
       </c>
       <c r="H57">
-        <v>-9.197240454525353</v>
+        <v>-9.983580744528959</v>
       </c>
       <c r="I57">
-        <v>-3.857862784552097</v>
+        <v>-4.044124120692592</v>
       </c>
       <c r="J57" t="s">
         <v>66</v>
       </c>
       <c r="K57">
-        <v>-11.53677958345775</v>
+        <v>-12.25092719512651</v>
       </c>
       <c r="L57">
-        <v>-13.40889259291743</v>
+        <v>-14.15876051379398</v>
       </c>
       <c r="M57">
-        <v>-8.317168204562375</v>
+        <v>-8.494790288343335</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3046,25 +3046,25 @@
         <v>66</v>
       </c>
       <c r="G58">
-        <v>-0.951893669280428</v>
+        <v>-1.735008620455318</v>
       </c>
       <c r="H58">
-        <v>-3.023313332600686</v>
+        <v>-3.88886686899992</v>
       </c>
       <c r="I58">
-        <v>3.5136475642039</v>
+        <v>1.473370537258818</v>
       </c>
       <c r="J58" t="s">
         <v>66</v>
       </c>
       <c r="K58">
-        <v>-5.526647877657043</v>
+        <v>-6.273592945820051</v>
       </c>
       <c r="L58">
-        <v>-7.502394476916418</v>
+        <v>-8.327970523286755</v>
       </c>
       <c r="M58">
-        <v>-1.267357468215236</v>
+        <v>-3.213399822120666</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3087,25 +3087,25 @@
         <v>66</v>
       </c>
       <c r="G59">
-        <v>-1.800070095767199</v>
+        <v>-2.254216597007323</v>
       </c>
       <c r="H59">
-        <v>-3.748046500997112</v>
+        <v>-3.536196955610181</v>
       </c>
       <c r="I59">
-        <v>2.408042763475629</v>
+        <v>0.3695128049426585</v>
       </c>
       <c r="J59" t="s">
         <v>66</v>
       </c>
       <c r="K59">
-        <v>-6.010181552403571</v>
+        <v>-6.444857496080891</v>
       </c>
       <c r="L59">
-        <v>-7.874642645668251</v>
+        <v>-7.671875695340058</v>
       </c>
       <c r="M59">
-        <v>-1.982482509920014</v>
+        <v>-3.933614867034274</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3128,25 +3128,25 @@
         <v>66</v>
       </c>
       <c r="G60">
-        <v>-2.925047486666453</v>
+        <v>-3.344490652451701</v>
       </c>
       <c r="H60">
-        <v>-4.329027106095384</v>
+        <v>-4.375211318012728</v>
       </c>
       <c r="I60">
-        <v>1.316574641581337</v>
+        <v>-0.6179142450653352</v>
       </c>
       <c r="J60" t="s">
         <v>66</v>
       </c>
       <c r="K60">
-        <v>-7.084402197959816</v>
+        <v>-7.485873550599043</v>
       </c>
       <c r="L60">
-        <v>-8.428225730844897</v>
+        <v>-8.472431095341237</v>
       </c>
       <c r="M60">
-        <v>-3.024520163586697</v>
+        <v>-4.876122319348664</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3169,25 +3169,25 @@
         <v>66</v>
       </c>
       <c r="G61">
-        <v>-3.427087424986559</v>
+        <v>-4.386993331252589</v>
       </c>
       <c r="H61">
-        <v>-5.245060491405425</v>
+        <v>-6.097637511412609</v>
       </c>
       <c r="I61">
-        <v>1.258815346396144</v>
+        <v>-0.06699643742710615</v>
       </c>
       <c r="J61" t="s">
         <v>66</v>
       </c>
       <c r="K61">
-        <v>-7.43224088683303</v>
+        <v>-8.35233676396131</v>
       </c>
       <c r="L61">
-        <v>-9.174817437537863</v>
+        <v>-9.992035662701626</v>
       </c>
       <c r="M61">
-        <v>-2.940675836103634</v>
+        <v>-4.211502432940706</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3210,25 +3210,25 @@
         <v>67</v>
       </c>
       <c r="G62">
-        <v>3.80569930535129</v>
+        <v>3.961539736195783</v>
       </c>
       <c r="H62">
-        <v>2.838166086304889</v>
+        <v>2.877430123226373</v>
       </c>
       <c r="I62">
-        <v>4.812047216730228</v>
+        <v>4.992482324770788</v>
       </c>
       <c r="J62" t="s">
         <v>67</v>
       </c>
       <c r="K62">
-        <v>0.1548597201186164</v>
+        <v>0.30521925330802</v>
       </c>
       <c r="L62">
-        <v>-0.7786454195471748</v>
+        <v>-0.7407622962097182</v>
       </c>
       <c r="M62">
-        <v>1.125814441952433</v>
+        <v>1.299903659166102</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3251,25 +3251,25 @@
         <v>67</v>
       </c>
       <c r="G63">
-        <v>-3.816988036729851</v>
+        <v>-4.482685883128508</v>
       </c>
       <c r="H63">
-        <v>-6.027387231586825</v>
+        <v>-6.506029080905104</v>
       </c>
       <c r="I63">
-        <v>-1.062955604704081</v>
+        <v>-2.47623040565224</v>
       </c>
       <c r="J63" t="s">
         <v>67</v>
       </c>
       <c r="K63">
-        <v>-7.052709431028625</v>
+        <v>-7.696012337616565</v>
       </c>
       <c r="L63">
-        <v>-9.188747927267936</v>
+        <v>-9.651287643367123</v>
       </c>
       <c r="M63">
-        <v>-4.391326225503489</v>
+        <v>-5.757056627330536</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3292,25 +3292,25 @@
         <v>67</v>
       </c>
       <c r="G64">
-        <v>-0.3445621696414395</v>
+        <v>-0.5955186720539387</v>
       </c>
       <c r="H64">
-        <v>-2.684920825456144</v>
+        <v>-2.693761635761104</v>
       </c>
       <c r="I64">
-        <v>1.523377952189682</v>
+        <v>0.6199869258665904</v>
       </c>
       <c r="J64" t="s">
         <v>67</v>
       </c>
       <c r="K64">
-        <v>-3.347683287819037</v>
+        <v>-3.591077204701365</v>
       </c>
       <c r="L64">
-        <v>-5.617515129880224</v>
+        <v>-5.626089521967503</v>
       </c>
       <c r="M64">
-        <v>-1.536033625891475</v>
+        <v>-2.412200922850782</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3333,25 +3333,25 @@
         <v>67</v>
       </c>
       <c r="G65">
-        <v>0.158447612187851</v>
+        <v>0.8532476076409741</v>
       </c>
       <c r="H65">
-        <v>-2.428358785300456</v>
+        <v>-1.957318422560794</v>
       </c>
       <c r="I65">
-        <v>2.073692356974105</v>
+        <v>2.132640186115772</v>
       </c>
       <c r="J65" t="s">
         <v>67</v>
       </c>
       <c r="K65">
-        <v>-2.363331475710961</v>
+        <v>-1.68602508304998</v>
       </c>
       <c r="L65">
-        <v>-4.885007527899921</v>
+        <v>-4.425826970944313</v>
       </c>
       <c r="M65">
-        <v>-0.4963085660345312</v>
+        <v>-0.4388449192693988</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3374,25 +3374,25 @@
         <v>67</v>
       </c>
       <c r="G66">
-        <v>-0.3515135632056862</v>
+        <v>-0.5800764148254136</v>
       </c>
       <c r="H66">
-        <v>-2.772158757062166</v>
+        <v>-3.027213635250976</v>
       </c>
       <c r="I66">
-        <v>1.979306559675845</v>
+        <v>0.9922250278160378</v>
       </c>
       <c r="J66" t="s">
         <v>67</v>
       </c>
       <c r="K66">
-        <v>-2.843829401139153</v>
+        <v>-3.066675649974193</v>
       </c>
       <c r="L66">
-        <v>-5.20393165480264</v>
+        <v>-5.452607336124715</v>
       </c>
       <c r="M66">
-        <v>-0.5713055968004643</v>
+        <v>-1.533699157742152</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3415,25 +3415,25 @@
         <v>67</v>
       </c>
       <c r="G67">
-        <v>-0.7818013146781414</v>
+        <v>-1.286803461910478</v>
       </c>
       <c r="H67">
-        <v>-3.011325548656011</v>
+        <v>-3.100015122330553</v>
       </c>
       <c r="I67">
-        <v>1.299610237798283</v>
+        <v>0.4885415424332282</v>
       </c>
       <c r="J67" t="s">
         <v>67</v>
       </c>
       <c r="K67">
-        <v>-2.729415515730038</v>
+        <v>-3.224504669514161</v>
       </c>
       <c r="L67">
-        <v>-4.915175066240341</v>
+        <v>-5.002123698480132</v>
       </c>
       <c r="M67">
-        <v>-0.6888612530608351</v>
+        <v>-1.484008989065078</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3456,25 +3456,25 @@
         <v>68</v>
       </c>
       <c r="G68">
-        <v>6.02137081057371</v>
+        <v>6.055264140331963</v>
       </c>
       <c r="H68">
-        <v>3.274102968824895</v>
+        <v>3.093027081391408</v>
       </c>
       <c r="I68">
-        <v>8.663546228765862</v>
+        <v>8.395206583609143</v>
       </c>
       <c r="J68" t="s">
         <v>68</v>
       </c>
       <c r="K68">
-        <v>-0.3347281841544092</v>
+        <v>-0.3028667971785914</v>
       </c>
       <c r="L68">
-        <v>-2.917294265930825</v>
+        <v>-3.087514452694839</v>
       </c>
       <c r="M68">
-        <v>2.149045881639911</v>
+        <v>1.896793496398708</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3497,25 +3497,25 @@
         <v>68</v>
       </c>
       <c r="G69">
-        <v>-4.279820930163616</v>
+        <v>-1.084230479949782</v>
       </c>
       <c r="H69">
-        <v>-8.537792457089639</v>
+        <v>-4.127434097458528</v>
       </c>
       <c r="I69">
-        <v>-0.7679671973476634</v>
+        <v>1.880915924980196</v>
       </c>
       <c r="J69" t="s">
         <v>68</v>
       </c>
       <c r="K69">
-        <v>-9.516877178484883</v>
+        <v>-6.496124334061138</v>
       </c>
       <c r="L69">
-        <v>-13.54188595286536</v>
+        <v>-9.372827756157998</v>
       </c>
       <c r="M69">
-        <v>-6.197164493809016</v>
+        <v>-3.693207447065905</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3538,25 +3538,25 @@
         <v>68</v>
       </c>
       <c r="G70">
-        <v>3.430566176013257</v>
+        <v>4.176516872612402</v>
       </c>
       <c r="H70">
-        <v>0.7202569143995257</v>
+        <v>1.560921213391307</v>
       </c>
       <c r="I70">
-        <v>7.10280169471899</v>
+        <v>7.584015615681357</v>
       </c>
       <c r="J70" t="s">
         <v>68</v>
       </c>
       <c r="K70">
-        <v>-1.55242475195303</v>
+        <v>-0.8424118413613346</v>
       </c>
       <c r="L70">
-        <v>-4.132159010819302</v>
+        <v>-3.331995530204668</v>
       </c>
       <c r="M70">
-        <v>1.942892888879699</v>
+        <v>2.400923289812917</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3579,25 +3579,25 @@
         <v>68</v>
       </c>
       <c r="G71">
-        <v>3.377195241340534</v>
+        <v>3.340553277414819</v>
       </c>
       <c r="H71">
-        <v>0.358152889242259</v>
+        <v>0.6323397290808553</v>
       </c>
       <c r="I71">
-        <v>7.028256139080698</v>
+        <v>7.393165077803086</v>
       </c>
       <c r="J71" t="s">
         <v>68</v>
       </c>
       <c r="K71">
-        <v>-0.9995525734223243</v>
+        <v>-1.034643202596042</v>
       </c>
       <c r="L71">
-        <v>-3.890775758185139</v>
+        <v>-3.62819734561427</v>
       </c>
       <c r="M71">
-        <v>2.496930975140921</v>
+        <v>2.846390525858422</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="G72">
-        <v>5.750379522624608</v>
+        <v>7.24400423378871</v>
       </c>
       <c r="H72">
-        <v>2.730047130939246</v>
+        <v>4.229755365277989</v>
       </c>
       <c r="I72">
-        <v>8.364754214545158</v>
+        <v>11.53410202475304</v>
       </c>
       <c r="J72" t="s">
         <v>68</v>
       </c>
       <c r="K72">
-        <v>1.626755667568891</v>
+        <v>3.06213806776201</v>
       </c>
       <c r="L72">
-        <v>-1.275802066883325</v>
+        <v>0.1654266359524703</v>
       </c>
       <c r="M72">
-        <v>4.139185592063344</v>
+        <v>7.184948046888695</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3661,25 +3661,25 @@
         <v>68</v>
       </c>
       <c r="G73">
-        <v>4.415105475708512</v>
+        <v>5.335923261320851</v>
       </c>
       <c r="H73">
-        <v>1.931287261984103</v>
+        <v>2.721825687833133</v>
       </c>
       <c r="I73">
-        <v>7.705691741063272</v>
+        <v>8.853079058941436</v>
       </c>
       <c r="J73" t="s">
         <v>68</v>
       </c>
       <c r="K73">
-        <v>0.2724372421628374</v>
+        <v>1.156721591621834</v>
       </c>
       <c r="L73">
-        <v>-2.112835509532696</v>
+        <v>-1.353661687581176</v>
       </c>
       <c r="M73">
-        <v>3.432469531355609</v>
+        <v>4.534334269223028</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3702,25 +3702,25 @@
         <v>69</v>
       </c>
       <c r="G74">
-        <v>1.929918128082713</v>
+        <v>2.511533729776711</v>
       </c>
       <c r="H74">
-        <v>0.7658254117237042</v>
+        <v>1.287161807977251</v>
       </c>
       <c r="I74">
-        <v>3.331445007138872</v>
+        <v>3.465558204662188</v>
       </c>
       <c r="J74" t="s">
         <v>69</v>
       </c>
       <c r="K74">
-        <v>0.3045174440274634</v>
+        <v>0.8768584537840463</v>
       </c>
       <c r="L74">
-        <v>-0.8410123505493972</v>
+        <v>-0.3279893185234917</v>
       </c>
       <c r="M74">
-        <v>1.683695215090819</v>
+        <v>1.815669809081455</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3743,25 +3743,25 @@
         <v>69</v>
       </c>
       <c r="G75">
-        <v>-4.417907154910596</v>
+        <v>-4.358553725531699</v>
       </c>
       <c r="H75">
-        <v>-6.28974143858021</v>
+        <v>-6.060548019340171</v>
       </c>
       <c r="I75">
-        <v>-2.09747397216172</v>
+        <v>-2.147470314062756</v>
       </c>
       <c r="J75" t="s">
         <v>69</v>
       </c>
       <c r="K75">
-        <v>-6.474610930768576</v>
+        <v>-6.416534648799621</v>
       </c>
       <c r="L75">
-        <v>-8.306167705080414</v>
+        <v>-8.081905993827942</v>
       </c>
       <c r="M75">
-        <v>-4.204108059718569</v>
+        <v>-4.253028596914921</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3784,25 +3784,25 @@
         <v>69</v>
       </c>
       <c r="G76">
-        <v>-1.016471366543063</v>
+        <v>-1.370950148265921</v>
       </c>
       <c r="H76">
-        <v>-2.246021461581119</v>
+        <v>-2.680721836970716</v>
       </c>
       <c r="I76">
-        <v>0.7049351440882884</v>
+        <v>0.3675661237037341</v>
       </c>
       <c r="J76" t="s">
         <v>69</v>
       </c>
       <c r="K76">
-        <v>-3.769317741728562</v>
+        <v>-4.11393805868645</v>
       </c>
       <c r="L76">
-        <v>-4.964672627028555</v>
+        <v>-5.387283482381799</v>
       </c>
       <c r="M76">
-        <v>-2.095785536432992</v>
+        <v>-2.423771934297547</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3825,25 +3825,25 @@
         <v>69</v>
       </c>
       <c r="G77">
-        <v>0.5271998471357261</v>
+        <v>-0.2529026333621481</v>
       </c>
       <c r="H77">
-        <v>-0.5128963092965931</v>
+        <v>-1.42460255444382</v>
       </c>
       <c r="I77">
-        <v>2.064005307354295</v>
+        <v>1.409178932908928</v>
       </c>
       <c r="J77" t="s">
         <v>69</v>
       </c>
       <c r="K77">
-        <v>-2.231220181485605</v>
+        <v>-2.989917009484899</v>
       </c>
       <c r="L77">
-        <v>-3.242776578788475</v>
+        <v>-4.129466024794204</v>
       </c>
       <c r="M77">
-        <v>-0.7365839547482045</v>
+        <v>-1.373442195302577</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3866,25 +3866,25 @@
         <v>69</v>
       </c>
       <c r="G78">
-        <v>-1.501646345413572</v>
+        <v>-1.735027426859349</v>
       </c>
       <c r="H78">
-        <v>-2.786481819519592</v>
+        <v>-3.330445218936627</v>
       </c>
       <c r="I78">
-        <v>0.6113308880578888</v>
+        <v>0.9881612209066373</v>
       </c>
       <c r="J78" t="s">
         <v>69</v>
       </c>
       <c r="K78">
-        <v>-4.074695597547717</v>
+        <v>-4.301980120068427</v>
       </c>
       <c r="L78">
-        <v>-5.325967617716653</v>
+        <v>-5.855721189597219</v>
       </c>
       <c r="M78">
-        <v>-2.016915169795719</v>
+        <v>-1.649928686820024</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3907,25 +3907,25 @@
         <v>69</v>
       </c>
       <c r="G79">
-        <v>0.2017168199663595</v>
+        <v>-0.3690226480524013</v>
       </c>
       <c r="H79">
-        <v>-1.263302196716987</v>
+        <v>-2.326069079028265</v>
       </c>
       <c r="I79">
-        <v>2.465782748944223</v>
+        <v>1.995158880055375</v>
       </c>
       <c r="J79" t="s">
         <v>69</v>
       </c>
       <c r="K79">
-        <v>-1.727481402885245</v>
+        <v>-2.287232340943079</v>
       </c>
       <c r="L79">
-        <v>-3.16429419543266</v>
+        <v>-4.206599472436878</v>
       </c>
       <c r="M79">
-        <v>0.4929941355761525</v>
+        <v>0.03143125646178913</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3948,25 +3948,25 @@
         <v>70</v>
       </c>
       <c r="G80">
-        <v>2.282919911070794</v>
+        <v>2.365002700043908</v>
       </c>
       <c r="H80">
-        <v>1.300851126254898</v>
+        <v>1.453225741416282</v>
       </c>
       <c r="I80">
-        <v>3.506962101235731</v>
+        <v>3.400278976262241</v>
       </c>
       <c r="J80" t="s">
         <v>70</v>
       </c>
       <c r="K80">
-        <v>-0.2281815427407352</v>
+        <v>-0.1481139309927215</v>
       </c>
       <c r="L80">
-        <v>-1.186140003414171</v>
+        <v>-1.037506268137589</v>
       </c>
       <c r="M80">
-        <v>0.9658097442438729</v>
+        <v>0.861745748157694</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3989,25 +3989,25 @@
         <v>70</v>
       </c>
       <c r="G81">
-        <v>-17.4720959679624</v>
+        <v>-17.78644426429647</v>
       </c>
       <c r="H81">
-        <v>-19.86174466031889</v>
+        <v>-19.64308067205694</v>
       </c>
       <c r="I81">
-        <v>-14.13283131289995</v>
+        <v>-14.50761749901543</v>
       </c>
       <c r="J81" t="s">
         <v>70</v>
       </c>
       <c r="K81">
-        <v>-19.56307595425726</v>
+        <v>-19.86945972024163</v>
       </c>
       <c r="L81">
-        <v>-21.89217897241302</v>
+        <v>-21.67905519541102</v>
       </c>
       <c r="M81">
-        <v>-16.30841705338878</v>
+        <v>-16.67370741595827</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4030,25 +4030,25 @@
         <v>70</v>
       </c>
       <c r="G82">
-        <v>-3.083578771098193</v>
+        <v>-3.734375241815463</v>
       </c>
       <c r="H82">
-        <v>-4.897521875961063</v>
+        <v>-5.613863443287945</v>
       </c>
       <c r="I82">
-        <v>-1.677323555976627</v>
+        <v>-2.360336964924005</v>
       </c>
       <c r="J82" t="s">
         <v>70</v>
       </c>
       <c r="K82">
-        <v>-5.496250715146022</v>
+        <v>-6.130846026490334</v>
       </c>
       <c r="L82">
-        <v>-7.265036873624487</v>
+        <v>-7.963545578574383</v>
       </c>
       <c r="M82">
-        <v>-4.125003318727138</v>
+        <v>-4.791013548354838</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4071,25 +4071,25 @@
         <v>70</v>
       </c>
       <c r="G83">
-        <v>-4.097630616950959</v>
+        <v>-4.330684749983471</v>
       </c>
       <c r="H83">
-        <v>-5.777614756697901</v>
+        <v>-6.683011203665285</v>
       </c>
       <c r="I83">
-        <v>-2.98153961383679</v>
+        <v>-2.919451847878599</v>
       </c>
       <c r="J83" t="s">
         <v>70</v>
       </c>
       <c r="K83">
-        <v>-6.359741467426606</v>
+        <v>-6.587298402772834</v>
       </c>
       <c r="L83">
-        <v>-8.000098741063798</v>
+        <v>-8.884139019879733</v>
       </c>
       <c r="M83">
-        <v>-5.269976420433276</v>
+        <v>-5.20935315853227</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4112,25 +4112,25 @@
         <v>70</v>
       </c>
       <c r="G84">
-        <v>-2.453302891054546</v>
+        <v>-3.530204370750565</v>
       </c>
       <c r="H84">
-        <v>-4.329073869544043</v>
+        <v>-6.161802117893416</v>
       </c>
       <c r="I84">
-        <v>-1.103020957903622</v>
+        <v>-2.068768159802134</v>
       </c>
       <c r="J84" t="s">
         <v>70</v>
       </c>
       <c r="K84">
-        <v>-4.786250330772324</v>
+        <v>-5.837396406909379</v>
       </c>
       <c r="L84">
-        <v>-6.617159973804442</v>
+        <v>-8.406056305734232</v>
       </c>
       <c r="M84">
-        <v>-3.468262025926661</v>
+        <v>-4.410912213483753</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4153,25 +4153,25 @@
         <v>70</v>
       </c>
       <c r="G85">
-        <v>-5.070201292068669</v>
+        <v>-5.313747907607831</v>
       </c>
       <c r="H85">
-        <v>-6.2019501604378</v>
+        <v>-7.545169531829607</v>
       </c>
       <c r="I85">
-        <v>-3.757448715301065</v>
+        <v>-3.933757293073677</v>
       </c>
       <c r="J85" t="s">
         <v>70</v>
       </c>
       <c r="K85">
-        <v>-7.304513067696739</v>
+        <v>-7.542327457123344</v>
       </c>
       <c r="L85">
-        <v>-8.409624569737606</v>
+        <v>-9.721229306951319</v>
       </c>
       <c r="M85">
-        <v>-6.02265804449692</v>
+        <v>-6.19481694180225</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4194,25 +4194,25 @@
         <v>71</v>
       </c>
       <c r="G86">
-        <v>2.205383799928846</v>
+        <v>1.982245102801911</v>
       </c>
       <c r="H86">
-        <v>1.248759069934533</v>
+        <v>0.6530889006063265</v>
       </c>
       <c r="I86">
-        <v>3.645631020836814</v>
+        <v>3.405710563717907</v>
       </c>
       <c r="J86" t="s">
         <v>71</v>
       </c>
       <c r="K86">
-        <v>1.147311793339223</v>
+        <v>0.9264831194247591</v>
       </c>
       <c r="L86">
-        <v>0.2005904344784648</v>
+        <v>-0.3889131132110757</v>
       </c>
       <c r="M86">
-        <v>2.572648984947823</v>
+        <v>2.335212282696286</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4235,25 +4235,25 @@
         <v>71</v>
       </c>
       <c r="G87">
-        <v>-10.13884592951729</v>
+        <v>-10.52364375581714</v>
       </c>
       <c r="H87">
-        <v>-12.70709402797156</v>
+        <v>-12.51190928647162</v>
       </c>
       <c r="I87">
-        <v>-7.501962209451212</v>
+        <v>-8.185913776953866</v>
       </c>
       <c r="J87" t="s">
         <v>71</v>
       </c>
       <c r="K87">
-        <v>-10.87699649230667</v>
+        <v>-11.25863345632979</v>
       </c>
       <c r="L87">
-        <v>-13.42414811365837</v>
+        <v>-13.23056668705326</v>
       </c>
       <c r="M87">
-        <v>-8.261773046049781</v>
+        <v>-8.940106399100433</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4276,25 +4276,25 @@
         <v>71</v>
       </c>
       <c r="G88">
-        <v>-3.371251567189697</v>
+        <v>-3.549786432337758</v>
       </c>
       <c r="H88">
-        <v>-4.76777361395527</v>
+        <v>-4.891225629784603</v>
       </c>
       <c r="I88">
-        <v>-1.662807872847837</v>
+        <v>-1.797271790667257</v>
       </c>
       <c r="J88" t="s">
         <v>71</v>
       </c>
       <c r="K88">
-        <v>-4.46307130941459</v>
+        <v>-4.639588887848234</v>
       </c>
       <c r="L88">
-        <v>-5.843813887172855</v>
+        <v>-5.96587100396555</v>
       </c>
       <c r="M88">
-        <v>-2.773931523942663</v>
+        <v>-2.906876117932755</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4317,25 +4317,25 @@
         <v>71</v>
       </c>
       <c r="G89">
-        <v>-3.004649060302518</v>
+        <v>-2.248451863044544</v>
       </c>
       <c r="H89">
-        <v>-5.529350764240984</v>
+        <v>-5.158653171265607</v>
       </c>
       <c r="I89">
-        <v>-1.450240026842176</v>
+        <v>-0.810950977959039</v>
       </c>
       <c r="J89" t="s">
         <v>71</v>
       </c>
       <c r="K89">
-        <v>-4.112203237779144</v>
+        <v>-3.364640777719452</v>
       </c>
       <c r="L89">
-        <v>-6.608076303107724</v>
+        <v>-6.241611569374594</v>
       </c>
       <c r="M89">
-        <v>-2.575543428398486</v>
+        <v>-1.943554185638485</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4358,25 +4358,25 @@
         <v>71</v>
       </c>
       <c r="G90">
-        <v>-5.562961434903397</v>
+        <v>-5.158808755076268</v>
       </c>
       <c r="H90">
-        <v>-9.392465101246298</v>
+        <v>-8.901778315645466</v>
       </c>
       <c r="I90">
-        <v>-3.383974067986289</v>
+        <v>-3.307998119891117</v>
       </c>
       <c r="J90" t="s">
         <v>71</v>
       </c>
       <c r="K90">
-        <v>-6.401301359764866</v>
+        <v>-6.000736438855069</v>
       </c>
       <c r="L90">
-        <v>-10.19680961641809</v>
+        <v>-9.71047877345611</v>
       </c>
       <c r="M90">
-        <v>-4.241657379014985</v>
+        <v>-4.166355887378693</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4399,25 +4399,25 @@
         <v>71</v>
       </c>
       <c r="G91">
-        <v>-4.688714526689105</v>
+        <v>-4.685360246558826</v>
       </c>
       <c r="H91">
-        <v>-6.984557915580005</v>
+        <v>-7.008561153826568</v>
       </c>
       <c r="I91">
-        <v>-3.494587917167462</v>
+        <v>-3.063806662402543</v>
       </c>
       <c r="J91" t="s">
         <v>71</v>
       </c>
       <c r="K91">
-        <v>-5.934507604941319</v>
+        <v>-5.931197167876922</v>
       </c>
       <c r="L91">
-        <v>-8.200342524337467</v>
+        <v>-8.22403202147861</v>
       </c>
       <c r="M91">
-        <v>-4.755989164560514</v>
+        <v>-4.330838557863792</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4440,25 +4440,25 @@
         <v>72</v>
       </c>
       <c r="G92">
-        <v>3.505430877121628</v>
+        <v>2.684444232613886</v>
       </c>
       <c r="H92">
-        <v>1.088534399098005</v>
+        <v>0.6722506925341317</v>
       </c>
       <c r="I92">
-        <v>6.198468493990768</v>
+        <v>5.821940123439729</v>
       </c>
       <c r="J92" t="s">
         <v>72</v>
       </c>
       <c r="K92">
-        <v>-0.2763006241882082</v>
+        <v>-1.06729124791346</v>
       </c>
       <c r="L92">
-        <v>-2.604892039676543</v>
+        <v>-3.005966175174868</v>
       </c>
       <c r="M92">
-        <v>2.318342685216845</v>
+        <v>1.955571362851427</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4481,25 +4481,25 @@
         <v>72</v>
       </c>
       <c r="G93">
-        <v>-13.12812196699329</v>
+        <v>-12.28100942699212</v>
       </c>
       <c r="H93">
-        <v>-17.13528760485935</v>
+        <v>-17.01142667718974</v>
       </c>
       <c r="I93">
-        <v>-9.962083701973434</v>
+        <v>-9.052448051258599</v>
       </c>
       <c r="J93" t="s">
         <v>72</v>
       </c>
       <c r="K93">
-        <v>-16.65402247667461</v>
+        <v>-15.84129200143568</v>
       </c>
       <c r="L93">
-        <v>-20.49854782536031</v>
+        <v>-20.37971408621119</v>
       </c>
       <c r="M93">
-        <v>-13.61648535822906</v>
+        <v>-12.74376942051112</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4522,25 +4522,25 @@
         <v>72</v>
       </c>
       <c r="G94">
-        <v>-7.315417231643548</v>
+        <v>-8.173374994155603</v>
       </c>
       <c r="H94">
-        <v>-10.41201794019764</v>
+        <v>-10.96101379539578</v>
       </c>
       <c r="I94">
-        <v>-2.762224123043663</v>
+        <v>-4.563551482921406</v>
       </c>
       <c r="J94" t="s">
         <v>72</v>
       </c>
       <c r="K94">
-        <v>-10.58656942222323</v>
+        <v>-11.41424695548421</v>
       </c>
       <c r="L94">
-        <v>-13.57388062556961</v>
+        <v>-14.10350056148634</v>
       </c>
       <c r="M94">
-        <v>-6.194073887766328</v>
+        <v>-7.931826316806411</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4563,25 +4563,25 @@
         <v>72</v>
       </c>
       <c r="G95">
-        <v>-6.107817024041944</v>
+        <v>-4.89828269386028</v>
       </c>
       <c r="H95">
-        <v>-8.843785493874964</v>
+        <v>-7.499951167491289</v>
       </c>
       <c r="I95">
-        <v>-1.966476953023449</v>
+        <v>-1.610573665957189</v>
       </c>
       <c r="J95" t="s">
         <v>72</v>
       </c>
       <c r="K95">
-        <v>-9.895241792074527</v>
+        <v>-8.734497682065811</v>
       </c>
       <c r="L95">
-        <v>-12.52084671066437</v>
+        <v>-11.23122000040547</v>
       </c>
       <c r="M95">
-        <v>-5.920955180254417</v>
+        <v>-5.579408327150337</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4604,25 +4604,25 @@
         <v>72</v>
       </c>
       <c r="G96">
-        <v>-2.700527900844731</v>
+        <v>-2.847753312429783</v>
       </c>
       <c r="H96">
-        <v>-5.261746547762843</v>
+        <v>-5.405718773290299</v>
       </c>
       <c r="I96">
-        <v>1.042463123183414</v>
+        <v>-0.1010603036926015</v>
       </c>
       <c r="J96" t="s">
         <v>72</v>
       </c>
       <c r="K96">
-        <v>-6.949163302323069</v>
+        <v>-7.089960034675213</v>
       </c>
       <c r="L96">
-        <v>-9.398544916835371</v>
+        <v>-9.536230515302989</v>
       </c>
       <c r="M96">
-        <v>-3.369612056836546</v>
+        <v>-4.463202899197672</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4645,25 +4645,25 @@
         <v>72</v>
       </c>
       <c r="G97">
-        <v>-3.652352922899887</v>
+        <v>-3.899868187334852</v>
       </c>
       <c r="H97">
-        <v>-6.57382239256537</v>
+        <v>-6.802153588217489</v>
       </c>
       <c r="I97">
-        <v>-0.2303774092758299</v>
+        <v>-0.7157016603880523</v>
       </c>
       <c r="J97" t="s">
         <v>72</v>
       </c>
       <c r="K97">
-        <v>-7.572103120483254</v>
+        <v>-7.809548621554951</v>
       </c>
       <c r="L97">
-        <v>-10.37471726904481</v>
+        <v>-10.59375917454379</v>
       </c>
       <c r="M97">
-        <v>-4.289345217279084</v>
+        <v>-4.754924826078799</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4686,25 +4686,25 @@
         <v>73</v>
       </c>
       <c r="G98">
-        <v>6.840849324522863</v>
+        <v>6.57117906842575</v>
       </c>
       <c r="H98">
-        <v>4.360492905086767</v>
+        <v>3.52484658562391</v>
       </c>
       <c r="I98">
-        <v>8.20771172848022</v>
+        <v>8.263040223029115</v>
       </c>
       <c r="J98" t="s">
         <v>73</v>
       </c>
       <c r="K98">
-        <v>-1.873573903983761</v>
+        <v>-2.121248633476336</v>
       </c>
       <c r="L98">
-        <v>-4.151621227852342</v>
+        <v>-4.919108451396525</v>
       </c>
       <c r="M98">
-        <v>-0.6181989840601365</v>
+        <v>-0.567383331941318</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4727,25 +4727,25 @@
         <v>73</v>
       </c>
       <c r="G99">
-        <v>-6.073299677769411</v>
+        <v>-6.775273678654786</v>
       </c>
       <c r="H99">
-        <v>-8.921111180581407</v>
+        <v>-10.01083080869014</v>
       </c>
       <c r="I99">
-        <v>-2.550305338130499</v>
+        <v>-2.424401789155133</v>
       </c>
       <c r="J99" t="s">
         <v>73</v>
       </c>
       <c r="K99">
-        <v>-13.54101968024195</v>
+        <v>-14.18718265753506</v>
       </c>
       <c r="L99">
-        <v>-16.16241357389849</v>
+        <v>-17.165494141591</v>
       </c>
       <c r="M99">
-        <v>-10.29812391969144</v>
+        <v>-10.182230436521</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4768,25 +4768,25 @@
         <v>73</v>
       </c>
       <c r="G100">
-        <v>-1.192417566833895</v>
+        <v>-2.233454415768164</v>
       </c>
       <c r="H100">
-        <v>-3.140013738443995</v>
+        <v>-4.332689659548265</v>
       </c>
       <c r="I100">
-        <v>1.22636275908591</v>
+        <v>0.6929489764001747</v>
       </c>
       <c r="J100" t="s">
         <v>73</v>
       </c>
       <c r="K100">
-        <v>-8.460755945364262</v>
+        <v>-9.425213569341873</v>
       </c>
       <c r="L100">
-        <v>-10.26508590550149</v>
+        <v>-11.37002795075291</v>
       </c>
       <c r="M100">
-        <v>-6.219902388212506</v>
+        <v>-6.714077969002618</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4809,25 +4809,25 @@
         <v>73</v>
       </c>
       <c r="G101">
-        <v>-0.8475403114321892</v>
+        <v>-1.782322968302944</v>
       </c>
       <c r="H101">
-        <v>-2.753069757014432</v>
+        <v>-4.309413904981181</v>
       </c>
       <c r="I101">
-        <v>0.3464335907692657</v>
+        <v>-0.03421788231299147</v>
       </c>
       <c r="J101" t="s">
         <v>73</v>
       </c>
       <c r="K101">
-        <v>-7.843956367235172</v>
+        <v>-8.712778699876356</v>
       </c>
       <c r="L101">
-        <v>-9.615027455962199</v>
+        <v>-11.06155253116575</v>
       </c>
       <c r="M101">
-        <v>-6.734231894708065</v>
+        <v>-7.088023761016049</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4850,25 +4850,25 @@
         <v>73</v>
       </c>
       <c r="G102">
-        <v>0.03230020123321517</v>
+        <v>1.349967656471898</v>
       </c>
       <c r="H102">
-        <v>-2.535004595887719</v>
+        <v>-0.9681644736978525</v>
       </c>
       <c r="I102">
-        <v>1.941594639072622</v>
+        <v>3.70032321328488</v>
       </c>
       <c r="J102" t="s">
         <v>73</v>
       </c>
       <c r="K102">
-        <v>-6.465169175604634</v>
+        <v>-5.233089114857991</v>
       </c>
       <c r="L102">
-        <v>-8.865717992239809</v>
+        <v>-7.400649954585137</v>
       </c>
       <c r="M102">
-        <v>-4.679890501836159</v>
+        <v>-3.035397879712631</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4891,25 +4891,25 @@
         <v>73</v>
       </c>
       <c r="G103">
-        <v>-1.179025881937977</v>
+        <v>-1.367941890321483</v>
       </c>
       <c r="H103">
-        <v>-3.917720174124604</v>
+        <v>-4.187234537219177</v>
       </c>
       <c r="I103">
-        <v>0.7549047136765908</v>
+        <v>0.4595486531455295</v>
       </c>
       <c r="J103" t="s">
         <v>73</v>
       </c>
       <c r="K103">
-        <v>-7.255538551939312</v>
+        <v>-7.432838093993133</v>
       </c>
       <c r="L103">
-        <v>-9.82583022803909</v>
+        <v>-10.07877212302447</v>
       </c>
       <c r="M103">
-        <v>-5.440525563361442</v>
+        <v>-5.717720146938898</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4932,25 +4932,25 @@
         <v>74</v>
       </c>
       <c r="G104">
-        <v>2.420141620417985</v>
+        <v>6.673348842067304</v>
       </c>
       <c r="H104">
-        <v>-1.896525614092702</v>
+        <v>2.110893994805255</v>
       </c>
       <c r="I104">
-        <v>8.265365862984456</v>
+        <v>10.30197765208722</v>
       </c>
       <c r="J104" t="s">
         <v>74</v>
       </c>
       <c r="K104">
-        <v>-0.1401093057983416</v>
+        <v>4.00677822563833</v>
       </c>
       <c r="L104">
-        <v>-4.348870506295899</v>
+        <v>-0.4416265035149691</v>
       </c>
       <c r="M104">
-        <v>5.558998747665034</v>
+        <v>7.544700265244098</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4973,25 +4973,25 @@
         <v>74</v>
       </c>
       <c r="G105">
-        <v>-7.903978230783777</v>
+        <v>-7.329109292057904</v>
       </c>
       <c r="H105">
-        <v>-12.97879966463748</v>
+        <v>-12.07834652680885</v>
       </c>
       <c r="I105">
-        <v>-1.92465032842107</v>
+        <v>-2.678260971750837</v>
       </c>
       <c r="J105" t="s">
         <v>74</v>
       </c>
       <c r="K105">
-        <v>-9.42745677462602</v>
+        <v>-8.862097481125264</v>
       </c>
       <c r="L105">
-        <v>-14.41832907126638</v>
+        <v>-13.53277148493784</v>
       </c>
       <c r="M105">
-        <v>-3.54704061232386</v>
+        <v>-4.288184814395157</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5014,25 +5014,25 @@
         <v>74</v>
       </c>
       <c r="G106">
-        <v>-8.370041601438068</v>
+        <v>-5.219735997358184</v>
       </c>
       <c r="H106">
-        <v>-12.54523235432697</v>
+        <v>-12.58420959885141</v>
       </c>
       <c r="I106">
-        <v>-3.434363315339366</v>
+        <v>-1.190813650764472</v>
       </c>
       <c r="J106" t="s">
         <v>74</v>
       </c>
       <c r="K106">
-        <v>-11.44225692714935</v>
+        <v>-8.397576353645508</v>
       </c>
       <c r="L106">
-        <v>-15.47745978478025</v>
+        <v>-15.5151301806487</v>
       </c>
       <c r="M106">
-        <v>-6.672064544769785</v>
+        <v>-4.503737741625446</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5055,25 +5055,25 @@
         <v>74</v>
       </c>
       <c r="G107">
-        <v>-10.7971544402179</v>
+        <v>-7.494716600704472</v>
       </c>
       <c r="H107">
-        <v>-15.46134330860616</v>
+        <v>-13.17023133426113</v>
       </c>
       <c r="I107">
-        <v>-5.702341165220632</v>
+        <v>-2.875599171417435</v>
       </c>
       <c r="J107" t="s">
         <v>74</v>
       </c>
       <c r="K107">
-        <v>-12.62937854502146</v>
+        <v>-9.394772691990106</v>
       </c>
       <c r="L107">
-        <v>-17.19776509656224</v>
+        <v>-14.95371250199209</v>
       </c>
       <c r="M107">
-        <v>-7.639212600872714</v>
+        <v>-4.870531813375267</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5096,25 +5096,25 @@
         <v>74</v>
       </c>
       <c r="G108">
-        <v>-4.919814751675015</v>
+        <v>-4.266217760385593</v>
       </c>
       <c r="H108">
-        <v>-9.378950118027253</v>
+        <v>-8.668082522415613</v>
       </c>
       <c r="I108">
-        <v>-0.9218318745712506</v>
+        <v>-0.1566995532888573</v>
       </c>
       <c r="J108" t="s">
         <v>74</v>
       </c>
       <c r="K108">
-        <v>-9.696678137128668</v>
+        <v>-9.07591809844277</v>
       </c>
       <c r="L108">
-        <v>-13.93178490691604</v>
+        <v>-13.25663156007784</v>
       </c>
       <c r="M108">
-        <v>-5.899555386363842</v>
+        <v>-5.172863593578681</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5137,25 +5137,25 @@
         <v>74</v>
       </c>
       <c r="G109">
-        <v>-2.293745073211917</v>
+        <v>-2.135074813431593</v>
       </c>
       <c r="H109">
-        <v>-7.153080945429863</v>
+        <v>-6.922275698734161</v>
       </c>
       <c r="I109">
-        <v>2.331334137598954</v>
+        <v>2.351983153852192</v>
       </c>
       <c r="J109" t="s">
         <v>74</v>
       </c>
       <c r="K109">
-        <v>-4.28722854452388</v>
+        <v>-4.131795606043998</v>
       </c>
       <c r="L109">
-        <v>-9.047420244753257</v>
+        <v>-8.821324076762139</v>
       </c>
       <c r="M109">
-        <v>0.2434859916081056</v>
+        <v>0.2637137096278552</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5178,25 +5178,25 @@
         <v>75</v>
       </c>
       <c r="G110">
-        <v>9.486370113319795</v>
+        <v>9.355309038085563</v>
       </c>
       <c r="H110">
-        <v>5.989967667182047</v>
+        <v>5.621081249554578</v>
       </c>
       <c r="I110">
-        <v>11.48327487815694</v>
+        <v>11.39727343402463</v>
       </c>
       <c r="J110" t="s">
         <v>75</v>
       </c>
       <c r="K110">
-        <v>-2.597673351849827</v>
+        <v>-2.714269176952155</v>
       </c>
       <c r="L110">
-        <v>-5.708176812688082</v>
+        <v>-6.036349125905039</v>
       </c>
       <c r="M110">
-        <v>-0.8211675640645288</v>
+        <v>-0.897677003046915</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5219,25 +5219,25 @@
         <v>75</v>
       </c>
       <c r="G111">
-        <v>-13.64668768487346</v>
+        <v>-12.27747112733815</v>
       </c>
       <c r="H111">
-        <v>-20.18788480762358</v>
+        <v>-18.35556686185332</v>
       </c>
       <c r="I111">
-        <v>-2.315844328322127</v>
+        <v>-1.616776238076798</v>
       </c>
       <c r="J111" t="s">
         <v>75</v>
       </c>
       <c r="K111">
-        <v>-22.87701027808701</v>
+        <v>-21.65414954857018</v>
       </c>
       <c r="L111">
-        <v>-28.71901754963082</v>
+        <v>-27.08255643064995</v>
       </c>
       <c r="M111">
-        <v>-12.75732300380001</v>
+        <v>-12.1329784396661</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5260,25 +5260,25 @@
         <v>75</v>
       </c>
       <c r="G112">
-        <v>-5.495984933453824</v>
+        <v>-5.103415345897153</v>
       </c>
       <c r="H112">
-        <v>-9.035662447604183</v>
+        <v>-9.043513319234329</v>
       </c>
       <c r="I112">
-        <v>2.540260831834324</v>
+        <v>1.12223107232152</v>
       </c>
       <c r="J112" t="s">
         <v>75</v>
       </c>
       <c r="K112">
-        <v>-15.82675414661194</v>
+        <v>-15.47709856441576</v>
       </c>
       <c r="L112">
-        <v>-18.9794894608786</v>
+        <v>-18.98648210925891</v>
       </c>
       <c r="M112">
-        <v>-8.668995927942335</v>
+        <v>-9.932012821889568</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5301,25 +5301,25 @@
         <v>75</v>
       </c>
       <c r="G113">
-        <v>2.836825257574092</v>
+        <v>2.079572789969451</v>
       </c>
       <c r="H113">
-        <v>-0.5434073134458928</v>
+        <v>-2.790914637734133</v>
       </c>
       <c r="I113">
-        <v>6.210493649218659</v>
+        <v>4.184083684756259</v>
       </c>
       <c r="J113" t="s">
         <v>75</v>
       </c>
       <c r="K113">
-        <v>-8.49525352397742</v>
+        <v>-9.169060741313729</v>
       </c>
       <c r="L113">
-        <v>-11.50300219442169</v>
+        <v>-13.50284599937085</v>
       </c>
       <c r="M113">
-        <v>-5.493345694769413</v>
+        <v>-7.296455909327115</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5342,25 +5342,25 @@
         <v>75</v>
       </c>
       <c r="G114">
-        <v>3.636607769519095</v>
+        <v>4.849387563511225</v>
       </c>
       <c r="H114">
-        <v>-1.115230855943441</v>
+        <v>0.5935958222032507</v>
       </c>
       <c r="I114">
-        <v>5.144260465792707</v>
+        <v>6.292984679412527</v>
       </c>
       <c r="J114" t="s">
         <v>75</v>
       </c>
       <c r="K114">
-        <v>-7.9973942430824</v>
+        <v>-6.920758258385185</v>
       </c>
       <c r="L114">
-        <v>-12.21580263262738</v>
+        <v>-10.69880482113908</v>
       </c>
       <c r="M114">
-        <v>-6.658987095078361</v>
+        <v>-5.639215961849764</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5383,25 +5383,25 @@
         <v>75</v>
       </c>
       <c r="G115">
-        <v>-0.1143432044174543</v>
+        <v>0.7022478704198077</v>
       </c>
       <c r="H115">
-        <v>-3.595487726185021</v>
+        <v>-3.117553529490051</v>
       </c>
       <c r="I115">
-        <v>3.834243637511692</v>
+        <v>4.287345119498561</v>
       </c>
       <c r="J115" t="s">
         <v>75</v>
       </c>
       <c r="K115">
-        <v>-11.62931723988299</v>
+        <v>-10.90686405556975</v>
       </c>
       <c r="L115">
-        <v>-14.70915000110528</v>
+        <v>-14.28631280273977</v>
       </c>
       <c r="M115">
-        <v>-8.135929636966143</v>
+        <v>-7.735062399293147</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5424,25 +5424,25 @@
         <v>76</v>
       </c>
       <c r="G116">
-        <v>8.222348947272433</v>
+        <v>9.114781526381023</v>
       </c>
       <c r="H116">
-        <v>6.332534090651118</v>
+        <v>7.063467117983756</v>
       </c>
       <c r="I116">
-        <v>10.00865964979502</v>
+        <v>10.58973582535866</v>
       </c>
       <c r="J116" t="s">
         <v>76</v>
       </c>
       <c r="K116">
-        <v>-1.97004828227626</v>
+        <v>-1.161665138754175</v>
       </c>
       <c r="L116">
-        <v>-3.681880089219258</v>
+        <v>-3.019786445204753</v>
       </c>
       <c r="M116">
-        <v>-0.3519725925085093</v>
+        <v>0.1743777407537506</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5465,25 +5465,25 @@
         <v>76</v>
       </c>
       <c r="G117">
-        <v>0.4675726037121267</v>
+        <v>1.014916582828181</v>
       </c>
       <c r="H117">
-        <v>-4.63860002954172</v>
+        <v>-5.308465755734918</v>
       </c>
       <c r="I117">
-        <v>3.21926902806672</v>
+        <v>4.121762287859029</v>
       </c>
       <c r="J117" t="s">
         <v>76</v>
       </c>
       <c r="K117">
-        <v>-8.938379623428183</v>
+        <v>-8.442278957810768</v>
       </c>
       <c r="L117">
-        <v>-13.5665033240044</v>
+        <v>-14.17365503356633</v>
       </c>
       <c r="M117">
-        <v>-6.44430189573667</v>
+        <v>-5.62630165460628</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5506,25 +5506,25 @@
         <v>76</v>
       </c>
       <c r="G118">
-        <v>0.5621552293409652</v>
+        <v>0.6858608637898205</v>
       </c>
       <c r="H118">
-        <v>-3.909579240886433</v>
+        <v>-6.546045119230662</v>
       </c>
       <c r="I118">
-        <v>2.88787057875569</v>
+        <v>3.603158720086455</v>
       </c>
       <c r="J118" t="s">
         <v>76</v>
       </c>
       <c r="K118">
-        <v>-8.787091720303286</v>
+        <v>-8.674886978241691</v>
       </c>
       <c r="L118">
-        <v>-12.84308977597146</v>
+        <v>-15.23444385739033</v>
       </c>
       <c r="M118">
-        <v>-6.677597742503638</v>
+        <v>-6.028809821441627</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5547,25 +5547,25 @@
         <v>76</v>
       </c>
       <c r="G119">
-        <v>1.576819652213006</v>
+        <v>1.389923754239524</v>
       </c>
       <c r="H119">
-        <v>-2.508856930340667</v>
+        <v>-3.029141679608715</v>
       </c>
       <c r="I119">
-        <v>2.907095862058945</v>
+        <v>2.67179123859086</v>
       </c>
       <c r="J119" t="s">
         <v>76</v>
       </c>
       <c r="K119">
-        <v>-7.849410693101855</v>
+        <v>-8.018962833012001</v>
       </c>
       <c r="L119">
-        <v>-11.55594045145418</v>
+        <v>-12.02794328060949</v>
       </c>
       <c r="M119">
-        <v>-6.64258282530713</v>
+        <v>-6.856051407937136</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5588,25 +5588,25 @@
         <v>76</v>
       </c>
       <c r="G120">
-        <v>2.515283796721719</v>
+        <v>2.508489759467488</v>
       </c>
       <c r="H120">
-        <v>-1.690833322486853</v>
+        <v>-0.4538423065228067</v>
       </c>
       <c r="I120">
-        <v>4.490930788960613</v>
+        <v>4.648703771390859</v>
       </c>
       <c r="J120" t="s">
         <v>76</v>
       </c>
       <c r="K120">
-        <v>-7.023054791493899</v>
+        <v>-7.029216690540907</v>
       </c>
       <c r="L120">
-        <v>-10.83782178476169</v>
+        <v>-9.715924232951178</v>
       </c>
       <c r="M120">
-        <v>-5.231228096530205</v>
+        <v>-5.088134799613742</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5629,25 +5629,25 @@
         <v>76</v>
       </c>
       <c r="G121">
-        <v>0.6587263863356049</v>
+        <v>0.739650442706119</v>
       </c>
       <c r="H121">
-        <v>-3.638389028882118</v>
+        <v>-3.993281326039046</v>
       </c>
       <c r="I121">
-        <v>2.691472518001352</v>
+        <v>2.714536585365015</v>
       </c>
       <c r="J121" t="s">
         <v>76</v>
       </c>
       <c r="K121">
-        <v>-8.689475408548375</v>
+        <v>-8.616066790095367</v>
       </c>
       <c r="L121">
-        <v>-12.58751661053608</v>
+        <v>-12.90944996882725</v>
       </c>
       <c r="M121">
-        <v>-6.845510932669208</v>
+        <v>-6.824588831170464</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5670,25 +5670,25 @@
         <v>77</v>
       </c>
       <c r="G122">
-        <v>12.71737991315201</v>
+        <v>13.14375915945674</v>
       </c>
       <c r="H122">
-        <v>9.930457395725387</v>
+        <v>10.01990597475886</v>
       </c>
       <c r="I122">
-        <v>15.64794685441067</v>
+        <v>16.34195574842598</v>
       </c>
       <c r="J122" t="s">
         <v>77</v>
       </c>
       <c r="K122">
-        <v>1.984470927439164</v>
+        <v>2.370250492953674</v>
       </c>
       <c r="L122">
-        <v>-0.5370818151326784</v>
+        <v>-0.45615049810801</v>
       </c>
       <c r="M122">
-        <v>4.635990322691153</v>
+        <v>5.263915935667818</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5711,25 +5711,25 @@
         <v>77</v>
       </c>
       <c r="G123">
-        <v>0.8013380901135179</v>
+        <v>-0.04619067387756243</v>
       </c>
       <c r="H123">
-        <v>-13.00397077444427</v>
+        <v>-14.94219990798087</v>
       </c>
       <c r="I123">
-        <v>5.894533430063345</v>
+        <v>5.677112182760036</v>
       </c>
       <c r="J123" t="s">
         <v>77</v>
       </c>
       <c r="K123">
-        <v>-7.941222724197672</v>
+        <v>-8.715244807608325</v>
       </c>
       <c r="L123">
-        <v>-20.54918882926898</v>
+        <v>-22.31931418171425</v>
       </c>
       <c r="M123">
-        <v>-3.289763286194614</v>
+        <v>-3.488327457660567</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5752,25 +5752,25 @@
         <v>77</v>
       </c>
       <c r="G124">
-        <v>9.991661985916265</v>
+        <v>10.3720731423683</v>
       </c>
       <c r="H124">
-        <v>-0.9861703574235179</v>
+        <v>-5.625753781641585</v>
       </c>
       <c r="I124">
-        <v>15.47667930808293</v>
+        <v>16.04946558742671</v>
       </c>
       <c r="J124" t="s">
         <v>77</v>
       </c>
       <c r="K124">
-        <v>1.707781275953479</v>
+        <v>2.059542254893043</v>
       </c>
       <c r="L124">
-        <v>-8.443269728289515</v>
+        <v>-12.73342888764771</v>
       </c>
       <c r="M124">
-        <v>6.779701565412988</v>
+        <v>7.309349182018932</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5793,25 +5793,25 @@
         <v>77</v>
       </c>
       <c r="G125">
-        <v>11.10825126673046</v>
+        <v>10.16235222465604</v>
       </c>
       <c r="H125">
-        <v>1.083742729384263</v>
+        <v>-3.170930901306602</v>
       </c>
       <c r="I125">
-        <v>16.37931302270476</v>
+        <v>15.37062082288216</v>
       </c>
       <c r="J125" t="s">
         <v>77</v>
       </c>
       <c r="K125">
-        <v>2.435602342024645</v>
+        <v>1.563536253098197</v>
       </c>
       <c r="L125">
-        <v>-6.806434666916217</v>
+        <v>-10.72900613356885</v>
       </c>
       <c r="M125">
-        <v>7.295226895551532</v>
+        <v>6.365269022139586</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5834,25 +5834,25 @@
         <v>77</v>
       </c>
       <c r="G126">
-        <v>12.07187810438703</v>
+        <v>11.09634276168361</v>
       </c>
       <c r="H126">
-        <v>0.433690702134083</v>
+        <v>-2.824975531198258</v>
       </c>
       <c r="I126">
-        <v>16.95917498565948</v>
+        <v>16.41293081636768</v>
       </c>
       <c r="J126" t="s">
         <v>77</v>
       </c>
       <c r="K126">
-        <v>5.320998101305019</v>
+        <v>4.404226135719469</v>
       </c>
       <c r="L126">
-        <v>-5.616139154069777</v>
+        <v>-8.678512926854332</v>
       </c>
       <c r="M126">
-        <v>9.913898606403793</v>
+        <v>9.400558577755014</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5875,25 +5875,25 @@
         <v>77</v>
       </c>
       <c r="G127">
-        <v>8.781674082877666</v>
+        <v>8.675259157734901</v>
       </c>
       <c r="H127">
-        <v>-2.769536255617009</v>
+        <v>-3.850281217754446</v>
       </c>
       <c r="I127">
-        <v>13.75108908134149</v>
+        <v>13.43570692437183</v>
       </c>
       <c r="J127" t="s">
         <v>77</v>
       </c>
       <c r="K127">
-        <v>2.207542971944876</v>
+        <v>2.107559145385096</v>
       </c>
       <c r="L127">
-        <v>-8.645579458862606</v>
+        <v>-9.661010487026578</v>
       </c>
       <c r="M127">
-        <v>6.876635457265112</v>
+        <v>6.580313161870932</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5916,25 +5916,25 @@
         <v>78</v>
       </c>
       <c r="G128">
-        <v>7.305829094583913</v>
+        <v>5.950086958051253</v>
       </c>
       <c r="H128">
-        <v>5.121566667815701</v>
+        <v>4.201935587972433</v>
       </c>
       <c r="I128">
-        <v>8.860289481793666</v>
+        <v>7.578402363446932</v>
       </c>
       <c r="J128" t="s">
         <v>78</v>
       </c>
       <c r="K128">
-        <v>1.431053854383491</v>
+        <v>0.1495358341267572</v>
       </c>
       <c r="L128">
-        <v>-0.6336246603908302</v>
+        <v>-1.502907814650101</v>
       </c>
       <c r="M128">
-        <v>2.900410706475864</v>
+        <v>1.688704292822796</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5957,25 +5957,25 @@
         <v>78</v>
       </c>
       <c r="G129">
-        <v>-6.755351562714794</v>
+        <v>-5.490039824422294</v>
       </c>
       <c r="H129">
-        <v>-9.971577981553718</v>
+        <v>-9.124810675123593</v>
       </c>
       <c r="I129">
-        <v>-2.77554037792048</v>
+        <v>-2.370460954705262</v>
       </c>
       <c r="J129" t="s">
         <v>78</v>
       </c>
       <c r="K129">
-        <v>-12.18527827380233</v>
+        <v>-10.99364958457219</v>
       </c>
       <c r="L129">
-        <v>-15.21421379677492</v>
+        <v>-14.4167563916884</v>
       </c>
       <c r="M129">
-        <v>-8.437223907437474</v>
+        <v>-8.055733522489783</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5998,25 +5998,25 @@
         <v>78</v>
       </c>
       <c r="G130">
-        <v>-0.8404430526783097</v>
+        <v>-0.06868918662097113</v>
       </c>
       <c r="H130">
-        <v>-6.002891417590122</v>
+        <v>-4.916602265931965</v>
       </c>
       <c r="I130">
-        <v>2.121289789542382</v>
+        <v>2.788890089064626</v>
       </c>
       <c r="J130" t="s">
         <v>78</v>
       </c>
       <c r="K130">
-        <v>-6.673101032237572</v>
+        <v>-5.946742451150167</v>
       </c>
       <c r="L130">
-        <v>-11.53188935089018</v>
+        <v>-10.50949674419032</v>
       </c>
       <c r="M130">
-        <v>-3.885580088771923</v>
+        <v>-3.257248663920365</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6039,25 +6039,25 @@
         <v>78</v>
       </c>
       <c r="G131">
-        <v>0.654670384384013</v>
+        <v>0.08440929842999143</v>
       </c>
       <c r="H131">
-        <v>-5.316346947825359</v>
+        <v>-5.490708341126535</v>
       </c>
       <c r="I131">
-        <v>3.816648453604866</v>
+        <v>2.675870731363879</v>
       </c>
       <c r="J131" t="s">
         <v>78</v>
       </c>
       <c r="K131">
-        <v>-5.013993167576802</v>
+        <v>-5.552138324675216</v>
       </c>
       <c r="L131">
-        <v>-10.64873511196797</v>
+        <v>-10.81327683101757</v>
       </c>
       <c r="M131">
-        <v>-2.030091185284066</v>
+        <v>-3.106622657745872</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6080,25 +6080,25 @@
         <v>78</v>
       </c>
       <c r="G132">
-        <v>0.9968566863390658</v>
+        <v>2.252747466491345</v>
       </c>
       <c r="H132">
-        <v>-2.523802552383599</v>
+        <v>-0.7236498894475013</v>
       </c>
       <c r="I132">
-        <v>4.272365213456565</v>
+        <v>5.161550933001267</v>
       </c>
       <c r="J132" t="s">
         <v>78</v>
       </c>
       <c r="K132">
-        <v>-4.321326240597278</v>
+        <v>-3.131566794867058</v>
       </c>
       <c r="L132">
-        <v>-7.656598424026884</v>
+        <v>-5.951236247369351</v>
       </c>
       <c r="M132">
-        <v>-1.218295888518917</v>
+        <v>-0.3759319460840405</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6121,25 +6121,25 @@
         <v>78</v>
       </c>
       <c r="G133">
-        <v>4.08091915383053</v>
+        <v>4.481994628944539</v>
       </c>
       <c r="H133">
-        <v>1.778619266401487</v>
+        <v>2.234915714537442</v>
       </c>
       <c r="I133">
-        <v>8.294754585026892</v>
+        <v>7.446382384744982</v>
       </c>
       <c r="J133" t="s">
         <v>78</v>
       </c>
       <c r="K133">
-        <v>-1.949572214349393</v>
+        <v>-1.571735217626313</v>
       </c>
       <c r="L133">
-        <v>-4.118475897066009</v>
+        <v>-3.688617453265386</v>
       </c>
       <c r="M133">
-        <v>2.0201118546054</v>
+        <v>1.220894689390417</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6162,25 +6162,25 @@
         <v>79</v>
       </c>
       <c r="G134">
-        <v>0.2961027070437904</v>
+        <v>-0.2398718134664528</v>
       </c>
       <c r="H134">
-        <v>-1.658765713945268</v>
+        <v>-2.366829188223448</v>
       </c>
       <c r="I134">
-        <v>2.565374973559878</v>
+        <v>1.725020579950877</v>
       </c>
       <c r="J134" t="s">
         <v>79</v>
       </c>
       <c r="K134">
-        <v>-0.01266000469730688</v>
+        <v>-0.5469845214495783</v>
       </c>
       <c r="L134">
-        <v>-1.961510340651451</v>
+        <v>-2.667394033337911</v>
       </c>
       <c r="M134">
-        <v>2.249626280910477</v>
+        <v>1.411858928017828</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6203,25 +6203,25 @@
         <v>79</v>
       </c>
       <c r="G135">
-        <v>-20.96150982154614</v>
+        <v>-20.97300717577511</v>
       </c>
       <c r="H135">
-        <v>-23.66313827610557</v>
+        <v>-23.56761383500584</v>
       </c>
       <c r="I135">
-        <v>-17.12628820304436</v>
+        <v>-16.77780458764922</v>
       </c>
       <c r="J135" t="s">
         <v>79</v>
       </c>
       <c r="K135">
-        <v>-21.36987091123171</v>
+        <v>-21.38130886311011</v>
       </c>
       <c r="L135">
-        <v>-24.05754110397289</v>
+        <v>-23.96251020044924</v>
       </c>
       <c r="M135">
-        <v>-17.55446438884045</v>
+        <v>-17.20778125253594</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6244,25 +6244,25 @@
         <v>79</v>
       </c>
       <c r="G136">
-        <v>-5.464616077474874</v>
+        <v>-5.990155838528725</v>
       </c>
       <c r="H136">
-        <v>-7.409708210026793</v>
+        <v>-7.726371061996661</v>
       </c>
       <c r="I136">
-        <v>-4.267309173715791</v>
+        <v>-4.325476231408111</v>
       </c>
       <c r="J136" t="s">
         <v>79</v>
       </c>
       <c r="K136">
-        <v>-6.205162698771883</v>
+        <v>-6.726585623586678</v>
       </c>
       <c r="L136">
-        <v>-8.135017876153105</v>
+        <v>-8.449200137307278</v>
       </c>
       <c r="M136">
-        <v>-5.017234945394867</v>
+        <v>-5.074946349169485</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6285,25 +6285,25 @@
         <v>79</v>
       </c>
       <c r="G137">
-        <v>-6.09888869584353</v>
+        <v>-6.082846792619589</v>
       </c>
       <c r="H137">
-        <v>-7.371761098895812</v>
+        <v>-7.739473628974856</v>
       </c>
       <c r="I137">
-        <v>-4.72290109004653</v>
+        <v>-4.771262944479663</v>
       </c>
       <c r="J137" t="s">
         <v>79</v>
       </c>
       <c r="K137">
-        <v>-6.875235776879007</v>
+        <v>-6.859326503445806</v>
       </c>
       <c r="L137">
-        <v>-8.137584441064782</v>
+        <v>-8.502256830879007</v>
       </c>
       <c r="M137">
-        <v>-5.510624436458055</v>
+        <v>-5.558586449142766</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6326,25 +6326,25 @@
         <v>79</v>
       </c>
       <c r="G138">
-        <v>-4.548842776887764</v>
+        <v>-4.772260906614279</v>
       </c>
       <c r="H138">
-        <v>-5.942139193663103</v>
+        <v>-6.000606883932106</v>
       </c>
       <c r="I138">
-        <v>-2.792559457408299</v>
+        <v>-2.891594984779426</v>
       </c>
       <c r="J138" t="s">
         <v>79</v>
       </c>
       <c r="K138">
-        <v>-5.335144480318743</v>
+        <v>-5.556722149844551</v>
       </c>
       <c r="L138">
-        <v>-6.71696328511151</v>
+        <v>-6.77494933381857</v>
       </c>
       <c r="M138">
-        <v>-3.593328964122022</v>
+        <v>-3.691548662684596</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6367,25 +6367,25 @@
         <v>79</v>
       </c>
       <c r="G139">
-        <v>-6.968183427538512</v>
+        <v>-6.824941235277786</v>
       </c>
       <c r="H139">
-        <v>-8.382011670235089</v>
+        <v>-8.111657832330703</v>
       </c>
       <c r="I139">
-        <v>-5.269839574641747</v>
+        <v>-5.074210637895675</v>
       </c>
       <c r="J139" t="s">
         <v>79</v>
       </c>
       <c r="K139">
-        <v>-7.760897079186735</v>
+        <v>-7.618875437544936</v>
       </c>
       <c r="L139">
-        <v>-9.162678250350552</v>
+        <v>-8.894628067109455</v>
       </c>
       <c r="M139">
-        <v>-6.077024623355898</v>
+        <v>-5.883062618789903</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6408,25 +6408,25 @@
         <v>80</v>
       </c>
       <c r="G140">
-        <v>1.16380098291039</v>
+        <v>0.02471998632038246</v>
       </c>
       <c r="H140">
-        <v>-0.08849714444480515</v>
+        <v>-1.160075527136105</v>
       </c>
       <c r="I140">
-        <v>3.443149580985647</v>
+        <v>1.626124035582086</v>
       </c>
       <c r="J140" t="s">
         <v>80</v>
       </c>
       <c r="K140">
-        <v>-0.2934423815499576</v>
+        <v>-1.416115154963937</v>
       </c>
       <c r="L140">
-        <v>-1.527701416673721</v>
+        <v>-2.583843937203811</v>
       </c>
       <c r="M140">
-        <v>1.953072677378231</v>
+        <v>0.16222100438128</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6449,25 +6449,25 @@
         <v>80</v>
       </c>
       <c r="G141">
-        <v>-8.686106999331626</v>
+        <v>-8.534412336183209</v>
       </c>
       <c r="H141">
-        <v>-10.13745909143552</v>
+        <v>-10.16960404625818</v>
       </c>
       <c r="I141">
-        <v>-4.339555300445836</v>
+        <v>-3.88902417428541</v>
       </c>
       <c r="J141" t="s">
         <v>80</v>
       </c>
       <c r="K141">
-        <v>-9.726026104019059</v>
+        <v>-9.57605900031535</v>
       </c>
       <c r="L141">
-        <v>-11.16084961850338</v>
+        <v>-11.19262849373462</v>
       </c>
       <c r="M141">
-        <v>-5.428974672865261</v>
+        <v>-4.983574375212452</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6490,25 +6490,25 @@
         <v>80</v>
       </c>
       <c r="G142">
-        <v>-3.909965045993331</v>
+        <v>-4.488259551435804</v>
       </c>
       <c r="H142">
-        <v>-5.332510911860952</v>
+        <v>-5.879767033127297</v>
       </c>
       <c r="I142">
-        <v>-0.218180053541805</v>
+        <v>-0.7467097887899584</v>
       </c>
       <c r="J142" t="s">
         <v>80</v>
       </c>
       <c r="K142">
-        <v>-5.72332770891032</v>
+        <v>-6.290708932191524</v>
       </c>
       <c r="L142">
-        <v>-7.119028006861505</v>
+        <v>-7.655956586694101</v>
       </c>
       <c r="M142">
-        <v>-2.101212220357229</v>
+        <v>-2.619767809081242</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6531,25 +6531,25 @@
         <v>80</v>
       </c>
       <c r="G143">
-        <v>-1.97292684568578</v>
+        <v>-2.553782507812604</v>
       </c>
       <c r="H143">
-        <v>-2.960504160475313</v>
+        <v>-3.883819258214606</v>
       </c>
       <c r="I143">
-        <v>0.4673393880118889</v>
+        <v>-0.09165547693670104</v>
       </c>
       <c r="J143" t="s">
         <v>80</v>
       </c>
       <c r="K143">
-        <v>-3.689199948167354</v>
+        <v>-4.259885899853444</v>
       </c>
       <c r="L143">
-        <v>-4.659486607146657</v>
+        <v>-5.566636161874483</v>
       </c>
       <c r="M143">
-        <v>-1.291658271727414</v>
+        <v>-1.840866168440947</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6572,25 +6572,25 @@
         <v>80</v>
       </c>
       <c r="G144">
-        <v>-3.097825645067135</v>
+        <v>-3.743425517330465</v>
       </c>
       <c r="H144">
-        <v>-4.395376781968862</v>
+        <v>-5.292773279406256</v>
       </c>
       <c r="I144">
-        <v>0.09722288230453316</v>
+        <v>-0.2855502082997664</v>
       </c>
       <c r="J144" t="s">
         <v>80</v>
       </c>
       <c r="K144">
-        <v>-4.515329443122063</v>
+        <v>-5.151485355257057</v>
       </c>
       <c r="L144">
-        <v>-5.79389975036777</v>
+        <v>-6.678168957814556</v>
       </c>
       <c r="M144">
-        <v>-1.367018705203193</v>
+        <v>-1.744192516809506</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6613,25 +6613,25 @@
         <v>80</v>
       </c>
       <c r="G145">
-        <v>-2.695918048953834</v>
+        <v>-3.191371248086448</v>
       </c>
       <c r="H145">
-        <v>-4.277648715862474</v>
+        <v>-4.693823386434762</v>
       </c>
       <c r="I145">
-        <v>0.3974299028223896</v>
+        <v>0.09173816055480082</v>
       </c>
       <c r="J145" t="s">
         <v>80</v>
       </c>
       <c r="K145">
-        <v>-3.801274269610955</v>
+        <v>-4.291099212819205</v>
       </c>
       <c r="L145">
-        <v>-5.365036771186594</v>
+        <v>-5.776483775130991</v>
       </c>
       <c r="M145">
-        <v>-0.7430661735591038</v>
+        <v>-1.045285314655753</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6654,25 +6654,25 @@
         <v>81</v>
       </c>
       <c r="G146">
-        <v>4.350279196485201</v>
+        <v>4.604812364204959</v>
       </c>
       <c r="H146">
-        <v>1.470981928776132</v>
+        <v>1.594158446299005</v>
       </c>
       <c r="I146">
-        <v>5.777436331955546</v>
+        <v>6.486457798219604</v>
       </c>
       <c r="J146" t="s">
         <v>81</v>
       </c>
       <c r="K146">
-        <v>-0.1932399245566208</v>
+        <v>0.05021060569077029</v>
       </c>
       <c r="L146">
-        <v>-2.947169610197553</v>
+        <v>-2.829356325690802</v>
       </c>
       <c r="M146">
-        <v>1.171777312643485</v>
+        <v>1.849927250685424</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6695,25 +6695,25 @@
         <v>81</v>
       </c>
       <c r="G147">
-        <v>1.042863941378102</v>
+        <v>1.074889215324342</v>
       </c>
       <c r="H147">
-        <v>-0.5506692644731523</v>
+        <v>-0.8979643597616134</v>
       </c>
       <c r="I147">
-        <v>3.916055311218795</v>
+        <v>4.50739040236086</v>
       </c>
       <c r="J147" t="s">
         <v>81</v>
       </c>
       <c r="K147">
-        <v>-3.204320100674374</v>
+        <v>-3.173640960706725</v>
       </c>
       <c r="L147">
-        <v>-4.730871547118054</v>
+        <v>-5.063568618072534</v>
       </c>
       <c r="M147">
-        <v>-0.4518989867404177</v>
+        <v>0.1145802277505048</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6736,25 +6736,25 @@
         <v>81</v>
       </c>
       <c r="G148">
-        <v>1.567825513755724</v>
+        <v>1.204295277225734</v>
       </c>
       <c r="H148">
-        <v>-0.711632051473248</v>
+        <v>-0.8955086633007801</v>
       </c>
       <c r="I148">
-        <v>3.951086297688914</v>
+        <v>4.332818347463006</v>
       </c>
       <c r="J148" t="s">
         <v>81</v>
       </c>
       <c r="K148">
-        <v>-2.705377429726219</v>
+        <v>-3.053613074007844</v>
       </c>
       <c r="L148">
-        <v>-4.888932727401373</v>
+        <v>-5.065073207487147</v>
       </c>
       <c r="M148">
-        <v>-0.4223861646635241</v>
+        <v>-0.05671450124177246</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6777,25 +6777,25 @@
         <v>81</v>
       </c>
       <c r="G149">
-        <v>0.6574419947917085</v>
+        <v>0.0781379143099333</v>
       </c>
       <c r="H149">
-        <v>-1.399023364131361</v>
+        <v>-1.640842476658611</v>
       </c>
       <c r="I149">
-        <v>2.436570512877402</v>
+        <v>1.809978948360724</v>
       </c>
       <c r="J149" t="s">
         <v>81</v>
       </c>
       <c r="K149">
-        <v>-3.180077205038556</v>
+        <v>-3.737295580903455</v>
       </c>
       <c r="L149">
-        <v>-5.158140757376273</v>
+        <v>-5.390740626211066</v>
       </c>
       <c r="M149">
-        <v>-1.468777152606449</v>
+        <v>-2.07148019868244</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6818,25 +6818,25 @@
         <v>81</v>
       </c>
       <c r="G150">
-        <v>2.884896477570932</v>
+        <v>2.026226852697966</v>
       </c>
       <c r="H150">
-        <v>0.314181318470853</v>
+        <v>0.297956755538007</v>
       </c>
       <c r="I150">
-        <v>4.502291342380962</v>
+        <v>3.363349753446866</v>
       </c>
       <c r="J150" t="s">
         <v>81</v>
       </c>
       <c r="K150">
-        <v>-1.991830234587555</v>
+        <v>-2.809799064301033</v>
       </c>
       <c r="L150">
-        <v>-4.440693929430517</v>
+        <v>-4.456149450821234</v>
       </c>
       <c r="M150">
-        <v>-0.4510996131346312</v>
+        <v>-1.536055563160543</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6859,25 +6859,25 @@
         <v>81</v>
       </c>
       <c r="G151">
-        <v>3.487490346682295</v>
+        <v>3.049541992587152</v>
       </c>
       <c r="H151">
-        <v>1.603214896505045</v>
+        <v>0.6639871446413175</v>
       </c>
       <c r="I151">
-        <v>6.232119120770292</v>
+        <v>5.279855104431755</v>
       </c>
       <c r="J151" t="s">
         <v>81</v>
       </c>
       <c r="K151">
-        <v>-1.030718090470983</v>
+        <v>-1.449545853836931</v>
       </c>
       <c r="L151">
-        <v>-2.832727083046538</v>
+        <v>-3.730948653982857</v>
       </c>
       <c r="M151">
-        <v>1.59408166039503</v>
+        <v>0.6833929813132578</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6900,25 +6900,25 @@
         <v>82</v>
       </c>
       <c r="G152">
-        <v>8.858135275495769</v>
+        <v>4.934940583144909</v>
       </c>
       <c r="H152">
-        <v>6.229707642303281</v>
+        <v>1.988114737559742</v>
       </c>
       <c r="I152">
-        <v>11.6154507196919</v>
+        <v>7.740786740344589</v>
       </c>
       <c r="J152" t="s">
         <v>82</v>
       </c>
       <c r="K152">
-        <v>2.944968177348617</v>
+        <v>-0.7651188247434937</v>
       </c>
       <c r="L152">
-        <v>0.4593165687602596</v>
+        <v>-3.551873274745931</v>
       </c>
       <c r="M152">
-        <v>5.552506419109937</v>
+        <v>1.888313944727038</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6941,25 +6941,25 @@
         <v>82</v>
       </c>
       <c r="G153">
-        <v>-4.233716129770793</v>
+        <v>-3.941649489920731</v>
       </c>
       <c r="H153">
-        <v>-7.242652751134467</v>
+        <v>-7.775860565482796</v>
       </c>
       <c r="I153">
-        <v>-0.3289463481198569</v>
+        <v>0.713439760475171</v>
       </c>
       <c r="J153" t="s">
         <v>82</v>
       </c>
       <c r="K153">
-        <v>-8.797463503004167</v>
+        <v>-8.519315314477026</v>
       </c>
       <c r="L153">
-        <v>-11.66300908895311</v>
+        <v>-12.17080685642714</v>
       </c>
       <c r="M153">
-        <v>-5.078775733872776</v>
+        <v>-4.086064590962357</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6982,25 +6982,25 @@
         <v>82</v>
       </c>
       <c r="G154">
-        <v>0.1180376666368703</v>
+        <v>-0.7213271227023939</v>
       </c>
       <c r="H154">
-        <v>-2.913958982538718</v>
+        <v>-4.236148776683002</v>
       </c>
       <c r="I154">
-        <v>3.668629414725582</v>
+        <v>2.532550319067925</v>
       </c>
       <c r="J154" t="s">
         <v>82</v>
       </c>
       <c r="K154">
-        <v>-4.07933421204536</v>
+        <v>-4.883509276887033</v>
       </c>
       <c r="L154">
-        <v>-6.984216729061432</v>
+        <v>-8.250974730997596</v>
       </c>
       <c r="M154">
-        <v>-0.6775982975650852</v>
+        <v>-1.766048149190325</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7023,25 +7023,25 @@
         <v>82</v>
       </c>
       <c r="G155">
-        <v>0.463430467605038</v>
+        <v>-1.273489463670603</v>
       </c>
       <c r="H155">
-        <v>-2.096934469278386</v>
+        <v>-3.88689444919235</v>
       </c>
       <c r="I155">
-        <v>3.298322002097327</v>
+        <v>2.485890380019862</v>
       </c>
       <c r="J155" t="s">
         <v>82</v>
       </c>
       <c r="K155">
-        <v>-3.713417495969296</v>
+        <v>-5.378123583420646</v>
       </c>
       <c r="L155">
-        <v>-6.167333200302605</v>
+        <v>-7.882874153689357</v>
       </c>
       <c r="M155">
-        <v>-0.996388858231434</v>
+        <v>-1.775042981865682</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7064,25 +7064,25 @@
         <v>82</v>
       </c>
       <c r="G156">
-        <v>-2.780199260994802</v>
+        <v>-2.42731420993561</v>
       </c>
       <c r="H156">
-        <v>-5.094396847393375</v>
+        <v>-4.682920121490177</v>
       </c>
       <c r="I156">
-        <v>1.714262597732534</v>
+        <v>0.8831696792292483</v>
       </c>
       <c r="J156" t="s">
         <v>82</v>
       </c>
       <c r="K156">
-        <v>-7.752462581960118</v>
+        <v>-7.417625679349705</v>
       </c>
       <c r="L156">
-        <v>-9.948301565596207</v>
+        <v>-9.557869633203042</v>
       </c>
       <c r="M156">
-        <v>-3.487867969182223</v>
+        <v>-4.276455011273739</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7105,25 +7105,25 @@
         <v>82</v>
       </c>
       <c r="G157">
-        <v>0.1881372894917969</v>
+        <v>-0.4986156310125192</v>
       </c>
       <c r="H157">
-        <v>-2.625773734622128</v>
+        <v>-3.451018585943045</v>
       </c>
       <c r="I157">
-        <v>4.140553539841081</v>
+        <v>2.346960867152611</v>
       </c>
       <c r="J157" t="s">
         <v>82</v>
       </c>
       <c r="K157">
-        <v>-4.841847242300235</v>
+        <v>-5.494121464420165</v>
       </c>
       <c r="L157">
-        <v>-7.514484765298624</v>
+        <v>-8.298297876800975</v>
       </c>
       <c r="M157">
-        <v>-1.087863592259875</v>
+        <v>-2.791408244853022</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7146,25 +7146,25 @@
         <v>83</v>
       </c>
       <c r="G158">
-        <v>8.145845853532238</v>
+        <v>6.276447518121685</v>
       </c>
       <c r="H158">
-        <v>6.272620940428242</v>
+        <v>3.723373288510714</v>
       </c>
       <c r="I158">
-        <v>9.601508530721281</v>
+        <v>8.01298575751145</v>
       </c>
       <c r="J158" t="s">
         <v>83</v>
       </c>
       <c r="K158">
-        <v>1.409221448650988</v>
+        <v>-0.3437282673107278</v>
       </c>
       <c r="L158">
-        <v>-0.3473164797070827</v>
+        <v>-2.737766317335444</v>
       </c>
       <c r="M158">
-        <v>2.774207940924822</v>
+        <v>1.28463747787777</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7187,25 +7187,25 @@
         <v>83</v>
       </c>
       <c r="G159">
-        <v>-0.3862516665155265</v>
+        <v>-1.926710411373084</v>
       </c>
       <c r="H159">
-        <v>-3.134785633715622</v>
+        <v>-4.359655395181375</v>
       </c>
       <c r="I159">
-        <v>2.307391038584803</v>
+        <v>0.8575784539573372</v>
       </c>
       <c r="J159" t="s">
         <v>83</v>
       </c>
       <c r="K159">
-        <v>-6.192009182931779</v>
+        <v>-7.642685843626174</v>
       </c>
       <c r="L159">
-        <v>-8.78035118861893</v>
+        <v>-9.933832241766494</v>
       </c>
       <c r="M159">
-        <v>-3.655359228765009</v>
+        <v>-5.020672831561002</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7228,25 +7228,25 @@
         <v>83</v>
       </c>
       <c r="G160">
-        <v>3.980406106879971</v>
+        <v>3.765532260394233</v>
       </c>
       <c r="H160">
-        <v>2.293672403977892</v>
+        <v>1.860359280629924</v>
       </c>
       <c r="I160">
-        <v>5.782260297150705</v>
+        <v>5.570471436384883</v>
       </c>
       <c r="J160" t="s">
         <v>83</v>
       </c>
       <c r="K160">
-        <v>-2.204417099814748</v>
+        <v>-2.406510108044391</v>
       </c>
       <c r="L160">
-        <v>-3.790822768428337</v>
+        <v>-4.198362141111255</v>
       </c>
       <c r="M160">
-        <v>-0.5097383864277272</v>
+        <v>-0.7089299059248599</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7269,25 +7269,25 @@
         <v>83</v>
       </c>
       <c r="G161">
-        <v>2.731098614263203</v>
+        <v>2.494619922056249</v>
       </c>
       <c r="H161">
-        <v>1.281785204390836</v>
+        <v>0.4812670536283685</v>
       </c>
       <c r="I161">
-        <v>4.661104786816704</v>
+        <v>4.190572305551991</v>
       </c>
       <c r="J161" t="s">
         <v>83</v>
       </c>
       <c r="K161">
-        <v>-2.719828201160723</v>
+        <v>-2.943759300068127</v>
       </c>
       <c r="L161">
-        <v>-4.092240833796279</v>
+        <v>-4.850283376752696</v>
       </c>
       <c r="M161">
-        <v>-0.8922284327225638</v>
+        <v>-1.337794393096792</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7310,25 +7310,25 @@
         <v>83</v>
       </c>
       <c r="G162">
-        <v>3.146065345555674</v>
+        <v>2.690242862656449</v>
       </c>
       <c r="H162">
-        <v>0.2575707161274082</v>
+        <v>0.1754591882415265</v>
       </c>
       <c r="I162">
-        <v>5.439852817984564</v>
+        <v>4.246684720622637</v>
       </c>
       <c r="J162" t="s">
         <v>83</v>
       </c>
       <c r="K162">
-        <v>-1.799167037248128</v>
+        <v>-2.233135578402801</v>
       </c>
       <c r="L162">
-        <v>-4.549175752248669</v>
+        <v>-4.627350527090757</v>
       </c>
       <c r="M162">
-        <v>0.3846471458466061</v>
+        <v>-0.7513157300322204</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7351,25 +7351,25 @@
         <v>83</v>
       </c>
       <c r="G163">
-        <v>2.840702761484343</v>
+        <v>3.254519472583988</v>
       </c>
       <c r="H163">
-        <v>0.9171447947898637</v>
+        <v>1.35565586720036</v>
       </c>
       <c r="I163">
-        <v>4.950928815240078</v>
+        <v>4.994588422960321</v>
       </c>
       <c r="J163" t="s">
         <v>83</v>
       </c>
       <c r="K163">
-        <v>-1.814913631434856</v>
+        <v>-1.41983047438653</v>
       </c>
       <c r="L163">
-        <v>-3.651391796435999</v>
+        <v>-3.232732196082477</v>
       </c>
       <c r="M163">
-        <v>0.1997821240554698</v>
+        <v>0.2414652537864326</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7392,25 +7392,25 @@
         <v>84</v>
       </c>
       <c r="G164">
-        <v>5.824239142196623</v>
+        <v>5.143378495013511</v>
       </c>
       <c r="H164">
-        <v>3.530893991348494</v>
+        <v>2.947310619037001</v>
       </c>
       <c r="I164">
-        <v>8.772202300908564</v>
+        <v>8.088707682244845</v>
       </c>
       <c r="J164" t="s">
         <v>84</v>
       </c>
       <c r="K164">
-        <v>0.669414780355182</v>
+        <v>0.02171966386304014</v>
       </c>
       <c r="L164">
-        <v>-1.512218804697352</v>
+        <v>-2.067375137900029</v>
       </c>
       <c r="M164">
-        <v>3.473779152706635</v>
+        <v>2.823578368612734</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7433,25 +7433,25 @@
         <v>84</v>
       </c>
       <c r="G165">
-        <v>-8.475680439209036</v>
+        <v>-9.434806766870045</v>
       </c>
       <c r="H165">
-        <v>-14.24292967981907</v>
+        <v>-14.86288269912865</v>
       </c>
       <c r="I165">
-        <v>-4.801890478385341</v>
+        <v>-6.119076667200783</v>
       </c>
       <c r="J165" t="s">
         <v>84</v>
       </c>
       <c r="K165">
-        <v>-13.9045618497417</v>
+        <v>-14.80679637951141</v>
       </c>
       <c r="L165">
-        <v>-19.32971936716269</v>
+        <v>-19.9128990847085</v>
       </c>
       <c r="M165">
-        <v>-10.44868741257585</v>
+        <v>-11.68774302747405</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7474,25 +7474,25 @@
         <v>84</v>
       </c>
       <c r="G166">
-        <v>2.994166245230611</v>
+        <v>1.690300452869895</v>
       </c>
       <c r="H166">
-        <v>0.2368607555465119</v>
+        <v>-0.7645300155779446</v>
       </c>
       <c r="I166">
-        <v>4.880923581796966</v>
+        <v>3.729573688377458</v>
       </c>
       <c r="J166" t="s">
         <v>84</v>
       </c>
       <c r="K166">
-        <v>-3.2646816644891</v>
+        <v>-4.489312894480135</v>
       </c>
       <c r="L166">
-        <v>-5.854428579452787</v>
+        <v>-6.794965879325854</v>
       </c>
       <c r="M166">
-        <v>-1.492580600628512</v>
+        <v>-2.57396416356066</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7515,25 +7515,25 @@
         <v>84</v>
       </c>
       <c r="G167">
-        <v>3.110333224161125</v>
+        <v>3.052837123547472</v>
       </c>
       <c r="H167">
-        <v>0.06815097810237526</v>
+        <v>0.807365391963092</v>
       </c>
       <c r="I167">
-        <v>4.745329529433797</v>
+        <v>4.835760763309676</v>
       </c>
       <c r="J167" t="s">
         <v>84</v>
       </c>
       <c r="K167">
-        <v>-3.708863762969061</v>
+        <v>-3.762557361701313</v>
       </c>
       <c r="L167">
-        <v>-6.54985143077419</v>
+        <v>-5.859524927040615</v>
       </c>
       <c r="M167">
-        <v>-2.18199786063713</v>
+        <v>-2.09754729211562</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7556,25 +7556,25 @@
         <v>84</v>
       </c>
       <c r="G168">
-        <v>2.749951144378312</v>
+        <v>2.269335552806311</v>
       </c>
       <c r="H168">
-        <v>-2.69125688510292</v>
+        <v>-2.154980316860217</v>
       </c>
       <c r="I168">
-        <v>5.456842948044702</v>
+        <v>5.388839565592162</v>
       </c>
       <c r="J168" t="s">
         <v>84</v>
       </c>
       <c r="K168">
-        <v>-3.573010644849262</v>
+        <v>-4.024050416803138</v>
       </c>
       <c r="L168">
-        <v>-8.679381041081346</v>
+        <v>-8.176105522587985</v>
       </c>
       <c r="M168">
-        <v>-1.032693844397292</v>
+        <v>-1.096512477523948</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7597,25 +7597,25 @@
         <v>84</v>
       </c>
       <c r="G169">
-        <v>2.365373044164267</v>
+        <v>2.989758488033674</v>
       </c>
       <c r="H169">
-        <v>-1.135838658846562</v>
+        <v>-0.5683495312494503</v>
       </c>
       <c r="I169">
-        <v>4.517666465842559</v>
+        <v>5.774114946633746</v>
       </c>
       <c r="J169" t="s">
         <v>84</v>
       </c>
       <c r="K169">
-        <v>-2.397838826154852</v>
+        <v>-1.802506958406458</v>
       </c>
       <c r="L169">
-        <v>-5.736133981818314</v>
+        <v>-5.195050960783043</v>
       </c>
       <c r="M169">
-        <v>-0.3456947935685739</v>
+        <v>0.8522892852459218</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7638,25 +7638,25 @@
         <v>85</v>
       </c>
       <c r="G170">
-        <v>0.03578394660422008</v>
+        <v>-1.522059125524457</v>
       </c>
       <c r="H170">
-        <v>-1.634588415962772</v>
+        <v>-3.130249069866943</v>
       </c>
       <c r="I170">
-        <v>1.527420215034363</v>
+        <v>0.295370834058331</v>
       </c>
       <c r="J170" t="s">
         <v>85</v>
       </c>
       <c r="K170">
-        <v>-0.9630531097318151</v>
+        <v>-2.505341434079145</v>
       </c>
       <c r="L170">
-        <v>-2.61674714232738</v>
+        <v>-4.097473927311002</v>
       </c>
       <c r="M170">
-        <v>0.5136894724522278</v>
+        <v>-0.7060581448108061</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7679,25 +7679,25 @@
         <v>85</v>
       </c>
       <c r="G171">
-        <v>-13.05903129830068</v>
+        <v>-13.55191261832606</v>
       </c>
       <c r="H171">
-        <v>-15.62030818483218</v>
+        <v>-15.71380591263582</v>
       </c>
       <c r="I171">
-        <v>-9.38206590120239</v>
+        <v>-9.892205508788651</v>
       </c>
       <c r="J171" t="s">
         <v>85</v>
       </c>
       <c r="K171">
-        <v>-14.38449584963499</v>
+        <v>-14.86986291340737</v>
       </c>
       <c r="L171">
-        <v>-16.90672461225039</v>
+        <v>-16.99879691397833</v>
       </c>
       <c r="M171">
-        <v>-10.76358788280364</v>
+        <v>-11.26595012172029</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7720,25 +7720,25 @@
         <v>85</v>
       </c>
       <c r="G172">
-        <v>-10.95919157051995</v>
+        <v>-12.18418749736373</v>
       </c>
       <c r="H172">
-        <v>-12.82497586300817</v>
+        <v>-14.16998678666335</v>
       </c>
       <c r="I172">
-        <v>-6.766865365621873</v>
+        <v>-8.236179209459465</v>
       </c>
       <c r="J172" t="s">
         <v>85</v>
       </c>
       <c r="K172">
-        <v>-12.1779238980322</v>
+        <v>-13.38615288212863</v>
       </c>
       <c r="L172">
-        <v>-14.01817055588382</v>
+        <v>-15.34477185003957</v>
       </c>
       <c r="M172">
-        <v>-8.042979511240967</v>
+        <v>-9.492182348537504</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7761,25 +7761,25 @@
         <v>85</v>
       </c>
       <c r="G173">
-        <v>-4.180794932124861</v>
+        <v>-5.333221827437153</v>
       </c>
       <c r="H173">
-        <v>-5.435267194195109</v>
+        <v>-6.699937210766077</v>
       </c>
       <c r="I173">
-        <v>-1.590956338442857</v>
+        <v>-2.979234021316429</v>
       </c>
       <c r="J173" t="s">
         <v>85</v>
       </c>
       <c r="K173">
-        <v>-5.766394867518154</v>
+        <v>-6.899751598248526</v>
       </c>
       <c r="L173">
-        <v>-7.000108335604649</v>
+        <v>-8.243850807481945</v>
       </c>
       <c r="M173">
-        <v>-3.219412483130646</v>
+        <v>-4.584717182637121</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7802,25 +7802,25 @@
         <v>85</v>
       </c>
       <c r="G174">
-        <v>-5.443125137591372</v>
+        <v>-5.268973502535283</v>
       </c>
       <c r="H174">
-        <v>-6.695558904828848</v>
+        <v>-6.700110148825502</v>
       </c>
       <c r="I174">
-        <v>-2.62527343486356</v>
+        <v>-2.425658766992901</v>
       </c>
       <c r="J174" t="s">
         <v>85</v>
       </c>
       <c r="K174">
-        <v>-7.600996668859117</v>
+        <v>-7.430819328173033</v>
       </c>
       <c r="L174">
-        <v>-8.824848789600203</v>
+        <v>-8.829296170182733</v>
       </c>
       <c r="M174">
-        <v>-4.847450834715672</v>
+        <v>-4.65239155014896</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7843,25 +7843,25 @@
         <v>85</v>
       </c>
       <c r="G175">
-        <v>-3.700203059554149</v>
+        <v>-3.952084257248142</v>
       </c>
       <c r="H175">
-        <v>-5.051845148995066</v>
+        <v>-5.186351410219831</v>
       </c>
       <c r="I175">
-        <v>-1.423616633469553</v>
+        <v>-1.853974514448346</v>
       </c>
       <c r="J175" t="s">
         <v>85</v>
       </c>
       <c r="K175">
-        <v>-6.274339836635989</v>
+        <v>-6.519488136909224</v>
       </c>
       <c r="L175">
-        <v>-7.589851926612489</v>
+        <v>-7.720762775128531</v>
       </c>
       <c r="M175">
-        <v>-4.058607587110174</v>
+        <v>-4.477461808850514</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7884,25 +7884,25 @@
         <v>86</v>
       </c>
       <c r="G176">
-        <v>3.473325902896806</v>
+        <v>3.615067801121137</v>
       </c>
       <c r="H176">
-        <v>2.561292319726772</v>
+        <v>2.911228522518517</v>
       </c>
       <c r="I176">
-        <v>4.404029716649265</v>
+        <v>4.50347473854345</v>
       </c>
       <c r="J176" t="s">
         <v>86</v>
       </c>
       <c r="K176">
-        <v>-0.03135880892114473</v>
+        <v>0.1055822320832567</v>
       </c>
       <c r="L176">
-        <v>-0.9125014341780147</v>
+        <v>-0.5744177165493136</v>
       </c>
       <c r="M176">
-        <v>0.867821678420122</v>
+        <v>0.9638984559396491</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7925,25 +7925,25 @@
         <v>86</v>
       </c>
       <c r="G177">
-        <v>-6.654978933316728</v>
+        <v>-7.590160045323526</v>
       </c>
       <c r="H177">
-        <v>-7.98521701954536</v>
+        <v>-9.620353829775745</v>
       </c>
       <c r="I177">
-        <v>-4.856353641833097</v>
+        <v>-5.659756790664673</v>
       </c>
       <c r="J177" t="s">
         <v>86</v>
       </c>
       <c r="K177">
-        <v>-9.662954812049406</v>
+        <v>-10.56800038822346</v>
       </c>
       <c r="L177">
-        <v>-10.95032693680925</v>
+        <v>-12.53277264442488</v>
       </c>
       <c r="M177">
-        <v>-7.922288921397625</v>
+        <v>-8.69980298407369</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7966,25 +7966,25 @@
         <v>86</v>
       </c>
       <c r="G178">
-        <v>-1.074109328299234</v>
+        <v>-1.610340239014659</v>
       </c>
       <c r="H178">
-        <v>-2.96092089099417</v>
+        <v>-3.642761270308692</v>
       </c>
       <c r="I178">
-        <v>0.3121366121662781</v>
+        <v>-0.2631871507592239</v>
       </c>
       <c r="J178" t="s">
         <v>86</v>
       </c>
       <c r="K178">
-        <v>-4.493933908237835</v>
+        <v>-5.011627551949294</v>
       </c>
       <c r="L178">
-        <v>-6.315519224133237</v>
+        <v>-6.973788681084137</v>
       </c>
       <c r="M178">
-        <v>-3.155609880922217</v>
+        <v>-3.711044954117282</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8007,25 +8007,25 @@
         <v>86</v>
       </c>
       <c r="G179">
-        <v>-1.820895130161133</v>
+        <v>-2.399295528230581</v>
       </c>
       <c r="H179">
-        <v>-3.650094777280176</v>
+        <v>-4.25705477040519</v>
       </c>
       <c r="I179">
-        <v>-0.8094224364470873</v>
+        <v>-1.060754726151728</v>
       </c>
       <c r="J179" t="s">
         <v>86</v>
       </c>
       <c r="K179">
-        <v>-5.137954174719828</v>
+        <v>-5.696812855900157</v>
       </c>
       <c r="L179">
-        <v>-6.905352858774227</v>
+        <v>-7.491806226405462</v>
       </c>
       <c r="M179">
-        <v>-4.160654889405214</v>
+        <v>-4.403495718061601</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8048,25 +8048,25 @@
         <v>86</v>
       </c>
       <c r="G180">
-        <v>-2.142715215298147</v>
+        <v>-2.913335614311446</v>
       </c>
       <c r="H180">
-        <v>-3.403619345960636</v>
+        <v>-4.756994651188898</v>
       </c>
       <c r="I180">
-        <v>-0.4837003007877417</v>
+        <v>-1.00316937515769</v>
       </c>
       <c r="J180" t="s">
         <v>86</v>
       </c>
       <c r="K180">
-        <v>-5.347474700043886</v>
+        <v>-6.092857805397223</v>
       </c>
       <c r="L180">
-        <v>-6.567085078473345</v>
+        <v>-7.876138263428256</v>
       </c>
       <c r="M180">
-        <v>-3.742791395022826</v>
+        <v>-4.245248210706243</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8089,25 +8089,25 @@
         <v>86</v>
       </c>
       <c r="G181">
-        <v>-0.9794466966216057</v>
+        <v>-1.357104989454733</v>
       </c>
       <c r="H181">
-        <v>-2.467373182806189</v>
+        <v>-2.805201367699437</v>
       </c>
       <c r="I181">
-        <v>0.4599511846553108</v>
+        <v>0.4075908890751749</v>
       </c>
       <c r="J181" t="s">
         <v>86</v>
       </c>
       <c r="K181">
-        <v>-4.201468126602803</v>
+        <v>-4.566837828106918</v>
       </c>
       <c r="L181">
-        <v>-5.640979098383669</v>
+        <v>-5.967814720469855</v>
       </c>
       <c r="M181">
-        <v>-2.808906691548663</v>
+        <v>-2.85956323988833</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8130,25 +8130,25 @@
         <v>87</v>
       </c>
       <c r="G182">
-        <v>6.554764471205369</v>
+        <v>6.618152547695602</v>
       </c>
       <c r="H182">
-        <v>5.067627552552507</v>
+        <v>5.283345785782799</v>
       </c>
       <c r="I182">
-        <v>8.184564349547802</v>
+        <v>8.226410993051029</v>
       </c>
       <c r="J182" t="s">
         <v>87</v>
       </c>
       <c r="K182">
-        <v>1.142654071585825</v>
+        <v>1.202822552315252</v>
       </c>
       <c r="L182">
-        <v>-0.2689484566243294</v>
+        <v>-0.0641869450314636</v>
       </c>
       <c r="M182">
-        <v>2.689673448139818</v>
+        <v>2.729394624465509</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8171,25 +8171,25 @@
         <v>87</v>
       </c>
       <c r="G183">
-        <v>-7.500886192953947</v>
+        <v>-6.607379972556906</v>
       </c>
       <c r="H183">
-        <v>-10.46557948033267</v>
+        <v>-9.757239785396587</v>
       </c>
       <c r="I183">
-        <v>-3.458640106846963</v>
+        <v>-1.529870413890994</v>
       </c>
       <c r="J183" t="s">
         <v>87</v>
       </c>
       <c r="K183">
-        <v>-11.91322491251672</v>
+        <v>-11.06234020415547</v>
       </c>
       <c r="L183">
-        <v>-14.73649813169008</v>
+        <v>-14.06194724330504</v>
       </c>
       <c r="M183">
-        <v>-8.063799689071583</v>
+        <v>-6.227035041862338</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8212,25 +8212,25 @@
         <v>87</v>
       </c>
       <c r="G184">
-        <v>2.121161712041247</v>
+        <v>2.035079230991172</v>
       </c>
       <c r="H184">
-        <v>-0.2709191104131131</v>
+        <v>-0.006720880013165662</v>
       </c>
       <c r="I184">
-        <v>5.232370359137069</v>
+        <v>5.715994118140273</v>
       </c>
       <c r="J184" t="s">
         <v>87</v>
       </c>
       <c r="K184">
-        <v>-3.071590482743747</v>
+        <v>-3.153295761410768</v>
       </c>
       <c r="L184">
-        <v>-5.342036545735329</v>
+        <v>-5.09127251367163</v>
       </c>
       <c r="M184">
-        <v>-0.1185834782829409</v>
+        <v>0.3404485281989222</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8253,25 +8253,25 @@
         <v>87</v>
       </c>
       <c r="G185">
-        <v>1.672132922853627</v>
+        <v>3.004309896695073</v>
       </c>
       <c r="H185">
-        <v>0.5090283963454477</v>
+        <v>0.8380929047591017</v>
       </c>
       <c r="I185">
-        <v>3.538491593347296</v>
+        <v>5.508050928384042</v>
       </c>
       <c r="J185" t="s">
         <v>87</v>
       </c>
       <c r="K185">
-        <v>-3.413905881876145</v>
+        <v>-2.148369624511715</v>
       </c>
       <c r="L185">
-        <v>-4.518827358754907</v>
+        <v>-4.206223947506627</v>
       </c>
       <c r="M185">
-        <v>-1.640909791165046</v>
+        <v>0.2301244621384813</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8294,25 +8294,25 @@
         <v>87</v>
       </c>
       <c r="G186">
-        <v>2.590426678699779</v>
+        <v>2.893750652937526</v>
       </c>
       <c r="H186">
-        <v>1.175906116832388</v>
+        <v>1.533487196151651</v>
       </c>
       <c r="I186">
-        <v>4.572273956486486</v>
+        <v>5.396547974233935</v>
       </c>
       <c r="J186" t="s">
         <v>87</v>
       </c>
       <c r="K186">
-        <v>-2.203228322798689</v>
+        <v>-1.914077508116385</v>
       </c>
       <c r="L186">
-        <v>-3.551653793870191</v>
+        <v>-3.210781099385773</v>
       </c>
       <c r="M186">
-        <v>-0.3139851253626813</v>
+        <v>0.4717737463258098</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8335,25 +8335,25 @@
         <v>87</v>
       </c>
       <c r="G187">
-        <v>3.196750407385125</v>
+        <v>2.635127721774462</v>
       </c>
       <c r="H187">
-        <v>1.696872830017665</v>
+        <v>1.2247905698156</v>
       </c>
       <c r="I187">
-        <v>5.278845733708701</v>
+        <v>5.038856678733099</v>
       </c>
       <c r="J187" t="s">
         <v>87</v>
       </c>
       <c r="K187">
-        <v>-1.499937008101981</v>
+        <v>-2.035999138856537</v>
       </c>
       <c r="L187">
-        <v>-2.931552202065069</v>
+        <v>-3.382149068571971</v>
       </c>
       <c r="M187">
-        <v>0.4873980580546444</v>
+        <v>0.2583313777653418</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8376,25 +8376,25 @@
         <v>88</v>
       </c>
       <c r="G188">
-        <v>2.705241757530238</v>
+        <v>2.963187572687028</v>
       </c>
       <c r="H188">
-        <v>1.473381249992751</v>
+        <v>1.788598912123107</v>
       </c>
       <c r="I188">
-        <v>3.9127573707891</v>
+        <v>4.221772847421</v>
       </c>
       <c r="J188" t="s">
         <v>88</v>
       </c>
       <c r="K188">
-        <v>-0.3745525120896653</v>
+        <v>-0.1243416482342719</v>
       </c>
       <c r="L188">
-        <v>-1.569473552204048</v>
+        <v>-1.263708236739736</v>
       </c>
       <c r="M188">
-        <v>0.796753657497673</v>
+        <v>1.096502770720353</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8417,25 +8417,25 @@
         <v>88</v>
       </c>
       <c r="G189">
-        <v>-4.88110767941348</v>
+        <v>-3.903102461235651</v>
       </c>
       <c r="H189">
-        <v>-6.759074921420582</v>
+        <v>-5.551800674985058</v>
       </c>
       <c r="I189">
-        <v>-3.055633481571412</v>
+        <v>-1.889455930409178</v>
       </c>
       <c r="J189" t="s">
         <v>88</v>
       </c>
       <c r="K189">
-        <v>-8.04877471918889</v>
+        <v>-7.103339212650573</v>
       </c>
       <c r="L189">
-        <v>-9.864201546887619</v>
+        <v>-8.697132171904077</v>
       </c>
       <c r="M189">
-        <v>-6.284092802537145</v>
+        <v>-5.156751513038815</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8458,25 +8458,25 @@
         <v>88</v>
       </c>
       <c r="G190">
-        <v>-0.1150513137045674</v>
+        <v>-0.6191961515327444</v>
       </c>
       <c r="H190">
-        <v>-1.409908866399383</v>
+        <v>-2.048724613987789</v>
       </c>
       <c r="I190">
-        <v>1.294969208694029</v>
+        <v>0.9566167124663993</v>
       </c>
       <c r="J190" t="s">
         <v>88</v>
       </c>
       <c r="K190">
-        <v>-3.54369305203609</v>
+        <v>-4.030532659638119</v>
       </c>
       <c r="L190">
-        <v>-4.794103441181696</v>
+        <v>-5.41099125704373</v>
       </c>
       <c r="M190">
-        <v>-2.182072766896292</v>
+        <v>-2.508811005860001</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8499,25 +8499,25 @@
         <v>88</v>
       </c>
       <c r="G191">
-        <v>1.239428446761044</v>
+        <v>0.2025599729152434</v>
       </c>
       <c r="H191">
-        <v>-0.07188808177990622</v>
+        <v>-1.049631859893079</v>
       </c>
       <c r="I191">
-        <v>2.428886382536652</v>
+        <v>1.24880385599356</v>
       </c>
       <c r="J191" t="s">
         <v>88</v>
       </c>
       <c r="K191">
-        <v>-2.47167396233624</v>
+        <v>-3.470534269302372</v>
       </c>
       <c r="L191">
-        <v>-3.734921966559934</v>
+        <v>-4.676824893474074</v>
       </c>
       <c r="M191">
-        <v>-1.325817618141112</v>
+        <v>-2.462642224579581</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8540,25 +8540,25 @@
         <v>88</v>
       </c>
       <c r="G192">
-        <v>0.01080279319500251</v>
+        <v>-0.02597515179667142</v>
       </c>
       <c r="H192">
-        <v>-1.919546402234165</v>
+        <v>-1.597923300073549</v>
       </c>
       <c r="I192">
-        <v>1.101869851197731</v>
+        <v>1.096246353093414</v>
       </c>
       <c r="J192" t="s">
         <v>88</v>
       </c>
       <c r="K192">
-        <v>-4.201790930837301</v>
+        <v>-4.237019737776626</v>
       </c>
       <c r="L192">
-        <v>-6.050831140849466</v>
+        <v>-5.742755249828302</v>
       </c>
       <c r="M192">
-        <v>-3.156681130577477</v>
+        <v>-3.162067759142095</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8581,25 +8581,25 @@
         <v>88</v>
       </c>
       <c r="G193">
-        <v>0.1844553265313791</v>
+        <v>-0.3528704637740004</v>
       </c>
       <c r="H193">
-        <v>-1.448679631358015</v>
+        <v>-1.899584671204132</v>
       </c>
       <c r="I193">
-        <v>1.47610920860194</v>
+        <v>1.35251150968579</v>
       </c>
       <c r="J193" t="s">
         <v>88</v>
       </c>
       <c r="K193">
-        <v>-4.317259248604999</v>
+        <v>-4.830440701009541</v>
       </c>
       <c r="L193">
-        <v>-5.877010492233204</v>
+        <v>-6.30765444683149</v>
       </c>
       <c r="M193">
-        <v>-3.083644880628666</v>
+        <v>-3.201688808145364</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8622,25 +8622,25 @@
         <v>89</v>
       </c>
       <c r="G194">
-        <v>7.789298394610277</v>
+        <v>7.817141912017652</v>
       </c>
       <c r="H194">
-        <v>6.286085047126109</v>
+        <v>6.403979522662389</v>
       </c>
       <c r="I194">
-        <v>8.777409445156083</v>
+        <v>8.868639590189481</v>
       </c>
       <c r="J194" t="s">
         <v>89</v>
       </c>
       <c r="K194">
-        <v>-0.9630781143634692</v>
+        <v>-0.9374954609872366</v>
       </c>
       <c r="L194">
-        <v>-2.344232135119939</v>
+        <v>-2.235910565740307</v>
       </c>
       <c r="M194">
-        <v>-0.05520063130405317</v>
+        <v>0.02862172288005116</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8663,25 +8663,25 @@
         <v>89</v>
       </c>
       <c r="G195">
-        <v>-5.140627831133956</v>
+        <v>-5.142980418149299</v>
       </c>
       <c r="H195">
-        <v>-8.003211860244647</v>
+        <v>-8.541785154404687</v>
       </c>
       <c r="I195">
-        <v>-3.248075430635886</v>
+        <v>-2.953420434759229</v>
       </c>
       <c r="J195" t="s">
         <v>89</v>
       </c>
       <c r="K195">
-        <v>-12.52528128019463</v>
+        <v>-12.52745072199808</v>
       </c>
       <c r="L195">
-        <v>-15.16501762920296</v>
+        <v>-15.66166383652534</v>
       </c>
       <c r="M195">
-        <v>-10.78006111785419</v>
+        <v>-10.50834455159005</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8704,25 +8704,25 @@
         <v>89</v>
       </c>
       <c r="G196">
-        <v>3.879906928785865</v>
+        <v>4.477116897536448</v>
       </c>
       <c r="H196">
-        <v>2.079068869599737</v>
+        <v>2.708263231472384</v>
       </c>
       <c r="I196">
-        <v>6.248344409736091</v>
+        <v>7.342946038550668</v>
       </c>
       <c r="J196" t="s">
         <v>89</v>
       </c>
       <c r="K196">
-        <v>-3.693550210269148</v>
+        <v>-3.139880366217074</v>
       </c>
       <c r="L196">
-        <v>-5.363096566768477</v>
+        <v>-4.779774180262986</v>
       </c>
       <c r="M196">
-        <v>-1.497785773402449</v>
+        <v>-0.4829870512833123</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8745,25 +8745,25 @@
         <v>89</v>
       </c>
       <c r="G197">
-        <v>1.914341190533626</v>
+        <v>1.61763772464326</v>
       </c>
       <c r="H197">
-        <v>0.8724941382634555</v>
+        <v>0.5572039288701914</v>
       </c>
       <c r="I197">
-        <v>4.838065369683077</v>
+        <v>3.766721022887294</v>
       </c>
       <c r="J197" t="s">
         <v>89</v>
       </c>
       <c r="K197">
-        <v>-5.877818616488661</v>
+        <v>-6.151836748847883</v>
       </c>
       <c r="L197">
-        <v>-6.840008197288883</v>
+        <v>-7.131191969173123</v>
       </c>
       <c r="M197">
-        <v>-3.177636342918477</v>
+        <v>-4.167067916094158</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8786,25 +8786,25 @@
         <v>89</v>
       </c>
       <c r="G198">
-        <v>1.676832851156612</v>
+        <v>1.738695272959928</v>
       </c>
       <c r="H198">
-        <v>0.6394282690181925</v>
+        <v>0.5522771634455191</v>
       </c>
       <c r="I198">
-        <v>4.359362469751493</v>
+        <v>3.93253576012294</v>
       </c>
       <c r="J198" t="s">
         <v>89</v>
       </c>
       <c r="K198">
-        <v>-5.439909304761159</v>
+        <v>-5.382376865440275</v>
       </c>
       <c r="L198">
-        <v>-6.404702056697764</v>
+        <v>-6.485753130143424</v>
       </c>
       <c r="M198">
-        <v>-2.945139976153877</v>
+        <v>-3.342091486560472</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8827,25 +8827,25 @@
         <v>89</v>
       </c>
       <c r="G199">
-        <v>1.483332466987723</v>
+        <v>1.43891949784012</v>
       </c>
       <c r="H199">
-        <v>-0.09246727572460801</v>
+        <v>-0.2315087172775399</v>
       </c>
       <c r="I199">
-        <v>3.722712049460553</v>
+        <v>2.84583290010863</v>
       </c>
       <c r="J199" t="s">
         <v>89</v>
       </c>
       <c r="K199">
-        <v>-5.481821026634249</v>
+        <v>-5.523185779491557</v>
       </c>
       <c r="L199">
-        <v>-6.94946816126415</v>
+        <v>-7.078966705881717</v>
       </c>
       <c r="M199">
-        <v>-3.396137840833069</v>
+        <v>-4.21283372932707</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8868,25 +8868,25 @@
         <v>90</v>
       </c>
       <c r="G200">
-        <v>3.421709352558915</v>
+        <v>3.99969588870476</v>
       </c>
       <c r="H200">
-        <v>1.761167806346212</v>
+        <v>2.55110818297941</v>
       </c>
       <c r="I200">
-        <v>4.826303562544196</v>
+        <v>5.123673025271716</v>
       </c>
       <c r="J200" t="s">
         <v>90</v>
       </c>
       <c r="K200">
-        <v>-0.4558318065336686</v>
+        <v>0.1004845541979771</v>
       </c>
       <c r="L200">
-        <v>-2.054115455133476</v>
+        <v>-1.293791938855804</v>
       </c>
       <c r="M200">
-        <v>0.8961006180765896</v>
+        <v>1.182320948398541</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8909,25 +8909,25 @@
         <v>90</v>
       </c>
       <c r="G201">
-        <v>-17.07883022035588</v>
+        <v>-16.20851165246218</v>
       </c>
       <c r="H201">
-        <v>-19.66552429092262</v>
+        <v>-19.31290264955113</v>
       </c>
       <c r="I201">
-        <v>-14.55918922180523</v>
+        <v>-13.15437774038763</v>
       </c>
       <c r="J201" t="s">
         <v>90</v>
       </c>
       <c r="K201">
-        <v>-19.95950036574497</v>
+        <v>-19.11941654637413</v>
       </c>
       <c r="L201">
-        <v>-22.4563330365734</v>
+        <v>-22.1159614230008</v>
       </c>
       <c r="M201">
-        <v>-17.52739135234253</v>
+        <v>-16.1713828304728</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -8950,25 +8950,25 @@
         <v>90</v>
       </c>
       <c r="G202">
-        <v>-5.582444076034965</v>
+        <v>-6.108932032824834</v>
       </c>
       <c r="H202">
-        <v>-8.064059028762786</v>
+        <v>-7.70040212084227</v>
       </c>
       <c r="I202">
-        <v>-3.819559646922155</v>
+        <v>-4.407942499598471</v>
       </c>
       <c r="J202" t="s">
         <v>90</v>
       </c>
       <c r="K202">
-        <v>-8.966505154231308</v>
+        <v>-9.474123024994519</v>
       </c>
       <c r="L202">
-        <v>-11.35917545582498</v>
+        <v>-11.00855253481365</v>
       </c>
       <c r="M202">
-        <v>-7.266805039979641</v>
+        <v>-7.83409940448937</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8991,25 +8991,25 @@
         <v>90</v>
       </c>
       <c r="G203">
-        <v>-3.556099484039362</v>
+        <v>-4.237240660689474</v>
       </c>
       <c r="H203">
-        <v>-5.711592008791131</v>
+        <v>-6.426652939688469</v>
       </c>
       <c r="I203">
-        <v>-2.246056036837783</v>
+        <v>-2.067612477154137</v>
       </c>
       <c r="J203" t="s">
         <v>90</v>
       </c>
       <c r="K203">
-        <v>-7.068036059080384</v>
+        <v>-7.724373960476738</v>
       </c>
       <c r="L203">
-        <v>-9.145037844714333</v>
+        <v>-9.834060336444795</v>
       </c>
       <c r="M203">
-        <v>-5.805696919486714</v>
+        <v>-5.633751256098019</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9032,25 +9032,25 @@
         <v>90</v>
       </c>
       <c r="G204">
-        <v>-5.24209882919993</v>
+        <v>-5.8177675238683</v>
       </c>
       <c r="H204">
-        <v>-7.290466367541822</v>
+        <v>-7.589887957203657</v>
       </c>
       <c r="I204">
-        <v>-3.613951412778473</v>
+        <v>-3.520813832521817</v>
       </c>
       <c r="J204" t="s">
         <v>90</v>
       </c>
       <c r="K204">
-        <v>-8.544445269455847</v>
+        <v>-9.100051706084356</v>
       </c>
       <c r="L204">
-        <v>-10.52142647309636</v>
+        <v>-10.81041311423635</v>
       </c>
       <c r="M204">
-        <v>-6.973039367550838</v>
+        <v>-6.883147664976308</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9073,25 +9073,25 @@
         <v>90</v>
       </c>
       <c r="G205">
-        <v>-6.323290166937318</v>
+        <v>-6.905005158239458</v>
       </c>
       <c r="H205">
-        <v>-8.598432066031901</v>
+        <v>-9.151219952281902</v>
       </c>
       <c r="I205">
-        <v>-4.529389260322847</v>
+        <v>-4.671226190318635</v>
       </c>
       <c r="J205" t="s">
         <v>90</v>
       </c>
       <c r="K205">
-        <v>-9.443983671296186</v>
+        <v>-10.00631973481597</v>
       </c>
       <c r="L205">
-        <v>-11.64333276598238</v>
+        <v>-12.17770538584458</v>
       </c>
       <c r="M205">
-        <v>-7.709843775894775</v>
+        <v>-7.846955629754726</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9114,25 +9114,25 @@
         <v>91</v>
       </c>
       <c r="G206">
-        <v>8.039255624293045</v>
+        <v>9.467158659360738</v>
       </c>
       <c r="H206">
-        <v>6.067176037135098</v>
+        <v>7.326189919834007</v>
       </c>
       <c r="I206">
-        <v>10.42709290362048</v>
+        <v>11.23966018827537</v>
       </c>
       <c r="J206" t="s">
         <v>91</v>
       </c>
       <c r="K206">
-        <v>0.1170397057352002</v>
+        <v>1.440238611834177</v>
       </c>
       <c r="L206">
-        <v>-1.710432810522744</v>
+        <v>-0.543738888430445</v>
       </c>
       <c r="M206">
-        <v>2.329783567434895</v>
+        <v>3.082767569696809</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9155,25 +9155,25 @@
         <v>91</v>
       </c>
       <c r="G207">
-        <v>-7.732536549318121</v>
+        <v>-7.061871018976797</v>
       </c>
       <c r="H207">
-        <v>-11.54583448087758</v>
+        <v>-10.91854243423562</v>
       </c>
       <c r="I207">
-        <v>-4.960323524564526</v>
+        <v>-4.089146361613134</v>
       </c>
       <c r="J207" t="s">
         <v>91</v>
       </c>
       <c r="K207">
-        <v>-14.05570669877864</v>
+        <v>-13.43100246511902</v>
       </c>
       <c r="L207">
-        <v>-17.60767598045356</v>
+        <v>-17.02337280763537</v>
       </c>
       <c r="M207">
-        <v>-11.47347586265903</v>
+        <v>-10.66200123433525</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9196,25 +9196,25 @@
         <v>91</v>
       </c>
       <c r="G208">
-        <v>-1.451276722512878</v>
+        <v>-1.79140664163348</v>
       </c>
       <c r="H208">
-        <v>-3.761181552410121</v>
+        <v>-4.069832763605429</v>
       </c>
       <c r="I208">
-        <v>2.309426268342662</v>
+        <v>1.492053762325235</v>
       </c>
       <c r="J208" t="s">
         <v>91</v>
       </c>
       <c r="K208">
-        <v>-7.842029570333453</v>
+        <v>-8.160102519287848</v>
       </c>
       <c r="L208">
-        <v>-10.00214016263014</v>
+        <v>-10.29077575575015</v>
       </c>
       <c r="M208">
-        <v>-4.325203136670297</v>
+        <v>-5.089570129304722</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9237,25 +9237,25 @@
         <v>91</v>
       </c>
       <c r="G209">
-        <v>1.640360788277878</v>
+        <v>2.173863190306052</v>
       </c>
       <c r="H209">
-        <v>-1.628782589611758</v>
+        <v>-1.025933069360133</v>
       </c>
       <c r="I209">
-        <v>3.656625948188494</v>
+        <v>4.752736588610398</v>
       </c>
       <c r="J209" t="s">
         <v>91</v>
       </c>
       <c r="K209">
-        <v>-4.830238616694304</v>
+        <v>-4.330699891086997</v>
       </c>
       <c r="L209">
-        <v>-7.891262729444715</v>
+        <v>-7.326791641902053</v>
       </c>
       <c r="M209">
-        <v>-2.942332349282695</v>
+        <v>-1.91600198908306</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9278,25 +9278,25 @@
         <v>91</v>
       </c>
       <c r="G210">
-        <v>1.741870403219792</v>
+        <v>1.993966349084609</v>
       </c>
       <c r="H210">
-        <v>-1.941997074452896</v>
+        <v>-1.359436144006937</v>
       </c>
       <c r="I210">
-        <v>3.754725680094913</v>
+        <v>4.258582949310433</v>
       </c>
       <c r="J210" t="s">
         <v>91</v>
       </c>
       <c r="K210">
-        <v>-4.580449847085067</v>
+        <v>-4.344019342569439</v>
       </c>
       <c r="L210">
-        <v>-8.035398887724643</v>
+        <v>-7.489038753990962</v>
       </c>
       <c r="M210">
-        <v>-2.69267498820781</v>
+        <v>-2.220127807983185</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9319,25 +9319,25 @@
         <v>91</v>
       </c>
       <c r="G211">
-        <v>1.865537583637378</v>
+        <v>1.783255720062018</v>
       </c>
       <c r="H211">
-        <v>-0.6338190532796484</v>
+        <v>-0.7748954365900589</v>
       </c>
       <c r="I211">
-        <v>3.721702262515569</v>
+        <v>3.647301897459982</v>
       </c>
       <c r="J211" t="s">
         <v>91</v>
       </c>
       <c r="K211">
-        <v>-4.625725680430504</v>
+        <v>-4.702764227659683</v>
       </c>
       <c r="L211">
-        <v>-6.965813713795499</v>
+        <v>-7.097900168164939</v>
       </c>
       <c r="M211">
-        <v>-2.88784294339326</v>
+        <v>-2.957502231456799</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9360,25 +9360,25 @@
         <v>92</v>
       </c>
       <c r="G212">
-        <v>4.336124186966486</v>
+        <v>3.914626234845224</v>
       </c>
       <c r="H212">
-        <v>2.489792655184893</v>
+        <v>2.701710488009492</v>
       </c>
       <c r="I212">
-        <v>6.089681443731843</v>
+        <v>5.255431690415062</v>
       </c>
       <c r="J212" t="s">
         <v>92</v>
       </c>
       <c r="K212">
-        <v>1.662271987190822</v>
+        <v>1.251575885677503</v>
       </c>
       <c r="L212">
-        <v>-0.1367430694366623</v>
+        <v>0.06974388345171167</v>
       </c>
       <c r="M212">
-        <v>3.370890322130471</v>
+        <v>2.558020129876071</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9401,25 +9401,25 @@
         <v>92</v>
       </c>
       <c r="G213">
-        <v>-5.677876863640744</v>
+        <v>-4.70662372107014</v>
       </c>
       <c r="H213">
-        <v>-13.48606036341255</v>
+        <v>-12.94265375524355</v>
       </c>
       <c r="I213">
-        <v>-1.297404942976691</v>
+        <v>-0.568736988922912</v>
       </c>
       <c r="J213" t="s">
         <v>92</v>
       </c>
       <c r="K213">
-        <v>-8.105669519230219</v>
+        <v>-7.159415827136806</v>
       </c>
       <c r="L213">
-        <v>-15.7128752428038</v>
+        <v>-15.18345558200668</v>
       </c>
       <c r="M213">
-        <v>-3.837948215318399</v>
+        <v>-3.128035720200351</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9442,25 +9442,25 @@
         <v>92</v>
       </c>
       <c r="G214">
-        <v>-2.503846686536284</v>
+        <v>-1.868055810223788</v>
       </c>
       <c r="H214">
-        <v>-7.858420347698742</v>
+        <v>-7.512978783878636</v>
       </c>
       <c r="I214">
-        <v>0.5270323496180147</v>
+        <v>0.5904602557605378</v>
       </c>
       <c r="J214" t="s">
         <v>92</v>
       </c>
       <c r="K214">
-        <v>-4.997840657797548</v>
+        <v>-4.378313588400684</v>
       </c>
       <c r="L214">
-        <v>-10.21544199773747</v>
+        <v>-9.878836979240546</v>
       </c>
       <c r="M214">
-        <v>-2.044492824535815</v>
+        <v>-1.982687431796692</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9483,25 +9483,25 @@
         <v>92</v>
       </c>
       <c r="G215">
-        <v>-2.558248640755332</v>
+        <v>-2.632323032380731</v>
       </c>
       <c r="H215">
-        <v>-6.162886145804467</v>
+        <v>-6.417755706939596</v>
       </c>
       <c r="I215">
-        <v>-0.2446447370470002</v>
+        <v>-0.5168031467589912</v>
       </c>
       <c r="J215" t="s">
         <v>92</v>
       </c>
       <c r="K215">
-        <v>-5.201232807218547</v>
+        <v>-5.273298024732487</v>
       </c>
       <c r="L215">
-        <v>-8.708099082596732</v>
+        <v>-8.956055629493132</v>
       </c>
       <c r="M215">
-        <v>-2.950382480900504</v>
+        <v>-3.215158938239882</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9524,25 +9524,25 @@
         <v>92</v>
       </c>
       <c r="G216">
-        <v>-0.8677908436297915</v>
+        <v>-0.09072480756685897</v>
       </c>
       <c r="H216">
-        <v>-2.977327244206251</v>
+        <v>-2.341632736643154</v>
       </c>
       <c r="I216">
-        <v>2.281537440141152</v>
+        <v>2.98016061053915</v>
       </c>
       <c r="J216" t="s">
         <v>92</v>
       </c>
       <c r="K216">
-        <v>-3.741750300047997</v>
+        <v>-2.987212323246624</v>
       </c>
       <c r="L216">
-        <v>-5.790128756716117</v>
+        <v>-5.172863781360071</v>
       </c>
       <c r="M216">
-        <v>-0.6837247510747102</v>
+        <v>-0.005355488908198591</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9565,25 +9565,25 @@
         <v>92</v>
       </c>
       <c r="G217">
-        <v>-0.4830487098865138</v>
+        <v>-0.3333858169271794</v>
       </c>
       <c r="H217">
-        <v>-2.390474254339697</v>
+        <v>-2.614558120366099</v>
       </c>
       <c r="I217">
-        <v>2.509835451950602</v>
+        <v>2.279027807888324</v>
       </c>
       <c r="J217" t="s">
         <v>92</v>
       </c>
       <c r="K217">
-        <v>-3.544592700658244</v>
+        <v>-3.399534043707364</v>
       </c>
       <c r="L217">
-        <v>-5.393338119386504</v>
+        <v>-5.610528259222858</v>
       </c>
       <c r="M217">
-        <v>-0.6437817625479791</v>
+        <v>-0.8674888298085826</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9606,25 +9606,25 @@
         <v>93</v>
       </c>
       <c r="G218">
-        <v>6.358127029635531</v>
+        <v>5.403915712347609</v>
       </c>
       <c r="H218">
-        <v>4.744313264457409</v>
+        <v>4.052366731225179</v>
       </c>
       <c r="I218">
-        <v>8.014905175577631</v>
+        <v>7.11513976894623</v>
       </c>
       <c r="J218" t="s">
         <v>93</v>
       </c>
       <c r="K218">
-        <v>0.9707185392532125</v>
+        <v>0.06484133893356336</v>
       </c>
       <c r="L218">
-        <v>-0.5613499543295042</v>
+        <v>-1.218246992688743</v>
       </c>
       <c r="M218">
-        <v>2.5435751185092</v>
+        <v>1.689385954393674</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9647,25 +9647,25 @@
         <v>93</v>
       </c>
       <c r="G219">
-        <v>-8.164672401811266</v>
+        <v>-7.466721358065727</v>
       </c>
       <c r="H219">
-        <v>-10.42214163884247</v>
+        <v>-10.41832814901717</v>
       </c>
       <c r="I219">
-        <v>-4.810774000093711</v>
+        <v>-4.10059296143203</v>
       </c>
       <c r="J219" t="s">
         <v>93</v>
       </c>
       <c r="K219">
-        <v>-12.28975029495873</v>
+        <v>-11.62314995792219</v>
       </c>
       <c r="L219">
-        <v>-14.44581807039902</v>
+        <v>-14.44217587568406</v>
       </c>
       <c r="M219">
-        <v>-9.086502982692524</v>
+        <v>-8.408222000134879</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9688,25 +9688,25 @@
         <v>93</v>
       </c>
       <c r="G220">
-        <v>-1.628418191768327</v>
+        <v>-2.241342130279619</v>
       </c>
       <c r="H220">
-        <v>-3.699078605010252</v>
+        <v>-3.973934977900528</v>
       </c>
       <c r="I220">
-        <v>0.8264245748859511</v>
+        <v>1.02555884661066</v>
       </c>
       <c r="J220" t="s">
         <v>93</v>
       </c>
       <c r="K220">
-        <v>-5.913893011408133</v>
+        <v>-6.50011543657012</v>
       </c>
       <c r="L220">
-        <v>-7.894346853830935</v>
+        <v>-8.157229341139761</v>
       </c>
       <c r="M220">
-        <v>-3.56599339509559</v>
+        <v>-3.375534239613975</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9729,25 +9729,25 @@
         <v>93</v>
       </c>
       <c r="G221">
-        <v>-0.4498594177817528</v>
+        <v>-1.848884890172036</v>
       </c>
       <c r="H221">
-        <v>-3.205583839681415</v>
+        <v>-3.680882196450998</v>
       </c>
       <c r="I221">
-        <v>1.822454219122885</v>
+        <v>0.4106583519398634</v>
       </c>
       <c r="J221" t="s">
         <v>93</v>
       </c>
       <c r="K221">
-        <v>-4.786903781591157</v>
+        <v>-6.124978706806228</v>
       </c>
       <c r="L221">
-        <v>-7.422571124693023</v>
+        <v>-7.877162428239981</v>
       </c>
       <c r="M221">
-        <v>-2.613586740714491</v>
+        <v>-3.963875700194452</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9770,25 +9770,25 @@
         <v>93</v>
       </c>
       <c r="G222">
-        <v>-2.139785000634217</v>
+        <v>-2.484977976752851</v>
       </c>
       <c r="H222">
-        <v>-6.081275375359093</v>
+        <v>-5.725260663438029</v>
       </c>
       <c r="I222">
-        <v>0.2652790293965435</v>
+        <v>0.2066344456376202</v>
       </c>
       <c r="J222" t="s">
         <v>93</v>
       </c>
       <c r="K222">
-        <v>-6.272200814254969</v>
+        <v>-6.602817070781553</v>
       </c>
       <c r="L222">
-        <v>-10.04725095426493</v>
+        <v>-9.706269939392588</v>
       </c>
       <c r="M222">
-        <v>-3.968697205183158</v>
+        <v>-4.024865360647811</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9811,25 +9811,25 @@
         <v>93</v>
       </c>
       <c r="G223">
-        <v>-2.89990203265708</v>
+        <v>-3.329212257341607</v>
       </c>
       <c r="H223">
-        <v>-6.19406171683408</v>
+        <v>-5.975312280616956</v>
       </c>
       <c r="I223">
-        <v>-0.9438041469814256</v>
+        <v>-0.7392758106898868</v>
       </c>
       <c r="J223" t="s">
         <v>93</v>
       </c>
       <c r="K223">
-        <v>-7.115896391005649</v>
+        <v>-7.526566372032962</v>
       </c>
       <c r="L223">
-        <v>-10.26702677928368</v>
+        <v>-10.05777523656295</v>
       </c>
       <c r="M223">
-        <v>-5.244730424277799</v>
+        <v>-5.04908251478271</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9852,25 +9852,25 @@
         <v>94</v>
       </c>
       <c r="G224">
-        <v>7.088031528109269</v>
+        <v>5.727618497875164</v>
       </c>
       <c r="H224">
-        <v>4.737617749688725</v>
+        <v>3.315089368857225</v>
       </c>
       <c r="I224">
-        <v>9.273609189919567</v>
+        <v>8.31506531343328</v>
       </c>
       <c r="J224" t="s">
         <v>94</v>
       </c>
       <c r="K224">
-        <v>0.005015325690460593</v>
+        <v>-1.2654172707115</v>
       </c>
       <c r="L224">
-        <v>-2.189937392914343</v>
+        <v>-3.518376906614262</v>
       </c>
       <c r="M224">
-        <v>2.046034517526629</v>
+        <v>1.150890646727243</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9893,25 +9893,25 @@
         <v>94</v>
       </c>
       <c r="G225">
-        <v>-7.473122230834071</v>
+        <v>-7.025322761641984</v>
       </c>
       <c r="H225">
-        <v>-11.51096012406121</v>
+        <v>-11.21863705843423</v>
       </c>
       <c r="I225">
-        <v>-2.361011817464553</v>
+        <v>-0.1799611334275252</v>
       </c>
       <c r="J225" t="s">
         <v>94</v>
       </c>
       <c r="K225">
-        <v>-13.03542015760614</v>
+        <v>-12.61454036969099</v>
       </c>
       <c r="L225">
-        <v>-16.83052147651407</v>
+        <v>-16.55577155310357</v>
       </c>
       <c r="M225">
-        <v>-8.230626729736269</v>
+        <v>-6.180690960527224</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9934,25 +9934,25 @@
         <v>94</v>
       </c>
       <c r="G226">
-        <v>0.6915271244868137</v>
+        <v>1.279546332738666</v>
       </c>
       <c r="H226">
-        <v>-1.74319732088506</v>
+        <v>-1.444880386344028</v>
       </c>
       <c r="I226">
-        <v>4.017967288881906</v>
+        <v>4.691522539345907</v>
       </c>
       <c r="J226" t="s">
         <v>94</v>
       </c>
       <c r="K226">
-        <v>-4.751539677300832</v>
+        <v>-4.19530693532526</v>
       </c>
       <c r="L226">
-        <v>-7.054650587963673</v>
+        <v>-6.772459727275937</v>
       </c>
       <c r="M226">
-        <v>-1.604916390690969</v>
+        <v>-0.9677714155268746</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9975,25 +9975,25 @@
         <v>94</v>
       </c>
       <c r="G227">
-        <v>-2.846858552950061</v>
+        <v>-2.878047471434852</v>
       </c>
       <c r="H227">
-        <v>-6.742499894334633</v>
+        <v>-6.376240422251849</v>
       </c>
       <c r="I227">
-        <v>0.2415909179578485</v>
+        <v>-0.1393513846555772</v>
       </c>
       <c r="J227" t="s">
         <v>94</v>
       </c>
       <c r="K227">
-        <v>-7.928748394142826</v>
+        <v>-7.958305881614214</v>
       </c>
       <c r="L227">
-        <v>-11.62061639518202</v>
+        <v>-11.27351523607496</v>
       </c>
       <c r="M227">
-        <v>-5.001849643648804</v>
+        <v>-5.362865603285593</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10016,25 +10016,25 @@
         <v>94</v>
       </c>
       <c r="G228">
-        <v>-1.562916332460315</v>
+        <v>-1.084483222702323</v>
       </c>
       <c r="H228">
-        <v>-5.288354757715131</v>
+        <v>-4.706298630220548</v>
       </c>
       <c r="I228">
-        <v>0.4855050431988388</v>
+        <v>1.552532013325888</v>
       </c>
       <c r="J228" t="s">
         <v>94</v>
       </c>
       <c r="K228">
-        <v>-7.142635500012984</v>
+        <v>-6.691321462594891</v>
       </c>
       <c r="L228">
-        <v>-10.65690452229019</v>
+        <v>-10.10784114112829</v>
       </c>
       <c r="M228">
-        <v>-5.210325000328087</v>
+        <v>-4.203780427847259</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10057,25 +10057,25 @@
         <v>94</v>
       </c>
       <c r="G229">
-        <v>-3.061311248105094</v>
+        <v>-2.459990628009138</v>
       </c>
       <c r="H229">
-        <v>-6.705305097471879</v>
+        <v>-6.019217629314682</v>
       </c>
       <c r="I229">
-        <v>-0.2819735803948854</v>
+        <v>-0.01642061430304437</v>
       </c>
       <c r="J229" t="s">
         <v>94</v>
       </c>
       <c r="K229">
-        <v>-9.42051520566527</v>
+        <v>-8.858641379375898</v>
       </c>
       <c r="L229">
-        <v>-12.8254620820786</v>
+        <v>-12.1843821356747</v>
       </c>
       <c r="M229">
-        <v>-6.823502833700868</v>
+        <v>-6.575370213341525</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10098,25 +10098,25 @@
         <v>95</v>
       </c>
       <c r="G230">
-        <v>-0.1050679897654525</v>
+        <v>0.1203651579916729</v>
       </c>
       <c r="H230">
-        <v>-1.992012198764472</v>
+        <v>-1.755079402859871</v>
       </c>
       <c r="I230">
-        <v>2.701729254176136</v>
+        <v>3.73440571126367</v>
       </c>
       <c r="J230" t="s">
         <v>95</v>
       </c>
       <c r="K230">
-        <v>-1.641420290623041</v>
+        <v>-1.419454233020301</v>
       </c>
       <c r="L230">
-        <v>-3.499343897487917</v>
+        <v>-3.266055052670847</v>
       </c>
       <c r="M230">
-        <v>1.122209303899369</v>
+        <v>2.139003525332295</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10139,25 +10139,25 @@
         <v>95</v>
       </c>
       <c r="G231">
-        <v>-13.54466390120055</v>
+        <v>-14.33962889264121</v>
       </c>
       <c r="H231">
-        <v>-17.10371596936068</v>
+        <v>-17.27029402710341</v>
       </c>
       <c r="I231">
-        <v>-8.814892690816317</v>
+        <v>-8.856269938981496</v>
       </c>
       <c r="J231" t="s">
         <v>95</v>
       </c>
       <c r="K231">
-        <v>-15.19462856215238</v>
+        <v>-15.97442197249974</v>
       </c>
       <c r="L231">
-        <v>-18.68575758005404</v>
+        <v>-18.8491565638267</v>
       </c>
       <c r="M231">
-        <v>-10.5551230971075</v>
+        <v>-10.5957106774474</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10180,25 +10180,25 @@
         <v>95</v>
       </c>
       <c r="G232">
-        <v>-6.59584703776041</v>
+        <v>-8.163629270431821</v>
       </c>
       <c r="H232">
-        <v>-8.586801874681271</v>
+        <v>-10.57073240947234</v>
       </c>
       <c r="I232">
-        <v>-2.801783770687768</v>
+        <v>-3.062654929174526</v>
       </c>
       <c r="J232" t="s">
         <v>95</v>
       </c>
       <c r="K232">
-        <v>-8.14086082387605</v>
+        <v>-9.68271010724825</v>
       </c>
       <c r="L232">
-        <v>-10.0988829423575</v>
+        <v>-12.04999694887079</v>
       </c>
       <c r="M232">
-        <v>-4.409555794709508</v>
+        <v>-4.666111839537179</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10221,25 +10221,25 @@
         <v>95</v>
       </c>
       <c r="G233">
-        <v>-2.380493722451862</v>
+        <v>-3.095856829467032</v>
       </c>
       <c r="H233">
-        <v>-5.248647728705145</v>
+        <v>-5.502446309179803</v>
       </c>
       <c r="I233">
-        <v>1.863838006592192</v>
+        <v>1.898962484781095</v>
       </c>
       <c r="J233" t="s">
         <v>95</v>
       </c>
       <c r="K233">
-        <v>-3.870992956938679</v>
+        <v>-4.575433573111154</v>
       </c>
       <c r="L233">
-        <v>-6.695354677062637</v>
+        <v>-6.945278144823275</v>
       </c>
       <c r="M233">
-        <v>0.3085343755838243</v>
+        <v>0.3431225571876695</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10262,25 +10262,25 @@
         <v>95</v>
       </c>
       <c r="G234">
-        <v>-3.579567511356404</v>
+        <v>-3.91962941853877</v>
       </c>
       <c r="H234">
-        <v>-6.602937449467695</v>
+        <v>-6.828248159272198</v>
       </c>
       <c r="I234">
-        <v>-0.2338064412565066</v>
+        <v>0.05167124664714002</v>
       </c>
       <c r="J234" t="s">
         <v>95</v>
       </c>
       <c r="K234">
-        <v>-6.212625156284435</v>
+        <v>-6.543400623016948</v>
       </c>
       <c r="L234">
-        <v>-9.153432642397519</v>
+        <v>-9.372590547535808</v>
       </c>
       <c r="M234">
-        <v>-2.95823042355049</v>
+        <v>-2.680548585439169</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10303,25 +10303,25 @@
         <v>95</v>
       </c>
       <c r="G235">
-        <v>-2.339693180197751</v>
+        <v>-2.635597221267027</v>
       </c>
       <c r="H235">
-        <v>-5.47210127670514</v>
+        <v>-4.516638188670395</v>
       </c>
       <c r="I235">
-        <v>0.6425362416931909</v>
+        <v>0.8550182350513889</v>
       </c>
       <c r="J235" t="s">
         <v>95</v>
       </c>
       <c r="K235">
-        <v>-4.649141635650933</v>
+        <v>-4.938048206070533</v>
       </c>
       <c r="L235">
-        <v>-7.70747526653458</v>
+        <v>-6.774606749669632</v>
       </c>
       <c r="M235">
-        <v>-1.73743528865572</v>
+        <v>-1.529978020565681</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10344,25 +10344,25 @@
         <v>96</v>
       </c>
       <c r="G236">
-        <v>3.502115969701776</v>
+        <v>2.762792846882486</v>
       </c>
       <c r="H236">
-        <v>2.31059221594897</v>
+        <v>1.419096035795178</v>
       </c>
       <c r="I236">
-        <v>4.507659818841476</v>
+        <v>3.722440508707614</v>
       </c>
       <c r="J236" t="s">
         <v>96</v>
       </c>
       <c r="K236">
-        <v>-0.3319124606286583</v>
+        <v>-1.043848840234718</v>
       </c>
       <c r="L236">
-        <v>-1.479298605169299</v>
+        <v>-2.337771096210883</v>
       </c>
       <c r="M236">
-        <v>0.6363830320941011</v>
+        <v>-0.1197494025600432</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10385,25 +10385,25 @@
         <v>96</v>
       </c>
       <c r="G237">
-        <v>-20.38012027615143</v>
+        <v>-20.63953745730025</v>
       </c>
       <c r="H237">
-        <v>-22.92359636399949</v>
+        <v>-23.06668244757577</v>
       </c>
       <c r="I237">
-        <v>-16.88264168464888</v>
+        <v>-17.40390405717437</v>
       </c>
       <c r="J237" t="s">
         <v>96</v>
       </c>
       <c r="K237">
-        <v>-23.22456172813496</v>
+        <v>-23.47471116125434</v>
       </c>
       <c r="L237">
-        <v>-25.67717145394509</v>
+        <v>-25.81514574899899</v>
       </c>
       <c r="M237">
-        <v>-19.85203149271635</v>
+        <v>-20.35467162786955</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10426,25 +10426,25 @@
         <v>96</v>
       </c>
       <c r="G238">
-        <v>-8.337168143221632</v>
+        <v>-9.348077524846042</v>
       </c>
       <c r="H238">
-        <v>-10.08743937727945</v>
+        <v>-11.1322319148503</v>
       </c>
       <c r="I238">
-        <v>-6.530825253152596</v>
+        <v>-8.128185044313476</v>
       </c>
       <c r="J238" t="s">
         <v>96</v>
       </c>
       <c r="K238">
-        <v>-11.5288430326015</v>
+        <v>-12.50455282434405</v>
       </c>
       <c r="L238">
-        <v>-13.21817029804972</v>
+        <v>-14.22658344345881</v>
       </c>
       <c r="M238">
-        <v>-9.785396510962929</v>
+        <v>-11.32713666839136</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10467,25 +10467,25 @@
         <v>96</v>
       </c>
       <c r="G239">
-        <v>-6.749516800507439</v>
+        <v>-7.303466268086685</v>
       </c>
       <c r="H239">
-        <v>-8.21246486817561</v>
+        <v>-8.348617221831566</v>
       </c>
       <c r="I239">
-        <v>-4.588986947757046</v>
+        <v>-5.733744802662694</v>
       </c>
       <c r="J239" t="s">
         <v>96</v>
       </c>
       <c r="K239">
-        <v>-9.859017798724901</v>
+        <v>-10.39449544328192</v>
       </c>
       <c r="L239">
-        <v>-11.27318286473267</v>
+        <v>-11.40479512524297</v>
       </c>
       <c r="M239">
-        <v>-7.770532288301768</v>
+        <v>-8.877117411330726</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10508,25 +10508,25 @@
         <v>96</v>
       </c>
       <c r="G240">
-        <v>-7.202051962264821</v>
+        <v>-7.907312526506193</v>
       </c>
       <c r="H240">
-        <v>-8.732778989278469</v>
+        <v>-9.104593125780349</v>
       </c>
       <c r="I240">
-        <v>-3.932732894510051</v>
+        <v>-5.20674706233544</v>
       </c>
       <c r="J240" t="s">
         <v>96</v>
       </c>
       <c r="K240">
-        <v>-10.15978578256532</v>
+        <v>-10.84256769219105</v>
       </c>
       <c r="L240">
-        <v>-11.64172419740399</v>
+        <v>-12.00168756274497</v>
       </c>
       <c r="M240">
-        <v>-6.994669186745806</v>
+        <v>-8.22807690937063</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10549,25 +10549,25 @@
         <v>96</v>
       </c>
       <c r="G241">
-        <v>-6.437474640115576</v>
+        <v>-6.783963265522459</v>
       </c>
       <c r="H241">
-        <v>-7.927601003033915</v>
+        <v>-7.975053629989131</v>
       </c>
       <c r="I241">
-        <v>-3.648633626464945</v>
+        <v>-4.040277581867365</v>
       </c>
       <c r="J241" t="s">
         <v>96</v>
       </c>
       <c r="K241">
-        <v>-9.386452923479993</v>
+        <v>-9.72202064409271</v>
       </c>
       <c r="L241">
-        <v>-10.82961229542826</v>
+        <v>-10.87556927264721</v>
       </c>
       <c r="M241">
-        <v>-6.685512824788409</v>
+        <v>-7.064812633697882</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10590,25 +10590,25 @@
         <v>97</v>
       </c>
       <c r="G242">
-        <v>3.836024382673004</v>
+        <v>3.564166273801892</v>
       </c>
       <c r="H242">
-        <v>2.894305433642658</v>
+        <v>2.594901041382902</v>
       </c>
       <c r="I242">
-        <v>5.271066648040672</v>
+        <v>4.813015640822778</v>
       </c>
       <c r="J242" t="s">
         <v>97</v>
       </c>
       <c r="K242">
-        <v>1.093384088166105</v>
+        <v>0.8287066182708136</v>
       </c>
       <c r="L242">
-        <v>0.1765389375218751</v>
+        <v>-0.1149572306369806</v>
       </c>
       <c r="M242">
-        <v>2.490522314307331</v>
+        <v>2.044569893844872</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10631,25 +10631,25 @@
         <v>97</v>
       </c>
       <c r="G243">
-        <v>-5.416433687325377</v>
+        <v>-5.246578737373229</v>
       </c>
       <c r="H243">
-        <v>-7.144595671341714</v>
+        <v>-6.668975026572416</v>
       </c>
       <c r="I243">
-        <v>-2.919275802030105</v>
+        <v>-2.555886603562638</v>
       </c>
       <c r="J243" t="s">
         <v>97</v>
       </c>
       <c r="K243">
-        <v>-7.608775334592332</v>
+        <v>-7.442857433065109</v>
       </c>
       <c r="L243">
-        <v>-9.296880449974033</v>
+        <v>-8.832284161638714</v>
       </c>
       <c r="M243">
-        <v>-5.169498785824766</v>
+        <v>-4.81453254395563</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10672,25 +10672,25 @@
         <v>97</v>
       </c>
       <c r="G244">
-        <v>-1.185960099314667</v>
+        <v>-1.034485044901709</v>
       </c>
       <c r="H244">
-        <v>-3.452961977470044</v>
+        <v>-3.02738850001568</v>
       </c>
       <c r="I244">
-        <v>0.788926212607046</v>
+        <v>0.931708334278542</v>
       </c>
       <c r="J244" t="s">
         <v>97</v>
       </c>
       <c r="K244">
-        <v>-4.224442419854735</v>
+        <v>-4.077625147628394</v>
       </c>
       <c r="L244">
-        <v>-6.421735123743688</v>
+        <v>-6.009247817936947</v>
       </c>
       <c r="M244">
-        <v>-2.310282874593728</v>
+        <v>-2.17189123177346</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10713,25 +10713,25 @@
         <v>97</v>
       </c>
       <c r="G245">
-        <v>0.004728716288293467</v>
+        <v>-0.2306813407866591</v>
       </c>
       <c r="H245">
-        <v>-1.090250473887627</v>
+        <v>-1.65201391663294</v>
       </c>
       <c r="I245">
-        <v>1.773990205087272</v>
+        <v>1.03862796505683</v>
       </c>
       <c r="J245" t="s">
         <v>97</v>
       </c>
       <c r="K245">
-        <v>-2.086058669157542</v>
+        <v>-2.31654703518791</v>
       </c>
       <c r="L245">
-        <v>-3.158145255078315</v>
+        <v>-3.708163974001344</v>
       </c>
       <c r="M245">
-        <v>-0.3537869272417504</v>
+        <v>-1.07377503331948</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10754,25 +10754,25 @@
         <v>97</v>
       </c>
       <c r="G246">
-        <v>0.6029834253266355</v>
+        <v>0.6652199835068056</v>
       </c>
       <c r="H246">
-        <v>-0.4444050560091123</v>
+        <v>-0.365918097697695</v>
       </c>
       <c r="I246">
-        <v>3.088248836344628</v>
+        <v>3.087157999325208</v>
       </c>
       <c r="J246" t="s">
         <v>97</v>
       </c>
       <c r="K246">
-        <v>-1.716066991605669</v>
+        <v>-1.655265079906953</v>
       </c>
       <c r="L246">
-        <v>-2.739311589612792</v>
+        <v>-2.66263387400173</v>
       </c>
       <c r="M246">
-        <v>0.7119093053982617</v>
+        <v>0.7108436138164809</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10795,25 +10795,25 @@
         <v>97</v>
       </c>
       <c r="G247">
-        <v>0.3503040544365691</v>
+        <v>0.3018943016823096</v>
       </c>
       <c r="H247">
-        <v>-0.8155275354555687</v>
+        <v>-0.69617878578322</v>
       </c>
       <c r="I247">
-        <v>2.743022671180288</v>
+        <v>2.397705150279306</v>
       </c>
       <c r="J247" t="s">
         <v>97</v>
       </c>
       <c r="K247">
-        <v>-2.127754177276053</v>
+        <v>-2.174968495821739</v>
       </c>
       <c r="L247">
-        <v>-3.264796630998212</v>
+        <v>-3.148395088654787</v>
       </c>
       <c r="M247">
-        <v>0.2058784594074936</v>
+        <v>-0.1309117637111279</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10836,25 +10836,25 @@
         <v>98</v>
       </c>
       <c r="G248">
-        <v>3.11129096786977</v>
+        <v>3.174021217526469</v>
       </c>
       <c r="H248">
-        <v>2.131910318182459</v>
+        <v>2.381812551398454</v>
       </c>
       <c r="I248">
-        <v>4.016590305718434</v>
+        <v>3.860830725175298</v>
       </c>
       <c r="J248" t="s">
         <v>98</v>
       </c>
       <c r="K248">
-        <v>1.014561885046295</v>
+        <v>1.076016538814395</v>
       </c>
       <c r="L248">
-        <v>0.05509657025664083</v>
+        <v>0.2999171361272923</v>
       </c>
       <c r="M248">
-        <v>1.901452303439966</v>
+        <v>1.74886003502519</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10877,25 +10877,25 @@
         <v>98</v>
       </c>
       <c r="G249">
-        <v>-8.606532462610659</v>
+        <v>-9.255295491658316</v>
       </c>
       <c r="H249">
-        <v>-11.69850168848269</v>
+        <v>-11.2056577676682</v>
       </c>
       <c r="I249">
-        <v>-6.707799657461621</v>
+        <v>-7.588564843090801</v>
       </c>
       <c r="J249" t="s">
         <v>98</v>
       </c>
       <c r="K249">
-        <v>-10.11906502681907</v>
+        <v>-10.75709123589118</v>
       </c>
       <c r="L249">
-        <v>-13.15986315405926</v>
+        <v>-12.67517564200559</v>
       </c>
       <c r="M249">
-        <v>-8.251755640388048</v>
+        <v>-9.117944444788018</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10918,25 +10918,25 @@
         <v>98</v>
       </c>
       <c r="G250">
-        <v>-0.2127955309060715</v>
+        <v>-1.248535969769159</v>
       </c>
       <c r="H250">
-        <v>-1.974720739918324</v>
+        <v>-2.567507141480736</v>
       </c>
       <c r="I250">
-        <v>0.9858610088018942</v>
+        <v>-0.2647108797091726</v>
       </c>
       <c r="J250" t="s">
         <v>98</v>
       </c>
       <c r="K250">
-        <v>-2.440400270322463</v>
+        <v>-3.453019304766092</v>
       </c>
       <c r="L250">
-        <v>-4.162993052226693</v>
+        <v>-4.742546356373389</v>
       </c>
       <c r="M250">
-        <v>-1.26850200090568</v>
+        <v>-2.491156684193396</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10959,25 +10959,25 @@
         <v>98</v>
       </c>
       <c r="G251">
-        <v>-0.5973696366851585</v>
+        <v>-0.6437075376671557</v>
       </c>
       <c r="H251">
-        <v>-1.822943555234856</v>
+        <v>-2.004460490856057</v>
       </c>
       <c r="I251">
-        <v>0.4741277425145487</v>
+        <v>0.4629278439222005</v>
       </c>
       <c r="J251" t="s">
         <v>98</v>
       </c>
       <c r="K251">
-        <v>-3.095687342215236</v>
+        <v>-3.140860618095886</v>
       </c>
       <c r="L251">
-        <v>-4.290458524368946</v>
+        <v>-4.467413337514525</v>
       </c>
       <c r="M251">
-        <v>-2.051120245082505</v>
+        <v>-2.062038653086018</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11000,25 +11000,25 @@
         <v>98</v>
       </c>
       <c r="G252">
-        <v>0.1541980231029008</v>
+        <v>-0.5424317617613421</v>
       </c>
       <c r="H252">
-        <v>-1.597904533207625</v>
+        <v>-1.799289378784344</v>
       </c>
       <c r="I252">
-        <v>1.520153246936101</v>
+        <v>1.056012534104055</v>
       </c>
       <c r="J252" t="s">
         <v>98</v>
       </c>
       <c r="K252">
-        <v>-2.186168475262518</v>
+        <v>-2.866519671286338</v>
       </c>
       <c r="L252">
-        <v>-3.897328542836387</v>
+        <v>-4.094007501339281</v>
       </c>
       <c r="M252">
-        <v>-0.8521323911880763</v>
+        <v>-1.30542723438829</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11041,25 +11041,25 @@
         <v>98</v>
       </c>
       <c r="G253">
-        <v>0.4910778601389323</v>
+        <v>-0.2699016638326697</v>
       </c>
       <c r="H253">
-        <v>-0.7623983621748061</v>
+        <v>-1.366430248768471</v>
       </c>
       <c r="I253">
-        <v>1.480436576050865</v>
+        <v>0.7973218463477749</v>
       </c>
       <c r="J253" t="s">
         <v>98</v>
       </c>
       <c r="K253">
-        <v>-1.85113957219426</v>
+        <v>-2.594382402076711</v>
       </c>
       <c r="L253">
-        <v>-3.075400127590744</v>
+        <v>-3.665353410943284</v>
       </c>
       <c r="M253">
-        <v>-0.8848405475562648</v>
+        <v>-1.552033433626421</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11082,25 +11082,25 @@
         <v>99</v>
       </c>
       <c r="G254">
-        <v>5.652814338369269</v>
+        <v>5.11582600088527</v>
       </c>
       <c r="H254">
-        <v>4.075707779817473</v>
+        <v>3.48762267797939</v>
       </c>
       <c r="I254">
-        <v>8.468958772587138</v>
+        <v>7.873522029483433</v>
       </c>
       <c r="J254" t="s">
         <v>99</v>
       </c>
       <c r="K254">
-        <v>4.651196426569926</v>
+        <v>4.119298887098455</v>
       </c>
       <c r="L254">
-        <v>3.089041274544835</v>
+        <v>2.506531382182731</v>
       </c>
       <c r="M254">
-        <v>7.440643032384542</v>
+        <v>6.850851194350072</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11123,25 +11123,25 @@
         <v>99</v>
       </c>
       <c r="G255">
-        <v>-6.753237225437104</v>
+        <v>-6.91576405747585</v>
       </c>
       <c r="H255">
-        <v>-11.06739412414039</v>
+        <v>-11.59478886408125</v>
       </c>
       <c r="I255">
-        <v>0.4244385338663174</v>
+        <v>0.7392510231993176</v>
       </c>
       <c r="J255" t="s">
         <v>99</v>
       </c>
       <c r="K255">
-        <v>-8.139655926392575</v>
+        <v>-8.299766264467978</v>
       </c>
       <c r="L255">
-        <v>-12.38966874518095</v>
+        <v>-12.90922203402492</v>
       </c>
       <c r="M255">
-        <v>-1.068699838700182</v>
+        <v>-0.758568068670662</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11164,25 +11164,25 @@
         <v>99</v>
       </c>
       <c r="G256">
-        <v>3.600933668170978</v>
+        <v>3.175001294573861</v>
       </c>
       <c r="H256">
-        <v>-1.710360744961067</v>
+        <v>-2.526108899282562</v>
       </c>
       <c r="I256">
-        <v>7.565314436009192</v>
+        <v>6.1329510735896</v>
       </c>
       <c r="J256" t="s">
         <v>99</v>
       </c>
       <c r="K256">
-        <v>-0.1062829225543571</v>
+        <v>-0.5169738933376355</v>
       </c>
       <c r="L256">
-        <v>-5.22751998707548</v>
+        <v>-6.014077718256184</v>
       </c>
       <c r="M256">
-        <v>3.716237944662137</v>
+        <v>2.335129730561158</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11205,25 +11205,25 @@
         <v>99</v>
       </c>
       <c r="G257">
-        <v>9.355813314028264</v>
+        <v>8.522672508698854</v>
       </c>
       <c r="H257">
-        <v>-0.1548025548064027</v>
+        <v>-2.397186946635847</v>
       </c>
       <c r="I257">
-        <v>11.69075257913904</v>
+        <v>11.27908220380997</v>
       </c>
       <c r="J257" t="s">
         <v>99</v>
       </c>
       <c r="K257">
-        <v>1.773265441858651</v>
+        <v>0.9978932164448562</v>
       </c>
       <c r="L257">
-        <v>-7.07790034440775</v>
+        <v>-9.164801580074045</v>
       </c>
       <c r="M257">
-        <v>3.946303951812791</v>
+        <v>3.563178106800757</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11246,25 +11246,25 @@
         <v>99</v>
       </c>
       <c r="G258">
-        <v>8.976722556419015</v>
+        <v>8.242461913574145</v>
       </c>
       <c r="H258">
-        <v>-2.950399873267781</v>
+        <v>-4.428492666760742</v>
       </c>
       <c r="I258">
-        <v>12.23650958573867</v>
+        <v>11.52679790770248</v>
       </c>
       <c r="J258" t="s">
         <v>99</v>
       </c>
       <c r="K258">
-        <v>2.195022431022609</v>
+        <v>1.506455358114889</v>
       </c>
       <c r="L258">
-        <v>-8.989866558535287</v>
+        <v>-10.37597657031273</v>
       </c>
       <c r="M258">
-        <v>5.251950559955909</v>
+        <v>4.586404752052609</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11287,25 +11287,25 @@
         <v>99</v>
       </c>
       <c r="G259">
-        <v>5.882408729673653</v>
+        <v>4.833421815930489</v>
       </c>
       <c r="H259">
-        <v>-2.235309427341432</v>
+        <v>-5.373032642536828</v>
       </c>
       <c r="I259">
-        <v>9.680770731286181</v>
+        <v>8.565271137504048</v>
       </c>
       <c r="J259" t="s">
         <v>99</v>
       </c>
       <c r="K259">
-        <v>-0.3039600013853394</v>
+        <v>-1.291657982242211</v>
       </c>
       <c r="L259">
-        <v>-7.947385984878741</v>
+        <v>-10.90178212036289</v>
       </c>
       <c r="M259">
-        <v>3.272475920173501</v>
+        <v>2.222151381334658</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11328,25 +11328,25 @@
         <v>100</v>
       </c>
       <c r="G260">
-        <v>2.445306215138161</v>
+        <v>2.073151391098446</v>
       </c>
       <c r="H260">
-        <v>1.832131118678532</v>
+        <v>1.368209130920568</v>
       </c>
       <c r="I260">
-        <v>3.222725677746568</v>
+        <v>3.271816125561481</v>
       </c>
       <c r="J260" t="s">
         <v>100</v>
       </c>
       <c r="K260">
-        <v>-0.04025984211142308</v>
+        <v>-0.4033853076295002</v>
       </c>
       <c r="L260">
-        <v>-0.6385578567093431</v>
+        <v>-1.091223996946467</v>
       </c>
       <c r="M260">
-        <v>0.7182975808399883</v>
+        <v>0.7661969779827693</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11369,25 +11369,25 @@
         <v>100</v>
       </c>
       <c r="G261">
-        <v>-16.67793019279999</v>
+        <v>-15.749438426276</v>
       </c>
       <c r="H261">
-        <v>-19.35612213107683</v>
+        <v>-19.10434214069324</v>
       </c>
       <c r="I261">
-        <v>-11.16846786779817</v>
+        <v>-9.566483346183322</v>
       </c>
       <c r="J261" t="s">
         <v>100</v>
       </c>
       <c r="K261">
-        <v>-18.57362511244666</v>
+        <v>-17.66625784665586</v>
       </c>
       <c r="L261">
-        <v>-21.19088439671025</v>
+        <v>-20.94483275716748</v>
       </c>
       <c r="M261">
-        <v>-13.18951084665242</v>
+        <v>-11.62397373838202</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11410,25 +11410,25 @@
         <v>100</v>
       </c>
       <c r="G262">
-        <v>-8.38282248380256</v>
+        <v>-8.787435681855841</v>
       </c>
       <c r="H262">
-        <v>-10.27407826401404</v>
+        <v>-10.48359417071961</v>
       </c>
       <c r="I262">
-        <v>-4.649314498748842</v>
+        <v>-4.422412863938368</v>
       </c>
       <c r="J262" t="s">
         <v>100</v>
       </c>
       <c r="K262">
-        <v>-10.25026812789077</v>
+        <v>-10.64663403897529</v>
       </c>
       <c r="L262">
-        <v>-12.10297417906276</v>
+        <v>-12.308219493965</v>
       </c>
       <c r="M262">
-        <v>-6.592860754238505</v>
+        <v>-6.370584086940134</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11451,25 +11451,25 @@
         <v>100</v>
       </c>
       <c r="G263">
-        <v>-4.60872285747762</v>
+        <v>-5.309737347211645</v>
       </c>
       <c r="H263">
-        <v>-5.766828479765103</v>
+        <v>-6.559483180762609</v>
       </c>
       <c r="I263">
-        <v>-3.249791722451121</v>
+        <v>-3.493764700917583</v>
       </c>
       <c r="J263" t="s">
         <v>100</v>
       </c>
       <c r="K263">
-        <v>-6.609981294512624</v>
+        <v>-7.296288871789979</v>
       </c>
       <c r="L263">
-        <v>-7.743790474640955</v>
+        <v>-8.519815700118837</v>
       </c>
       <c r="M263">
-        <v>-5.279559814464929</v>
+        <v>-5.518414369148939</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11492,25 +11492,25 @@
         <v>100</v>
       </c>
       <c r="G264">
-        <v>-6.793459775761833</v>
+        <v>-6.903295390526144</v>
       </c>
       <c r="H264">
-        <v>-7.716947687496125</v>
+        <v>-8.179262885757627</v>
       </c>
       <c r="I264">
-        <v>-4.18510720287497</v>
+        <v>-3.574341856250634</v>
       </c>
       <c r="J264" t="s">
         <v>100</v>
       </c>
       <c r="K264">
-        <v>-8.456685103410733</v>
+        <v>-8.564560755108985</v>
       </c>
       <c r="L264">
-        <v>-9.363693823010234</v>
+        <v>-9.81775923166196</v>
       </c>
       <c r="M264">
-        <v>-5.894877312169299</v>
+        <v>-5.295010775771281</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11533,25 +11533,25 @@
         <v>100</v>
       </c>
       <c r="G265">
-        <v>-4.439997891800433</v>
+        <v>-4.397562406605478</v>
       </c>
       <c r="H265">
-        <v>-5.56073651275524</v>
+        <v>-5.895776259151971</v>
       </c>
       <c r="I265">
-        <v>-2.773329096330655</v>
+        <v>-3.163708214059966</v>
       </c>
       <c r="J265" t="s">
         <v>100</v>
       </c>
       <c r="K265">
-        <v>-6.586590940077219</v>
+        <v>-6.54510869594035</v>
       </c>
       <c r="L265">
-        <v>-7.682154072547275</v>
+        <v>-8.009667720423241</v>
       </c>
       <c r="M265">
-        <v>-4.957361026683693</v>
+        <v>-5.338970940961529</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11574,25 +11574,25 @@
         <v>101</v>
       </c>
       <c r="G266">
-        <v>4.1665883441171</v>
+        <v>4.692800797509233</v>
       </c>
       <c r="H266">
-        <v>3.26917777302772</v>
+        <v>3.882905774406513</v>
       </c>
       <c r="I266">
-        <v>4.940551933370736</v>
+        <v>5.401195462605556</v>
       </c>
       <c r="J266" t="s">
         <v>101</v>
       </c>
       <c r="K266">
-        <v>-0.5625580830230126</v>
+        <v>-0.0602355907348695</v>
       </c>
       <c r="L266">
-        <v>-1.419226357917336</v>
+        <v>-0.8333615095043156</v>
       </c>
       <c r="M266">
-        <v>0.1762676832392174</v>
+        <v>0.6159980700250367</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11615,25 +11615,25 @@
         <v>101</v>
       </c>
       <c r="G267">
-        <v>-6.157049040036344</v>
+        <v>-6.467302719025575</v>
       </c>
       <c r="H267">
-        <v>-9.640814340342494</v>
+        <v>-9.841539030961609</v>
       </c>
       <c r="I267">
-        <v>-3.913941831207108</v>
+        <v>-4.280807337277545</v>
       </c>
       <c r="J267" t="s">
         <v>101</v>
       </c>
       <c r="K267">
-        <v>-10.05635548050657</v>
+        <v>-10.35371768329768</v>
       </c>
       <c r="L267">
-        <v>-13.39536543868409</v>
+        <v>-13.58774973643527</v>
       </c>
       <c r="M267">
-        <v>-7.906452527261598</v>
+        <v>-8.258074256191893</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11656,25 +11656,25 @@
         <v>101</v>
       </c>
       <c r="G268">
-        <v>-3.202251195085028</v>
+        <v>-3.199591944006294</v>
       </c>
       <c r="H268">
-        <v>-6.282930936687118</v>
+        <v>-6.927996106560443</v>
       </c>
       <c r="I268">
-        <v>-1.607185586462623</v>
+        <v>-1.336308560766671</v>
       </c>
       <c r="J268" t="s">
         <v>101</v>
       </c>
       <c r="K268">
-        <v>-6.988450341985541</v>
+        <v>-6.985895106282058</v>
       </c>
       <c r="L268">
-        <v>-9.948630721220898</v>
+        <v>-10.56846446550815</v>
       </c>
       <c r="M268">
-        <v>-5.455774986454531</v>
+        <v>-5.195493190257904</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11697,25 +11697,25 @@
         <v>101</v>
       </c>
       <c r="G269">
-        <v>-0.008942035714957575</v>
+        <v>-0.01627072696499774</v>
       </c>
       <c r="H269">
-        <v>-1.909747095567332</v>
+        <v>-2.037565942688162</v>
       </c>
       <c r="I269">
-        <v>1.327828078984042</v>
+        <v>1.562987016547577</v>
       </c>
       <c r="J269" t="s">
         <v>101</v>
       </c>
       <c r="K269">
-        <v>-4.128219963820856</v>
+        <v>-4.135246738912368</v>
       </c>
       <c r="L269">
-        <v>-5.95071857819609</v>
+        <v>-6.073271740900132</v>
       </c>
       <c r="M269">
-        <v>-2.846520049803192</v>
+        <v>-2.621048828729744</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11738,25 +11738,25 @@
         <v>101</v>
       </c>
       <c r="G270">
-        <v>0.7477698361104401</v>
+        <v>0.9169155770084092</v>
       </c>
       <c r="H270">
-        <v>-0.3131905822678802</v>
+        <v>-0.2729032098117435</v>
       </c>
       <c r="I270">
-        <v>2.088018812222333</v>
+        <v>2.319589511635905</v>
       </c>
       <c r="J270" t="s">
         <v>101</v>
       </c>
       <c r="K270">
-        <v>-3.141538731029936</v>
+        <v>-2.978922762257352</v>
       </c>
       <c r="L270">
-        <v>-4.161541394697577</v>
+        <v>-4.12280929262705</v>
       </c>
       <c r="M270">
-        <v>-1.853029280600582</v>
+        <v>-1.630398232224373</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11779,25 +11779,25 @@
         <v>101</v>
       </c>
       <c r="G271">
-        <v>1.682912573035059</v>
+        <v>2.254714285802292</v>
       </c>
       <c r="H271">
-        <v>0.008670084944170889</v>
+        <v>1.079165772551475</v>
       </c>
       <c r="I271">
-        <v>2.885890166240018</v>
+        <v>3.806292919555816</v>
       </c>
       <c r="J271" t="s">
         <v>101</v>
       </c>
       <c r="K271">
-        <v>-2.247084968276447</v>
+        <v>-1.697383127242125</v>
       </c>
       <c r="L271">
-        <v>-3.856618758561003</v>
+        <v>-2.827497234161891</v>
       </c>
       <c r="M271">
-        <v>-1.090601902656474</v>
+        <v>-0.2057722900583925</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarterly_tracker.xlsx
+++ b/Data/quarterly_tracker.xlsx
@@ -750,25 +750,25 @@
         <v>57</v>
       </c>
       <c r="G2">
-        <v>-4.593015319165417</v>
+        <v>-3.495403884782753</v>
       </c>
       <c r="H2">
-        <v>-7.208720766141258</v>
+        <v>-5.594082216771292</v>
       </c>
       <c r="I2">
-        <v>1.261098119798283</v>
+        <v>1.074206131141834</v>
       </c>
       <c r="J2" t="s">
         <v>57</v>
       </c>
       <c r="K2">
-        <v>4.046267646579493</v>
+        <v>5.243269872944412</v>
       </c>
       <c r="L2">
-        <v>1.193705122660482</v>
+        <v>2.954552247451536</v>
       </c>
       <c r="M2">
-        <v>10.43048213298712</v>
+        <v>10.22666672117214</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -791,25 +791,25 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>-20.56055228157249</v>
+        <v>-18.7926120283312</v>
       </c>
       <c r="H3">
-        <v>-24.07613276174629</v>
+        <v>-21.72843166646129</v>
       </c>
       <c r="I3">
-        <v>-12.62270657283995</v>
+        <v>-12.18561803796633</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
       </c>
       <c r="K3">
-        <v>-17.39069604124913</v>
+        <v>-15.55221002510022</v>
       </c>
       <c r="L3">
-        <v>-21.04655801938772</v>
+        <v>-18.60517708139183</v>
       </c>
       <c r="M3">
-        <v>-9.136108078167894</v>
+        <v>-8.681578487752773</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -832,25 +832,25 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>-11.61748657236887</v>
+        <v>-11.80204802049299</v>
       </c>
       <c r="H4">
-        <v>-14.25044911519844</v>
+        <v>-13.68871307136805</v>
       </c>
       <c r="I4">
-        <v>-8.321655224767488</v>
+        <v>-8.005606770377014</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
       </c>
       <c r="K4">
-        <v>-8.067436153024044</v>
+        <v>-8.259410859958061</v>
       </c>
       <c r="L4">
-        <v>-10.80615660448047</v>
+        <v>-10.22185737251904</v>
       </c>
       <c r="M4">
-        <v>-4.639221520495795</v>
+        <v>-4.310478383588057</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -873,25 +873,25 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>-9.041526219876616</v>
+        <v>-7.902955347506178</v>
       </c>
       <c r="H5">
-        <v>-13.02833576085551</v>
+        <v>-11.00393362253055</v>
       </c>
       <c r="I5">
-        <v>-6.856749437392104</v>
+        <v>-5.489066202094156</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
       </c>
       <c r="K5">
-        <v>-6.701574664408428</v>
+        <v>-5.533713495344417</v>
       </c>
       <c r="L5">
-        <v>-10.79094684522799</v>
+        <v>-8.714465964421969</v>
       </c>
       <c r="M5">
-        <v>-4.460593422701309</v>
+        <v>-3.057725862284189</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -914,25 +914,25 @@
         <v>57</v>
       </c>
       <c r="G6">
-        <v>-4.385711727092907</v>
+        <v>-3.223370612437543</v>
       </c>
       <c r="H6">
-        <v>-9.202451111317576</v>
+        <v>-6.676223372485886</v>
       </c>
       <c r="I6">
-        <v>-2.043258929436561</v>
+        <v>-1.386038681955045</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>-2.20202653678967</v>
+        <v>-1.013139315647493</v>
       </c>
       <c r="L6">
-        <v>-7.12877293616735</v>
+        <v>-4.544849990894595</v>
       </c>
       <c r="M6">
-        <v>0.1939243266434909</v>
+        <v>0.8661544868390658</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -955,25 +955,25 @@
         <v>57</v>
       </c>
       <c r="G7">
-        <v>-6.956900154701914</v>
+        <v>-5.872459528773961</v>
       </c>
       <c r="H7">
-        <v>-11.34498092751578</v>
+        <v>-9.369399387740017</v>
       </c>
       <c r="I7">
-        <v>-4.451716249127159</v>
+        <v>-3.604960613383593</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
       </c>
       <c r="K7">
-        <v>-5.441039701920203</v>
+        <v>-4.338931342856034</v>
       </c>
       <c r="L7">
-        <v>-9.900611193746878</v>
+        <v>-7.892843431324071</v>
       </c>
       <c r="M7">
-        <v>-2.895041279033361</v>
+        <v>-2.034490279812784</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -996,25 +996,25 @@
         <v>58</v>
       </c>
       <c r="G8">
-        <v>3.456859820322394</v>
+        <v>3.080792715406183</v>
       </c>
       <c r="H8">
-        <v>2.211741119742809</v>
+        <v>1.828125122297092</v>
       </c>
       <c r="I8">
-        <v>4.780251767102667</v>
+        <v>4.181725664627401</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
       </c>
       <c r="K8">
-        <v>-0.3871369648311807</v>
+        <v>-0.7492310886922038</v>
       </c>
       <c r="L8">
-        <v>-1.585992592179331</v>
+        <v>-1.955355125297253</v>
       </c>
       <c r="M8">
-        <v>0.887083623010132</v>
+        <v>0.3107960885500027</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1037,25 +1037,25 @@
         <v>58</v>
       </c>
       <c r="G9">
-        <v>-5.696392286024376</v>
+        <v>-5.698503250941525</v>
       </c>
       <c r="H9">
-        <v>-9.021235013573502</v>
+        <v>-8.082381507446911</v>
       </c>
       <c r="I9">
-        <v>-3.575046766098201</v>
+        <v>-3.011862663086107</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
       </c>
       <c r="K9">
-        <v>-9.103823423863933</v>
+        <v>-9.105858114206178</v>
       </c>
       <c r="L9">
-        <v>-12.30853105888689</v>
+        <v>-11.40360073712402</v>
       </c>
       <c r="M9">
-        <v>-7.059127556627987</v>
+        <v>-6.516292739241958</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1078,25 +1078,25 @@
         <v>58</v>
       </c>
       <c r="G10">
-        <v>-0.8874892036956215</v>
+        <v>-1.297552617154419</v>
       </c>
       <c r="H10">
-        <v>-2.567031503515997</v>
+        <v>-2.948407667824585</v>
       </c>
       <c r="I10">
-        <v>1.369434542343455</v>
+        <v>1.281275332443761</v>
       </c>
       <c r="J10" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>-4.745751709398061</v>
+        <v>-5.139852130088363</v>
       </c>
       <c r="L10">
-        <v>-6.359912605497797</v>
+        <v>-6.726442517365616</v>
       </c>
       <c r="M10">
-        <v>-2.576685734266104</v>
+        <v>-2.661413072938301</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1119,25 +1119,25 @@
         <v>58</v>
       </c>
       <c r="G11">
-        <v>0.8773145441847507</v>
+        <v>0.9324664908655852</v>
       </c>
       <c r="H11">
-        <v>-0.6475624638594243</v>
+        <v>-0.5492716723746099</v>
       </c>
       <c r="I11">
-        <v>3.211948892955255</v>
+        <v>3.302790033784718</v>
       </c>
       <c r="J11" t="s">
         <v>58</v>
       </c>
       <c r="K11">
-        <v>-3.48534640447532</v>
+        <v>-3.432579624817578</v>
       </c>
       <c r="L11">
-        <v>-4.944276758362786</v>
+        <v>-4.850236767958083</v>
       </c>
       <c r="M11">
-        <v>-1.251678443924054</v>
+        <v>-1.164765927676048</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1160,25 +1160,25 @@
         <v>58</v>
       </c>
       <c r="G12">
-        <v>2.863557645939431</v>
+        <v>2.566468687695175</v>
       </c>
       <c r="H12">
-        <v>1.694983143101956</v>
+        <v>1.27792782480782</v>
       </c>
       <c r="I12">
-        <v>5.505166006770429</v>
+        <v>4.764164800523593</v>
       </c>
       <c r="J12" t="s">
         <v>58</v>
       </c>
       <c r="K12">
-        <v>-1.637548339092287</v>
+        <v>-1.921637271684684</v>
       </c>
       <c r="L12">
-        <v>-2.754988331233754</v>
+        <v>-3.153794133059429</v>
       </c>
       <c r="M12">
-        <v>0.8884684606926374</v>
+        <v>0.1798920027306528</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1201,25 +1201,25 @@
         <v>58</v>
       </c>
       <c r="G13">
-        <v>4.217588344054717</v>
+        <v>3.728054240712418</v>
       </c>
       <c r="H13">
-        <v>2.760862299283401</v>
+        <v>2.443751015137983</v>
       </c>
       <c r="I13">
-        <v>6.238547250655882</v>
+        <v>5.616905309219872</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13">
-        <v>-0.4333343457954886</v>
+        <v>-0.9010219901584127</v>
       </c>
       <c r="L13">
-        <v>-1.825051016216717</v>
+        <v>-2.128010561772964</v>
       </c>
       <c r="M13">
-        <v>1.497435142845482</v>
+        <v>0.9035352424250576</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1242,25 +1242,25 @@
         <v>59</v>
       </c>
       <c r="G14">
-        <v>2.489509805459649</v>
+        <v>2.69762262680453</v>
       </c>
       <c r="H14">
-        <v>1.437911610971357</v>
+        <v>1.600448577129069</v>
       </c>
       <c r="I14">
-        <v>3.66158640185089</v>
+        <v>3.882556004343737</v>
       </c>
       <c r="J14" t="s">
         <v>59</v>
       </c>
       <c r="K14">
-        <v>-0.32761663849461</v>
+        <v>-0.1252242087629751</v>
       </c>
       <c r="L14">
-        <v>-1.350309581238307</v>
+        <v>-1.192240264368338</v>
       </c>
       <c r="M14">
-        <v>0.8122431195070057</v>
+        <v>1.027138936383398</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1283,25 +1283,25 @@
         <v>59</v>
       </c>
       <c r="G15">
-        <v>-13.18753134539947</v>
+        <v>-11.15805702317634</v>
       </c>
       <c r="H15">
-        <v>-15.41561794852836</v>
+        <v>-13.00478642400218</v>
       </c>
       <c r="I15">
-        <v>-9.61165034683644</v>
+        <v>-8.598449447878062</v>
       </c>
       <c r="J15" t="s">
         <v>59</v>
       </c>
       <c r="K15">
-        <v>-15.69977352298584</v>
+        <v>-13.72902960055012</v>
       </c>
       <c r="L15">
-        <v>-17.86338214010138</v>
+        <v>-15.52231700665742</v>
       </c>
       <c r="M15">
-        <v>-12.22737396212229</v>
+        <v>-11.24349380558928</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1324,25 +1324,25 @@
         <v>59</v>
       </c>
       <c r="G16">
-        <v>-4.297486187305302</v>
+        <v>-3.309732924799062</v>
       </c>
       <c r="H16">
-        <v>-6.749704283582904</v>
+        <v>-5.020671931206016</v>
       </c>
       <c r="I16">
-        <v>-2.510348019739324</v>
+        <v>-1.975931996933341</v>
       </c>
       <c r="J16" t="s">
         <v>59</v>
       </c>
       <c r="K16">
-        <v>-7.108930645847778</v>
+        <v>-6.150194525375186</v>
       </c>
       <c r="L16">
-        <v>-9.489110143521684</v>
+        <v>-7.81087142479212</v>
       </c>
       <c r="M16">
-        <v>-5.374293081428827</v>
+        <v>-4.855576551833806</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1365,25 +1365,25 @@
         <v>59</v>
       </c>
       <c r="G17">
-        <v>-4.456443429452993</v>
+        <v>-4.001371772224599</v>
       </c>
       <c r="H17">
-        <v>-6.46450009766493</v>
+        <v>-5.646041762966826</v>
       </c>
       <c r="I17">
-        <v>-1.897078211742317</v>
+        <v>-2.014659638827919</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
       </c>
       <c r="K17">
-        <v>-6.902062190336922</v>
+        <v>-6.458638956324192</v>
       </c>
       <c r="L17">
-        <v>-8.858718834968283</v>
+        <v>-8.061210495541305</v>
       </c>
       <c r="M17">
-        <v>-4.408208785427192</v>
+        <v>-4.522780492607725</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1406,25 +1406,25 @@
         <v>59</v>
       </c>
       <c r="G18">
-        <v>-5.770040536519444</v>
+        <v>-5.470104367118803</v>
       </c>
       <c r="H18">
-        <v>-7.651636468775338</v>
+        <v>-7.39357912585862</v>
       </c>
       <c r="I18">
-        <v>-1.343619291021282</v>
+        <v>-2.528666244274767</v>
       </c>
       <c r="J18" t="s">
         <v>59</v>
       </c>
       <c r="K18">
-        <v>-7.990040401155996</v>
+        <v>-7.697170543353704</v>
       </c>
       <c r="L18">
-        <v>-9.827307091006476</v>
+        <v>-9.575329420304469</v>
       </c>
       <c r="M18">
-        <v>-3.667902916595234</v>
+        <v>-4.825030892797367</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1447,25 +1447,25 @@
         <v>59</v>
       </c>
       <c r="G19">
-        <v>-5.14554710447329</v>
+        <v>-4.94259954568335</v>
       </c>
       <c r="H19">
-        <v>-6.710568672193789</v>
+        <v>-7.044203340819116</v>
       </c>
       <c r="I19">
-        <v>-1.168456398116016</v>
+        <v>-2.473237162113453</v>
       </c>
       <c r="J19" t="s">
         <v>59</v>
       </c>
       <c r="K19">
-        <v>-7.556790897206723</v>
+        <v>-7.35900235864666</v>
       </c>
       <c r="L19">
-        <v>-9.082028897308991</v>
+        <v>-9.407182419301696</v>
       </c>
       <c r="M19">
-        <v>-3.680799664686518</v>
+        <v>-4.952412301916819</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1488,25 +1488,25 @@
         <v>60</v>
       </c>
       <c r="G20">
-        <v>3.095591302283335</v>
+        <v>1.662720349571923</v>
       </c>
       <c r="H20">
-        <v>2.123267781210717</v>
+        <v>0.6522542623043321</v>
       </c>
       <c r="I20">
-        <v>4.058225949647147</v>
+        <v>2.669011450582329</v>
       </c>
       <c r="J20" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0.5396551667938176</v>
+        <v>-0.8576921849636876</v>
       </c>
       <c r="L20">
-        <v>-0.4085626016321231</v>
+        <v>-1.843106892695956</v>
       </c>
       <c r="M20">
-        <v>1.478424267150324</v>
+        <v>0.1236510423752391</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1529,25 +1529,25 @@
         <v>60</v>
       </c>
       <c r="G21">
-        <v>-13.67066838658666</v>
+        <v>-12.80911745394781</v>
       </c>
       <c r="H21">
-        <v>-15.30913450471209</v>
+        <v>-14.79551355073698</v>
       </c>
       <c r="I21">
-        <v>-11.45119745273975</v>
+        <v>-10.74928153419698</v>
       </c>
       <c r="J21" t="s">
         <v>60</v>
       </c>
       <c r="K21">
-        <v>-15.79881180795865</v>
+        <v>-14.95849935724948</v>
       </c>
       <c r="L21">
-        <v>-17.39688735632914</v>
+        <v>-16.89592790492622</v>
       </c>
       <c r="M21">
-        <v>-13.63405405650893</v>
+        <v>-12.94944138492158</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1570,25 +1570,25 @@
         <v>60</v>
       </c>
       <c r="G22">
-        <v>-4.649472497070297</v>
+        <v>-4.812654899687424</v>
       </c>
       <c r="H22">
-        <v>-6.35888409067578</v>
+        <v>-6.80400919587448</v>
       </c>
       <c r="I22">
-        <v>-3.266991785007359</v>
+        <v>-3.254334417434291</v>
       </c>
       <c r="J22" t="s">
         <v>60</v>
       </c>
       <c r="K22">
-        <v>-7.094329315234105</v>
+        <v>-7.253327602460469</v>
       </c>
       <c r="L22">
-        <v>-8.759910353318567</v>
+        <v>-9.193622127339351</v>
       </c>
       <c r="M22">
-        <v>-5.747296413302716</v>
+        <v>-5.734963589832565</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1611,25 +1611,25 @@
         <v>60</v>
       </c>
       <c r="G23">
-        <v>-3.28152266560393</v>
+        <v>-3.527993594794857</v>
       </c>
       <c r="H23">
-        <v>-4.529722983857283</v>
+        <v>-4.696001553392927</v>
       </c>
       <c r="I23">
-        <v>-2.194832333426104</v>
+        <v>-2.462428795955546</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
       </c>
       <c r="K23">
-        <v>-5.257942622948885</v>
+        <v>-5.499376975088732</v>
       </c>
       <c r="L23">
-        <v>-6.480636253258531</v>
+        <v>-6.643516958266449</v>
       </c>
       <c r="M23">
-        <v>-4.193458559099128</v>
+        <v>-4.455586749136764</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1652,25 +1652,25 @@
         <v>60</v>
       </c>
       <c r="G24">
-        <v>-2.528519260519122</v>
+        <v>-2.420336356536752</v>
       </c>
       <c r="H24">
-        <v>-4.244473893146917</v>
+        <v>-3.820569645039223</v>
       </c>
       <c r="I24">
-        <v>-1.382467637391499</v>
+        <v>-1.172624764258722</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
       </c>
       <c r="K24">
-        <v>-4.748181462766976</v>
+        <v>-4.642462146093196</v>
       </c>
       <c r="L24">
-        <v>-6.425059643391373</v>
+        <v>-6.010808723926663</v>
       </c>
       <c r="M24">
-        <v>-3.628228216830109</v>
+        <v>-3.423163975255716</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1693,25 +1693,25 @@
         <v>60</v>
       </c>
       <c r="G25">
-        <v>-2.62106143423147</v>
+        <v>-2.355783517126018</v>
       </c>
       <c r="H25">
-        <v>-3.900918479444033</v>
+        <v>-3.455019959135429</v>
       </c>
       <c r="I25">
-        <v>-1.356429519723033</v>
+        <v>-0.7883259020385605</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
       </c>
       <c r="K25">
-        <v>-4.763344084542154</v>
+        <v>-4.503902134512305</v>
       </c>
       <c r="L25">
-        <v>-6.015044984460694</v>
+        <v>-5.578955984341205</v>
       </c>
       <c r="M25">
-        <v>-3.526533370894847</v>
+        <v>-2.970927717777128</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1734,25 +1734,25 @@
         <v>61</v>
       </c>
       <c r="G26">
-        <v>2.23244225915868</v>
+        <v>2.761522168005372</v>
       </c>
       <c r="H26">
-        <v>1.1221013577217</v>
+        <v>1.518844462084218</v>
       </c>
       <c r="I26">
-        <v>3.382978588858439</v>
+        <v>3.808464403419937</v>
       </c>
       <c r="J26" t="s">
         <v>61</v>
       </c>
       <c r="K26">
-        <v>0.1787155593100831</v>
+        <v>0.6971668896826655</v>
       </c>
       <c r="L26">
-        <v>-0.90931993002068</v>
+        <v>-0.5205469170342925</v>
       </c>
       <c r="M26">
-        <v>1.306138999136186</v>
+        <v>1.723077315873489</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1775,25 +1775,25 @@
         <v>61</v>
       </c>
       <c r="G27">
-        <v>-10.25961072248381</v>
+        <v>-9.430481206767224</v>
       </c>
       <c r="H27">
-        <v>-14.09939089716912</v>
+        <v>-13.11916237222114</v>
       </c>
       <c r="I27">
-        <v>-8.031259706833543</v>
+        <v>-7.00413095035057</v>
       </c>
       <c r="J27" t="s">
         <v>61</v>
       </c>
       <c r="K27">
-        <v>-12.53444277391879</v>
+        <v>-11.72633088930819</v>
       </c>
       <c r="L27">
-        <v>-16.27688823586035</v>
+        <v>-15.321507555726</v>
       </c>
       <c r="M27">
-        <v>-10.36257830076136</v>
+        <v>-9.361486264589159</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1816,25 +1816,25 @@
         <v>61</v>
       </c>
       <c r="G28">
-        <v>-3.154818225198614</v>
+        <v>-3.234615546113922</v>
       </c>
       <c r="H28">
-        <v>-5.453166736620377</v>
+        <v>-5.662832436549916</v>
       </c>
       <c r="I28">
-        <v>-0.3698847706813712</v>
+        <v>-0.4403838593846641</v>
       </c>
       <c r="J28" t="s">
         <v>61</v>
       </c>
       <c r="K28">
-        <v>-5.546449194722824</v>
+        <v>-5.62427588849398</v>
       </c>
       <c r="L28">
-        <v>-7.788039059220287</v>
+        <v>-7.99252697981162</v>
       </c>
       <c r="M28">
-        <v>-2.83029079928262</v>
+        <v>-2.899048884450406</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1857,25 +1857,25 @@
         <v>61</v>
       </c>
       <c r="G29">
-        <v>0.02440064580046223</v>
+        <v>0.297075016290394</v>
       </c>
       <c r="H29">
-        <v>-1.165234257289348</v>
+        <v>-0.8430898813924632</v>
       </c>
       <c r="I29">
-        <v>2.271424043914391</v>
+        <v>2.109162757575286</v>
       </c>
       <c r="J29" t="s">
         <v>61</v>
       </c>
       <c r="K29">
-        <v>-2.770321656332397</v>
+        <v>-2.505265918291244</v>
       </c>
       <c r="L29">
-        <v>-3.926717677973346</v>
+        <v>-3.61357414653054</v>
       </c>
       <c r="M29">
-        <v>-0.5860810028645802</v>
+        <v>-0.7438086430855528</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1898,25 +1898,25 @@
         <v>61</v>
       </c>
       <c r="G30">
-        <v>2.231465487544209</v>
+        <v>2.348825561858237</v>
       </c>
       <c r="H30">
-        <v>0.8848166259581867</v>
+        <v>1.034513810593029</v>
       </c>
       <c r="I30">
-        <v>4.00084635300653</v>
+        <v>4.131443208492398</v>
       </c>
       <c r="J30" t="s">
         <v>61</v>
       </c>
       <c r="K30">
-        <v>-1.161355094468497</v>
+        <v>-1.0478899234872</v>
       </c>
       <c r="L30">
-        <v>-2.463311864900941</v>
+        <v>-2.318582775819411</v>
       </c>
       <c r="M30">
-        <v>0.549304204310519</v>
+        <v>0.6755668589989439</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1939,25 +1939,25 @@
         <v>61</v>
       </c>
       <c r="G31">
-        <v>-2.333094936563455</v>
+        <v>-1.32259663735152</v>
       </c>
       <c r="H31">
-        <v>-4.144999977934995</v>
+        <v>-2.874269492635976</v>
       </c>
       <c r="I31">
-        <v>-0.6621377839911076</v>
+        <v>0.8382485539415006</v>
       </c>
       <c r="J31" t="s">
         <v>61</v>
       </c>
       <c r="K31">
-        <v>-5.584212037551572</v>
+        <v>-4.607351010852312</v>
       </c>
       <c r="L31">
-        <v>-7.33580273332628</v>
+        <v>-6.107372079365414</v>
       </c>
       <c r="M31">
-        <v>-3.968877384435099</v>
+        <v>-2.518435617574666</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1980,25 +1980,25 @@
         <v>62</v>
       </c>
       <c r="G32">
-        <v>7.742326342693771</v>
+        <v>6.872632187259554</v>
       </c>
       <c r="H32">
-        <v>4.587836595837061</v>
+        <v>4.917703294519988</v>
       </c>
       <c r="I32">
-        <v>9.892714423754409</v>
+        <v>8.978495566261557</v>
       </c>
       <c r="J32" t="s">
         <v>62</v>
       </c>
       <c r="K32">
-        <v>1.325315966856344</v>
+        <v>0.5074198058470536</v>
       </c>
       <c r="L32">
-        <v>-1.641295959619282</v>
+        <v>-1.331075746212329</v>
       </c>
       <c r="M32">
-        <v>3.347629380359218</v>
+        <v>2.487860357889016</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2021,25 +2021,25 @@
         <v>62</v>
       </c>
       <c r="G33">
-        <v>-9.136465835440081</v>
+        <v>-6.578785498752234</v>
       </c>
       <c r="H33">
-        <v>-13.89986093156346</v>
+        <v>-9.861906196419786</v>
       </c>
       <c r="I33">
-        <v>-6.265339187858237</v>
+        <v>-4.434863867168888</v>
       </c>
       <c r="J33" t="s">
         <v>62</v>
       </c>
       <c r="K33">
-        <v>-14.56913677141321</v>
+        <v>-12.16437845956615</v>
       </c>
       <c r="L33">
-        <v>-19.04773160818942</v>
+        <v>-15.25120353041812</v>
       </c>
       <c r="M33">
-        <v>-11.86967289740967</v>
+        <v>-10.14864049202356</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2062,25 +2062,25 @@
         <v>62</v>
       </c>
       <c r="G34">
-        <v>-2.205005689334941</v>
+        <v>-0.7098241416651986</v>
       </c>
       <c r="H34">
-        <v>-4.576364680867101</v>
+        <v>-2.130391334646082</v>
       </c>
       <c r="I34">
-        <v>0.8779399635895148</v>
+        <v>1.552285980268427</v>
       </c>
       <c r="J34" t="s">
         <v>62</v>
       </c>
       <c r="K34">
-        <v>-8.041241801520083</v>
+        <v>-6.635290102517876</v>
       </c>
       <c r="L34">
-        <v>-10.27108218998991</v>
+        <v>-7.971080302464506</v>
       </c>
       <c r="M34">
-        <v>-5.142281012834637</v>
+        <v>-4.508178800068096</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2103,25 +2103,25 @@
         <v>62</v>
       </c>
       <c r="G35">
-        <v>-0.9146104444771908</v>
+        <v>-0.840029792433943</v>
       </c>
       <c r="H35">
-        <v>-2.60138760629441</v>
+        <v>-2.451589333250905</v>
       </c>
       <c r="I35">
-        <v>2.060115731379458</v>
+        <v>1.476893998277063</v>
       </c>
       <c r="J35" t="s">
         <v>62</v>
       </c>
       <c r="K35">
-        <v>-6.72108219401909</v>
+        <v>-6.650872019309517</v>
       </c>
       <c r="L35">
-        <v>-8.309013057892701</v>
+        <v>-8.167993066334066</v>
       </c>
       <c r="M35">
-        <v>-3.920677011199025</v>
+        <v>-4.469721550951622</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2144,25 +2144,25 @@
         <v>62</v>
       </c>
       <c r="G36">
-        <v>1.489900611012629</v>
+        <v>1.218172238848264</v>
       </c>
       <c r="H36">
-        <v>-0.550506725486646</v>
+        <v>-0.6260892745382709</v>
       </c>
       <c r="I36">
-        <v>4.893130145000983</v>
+        <v>4.37354803601389</v>
       </c>
       <c r="J36" t="s">
         <v>62</v>
       </c>
       <c r="K36">
-        <v>-4.024291911737954</v>
+        <v>-4.281256622208018</v>
       </c>
       <c r="L36">
-        <v>-5.953838967455061</v>
+        <v>-6.02531493324745</v>
       </c>
       <c r="M36">
-        <v>-0.8059680948361403</v>
+        <v>-1.297320047294537</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2185,25 +2185,25 @@
         <v>62</v>
       </c>
       <c r="G37">
-        <v>1.838270721021994</v>
+        <v>1.247929652531953</v>
       </c>
       <c r="H37">
-        <v>-0.1273506801198453</v>
+        <v>-0.6531935896594759</v>
       </c>
       <c r="I37">
-        <v>5.276707424356555</v>
+        <v>4.358572134341498</v>
       </c>
       <c r="J37" t="s">
         <v>62</v>
       </c>
       <c r="K37">
-        <v>-3.519182141724819</v>
+        <v>-4.078466865434183</v>
       </c>
       <c r="L37">
-        <v>-5.381397191520875</v>
+        <v>-5.879576840666134</v>
       </c>
       <c r="M37">
-        <v>-0.2616328634145515</v>
+        <v>-1.131467386899954</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2226,25 +2226,25 @@
         <v>63</v>
       </c>
       <c r="G38">
-        <v>3.612686272927689</v>
+        <v>3.642825089356219</v>
       </c>
       <c r="H38">
-        <v>2.903497618284186</v>
+        <v>2.775536784659334</v>
       </c>
       <c r="I38">
-        <v>4.423040993039949</v>
+        <v>4.641619959731123</v>
       </c>
       <c r="J38" t="s">
         <v>63</v>
       </c>
       <c r="K38">
-        <v>0.3532407109285263</v>
+        <v>0.3824314211455127</v>
       </c>
       <c r="L38">
-        <v>-0.3336383029156842</v>
+        <v>-0.4575737475049801</v>
       </c>
       <c r="M38">
-        <v>1.138103310421901</v>
+        <v>1.349806224878969</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2267,25 +2267,25 @@
         <v>63</v>
       </c>
       <c r="G39">
-        <v>-9.492948314849796</v>
+        <v>-9.633251684116971</v>
       </c>
       <c r="H39">
-        <v>-11.11957840787903</v>
+        <v>-11.12852904559768</v>
       </c>
       <c r="I39">
-        <v>-5.865927732684347</v>
+        <v>-6.360722775437478</v>
       </c>
       <c r="J39" t="s">
         <v>63</v>
       </c>
       <c r="K39">
-        <v>-12.16163043496674</v>
+        <v>-12.29779683273851</v>
       </c>
       <c r="L39">
-        <v>-13.74029787133567</v>
+        <v>-13.7489845914214</v>
       </c>
       <c r="M39">
-        <v>-8.641555828796555</v>
+        <v>-9.12176139306008</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2308,25 +2308,25 @@
         <v>63</v>
       </c>
       <c r="G40">
-        <v>-3.708446033500313</v>
+        <v>-3.605422677481668</v>
       </c>
       <c r="H40">
-        <v>-5.091521121611989</v>
+        <v>-5.336156828183279</v>
       </c>
       <c r="I40">
-        <v>-0.4656078984324704</v>
+        <v>-0.5198793275775481</v>
       </c>
       <c r="J40" t="s">
         <v>63</v>
       </c>
       <c r="K40">
-        <v>-6.486377235312646</v>
+        <v>-6.386326017383082</v>
       </c>
       <c r="L40">
-        <v>-7.829551758074105</v>
+        <v>-8.067129928087224</v>
       </c>
       <c r="M40">
-        <v>-3.337092281876564</v>
+        <v>-3.389798025453394</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2349,25 +2349,25 @@
         <v>63</v>
       </c>
       <c r="G41">
-        <v>-0.8869112777983343</v>
+        <v>-1.074758273499482</v>
       </c>
       <c r="H41">
-        <v>-1.764491930286929</v>
+        <v>-2.147371857733852</v>
       </c>
       <c r="I41">
-        <v>0.7362387600699223</v>
+        <v>0.7578413714315151</v>
       </c>
       <c r="J41" t="s">
         <v>63</v>
       </c>
       <c r="K41">
-        <v>-4.122423093817529</v>
+        <v>-4.304137890613058</v>
       </c>
       <c r="L41">
-        <v>-4.971355435500325</v>
+        <v>-5.341736382788909</v>
       </c>
       <c r="M41">
-        <v>-2.552260216317326</v>
+        <v>-2.531362814582616</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2390,25 +2390,25 @@
         <v>63</v>
       </c>
       <c r="G42">
-        <v>-1.189573985042635</v>
+        <v>-0.3387466854656937</v>
       </c>
       <c r="H42">
-        <v>-3.525960736849577</v>
+        <v>-2.170102036220085</v>
       </c>
       <c r="I42">
-        <v>-0.1552452827012681</v>
+        <v>0.7229691771667375</v>
       </c>
       <c r="J42" t="s">
         <v>63</v>
       </c>
       <c r="K42">
-        <v>-4.694540393661317</v>
+        <v>-3.873893321261035</v>
       </c>
       <c r="L42">
-        <v>-6.948051710021952</v>
+        <v>-5.640287521198539</v>
       </c>
       <c r="M42">
-        <v>-3.696901011499865</v>
+        <v>-2.849838245896741</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2431,25 +2431,25 @@
         <v>63</v>
       </c>
       <c r="G43">
-        <v>-0.4708169849137618</v>
+        <v>-0.8542656458415097</v>
       </c>
       <c r="H43">
-        <v>-3.522078323560047</v>
+        <v>-3.451111794782829</v>
       </c>
       <c r="I43">
-        <v>0.660562197755026</v>
+        <v>0.4427849445021826</v>
       </c>
       <c r="J43" t="s">
         <v>63</v>
       </c>
       <c r="K43">
-        <v>-3.523339099905343</v>
+        <v>-3.895027536525131</v>
       </c>
       <c r="L43">
-        <v>-6.481019416054689</v>
+        <v>-6.412229403671499</v>
       </c>
       <c r="M43">
-        <v>-2.426658885628707</v>
+        <v>-2.637756993513751</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2472,25 +2472,25 @@
         <v>64</v>
       </c>
       <c r="G44">
-        <v>2.204196309599141</v>
+        <v>3.644414664490353</v>
       </c>
       <c r="H44">
-        <v>0.5159427702882228</v>
+        <v>1.781748079968746</v>
       </c>
       <c r="I44">
-        <v>3.955020395444534</v>
+        <v>5.668888338137986</v>
       </c>
       <c r="J44" t="s">
         <v>64</v>
       </c>
       <c r="K44">
-        <v>-2.200497929500767</v>
+        <v>-0.8223486649198808</v>
       </c>
       <c r="L44">
-        <v>-3.815992806180879</v>
+        <v>-2.604739907817033</v>
       </c>
       <c r="M44">
-        <v>-0.5251291091245114</v>
+        <v>1.114876266997888</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2513,25 +2513,25 @@
         <v>64</v>
       </c>
       <c r="G45">
-        <v>-11.74627029490286</v>
+        <v>-10.66268029291917</v>
       </c>
       <c r="H45">
-        <v>-14.60600976573912</v>
+        <v>-13.87257896201938</v>
       </c>
       <c r="I45">
-        <v>-8.568436354412638</v>
+        <v>-8.456746115387814</v>
       </c>
       <c r="J45" t="s">
         <v>64</v>
       </c>
       <c r="K45">
-        <v>-15.36327863317407</v>
+        <v>-14.3240986984537</v>
       </c>
       <c r="L45">
-        <v>-18.10581397512125</v>
+        <v>-17.40244224472865</v>
       </c>
       <c r="M45">
-        <v>-12.31568566832083</v>
+        <v>-12.2085729641742</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2554,25 +2554,25 @@
         <v>64</v>
       </c>
       <c r="G46">
-        <v>-8.236098782828105</v>
+        <v>-6.629392673168748</v>
       </c>
       <c r="H46">
-        <v>-11.34445181608815</v>
+        <v>-9.323579428195565</v>
       </c>
       <c r="I46">
-        <v>-0.3387083825274086</v>
+        <v>0.3245512407755248</v>
       </c>
       <c r="J46" t="s">
         <v>64</v>
       </c>
       <c r="K46">
-        <v>-12.70222518367141</v>
+        <v>-11.17371706341275</v>
       </c>
       <c r="L46">
-        <v>-15.65929544275941</v>
+        <v>-13.73677841470425</v>
       </c>
       <c r="M46">
-        <v>-5.189198823006269</v>
+        <v>-4.558219881703063</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2595,25 +2595,25 @@
         <v>64</v>
       </c>
       <c r="G47">
-        <v>-3.747116975982821</v>
+        <v>-1.862904842525834</v>
       </c>
       <c r="H47">
-        <v>-6.432740360859682</v>
+        <v>-4.616341621723752</v>
       </c>
       <c r="I47">
-        <v>2.272782626967442</v>
+        <v>3.407946050620201</v>
       </c>
       <c r="J47" t="s">
         <v>64</v>
       </c>
       <c r="K47">
-        <v>-8.116120643880276</v>
+        <v>-6.317434569108881</v>
       </c>
       <c r="L47">
-        <v>-10.67984120309121</v>
+        <v>-8.945890412570701</v>
       </c>
       <c r="M47">
-        <v>-2.369469619251563</v>
+        <v>-1.285832269476139</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2636,25 +2636,25 @@
         <v>64</v>
       </c>
       <c r="G48">
-        <v>0.762073462272979</v>
+        <v>1.875319774236876</v>
       </c>
       <c r="H48">
-        <v>-2.873776531551285</v>
+        <v>-1.324893576862151</v>
       </c>
       <c r="I48">
-        <v>4.542558824902523</v>
+        <v>5.411566334977656</v>
       </c>
       <c r="J48" t="s">
         <v>64</v>
       </c>
       <c r="K48">
-        <v>-4.654475237398136</v>
+        <v>-3.60107240280908</v>
       </c>
       <c r="L48">
-        <v>-8.094877103970211</v>
+        <v>-6.629255635134735</v>
       </c>
       <c r="M48">
-        <v>-1.077212996042909</v>
+        <v>-0.2549197042938323</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2677,25 +2677,25 @@
         <v>64</v>
       </c>
       <c r="G49">
-        <v>-4.624017247970859</v>
+        <v>-2.722626816001941</v>
       </c>
       <c r="H49">
-        <v>-9.280995896331584</v>
+        <v>-6.214150398340954</v>
       </c>
       <c r="I49">
-        <v>1.489419798372827</v>
+        <v>2.835967366900744</v>
       </c>
       <c r="J49" t="s">
         <v>64</v>
       </c>
       <c r="K49">
-        <v>-9.821405985367015</v>
+        <v>-8.023629324196158</v>
       </c>
       <c r="L49">
-        <v>-14.2246087073479</v>
+        <v>-11.32488692112056</v>
       </c>
       <c r="M49">
-        <v>-4.041112650203294</v>
+        <v>-2.767943420383889</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2718,25 +2718,25 @@
         <v>65</v>
       </c>
       <c r="G50">
-        <v>4.428642182090847</v>
+        <v>5.533897803326968</v>
       </c>
       <c r="H50">
-        <v>2.406671897877032</v>
+        <v>2.865280044317863</v>
       </c>
       <c r="I50">
-        <v>6.124841307718747</v>
+        <v>7.905513286885622</v>
       </c>
       <c r="J50" t="s">
         <v>65</v>
       </c>
       <c r="K50">
-        <v>-2.175281132573992</v>
+        <v>-1.139920352573276</v>
       </c>
       <c r="L50">
-        <v>-4.069384804501541</v>
+        <v>-3.639778404777816</v>
       </c>
       <c r="M50">
-        <v>-0.5863473004324882</v>
+        <v>1.081717438486196</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2759,25 +2759,25 @@
         <v>65</v>
       </c>
       <c r="G51">
-        <v>-11.37436966445916</v>
+        <v>-11.15205561728373</v>
       </c>
       <c r="H51">
-        <v>-13.62652081281558</v>
+        <v>-13.1767793265208</v>
       </c>
       <c r="I51">
-        <v>-8.151010926782725</v>
+        <v>-8.10316836307442</v>
       </c>
       <c r="J51" t="s">
         <v>65</v>
       </c>
       <c r="K51">
-        <v>-17.09285989845889</v>
+        <v>-16.88489046810412</v>
       </c>
       <c r="L51">
-        <v>-19.19969299041777</v>
+        <v>-18.77897067484667</v>
       </c>
       <c r="M51">
-        <v>-14.07748552594061</v>
+        <v>-14.03272996124491</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2800,25 +2800,25 @@
         <v>65</v>
       </c>
       <c r="G52">
-        <v>-7.731257779236183</v>
+        <v>-6.683602067797948</v>
       </c>
       <c r="H52">
-        <v>-9.805309864965034</v>
+        <v>-8.587351783895915</v>
       </c>
       <c r="I52">
-        <v>-5.417046420973687</v>
+        <v>-3.813519086822986</v>
       </c>
       <c r="J52" t="s">
         <v>65</v>
       </c>
       <c r="K52">
-        <v>-13.7828072605579</v>
+        <v>-12.80386323006995</v>
       </c>
       <c r="L52">
-        <v>-15.72083030198054</v>
+        <v>-14.58275337477098</v>
       </c>
       <c r="M52">
-        <v>-11.62037606324368</v>
+        <v>-10.12201787710246</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2841,25 +2841,25 @@
         <v>65</v>
       </c>
       <c r="G53">
-        <v>-1.367721196205311</v>
+        <v>-0.3110821861111218</v>
       </c>
       <c r="H53">
-        <v>-3.236249735372244</v>
+        <v>-2.824966931573923</v>
       </c>
       <c r="I53">
-        <v>0.1515103495534402</v>
+        <v>1.75809740152742</v>
       </c>
       <c r="J53" t="s">
         <v>65</v>
       </c>
       <c r="K53">
-        <v>-8.10855581600679</v>
+        <v>-7.124130779940774</v>
       </c>
       <c r="L53">
-        <v>-9.84938334270945</v>
+        <v>-9.46620887622216</v>
       </c>
       <c r="M53">
-        <v>-6.693153247164596</v>
+        <v>-5.196365317253015</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2882,25 +2882,25 @@
         <v>65</v>
       </c>
       <c r="G54">
-        <v>0.1784334742050016</v>
+        <v>1.147348602497269</v>
       </c>
       <c r="H54">
-        <v>-2.432281037597135</v>
+        <v>-1.603518215827022</v>
       </c>
       <c r="I54">
-        <v>1.926409988518363</v>
+        <v>3.039207132207692</v>
       </c>
       <c r="J54" t="s">
         <v>65</v>
       </c>
       <c r="K54">
-        <v>-6.684014578593056</v>
+        <v>-5.781472316244917</v>
       </c>
       <c r="L54">
-        <v>-9.115889273314803</v>
+        <v>-8.343898569207642</v>
       </c>
       <c r="M54">
-        <v>-5.055778387730414</v>
+        <v>-4.019210351714609</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2923,25 +2923,25 @@
         <v>65</v>
       </c>
       <c r="G55">
-        <v>-2.471106964892203</v>
+        <v>-2.010679380547698</v>
       </c>
       <c r="H55">
-        <v>-4.931706595009478</v>
+        <v>-4.702346751091309</v>
       </c>
       <c r="I55">
-        <v>-0.7998180586543022</v>
+        <v>0.06455997841365879</v>
       </c>
       <c r="J55" t="s">
         <v>65</v>
       </c>
       <c r="K55">
-        <v>-8.65453256491916</v>
+        <v>-8.223296532158964</v>
       </c>
       <c r="L55">
-        <v>-10.95912781242946</v>
+        <v>-10.74430960316301</v>
       </c>
       <c r="M55">
-        <v>-7.089204982410758</v>
+        <v>-6.27962934405949</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2964,25 +2964,25 @@
         <v>66</v>
       </c>
       <c r="G56">
-        <v>5.20840362466125</v>
+        <v>4.238766809856434</v>
       </c>
       <c r="H56">
-        <v>4.012294854496917</v>
+        <v>2.922703904434417</v>
       </c>
       <c r="I56">
-        <v>6.703428178915069</v>
+        <v>5.765635061520365</v>
       </c>
       <c r="J56" t="s">
         <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2407938671407539</v>
+        <v>-0.6830597484468015</v>
       </c>
       <c r="L56">
-        <v>-0.8988384107186165</v>
+        <v>-1.936982304759383</v>
       </c>
       <c r="M56">
-        <v>1.665228066369906</v>
+        <v>0.7717145890040245</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3005,25 +3005,25 @@
         <v>66</v>
       </c>
       <c r="G57">
-        <v>-7.982953482962877</v>
+        <v>-8.149643212990814</v>
       </c>
       <c r="H57">
-        <v>-9.983580744528959</v>
+        <v>-10.17615225547192</v>
       </c>
       <c r="I57">
-        <v>-4.044124120692592</v>
+        <v>-4.971161461564358</v>
       </c>
       <c r="J57" t="s">
         <v>66</v>
       </c>
       <c r="K57">
-        <v>-12.25092719512651</v>
+        <v>-12.40988545133764</v>
       </c>
       <c r="L57">
-        <v>-14.15876051379398</v>
+        <v>-14.34240009117109</v>
       </c>
       <c r="M57">
-        <v>-8.494790288343335</v>
+        <v>-9.378829389749733</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3046,25 +3046,25 @@
         <v>66</v>
       </c>
       <c r="G58">
-        <v>-1.735008620455318</v>
+        <v>-1.989641841921173</v>
       </c>
       <c r="H58">
-        <v>-3.88886686899992</v>
+        <v>-4.095931073752554</v>
       </c>
       <c r="I58">
-        <v>1.473370537258818</v>
+        <v>1.567923486843556</v>
       </c>
       <c r="J58" t="s">
         <v>66</v>
       </c>
       <c r="K58">
-        <v>-6.273592945820051</v>
+        <v>-6.516465373014857</v>
       </c>
       <c r="L58">
-        <v>-8.327970523286755</v>
+        <v>-8.52547101322253</v>
       </c>
       <c r="M58">
-        <v>-3.213399822120666</v>
+        <v>-3.123214008062813</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3087,25 +3087,25 @@
         <v>66</v>
       </c>
       <c r="G59">
-        <v>-2.254216597007323</v>
+        <v>-3.294906530641716</v>
       </c>
       <c r="H59">
-        <v>-3.536196955610181</v>
+        <v>-4.501673060549929</v>
       </c>
       <c r="I59">
-        <v>0.3695128049426585</v>
+        <v>-0.1620028173462327</v>
       </c>
       <c r="J59" t="s">
         <v>66</v>
       </c>
       <c r="K59">
-        <v>-6.444857496080891</v>
+        <v>-7.440930080021935</v>
       </c>
       <c r="L59">
-        <v>-7.671875695340058</v>
+        <v>-8.595959082235305</v>
       </c>
       <c r="M59">
-        <v>-3.933614867034274</v>
+        <v>-4.442342896572726</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3128,25 +3128,25 @@
         <v>66</v>
       </c>
       <c r="G60">
-        <v>-3.344490652451701</v>
+        <v>-3.257759974965799</v>
       </c>
       <c r="H60">
-        <v>-4.375211318012728</v>
+        <v>-4.431052860260061</v>
       </c>
       <c r="I60">
-        <v>-0.6179142450653352</v>
+        <v>0.6752342801647317</v>
       </c>
       <c r="J60" t="s">
         <v>66</v>
       </c>
       <c r="K60">
-        <v>-7.485873550599043</v>
+        <v>-7.402859008353746</v>
       </c>
       <c r="L60">
-        <v>-8.472431095341237</v>
+        <v>-8.525880004104657</v>
       </c>
       <c r="M60">
-        <v>-4.876122319348664</v>
+        <v>-3.63838111878434</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3169,25 +3169,25 @@
         <v>66</v>
       </c>
       <c r="G61">
-        <v>-4.386993331252589</v>
+        <v>-3.905479687781117</v>
       </c>
       <c r="H61">
-        <v>-6.097637511412609</v>
+        <v>-5.691817903755997</v>
       </c>
       <c r="I61">
-        <v>-0.06699643742710615</v>
+        <v>0.3823523917542356</v>
       </c>
       <c r="J61" t="s">
         <v>66</v>
       </c>
       <c r="K61">
-        <v>-8.35233676396131</v>
+        <v>-7.890792861327656</v>
       </c>
       <c r="L61">
-        <v>-9.992035662701626</v>
+        <v>-9.60304654884655</v>
       </c>
       <c r="M61">
-        <v>-4.211502432940706</v>
+        <v>-3.780789378230531</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3210,25 +3210,25 @@
         <v>67</v>
       </c>
       <c r="G62">
-        <v>3.961539736195783</v>
+        <v>3.431534531023187</v>
       </c>
       <c r="H62">
-        <v>2.877430123226373</v>
+        <v>1.71485417453713</v>
       </c>
       <c r="I62">
-        <v>4.992482324770788</v>
+        <v>4.564280322350355</v>
       </c>
       <c r="J62" t="s">
         <v>67</v>
       </c>
       <c r="K62">
-        <v>0.30521925330802</v>
+        <v>-0.2061457038206593</v>
       </c>
       <c r="L62">
-        <v>-0.7407622962097182</v>
+        <v>-1.862450525604942</v>
       </c>
       <c r="M62">
-        <v>1.299903659166102</v>
+        <v>0.8867614928757872</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3251,25 +3251,25 @@
         <v>67</v>
       </c>
       <c r="G63">
-        <v>-4.482685883128508</v>
+        <v>-4.460876490265613</v>
       </c>
       <c r="H63">
-        <v>-6.506029080905104</v>
+        <v>-7.060512883898502</v>
       </c>
       <c r="I63">
-        <v>-2.47623040565224</v>
+        <v>-2.685070655153349</v>
       </c>
       <c r="J63" t="s">
         <v>67</v>
       </c>
       <c r="K63">
-        <v>-7.696012337616565</v>
+        <v>-7.674936641044128</v>
       </c>
       <c r="L63">
-        <v>-9.651287643367123</v>
+        <v>-10.18711789135621</v>
       </c>
       <c r="M63">
-        <v>-5.757056627330536</v>
+        <v>-5.958871219706685</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3292,25 +3292,25 @@
         <v>67</v>
       </c>
       <c r="G64">
-        <v>-0.5955186720539387</v>
+        <v>-0.2584968816214779</v>
       </c>
       <c r="H64">
-        <v>-2.693761635761104</v>
+        <v>-2.183603100168567</v>
       </c>
       <c r="I64">
-        <v>0.6199869258665904</v>
+        <v>1.349656992941278</v>
       </c>
       <c r="J64" t="s">
         <v>67</v>
       </c>
       <c r="K64">
-        <v>-3.591077204701365</v>
+        <v>-3.264211581139154</v>
       </c>
       <c r="L64">
-        <v>-5.626089521967503</v>
+        <v>-5.131304636877254</v>
       </c>
       <c r="M64">
-        <v>-2.412200922850782</v>
+        <v>-1.704519496189938</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3333,25 +3333,25 @@
         <v>67</v>
       </c>
       <c r="G65">
-        <v>0.8532476076409741</v>
+        <v>0.2303007132659186</v>
       </c>
       <c r="H65">
-        <v>-1.957318422560794</v>
+        <v>-1.689015519328531</v>
       </c>
       <c r="I65">
-        <v>2.132640186115772</v>
+        <v>1.594585481878838</v>
       </c>
       <c r="J65" t="s">
         <v>67</v>
       </c>
       <c r="K65">
-        <v>-1.68602508304998</v>
+        <v>-2.293287484618312</v>
       </c>
       <c r="L65">
-        <v>-4.425826970944313</v>
+        <v>-4.164279370601864</v>
       </c>
       <c r="M65">
-        <v>-0.4388449192693988</v>
+        <v>-0.9633525375276841</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3374,25 +3374,25 @@
         <v>67</v>
       </c>
       <c r="G66">
-        <v>-0.5800764148254136</v>
+        <v>-0.4804328783964499</v>
       </c>
       <c r="H66">
-        <v>-3.027213635250976</v>
+        <v>-2.20386264419855</v>
       </c>
       <c r="I66">
-        <v>0.9922250278160378</v>
+        <v>1.107952309045539</v>
       </c>
       <c r="J66" t="s">
         <v>67</v>
       </c>
       <c r="K66">
-        <v>-3.066675649974193</v>
+        <v>-2.969524305578142</v>
       </c>
       <c r="L66">
-        <v>-5.452607336124715</v>
+        <v>-4.649849239039416</v>
       </c>
       <c r="M66">
-        <v>-1.533699157742152</v>
+        <v>-1.42086634030435</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3415,25 +3415,25 @@
         <v>67</v>
       </c>
       <c r="G67">
-        <v>-1.286803461910478</v>
+        <v>-1.092286628530498</v>
       </c>
       <c r="H67">
-        <v>-3.100015122330553</v>
+        <v>-2.97541767415552</v>
       </c>
       <c r="I67">
-        <v>0.4885415424332282</v>
+        <v>0.6633793949620074</v>
       </c>
       <c r="J67" t="s">
         <v>67</v>
       </c>
       <c r="K67">
-        <v>-3.224504669514161</v>
+        <v>-3.033806125037375</v>
       </c>
       <c r="L67">
-        <v>-5.002123698480132</v>
+        <v>-4.879972049187719</v>
       </c>
       <c r="M67">
-        <v>-1.484008989065078</v>
+        <v>-1.312603134788415</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3456,25 +3456,25 @@
         <v>68</v>
       </c>
       <c r="G68">
-        <v>6.055264140331963</v>
+        <v>8.435457333750033</v>
       </c>
       <c r="H68">
-        <v>3.093027081391408</v>
+        <v>5.147970185198416</v>
       </c>
       <c r="I68">
-        <v>8.395206583609143</v>
+        <v>10.35919270591949</v>
       </c>
       <c r="J68" t="s">
         <v>68</v>
       </c>
       <c r="K68">
-        <v>-0.3028667971785914</v>
+        <v>1.934631169340606</v>
       </c>
       <c r="L68">
-        <v>-3.087514452694839</v>
+        <v>-1.155767471485303</v>
       </c>
       <c r="M68">
-        <v>1.896793496398708</v>
+        <v>3.743036468226868</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3497,25 +3497,25 @@
         <v>68</v>
       </c>
       <c r="G69">
-        <v>-1.084230479949782</v>
+        <v>-1.765738785275919</v>
       </c>
       <c r="H69">
-        <v>-4.127434097458528</v>
+        <v>-5.132864027912068</v>
       </c>
       <c r="I69">
-        <v>1.880915924980196</v>
+        <v>2.59411447269397</v>
       </c>
       <c r="J69" t="s">
         <v>68</v>
       </c>
       <c r="K69">
-        <v>-6.496124334061138</v>
+        <v>-7.140345858654373</v>
       </c>
       <c r="L69">
-        <v>-9.372827756157998</v>
+        <v>-10.32324845918742</v>
       </c>
       <c r="M69">
-        <v>-3.693207447065905</v>
+        <v>-3.019029521198979</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3538,25 +3538,25 @@
         <v>68</v>
       </c>
       <c r="G70">
-        <v>4.176516872612402</v>
+        <v>4.618571640217759</v>
       </c>
       <c r="H70">
-        <v>1.560921213391307</v>
+        <v>1.67659382659571</v>
       </c>
       <c r="I70">
-        <v>7.584015615681357</v>
+        <v>8.399557344701014</v>
       </c>
       <c r="J70" t="s">
         <v>68</v>
       </c>
       <c r="K70">
-        <v>-0.8424118413613346</v>
+        <v>-0.4216540169912464</v>
       </c>
       <c r="L70">
-        <v>-3.331995530204668</v>
+        <v>-3.221895694985755</v>
       </c>
       <c r="M70">
-        <v>2.400923289812917</v>
+        <v>3.177174534526728</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3579,25 +3579,25 @@
         <v>68</v>
       </c>
       <c r="G71">
-        <v>3.340553277414819</v>
+        <v>5.699200701323705</v>
       </c>
       <c r="H71">
-        <v>0.6323397290808553</v>
+        <v>2.94249899460618</v>
       </c>
       <c r="I71">
-        <v>7.393165077803086</v>
+        <v>11.01506755260452</v>
       </c>
       <c r="J71" t="s">
         <v>68</v>
       </c>
       <c r="K71">
-        <v>-1.034643202596042</v>
+        <v>1.224144625255019</v>
       </c>
       <c r="L71">
-        <v>-3.62819734561427</v>
+        <v>-1.415844801325061</v>
       </c>
       <c r="M71">
-        <v>2.846390525858422</v>
+        <v>6.314950150673804</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="G72">
-        <v>7.24400423378871</v>
+        <v>5.718763026000958</v>
       </c>
       <c r="H72">
-        <v>4.229755365277989</v>
+        <v>2.460381951155003</v>
       </c>
       <c r="I72">
-        <v>11.53410202475304</v>
+        <v>12.92142739572525</v>
       </c>
       <c r="J72" t="s">
         <v>68</v>
       </c>
       <c r="K72">
-        <v>3.06213806776201</v>
+        <v>1.596372022688008</v>
       </c>
       <c r="L72">
-        <v>0.1654266359524703</v>
+        <v>-1.534951939079487</v>
       </c>
       <c r="M72">
-        <v>7.184948046888695</v>
+        <v>8.518176136883859</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3661,25 +3661,25 @@
         <v>68</v>
       </c>
       <c r="G73">
-        <v>5.335923261320851</v>
+        <v>7.192332023403736</v>
       </c>
       <c r="H73">
-        <v>2.721825687833133</v>
+        <v>2.815968536148046</v>
       </c>
       <c r="I73">
-        <v>8.853079058941436</v>
+        <v>13.3474355381871</v>
       </c>
       <c r="J73" t="s">
         <v>68</v>
       </c>
       <c r="K73">
-        <v>1.156721591621834</v>
+        <v>2.939477355203035</v>
       </c>
       <c r="L73">
-        <v>-1.353661687581176</v>
+        <v>-1.263253955802823</v>
       </c>
       <c r="M73">
-        <v>4.534334269223028</v>
+        <v>8.850377201477833</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3702,25 +3702,25 @@
         <v>69</v>
       </c>
       <c r="G74">
-        <v>2.511533729776711</v>
+        <v>2.424504911484346</v>
       </c>
       <c r="H74">
-        <v>1.287161807977251</v>
+        <v>1.014491733978642</v>
       </c>
       <c r="I74">
-        <v>3.465558204662188</v>
+        <v>3.397318197407586</v>
       </c>
       <c r="J74" t="s">
         <v>69</v>
       </c>
       <c r="K74">
-        <v>0.8768584537840463</v>
+        <v>0.7912174194061761</v>
       </c>
       <c r="L74">
-        <v>-0.3279893185234917</v>
+        <v>-0.5963113254095376</v>
       </c>
       <c r="M74">
-        <v>1.815669809081455</v>
+        <v>1.748517974529329</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3743,25 +3743,25 @@
         <v>69</v>
       </c>
       <c r="G75">
-        <v>-4.358553725531699</v>
+        <v>-4.455244990820565</v>
       </c>
       <c r="H75">
-        <v>-6.060548019340171</v>
+        <v>-6.421896303965756</v>
       </c>
       <c r="I75">
-        <v>-2.147470314062756</v>
+        <v>-1.767826815765054</v>
       </c>
       <c r="J75" t="s">
         <v>69</v>
       </c>
       <c r="K75">
-        <v>-6.416534648799621</v>
+        <v>-6.511145343507819</v>
       </c>
       <c r="L75">
-        <v>-8.081905993827942</v>
+        <v>-8.435478905899242</v>
       </c>
       <c r="M75">
-        <v>-4.253028596914921</v>
+        <v>-3.881554141512034</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3784,25 +3784,25 @@
         <v>69</v>
       </c>
       <c r="G76">
-        <v>-1.370950148265921</v>
+        <v>-2.289480697378943</v>
       </c>
       <c r="H76">
-        <v>-2.680721836970716</v>
+        <v>-3.669640194955829</v>
       </c>
       <c r="I76">
-        <v>0.3675661237037341</v>
+        <v>-0.791867602574556</v>
       </c>
       <c r="J76" t="s">
         <v>69</v>
       </c>
       <c r="K76">
-        <v>-4.11393805868645</v>
+        <v>-5.006923211231651</v>
       </c>
       <c r="L76">
-        <v>-5.387283482381799</v>
+        <v>-6.348698877452597</v>
       </c>
       <c r="M76">
-        <v>-2.423771934297547</v>
+        <v>-3.550960468120923</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3825,25 +3825,25 @@
         <v>69</v>
       </c>
       <c r="G77">
-        <v>-0.2529026333621481</v>
+        <v>-1.810595835388002</v>
       </c>
       <c r="H77">
-        <v>-1.42460255444382</v>
+        <v>-3.23085695735744</v>
       </c>
       <c r="I77">
-        <v>1.409178932908928</v>
+        <v>-0.426026201492241</v>
       </c>
       <c r="J77" t="s">
         <v>69</v>
       </c>
       <c r="K77">
-        <v>-2.989917009484899</v>
+        <v>-4.504867828022019</v>
       </c>
       <c r="L77">
-        <v>-4.129466024794204</v>
+        <v>-5.886157639434009</v>
       </c>
       <c r="M77">
-        <v>-1.373442195302577</v>
+        <v>-3.158290146701936</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3866,25 +3866,25 @@
         <v>69</v>
       </c>
       <c r="G78">
-        <v>-1.735027426859349</v>
+        <v>-2.005108682645329</v>
       </c>
       <c r="H78">
-        <v>-3.330445218936627</v>
+        <v>-3.311060722869511</v>
       </c>
       <c r="I78">
-        <v>0.9881612209066373</v>
+        <v>-0.631126749922431</v>
       </c>
       <c r="J78" t="s">
         <v>69</v>
       </c>
       <c r="K78">
-        <v>-4.301980120068427</v>
+        <v>-4.565006106934355</v>
       </c>
       <c r="L78">
-        <v>-5.855721189597219</v>
+        <v>-5.836843070147147</v>
       </c>
       <c r="M78">
-        <v>-1.649928686820024</v>
+        <v>-3.226916380053158</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3907,25 +3907,25 @@
         <v>69</v>
       </c>
       <c r="G79">
-        <v>-0.3690226480524013</v>
+        <v>-0.9841570316130659</v>
       </c>
       <c r="H79">
-        <v>-2.326069079028265</v>
+        <v>-2.574697779360238</v>
       </c>
       <c r="I79">
-        <v>1.995158880055375</v>
+        <v>0.6779343271451772</v>
       </c>
       <c r="J79" t="s">
         <v>69</v>
       </c>
       <c r="K79">
-        <v>-2.287232340943079</v>
+        <v>-2.890523452779048</v>
       </c>
       <c r="L79">
-        <v>-4.206599472436878</v>
+        <v>-4.450441288251761</v>
       </c>
       <c r="M79">
-        <v>0.03143125646178913</v>
+        <v>-1.260432580612203</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3948,25 +3948,25 @@
         <v>70</v>
       </c>
       <c r="G80">
-        <v>2.365002700043908</v>
+        <v>2.452240611443376</v>
       </c>
       <c r="H80">
-        <v>1.453225741416282</v>
+        <v>1.532920793192873</v>
       </c>
       <c r="I80">
-        <v>3.400278976262241</v>
+        <v>3.623857755940543</v>
       </c>
       <c r="J80" t="s">
         <v>70</v>
       </c>
       <c r="K80">
-        <v>-0.1481139309927215</v>
+        <v>-0.06301775788478681</v>
       </c>
       <c r="L80">
-        <v>-1.037506268137589</v>
+        <v>-0.9597677733360288</v>
       </c>
       <c r="M80">
-        <v>0.861745748157694</v>
+        <v>1.079835546888064</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3989,25 +3989,25 @@
         <v>70</v>
       </c>
       <c r="G81">
-        <v>-17.78644426429647</v>
+        <v>-16.7067829907587</v>
       </c>
       <c r="H81">
-        <v>-19.64308067205694</v>
+        <v>-19.14498602531999</v>
       </c>
       <c r="I81">
-        <v>-14.50761749901543</v>
+        <v>-13.17563907159038</v>
       </c>
       <c r="J81" t="s">
         <v>70</v>
       </c>
       <c r="K81">
-        <v>-19.86945972024163</v>
+        <v>-18.81715343822368</v>
       </c>
       <c r="L81">
-        <v>-21.67905519541102</v>
+        <v>-21.19358059458249</v>
       </c>
       <c r="M81">
-        <v>-16.67370741595827</v>
+        <v>-15.37547684953358</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4030,25 +4030,25 @@
         <v>70</v>
       </c>
       <c r="G82">
-        <v>-3.734375241815463</v>
+        <v>-3.333043928792591</v>
       </c>
       <c r="H82">
-        <v>-5.613863443287945</v>
+        <v>-5.504271709539463</v>
       </c>
       <c r="I82">
-        <v>-2.360336964924005</v>
+        <v>-1.962143223387478</v>
       </c>
       <c r="J82" t="s">
         <v>70</v>
       </c>
       <c r="K82">
-        <v>-6.130846026490334</v>
+        <v>-5.739505598262018</v>
       </c>
       <c r="L82">
-        <v>-7.963545578574383</v>
+        <v>-7.856682060518994</v>
       </c>
       <c r="M82">
-        <v>-4.791013548354838</v>
+        <v>-4.402732583789637</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4071,25 +4071,25 @@
         <v>70</v>
       </c>
       <c r="G83">
-        <v>-4.330684749983471</v>
+        <v>-4.155573327109198</v>
       </c>
       <c r="H83">
-        <v>-6.683011203665285</v>
+        <v>-6.221707086849428</v>
       </c>
       <c r="I83">
-        <v>-2.919451847878599</v>
+        <v>-2.89715964970338</v>
       </c>
       <c r="J83" t="s">
         <v>70</v>
       </c>
       <c r="K83">
-        <v>-6.587298402772834</v>
+        <v>-6.416317445624009</v>
       </c>
       <c r="L83">
-        <v>-8.884139019879733</v>
+        <v>-8.433715979879096</v>
       </c>
       <c r="M83">
-        <v>-5.20935315853227</v>
+        <v>-5.187586780768971</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4112,25 +4112,25 @@
         <v>70</v>
       </c>
       <c r="G84">
-        <v>-3.530204370750565</v>
+        <v>-2.340593553440405</v>
       </c>
       <c r="H84">
-        <v>-6.161802117893416</v>
+        <v>-4.289218273375874</v>
       </c>
       <c r="I84">
-        <v>-2.068768159802134</v>
+        <v>-1.136313453442534</v>
       </c>
       <c r="J84" t="s">
         <v>70</v>
       </c>
       <c r="K84">
-        <v>-5.837396406909379</v>
+        <v>-4.676236573515203</v>
       </c>
       <c r="L84">
-        <v>-8.406056305734232</v>
+        <v>-6.57825757250391</v>
       </c>
       <c r="M84">
-        <v>-4.410912213483753</v>
+        <v>-3.500758291100725</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4153,25 +4153,25 @@
         <v>70</v>
       </c>
       <c r="G85">
-        <v>-5.313747907607831</v>
+        <v>-4.995078050020411</v>
       </c>
       <c r="H85">
-        <v>-7.545169531829607</v>
+        <v>-6.575214115530745</v>
       </c>
       <c r="I85">
-        <v>-3.933757293073677</v>
+        <v>-3.578758119377237</v>
       </c>
       <c r="J85" t="s">
         <v>70</v>
       </c>
       <c r="K85">
-        <v>-7.542327457123344</v>
+        <v>-7.231157961119283</v>
       </c>
       <c r="L85">
-        <v>-9.721229306951319</v>
+        <v>-8.7741032112448</v>
       </c>
       <c r="M85">
-        <v>-6.19481694180225</v>
+        <v>-5.848173193324491</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4194,25 +4194,25 @@
         <v>71</v>
       </c>
       <c r="G86">
-        <v>1.982245102801911</v>
+        <v>2.185462335201264</v>
       </c>
       <c r="H86">
-        <v>0.6530889006063265</v>
+        <v>1.052007576246289</v>
       </c>
       <c r="I86">
-        <v>3.405710563717907</v>
+        <v>3.797005694275096</v>
       </c>
       <c r="J86" t="s">
         <v>71</v>
       </c>
       <c r="K86">
-        <v>0.9264831194247591</v>
+        <v>1.127596563776323</v>
       </c>
       <c r="L86">
-        <v>-0.3889131132110757</v>
+        <v>0.005875792861864682</v>
       </c>
       <c r="M86">
-        <v>2.335212282696286</v>
+        <v>2.722456565748543</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4235,25 +4235,25 @@
         <v>71</v>
       </c>
       <c r="G87">
-        <v>-10.52364375581714</v>
+        <v>-9.45786166111975</v>
       </c>
       <c r="H87">
-        <v>-12.51190928647162</v>
+        <v>-11.15272281901987</v>
       </c>
       <c r="I87">
-        <v>-8.185913776953866</v>
+        <v>-7.68487797971744</v>
       </c>
       <c r="J87" t="s">
         <v>71</v>
       </c>
       <c r="K87">
-        <v>-11.25863345632979</v>
+        <v>-10.2016060639412</v>
       </c>
       <c r="L87">
-        <v>-13.23056668705326</v>
+        <v>-11.88254504678699</v>
       </c>
       <c r="M87">
-        <v>-8.940106399100433</v>
+        <v>-8.443186282989323</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4276,25 +4276,25 @@
         <v>71</v>
       </c>
       <c r="G88">
-        <v>-3.549786432337758</v>
+        <v>-3.188102875857596</v>
       </c>
       <c r="H88">
-        <v>-4.891225629784603</v>
+        <v>-4.595702762139073</v>
       </c>
       <c r="I88">
-        <v>-1.797271790667257</v>
+        <v>-1.636517888394694</v>
       </c>
       <c r="J88" t="s">
         <v>71</v>
       </c>
       <c r="K88">
-        <v>-4.639588887848234</v>
+        <v>-4.281992036968729</v>
       </c>
       <c r="L88">
-        <v>-5.96587100396555</v>
+        <v>-5.67368728441423</v>
       </c>
       <c r="M88">
-        <v>-2.906876117932755</v>
+        <v>-2.747938593156407</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4317,25 +4317,25 @@
         <v>71</v>
       </c>
       <c r="G89">
-        <v>-2.248451863044544</v>
+        <v>-2.570075345710972</v>
       </c>
       <c r="H89">
-        <v>-5.158653171265607</v>
+        <v>-4.856431080932639</v>
       </c>
       <c r="I89">
-        <v>-0.810950977959039</v>
+        <v>-1.361602612815183</v>
       </c>
       <c r="J89" t="s">
         <v>71</v>
       </c>
       <c r="K89">
-        <v>-3.364640777719452</v>
+        <v>-3.682591760329423</v>
       </c>
       <c r="L89">
-        <v>-6.241611569374594</v>
+        <v>-5.942840441746866</v>
       </c>
       <c r="M89">
-        <v>-1.943554185638485</v>
+        <v>-2.487918132346578</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4358,25 +4358,25 @@
         <v>71</v>
       </c>
       <c r="G90">
-        <v>-5.158808755076268</v>
+        <v>-5.543233496976777</v>
       </c>
       <c r="H90">
-        <v>-8.901778315645466</v>
+        <v>-8.111120720269879</v>
       </c>
       <c r="I90">
-        <v>-3.307998119891117</v>
+        <v>-4.118901304281469</v>
       </c>
       <c r="J90" t="s">
         <v>71</v>
       </c>
       <c r="K90">
-        <v>-6.000736438855069</v>
+        <v>-6.381748551408695</v>
       </c>
       <c r="L90">
-        <v>-9.71047877345611</v>
+        <v>-8.926840032538152</v>
       </c>
       <c r="M90">
-        <v>-4.166355887378693</v>
+        <v>-4.970060492429829</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4399,25 +4399,25 @@
         <v>71</v>
       </c>
       <c r="G91">
-        <v>-4.685360246558826</v>
+        <v>-4.817613839165403</v>
       </c>
       <c r="H91">
-        <v>-7.008561153826568</v>
+        <v>-6.913078913742357</v>
       </c>
       <c r="I91">
-        <v>-3.063806662402543</v>
+        <v>-3.729784229409916</v>
       </c>
       <c r="J91" t="s">
         <v>71</v>
       </c>
       <c r="K91">
-        <v>-5.931197167876922</v>
+        <v>-6.061722102545197</v>
       </c>
       <c r="L91">
-        <v>-8.22403202147861</v>
+        <v>-8.129797808983186</v>
       </c>
       <c r="M91">
-        <v>-4.330838557863792</v>
+        <v>-4.988111276970642</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4440,25 +4440,25 @@
         <v>72</v>
       </c>
       <c r="G92">
-        <v>2.684444232613886</v>
+        <v>3.30014135154818</v>
       </c>
       <c r="H92">
-        <v>0.6722506925341317</v>
+        <v>1.299180400222619</v>
       </c>
       <c r="I92">
-        <v>5.821940123439729</v>
+        <v>5.556506956220924</v>
       </c>
       <c r="J92" t="s">
         <v>72</v>
       </c>
       <c r="K92">
-        <v>-1.06729124791346</v>
+        <v>-0.4740895784469679</v>
       </c>
       <c r="L92">
-        <v>-3.005966175174868</v>
+        <v>-2.401942317011208</v>
       </c>
       <c r="M92">
-        <v>1.955571362851427</v>
+        <v>1.699836208205063</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4481,25 +4481,25 @@
         <v>72</v>
       </c>
       <c r="G93">
-        <v>-12.28100942699212</v>
+        <v>-12.51910321575573</v>
       </c>
       <c r="H93">
-        <v>-17.01142667718974</v>
+        <v>-15.96213180430409</v>
       </c>
       <c r="I93">
-        <v>-9.052448051258599</v>
+        <v>-8.789650746011853</v>
       </c>
       <c r="J93" t="s">
         <v>72</v>
       </c>
       <c r="K93">
-        <v>-15.84129200143568</v>
+        <v>-16.06972219099824</v>
       </c>
       <c r="L93">
-        <v>-20.37971408621119</v>
+        <v>-19.37300732596778</v>
       </c>
       <c r="M93">
-        <v>-12.74376942051112</v>
+        <v>-12.49163836507378</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4522,25 +4522,25 @@
         <v>72</v>
       </c>
       <c r="G94">
-        <v>-8.173374994155603</v>
+        <v>-8.289881622030196</v>
       </c>
       <c r="H94">
-        <v>-10.96101379539578</v>
+        <v>-11.45918193094458</v>
       </c>
       <c r="I94">
-        <v>-4.563551482921406</v>
+        <v>-4.544913140794065</v>
       </c>
       <c r="J94" t="s">
         <v>72</v>
       </c>
       <c r="K94">
-        <v>-11.41424695548421</v>
+        <v>-11.52664167068028</v>
       </c>
       <c r="L94">
-        <v>-14.10350056148634</v>
+        <v>-14.5840866597728</v>
       </c>
       <c r="M94">
-        <v>-7.931826316806411</v>
+        <v>-7.913845784768492</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4563,25 +4563,25 @@
         <v>72</v>
       </c>
       <c r="G95">
-        <v>-4.89828269386028</v>
+        <v>-4.006821431009143</v>
       </c>
       <c r="H95">
-        <v>-7.499951167491289</v>
+        <v>-6.533349017663545</v>
       </c>
       <c r="I95">
-        <v>-1.610573665957189</v>
+        <v>-0.5520181686468351</v>
       </c>
       <c r="J95" t="s">
         <v>72</v>
       </c>
       <c r="K95">
-        <v>-8.734497682065811</v>
+        <v>-7.878996201591115</v>
       </c>
       <c r="L95">
-        <v>-11.23122000040547</v>
+        <v>-10.30360866756649</v>
       </c>
       <c r="M95">
-        <v>-5.579408327150337</v>
+        <v>-4.563552862811604</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4604,25 +4604,25 @@
         <v>72</v>
       </c>
       <c r="G96">
-        <v>-2.847753312429783</v>
+        <v>-1.671689478231567</v>
       </c>
       <c r="H96">
-        <v>-5.405718773290299</v>
+        <v>-4.461985489717116</v>
       </c>
       <c r="I96">
-        <v>-0.1010603036926015</v>
+        <v>1.222869935986232</v>
       </c>
       <c r="J96" t="s">
         <v>72</v>
       </c>
       <c r="K96">
-        <v>-7.089960034675213</v>
+        <v>-5.96524967992117</v>
       </c>
       <c r="L96">
-        <v>-9.536230515302989</v>
+        <v>-8.633705868854335</v>
       </c>
       <c r="M96">
-        <v>-4.463202899197672</v>
+        <v>-3.1970828075498</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4645,25 +4645,25 @@
         <v>72</v>
       </c>
       <c r="G97">
-        <v>-3.899868187334852</v>
+        <v>-3.366991125874121</v>
       </c>
       <c r="H97">
-        <v>-6.802153588217489</v>
+        <v>-5.903724925046212</v>
       </c>
       <c r="I97">
-        <v>-0.7157016603880523</v>
+        <v>-0.7259423468234827</v>
       </c>
       <c r="J97" t="s">
         <v>72</v>
       </c>
       <c r="K97">
-        <v>-7.809548621554951</v>
+        <v>-7.298350812575349</v>
       </c>
       <c r="L97">
-        <v>-10.59375917454379</v>
+        <v>-9.731881647148178</v>
       </c>
       <c r="M97">
-        <v>-4.754924826078799</v>
+        <v>-4.764748886536363</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4686,25 +4686,25 @@
         <v>73</v>
       </c>
       <c r="G98">
-        <v>6.57117906842575</v>
+        <v>6.356296320848268</v>
       </c>
       <c r="H98">
-        <v>3.52484658562391</v>
+        <v>3.890710307993632</v>
       </c>
       <c r="I98">
-        <v>8.263040223029115</v>
+        <v>8.41358508780667</v>
       </c>
       <c r="J98" t="s">
         <v>73</v>
       </c>
       <c r="K98">
-        <v>-2.121248633476336</v>
+        <v>-2.318604571610305</v>
       </c>
       <c r="L98">
-        <v>-4.919108451396525</v>
+        <v>-4.58308623010849</v>
       </c>
       <c r="M98">
-        <v>-0.567383331941318</v>
+        <v>-0.4291175876953157</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4727,25 +4727,25 @@
         <v>73</v>
       </c>
       <c r="G99">
-        <v>-6.775273678654786</v>
+        <v>-6.556873939338148</v>
       </c>
       <c r="H99">
-        <v>-10.01083080869014</v>
+        <v>-9.678898523368485</v>
       </c>
       <c r="I99">
-        <v>-2.424401789155133</v>
+        <v>-2.735939629544676</v>
       </c>
       <c r="J99" t="s">
         <v>73</v>
       </c>
       <c r="K99">
-        <v>-14.18718265753506</v>
+        <v>-13.98614697014652</v>
       </c>
       <c r="L99">
-        <v>-17.165494141591</v>
+        <v>-16.85995240717828</v>
       </c>
       <c r="M99">
-        <v>-10.182230436521</v>
+        <v>-10.4689992032156</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4768,25 +4768,25 @@
         <v>73</v>
       </c>
       <c r="G100">
-        <v>-2.233454415768164</v>
+        <v>-1.866037332716252</v>
       </c>
       <c r="H100">
-        <v>-4.332689659548265</v>
+        <v>-3.900384838342114</v>
       </c>
       <c r="I100">
-        <v>0.6929489764001747</v>
+        <v>0.591796499427361</v>
       </c>
       <c r="J100" t="s">
         <v>73</v>
       </c>
       <c r="K100">
-        <v>-9.425213569341873</v>
+        <v>-9.084823882567772</v>
       </c>
       <c r="L100">
-        <v>-11.37002795075291</v>
+        <v>-10.96952370239574</v>
       </c>
       <c r="M100">
-        <v>-6.714077969002618</v>
+        <v>-6.807789615905923</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4809,25 +4809,25 @@
         <v>73</v>
       </c>
       <c r="G101">
-        <v>-1.782322968302944</v>
+        <v>-1.293083308465767</v>
       </c>
       <c r="H101">
-        <v>-4.309413904981181</v>
+        <v>-3.608878085499521</v>
       </c>
       <c r="I101">
-        <v>-0.03421788231299147</v>
+        <v>0.7241228092325904</v>
       </c>
       <c r="J101" t="s">
         <v>73</v>
       </c>
       <c r="K101">
-        <v>-8.712778699876356</v>
+        <v>-8.258060868564376</v>
       </c>
       <c r="L101">
-        <v>-11.06155253116575</v>
+        <v>-10.41044806286268</v>
       </c>
       <c r="M101">
-        <v>-7.088023761016049</v>
+        <v>-6.383193259805253</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4850,25 +4850,25 @@
         <v>73</v>
       </c>
       <c r="G102">
-        <v>1.349967656471898</v>
+        <v>-0.1762371412202956</v>
       </c>
       <c r="H102">
-        <v>-0.9681644736978525</v>
+        <v>-2.141618256543842</v>
       </c>
       <c r="I102">
-        <v>3.70032321328488</v>
+        <v>1.952682937439215</v>
       </c>
       <c r="J102" t="s">
         <v>73</v>
       </c>
       <c r="K102">
-        <v>-5.233089114857991</v>
+        <v>-6.660161243243978</v>
       </c>
       <c r="L102">
-        <v>-7.400649954585137</v>
+        <v>-8.497883556511187</v>
       </c>
       <c r="M102">
-        <v>-3.035397879712631</v>
+        <v>-4.66952242962585</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4891,25 +4891,25 @@
         <v>73</v>
       </c>
       <c r="G103">
-        <v>-1.367941890321483</v>
+        <v>-1.176010172216442</v>
       </c>
       <c r="H103">
-        <v>-4.187234537219177</v>
+        <v>-3.230322150785053</v>
       </c>
       <c r="I103">
-        <v>0.4595486531455295</v>
+        <v>1.017415551170832</v>
       </c>
       <c r="J103" t="s">
         <v>73</v>
       </c>
       <c r="K103">
-        <v>-7.432838093993133</v>
+        <v>-7.252708278543373</v>
       </c>
       <c r="L103">
-        <v>-10.07877212302447</v>
+        <v>-9.180700385472241</v>
       </c>
       <c r="M103">
-        <v>-5.717720146938898</v>
+        <v>-5.194156546409678</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4932,25 +4932,25 @@
         <v>74</v>
       </c>
       <c r="G104">
-        <v>6.673348842067304</v>
+        <v>0.9783006512815869</v>
       </c>
       <c r="H104">
-        <v>2.110893994805255</v>
+        <v>-3.40987840435403</v>
       </c>
       <c r="I104">
-        <v>10.30197765208722</v>
+        <v>5.300039637445199</v>
       </c>
       <c r="J104" t="s">
         <v>74</v>
       </c>
       <c r="K104">
-        <v>4.00677822563833</v>
+        <v>-1.545907806936897</v>
       </c>
       <c r="L104">
-        <v>-0.4416265035149691</v>
+        <v>-5.824393209411682</v>
       </c>
       <c r="M104">
-        <v>7.544700265244098</v>
+        <v>2.667798363931473</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4973,25 +4973,25 @@
         <v>74</v>
       </c>
       <c r="G105">
-        <v>-7.329109292057904</v>
+        <v>-5.868959872073631</v>
       </c>
       <c r="H105">
-        <v>-12.07834652680885</v>
+        <v>-13.09790115682919</v>
       </c>
       <c r="I105">
-        <v>-2.678260971750837</v>
+        <v>0.2429429476928343</v>
       </c>
       <c r="J105" t="s">
         <v>74</v>
       </c>
       <c r="K105">
-        <v>-8.862097481125264</v>
+        <v>-7.426102267472768</v>
       </c>
       <c r="L105">
-        <v>-13.53277148493784</v>
+        <v>-14.535460352754</v>
       </c>
       <c r="M105">
-        <v>-4.288184814395157</v>
+        <v>-1.415304279696739</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5014,25 +5014,25 @@
         <v>74</v>
       </c>
       <c r="G106">
-        <v>-5.219735997358184</v>
+        <v>-5.829436771235627</v>
       </c>
       <c r="H106">
-        <v>-12.58420959885141</v>
+        <v>-11.76329314801683</v>
       </c>
       <c r="I106">
-        <v>-1.190813650764472</v>
+        <v>-1.089809184904656</v>
       </c>
       <c r="J106" t="s">
         <v>74</v>
       </c>
       <c r="K106">
-        <v>-8.397576353645508</v>
+        <v>-8.986834773359076</v>
       </c>
       <c r="L106">
-        <v>-15.5151301806487</v>
+        <v>-14.72173782941495</v>
       </c>
       <c r="M106">
-        <v>-4.503737741625446</v>
+        <v>-4.406119804291908</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5055,25 +5055,25 @@
         <v>74</v>
       </c>
       <c r="G107">
-        <v>-7.494716600704472</v>
+        <v>-1.911387010823678</v>
       </c>
       <c r="H107">
-        <v>-13.17023133426113</v>
+        <v>-6.801810872109559</v>
       </c>
       <c r="I107">
-        <v>-2.875599171417435</v>
+        <v>2.569314530176927</v>
       </c>
       <c r="J107" t="s">
         <v>74</v>
       </c>
       <c r="K107">
-        <v>-9.394772691990106</v>
+        <v>-3.926124545234189</v>
       </c>
       <c r="L107">
-        <v>-14.95371250199209</v>
+        <v>-8.716099228860719</v>
       </c>
       <c r="M107">
-        <v>-4.870531813375267</v>
+        <v>0.4625435038039916</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5096,25 +5096,25 @@
         <v>74</v>
       </c>
       <c r="G108">
-        <v>-4.266217760385593</v>
+        <v>0.5334684787210914</v>
       </c>
       <c r="H108">
-        <v>-8.668082522415613</v>
+        <v>-4.378686684162904</v>
       </c>
       <c r="I108">
-        <v>-0.1566995532888573</v>
+        <v>4.654721583944686</v>
       </c>
       <c r="J108" t="s">
         <v>74</v>
       </c>
       <c r="K108">
-        <v>-9.07591809844277</v>
+        <v>-4.517369856673536</v>
       </c>
       <c r="L108">
-        <v>-13.25663156007784</v>
+        <v>-9.182736542232162</v>
       </c>
       <c r="M108">
-        <v>-5.172863593578681</v>
+        <v>-0.603170019269228</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5137,25 +5137,25 @@
         <v>74</v>
       </c>
       <c r="G109">
-        <v>-2.135074813431593</v>
+        <v>-4.088352149904119</v>
       </c>
       <c r="H109">
-        <v>-6.922275698734161</v>
+        <v>-9.09095991423327</v>
       </c>
       <c r="I109">
-        <v>2.351983153852192</v>
+        <v>0.4100658905236348</v>
       </c>
       <c r="J109" t="s">
         <v>74</v>
       </c>
       <c r="K109">
-        <v>-4.131795606043998</v>
+        <v>-6.045220569830001</v>
       </c>
       <c r="L109">
-        <v>-8.821324076762139</v>
+        <v>-10.94576101104746</v>
       </c>
       <c r="M109">
-        <v>0.2637137096278552</v>
+        <v>-1.638582958581158</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5178,25 +5178,25 @@
         <v>75</v>
       </c>
       <c r="G110">
-        <v>9.355309038085563</v>
+        <v>9.624647125014867</v>
       </c>
       <c r="H110">
-        <v>5.621081249554578</v>
+        <v>5.405072473138789</v>
       </c>
       <c r="I110">
-        <v>11.39727343402463</v>
+        <v>11.4499971738065</v>
       </c>
       <c r="J110" t="s">
         <v>75</v>
       </c>
       <c r="K110">
-        <v>-2.714269176952155</v>
+        <v>-2.474658015355291</v>
       </c>
       <c r="L110">
-        <v>-6.036349125905039</v>
+        <v>-6.228516948964124</v>
       </c>
       <c r="M110">
-        <v>-0.897677003046915</v>
+        <v>-0.8507723982177362</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5219,25 +5219,25 @@
         <v>75</v>
       </c>
       <c r="G111">
-        <v>-12.27747112733815</v>
+        <v>-12.24169265334006</v>
       </c>
       <c r="H111">
-        <v>-18.35556686185332</v>
+        <v>-18.30847174977731</v>
       </c>
       <c r="I111">
-        <v>-1.616776238076798</v>
+        <v>-3.253916348045055</v>
       </c>
       <c r="J111" t="s">
         <v>75</v>
       </c>
       <c r="K111">
-        <v>-21.65414954857018</v>
+        <v>-21.62219544271781</v>
       </c>
       <c r="L111">
-        <v>-27.08255643064995</v>
+        <v>-27.04049532439689</v>
       </c>
       <c r="M111">
-        <v>-12.1329784396661</v>
+        <v>-13.59512432022773</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5260,25 +5260,25 @@
         <v>75</v>
       </c>
       <c r="G112">
-        <v>-5.103415345897153</v>
+        <v>-6.472104296070998</v>
       </c>
       <c r="H112">
-        <v>-9.043513319234329</v>
+        <v>-11.20404722510317</v>
       </c>
       <c r="I112">
-        <v>1.12223107232152</v>
+        <v>-1.052448627092662</v>
       </c>
       <c r="J112" t="s">
         <v>75</v>
       </c>
       <c r="K112">
-        <v>-15.47709856441576</v>
+        <v>-16.6961683723882</v>
       </c>
       <c r="L112">
-        <v>-18.98648210925891</v>
+        <v>-20.91083581534452</v>
       </c>
       <c r="M112">
-        <v>-9.932012821889568</v>
+        <v>-11.868965964698</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5301,25 +5301,25 @@
         <v>75</v>
       </c>
       <c r="G113">
-        <v>2.079572789969451</v>
+        <v>2.119221814657323</v>
       </c>
       <c r="H113">
-        <v>-2.790914637734133</v>
+        <v>-2.216808626851255</v>
       </c>
       <c r="I113">
-        <v>4.184083684756259</v>
+        <v>3.666609342334462</v>
       </c>
       <c r="J113" t="s">
         <v>75</v>
       </c>
       <c r="K113">
-        <v>-9.169060741313729</v>
+        <v>-9.133780831194006</v>
       </c>
       <c r="L113">
-        <v>-13.50284599937085</v>
+        <v>-12.99200345979791</v>
       </c>
       <c r="M113">
-        <v>-7.296455909327115</v>
+        <v>-7.756907293279836</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5342,25 +5342,25 @@
         <v>75</v>
       </c>
       <c r="G114">
-        <v>4.849387563511225</v>
+        <v>4.678555396861967</v>
       </c>
       <c r="H114">
-        <v>0.5935958222032507</v>
+        <v>1.164369764488172</v>
       </c>
       <c r="I114">
-        <v>6.292984679412527</v>
+        <v>6.721580124840721</v>
       </c>
       <c r="J114" t="s">
         <v>75</v>
       </c>
       <c r="K114">
-        <v>-6.920758258385185</v>
+        <v>-7.072413207510742</v>
       </c>
       <c r="L114">
-        <v>-10.69880482113908</v>
+        <v>-10.1921046201334</v>
       </c>
       <c r="M114">
-        <v>-5.639215961849764</v>
+        <v>-5.258733633803725</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5383,25 +5383,25 @@
         <v>75</v>
       </c>
       <c r="G115">
-        <v>0.7022478704198077</v>
+        <v>2.276164154171623</v>
       </c>
       <c r="H115">
-        <v>-3.117553529490051</v>
+        <v>-1.139372025689315</v>
       </c>
       <c r="I115">
-        <v>4.287345119498561</v>
+        <v>5.469148356782171</v>
       </c>
       <c r="J115" t="s">
         <v>75</v>
       </c>
       <c r="K115">
-        <v>-10.90686405556975</v>
+        <v>-9.514391291566614</v>
       </c>
       <c r="L115">
-        <v>-14.28631280273977</v>
+        <v>-12.53617914268821</v>
       </c>
       <c r="M115">
-        <v>-7.735062399293147</v>
+        <v>-6.689499279248789</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5424,25 +5424,25 @@
         <v>76</v>
       </c>
       <c r="G116">
-        <v>9.114781526381023</v>
+        <v>7.946650240244931</v>
       </c>
       <c r="H116">
-        <v>7.063467117983756</v>
+        <v>6.171672101920202</v>
       </c>
       <c r="I116">
-        <v>10.58973582535866</v>
+        <v>10.08247148275316</v>
       </c>
       <c r="J116" t="s">
         <v>76</v>
       </c>
       <c r="K116">
-        <v>-1.161665138754175</v>
+        <v>-2.219781643282059</v>
       </c>
       <c r="L116">
-        <v>-3.019786445204753</v>
+        <v>-3.827592071466024</v>
       </c>
       <c r="M116">
-        <v>0.1743777407537506</v>
+        <v>-0.2851123691676949</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5465,25 +5465,25 @@
         <v>76</v>
       </c>
       <c r="G117">
-        <v>1.014916582828181</v>
+        <v>0.9357291821680769</v>
       </c>
       <c r="H117">
-        <v>-5.308465755734918</v>
+        <v>-3.593219324302183</v>
       </c>
       <c r="I117">
-        <v>4.121762287859029</v>
+        <v>3.863593342972048</v>
       </c>
       <c r="J117" t="s">
         <v>76</v>
       </c>
       <c r="K117">
-        <v>-8.442278957810768</v>
+        <v>-8.514052693660457</v>
       </c>
       <c r="L117">
-        <v>-14.17365503356633</v>
+        <v>-12.61899301333926</v>
       </c>
       <c r="M117">
-        <v>-5.62630165460628</v>
+        <v>-5.860300365265392</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5506,25 +5506,25 @@
         <v>76</v>
       </c>
       <c r="G118">
-        <v>0.6858608637898205</v>
+        <v>-0.08107145904730917</v>
       </c>
       <c r="H118">
-        <v>-6.546045119230662</v>
+        <v>-5.289367393523936</v>
       </c>
       <c r="I118">
-        <v>3.603158720086455</v>
+        <v>2.444429907836488</v>
       </c>
       <c r="J118" t="s">
         <v>76</v>
       </c>
       <c r="K118">
-        <v>-8.674886978241691</v>
+        <v>-9.370517729791727</v>
       </c>
       <c r="L118">
-        <v>-15.23444385739033</v>
+        <v>-14.09459925212494</v>
       </c>
       <c r="M118">
-        <v>-6.028809821441627</v>
+        <v>-7.079811807544257</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5547,25 +5547,25 @@
         <v>76</v>
       </c>
       <c r="G119">
-        <v>1.389923754239524</v>
+        <v>0.8059385279571031</v>
       </c>
       <c r="H119">
-        <v>-3.029141679608715</v>
+        <v>-3.663711937050917</v>
       </c>
       <c r="I119">
-        <v>2.67179123859086</v>
+        <v>2.227836356432438</v>
       </c>
       <c r="J119" t="s">
         <v>76</v>
       </c>
       <c r="K119">
-        <v>-8.018962833012001</v>
+        <v>-8.548754796697244</v>
       </c>
       <c r="L119">
-        <v>-12.02794328060949</v>
+        <v>-12.60362603362484</v>
       </c>
       <c r="M119">
-        <v>-6.856051407937136</v>
+        <v>-7.258807707618963</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5588,25 +5588,25 @@
         <v>76</v>
       </c>
       <c r="G120">
-        <v>2.508489759467488</v>
+        <v>2.057041007498329</v>
       </c>
       <c r="H120">
-        <v>-0.4538423065228067</v>
+        <v>-1.820940927730569</v>
       </c>
       <c r="I120">
-        <v>4.648703771390859</v>
+        <v>4.570126638911991</v>
       </c>
       <c r="J120" t="s">
         <v>76</v>
       </c>
       <c r="K120">
-        <v>-7.029216690540907</v>
+        <v>-7.438661256480139</v>
       </c>
       <c r="L120">
-        <v>-9.715924232951178</v>
+        <v>-10.95582377662022</v>
       </c>
       <c r="M120">
-        <v>-5.088134799613742</v>
+        <v>-5.159400873027886</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5629,25 +5629,25 @@
         <v>76</v>
       </c>
       <c r="G121">
-        <v>0.739650442706119</v>
+        <v>0.357997904230493</v>
       </c>
       <c r="H121">
-        <v>-3.993281326039046</v>
+        <v>-4.54625512501875</v>
       </c>
       <c r="I121">
-        <v>2.714536585365015</v>
+        <v>2.81164262140467</v>
       </c>
       <c r="J121" t="s">
         <v>76</v>
       </c>
       <c r="K121">
-        <v>-8.616066790095367</v>
+        <v>-8.962275159214951</v>
       </c>
       <c r="L121">
-        <v>-12.90944996882725</v>
+        <v>-13.41106894894797</v>
       </c>
       <c r="M121">
-        <v>-6.824588831170464</v>
+        <v>-6.736501057659938</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5670,25 +5670,25 @@
         <v>77</v>
       </c>
       <c r="G122">
-        <v>13.14375915945674</v>
+        <v>10.23386344298426</v>
       </c>
       <c r="H122">
-        <v>10.01990597475886</v>
+        <v>7.042245363337662</v>
       </c>
       <c r="I122">
-        <v>16.34195574842598</v>
+        <v>12.99673246037287</v>
       </c>
       <c r="J122" t="s">
         <v>77</v>
       </c>
       <c r="K122">
-        <v>2.370250492953674</v>
+        <v>-0.2625659842135697</v>
       </c>
       <c r="L122">
-        <v>-0.45615049810801</v>
+        <v>-3.15027932093237</v>
       </c>
       <c r="M122">
-        <v>5.263915935667818</v>
+        <v>2.237223624073037</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5711,25 +5711,25 @@
         <v>77</v>
       </c>
       <c r="G123">
-        <v>-0.04619067387756243</v>
+        <v>-1.430656587177529</v>
       </c>
       <c r="H123">
-        <v>-14.94219990798087</v>
+        <v>-14.04502501230933</v>
       </c>
       <c r="I123">
-        <v>5.677112182760036</v>
+        <v>4.099990912261006</v>
       </c>
       <c r="J123" t="s">
         <v>77</v>
       </c>
       <c r="K123">
-        <v>-8.715244807608325</v>
+        <v>-9.979635157709454</v>
       </c>
       <c r="L123">
-        <v>-22.31931418171425</v>
+        <v>-21.49995180554984</v>
       </c>
       <c r="M123">
-        <v>-3.488327457660567</v>
+        <v>-4.928664049700703</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5752,25 +5752,25 @@
         <v>77</v>
       </c>
       <c r="G124">
-        <v>10.3720731423683</v>
+        <v>8.252723291429515</v>
       </c>
       <c r="H124">
-        <v>-5.625753781641585</v>
+        <v>-2.728075318841846</v>
       </c>
       <c r="I124">
-        <v>16.04946558742671</v>
+        <v>13.28663475107869</v>
       </c>
       <c r="J124" t="s">
         <v>77</v>
       </c>
       <c r="K124">
-        <v>2.059542254893043</v>
+        <v>0.09980851512916278</v>
       </c>
       <c r="L124">
-        <v>-12.73342888764771</v>
+        <v>-10.0539853554624</v>
       </c>
       <c r="M124">
-        <v>7.309349182018932</v>
+        <v>4.754597400545491</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5793,25 +5793,25 @@
         <v>77</v>
       </c>
       <c r="G125">
-        <v>10.16235222465604</v>
+        <v>8.974895113802219</v>
       </c>
       <c r="H125">
-        <v>-3.170930901306602</v>
+        <v>-1.771478946369208</v>
       </c>
       <c r="I125">
-        <v>15.37062082288216</v>
+        <v>13.72109352414258</v>
       </c>
       <c r="J125" t="s">
         <v>77</v>
       </c>
       <c r="K125">
-        <v>1.563536253098197</v>
+        <v>0.4687671156232254</v>
       </c>
       <c r="L125">
-        <v>-10.72900613356885</v>
+        <v>-9.438789589627438</v>
       </c>
       <c r="M125">
-        <v>6.365269022139586</v>
+        <v>4.844496977763102</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5834,25 +5834,25 @@
         <v>77</v>
       </c>
       <c r="G126">
-        <v>11.09634276168361</v>
+        <v>9.8849837407216</v>
       </c>
       <c r="H126">
-        <v>-2.824975531198258</v>
+        <v>-2.412489944869479</v>
       </c>
       <c r="I126">
-        <v>16.41293081636768</v>
+        <v>14.83068765701843</v>
       </c>
       <c r="J126" t="s">
         <v>77</v>
       </c>
       <c r="K126">
-        <v>4.404226135719469</v>
+        <v>3.265835816000684</v>
       </c>
       <c r="L126">
-        <v>-8.678512926854332</v>
+        <v>-8.290874257909353</v>
       </c>
       <c r="M126">
-        <v>9.400558577755014</v>
+        <v>7.913625088281329</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5875,25 +5875,25 @@
         <v>77</v>
       </c>
       <c r="G127">
-        <v>8.675259157734901</v>
+        <v>8.260108954202778</v>
       </c>
       <c r="H127">
-        <v>-3.850281217754446</v>
+        <v>-2.329476341529283</v>
       </c>
       <c r="I127">
-        <v>13.43570692437183</v>
+        <v>13.32494447465634</v>
       </c>
       <c r="J127" t="s">
         <v>77</v>
       </c>
       <c r="K127">
-        <v>2.107559145385096</v>
+        <v>1.717498203364709</v>
       </c>
       <c r="L127">
-        <v>-9.661010487026578</v>
+        <v>-8.232114204181151</v>
       </c>
       <c r="M127">
-        <v>6.580313161870932</v>
+        <v>6.476244549814547</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5916,25 +5916,25 @@
         <v>78</v>
       </c>
       <c r="G128">
-        <v>5.950086958051253</v>
+        <v>6.349083762478045</v>
       </c>
       <c r="H128">
-        <v>4.201935587972433</v>
+        <v>4.489038881833078</v>
       </c>
       <c r="I128">
-        <v>7.578402363446932</v>
+        <v>7.945724245412797</v>
       </c>
       <c r="J128" t="s">
         <v>78</v>
       </c>
       <c r="K128">
-        <v>0.1495358341267572</v>
+        <v>0.526688377460327</v>
       </c>
       <c r="L128">
-        <v>-1.502907814650101</v>
+        <v>-1.231522840440724</v>
       </c>
       <c r="M128">
-        <v>1.688704292822796</v>
+        <v>2.035916051083686</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5957,25 +5957,25 @@
         <v>78</v>
       </c>
       <c r="G129">
-        <v>-5.490039824422294</v>
+        <v>-4.020695887330181</v>
       </c>
       <c r="H129">
-        <v>-9.124810675123593</v>
+        <v>-6.786877626383881</v>
       </c>
       <c r="I129">
-        <v>-2.370460954705262</v>
+        <v>-0.01636544920145575</v>
       </c>
       <c r="J129" t="s">
         <v>78</v>
       </c>
       <c r="K129">
-        <v>-10.99364958457219</v>
+        <v>-9.609870127860487</v>
       </c>
       <c r="L129">
-        <v>-14.4167563916884</v>
+        <v>-12.21496847645331</v>
       </c>
       <c r="M129">
-        <v>-8.055733522489783</v>
+        <v>-5.838724340759116</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5998,25 +5998,25 @@
         <v>78</v>
       </c>
       <c r="G130">
-        <v>-0.06868918662097113</v>
+        <v>1.322026613094924</v>
       </c>
       <c r="H130">
-        <v>-4.916602265931965</v>
+        <v>-3.904602294914242</v>
       </c>
       <c r="I130">
-        <v>2.788890089064626</v>
+        <v>4.485246673550321</v>
       </c>
       <c r="J130" t="s">
         <v>78</v>
       </c>
       <c r="K130">
-        <v>-5.946742451150167</v>
+        <v>-4.637829856856223</v>
       </c>
       <c r="L130">
-        <v>-10.50949674419032</v>
+        <v>-9.557023558971011</v>
       </c>
       <c r="M130">
-        <v>-3.257248663920365</v>
+        <v>-1.66067336197846</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6039,25 +6039,25 @@
         <v>78</v>
       </c>
       <c r="G131">
-        <v>0.08440929842999143</v>
+        <v>0.6861757622215172</v>
       </c>
       <c r="H131">
-        <v>-5.490708341126535</v>
+        <v>-4.721776003445372</v>
       </c>
       <c r="I131">
-        <v>2.675870731363879</v>
+        <v>3.363579050373758</v>
       </c>
       <c r="J131" t="s">
         <v>78</v>
       </c>
       <c r="K131">
-        <v>-5.552138324675216</v>
+        <v>-4.984262107675619</v>
       </c>
       <c r="L131">
-        <v>-10.81327683101757</v>
+        <v>-10.08764917755912</v>
       </c>
       <c r="M131">
-        <v>-3.106622657745872</v>
+        <v>-2.457644653657931</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6080,25 +6080,25 @@
         <v>78</v>
       </c>
       <c r="G132">
-        <v>2.252747466491345</v>
+        <v>2.40577416751248</v>
       </c>
       <c r="H132">
-        <v>-0.7236498894475013</v>
+        <v>-0.3420565161809229</v>
       </c>
       <c r="I132">
-        <v>5.161550933001267</v>
+        <v>5.491616661329908</v>
       </c>
       <c r="J132" t="s">
         <v>78</v>
       </c>
       <c r="K132">
-        <v>-3.131566794867058</v>
+        <v>-2.986598007878472</v>
       </c>
       <c r="L132">
-        <v>-5.951236247369351</v>
+        <v>-5.58973640403353</v>
       </c>
       <c r="M132">
-        <v>-0.3759319460840405</v>
+        <v>-0.06324646085161811</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6121,25 +6121,25 @@
         <v>78</v>
       </c>
       <c r="G133">
-        <v>4.481994628944539</v>
+        <v>5.490944306101239</v>
       </c>
       <c r="H133">
-        <v>2.234915714537442</v>
+        <v>2.517498306109664</v>
       </c>
       <c r="I133">
-        <v>7.446382384744982</v>
+        <v>9.022209983303544</v>
       </c>
       <c r="J133" t="s">
         <v>78</v>
       </c>
       <c r="K133">
-        <v>-1.571735217626313</v>
+        <v>-0.6212445007525047</v>
       </c>
       <c r="L133">
-        <v>-3.688617453265386</v>
+        <v>-3.422407813557249</v>
       </c>
       <c r="M133">
-        <v>1.220894689390417</v>
+        <v>2.705418187177155</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6162,25 +6162,25 @@
         <v>79</v>
       </c>
       <c r="G134">
-        <v>-0.2398718134664528</v>
+        <v>-0.5569508013744923</v>
       </c>
       <c r="H134">
-        <v>-2.366829188223448</v>
+        <v>-2.170127489828441</v>
       </c>
       <c r="I134">
-        <v>1.725020579950877</v>
+        <v>1.308774502160141</v>
       </c>
       <c r="J134" t="s">
         <v>79</v>
       </c>
       <c r="K134">
-        <v>-0.5469845214495783</v>
+        <v>-0.8630873780274828</v>
       </c>
       <c r="L134">
-        <v>-2.667394033337911</v>
+        <v>-2.47129788339554</v>
       </c>
       <c r="M134">
-        <v>1.411858928017828</v>
+        <v>0.9968942685899318</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6203,25 +6203,25 @@
         <v>79</v>
       </c>
       <c r="G135">
-        <v>-20.97300717577511</v>
+        <v>-20.29631803108787</v>
       </c>
       <c r="H135">
-        <v>-23.56761383500584</v>
+        <v>-23.4002356025528</v>
       </c>
       <c r="I135">
-        <v>-16.77780458764922</v>
+        <v>-16.72554736648629</v>
       </c>
       <c r="J135" t="s">
         <v>79</v>
       </c>
       <c r="K135">
-        <v>-21.38130886311011</v>
+        <v>-20.70811590763245</v>
       </c>
       <c r="L135">
-        <v>-23.96251020044924</v>
+        <v>-23.79599674612189</v>
       </c>
       <c r="M135">
-        <v>-17.20778125253594</v>
+        <v>-17.15579402407821</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6244,25 +6244,25 @@
         <v>79</v>
       </c>
       <c r="G136">
-        <v>-5.990155838528725</v>
+        <v>-5.513262728323768</v>
       </c>
       <c r="H136">
-        <v>-7.726371061996661</v>
+        <v>-6.720180654467423</v>
       </c>
       <c r="I136">
-        <v>-4.325476231408111</v>
+        <v>-3.893208754138667</v>
       </c>
       <c r="J136" t="s">
         <v>79</v>
       </c>
       <c r="K136">
-        <v>-6.726585623586678</v>
+        <v>-6.253428274181838</v>
       </c>
       <c r="L136">
-        <v>-8.449200137307278</v>
+        <v>-7.450891761624312</v>
       </c>
       <c r="M136">
-        <v>-5.074946349169485</v>
+        <v>-4.646065056062055</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6285,25 +6285,25 @@
         <v>79</v>
       </c>
       <c r="G137">
-        <v>-6.082846792619589</v>
+        <v>-5.524378480225744</v>
       </c>
       <c r="H137">
-        <v>-7.739473628974856</v>
+        <v>-6.64665759375854</v>
       </c>
       <c r="I137">
-        <v>-4.771262944479663</v>
+        <v>-4.008805550717865</v>
       </c>
       <c r="J137" t="s">
         <v>79</v>
       </c>
       <c r="K137">
-        <v>-6.859326503445806</v>
+        <v>-6.305475444651587</v>
       </c>
       <c r="L137">
-        <v>-8.502256830879007</v>
+        <v>-7.418475880841835</v>
       </c>
       <c r="M137">
-        <v>-5.558586449142766</v>
+        <v>-4.802432831383607</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6326,25 +6326,25 @@
         <v>79</v>
       </c>
       <c r="G138">
-        <v>-4.772260906614279</v>
+        <v>-4.783998492150998</v>
       </c>
       <c r="H138">
-        <v>-6.000606883932106</v>
+        <v>-6.232706361369147</v>
       </c>
       <c r="I138">
-        <v>-2.891594984779426</v>
+        <v>-2.686930447033995</v>
       </c>
       <c r="J138" t="s">
         <v>79</v>
       </c>
       <c r="K138">
-        <v>-5.556722149844551</v>
+        <v>-5.568363044217217</v>
       </c>
       <c r="L138">
-        <v>-6.77494933381857</v>
+        <v>-7.005136836379833</v>
       </c>
       <c r="M138">
-        <v>-3.691548662684596</v>
+        <v>-3.488570097947186</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6367,25 +6367,25 @@
         <v>79</v>
       </c>
       <c r="G139">
-        <v>-6.824941235277786</v>
+        <v>-6.952200598177956</v>
       </c>
       <c r="H139">
-        <v>-8.111657832330703</v>
+        <v>-8.215711278694823</v>
       </c>
       <c r="I139">
-        <v>-5.074210637895675</v>
+        <v>-5.233194128914961</v>
       </c>
       <c r="J139" t="s">
         <v>79</v>
       </c>
       <c r="K139">
-        <v>-7.618875437544936</v>
+        <v>-7.745050437718593</v>
       </c>
       <c r="L139">
-        <v>-8.894628067109455</v>
+        <v>-8.997794885753386</v>
       </c>
       <c r="M139">
-        <v>-5.883062618789903</v>
+        <v>-6.040691429352973</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6408,25 +6408,25 @@
         <v>80</v>
       </c>
       <c r="G140">
-        <v>0.02471998632038246</v>
+        <v>0.3394880933448045</v>
       </c>
       <c r="H140">
-        <v>-1.160075527136105</v>
+        <v>-1.040221103817619</v>
       </c>
       <c r="I140">
-        <v>1.626124035582086</v>
+        <v>2.130894774553234</v>
       </c>
       <c r="J140" t="s">
         <v>80</v>
       </c>
       <c r="K140">
-        <v>-1.416115154963937</v>
+        <v>-1.105881216593207</v>
       </c>
       <c r="L140">
-        <v>-2.583843937203811</v>
+        <v>-2.465715991749784</v>
       </c>
       <c r="M140">
-        <v>0.16222100438128</v>
+        <v>0.6597206265814837</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6449,25 +6449,25 @@
         <v>80</v>
       </c>
       <c r="G141">
-        <v>-8.534412336183209</v>
+        <v>-8.375873424582849</v>
       </c>
       <c r="H141">
-        <v>-10.16960404625818</v>
+        <v>-10.26859158814825</v>
       </c>
       <c r="I141">
-        <v>-3.88902417428541</v>
+        <v>-4.212318306873411</v>
       </c>
       <c r="J141" t="s">
         <v>80</v>
       </c>
       <c r="K141">
-        <v>-9.57605900031535</v>
+        <v>-9.419325593196204</v>
       </c>
       <c r="L141">
-        <v>-11.19262849373462</v>
+        <v>-11.29048872593989</v>
       </c>
       <c r="M141">
-        <v>-4.983574375212452</v>
+        <v>-5.303186705022545</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6490,25 +6490,25 @@
         <v>80</v>
       </c>
       <c r="G142">
-        <v>-4.488259551435804</v>
+        <v>-4.73364002636528</v>
       </c>
       <c r="H142">
-        <v>-5.879767033127297</v>
+        <v>-5.859843152333022</v>
       </c>
       <c r="I142">
-        <v>-0.7467097887899584</v>
+        <v>-1.058314715339799</v>
       </c>
       <c r="J142" t="s">
         <v>80</v>
       </c>
       <c r="K142">
-        <v>-6.290708932191524</v>
+        <v>-6.531458710590821</v>
       </c>
       <c r="L142">
-        <v>-7.655956586694101</v>
+        <v>-7.636408699326724</v>
       </c>
       <c r="M142">
-        <v>-2.619767809081242</v>
+        <v>-2.925492284659703</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6531,25 +6531,25 @@
         <v>80</v>
       </c>
       <c r="G143">
-        <v>-2.553782507812604</v>
+        <v>-2.67493313517229</v>
       </c>
       <c r="H143">
-        <v>-3.883819258214606</v>
+        <v>-4.095073320386785</v>
       </c>
       <c r="I143">
-        <v>-0.09165547693670104</v>
+        <v>-0.3436472985530949</v>
       </c>
       <c r="J143" t="s">
         <v>80</v>
       </c>
       <c r="K143">
-        <v>-4.259885899853444</v>
+        <v>-4.37891540336034</v>
       </c>
       <c r="L143">
-        <v>-5.566636161874483</v>
+        <v>-5.774191555372498</v>
       </c>
       <c r="M143">
-        <v>-1.840866168440947</v>
+        <v>-2.088446078413253</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6572,25 +6572,25 @@
         <v>80</v>
       </c>
       <c r="G144">
-        <v>-3.743425517330465</v>
+        <v>-3.043921251061108</v>
       </c>
       <c r="H144">
-        <v>-5.292773279406256</v>
+        <v>-4.672980959767919</v>
       </c>
       <c r="I144">
-        <v>-0.2855502082997664</v>
+        <v>-0.07114841142243628</v>
       </c>
       <c r="J144" t="s">
         <v>80</v>
       </c>
       <c r="K144">
-        <v>-5.151485355257057</v>
+        <v>-4.462213573044882</v>
       </c>
       <c r="L144">
-        <v>-6.678168957814556</v>
+        <v>-6.067443080420054</v>
       </c>
       <c r="M144">
-        <v>-1.744192516809506</v>
+        <v>-1.532927030994413</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6613,25 +6613,25 @@
         <v>80</v>
       </c>
       <c r="G145">
-        <v>-3.191371248086448</v>
+        <v>-2.846753844176444</v>
       </c>
       <c r="H145">
-        <v>-4.693823386434762</v>
+        <v>-4.196593514117778</v>
       </c>
       <c r="I145">
-        <v>0.09173816055480082</v>
+        <v>0.1489111507633304</v>
       </c>
       <c r="J145" t="s">
         <v>80</v>
       </c>
       <c r="K145">
-        <v>-4.291099212819205</v>
+        <v>-3.950396598335504</v>
       </c>
       <c r="L145">
-        <v>-5.776483775130991</v>
+        <v>-5.284902341414344</v>
       </c>
       <c r="M145">
-        <v>-1.045285314655753</v>
+        <v>-0.9887617989514319</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6654,25 +6654,25 @@
         <v>81</v>
       </c>
       <c r="G146">
-        <v>4.604812364204959</v>
+        <v>3.880216759927861</v>
       </c>
       <c r="H146">
-        <v>1.594158446299005</v>
+        <v>1.832857299076397</v>
       </c>
       <c r="I146">
-        <v>6.486457798219604</v>
+        <v>5.028664669116818</v>
       </c>
       <c r="J146" t="s">
         <v>81</v>
       </c>
       <c r="K146">
-        <v>0.05021060569077029</v>
+        <v>-0.6428353562815126</v>
       </c>
       <c r="L146">
-        <v>-2.829356325690802</v>
+        <v>-2.601050667930371</v>
       </c>
       <c r="M146">
-        <v>1.849927250685424</v>
+        <v>0.4556079427128212</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6695,25 +6695,25 @@
         <v>81</v>
       </c>
       <c r="G147">
-        <v>1.074889215324342</v>
+        <v>1.643232541917344</v>
       </c>
       <c r="H147">
-        <v>-0.8979643597616134</v>
+        <v>0.3728901084301119</v>
       </c>
       <c r="I147">
-        <v>4.50739040236086</v>
+        <v>3.901413105322418</v>
       </c>
       <c r="J147" t="s">
         <v>81</v>
       </c>
       <c r="K147">
-        <v>-3.173640960706725</v>
+        <v>-2.62918708669807</v>
       </c>
       <c r="L147">
-        <v>-5.063568618072534</v>
+        <v>-3.846132596335439</v>
       </c>
       <c r="M147">
-        <v>0.1145802277505048</v>
+        <v>-0.465925729646155</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6736,25 +6736,25 @@
         <v>81</v>
       </c>
       <c r="G148">
-        <v>1.204295277225734</v>
+        <v>1.48705269493457</v>
       </c>
       <c r="H148">
-        <v>-0.8955086633007801</v>
+        <v>-0.4602469548390742</v>
       </c>
       <c r="I148">
-        <v>4.332818347463006</v>
+        <v>3.281354782914897</v>
       </c>
       <c r="J148" t="s">
         <v>81</v>
       </c>
       <c r="K148">
-        <v>-3.053613074007844</v>
+        <v>-2.782751941599337</v>
       </c>
       <c r="L148">
-        <v>-5.065073207487147</v>
+        <v>-4.648124006991172</v>
       </c>
       <c r="M148">
-        <v>-0.05671450124177246</v>
+        <v>-1.063940462235169</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6777,25 +6777,25 @@
         <v>81</v>
       </c>
       <c r="G149">
-        <v>0.0781379143099333</v>
+        <v>1.25866091487222</v>
       </c>
       <c r="H149">
-        <v>-1.640842476658611</v>
+        <v>-0.3271429899038558</v>
       </c>
       <c r="I149">
-        <v>1.809978948360724</v>
+        <v>2.460876238518409</v>
       </c>
       <c r="J149" t="s">
         <v>81</v>
       </c>
       <c r="K149">
-        <v>-3.737295580903455</v>
+        <v>-2.601779482868394</v>
       </c>
       <c r="L149">
-        <v>-5.390740626211066</v>
+        <v>-4.127125334954651</v>
       </c>
       <c r="M149">
-        <v>-2.07148019868244</v>
+        <v>-1.445398071701931</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6818,25 +6818,25 @@
         <v>81</v>
       </c>
       <c r="G150">
-        <v>2.026226852697966</v>
+        <v>2.775491816730924</v>
       </c>
       <c r="H150">
-        <v>0.297956755538007</v>
+        <v>0.2134519988009723</v>
       </c>
       <c r="I150">
-        <v>3.363349753446866</v>
+        <v>3.992344860383732</v>
       </c>
       <c r="J150" t="s">
         <v>81</v>
       </c>
       <c r="K150">
-        <v>-2.809799064301033</v>
+        <v>-2.096049132986055</v>
       </c>
       <c r="L150">
-        <v>-4.456149450821234</v>
+        <v>-4.536648696364775</v>
       </c>
       <c r="M150">
-        <v>-1.536055563160543</v>
+        <v>-0.9368747180330872</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6859,25 +6859,25 @@
         <v>81</v>
       </c>
       <c r="G151">
-        <v>3.049541992587152</v>
+        <v>3.947333062236376</v>
       </c>
       <c r="H151">
-        <v>0.6639871446413175</v>
+        <v>2.318466254329367</v>
       </c>
       <c r="I151">
-        <v>5.279855104431755</v>
+        <v>6.866767106198848</v>
       </c>
       <c r="J151" t="s">
         <v>81</v>
       </c>
       <c r="K151">
-        <v>-1.449545853836931</v>
+        <v>-0.5909518617484899</v>
       </c>
       <c r="L151">
-        <v>-3.730948653982857</v>
+        <v>-2.148703216668579</v>
       </c>
       <c r="M151">
-        <v>0.6833929813132578</v>
+        <v>2.201021254473279</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6900,25 +6900,25 @@
         <v>82</v>
       </c>
       <c r="G152">
-        <v>4.934940583144909</v>
+        <v>6.27934821767011</v>
       </c>
       <c r="H152">
-        <v>1.988114737559742</v>
+        <v>3.769921265182265</v>
       </c>
       <c r="I152">
-        <v>7.740786740344589</v>
+        <v>8.604310377645685</v>
       </c>
       <c r="J152" t="s">
         <v>82</v>
       </c>
       <c r="K152">
-        <v>-0.7651188247434937</v>
+        <v>0.5062606711786266</v>
       </c>
       <c r="L152">
-        <v>-3.551873274745931</v>
+        <v>-1.866854366236437</v>
       </c>
       <c r="M152">
-        <v>1.888313944727038</v>
+        <v>2.704931032070812</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6941,25 +6941,25 @@
         <v>82</v>
       </c>
       <c r="G153">
-        <v>-3.941649489920731</v>
+        <v>-4.0878617282504</v>
       </c>
       <c r="H153">
-        <v>-7.775860565482796</v>
+        <v>-6.82715392727823</v>
       </c>
       <c r="I153">
-        <v>0.713439760475171</v>
+        <v>-0.6448555231755058</v>
       </c>
       <c r="J153" t="s">
         <v>82</v>
       </c>
       <c r="K153">
-        <v>-8.519315314477026</v>
+        <v>-8.658559800779109</v>
       </c>
       <c r="L153">
-        <v>-12.17080685642714</v>
+        <v>-11.26731088374179</v>
       </c>
       <c r="M153">
-        <v>-4.086064590962357</v>
+        <v>-5.379630240316724</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6982,25 +6982,25 @@
         <v>82</v>
       </c>
       <c r="G154">
-        <v>-0.7213271227023939</v>
+        <v>0.700912306362253</v>
       </c>
       <c r="H154">
-        <v>-4.236148776683002</v>
+        <v>-2.281161028943518</v>
       </c>
       <c r="I154">
-        <v>2.532550319067925</v>
+        <v>3.819385172578663</v>
       </c>
       <c r="J154" t="s">
         <v>82</v>
       </c>
       <c r="K154">
-        <v>-4.883509276887033</v>
+        <v>-3.520896144176566</v>
       </c>
       <c r="L154">
-        <v>-8.250974730997596</v>
+        <v>-6.377948343935714</v>
       </c>
       <c r="M154">
-        <v>-1.766048149190325</v>
+        <v>-0.5331628591400461</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7023,25 +7023,25 @@
         <v>82</v>
       </c>
       <c r="G155">
-        <v>-1.273489463670603</v>
+        <v>0.5842706391631824</v>
       </c>
       <c r="H155">
-        <v>-3.88689444919235</v>
+        <v>-1.522274619205625</v>
       </c>
       <c r="I155">
-        <v>2.485890380019862</v>
+        <v>3.14114961397081</v>
       </c>
       <c r="J155" t="s">
         <v>82</v>
       </c>
       <c r="K155">
-        <v>-5.378123583420646</v>
+        <v>-3.59760135178252</v>
       </c>
       <c r="L155">
-        <v>-7.882874153689357</v>
+        <v>-5.616565295919451</v>
       </c>
       <c r="M155">
-        <v>-1.775042981865682</v>
+        <v>-1.147026677846597</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7064,25 +7064,25 @@
         <v>82</v>
       </c>
       <c r="G156">
-        <v>-2.42731420993561</v>
+        <v>-1.44801043846559</v>
       </c>
       <c r="H156">
-        <v>-4.682920121490177</v>
+        <v>-4.209697937908666</v>
       </c>
       <c r="I156">
-        <v>0.8831696792292483</v>
+        <v>1.777133821941025</v>
       </c>
       <c r="J156" t="s">
         <v>82</v>
       </c>
       <c r="K156">
-        <v>-7.417625679349705</v>
+        <v>-6.488407962222009</v>
       </c>
       <c r="L156">
-        <v>-9.557869633203042</v>
+        <v>-9.1088501870084</v>
       </c>
       <c r="M156">
-        <v>-4.276455011273739</v>
+        <v>-3.428212265677322</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7105,25 +7105,25 @@
         <v>82</v>
       </c>
       <c r="G157">
-        <v>-0.4986156310125192</v>
+        <v>1.036481816546743</v>
       </c>
       <c r="H157">
-        <v>-3.451018585943045</v>
+        <v>-1.984441640914642</v>
       </c>
       <c r="I157">
-        <v>2.346960867152611</v>
+        <v>4.015908837441811</v>
       </c>
       <c r="J157" t="s">
         <v>82</v>
       </c>
       <c r="K157">
-        <v>-5.494121464420165</v>
+        <v>-4.036094183298921</v>
       </c>
       <c r="L157">
-        <v>-8.298297876800975</v>
+        <v>-6.905350999640392</v>
       </c>
       <c r="M157">
-        <v>-2.791408244853022</v>
+        <v>-1.206250458731672</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7146,25 +7146,25 @@
         <v>83</v>
       </c>
       <c r="G158">
-        <v>6.276447518121685</v>
+        <v>5.375139147917603</v>
       </c>
       <c r="H158">
-        <v>3.723373288510714</v>
+        <v>3.515061314683817</v>
       </c>
       <c r="I158">
-        <v>8.01298575751145</v>
+        <v>6.882368949985779</v>
       </c>
       <c r="J158" t="s">
         <v>83</v>
       </c>
       <c r="K158">
-        <v>-0.3437282673107278</v>
+        <v>-1.188892308390377</v>
       </c>
       <c r="L158">
-        <v>-2.737766317335444</v>
+        <v>-2.933102115187791</v>
       </c>
       <c r="M158">
-        <v>1.28463747787777</v>
+        <v>0.2244490878103189</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7187,25 +7187,25 @@
         <v>83</v>
       </c>
       <c r="G159">
-        <v>-1.926710411373084</v>
+        <v>-3.141383555713711</v>
       </c>
       <c r="H159">
-        <v>-4.359655395181375</v>
+        <v>-6.090739938006956</v>
       </c>
       <c r="I159">
-        <v>0.8575784539573372</v>
+        <v>-0.9004195463817528</v>
       </c>
       <c r="J159" t="s">
         <v>83</v>
       </c>
       <c r="K159">
-        <v>-7.642685843626174</v>
+        <v>-8.786564565954524</v>
       </c>
       <c r="L159">
-        <v>-9.933832241766494</v>
+        <v>-11.56402451556093</v>
       </c>
       <c r="M159">
-        <v>-5.020672831561002</v>
+        <v>-6.676209974086111</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7228,25 +7228,25 @@
         <v>83</v>
       </c>
       <c r="G160">
-        <v>3.765532260394233</v>
+        <v>4.882114007580831</v>
       </c>
       <c r="H160">
-        <v>1.860359280629924</v>
+        <v>2.214614508655581</v>
       </c>
       <c r="I160">
-        <v>5.570471436384883</v>
+        <v>6.771051844696808</v>
       </c>
       <c r="J160" t="s">
         <v>83</v>
       </c>
       <c r="K160">
-        <v>-2.406510108044391</v>
+        <v>-1.356343380386293</v>
       </c>
       <c r="L160">
-        <v>-4.198362141111255</v>
+        <v>-3.865178247940115</v>
       </c>
       <c r="M160">
-        <v>-0.7089299059248599</v>
+        <v>0.4202391870359978</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7269,25 +7269,25 @@
         <v>83</v>
       </c>
       <c r="G161">
-        <v>2.494619922056249</v>
+        <v>2.688467741529082</v>
       </c>
       <c r="H161">
-        <v>0.4812670536283685</v>
+        <v>0.5199180696692165</v>
       </c>
       <c r="I161">
-        <v>4.190572305551991</v>
+        <v>4.559912638532856</v>
       </c>
       <c r="J161" t="s">
         <v>83</v>
       </c>
       <c r="K161">
-        <v>-2.943759300068127</v>
+        <v>-2.760197073677895</v>
       </c>
       <c r="L161">
-        <v>-4.850283376752696</v>
+        <v>-4.813683189162255</v>
       </c>
       <c r="M161">
-        <v>-1.337794393096792</v>
+        <v>-0.9880513111160671</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7310,25 +7310,25 @@
         <v>83</v>
       </c>
       <c r="G162">
-        <v>2.690242862656449</v>
+        <v>4.285923715406701</v>
       </c>
       <c r="H162">
-        <v>0.1754591882415265</v>
+        <v>1.552004750396889</v>
       </c>
       <c r="I162">
-        <v>4.246684720622637</v>
+        <v>6.403223531608336</v>
       </c>
       <c r="J162" t="s">
         <v>83</v>
       </c>
       <c r="K162">
-        <v>-2.233135578402801</v>
+        <v>-0.7139580086348296</v>
       </c>
       <c r="L162">
-        <v>-4.627350527090757</v>
+        <v>-3.316802031014165</v>
       </c>
       <c r="M162">
-        <v>-0.7513157300322204</v>
+        <v>1.301830038018381</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7351,25 +7351,25 @@
         <v>83</v>
       </c>
       <c r="G163">
-        <v>3.254519472583988</v>
+        <v>3.916969298733967</v>
       </c>
       <c r="H163">
-        <v>1.35565586720036</v>
+        <v>1.574530761605461</v>
       </c>
       <c r="I163">
-        <v>4.994588422960321</v>
+        <v>5.840473637598392</v>
       </c>
       <c r="J163" t="s">
         <v>83</v>
       </c>
       <c r="K163">
-        <v>-1.41983047438653</v>
+        <v>-0.7873698663894313</v>
       </c>
       <c r="L163">
-        <v>-3.232732196082477</v>
+        <v>-3.02376580598579</v>
       </c>
       <c r="M163">
-        <v>0.2414652537864326</v>
+        <v>1.049057098522788</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7392,25 +7392,25 @@
         <v>84</v>
       </c>
       <c r="G164">
-        <v>5.143378495013511</v>
+        <v>4.225864667013055</v>
       </c>
       <c r="H164">
-        <v>2.947310619037001</v>
+        <v>2.047542372781288</v>
       </c>
       <c r="I164">
-        <v>8.088707682244845</v>
+        <v>7.289807831142373</v>
       </c>
       <c r="J164" t="s">
         <v>84</v>
       </c>
       <c r="K164">
-        <v>0.02171966386304014</v>
+        <v>-0.851100975967678</v>
       </c>
       <c r="L164">
-        <v>-2.067375137900029</v>
+        <v>-2.923314604346816</v>
       </c>
       <c r="M164">
-        <v>2.823578368612734</v>
+        <v>2.063593878003434</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7433,25 +7433,25 @@
         <v>84</v>
       </c>
       <c r="G165">
-        <v>-9.434806766870045</v>
+        <v>-10.03591084980418</v>
       </c>
       <c r="H165">
-        <v>-14.86288269912865</v>
+        <v>-15.17324015128217</v>
       </c>
       <c r="I165">
-        <v>-6.119076667200783</v>
+        <v>-6.392789043296851</v>
       </c>
       <c r="J165" t="s">
         <v>84</v>
       </c>
       <c r="K165">
-        <v>-14.80679637951141</v>
+        <v>-15.37224520931397</v>
       </c>
       <c r="L165">
-        <v>-19.9128990847085</v>
+        <v>-20.20484728989135</v>
       </c>
       <c r="M165">
-        <v>-11.68774302747405</v>
+        <v>-11.94521980588907</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7474,25 +7474,25 @@
         <v>84</v>
       </c>
       <c r="G166">
-        <v>1.690300452869895</v>
+        <v>1.956153925126486</v>
       </c>
       <c r="H166">
-        <v>-0.7645300155779446</v>
+        <v>-0.4863806446153214</v>
       </c>
       <c r="I166">
-        <v>3.729573688377458</v>
+        <v>4.599132566620681</v>
       </c>
       <c r="J166" t="s">
         <v>84</v>
       </c>
       <c r="K166">
-        <v>-4.489312894480135</v>
+        <v>-4.239615060059975</v>
       </c>
       <c r="L166">
-        <v>-6.794965879325854</v>
+        <v>-6.533719355121514</v>
       </c>
       <c r="M166">
-        <v>-2.57396416356066</v>
+        <v>-1.757247470131207</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7515,25 +7515,25 @@
         <v>84</v>
       </c>
       <c r="G167">
-        <v>3.052837123547472</v>
+        <v>2.857620082412417</v>
       </c>
       <c r="H167">
-        <v>0.807365391963092</v>
+        <v>-0.2907070939716341</v>
       </c>
       <c r="I167">
-        <v>4.835760763309676</v>
+        <v>4.931953333500341</v>
       </c>
       <c r="J167" t="s">
         <v>84</v>
       </c>
       <c r="K167">
-        <v>-3.762557361701313</v>
+        <v>-3.944863733099224</v>
       </c>
       <c r="L167">
-        <v>-5.859524927040615</v>
+        <v>-6.884976441307467</v>
       </c>
       <c r="M167">
-        <v>-2.09754729211562</v>
+        <v>-2.007716412982652</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7556,25 +7556,25 @@
         <v>84</v>
       </c>
       <c r="G168">
-        <v>2.269335552806311</v>
+        <v>2.062829196117109</v>
       </c>
       <c r="H168">
-        <v>-2.154980316860217</v>
+        <v>-0.9884683548269246</v>
       </c>
       <c r="I168">
-        <v>5.388839565592162</v>
+        <v>4.50599251865113</v>
       </c>
       <c r="J168" t="s">
         <v>84</v>
       </c>
       <c r="K168">
-        <v>-4.024050416803138</v>
+        <v>-4.217848915356781</v>
       </c>
       <c r="L168">
-        <v>-8.176105522587985</v>
+        <v>-7.081377639091602</v>
       </c>
       <c r="M168">
-        <v>-1.096512477523948</v>
+        <v>-1.925031438841873</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7597,25 +7597,25 @@
         <v>84</v>
       </c>
       <c r="G169">
-        <v>2.989758488033674</v>
+        <v>1.197117059300514</v>
       </c>
       <c r="H169">
-        <v>-0.5683495312494503</v>
+        <v>-1.593365192458587</v>
       </c>
       <c r="I169">
-        <v>5.774114946633746</v>
+        <v>3.972872858013682</v>
       </c>
       <c r="J169" t="s">
         <v>84</v>
       </c>
       <c r="K169">
-        <v>-1.802506958406458</v>
+        <v>-3.51173413602478</v>
       </c>
       <c r="L169">
-        <v>-5.195050960783043</v>
+        <v>-6.172371130640553</v>
       </c>
       <c r="M169">
-        <v>0.8522892852459218</v>
+        <v>-0.8651383508626265</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7638,25 +7638,25 @@
         <v>85</v>
       </c>
       <c r="G170">
-        <v>-1.522059125524457</v>
+        <v>-0.325612248274365</v>
       </c>
       <c r="H170">
-        <v>-3.130249069866943</v>
+        <v>-1.993125741383521</v>
       </c>
       <c r="I170">
-        <v>0.295370834058331</v>
+        <v>1.551659344290355</v>
       </c>
       <c r="J170" t="s">
         <v>85</v>
       </c>
       <c r="K170">
-        <v>-2.505341434079145</v>
+        <v>-1.320840836747972</v>
       </c>
       <c r="L170">
-        <v>-4.097473927311002</v>
+        <v>-2.971704545118625</v>
       </c>
       <c r="M170">
-        <v>-0.7060581448108061</v>
+        <v>0.5376865789084029</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7679,25 +7679,25 @@
         <v>85</v>
       </c>
       <c r="G171">
-        <v>-13.55191261832606</v>
+        <v>-12.59045361645502</v>
       </c>
       <c r="H171">
-        <v>-15.71380591263582</v>
+        <v>-15.55411965193503</v>
       </c>
       <c r="I171">
-        <v>-9.892205508788651</v>
+        <v>-8.888257353571511</v>
       </c>
       <c r="J171" t="s">
         <v>85</v>
       </c>
       <c r="K171">
-        <v>-14.86986291340737</v>
+        <v>-13.92306190124557</v>
       </c>
       <c r="L171">
-        <v>-16.99879691397833</v>
+        <v>-16.84154516120924</v>
       </c>
       <c r="M171">
-        <v>-11.26595012172029</v>
+        <v>-10.27730772753834</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7720,25 +7720,25 @@
         <v>85</v>
       </c>
       <c r="G172">
-        <v>-12.18418749736373</v>
+        <v>-9.953357397131606</v>
       </c>
       <c r="H172">
-        <v>-14.16998678666335</v>
+        <v>-12.03840777073673</v>
       </c>
       <c r="I172">
-        <v>-8.236179209459465</v>
+        <v>-6.105507174413406</v>
       </c>
       <c r="J172" t="s">
         <v>85</v>
       </c>
       <c r="K172">
-        <v>-13.38615288212863</v>
+        <v>-11.18585692470467</v>
       </c>
       <c r="L172">
-        <v>-15.34477185003957</v>
+        <v>-13.24236849301789</v>
       </c>
       <c r="M172">
-        <v>-9.492182348537504</v>
+        <v>-7.390673558235495</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7761,25 +7761,25 @@
         <v>85</v>
       </c>
       <c r="G173">
-        <v>-5.333221827437153</v>
+        <v>-3.718609134551517</v>
       </c>
       <c r="H173">
-        <v>-6.699937210766077</v>
+        <v>-5.149924193247497</v>
       </c>
       <c r="I173">
-        <v>-2.979234021316429</v>
+        <v>-1.367992271239211</v>
       </c>
       <c r="J173" t="s">
         <v>85</v>
       </c>
       <c r="K173">
-        <v>-6.899751598248526</v>
+        <v>-5.311857242044049</v>
       </c>
       <c r="L173">
-        <v>-8.243850807481945</v>
+        <v>-6.719487142185566</v>
       </c>
       <c r="M173">
-        <v>-4.584717182637121</v>
+        <v>-3.000137987451856</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7802,25 +7802,25 @@
         <v>85</v>
       </c>
       <c r="G174">
-        <v>-5.268973502535283</v>
+        <v>-4.834437080275372</v>
       </c>
       <c r="H174">
-        <v>-6.700110148825502</v>
+        <v>-6.271251284394151</v>
       </c>
       <c r="I174">
-        <v>-2.425658766992901</v>
+        <v>-2.009671346845268</v>
       </c>
       <c r="J174" t="s">
         <v>85</v>
       </c>
       <c r="K174">
-        <v>-7.430819328173033</v>
+        <v>-7.006199411468739</v>
       </c>
       <c r="L174">
-        <v>-8.829296170182733</v>
+        <v>-8.410224244414866</v>
       </c>
       <c r="M174">
-        <v>-4.65239155014896</v>
+        <v>-4.245897330919912</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7843,25 +7843,25 @@
         <v>85</v>
       </c>
       <c r="G175">
-        <v>-3.952084257248142</v>
+        <v>-3.268384340395532</v>
       </c>
       <c r="H175">
-        <v>-5.186351410219831</v>
+        <v>-4.416897374498286</v>
       </c>
       <c r="I175">
-        <v>-1.853974514448346</v>
+        <v>-0.5098295950412134</v>
       </c>
       <c r="J175" t="s">
         <v>85</v>
       </c>
       <c r="K175">
-        <v>-6.519488136909224</v>
+        <v>-5.854063825575762</v>
       </c>
       <c r="L175">
-        <v>-7.720762775128531</v>
+        <v>-6.97187659099705</v>
       </c>
       <c r="M175">
-        <v>-4.477461808850514</v>
+        <v>-3.169246486189192</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7884,25 +7884,25 @@
         <v>86</v>
       </c>
       <c r="G176">
-        <v>3.615067801121137</v>
+        <v>3.228770018533723</v>
       </c>
       <c r="H176">
-        <v>2.911228522518517</v>
+        <v>2.405664180990483</v>
       </c>
       <c r="I176">
-        <v>4.50347473854345</v>
+        <v>4.124698880522208</v>
       </c>
       <c r="J176" t="s">
         <v>86</v>
       </c>
       <c r="K176">
-        <v>0.1055822320832567</v>
+        <v>-0.2676314834653248</v>
       </c>
       <c r="L176">
-        <v>-0.5744177165493136</v>
+        <v>-1.062858382935639</v>
       </c>
       <c r="M176">
-        <v>0.9638984559396491</v>
+        <v>0.5979518942344386</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7925,25 +7925,25 @@
         <v>86</v>
       </c>
       <c r="G177">
-        <v>-7.590160045323526</v>
+        <v>-6.475674903598982</v>
       </c>
       <c r="H177">
-        <v>-9.620353829775745</v>
+        <v>-8.021560423998711</v>
       </c>
       <c r="I177">
-        <v>-5.659756790664673</v>
+        <v>-4.236137015695198</v>
       </c>
       <c r="J177" t="s">
         <v>86</v>
       </c>
       <c r="K177">
-        <v>-10.56800038822346</v>
+        <v>-9.489428725174109</v>
       </c>
       <c r="L177">
-        <v>-12.53277264442488</v>
+        <v>-10.98549920130573</v>
       </c>
       <c r="M177">
-        <v>-8.69980298407369</v>
+        <v>-7.322058328041048</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7966,25 +7966,25 @@
         <v>86</v>
       </c>
       <c r="G178">
-        <v>-1.610340239014659</v>
+        <v>-1.607366926219434</v>
       </c>
       <c r="H178">
-        <v>-3.642761270308692</v>
+        <v>-3.219590989878283</v>
       </c>
       <c r="I178">
-        <v>-0.2631871507592239</v>
+        <v>-0.5522096606166348</v>
       </c>
       <c r="J178" t="s">
         <v>86</v>
       </c>
       <c r="K178">
-        <v>-5.011627551949294</v>
+        <v>-5.008757025271137</v>
       </c>
       <c r="L178">
-        <v>-6.973788681084137</v>
+        <v>-6.565247211339075</v>
       </c>
       <c r="M178">
-        <v>-3.711044954117282</v>
+        <v>-3.990076082783633</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8007,25 +8007,25 @@
         <v>86</v>
       </c>
       <c r="G179">
-        <v>-2.399295528230581</v>
+        <v>-1.83352742172129</v>
       </c>
       <c r="H179">
-        <v>-4.25705477040519</v>
+        <v>-3.464548934052921</v>
       </c>
       <c r="I179">
-        <v>-1.060754726151728</v>
+        <v>-0.7135437036613365</v>
       </c>
       <c r="J179" t="s">
         <v>86</v>
       </c>
       <c r="K179">
-        <v>-5.696812855900157</v>
+        <v>-5.150159674275423</v>
       </c>
       <c r="L179">
-        <v>-7.491806226405462</v>
+        <v>-6.726075829244893</v>
       </c>
       <c r="M179">
-        <v>-4.403495718061601</v>
+        <v>-4.068015495765909</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8048,25 +8048,25 @@
         <v>86</v>
       </c>
       <c r="G180">
-        <v>-2.913335614311446</v>
+        <v>-1.620946862913014</v>
       </c>
       <c r="H180">
-        <v>-4.756994651188898</v>
+        <v>-2.936894077874369</v>
       </c>
       <c r="I180">
-        <v>-1.00316937515769</v>
+        <v>0.0508078599231168</v>
       </c>
       <c r="J180" t="s">
         <v>86</v>
       </c>
       <c r="K180">
-        <v>-6.092857805397223</v>
+        <v>-4.842793906135611</v>
       </c>
       <c r="L180">
-        <v>-7.876138263428256</v>
+        <v>-6.115644745310012</v>
       </c>
       <c r="M180">
-        <v>-4.245248210706243</v>
+        <v>-3.225788012842079</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8089,25 +8089,25 @@
         <v>86</v>
       </c>
       <c r="G181">
-        <v>-1.357104989454733</v>
+        <v>-1.078449631734285</v>
       </c>
       <c r="H181">
-        <v>-2.805201367699437</v>
+        <v>-2.198162968473846</v>
       </c>
       <c r="I181">
-        <v>0.4075908890751749</v>
+        <v>0.5193024224968775</v>
       </c>
       <c r="J181" t="s">
         <v>86</v>
       </c>
       <c r="K181">
-        <v>-4.566837828106918</v>
+        <v>-4.297249613562315</v>
       </c>
       <c r="L181">
-        <v>-5.967814720469855</v>
+        <v>-5.380528692503328</v>
       </c>
       <c r="M181">
-        <v>-2.85956323988833</v>
+        <v>-2.751486678628012</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8130,25 +8130,25 @@
         <v>87</v>
       </c>
       <c r="G182">
-        <v>6.618152547695602</v>
+        <v>4.481853575344777</v>
       </c>
       <c r="H182">
-        <v>5.283345785782799</v>
+        <v>3.187044794758836</v>
       </c>
       <c r="I182">
-        <v>8.226410993051029</v>
+        <v>6.156590457386269</v>
       </c>
       <c r="J182" t="s">
         <v>87</v>
       </c>
       <c r="K182">
-        <v>1.202822552315252</v>
+        <v>-0.824969907517481</v>
       </c>
       <c r="L182">
-        <v>-0.0641869450314636</v>
+        <v>-2.054012993798671</v>
       </c>
       <c r="M182">
-        <v>2.729394624465509</v>
+        <v>0.7647040405397432</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8171,25 +8171,25 @@
         <v>87</v>
       </c>
       <c r="G183">
-        <v>-6.607379972556906</v>
+        <v>-6.364468523347639</v>
       </c>
       <c r="H183">
-        <v>-9.757239785396587</v>
+        <v>-9.257472301163761</v>
       </c>
       <c r="I183">
-        <v>-1.529870413890994</v>
+        <v>-1.233556659378874</v>
       </c>
       <c r="J183" t="s">
         <v>87</v>
       </c>
       <c r="K183">
-        <v>-11.06234020415547</v>
+        <v>-10.8310159750682</v>
       </c>
       <c r="L183">
-        <v>-14.06194724330504</v>
+        <v>-13.5860193758069</v>
       </c>
       <c r="M183">
-        <v>-6.227035041862338</v>
+        <v>-5.944855873059874</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8212,25 +8212,25 @@
         <v>87</v>
       </c>
       <c r="G184">
-        <v>2.035079230991172</v>
+        <v>1.527612814836883</v>
       </c>
       <c r="H184">
-        <v>-0.006720880013165662</v>
+        <v>-0.8655111901605439</v>
       </c>
       <c r="I184">
-        <v>5.715994118140273</v>
+        <v>4.055353703607879</v>
       </c>
       <c r="J184" t="s">
         <v>87</v>
       </c>
       <c r="K184">
-        <v>-3.153295761410768</v>
+        <v>-3.634958051347859</v>
       </c>
       <c r="L184">
-        <v>-5.09127251367163</v>
+        <v>-5.906394252162405</v>
       </c>
       <c r="M184">
-        <v>0.3404485281989222</v>
+        <v>-1.235750091775478</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8253,25 +8253,25 @@
         <v>87</v>
       </c>
       <c r="G185">
-        <v>3.004309896695073</v>
+        <v>2.695019020677096</v>
       </c>
       <c r="H185">
-        <v>0.8380929047591017</v>
+        <v>0.6292604137851688</v>
       </c>
       <c r="I185">
-        <v>5.508050928384042</v>
+        <v>4.999076028461098</v>
       </c>
       <c r="J185" t="s">
         <v>87</v>
       </c>
       <c r="K185">
-        <v>-2.148369624511715</v>
+        <v>-2.442188558000746</v>
       </c>
       <c r="L185">
-        <v>-4.206223947506627</v>
+        <v>-4.404609818327632</v>
       </c>
       <c r="M185">
-        <v>0.2301244621384813</v>
+        <v>-0.2533895173018941</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8294,25 +8294,25 @@
         <v>87</v>
       </c>
       <c r="G186">
-        <v>2.893750652937526</v>
+        <v>3.40599959416491</v>
       </c>
       <c r="H186">
-        <v>1.533487196151651</v>
+        <v>1.73576490084929</v>
       </c>
       <c r="I186">
-        <v>5.396547974233935</v>
+        <v>6.053697451841904</v>
       </c>
       <c r="J186" t="s">
         <v>87</v>
       </c>
       <c r="K186">
-        <v>-1.914077508116385</v>
+        <v>-1.425763984438433</v>
       </c>
       <c r="L186">
-        <v>-3.210781099385773</v>
+        <v>-3.017955051750187</v>
       </c>
       <c r="M186">
-        <v>0.4717737463258098</v>
+        <v>1.098217163124282</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8335,25 +8335,25 @@
         <v>87</v>
       </c>
       <c r="G187">
-        <v>2.635127721774462</v>
+        <v>3.582466835545809</v>
       </c>
       <c r="H187">
-        <v>1.2247905698156</v>
+        <v>1.58526793377167</v>
       </c>
       <c r="I187">
-        <v>5.038856678733099</v>
+        <v>6.05987274461099</v>
       </c>
       <c r="J187" t="s">
         <v>87</v>
       </c>
       <c r="K187">
-        <v>-2.035999138856537</v>
+        <v>-1.131775294473836</v>
       </c>
       <c r="L187">
-        <v>-3.382149068571971</v>
+        <v>-3.038077739613865</v>
       </c>
       <c r="M187">
-        <v>0.2583313777653418</v>
+        <v>1.232878991015718</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8376,25 +8376,25 @@
         <v>88</v>
       </c>
       <c r="G188">
-        <v>2.963187572687028</v>
+        <v>3.335504169113753</v>
       </c>
       <c r="H188">
-        <v>1.788598912123107</v>
+        <v>2.039233118650734</v>
       </c>
       <c r="I188">
-        <v>4.221772847421</v>
+        <v>4.675412294982267</v>
       </c>
       <c r="J188" t="s">
         <v>88</v>
       </c>
       <c r="K188">
-        <v>-0.1243416482342719</v>
+        <v>0.2368103912473662</v>
       </c>
       <c r="L188">
-        <v>-1.263708236739736</v>
+        <v>-1.020589730285693</v>
       </c>
       <c r="M188">
-        <v>1.096502770720353</v>
+        <v>1.536539055023689</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8417,25 +8417,25 @@
         <v>88</v>
       </c>
       <c r="G189">
-        <v>-3.903102461235651</v>
+        <v>-4.121299854037758</v>
       </c>
       <c r="H189">
-        <v>-5.551800674985058</v>
+        <v>-6.380411291199943</v>
       </c>
       <c r="I189">
-        <v>-1.889455930409178</v>
+        <v>-2.446457895172402</v>
       </c>
       <c r="J189" t="s">
         <v>88</v>
       </c>
       <c r="K189">
-        <v>-7.103339212650573</v>
+        <v>-7.31427015530296</v>
       </c>
       <c r="L189">
-        <v>-8.697132171904077</v>
+        <v>-9.498148243294501</v>
       </c>
       <c r="M189">
-        <v>-5.156751513038815</v>
+        <v>-5.695204094794892</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8458,25 +8458,25 @@
         <v>88</v>
       </c>
       <c r="G190">
-        <v>-0.6191961515327444</v>
+        <v>0.3416014272903372</v>
       </c>
       <c r="H190">
-        <v>-2.048724613987789</v>
+        <v>-1.558594827569091</v>
       </c>
       <c r="I190">
-        <v>0.9566167124663993</v>
+        <v>1.715567696764503</v>
       </c>
       <c r="J190" t="s">
         <v>88</v>
       </c>
       <c r="K190">
-        <v>-4.030532659638119</v>
+        <v>-3.102715331835515</v>
       </c>
       <c r="L190">
-        <v>-5.41099125704373</v>
+        <v>-4.937685621460741</v>
       </c>
       <c r="M190">
-        <v>-2.508811005860001</v>
+        <v>-1.775911704586586</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8499,25 +8499,25 @@
         <v>88</v>
       </c>
       <c r="G191">
-        <v>0.2025599729152434</v>
+        <v>0.9354335479860746</v>
       </c>
       <c r="H191">
-        <v>-1.049631859893079</v>
+        <v>-0.1389910847554683</v>
       </c>
       <c r="I191">
-        <v>1.24880385599356</v>
+        <v>1.949740970835578</v>
       </c>
       <c r="J191" t="s">
         <v>88</v>
       </c>
       <c r="K191">
-        <v>-3.470534269302372</v>
+        <v>-2.76452541415082</v>
       </c>
       <c r="L191">
-        <v>-4.676824893474074</v>
+        <v>-3.799565195514443</v>
       </c>
       <c r="M191">
-        <v>-2.462642224579581</v>
+        <v>-1.787399144714097</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8540,25 +8540,25 @@
         <v>88</v>
       </c>
       <c r="G192">
-        <v>-0.02597515179667142</v>
+        <v>0.7543151479207387</v>
       </c>
       <c r="H192">
-        <v>-1.597923300073549</v>
+        <v>-0.3448127109038458</v>
       </c>
       <c r="I192">
-        <v>1.096246353093414</v>
+        <v>2.10059647132042</v>
       </c>
       <c r="J192" t="s">
         <v>88</v>
       </c>
       <c r="K192">
-        <v>-4.237019737776626</v>
+        <v>-3.489596347710044</v>
       </c>
       <c r="L192">
-        <v>-5.742755249828302</v>
+        <v>-4.542427416681161</v>
       </c>
       <c r="M192">
-        <v>-3.162067759142095</v>
+        <v>-2.20002226088224</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8581,25 +8581,25 @@
         <v>88</v>
       </c>
       <c r="G193">
-        <v>-0.3528704637740004</v>
+        <v>0.3719534299594887</v>
       </c>
       <c r="H193">
-        <v>-1.899584671204132</v>
+        <v>-1.160435873086675</v>
       </c>
       <c r="I193">
-        <v>1.35251150968579</v>
+        <v>1.340643742154332</v>
       </c>
       <c r="J193" t="s">
         <v>88</v>
       </c>
       <c r="K193">
-        <v>-4.830440701009541</v>
+        <v>-4.138186234101737</v>
       </c>
       <c r="L193">
-        <v>-6.30765444683149</v>
+        <v>-5.601718754548013</v>
       </c>
       <c r="M193">
-        <v>-3.201688808145364</v>
+        <v>-3.213023306299889</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8622,25 +8622,25 @@
         <v>89</v>
       </c>
       <c r="G194">
-        <v>7.817141912017652</v>
+        <v>8.473952042277867</v>
       </c>
       <c r="H194">
-        <v>6.403979522662389</v>
+        <v>7.090728389766762</v>
       </c>
       <c r="I194">
-        <v>8.868639590189481</v>
+        <v>9.891655849983541</v>
       </c>
       <c r="J194" t="s">
         <v>89</v>
       </c>
       <c r="K194">
-        <v>-0.9374954609872366</v>
+        <v>-0.3340176154766561</v>
       </c>
       <c r="L194">
-        <v>-2.235910565740307</v>
+        <v>-1.604924977008926</v>
       </c>
       <c r="M194">
-        <v>0.02862172288005116</v>
+        <v>0.9685701492817778</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8663,25 +8663,25 @@
         <v>89</v>
       </c>
       <c r="G195">
-        <v>-5.142980418149299</v>
+        <v>-4.943719426463263</v>
       </c>
       <c r="H195">
-        <v>-8.541785154404687</v>
+        <v>-6.669625042452143</v>
       </c>
       <c r="I195">
-        <v>-2.953420434759229</v>
+        <v>-3.111890833097529</v>
       </c>
       <c r="J195" t="s">
         <v>89</v>
       </c>
       <c r="K195">
-        <v>-12.52745072199808</v>
+        <v>-12.34370188621055</v>
       </c>
       <c r="L195">
-        <v>-15.66166383652534</v>
+        <v>-13.93524845502824</v>
       </c>
       <c r="M195">
-        <v>-10.50834455159005</v>
+        <v>-10.65447827779037</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8704,25 +8704,25 @@
         <v>89</v>
       </c>
       <c r="G196">
-        <v>4.477116897536448</v>
+        <v>3.75005057165178</v>
       </c>
       <c r="H196">
-        <v>2.708263231472384</v>
+        <v>2.301970778210388</v>
       </c>
       <c r="I196">
-        <v>7.342946038550668</v>
+        <v>6.602047878965757</v>
       </c>
       <c r="J196" t="s">
         <v>89</v>
       </c>
       <c r="K196">
-        <v>-3.139880366217074</v>
+        <v>-3.81393927402508</v>
       </c>
       <c r="L196">
-        <v>-4.779774180262986</v>
+        <v>-5.156445520340769</v>
       </c>
       <c r="M196">
-        <v>-0.4829870512833123</v>
+        <v>-1.169869370635812</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8745,25 +8745,25 @@
         <v>89</v>
       </c>
       <c r="G197">
-        <v>1.61763772464326</v>
+        <v>2.086235814758012</v>
       </c>
       <c r="H197">
-        <v>0.5572039288701914</v>
+        <v>1.064725318593698</v>
       </c>
       <c r="I197">
-        <v>3.766721022887294</v>
+        <v>4.492316247642405</v>
       </c>
       <c r="J197" t="s">
         <v>89</v>
       </c>
       <c r="K197">
-        <v>-6.151836748847883</v>
+        <v>-5.719066699819231</v>
       </c>
       <c r="L197">
-        <v>-7.131191969173123</v>
+        <v>-6.662474615545133</v>
       </c>
       <c r="M197">
-        <v>-4.167067916094158</v>
+        <v>-3.496950201966642</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8786,25 +8786,25 @@
         <v>89</v>
       </c>
       <c r="G198">
-        <v>1.738695272959928</v>
+        <v>1.877915157336117</v>
       </c>
       <c r="H198">
-        <v>0.5522771634455191</v>
+        <v>0.6830803392512717</v>
       </c>
       <c r="I198">
-        <v>3.93253576012294</v>
+        <v>4.676806579656387</v>
       </c>
       <c r="J198" t="s">
         <v>89</v>
       </c>
       <c r="K198">
-        <v>-5.382376865440275</v>
+        <v>-5.252901501937723</v>
       </c>
       <c r="L198">
-        <v>-6.485753130143424</v>
+        <v>-6.364105358270733</v>
       </c>
       <c r="M198">
-        <v>-3.342091486560472</v>
+        <v>-2.649914967845246</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8827,25 +8827,25 @@
         <v>89</v>
       </c>
       <c r="G199">
-        <v>1.43891949784012</v>
+        <v>1.793475453226428</v>
       </c>
       <c r="H199">
-        <v>-0.2315087172775399</v>
+        <v>0.4231066277318574</v>
       </c>
       <c r="I199">
-        <v>2.84583290010863</v>
+        <v>3.822581006351908</v>
       </c>
       <c r="J199" t="s">
         <v>89</v>
       </c>
       <c r="K199">
-        <v>-5.523185779491557</v>
+        <v>-5.192964230468434</v>
       </c>
       <c r="L199">
-        <v>-7.078966705881717</v>
+        <v>-6.469279885058821</v>
       </c>
       <c r="M199">
-        <v>-4.21283372932707</v>
+        <v>-3.303123237233885</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8868,25 +8868,25 @@
         <v>90</v>
       </c>
       <c r="G200">
-        <v>3.99969588870476</v>
+        <v>3.931312108696466</v>
       </c>
       <c r="H200">
-        <v>2.55110818297941</v>
+        <v>2.433880777826288</v>
       </c>
       <c r="I200">
-        <v>5.123673025271716</v>
+        <v>5.165585365780447</v>
       </c>
       <c r="J200" t="s">
         <v>90</v>
       </c>
       <c r="K200">
-        <v>0.1004845541979771</v>
+        <v>0.03466465486090531</v>
       </c>
       <c r="L200">
-        <v>-1.293791938855804</v>
+        <v>-1.406624192436778</v>
       </c>
       <c r="M200">
-        <v>1.182320948398541</v>
+        <v>1.222661889377963</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8909,25 +8909,25 @@
         <v>90</v>
       </c>
       <c r="G201">
-        <v>-16.20851165246218</v>
+        <v>-15.10142293614675</v>
       </c>
       <c r="H201">
-        <v>-19.31290264955113</v>
+        <v>-17.99849707957566</v>
       </c>
       <c r="I201">
-        <v>-13.15437774038763</v>
+        <v>-12.77085355150194</v>
       </c>
       <c r="J201" t="s">
         <v>90</v>
       </c>
       <c r="K201">
-        <v>-19.11941654637413</v>
+        <v>-18.05078794129281</v>
       </c>
       <c r="L201">
-        <v>-22.1159614230008</v>
+        <v>-20.84721812352179</v>
       </c>
       <c r="M201">
-        <v>-16.1713828304728</v>
+        <v>-15.80118221967813</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -8950,25 +8950,25 @@
         <v>90</v>
       </c>
       <c r="G202">
-        <v>-6.108932032824834</v>
+        <v>-4.534839913829622</v>
       </c>
       <c r="H202">
-        <v>-7.70040212084227</v>
+        <v>-7.397482265739926</v>
       </c>
       <c r="I202">
-        <v>-4.407942499598471</v>
+        <v>-2.927478199580047</v>
       </c>
       <c r="J202" t="s">
         <v>90</v>
       </c>
       <c r="K202">
-        <v>-9.474123024994519</v>
+        <v>-7.956448632779667</v>
       </c>
       <c r="L202">
-        <v>-11.00855253481365</v>
+        <v>-10.71648976324236</v>
       </c>
       <c r="M202">
-        <v>-7.83409940448937</v>
+        <v>-6.406697075481782</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8991,25 +8991,25 @@
         <v>90</v>
       </c>
       <c r="G203">
-        <v>-4.237240660689474</v>
+        <v>-3.009923508494623</v>
       </c>
       <c r="H203">
-        <v>-6.426652939688469</v>
+        <v>-5.600022846000346</v>
       </c>
       <c r="I203">
-        <v>-2.067612477154137</v>
+        <v>-1.127325976288833</v>
       </c>
       <c r="J203" t="s">
         <v>90</v>
       </c>
       <c r="K203">
-        <v>-7.724373960476738</v>
+        <v>-6.541748696238603</v>
       </c>
       <c r="L203">
-        <v>-9.834060336444795</v>
+        <v>-9.037531394250141</v>
       </c>
       <c r="M203">
-        <v>-5.633751256098019</v>
+        <v>-4.727704624584117</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9032,25 +9032,25 @@
         <v>90</v>
       </c>
       <c r="G204">
-        <v>-5.8177675238683</v>
+        <v>-5.26481200046202</v>
       </c>
       <c r="H204">
-        <v>-7.589887957203657</v>
+        <v>-7.082166366146124</v>
       </c>
       <c r="I204">
-        <v>-3.520813832521817</v>
+        <v>-2.992295519331365</v>
       </c>
       <c r="J204" t="s">
         <v>90</v>
       </c>
       <c r="K204">
-        <v>-9.100051706084356</v>
+        <v>-8.566366878649367</v>
       </c>
       <c r="L204">
-        <v>-10.81041311423635</v>
+        <v>-10.32038580057578</v>
       </c>
       <c r="M204">
-        <v>-6.883147664976308</v>
+        <v>-6.373048402320003</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9073,25 +9073,25 @@
         <v>90</v>
       </c>
       <c r="G205">
-        <v>-6.905005158239458</v>
+        <v>-6.747950574753109</v>
       </c>
       <c r="H205">
-        <v>-9.151219952281902</v>
+        <v>-8.832840649136841</v>
       </c>
       <c r="I205">
-        <v>-4.671226190318635</v>
+        <v>-4.952849307997321</v>
       </c>
       <c r="J205" t="s">
         <v>90</v>
       </c>
       <c r="K205">
-        <v>-10.00631973481597</v>
+        <v>-9.854497179860388</v>
       </c>
       <c r="L205">
-        <v>-12.17770538584458</v>
+        <v>-11.86993239268861</v>
       </c>
       <c r="M205">
-        <v>-7.846955629754726</v>
+        <v>-8.119196912443872</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9114,25 +9114,25 @@
         <v>91</v>
       </c>
       <c r="G206">
-        <v>9.467158659360738</v>
+        <v>9.173074124907941</v>
       </c>
       <c r="H206">
-        <v>7.326189919834007</v>
+        <v>7.190067196257559</v>
       </c>
       <c r="I206">
-        <v>11.23966018827537</v>
+        <v>11.13819804210694</v>
       </c>
       <c r="J206" t="s">
         <v>91</v>
       </c>
       <c r="K206">
-        <v>1.440238611834177</v>
+        <v>1.167718472348556</v>
       </c>
       <c r="L206">
-        <v>-0.543738888430445</v>
+        <v>-0.6698801140655797</v>
       </c>
       <c r="M206">
-        <v>3.082767569696809</v>
+        <v>2.988745358437783</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9155,25 +9155,25 @@
         <v>91</v>
       </c>
       <c r="G207">
-        <v>-7.061871018976797</v>
+        <v>-5.996351267034919</v>
       </c>
       <c r="H207">
-        <v>-10.91854243423562</v>
+        <v>-10.48336335393619</v>
       </c>
       <c r="I207">
-        <v>-4.089146361613134</v>
+        <v>-2.829387944711464</v>
       </c>
       <c r="J207" t="s">
         <v>91</v>
       </c>
       <c r="K207">
-        <v>-13.43100246511902</v>
+        <v>-12.43850371578378</v>
       </c>
       <c r="L207">
-        <v>-17.02337280763537</v>
+        <v>-16.61801693117518</v>
       </c>
       <c r="M207">
-        <v>-10.66200123433525</v>
+        <v>-9.488575166014302</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9196,25 +9196,25 @@
         <v>91</v>
       </c>
       <c r="G208">
-        <v>-1.79140664163348</v>
+        <v>-0.641458826495525</v>
       </c>
       <c r="H208">
-        <v>-4.069832763605429</v>
+        <v>-2.970723655761673</v>
       </c>
       <c r="I208">
-        <v>1.492053762325235</v>
+        <v>3.409659813783586</v>
       </c>
       <c r="J208" t="s">
         <v>91</v>
       </c>
       <c r="K208">
-        <v>-8.160102519287848</v>
+        <v>-7.084727281348535</v>
       </c>
       <c r="L208">
-        <v>-10.29077575575015</v>
+        <v>-9.262942402958441</v>
       </c>
       <c r="M208">
-        <v>-5.089570129304722</v>
+        <v>-3.296318264555109</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9237,25 +9237,25 @@
         <v>91</v>
       </c>
       <c r="G209">
-        <v>2.173863190306052</v>
+        <v>3.276885648443964</v>
       </c>
       <c r="H209">
-        <v>-1.025933069360133</v>
+        <v>0.4636612396734046</v>
       </c>
       <c r="I209">
-        <v>4.752736588610398</v>
+        <v>6.322149390060307</v>
       </c>
       <c r="J209" t="s">
         <v>91</v>
       </c>
       <c r="K209">
-        <v>-4.330699891086997</v>
+        <v>-3.297897731322141</v>
       </c>
       <c r="L209">
-        <v>-7.326791641902053</v>
+        <v>-5.932027457190491</v>
       </c>
       <c r="M209">
-        <v>-1.91600198908306</v>
+        <v>-0.4465006938542904</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9278,25 +9278,25 @@
         <v>91</v>
       </c>
       <c r="G210">
-        <v>1.993966349084609</v>
+        <v>3.066472042588081</v>
       </c>
       <c r="H210">
-        <v>-1.359436144006937</v>
+        <v>0.3556072904683961</v>
       </c>
       <c r="I210">
-        <v>4.258582949310433</v>
+        <v>5.226918287569868</v>
       </c>
       <c r="J210" t="s">
         <v>91</v>
       </c>
       <c r="K210">
-        <v>-4.344019342569439</v>
+        <v>-3.338160000639145</v>
       </c>
       <c r="L210">
-        <v>-7.489038753990962</v>
+        <v>-5.880569474216779</v>
       </c>
       <c r="M210">
-        <v>-2.220127807983185</v>
+        <v>-1.311965593078968</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9319,25 +9319,25 @@
         <v>91</v>
       </c>
       <c r="G211">
-        <v>1.783255720062018</v>
+        <v>2.714543422850839</v>
       </c>
       <c r="H211">
-        <v>-0.7748954365900589</v>
+        <v>-0.2592640579109046</v>
       </c>
       <c r="I211">
-        <v>3.647301897459982</v>
+        <v>4.620984297956083</v>
       </c>
       <c r="J211" t="s">
         <v>91</v>
       </c>
       <c r="K211">
-        <v>-4.702764227659683</v>
+        <v>-3.830821753853986</v>
       </c>
       <c r="L211">
-        <v>-7.097900168164939</v>
+        <v>-6.615126801190407</v>
       </c>
       <c r="M211">
-        <v>-2.957502231456799</v>
+        <v>-2.045866612896363</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9360,25 +9360,25 @@
         <v>92</v>
       </c>
       <c r="G212">
-        <v>3.914626234845224</v>
+        <v>4.174359551852467</v>
       </c>
       <c r="H212">
-        <v>2.701710488009492</v>
+        <v>2.768950304777282</v>
       </c>
       <c r="I212">
-        <v>5.255431690415062</v>
+        <v>6.213080228480739</v>
       </c>
       <c r="J212" t="s">
         <v>92</v>
       </c>
       <c r="K212">
-        <v>1.251575885677503</v>
+        <v>1.504652941428652</v>
       </c>
       <c r="L212">
-        <v>0.06974388345171167</v>
+        <v>0.1352605258790884</v>
       </c>
       <c r="M212">
-        <v>2.558020129876071</v>
+        <v>3.491126730333161</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9401,25 +9401,25 @@
         <v>92</v>
       </c>
       <c r="G213">
-        <v>-4.70662372107014</v>
+        <v>-4.243450018169908</v>
       </c>
       <c r="H213">
-        <v>-12.94265375524355</v>
+        <v>-10.94272354080844</v>
       </c>
       <c r="I213">
-        <v>-0.568736988922912</v>
+        <v>-0.6111913445935701</v>
       </c>
       <c r="J213" t="s">
         <v>92</v>
       </c>
       <c r="K213">
-        <v>-7.159415827136806</v>
+        <v>-6.708163926638521</v>
       </c>
       <c r="L213">
-        <v>-15.18345558200668</v>
+        <v>-13.23500232467184</v>
       </c>
       <c r="M213">
-        <v>-3.128035720200351</v>
+        <v>-3.16939732721917</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9442,25 +9442,25 @@
         <v>92</v>
       </c>
       <c r="G214">
-        <v>-1.868055810223788</v>
+        <v>-2.017675593647805</v>
       </c>
       <c r="H214">
-        <v>-7.512978783878636</v>
+        <v>-6.57384457336418</v>
       </c>
       <c r="I214">
-        <v>0.5904602557605378</v>
+        <v>0.2365566020246215</v>
       </c>
       <c r="J214" t="s">
         <v>92</v>
       </c>
       <c r="K214">
-        <v>-4.378313588400684</v>
+        <v>-4.524106032743525</v>
       </c>
       <c r="L214">
-        <v>-9.878836979240546</v>
+        <v>-8.963726229956393</v>
       </c>
       <c r="M214">
-        <v>-1.982687431796692</v>
+        <v>-2.327538076271951</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9483,25 +9483,25 @@
         <v>92</v>
       </c>
       <c r="G215">
-        <v>-2.632323032380731</v>
+        <v>-2.52544924731051</v>
       </c>
       <c r="H215">
-        <v>-6.417755706939596</v>
+        <v>-6.242663001098624</v>
       </c>
       <c r="I215">
-        <v>-0.5168031467589912</v>
+        <v>-0.5696868910758371</v>
       </c>
       <c r="J215" t="s">
         <v>92</v>
       </c>
       <c r="K215">
-        <v>-5.273298024732487</v>
+        <v>-5.16932305580432</v>
       </c>
       <c r="L215">
-        <v>-8.956055629493132</v>
+        <v>-8.785712091670439</v>
       </c>
       <c r="M215">
-        <v>-3.215158938239882</v>
+        <v>-3.26660827793096</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9524,25 +9524,25 @@
         <v>92</v>
       </c>
       <c r="G216">
-        <v>-0.09072480756685897</v>
+        <v>-1.022273970315643</v>
       </c>
       <c r="H216">
-        <v>-2.341632736643154</v>
+        <v>-3.876047180986721</v>
       </c>
       <c r="I216">
-        <v>2.98016061053915</v>
+        <v>1.629330597139877</v>
       </c>
       <c r="J216" t="s">
         <v>92</v>
       </c>
       <c r="K216">
-        <v>-2.987212323246624</v>
+        <v>-3.891754779011036</v>
       </c>
       <c r="L216">
-        <v>-5.172863781360071</v>
+        <v>-6.662793744424411</v>
       </c>
       <c r="M216">
-        <v>-0.005355488908198591</v>
+        <v>-1.31702334982382</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9565,25 +9565,25 @@
         <v>92</v>
       </c>
       <c r="G217">
-        <v>-0.3333858169271794</v>
+        <v>-0.7452287059367215</v>
       </c>
       <c r="H217">
-        <v>-2.614558120366099</v>
+        <v>-3.13863918817801</v>
       </c>
       <c r="I217">
-        <v>2.279027807888324</v>
+        <v>1.440674662816967</v>
       </c>
       <c r="J217" t="s">
         <v>92</v>
       </c>
       <c r="K217">
-        <v>-3.399534043707364</v>
+        <v>-3.798706979451216</v>
       </c>
       <c r="L217">
-        <v>-5.610528259222858</v>
+        <v>-6.11848647335973</v>
       </c>
       <c r="M217">
-        <v>-0.8674888298085826</v>
+        <v>-1.680050840805158</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9606,25 +9606,25 @@
         <v>93</v>
       </c>
       <c r="G218">
-        <v>5.403915712347609</v>
+        <v>5.496491294207466</v>
       </c>
       <c r="H218">
-        <v>4.052366731225179</v>
+        <v>4.056834657769562</v>
       </c>
       <c r="I218">
-        <v>7.11513976894623</v>
+        <v>7.292300371516732</v>
       </c>
       <c r="J218" t="s">
         <v>93</v>
       </c>
       <c r="K218">
-        <v>0.06484133893356336</v>
+        <v>0.1527276460793647</v>
       </c>
       <c r="L218">
-        <v>-1.218246992688743</v>
+        <v>-1.214005382139871</v>
       </c>
       <c r="M218">
-        <v>1.689385954393674</v>
+        <v>1.857572757207593</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9647,25 +9647,25 @@
         <v>93</v>
       </c>
       <c r="G219">
-        <v>-7.466721358065727</v>
+        <v>-7.492271497031634</v>
       </c>
       <c r="H219">
-        <v>-10.41832814901717</v>
+        <v>-10.25837391332602</v>
       </c>
       <c r="I219">
-        <v>-4.10059296143203</v>
+        <v>-4.188691135351153</v>
       </c>
       <c r="J219" t="s">
         <v>93</v>
       </c>
       <c r="K219">
-        <v>-11.62314995792219</v>
+        <v>-11.64755243055779</v>
       </c>
       <c r="L219">
-        <v>-14.44217587568406</v>
+        <v>-14.28940649683201</v>
       </c>
       <c r="M219">
-        <v>-8.408222000134879</v>
+        <v>-8.49236296238869</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9688,25 +9688,25 @@
         <v>93</v>
       </c>
       <c r="G220">
-        <v>-2.241342130279619</v>
+        <v>-0.7552409791274186</v>
       </c>
       <c r="H220">
-        <v>-3.973934977900528</v>
+        <v>-3.18333326616742</v>
       </c>
       <c r="I220">
-        <v>1.02555884661066</v>
+        <v>1.781095352998836</v>
       </c>
       <c r="J220" t="s">
         <v>93</v>
       </c>
       <c r="K220">
-        <v>-6.50011543657012</v>
+        <v>-5.078755026042748</v>
       </c>
       <c r="L220">
-        <v>-8.157229341139761</v>
+        <v>-7.401069524776405</v>
       </c>
       <c r="M220">
-        <v>-3.375534239613975</v>
+        <v>-2.652912042561162</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9729,25 +9729,25 @@
         <v>93</v>
       </c>
       <c r="G221">
-        <v>-1.848884890172036</v>
+        <v>-0.9007341757007377</v>
       </c>
       <c r="H221">
-        <v>-3.680882196450998</v>
+        <v>-3.269669461047458</v>
       </c>
       <c r="I221">
-        <v>0.4106583519398634</v>
+        <v>1.078573412072116</v>
       </c>
       <c r="J221" t="s">
         <v>93</v>
       </c>
       <c r="K221">
-        <v>-6.124978706806228</v>
+        <v>-5.218135535329738</v>
       </c>
       <c r="L221">
-        <v>-7.877162428239981</v>
+        <v>-7.483864764236414</v>
       </c>
       <c r="M221">
-        <v>-3.963875700194452</v>
+        <v>-3.325059315665357</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9770,25 +9770,25 @@
         <v>93</v>
       </c>
       <c r="G222">
-        <v>-2.484977976752851</v>
+        <v>-2.753806826878841</v>
       </c>
       <c r="H222">
-        <v>-5.725260663438029</v>
+        <v>-6.074063133113205</v>
       </c>
       <c r="I222">
-        <v>0.2066344456376202</v>
+        <v>-0.6583060537439909</v>
       </c>
       <c r="J222" t="s">
         <v>93</v>
       </c>
       <c r="K222">
-        <v>-6.602817070781553</v>
+        <v>-6.860293885849932</v>
       </c>
       <c r="L222">
-        <v>-9.706269939392588</v>
+        <v>-10.04034326871666</v>
       </c>
       <c r="M222">
-        <v>-4.024865360647811</v>
+        <v>-4.853281376637386</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9811,25 +9811,25 @@
         <v>93</v>
       </c>
       <c r="G223">
-        <v>-3.329212257341607</v>
+        <v>-3.004478943521725</v>
       </c>
       <c r="H223">
-        <v>-5.975312280616956</v>
+        <v>-6.632500510855087</v>
       </c>
       <c r="I223">
-        <v>-0.7392758106898868</v>
+        <v>-0.9647998376520648</v>
       </c>
       <c r="J223" t="s">
         <v>93</v>
       </c>
       <c r="K223">
-        <v>-7.526566372032962</v>
+        <v>-7.215932671371994</v>
       </c>
       <c r="L223">
-        <v>-10.05777523656295</v>
+        <v>-10.68642897580615</v>
       </c>
       <c r="M223">
-        <v>-5.04908251478271</v>
+        <v>-5.264814501929804</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9852,25 +9852,25 @@
         <v>94</v>
       </c>
       <c r="G224">
-        <v>5.727618497875164</v>
+        <v>4.943660480368958</v>
       </c>
       <c r="H224">
-        <v>3.315089368857225</v>
+        <v>3.218836051216749</v>
       </c>
       <c r="I224">
-        <v>8.31506531343328</v>
+        <v>6.995398564130323</v>
       </c>
       <c r="J224" t="s">
         <v>94</v>
       </c>
       <c r="K224">
-        <v>-1.2654172707115</v>
+        <v>-1.997522739797708</v>
       </c>
       <c r="L224">
-        <v>-3.518376906614262</v>
+        <v>-3.608263837659942</v>
       </c>
       <c r="M224">
-        <v>1.150890646727243</v>
+        <v>-0.08149070911276368</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9893,25 +9893,25 @@
         <v>94</v>
       </c>
       <c r="G225">
-        <v>-7.025322761641984</v>
+        <v>-6.348162907315138</v>
       </c>
       <c r="H225">
-        <v>-11.21863705843423</v>
+        <v>-10.33062535917321</v>
       </c>
       <c r="I225">
-        <v>-0.1799611334275252</v>
+        <v>-1.463808677622163</v>
       </c>
       <c r="J225" t="s">
         <v>94</v>
       </c>
       <c r="K225">
-        <v>-12.61454036969099</v>
+        <v>-11.97808830692296</v>
       </c>
       <c r="L225">
-        <v>-16.55577155310357</v>
+        <v>-15.72114310585362</v>
       </c>
       <c r="M225">
-        <v>-6.180690960527224</v>
+        <v>-7.387359389792891</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9934,25 +9934,25 @@
         <v>94</v>
       </c>
       <c r="G226">
-        <v>1.279546332738666</v>
+        <v>1.02960971524637</v>
       </c>
       <c r="H226">
-        <v>-1.444880386344028</v>
+        <v>-2.044323843009541</v>
       </c>
       <c r="I226">
-        <v>4.691522539345907</v>
+        <v>5.19090433804636</v>
       </c>
       <c r="J226" t="s">
         <v>94</v>
       </c>
       <c r="K226">
-        <v>-4.19530693532526</v>
+        <v>-4.431732766517316</v>
       </c>
       <c r="L226">
-        <v>-6.772459727275937</v>
+        <v>-7.339499158779628</v>
       </c>
       <c r="M226">
-        <v>-0.9677714155268746</v>
+        <v>-0.4953846239292736</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9975,25 +9975,25 @@
         <v>94</v>
       </c>
       <c r="G227">
-        <v>-2.878047471434852</v>
+        <v>-0.5882443125193351</v>
       </c>
       <c r="H227">
-        <v>-6.376240422251849</v>
+        <v>-3.795216637969634</v>
       </c>
       <c r="I227">
-        <v>-0.1393513846555772</v>
+        <v>2.782001908533978</v>
       </c>
       <c r="J227" t="s">
         <v>94</v>
       </c>
       <c r="K227">
-        <v>-7.958305881614214</v>
+        <v>-5.788277824546196</v>
       </c>
       <c r="L227">
-        <v>-11.27351523607496</v>
+        <v>-8.827499732058897</v>
       </c>
       <c r="M227">
-        <v>-5.362865603285593</v>
+        <v>-2.594322557938489</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10016,25 +10016,25 @@
         <v>94</v>
       </c>
       <c r="G228">
-        <v>-1.084483222702323</v>
+        <v>-2.326920821509065</v>
       </c>
       <c r="H228">
-        <v>-4.706298630220548</v>
+        <v>-6.009575480944325</v>
       </c>
       <c r="I228">
-        <v>1.552532013325888</v>
+        <v>1.331055573195143</v>
       </c>
       <c r="J228" t="s">
         <v>94</v>
       </c>
       <c r="K228">
-        <v>-6.691321462594891</v>
+        <v>-7.863333845352316</v>
       </c>
       <c r="L228">
-        <v>-10.10784114112829</v>
+        <v>-11.33724421833425</v>
       </c>
       <c r="M228">
-        <v>-4.203780427847259</v>
+        <v>-4.412702896526211</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10057,25 +10057,25 @@
         <v>94</v>
       </c>
       <c r="G229">
-        <v>-2.459990628009138</v>
+        <v>-0.9549777685904504</v>
       </c>
       <c r="H229">
-        <v>-6.019217629314682</v>
+        <v>-4.217022861636044</v>
       </c>
       <c r="I229">
-        <v>-0.01642061430304437</v>
+        <v>1.567340109328325</v>
       </c>
       <c r="J229" t="s">
         <v>94</v>
       </c>
       <c r="K229">
-        <v>-8.858641379375898</v>
+        <v>-7.452357766814366</v>
       </c>
       <c r="L229">
-        <v>-12.1843821356747</v>
+        <v>-10.50041182766716</v>
       </c>
       <c r="M229">
-        <v>-6.575370213341525</v>
+        <v>-5.09550461756072</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10098,25 +10098,25 @@
         <v>95</v>
       </c>
       <c r="G230">
-        <v>0.1203651579916729</v>
+        <v>0.8803045069227923</v>
       </c>
       <c r="H230">
-        <v>-1.755079402859871</v>
+        <v>-1.118063223322953</v>
       </c>
       <c r="I230">
-        <v>3.73440571126367</v>
+        <v>3.398786667059505</v>
       </c>
       <c r="J230" t="s">
         <v>95</v>
       </c>
       <c r="K230">
-        <v>-1.419454233020301</v>
+        <v>-0.6712025097148966</v>
       </c>
       <c r="L230">
-        <v>-3.266055052670847</v>
+        <v>-2.638835979487775</v>
       </c>
       <c r="M230">
-        <v>2.139003525332295</v>
+        <v>1.808546195345251</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10139,25 +10139,25 @@
         <v>95</v>
       </c>
       <c r="G231">
-        <v>-14.33962889264121</v>
+        <v>-13.3316941271005</v>
       </c>
       <c r="H231">
-        <v>-17.27029402710341</v>
+        <v>-16.15973108174557</v>
       </c>
       <c r="I231">
-        <v>-8.856269938981496</v>
+        <v>-8.14563330405092</v>
       </c>
       <c r="J231" t="s">
         <v>95</v>
       </c>
       <c r="K231">
-        <v>-15.97442197249974</v>
+        <v>-14.98572322891825</v>
       </c>
       <c r="L231">
-        <v>-18.8491565638267</v>
+        <v>-17.75978825718392</v>
       </c>
       <c r="M231">
-        <v>-10.5957106774474</v>
+        <v>-9.898636251482994</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10180,25 +10180,25 @@
         <v>95</v>
       </c>
       <c r="G232">
-        <v>-8.163629270431821</v>
+        <v>-6.30337913106517</v>
       </c>
       <c r="H232">
-        <v>-10.57073240947234</v>
+        <v>-9.088357501841003</v>
       </c>
       <c r="I232">
-        <v>-3.062654929174526</v>
+        <v>-3.028971240533494</v>
       </c>
       <c r="J232" t="s">
         <v>95</v>
       </c>
       <c r="K232">
-        <v>-9.68271010724825</v>
+        <v>-7.853230677960276</v>
       </c>
       <c r="L232">
-        <v>-12.04999694887079</v>
+        <v>-10.59214225362667</v>
       </c>
       <c r="M232">
-        <v>-4.666111839537179</v>
+        <v>-4.632985318448846</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10221,25 +10221,25 @@
         <v>95</v>
       </c>
       <c r="G233">
-        <v>-3.095856829467032</v>
+        <v>-2.065033932563472</v>
       </c>
       <c r="H233">
-        <v>-5.502446309179803</v>
+        <v>-4.237811295751674</v>
       </c>
       <c r="I233">
-        <v>1.898962484781095</v>
+        <v>1.735412386716901</v>
       </c>
       <c r="J233" t="s">
         <v>95</v>
       </c>
       <c r="K233">
-        <v>-4.575433573111154</v>
+        <v>-3.560349751289138</v>
       </c>
       <c r="L233">
-        <v>-6.945278144823275</v>
+        <v>-5.699952156725196</v>
       </c>
       <c r="M233">
-        <v>0.3431225571876695</v>
+        <v>0.1820696167639912</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10262,25 +10262,25 @@
         <v>95</v>
       </c>
       <c r="G234">
-        <v>-3.91962941853877</v>
+        <v>-3.223176720866871</v>
       </c>
       <c r="H234">
-        <v>-6.828248159272198</v>
+        <v>-5.651515542841361</v>
       </c>
       <c r="I234">
-        <v>0.05167124664714002</v>
+        <v>-0.7281370749343548</v>
       </c>
       <c r="J234" t="s">
         <v>95</v>
       </c>
       <c r="K234">
-        <v>-6.543400623016948</v>
+        <v>-5.865966716825277</v>
       </c>
       <c r="L234">
-        <v>-9.372590547535808</v>
+        <v>-8.227992248819149</v>
       </c>
       <c r="M234">
-        <v>-2.680548585439169</v>
+        <v>-3.439061832836454</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10303,25 +10303,25 @@
         <v>95</v>
       </c>
       <c r="G235">
-        <v>-2.635597221267027</v>
+        <v>-2.368866215561514</v>
       </c>
       <c r="H235">
-        <v>-4.516638188670395</v>
+        <v>-4.908589435513297</v>
       </c>
       <c r="I235">
-        <v>0.8550182350513889</v>
+        <v>0.1115503273266035</v>
       </c>
       <c r="J235" t="s">
         <v>95</v>
       </c>
       <c r="K235">
-        <v>-4.938048206070533</v>
+        <v>-4.677624793789692</v>
       </c>
       <c r="L235">
-        <v>-6.774606749669632</v>
+        <v>-7.157289223649633</v>
       </c>
       <c r="M235">
-        <v>-1.529978020565681</v>
+        <v>-2.255864570345911</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10344,25 +10344,25 @@
         <v>96</v>
       </c>
       <c r="G236">
-        <v>2.762792846882486</v>
+        <v>3.270824178075684</v>
       </c>
       <c r="H236">
-        <v>1.419096035795178</v>
+        <v>2.076922132286728</v>
       </c>
       <c r="I236">
-        <v>3.722440508707614</v>
+        <v>4.237244621399907</v>
       </c>
       <c r="J236" t="s">
         <v>96</v>
       </c>
       <c r="K236">
-        <v>-1.043848840234718</v>
+        <v>-0.554636511426565</v>
       </c>
       <c r="L236">
-        <v>-2.337771096210883</v>
+        <v>-1.704312848941869</v>
       </c>
       <c r="M236">
-        <v>-0.1197494025600432</v>
+        <v>0.375984823631681</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10385,25 +10385,25 @@
         <v>96</v>
       </c>
       <c r="G237">
-        <v>-20.63953745730025</v>
+        <v>-18.78244654402429</v>
       </c>
       <c r="H237">
-        <v>-23.06668244757577</v>
+        <v>-21.37138161599032</v>
       </c>
       <c r="I237">
-        <v>-17.40390405717437</v>
+        <v>-15.95239911815384</v>
       </c>
       <c r="J237" t="s">
         <v>96</v>
       </c>
       <c r="K237">
-        <v>-23.47471116125434</v>
+        <v>-21.68396531647314</v>
       </c>
       <c r="L237">
-        <v>-25.81514574899899</v>
+        <v>-24.18040999206159</v>
       </c>
       <c r="M237">
-        <v>-20.35467162786955</v>
+        <v>-18.95502209017127</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10426,25 +10426,25 @@
         <v>96</v>
       </c>
       <c r="G238">
-        <v>-9.348077524846042</v>
+        <v>-7.45841221224176</v>
       </c>
       <c r="H238">
-        <v>-11.1322319148503</v>
+        <v>-8.853459276256713</v>
       </c>
       <c r="I238">
-        <v>-8.128185044313476</v>
+        <v>-5.477963198352665</v>
       </c>
       <c r="J238" t="s">
         <v>96</v>
       </c>
       <c r="K238">
-        <v>-12.50455282434405</v>
+        <v>-10.68068514427413</v>
       </c>
       <c r="L238">
-        <v>-14.22658344345881</v>
+        <v>-12.02715704872302</v>
       </c>
       <c r="M238">
-        <v>-11.32713666839136</v>
+        <v>-8.769194826721227</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10467,25 +10467,25 @@
         <v>96</v>
       </c>
       <c r="G239">
-        <v>-7.303466268086685</v>
+        <v>-5.820275635595431</v>
       </c>
       <c r="H239">
-        <v>-8.348617221831566</v>
+        <v>-6.913582034031093</v>
       </c>
       <c r="I239">
-        <v>-5.733744802662694</v>
+        <v>-3.278187444926472</v>
       </c>
       <c r="J239" t="s">
         <v>96</v>
       </c>
       <c r="K239">
-        <v>-10.39449544328192</v>
+        <v>-8.960762814589007</v>
       </c>
       <c r="L239">
-        <v>-11.40479512524297</v>
+        <v>-10.01761216507543</v>
       </c>
       <c r="M239">
-        <v>-8.877117411330726</v>
+        <v>-6.503442289407968</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10508,25 +10508,25 @@
         <v>96</v>
       </c>
       <c r="G240">
-        <v>-7.907312526506193</v>
+        <v>-6.057857805503965</v>
       </c>
       <c r="H240">
-        <v>-9.104593125780349</v>
+        <v>-7.56374737419357</v>
       </c>
       <c r="I240">
-        <v>-5.20674706233544</v>
+        <v>-2.350964234859319</v>
       </c>
       <c r="J240" t="s">
         <v>96</v>
       </c>
       <c r="K240">
-        <v>-10.84256769219105</v>
+        <v>-9.052060339024992</v>
       </c>
       <c r="L240">
-        <v>-12.00168756274497</v>
+        <v>-10.50995293578652</v>
       </c>
       <c r="M240">
-        <v>-8.22807690937063</v>
+        <v>-5.463315980879013</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10549,25 +10549,25 @@
         <v>96</v>
       </c>
       <c r="G241">
-        <v>-6.783963265522459</v>
+        <v>-5.861386540853257</v>
       </c>
       <c r="H241">
-        <v>-7.975053629989131</v>
+        <v>-7.173196702281911</v>
       </c>
       <c r="I241">
-        <v>-4.040277581867365</v>
+        <v>-2.502723719832454</v>
       </c>
       <c r="J241" t="s">
         <v>96</v>
       </c>
       <c r="K241">
-        <v>-9.72202064409271</v>
+        <v>-8.82852242831712</v>
       </c>
       <c r="L241">
-        <v>-10.87556927264721</v>
+        <v>-10.09898591100801</v>
       </c>
       <c r="M241">
-        <v>-7.064812633697882</v>
+        <v>-5.575720620370062</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10590,25 +10590,25 @@
         <v>97</v>
       </c>
       <c r="G242">
-        <v>3.564166273801892</v>
+        <v>3.465997843241373</v>
       </c>
       <c r="H242">
-        <v>2.594901041382902</v>
+        <v>2.674539879335855</v>
       </c>
       <c r="I242">
-        <v>4.813015640822778</v>
+        <v>4.81568407598323</v>
       </c>
       <c r="J242" t="s">
         <v>97</v>
       </c>
       <c r="K242">
-        <v>0.8287066182708136</v>
+        <v>0.7331311287912534</v>
       </c>
       <c r="L242">
-        <v>-0.1149572306369806</v>
+        <v>-0.03742190817662694</v>
       </c>
       <c r="M242">
-        <v>2.044569893844872</v>
+        <v>2.04716784712935</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10631,25 +10631,25 @@
         <v>97</v>
       </c>
       <c r="G243">
-        <v>-5.246578737373229</v>
+        <v>-5.580377535896583</v>
       </c>
       <c r="H243">
-        <v>-6.668975026572416</v>
+        <v>-7.308379530312032</v>
       </c>
       <c r="I243">
-        <v>-2.555886603562638</v>
+        <v>-3.735200414088974</v>
       </c>
       <c r="J243" t="s">
         <v>97</v>
       </c>
       <c r="K243">
-        <v>-7.442857433065109</v>
+        <v>-7.768919147480302</v>
       </c>
       <c r="L243">
-        <v>-8.832284161638714</v>
+        <v>-9.456867981641736</v>
       </c>
       <c r="M243">
-        <v>-4.81453254395563</v>
+        <v>-5.966511174779942</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10672,25 +10672,25 @@
         <v>97</v>
       </c>
       <c r="G244">
-        <v>-1.034485044901709</v>
+        <v>-1.595459434691054</v>
       </c>
       <c r="H244">
-        <v>-3.02738850001568</v>
+        <v>-3.325390376435351</v>
       </c>
       <c r="I244">
-        <v>0.931708334278542</v>
+        <v>-0.2969506937001141</v>
       </c>
       <c r="J244" t="s">
         <v>97</v>
       </c>
       <c r="K244">
-        <v>-4.077625147628394</v>
+        <v>-4.621349855415414</v>
       </c>
       <c r="L244">
-        <v>-6.009247817936947</v>
+        <v>-6.298086285655802</v>
       </c>
       <c r="M244">
-        <v>-2.17189123177346</v>
+        <v>-3.362769608963645</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10713,25 +10713,25 @@
         <v>97</v>
       </c>
       <c r="G245">
-        <v>-0.2306813407866591</v>
+        <v>1.088583236216063</v>
       </c>
       <c r="H245">
-        <v>-1.65201391663294</v>
+        <v>-0.1021094422639791</v>
       </c>
       <c r="I245">
-        <v>1.03862796505683</v>
+        <v>2.280403378251979</v>
       </c>
       <c r="J245" t="s">
         <v>97</v>
       </c>
       <c r="K245">
-        <v>-2.31654703518791</v>
+        <v>-1.02486417128087</v>
       </c>
       <c r="L245">
-        <v>-3.708163974001344</v>
+        <v>-2.190663174591079</v>
       </c>
       <c r="M245">
-        <v>-1.07377503331948</v>
+        <v>0.1420387238340703</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10754,25 +10754,25 @@
         <v>97</v>
       </c>
       <c r="G246">
-        <v>0.6652199835068056</v>
+        <v>1.157302640325228</v>
       </c>
       <c r="H246">
-        <v>-0.365918097697695</v>
+        <v>0.07263989760778428</v>
       </c>
       <c r="I246">
-        <v>3.087157999325208</v>
+        <v>2.891594617773076</v>
       </c>
       <c r="J246" t="s">
         <v>97</v>
       </c>
       <c r="K246">
-        <v>-1.655265079906953</v>
+        <v>-1.174525670093796</v>
       </c>
       <c r="L246">
-        <v>-2.66263387400173</v>
+        <v>-2.234185301570557</v>
       </c>
       <c r="M246">
-        <v>0.7108436138164809</v>
+        <v>0.5197882630014528</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10795,25 +10795,25 @@
         <v>97</v>
       </c>
       <c r="G247">
-        <v>0.3018943016823096</v>
+        <v>-0.4995691899719281</v>
       </c>
       <c r="H247">
-        <v>-0.69617878578322</v>
+        <v>-1.355093246759547</v>
       </c>
       <c r="I247">
-        <v>2.397705150279306</v>
+        <v>0.7724265071617464</v>
       </c>
       <c r="J247" t="s">
         <v>97</v>
       </c>
       <c r="K247">
-        <v>-2.174968495821739</v>
+        <v>-2.956640585530301</v>
       </c>
       <c r="L247">
-        <v>-3.148395088654787</v>
+        <v>-3.791038264562252</v>
       </c>
       <c r="M247">
-        <v>-0.1309117637111279</v>
+        <v>-1.716055649307491</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10836,25 +10836,25 @@
         <v>98</v>
       </c>
       <c r="G248">
-        <v>3.174021217526469</v>
+        <v>3.829754801003523</v>
       </c>
       <c r="H248">
-        <v>2.381812551398454</v>
+        <v>3.031465069132239</v>
       </c>
       <c r="I248">
-        <v>3.860830725175298</v>
+        <v>4.852821720868095</v>
       </c>
       <c r="J248" t="s">
         <v>98</v>
       </c>
       <c r="K248">
-        <v>1.076016538814395</v>
+        <v>1.718416028011793</v>
       </c>
       <c r="L248">
-        <v>0.2999171361272923</v>
+        <v>0.9363592157521694</v>
       </c>
       <c r="M248">
-        <v>1.74886003502519</v>
+        <v>2.720679269206272</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10877,25 +10877,25 @@
         <v>98</v>
       </c>
       <c r="G249">
-        <v>-9.255295491658316</v>
+        <v>-7.898109981428236</v>
       </c>
       <c r="H249">
-        <v>-11.2056577676682</v>
+        <v>-9.964273791486033</v>
       </c>
       <c r="I249">
-        <v>-7.588564843090801</v>
+        <v>-5.852842147477664</v>
       </c>
       <c r="J249" t="s">
         <v>98</v>
       </c>
       <c r="K249">
-        <v>-10.75709123589118</v>
+        <v>-9.422366710403319</v>
       </c>
       <c r="L249">
-        <v>-12.67517564200559</v>
+        <v>-11.45433617233199</v>
       </c>
       <c r="M249">
-        <v>-9.117944444788018</v>
+        <v>-7.410947402881762</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10918,25 +10918,25 @@
         <v>98</v>
       </c>
       <c r="G250">
-        <v>-1.248535969769159</v>
+        <v>-0.5957519562647491</v>
       </c>
       <c r="H250">
-        <v>-2.567507141480736</v>
+        <v>-2.057020624918598</v>
       </c>
       <c r="I250">
-        <v>-0.2647108797091726</v>
+        <v>0.7654761329701245</v>
       </c>
       <c r="J250" t="s">
         <v>98</v>
       </c>
       <c r="K250">
-        <v>-3.453019304766092</v>
+        <v>-2.814807748422232</v>
       </c>
       <c r="L250">
-        <v>-4.742546356373389</v>
+        <v>-4.243455711554045</v>
       </c>
       <c r="M250">
-        <v>-2.491156684193396</v>
+        <v>-1.48396710374139</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10959,25 +10959,25 @@
         <v>98</v>
       </c>
       <c r="G251">
-        <v>-0.6437075376671557</v>
+        <v>-0.4704406898750279</v>
       </c>
       <c r="H251">
-        <v>-2.004460490856057</v>
+        <v>-1.714649197337031</v>
       </c>
       <c r="I251">
-        <v>0.4629278439222005</v>
+        <v>0.530233846745318</v>
       </c>
       <c r="J251" t="s">
         <v>98</v>
       </c>
       <c r="K251">
-        <v>-3.140860618095886</v>
+        <v>-2.971948540716152</v>
       </c>
       <c r="L251">
-        <v>-4.467413337514525</v>
+        <v>-4.184885962773244</v>
       </c>
       <c r="M251">
-        <v>-2.062038653086018</v>
+        <v>-1.996424273290653</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11000,25 +11000,25 @@
         <v>98</v>
       </c>
       <c r="G252">
-        <v>-0.5424317617613421</v>
+        <v>0.3132459262793981</v>
       </c>
       <c r="H252">
-        <v>-1.799289378784344</v>
+        <v>-1.029859565665812</v>
       </c>
       <c r="I252">
-        <v>1.056012534104055</v>
+        <v>1.719671887422912</v>
       </c>
       <c r="J252" t="s">
         <v>98</v>
       </c>
       <c r="K252">
-        <v>-2.866519671286338</v>
+        <v>-2.030837145046294</v>
       </c>
       <c r="L252">
-        <v>-4.094007501339281</v>
+        <v>-3.342557441371496</v>
       </c>
       <c r="M252">
-        <v>-1.30542723438829</v>
+        <v>-0.6572760289802915</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11041,25 +11041,25 @@
         <v>98</v>
       </c>
       <c r="G253">
-        <v>-0.2699016638326697</v>
+        <v>0.6541767482289412</v>
       </c>
       <c r="H253">
-        <v>-1.366430248768471</v>
+        <v>-0.3490234058408179</v>
       </c>
       <c r="I253">
-        <v>0.7973218463477749</v>
+        <v>1.737897927718617</v>
       </c>
       <c r="J253" t="s">
         <v>98</v>
       </c>
       <c r="K253">
-        <v>-2.594382402076711</v>
+        <v>-1.691842146552591</v>
       </c>
       <c r="L253">
-        <v>-3.665353410943284</v>
+        <v>-2.671659997048581</v>
       </c>
       <c r="M253">
-        <v>-1.552033433626421</v>
+        <v>-0.6333800317723459</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11082,25 +11082,25 @@
         <v>99</v>
       </c>
       <c r="G254">
-        <v>5.11582600088527</v>
+        <v>5.135565560552087</v>
       </c>
       <c r="H254">
-        <v>3.48762267797939</v>
+        <v>3.33331486563981</v>
       </c>
       <c r="I254">
-        <v>7.873522029483433</v>
+        <v>7.871745940483422</v>
       </c>
       <c r="J254" t="s">
         <v>99</v>
       </c>
       <c r="K254">
-        <v>4.119298887098455</v>
+        <v>4.138851310278113</v>
       </c>
       <c r="L254">
-        <v>2.506531382182731</v>
+        <v>2.353686450597792</v>
       </c>
       <c r="M254">
-        <v>6.850851194350072</v>
+        <v>6.849091943165186</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11123,25 +11123,25 @@
         <v>99</v>
       </c>
       <c r="G255">
-        <v>-6.91576405747585</v>
+        <v>-7.326254126096642</v>
       </c>
       <c r="H255">
-        <v>-11.59478886408125</v>
+        <v>-11.13101838916011</v>
       </c>
       <c r="I255">
-        <v>0.7392510231993176</v>
+        <v>-0.5398205697607824</v>
       </c>
       <c r="J255" t="s">
         <v>99</v>
       </c>
       <c r="K255">
-        <v>-8.299766264467978</v>
+        <v>-8.704153053031016</v>
       </c>
       <c r="L255">
-        <v>-12.90922203402492</v>
+        <v>-12.45234702700261</v>
       </c>
       <c r="M255">
-        <v>-0.758568068670662</v>
+        <v>-2.018622070847176</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11164,25 +11164,25 @@
         <v>99</v>
       </c>
       <c r="G256">
-        <v>3.175001294573861</v>
+        <v>2.402158946351348</v>
       </c>
       <c r="H256">
-        <v>-2.526108899282562</v>
+        <v>-2.130815874914074</v>
       </c>
       <c r="I256">
-        <v>6.1329510735896</v>
+        <v>6.003711644257125</v>
       </c>
       <c r="J256" t="s">
         <v>99</v>
       </c>
       <c r="K256">
-        <v>-0.5169738933376355</v>
+        <v>-1.262161143542206</v>
       </c>
       <c r="L256">
-        <v>-6.014077718256184</v>
+        <v>-5.632929709827716</v>
       </c>
       <c r="M256">
-        <v>2.335129730561158</v>
+        <v>2.210514956042453</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11205,25 +11205,25 @@
         <v>99</v>
       </c>
       <c r="G257">
-        <v>8.522672508698854</v>
+        <v>8.230518301549568</v>
       </c>
       <c r="H257">
-        <v>-2.397186946635847</v>
+        <v>-0.2138143519523642</v>
       </c>
       <c r="I257">
-        <v>11.27908220380997</v>
+        <v>11.09702183406541</v>
       </c>
       <c r="J257" t="s">
         <v>99</v>
       </c>
       <c r="K257">
-        <v>0.9978932164448562</v>
+        <v>0.725996489850389</v>
       </c>
       <c r="L257">
-        <v>-9.164801580074045</v>
+        <v>-7.132820362952086</v>
       </c>
       <c r="M257">
-        <v>3.563178106800757</v>
+        <v>3.393741496391689</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11246,25 +11246,25 @@
         <v>99</v>
       </c>
       <c r="G258">
-        <v>8.242461913574145</v>
+        <v>8.152444665551723</v>
       </c>
       <c r="H258">
-        <v>-4.428492666760742</v>
+        <v>-2.706979593810147</v>
       </c>
       <c r="I258">
-        <v>11.52679790770248</v>
+        <v>11.79283836362568</v>
       </c>
       <c r="J258" t="s">
         <v>99</v>
       </c>
       <c r="K258">
-        <v>1.506455358114889</v>
+        <v>1.422039948428955</v>
       </c>
       <c r="L258">
-        <v>-10.37597657031273</v>
+        <v>-8.761594498816649</v>
       </c>
       <c r="M258">
-        <v>4.586404752052609</v>
+        <v>4.835889318323661</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11287,25 +11287,25 @@
         <v>99</v>
       </c>
       <c r="G259">
-        <v>4.833421815930489</v>
+        <v>4.997939879819485</v>
       </c>
       <c r="H259">
-        <v>-5.373032642536828</v>
+        <v>-2.931507342481621</v>
       </c>
       <c r="I259">
-        <v>8.565271137504048</v>
+        <v>8.725472717750135</v>
       </c>
       <c r="J259" t="s">
         <v>99</v>
       </c>
       <c r="K259">
-        <v>-1.291657982242211</v>
+        <v>-1.136752179902112</v>
       </c>
       <c r="L259">
-        <v>-10.90178212036289</v>
+        <v>-8.602907294107476</v>
       </c>
       <c r="M259">
-        <v>2.222151381334658</v>
+        <v>2.372992898293624</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11328,25 +11328,25 @@
         <v>100</v>
       </c>
       <c r="G260">
-        <v>2.073151391098446</v>
+        <v>1.881211897136015</v>
       </c>
       <c r="H260">
-        <v>1.368209130920568</v>
+        <v>1.027664630299691</v>
       </c>
       <c r="I260">
-        <v>3.271816125561481</v>
+        <v>2.824516599265502</v>
       </c>
       <c r="J260" t="s">
         <v>100</v>
       </c>
       <c r="K260">
-        <v>-0.4033853076295002</v>
+        <v>-0.5906678943224386</v>
       </c>
       <c r="L260">
-        <v>-1.091223996946467</v>
+        <v>-1.423506080449388</v>
       </c>
       <c r="M260">
-        <v>0.7661969779827693</v>
+        <v>0.3297499988757169</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11369,25 +11369,25 @@
         <v>100</v>
       </c>
       <c r="G261">
-        <v>-15.749438426276</v>
+        <v>-16.42588580840445</v>
       </c>
       <c r="H261">
-        <v>-19.10434214069324</v>
+        <v>-18.93183998561119</v>
       </c>
       <c r="I261">
-        <v>-9.566483346183322</v>
+        <v>-10.12591648140534</v>
       </c>
       <c r="J261" t="s">
         <v>100</v>
       </c>
       <c r="K261">
-        <v>-17.66625784665586</v>
+        <v>-18.32731509422961</v>
       </c>
       <c r="L261">
-        <v>-20.94483275716748</v>
+        <v>-20.77625527006084</v>
       </c>
       <c r="M261">
-        <v>-11.62397373838202</v>
+        <v>-12.17067897864444</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11410,25 +11410,25 @@
         <v>100</v>
       </c>
       <c r="G262">
-        <v>-8.787435681855841</v>
+        <v>-8.52819667168013</v>
       </c>
       <c r="H262">
-        <v>-10.48359417071961</v>
+        <v>-9.991261076922875</v>
       </c>
       <c r="I262">
-        <v>-4.422412863938368</v>
+        <v>-5.096282232935398</v>
       </c>
       <c r="J262" t="s">
         <v>100</v>
       </c>
       <c r="K262">
-        <v>-10.64663403897529</v>
+        <v>-10.39267913352159</v>
       </c>
       <c r="L262">
-        <v>-12.308219493965</v>
+        <v>-11.8259216939459</v>
       </c>
       <c r="M262">
-        <v>-6.370584086940134</v>
+        <v>-7.03071788306826</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11451,25 +11451,25 @@
         <v>100</v>
       </c>
       <c r="G263">
-        <v>-5.309737347211645</v>
+        <v>-4.89658581126368</v>
       </c>
       <c r="H263">
-        <v>-6.559483180762609</v>
+        <v>-5.870317735946772</v>
       </c>
       <c r="I263">
-        <v>-3.493764700917583</v>
+        <v>-3.431017220509609</v>
       </c>
       <c r="J263" t="s">
         <v>100</v>
       </c>
       <c r="K263">
-        <v>-7.296288871789979</v>
+        <v>-6.891805036095722</v>
       </c>
       <c r="L263">
-        <v>-8.519815700118837</v>
+        <v>-7.845108581077276</v>
       </c>
       <c r="M263">
-        <v>-5.518414369148939</v>
+        <v>-5.456983297623741</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11492,25 +11492,25 @@
         <v>100</v>
       </c>
       <c r="G264">
-        <v>-6.903295390526144</v>
+        <v>-6.768732787116117</v>
       </c>
       <c r="H264">
-        <v>-8.179262885757627</v>
+        <v>-7.896510228649377</v>
       </c>
       <c r="I264">
-        <v>-3.574341856250634</v>
+        <v>-4.704289128472745</v>
       </c>
       <c r="J264" t="s">
         <v>100</v>
       </c>
       <c r="K264">
-        <v>-8.564560755108985</v>
+        <v>-8.432399355837717</v>
       </c>
       <c r="L264">
-        <v>-9.81775923166196</v>
+        <v>-9.540052158046352</v>
       </c>
       <c r="M264">
-        <v>-5.295010775771281</v>
+        <v>-6.404794689096627</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11533,25 +11533,25 @@
         <v>100</v>
       </c>
       <c r="G265">
-        <v>-4.397562406605478</v>
+        <v>-4.240684875579226</v>
       </c>
       <c r="H265">
-        <v>-5.895776259151971</v>
+        <v>-5.201068417857675</v>
       </c>
       <c r="I265">
-        <v>-3.163708214059966</v>
+        <v>-3.057129998570217</v>
       </c>
       <c r="J265" t="s">
         <v>100</v>
       </c>
       <c r="K265">
-        <v>-6.54510869594035</v>
+        <v>-6.391755152043666</v>
       </c>
       <c r="L265">
-        <v>-8.009667720423241</v>
+        <v>-7.330565310165015</v>
       </c>
       <c r="M265">
-        <v>-5.338970940961529</v>
+        <v>-5.234786823958815</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11574,25 +11574,25 @@
         <v>101</v>
       </c>
       <c r="G266">
-        <v>4.692800797509233</v>
+        <v>3.935765107154288</v>
       </c>
       <c r="H266">
-        <v>3.882905774406513</v>
+        <v>2.883596697087429</v>
       </c>
       <c r="I266">
-        <v>5.401195462605556</v>
+        <v>4.759798574522417</v>
       </c>
       <c r="J266" t="s">
         <v>101</v>
       </c>
       <c r="K266">
-        <v>-0.0602355907348695</v>
+        <v>-0.7829019819971417</v>
       </c>
       <c r="L266">
-        <v>-0.8333615095043156</v>
+        <v>-1.787302114765943</v>
       </c>
       <c r="M266">
-        <v>0.6159980700250367</v>
+        <v>0.003720497932535594</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11615,25 +11615,25 @@
         <v>101</v>
       </c>
       <c r="G267">
-        <v>-6.467302719025575</v>
+        <v>-6.272844822713072</v>
       </c>
       <c r="H267">
-        <v>-9.841539030961609</v>
+        <v>-9.451325621289151</v>
       </c>
       <c r="I267">
-        <v>-4.280807337277545</v>
+        <v>-3.671316501556448</v>
       </c>
       <c r="J267" t="s">
         <v>101</v>
       </c>
       <c r="K267">
-        <v>-10.35371768329768</v>
+        <v>-10.16733978574625</v>
       </c>
       <c r="L267">
-        <v>-13.58774973643527</v>
+        <v>-13.21375024209613</v>
       </c>
       <c r="M267">
-        <v>-8.258074256191893</v>
+        <v>-7.673908620891535</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11656,25 +11656,25 @@
         <v>101</v>
       </c>
       <c r="G268">
-        <v>-3.199591944006294</v>
+        <v>-3.519715180122053</v>
       </c>
       <c r="H268">
-        <v>-6.927996106560443</v>
+        <v>-7.168199152590609</v>
       </c>
       <c r="I268">
-        <v>-1.336308560766671</v>
+        <v>-1.442199334904074</v>
       </c>
       <c r="J268" t="s">
         <v>101</v>
       </c>
       <c r="K268">
-        <v>-6.985895106282058</v>
+        <v>-7.29349687016888</v>
       </c>
       <c r="L268">
-        <v>-10.56846446550815</v>
+        <v>-10.79927208055785</v>
       </c>
       <c r="M268">
-        <v>-5.195493190257904</v>
+        <v>-5.297242095770727</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11697,25 +11697,25 @@
         <v>101</v>
       </c>
       <c r="G269">
-        <v>-0.01627072696499774</v>
+        <v>-0.00519319736422845</v>
       </c>
       <c r="H269">
-        <v>-2.037565942688162</v>
+        <v>-1.535270099071349</v>
       </c>
       <c r="I269">
-        <v>1.562987016547577</v>
+        <v>1.247188785585831</v>
       </c>
       <c r="J269" t="s">
         <v>101</v>
       </c>
       <c r="K269">
-        <v>-4.135246738912368</v>
+        <v>-4.124625564350848</v>
       </c>
       <c r="L269">
-        <v>-6.073271740900132</v>
+        <v>-5.591668709461883</v>
       </c>
       <c r="M269">
-        <v>-2.621048828729744</v>
+        <v>-2.923837289527842</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11738,25 +11738,25 @@
         <v>101</v>
       </c>
       <c r="G270">
-        <v>0.9169155770084092</v>
+        <v>0.7017288932930364</v>
       </c>
       <c r="H270">
-        <v>-0.2729032098117435</v>
+        <v>-0.2891204519046139</v>
       </c>
       <c r="I270">
-        <v>2.319589511635905</v>
+        <v>1.929051029097042</v>
       </c>
       <c r="J270" t="s">
         <v>101</v>
       </c>
       <c r="K270">
-        <v>-2.978922762257352</v>
+        <v>-3.18580229025236</v>
       </c>
       <c r="L270">
-        <v>-4.12280929262705</v>
+        <v>-4.138400477600146</v>
       </c>
       <c r="M270">
-        <v>-1.630398232224373</v>
+        <v>-2.005860205691057</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11779,25 +11779,25 @@
         <v>101</v>
       </c>
       <c r="G271">
-        <v>2.254714285802292</v>
+        <v>2.150204689281773</v>
       </c>
       <c r="H271">
-        <v>1.079165772551475</v>
+        <v>1.099071775732678</v>
       </c>
       <c r="I271">
-        <v>3.806292919555816</v>
+        <v>3.242750992670227</v>
       </c>
       <c r="J271" t="s">
         <v>101</v>
       </c>
       <c r="K271">
-        <v>-1.697383127242125</v>
+        <v>-1.797853476194133</v>
       </c>
       <c r="L271">
-        <v>-2.827497234161891</v>
+        <v>-2.808360588796865</v>
       </c>
       <c r="M271">
-        <v>-0.2057722900583925</v>
+        <v>-0.7475335821151341</v>
       </c>
     </row>
   </sheetData>
